--- a/output/Total_time_range_data/江西省/吉安市_学习考察.xlsx
+++ b/output/Total_time_range_data/江西省/吉安市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,4478 +436,4900 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>125</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>增加泊位供给布局充电设施我市提升服务品质方便市民出行</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-12-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-84950.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['（记者范小勇）“现在有了立体停车库，停车很方便！”12月18日，吉州区长塘镇刘先生从市中心人民医院内部东北角立体停车库出来说。他患有慢性病，经常上医院就诊，之前停车不太方便。市中心人民医院立体停车库投入使用后，提供了418个停车泊位，大大缓解了市中心人民医院停车难情况。自第二批主题教育开展以来，我市围绕群众关切的停车难、充电难等问题谋实招，想方设法让群众得实惠享便利。', '市新庐陵公司聚焦停车场建设，增加有效供给，开展了市中心城区停车场现状摸排工作，按规模、地区、原管理方分类，逐步铺开停车场承接工作，加大与政府相关部门的沟通力度，争取政策支持，通过筹集停车场建设资金，累计投资6.59亿元承接了市中心城区54个停车场的建设运营，目前已投入运营停车场53个、泊位5700余个，其中路内收费2个路段，泊位51个，实现了停车总泊位数量倍增。', '“二楼，C区113号。”近日，在市中心城区鹭洲东路立体停车库，市民黄兰在手机小程序上输入车牌号轻松地找到了自己的停车位，这是我市智慧停车的一个小小缩影。我市转变传统停车场运营思维，大胆实施数字化赋能经营策略，推进城市智慧停车体系搭建工作，创建并完善“吉安智慧停车”小程序功能，成功接入全市27428个泊位，满足了快速查找最佳停车点、手机远程支付等诉求，减少群众出行找车位、排队等候支付时间。在吉州区阳明西路，市新庐陵公司还打造了吉安市智慧停车指挥中心，通过综合分析全市停车信息、动态可视化展示功能，平台智慧“停车大脑”整合全市停车资源协同共享至吉安市“城市大脑”，同步提升客服能力，实现了24小时服务车主不停歇。', '我市还着力建设充电生态圈，通过外出学习考察、充分调研分析、考虑后期市场需求，及时调整充电网布局，从长远发展角度审定充电站的投建，在市中心城区鹭洲东路立体停车库、阳明西路地下停车场等地布局新能源充电桩，鹭洲东路立体停车场的新能源汽车充电桩示范点内设10根直流新能源汽车充电桩，每天可服务车辆100次。截至目前，市新庐陵公司新建成并投入使用新能源充电场站达到37个，已完成鹭洲东路、和气路、阳明西路交警西侧、吉福路口停车场等汽车充电桩建设并投入运营，其中在市中心城区投放140根充电桩，建成18个新能源充电站。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>125</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>全国人大代表市委书记罗文江接受香港商报专访打造全国革命老区重点城市对口合作典范</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-86854.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['吉安市人民政府 全国人大代表、市委书记罗文江接受《香港商报》专访 打造全国革命老区重点城市对口合作典范', '全国人大代表、市委书记罗文江接受《香港商报》专访 打造全国革命老区重点城市对口合作典范', '2023年10月，习近平总书记考察江西时强调，要深化对内对外开放，以开放促发展，打造内陆地区改革开放高地，主动服务和融入新发展格局。处在赣中腹地的吉安，将如何释放开放信号，打好对口合作的联动牌？2024年全国两会期间，全国人大代表、吉安市委书记罗文江接受《香港商报》专访，讲述老区和湾区双向奔赴的动人故事。', '粤港澳大湾区是我国开放程度最高、经济活力最强的区域之一，也是吉安市开放发展对接的主要方向。2022年5月，国家发改委印发《革命老区重点城市对口合作工作方案》，明确东莞市和吉安市建立对口合作关系，为吉安革命老区融入湾区、推动高质量发展带来重大机遇。', '好风凭借力，吉安市抢抓政策机遇、主动对接，与东莞市共商合作、共谋发展、双向奔赴，对口合作不断走深走实。', '2023年2月，广东和江西两省联合印发了《东莞市与吉安市对口合作实施方案（2023-2027年）》，明确双方以传承弘扬红色文化和深化文旅合作、统筹推进乡村振兴和新型城镇化、完善基本公共服务、促进生态环境保护修复和绿色低碳发展、深化产业合作发展、拓展科技创新合作发展为重点的6个方面、22条具体举措。此外吉安进一步具体化、项目化，先后推进2批次9个方面55个具体合作事项。目前，吉安各县（市、区）均与东莞市镇、街（园区）开展结对合作，两地40多个部门签订合作协议，对口合作向宽领域、多层次拓展。', '同时，吉安、东莞两地建立起常态化合作机制，实行联席会议、会晤交流、协调会议三级联动工作机制。2023年8月和2024年3月，先后在东莞、吉安召开了2次对口合作联席会议，两地党政代表团开展互访交流、学习考察，各级干部互访交流150余次，去年派出第一批干部到东莞跟岗锻炼，今年第二批也即将到岗。两地还签订了专家人才库建设共享合作协议，常态化组织专家人才合作交流。', '耕耘不负，终结硕果。目前，两地在推进产业互融、游客互送、干部互派、民生互惠等方面都取得了显著成效。', '电子信息是两地的主导产业，吉安市积极推动产业链供应链合作，吉安42家企业与东莞142家企业建立合作关系，东莞松山湖电子科技大学在吉安组建“电子科技大学吉安实验室”。', '吉安山清水秀、生态良好，优质农产品众多。吉安借此打造“井冈山”农产品区域公用品牌，在东莞举办了品牌发布会，开设了2家旗舰店，两地合作生产的矿泉水投入市场，吉安38家蔬菜水果基地成功认证粤港澳大湾区“菜篮子”，更多吉安优质农产品进入大湾区市场。', '在文旅合作方面，吉安市的4A级以上景区对东莞游客实行半价优惠，并开展了大湾区万人游等活动，积极对接湾区文旅市场。春节期间，两地还联合开展双城腊味节等系列交流活动，人气热、消费旺，增进了两地交流和情感交融。', '跨越山海双向奔赴，合作共赢未来可期，罗文江表示，下一步吉安市将深度融入湾区，深化对口合作，弘扬老区精神，强化湾区思维，走出一条老区融湾区、湾区带老区的新路子，打造全国革命老区重点城市对口合作的样板示范。', '在产业融湾方面，吉安聚焦电子信息、新材料、生物医药等主导产业，深度融入产业分工，积极承接产业转移，开展产业链上下游合作，推进飞地园区建设，加快培育壮大千亿产业集群。', '在科创融湾方面，吉安将更好发挥东莞科创资源优势，推动两地创新平台共建、技术协同攻关，加快建设科创飞地，促进更多创新成果转化、科技企业孵化，发展新质生产力。', '在人才融湾方面，吉安积极推进两地高校人才合作、学术交流和实践教学。深化职业教育合作，共建产业实训基地，推进校企对接、产教融合，培育更多应用型、技能型人才。', '在文旅融湾方面，吉安将常态化开展游客互送、品牌共创、互利共赢，推出红绿古精品旅游线路，加强旅游协会、旅行社对接，让吉安成为大湾区游客的重要旅游目的地。', '在营商环境融湾方面，吉安市坚持大湾区能做的，我们也要能做到，深化政务服务合作，推动更多事项莞吉通办，全力打造对标一流、比肩湾区的营商环境。', '在公共服务融湾方面，吉安深化教育、医疗、文体等领域合作，共建特色专科、优质学科，让老区人民享受大湾区更多优质公共服务。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>125</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>席地而坐城市客厅受青睐</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-86662.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['（全媒体记者吴广城）2月27日，记者在市中心城区城南市民广场附近漫步，只见人行道和游园椅凳上没有一丝灰尘，道路上没有任何垃圾。保洁人员手持铲刀、刷子、钢丝球、干湿抹布等工具，对台阶、角落、绿地边缘等卫生薄弱处实行定时巡回保洁，确保城市客厅“随时随地坐下来，衣裤不会弄脏”。', '市城管局有关负责人说，所谓“席地而坐”，就是指卫生达到“随手可摸、洁净可坐、不脏衣裤”的干净程度，打造“席地而坐城市客厅”是我市高标准推进深度保洁、精细化推进城市管理、常态化推进文明创建的重要举措。', '“回到阔别已久的家乡，心里特别舒坦温暖。尤其是走在街上，眼前呈现的都是干净整洁的场景，这何尝不是一种看得见的幸福。”坐在市民广场游园长凳上休憩的市民刘女士告诉记者，她在天津打工多年，因前几年疫情及其他原因，有四五年没有回家过年。这次回来，觉得家乡面貌大变样，不但城市建筑高端大气上档次，环境也很优美漂亮，就连行走在街头巷尾都赏心悦目，非常干净整洁，随便找个地方坐坐，都不用担心会弄脏衣裤。', '在市中心城区，像刘女士这样在公共场所席地而坐的现象，是我市打造“席地而坐城市客厅”示范区的一个缩影。', '“干净”“整洁”“漂亮”已然成了不少市民和在外打拼的吉安籍游子对这座城市评价的关键词。', '为深入贯彻人民城市理念，推进城市精细化管理，着力提升城区重点区域保洁水平，营造干净、整齐、完好的城市公共环境，我市以庐陵新区为典型经验，于2023年6月印发《吉安市创建“席地而坐城市客厅”实施方案》（以下简称《方案》），按照“室外环境、室内标准”的要求，推行席地而坐环卫理念，落实高标准深度保洁，打造洁净城市。', '《方案》坚持“因地制宜、有序推进、统一谋划、分步实施”原则，在城区范围内，以示范街区、公园广场、旅游景区、重要商圈、交通枢纽、重点道路和重大活动保障区域为重点，对标全国文明城市和国家卫生城市相关标准创建“席地而坐城市客厅”示范区域（道路），实现“四无三见”，即无垃圾杂物、无污渍痰迹、无积尘泥沙、无积水枯叶，市政道路见本色、城市家具见原貌、园林绿化见景致，把城市当家来呵护、把公共开放式场所作为客厅来打扫，全线发力精细化、高效能管理，不断提升城市服务水平。', '“2022年以来，我区坚持示范先行，组织代表团赴无锡、嘉兴、长沙等已推行‘席地而坐城市客厅’的地市学习考察，并结合实际，制定《新区‘席地而坐城市客厅’创建工程实施方案》，在全省率先推行‘城市客厅’创建工程。”庐陵新区有关负责人说，该区从强化精细作业、严格考评管理、注重群众参与等角度出发，围绕“市政道路见本色、城市家具见原貌、园林绿化见景致”的目标，对标准、机制、作业、考核等方面进行了一系列探索，积累了经验做法。', '在打造“席地而坐城市客厅”过程中，庐陵新区正变得“可触可亲近”。目前，该区“席地而坐城市客厅”已覆盖至吉州大道以东、井冈山大道以西、尚义路以北、复兴路以南等约16万平方米范围。', '公共区域无死角、地面路面无积尘、城市家具无污渍、绿化绿地见景致……既是“席地而坐城市客厅”试点的标准，也对城市管理精细化水平提出了更高要求。', '庐陵新区有关负责人说，下一步，该区将加强与有关单位协作配合，逐步把“席地而坐”示范区域拓展至辖内古后河绿廊、神冈山公园、庐陵人文谷等景点，着力提升游客景区体验，通过落实高标准深度保洁，打造洁净城市，以绣花功夫扮靓城市“脸面”，不断提高人民群众的获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>125</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市直机关工委多举措助力打好十大攻坚战</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-85212.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['（丘壑）“十大攻坚战”打响以来，为发挥机关党建引领保障作用，服务全市中心工作，市直机关工委迅速贯彻落实“‘十大攻坚战’，人人都是主攻手”的工作要求，主动谋划、蓄力赋能，确保在助力打好“十大攻坚战”中不掉队、不缺位。', '闻令而动，迅速响应，发出倡议。第一时间向市直机关全体党员干部发出了“争当打好‘十大攻坚战’吉先锋”的倡议书，倡导市直机关党员干部要强化大局意识，争当宣传攻坚战的“吉先锋”；强化担当意识，争当参与攻坚战的“吉先锋”；强化服务意识，争当保障攻坚战的“吉先锋”。鼓励市直机关全体党员干部要当先锋、打头阵、创佳绩，为联动建设江西南部重要增长极，奋力谱写中国式现代化吉安篇章出好力、尽好责。', '摸清情况，找准问题，提出对策。一方面工委主要负责人带队组成专班，到“十大攻坚战”各牵头单位党组织开展专项调研。重点了解掌握各牵头单位在党建引领“十大攻坚战”中的特色、亮点做法以及党员干部在推进“十大攻坚战”中发挥先锋模范作用等情况。另一方面，前往东莞、赣州市直机关工委学习考察，汲取外地好的经验做法，为机关党建如何助力服务中心工作提供借鉴思考。', '围绕中心，建强队伍，服务保障。推出多项措施，从思想保障、组织保障、业务技能保障等方面精准发力，为提振信心、激发活力、凝聚合力，助力打好“十大攻坚战”蓄势赋能。编印“十大攻坚战”机关党员应知应会知识，让市直机关党员干部知晓熟悉市委、市政府的决策部署和中心、重点工作的具体要求；加强攻坚一线党的组织体系建设，发展党员向攻坚一线倾斜；强化业务知识技能培训，召开攻坚经验交流分享会，与攻坚一线部门、行业等开展联学联建；及时发现一批攻坚一线涌现的先进典型，及时通报表扬一批攻坚一线表现突出的党员干部，及时宣传推介一批攻坚先进典型等等。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>125</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>我市席地而坐城市客厅有里有面</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-86221.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['（记者吴广城）临近年关，市中心城区的罗女士在商场置办了不少年货，她两手提着4个大袋子，脖子上还挂着一袋，步行到市中心人民广场，然后放下袋子，顺势坐在干净整洁的地板上，等待家人来接。', '在市中心城区，像罗女士这样在公共场所席地而坐的现象，是我市打造“席地而坐”城市客厅示范区的一个缩影。目前，全市高标准打造了42个可席地而坐的城市客厅，面积达130万余平方米。', '为深入贯彻人民城市理念，推进城市精细化管理，着力提升城区重点区域保洁水平，营造干净、整齐、完好的城市公共环境，我市以庐陵新区为典型经验，于2023年6月印发《吉安市创建“席地而坐城市客厅”实施方案》（以下简称《方案》），按照“室外环境、室内标准”的要求，推行席地而坐环卫理念，落实高标准深度保洁，打造洁净城市。', '《方案》坚持“因地制宜、有序推进、统一谋划、分步实施”原则，在城区范围内，以示范街区、公园广场、旅游景区、重要商圈、交通枢纽、重点道路和重大活动保障区域为重点，对标全国文明城市和国家卫生城市相关标准创建“席地而坐”城市客厅示范区域（道路），实现“四无三见”，即无垃圾杂物、无污渍痰迹、无积尘泥沙、无积水枯叶，市政道路见本色、城市家具见原貌、园林绿化见景致，把城市当家来呵护、把公共开放式场所作为客厅来打扫，全线发力精细化、高效能管理，不断提升城市服务水平。', '“2022年以来，我区坚持示范先行，组织代表团赴无锡、嘉兴、长沙等已推行‘席地而坐’城市客厅的地市学习考察，并结合实际，制定《新区‘席地而坐城市客厅’创建工程实施方案》，在全省率先推行‘城市客厅’创建工程。”庐陵新区有关负责人说，该区从强化精细作业、严格考评管理、注重群众参与等角度出发，围绕“市政道路见本色、城市家具见原貌、园林绿化见景致”的目标，对标准、机制、作业、考核等方面进行了一系列探索，积累了经验做法。', '在打造“席地而坐”城市客厅过程中，庐陵新区正变得“可触可亲近”。目前，该区“席地而坐”城市客厅已覆盖至吉州大道以东、井冈山大道以西、尚义路以北、复兴路以南等约16万平方米范围。', '公共区域无死角、地面路面无积尘、城市家具无污渍、绿化绿地见景致……既是“席地而坐”城市客厅试点的标准，也对城市管理精细化水平提出了更高要求。', '沿着城南神冈山公园漫步而行，一条条道路干净整洁，两侧绿化带生机盎然，小游园里的草坪平坦整齐，孩子们在草坪上奔跑、嬉戏。“每个周末我都会和家人来这里散步、聊天。”城南庐陵佳苑住宅小区住户王先生说。', '干净整洁的环境，既是城市面貌的“面子”，也是城市风度的“里子”。我市创建“席地而坐”城市客厅，本质上是对城市环境高标化、精细化治理的一种探索。庐陵新区有关负责人说，下一步，该区将加强与有关单位协作配合，逐步把“席地而坐”示范区域拓展至辖内古后河绿廊、神冈山公园、庐陵人文谷等景点，着力提升游客景区体验，通过落实高标准深度保洁，打造洁净城市，以绣花功夫扮靓城市“脸面”，不断提高人民群众的获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>125</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市委常委会召开会议学习习近平总书记重要讲话精神研究部署我市贯彻落实意见罗文江主持</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-84582.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['吉安市人民政府_市委常委会召开会议 学习习近平总书记重要讲话精神研究部署我市贯彻落实意见 罗文江主持', '市委常委会召开会议 学习习近平总书记重要讲话精神研究部署我市贯彻落实意见 罗文江主持', '\u200b （记者郭欢）12月11日，市委常委会召开会议，传达学习习近平总书记近期重要讲话重要指示精神和中央近期重要会议精神，省党政代表团赴浙江、上海、江苏考察情况及考察小结会议精神，研究部署我市贯彻落实意见。市委书记罗文江主持。', '会议指出，习近平总书记近期一系列重要讲话，涵盖科技创新、改革开放、生态文明建设、长江经济带发展、长三角一体化、文化建设、法治建设等方面，内容丰富、思想深邃，要及时跟进学、持续深入学，抓好贯彻落实。会议强调，要加快推动高质量发展，坚决打好培育壮大千亿产业集群攻坚战，深入实施创新驱动发展战略，围绕产业链布局创新链，增强创新驱动力，坚定不移走生态优先、绿色发展之路，把吉安生态优势转化为发展胜势。要全面深化改革开放，坚决打好重点改革突破攻坚战，推进开发区、GEP核算、普惠金融、营商环境等重点领域改革取得新突破，狠抓招大引强，运作好产业基金，在招引重大项目和产业链终端项目上取得突破；深化与赣州联动发展、与东莞对口合作，抓好合作有关事项落地落实。要推进文化强市建设，聚焦思想引领、传承创新、文化惠民、融合发展等重点任务，持续发力、久久为功，不断开创文化强市建设新局面。要加强法治建设，营造市场化、法治化、国际化的营商环境；大力弘扬宪法精神，扎实开展“八五”普法，提升宪法实施和监督水平，加快法治吉安、平安吉安建设。', '会议传达学习省党政代表团赴浙江、上海、江苏考察情况及考察小结会议精神。会议指出，这次学习考察既是深入学习贯彻习近平总书记考察江西重要讲话精神的务实举措，也是主动对接融入长三角一体化发展的具体行动，是新时代新征程上推动江西高质量发展的现实需要，充分彰显了省委、省政府谋发展、抓发展的强烈政治担当。会议指出，通过这次学习考察，深刻感受到三省市发展态势之强，融入对接长三角大有可为；深刻感受到三省市产业层次之高，新思维新理念可及可学；深刻感受到三省市改革创新力度之大，全球视野和敢闯敢试的气魄值得钦佩；深刻感受到三省市社会治理之新，人民至上的价值理念有效落实。会议强调，要认清差距，增强加快发展的紧迫感，强化危机意识，对标先进地区，认清差距、奋起直追。要把握大势，提升开放水平，放大开放视野、拓展开放格局，以高水平开放推动高质量发展。要锚定创新，强化企业主体地位、打造新型研发平台、加强人才支撑，引领产业升级。要敢闯敢试，提升攻坚克难的能力作风。既要苦干实干，也要善干会干，学习借鉴先进地区经验，提高经济工作专业化水平，促进吉安高质量发展。', '会议传达学习纪念毛泽东同志批示学习推广“枫桥经验”60周年暨总书记指示坚持发展“枫桥经验”20周年会议精神，研究我市贯彻落实意见。会议强调，要坚持和发展新时代“枫桥经验”，深入推进“治理强基平安护航行动”，加强基层综治中心实体化建设，加快“一站式”化解平台全覆盖建设，提升矛盾纠纷预防化解水平，为高质量发展创造安全稳定的社会环境。', '会议传达学习全省网络安全和信息化工作会议精神，研究我市贯彻落实意见。会议要求，全市各地各单位要提高政治站位，从巩固党的执政地位的战略高度，增强做好网信工作的责任感、使命感。要坚持党管互联网，严格落实网络安全工作责任制，提升依法治网水平，守好网络安全底线。各级党委（党组）要扛牢主体责任，“一把手”要履行好第一责任人责任，网信部门要加强统筹，有关职能部门要各负其责，全面提升网络安全水平。', '会议传达学习全省立法工作会议精神，研究我市贯彻落实意见。会议要求，要牢牢把握地方立法工作正确政治方向，践行全过程人民民主，形成党委领导、人大主导、政府依托、各方参与的立法工作格局。要提高地方立法质量，紧扣吉安所能、发展所需、群众所盼，探索“小快灵”“小切口”立法，以高质量立法促进吉安高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>125</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>吉安抢抓机遇联动建设江西南部重要增长极</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-81883.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['（记者罗仁瑾）连日来，我市党政代表团密集学习考察，从赣州到东莞，学习改革创新真经，推进对口合作走深走实，以突围发展“等不起”、对标先进“坐不住”、争先进位“慢不得”的紧迫感和责任感，抢抓机遇联动建设江西南部重要增长极。', '考察学习回来的第一时间，我市举办了“1269”行动计划吉安市优强重点产业项目签约活动，签约项目50个，签约金额844亿元，为吉安高质量发展筑牢新支撑、注入新动能。时隔十天，我市70个重大工业项目开工，总投资602亿元，持续释放“抓项目、强工业、抓招商”的强烈信号。', '省委十五届四次全会提出，要打造“三大高地”、实施“五大战略”，“联动建设江西南部重要增长极”。对吉安而言，这既是重大责任，更是重要机遇。', '省委有要求，吉安抓落实。吉安通过加强与赣州联动发展，深化与东莞对口合作，聚力建设赣江中游生态经济带，做到双城联动、融入湾区、挺起脊梁，以高水平开放促进高质量发展。据悉，我市拟定与赣州在产业互促、设施互通、游客互送、干部互派、民生互惠等方面24项合作清单，明确与东莞在产业合作、生态文明建设、公共事业、合作机制等方面34项具体合作事项。', '产业，是发展的根基。我市在构建现代化产业体系上持续用力，聚焦发展电子信息首位产业和生物医药制造、先进装备制造、新能源新材料、绿色食品“1+4”主导产业，力争全市规模以上工业企业营业收入年均增长10%左右。围绕电子信息首位产业全域化布局、全链式发展，推动产业链、创新链、人才链、政策链、资金链“五链融合”，运作好产业联盟、研究院、产品检验检测中心“三驾马车”，促进“芯光屏板链智网”融合发展，加快向数字转型、终端延伸、高端迈进，实现量质齐升，打造全国有影响力的电子信息产业基地。', '项目，是发展的“牛鼻子”。在强攻重大项目建设上，我市树牢“项目为王”理念，推行重大工业项目开工点将赛、擂台赛“双赛制”，通过源源不断的大项目、好项目，集聚“不怕点将、争当擂主”的底气。目前，我市抢抓项目建设黄金期，加快在建项目建设，力争三季度重大项目完成年度计划投资85%以上，确保鲁丽等重大项目全线按时投产。加快项目前期工作，推动长赣高铁、抽水蓄能电站等重大工程尽早开工。', '服务，是发展的土壤。我市持续加大企业帮扶力度，实施领导干部联点帮扶企业、企业特派员大走访等行动，坚持亲清连心政企恳谈会制度，建立问题收集、跟踪督办、企业评价、通报考核“四个机制”，切实为企业办实事解难题，今年已市县联动举办政企恳谈会27期，解决企业问题3000多个。我市持续优化营商环境，强化资金、用工、用能等要素保障，推动惠企政策免申即享、直达快享。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>125</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市政府召开常务会议王亚联主持</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-81469.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['\u200b （记者任洪广）8月28日，市委副书记、代市长王亚联主持召开市五届政府第41次常务会议，传达学习习近平总书记近期重要讲话重要指示和中央近期重要会议精神，贯彻落实省委、省政府和市委有关部署要求，审议有关文件，研究安排有关工作。', '会议传达学习了习近平总书记在成都第三十一届世界大学生夏季运动会开幕式欢迎宴会上的重要致辞、在中央政治局第七次集体学习时的重要讲话、对防汛救灾工作和首个全国生态日之际作出的重要指示、在8月17日中央政治局常委会上的重要讲话、2023年金砖国家工商论坛闭幕式上的重要致辞，以及金砖国家领导人第十五次会晤上的重要讲话精神。会议指出，习近平总书记近期一系列重要讲话重要指示，涵盖生态文明、扩大开放、防汛抗旱、对外工作、军事治理等各方面，内涵丰富、思想深邃，要持续学、深入学，融入日常、学在经常，结合实际抓好落实。', '会议强调，要持续拓展生态优势。牢固树立绿水青山就是金山银山理念，以更高站位、更宽视野、更大力度推进新征程的生态文明建设。持之以恒打好污染防治攻坚战，积极推进生态文明制度建设和改革创新，打通“两山”转化通道，为全省打造国家生态文明建设高地贡献吉安力量。要坚定不移扩大开放。积极融入党和国家外交大局，坚定不移推进高水平开放，主动融入粤港澳大湾区，加强与东莞、赣州等地的沟通对接，促进产业发展、公共服务、基础设施、人才交流、文旅融合等多领域合作，以大开放促进大发展。要守牢安全稳定底线。以“时时放心不下”的责任感，统筹抓好防汛和抗旱工作，加强重点区域的隐患排查整治，抓好山体滑坡等地质灾害防治，坚决维护群众生命财产安全。加强耕地保护，特别是抓紧抓实补充耕地问题的项目整改，确保粮食生产安全。', '会议还交流了市党政代表团成员赴赣州、东莞学习考察心得体会；专题研究了2023年7月有关县（区）上报市委工作建议的落实措施。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>125</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>王亚联主持召开市五届政府第次常务会议</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10220401.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['（记者任洪广）8月28日，市委副书记、代市长王亚联主持召开市五届政府第41次常务会议，传达学习习近平总书记近期重要讲话重要指示和中央近期重要会议精神，贯彻落实省委、省政府和市委有关部署要求，审议有关文件，研究安排有关工作。', '会议传达学习了习近平总书记在成都第三十一届世界大学生夏季运动会开幕式欢迎宴会上的重要致辞、在中央政治局第七次集体学习时的重要讲话、对防汛救灾工作和首个全国生态日之际作出的重要指示、在8月17日中央政治局常委会上的重要讲话、2023年金砖国家工商论坛闭幕式上的重要致辞，以及金砖国家领导人第十五次会晤上的重要讲话精神。会议指出，习近平总书记近期一系列重要讲话重要指示，涵盖生态文明、扩大开放、防汛抗旱、对外工作、军事治理等各方面，内涵丰富、思想深邃，要持续学、深入学，融入日常、学在经常，结合实际抓好落实。', '会议强调，要持续拓展生态优势。牢固树立绿水青山就是金山银山理念，以更高站位、更宽视野、更大力度推进新征程的生态文明建设。持之以恒打好污染防治攻坚战，积极推进生态文明制度建设和改革创新，打通“两山”转化通道，为全省打造国家生态文明建设高地贡献吉安力量。要坚定不移扩大开放。积极融入党和国家外交大局，坚定不移推进高水平开放，主动融入粤港澳大湾区，加强与东莞、赣州等地的沟通对接，促进产业发展、公共服务、基础设施、人才交流、文旅融合等多领域合作，以大开放促进大发展。要守牢安全稳定底线。以“时时放心不下”的责任感，统筹抓好防汛和抗旱工作，加强重点区域的隐患排查整治，抓好山体滑坡等地质灾害防治，坚决维护群众生命财产安全。加强耕地保护，特别是抓紧抓实补充耕地问题的项目整改，确保粮食生产安全。', '会议还交流了市党政代表团成员赴赣州、东莞学习考察心得体会；专题研究了2023年7月有关县（区）上报市委工作建议的落实措施。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>125</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市委常委会召开会议学习贯彻习近平总书记重要讲话重要指示精神罗文江主持</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-81380.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['吉安市人民政府_市委常委会召开会议 学习贯彻习近平总书记重要讲话重要指示精神 罗文江主持', '（记者谢炳华）8月25日，市委常委会召开会议，传达学习习近平总书记近期重要讲话重要指示和中央近期重要会议精神，研究我市贯彻落实意见。市委书记罗文江主持会议。', '会议强调，要深入学习贯彻习近平总书记在首个全国生态日之际作出的重要指示精神，保持定力加强生态文明建设。要牢固树立和践行“两山”理念，积极创建井冈山国家公园，持之以恒打好污染防治攻坚战，以“双碳”工作为引领，加快推进产业结构、绿色金融、水运经济等，推行绿色低碳生活方式，在全省打造国家生态文明建设高地上走前列。', '会议强调，要深入学习贯彻中央政治局常委会会议和习近平总书记对防汛救灾工作的重要指示精神，统筹抓好防汛和抗旱各项工作。要始终把人民生命财产安全放在第一位，强化监测预报预警，密切关注雨情、水情、汛情、旱情和天气变化，继续积极做好水库蓄水，做到应蓄尽蓄，严防旱涝并发、旱涝急转。要加强薄弱环节管控，做好山洪易发区、地质灾害隐患点等重点部位的巡查，严防因短时强降雨等引发地质灾害。', '会议强调，要深入学习贯彻习近平总书记给南京审计大学审计专业硕士国际班留学生、“科学与中国”院士专家代表、“模范空降兵连”全体官兵的重要回信精神，做好新时代审计工作、科普工作。要充分发挥审计制度效能，聚焦重大战略、重大举措、重大项目、重大资金落实落地情况开展审计监督，服务保障吉安高质量发展。要统筹抓好科学普及和科技创新工作，营造尊重科学、崇尚创新的浓厚氛围。要认真履行党管武装职责，大力支持国防和军队建设，巩固军政军民团结良好局面。', '会议传达学习了省委书记尹弘在吉安调研讲话精神，以及对吉安明责定责、专人专岗，全面规范农村住房建设管理工作的批示精神，研究我市贯彻落实意见。会议强调，要持续深入贯彻省委十五届四次全会精神，紧扣省委打造“三大高地”、实施“五大战略”部署要求，紧盯省委全会涉及吉安的事项，结合贯彻省委书记尹弘在吉调研讲话精神，细化目标任务，抓好调度推进。要坚决扛稳耕地保护责任，严格落实省委《关于加强耕地保护的意见》，坚决遏制耕地“非农化”、防止耕地“非粮化”。要深化农村住房建设管理，抓好农房办专岗人员培训，严格做好农村建房全过程管理，不断提升我市农村住房建设管理水平。要抓实党建引领基层治理，扎实开展“基层党建质量提升年”行动，统筹推进农村互助养老服务、矛盾纠纷调解等工作，不断擦亮“吉先锋”品牌。', '会议传达学习了以正确政绩观引领高质量发展专题培训暨推动全省经济持续全面好转工作部署会议精神，研究我市贯彻落实意见。会议强调，要提高站位，坚决整治统计造假。加强数据统计和报送工作，确保数据真实、准确、全面，切实以高质量统计保障全市经济高质量发展。要强化措施，全力拼经济促发展。强化经济运行监测，强攻重大项目建设，强化实体企业帮扶，推动经济持续回稳向好。要形成合力，全面推动工作落实。各有关部门要制定有效举措，既做好自己的事，又加强协同配合。', '会议听取了市党政代表团成员赴赣州学习考察心得体会。会议指出，联动发展既是责任也是机遇，要主动对接，积极融入全国全省大局。要系统谋划、重点突破、找准切入点，在政策共享、设施互通、产业互促、游客互送、干部互派等方面发力，联动建设江西南部重要增长极。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>125</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>唱好双城记加速跑起来我市党政代表团赴赣州学习考察侧记</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-81187.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['吉安市人民政府_唱好“双城记” 加速“跑”起来 —— 我市党政代表团赴赣州学习考察侧记', '省委十五届四次全会提出“一主一副、两翼多点”的区域发展新格局，明确指出要强化赣州省域副中心城市地位，联动吉安建设江西南部重要增长极。双城联动，对吉安而言，既是重要使命，也是重大机遇。', '省委有部署，吉安抓落实。8月15日至16日，市委书记罗文江，市委副书记、代市长王亚联率我市党政代表团赴赣州学习考察，感受赣南大地发展脉动，学习改革创新真经，为唱好“双城记”起好步，让老区振兴加速“跑”起来。', '吉安、赣州，山水相邻、基因相承、发展相融。为期一天半的考察，行程紧凑、内容丰富，代表团成员深入园区、企业、生产一线，看项目、学理念，感悟着、思考着、谋划着，不时与赣州干部交流探讨。大家一致认为，双城联动，既是并驾齐驱、联动合作，又是竞相比拼、良性发展，是省委立足吉安、赣州两地实际，高屋建瓴、独辟蹊径，为推动区域协同发展量身定制的科学路径。', '学习考察中，代表团成员一致认为，对标先进，就是要自我加压、鼓足动力，向着更好的自己、更远的未来奋进。作为融入粤港澳大湾区的桥头堡，赣州用实践证明了老区也能培育诞生“单打冠军”“配套专家”。在吉利耀能新能源（赣州）有限公司，得知企业产品“链接”的是路特斯汽车、东风岚图、广汽埃安汽车等知名品牌，代表们连连感叹产业集群发展的力量，思考着吉安电子信息产业转型升级的路径。', '抢风口才能立潮头，推动电子信息产业智能化、数字化发展，吉安、赣州不谋而合。“同兴达电子科技有限公司投资强度达2700万元每亩，亩产效益8000万元，是赣州经开区‘亩产真英雄’……”一个个数字成为赣州项目高质量发展的生动注脚。', '优势互补、互利合作，是吉安、赣州联动发展的牢固基石。代表团一行专程前往观看赣南等原中央苏区振兴发展十周年成就展，全面了解“苏区振兴”为老区发展带来的巨变。中国稀土集团稀金谷产业促进中心落户赣州，是老区立足资源优势，争取国家级科研平台，吸引“国家队”人才来老区创新创业的成功示范。大家表示，要学习好赣州争取政策，顺势而为、借势发力、就势取胜的经验做法，建立起区域协同发展的科学机制，充分释放资源红利、政策红利，切实发挥产业基础优势，让老区振兴发展的脚步更实、高质量的底色更足。', '星光不问赶路人，时代眷顾奋楫者。吉安、赣州干部一致表示，下一步，双方将加强沟通协作，促进两地政策共享、产业对接、文旅互动、设施互通，在合作中共同建设江西南部重要增长极。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>125</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>我市党政代表团在赣州市学习考察走亲戚学真经谋合作推动建设江西南部重要增长极吴忠琼会见代表团一行罗文江王亚联率团李克坚参加活动</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-81488.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团在赣州市学习考察 走亲戚 学真经 谋合作 推动建设江西南部重要增长极 吴忠琼会见代表团一行 罗文江王亚联率团 李克坚参加活动', '我市党政代表团在赣州市学习考察 走亲戚 学真经 谋合作 推动建设江西南部重要增长极 吴忠琼会见代表团一行 罗文江王亚联率团 李克坚参加活动', '\u200b （记者郭欢）8月15日至16日，我市党政代表团在赣州市学习考察，认真落实省委十五届四次全会精神，学习对标赣州市在产业升级、项目建设、城乡发展、改革创新、文旅融合等方面的先进经验做法，推进全方位深层次对接合作，推动建设江西南部重要增长极。', '省委副书记、赣州市委书记吴忠琼会见代表团一行并座谈交流。市委书记罗文江，市委副书记、代市长王亚联率团。赣州市委副书记、市长李克坚，赣州市领导胡剑飞、何琦、陈水连分别陪同。市领导王大胜、漆海云、陈庆寿、傅正华参加学习考察。', '吴忠琼对吉安市党政代表团的到来表示热烈欢迎。她说，赣州、吉安两地山水相连、人文相亲、产业相近，是好邻居、好朋友，自古以来就交往频繁、合作密切，特别是赣南等原中央苏区振兴发展战略实施以来，两市在经济协作、人才交流、民间交往等方面联系愈发紧密。省委十五届四次全会提出“一主一副、两翼多点”的区域发展新格局，明确指出要强化赣州省域副中心城市地位，联动吉安建设江西南部重要增长极。希望两市加快建立联动发展的常态化机制，在共同争取政策支持、产业共建、基础设施互联互通、客源互送等方面深化合作，乘风破浪，抢抓机遇，携手并肩推动革命老区高质量发展。', '罗文江代表吉安市委、市政府感谢赣州市长期以来对吉安的支持与帮助。他说，近年来，赣州市扎实推进“三大战略、八大行动”，经济社会发展取得令人瞩目的成绩。省委十五届四次全会赋予了吉安发展新使命、新任务、新机遇。希望通过此次学习考察，让“亲戚越走越亲”，彰显出“情”和“亲”的互动，体现出“联”与“融”的诚意；学习发展真经，学习借鉴赣州市集中力量发展产业集群，敢想敢试推动改革发展的好经验、好做法；共谋合作对接，唱好“双城记”，建立区域协同发展机制，大力推进基础设施互联互通、公共服务共建共享、利好政策互惠互享，更好服务构建新发展格局。', '学习考察期间，代表团一行先后来到吉利耀能新能源（赣州）有限公司、同兴达电子科技有限公司、江西青峰药业有限公司、中国稀土集团稀金谷产业促进中心、中国科学院赣江创新研究院，考察赣州市新能源产业、电子信息产业、生物医药产业、稀土产业转型升级以及产业创新平台建设成果，学习当地抓项目、强产业、促发展的先进经验；前往赣州市博物馆，参观赣南等原中央苏区振兴发展十周年成就展，全面了解赣南等原中央苏区振兴发展十周年取得的巨大成就；学习七鲤古镇、茅店镇东田村发挥资源优势因地制宜推进文旅融合、农旅融合发展，助力乡村振兴的经验做法；前往赣州市城展馆，听取赣州城市规划建设情况介绍。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>125</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>关于市政协五届三次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10220647.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['近几年来，随着我市城市化进程的不断发展，人民生活水平的提高，城市居民私有汽车的数量的增加，地下车位作为一种停车设施，在日常生活的作用显得愈发重要。近几年来，我市有关住宅小区内', '城区老旧住宅小区停车泊位明显不足，小区内业主停车占用人行道、消防通道、绿化带等乱象十分普遍。', '住宅小区内停车难的原因，既有许多国内其他城市相同共性因素，如私家车快速增长始料未及、物业管理等因素，也有部分本地因素，如老旧小区规划设计落后等。通过实地走访调研，我们认为，住宅小区内停车难问题产生的主要原因集中在以下几个方面。', '2000年前的住宅小区基本没有配建停车泊位，业主只能将车停在小区路面、消防通道、绿化带等地段，小区停车处于混乱状态，路面拥挤不堪，占用消防通道等现象普遍，小区存在严重的安全隐患。如庐境园、西苑、和济春天等小区均存在上述问题', '这类小区是当前矛盾最突出和市民反映最为强烈的小区，也是当前亟需解决停车难问题的小区；', '2000—2005年的住宅小区户数与停车泊位配比约在1:0.3左右，这类小区的停车泊位规划建设明显偏少，如星港澳园、天龙、水岸绿洲、青原区机关等。这类小区普遍存在停车难和乱停车的现象，是当前矛盾比较突出和市民反映比较强烈的小区，也是当前需要解决停车难问题的小区；', '2005年后的住宅小区户数与停车泊位配比约在1:0.7—1:1.2左右，这类小区大部分属新建小区，小区品质较高，居住的群体也比较富裕，有不少业主一户人家拥有2辆以上车辆。如凯旋华府、鹭州观澜、锦绣天成等小区。', '，业主认为购置地下停车泊位价格太高，且购买地下停车泊位只能一次性付款，银行不支持按揭贷款，在购买价格上难以接受。目前，市中心城区住宅小区可售地下停车泊位价格（仅考虑标准产权车位，下同）在', '6—14万元/个左右。城中、城南大部片区可售地下停车泊位价格在10—12万元/个左右，如锦绣天成、润阳环湖湾、阳明华庭、恒大帝景等小区；城南片区少数核心地段楼盘可售地下停车泊位价格在12—14万元/个左右，如恒大帝景、锦绣香江、凯旋金融城等；城北、城东片区可售地下停车泊位价格在8—10万元/个左右，如城北宏泰名居、城东滨江一号；城北、城东、经开区片区少部分地理位置偏僻的住宅小区可售地下停车泊位价格在6—8万元/个左右。', '，开发企业认为建设一个地下停车泊位成本过高。根据目前市场行情预算，地下停车泊位建设成本大约在', '8万元左右（含搞好标示、标牌、地面漆），人防设施的地下停车泊位成本可达9万元左右。按现有销售市场行情，大部分地下停车泊位只能按成本价销售。加之目前我市地下停车泊位的销售办法规定只能办理现售，不能办理预售', '住宅小区停车泊位分为人防停车泊位和产权停车泊位，《中华人民共和国人民防空法》第五条规定：', '“国家鼓励、支持企业事业组织、社会团体和个人，通过多种途径，投资进行人民防空工程建设；人民防空工程平时由投资者使用管理，收益归投资者所有”，即“谁投资、谁受益”原则。对人防车位是否可以买卖，国家没有明确确定，法律法规没有明确要求，全国各地做法不一', '目前江西省的要求是只租不卖。根据江西省人防办《关于进一步规范防空地下室平时使用和维护管理有关问题的通知》（赣人防发〔', '2012〕5号）规定：任何单位和个人不得买卖或者以长期出租使用权的名义变相买卖防空地下室。在目前国家对防地下室产权尚未明确的情况下，防空地下室平时使用只允许短期租赁，每次租赁合同期不得超过５年。', '2014年《国家发展改革委关于放开部分服务价格意见的通知》（发改价格[2014]2755号）文件，我市物价主管部门放开了非保障性住房物业服务和住宅小区停车服务价格，实行市场', '调节价，由开发商结合市场供求和竞争状况等因素进行自主定价。业主认为开发商制定的停车泊位售价和租金过高，缺少公信力，难以承受。', '“无权”将管理的触角伸进小区。省物业管理条例对物业企业的停车服务行为缺乏细则性的规定，致使物业企业的停车服务没有规范性的管理标准。城市长效管理中未将小区的停车秩序纳入考核范围；缺乏对车主的制约制度，车主文明停车的意识不强,小区占用道路、占用消防通道等乱停乱放现象比较普遍。', '我局起草了《关于进一步明确中心城区房地产开发项目地下停车位销售管理的通知》，文件从', '“实施范围、总体原则、预售办理条件及流程、现售办理条件及流程、地下停车位出租、对外租售条件及流程”等七大方面对地下停车位的出售、出租管理等进行了规范，经征求', '发改、自然资源、人防、税务、司法、市场监管等相关单位意见，并组织部分房地产开发企业座谈讨论，进行了完善，形成了车位销售管理办法报市政府审定，文件经司法局合法性审查提出反对意见，理由如下：地下停车位预售与现行相关规定不符。《江西省物业管理条例》第', '66条第三款“建设单位依法取得车位、车库权属登记后方能出售、出租车位”，《不动产登记暂行条例实施细则》第35条第三项规定“申请国有建设用地使用权及房屋所有权首次登记的，应当提交房屋已经竣工的材料”，因此预售不符合规定。即受上位法影响，产权车位预售不符合相关规定。对此，我局也一直在向省住建厅建议，希望通过修改江西省物业管理条例来放开对车位预售的限制，但条例的修改需要省人大审定，过程较为复杂且需要一定的时间，条例修改前暂时无法实行车位预售。', '为顺应市民需求，充分考虑市民的出行需要，缓解日益严峻的停车矛盾，提升城市品位，继《吉安市中心城区停车场布点建设规划（', '0.5泊位/户标准设置外，其它住宅小区均按照1.0泊位/户标准设置，周边停车位缺口较大的，按1.2泊位/户设置；一般的公建及商业建筑，按照1.0泊位/100m²标准设置。主要考虑地下停车，地面停车不超过停车位数量的20%。', '、形状等应符合国家标准，个别不符合国家标准的应予以特别说明，并在出售时书面告知购买人或承租人', '依据规划设计图纸和施工验收规范，严格把关验收环节，对不符合标准的地下车位责令开发企业整改到位。', '积极配合发改部门，探索建立中心城区地下车位价格租赁体系，综合考量停车设施等级、建设成本、服务条件、供求关系等因素，区分不同区域、位置、时段、车型和占用市场等，科学制定差异化收费标准，并及时向社会公开，调和因租赁费用产生的矛盾纠纷。', '市市监局出台《关于发布吉安市中心城区普通住宅物业服务收费参考价格的通知》（吉市发改费字', '《吉安市住宅物业管理条例》实施后，为确保条例立得住、行得通，市住建局制定了《吉安市住宅小区物业服务等级指导标准》等', '10个配套文件，将住宅小区车辆管理纳入服务等级内容，同时明确了由属地街道每半年对住宅小区物业管理情况进行考核一次，考核结果直接纳入到企业信用档案和星级评定。', '“城市功能与品质提升行动”的契机，大力开展老旧小区停车泊位建设和改造，尤其是2005年前没有规划停车泊位或停车泊位配建比较小的住宅小区应优先列入现有的小区改造计划，', '带本办有关工作人员及市自然资源局建设工程规划管理科、不动产登记中心负责人到浙江省金华市学习考察，参照浙江省做法，拟制了《吉安市中心城区人防工程产权与管理制度改革实施意见（征求意见稿）》，改革的基本设想是：', '在建设用地出让协议中明确该地块配建的人防工程产权归国家所有，并同时明确该地块应修建的防空地下室面积', '人防工程竣工验收后，由市政府所属的国有资产管理公司（以下简称国有公司）作为人防工程产权的登记、经营和收益主体，负责人防工程的租金收取和维护管理', '人防工程停车位提供小区业主有偿使用，按年交纳租金，租金价格根据市场行情，报市发改委批准。收取的租金主要用于：人防工程维护保养费用、向物业公司交纳的管理费用、国有公司的运转费用和市人防办提取的管理费用。由于没有上位法支撑，文件在市司法局法规审核时，因本省九江市出台的《关于进一步规范住宅小区依法修建的人防工程使用与管理的通知》（九人防办发', '年内启动中心城区老城区停车难区域路内车位收费试点。在河西片区的阳明东路、北门街、鹭洲路、中山路、人民广场周边、市行政中心周边等区域以及河东片区康居外滩、上江界、滨江首府和鸿翔江誉等小区周边道路、青原区和气路的刘家坡菜市场周边道路、青原区学苑路的奥克南门小街和青原区科教路的井大阳光城等商业街周边道路等停车难矛盾突出区域实施路内车位收费试点。根据相关区域停车难时段分布和周边停车设施情况，按照', '“引导停车秩序为主、兼顾收支平衡”、“白天收费、晚上免费”等原则，灵活制定收费标准和收费时段，坚决清理小区业主、商家长时间占用免费路内车位情况，引导车辆入库入地，提高路内车位周转率。', '积极对接省住建厅等部门进一步修订《江西省住宅物业管理条例》，对变相买卖和超期租赁人防车位的行为要明确行政处罚，同时', '建设，加强跟踪监管，坚决查处开发企业在建设、验收和销售等环节的违法违规行为，坚决杜绝将各环节的问题层层加码和向后转移。', '再次感谢您对我局住建工作的支持，并希望今后对我局住建工作多提宝贵意见，共同推进我市住建工作进一步发展。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>125</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>万安实施四提工程激励党员干部担当实干</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-90073.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['（邱哲）今年以来，万安县纵深推进党员、干部能力作风提升攻坚战，大力实施提神、提能、提效、提质等“四提工程”，全力推动党员干部能力大提升、作风大转变，加快实现跨越赶超、突围发展步伐。', '实施“提神工程”，提振精气神。该县以开展党委（党组）理论学习中心组学习规范提升年活动为抓手，围绕高质量发展、乡村振兴等中心工作开展理论学习。聚焦红色基因传承，打磨一批精品红色课程，广泛开展讲红色故事、唱红色歌曲等活动。全面推行“五问”工作法，建立健全“三色”业绩晾晒机制，督促干部加压奋进、争先创优。', '实施“提能工程”，锤炼硬本领。开展“走看听学比”活动，组织200余名领导干部前往赣州等地开展学习考察30余批次，并开设“联动赣州话比拼”活动，拓宽视野格局。紧扣“十大攻坚战”主题，举办“八大专修班”“提能善政大讲堂”等，邀请50余名市级及以上领导和专家，面对面为1800余人次干部讲解专业知识。开展“同台竞技话比拼”活动300余场，抽调45名优秀干部到“十大攻坚战”等一线淬炼。', '实施“提效工程”，跑出加速度。深入开展“千名干部访万家”活动，下沉乡村一线，收集群众急难愁盼问题377个。弘扬“四下基层”优良传统，针对性指导乡镇和单位提升攻坚质效。在全县组建“吉先锋”党员突击队311支、银发“吉先锋”帮帮队4支，选派12名退出领导岗位干部下沉一线开展蹲村调研，化解问题11个。', '实施”提质工程”，争当吉先锋。积极开展“吉先锋”典型选树学、“攻坚比拼标兵”评选、“十大攻坚战”金点子征集等活动，大力开展“躺平式干部”专项整治，创建“首席服务官”“红色基因传承六个好”等一批党建品牌。突出正确用人导向，深化攻坚一线考察识别干部工作，建立优秀干部库258名，对51名表现突出的干部进行提拔重用和职级晋升。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>125</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>我市赴莞学习考察文旅产业发展</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-89238.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['（全媒体记者邓勇伟）为进一步深化吉安·东莞两地对口合作，坚决打好打赢我市文旅高质量建设高水平运营攻坚战，加快我市文旅产业高质量发展，6月5日至6日，市委常委、宣传部部长李瑞峰率组来到东莞市，学习考察该市文旅产业发展工作，对接吉莞两地文旅合作项目。', '在莞期间，李瑞峰一行先后考察了东莞市文化馆、东莞展览馆和寮步西溪古村。在东莞市文化馆和东莞展览馆，李瑞峰详细了解两馆场馆建设和运营情况，并就如何做强文化项目、做细文化服务、做大文旅品牌与东莞市相关负责人进行了深入交流。西溪古村是东莞推进“百千万工程”中古村落保护性微改活化的生动缩影。李瑞峰听取了古村负责同志的情况介绍，对当地政府加强文化遗址遗迹保护，做好文商旅融合项目包装，不断增强群众获得感、幸福感和荣誉感的做法表示赞赏。', '在吉安东莞对口合作座谈会上，两地相关单位负责同志就组织人员赴吉开展红色培训、红色研学活动，招引知名文旅企业入吉发展，推动“云游吉安”线上消费专区OTA平台与东莞文旅行业OTA平台联动发展，举办国内大型体育赛事，开发赣江水上游项目，以及支持东莞市文艺团体在吉举办文艺演出、展览等内容进行了对接商谈。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>125</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>吉安市市场监管局赴江门珠海考察学习市场监管工作</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-05-21</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-88656.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['吉安市营商环境 “一号改革工程” | 知识产权创造、 保护和运用|吉安市市场监管局赴江门、珠海考察学习市场监管工作', '\u200b4月25日至4月27日，吉安市市场监管局局长周晓霞率队赴江门市和珠海市考察学习市场监管工作。吉安市市场监管局党委委员、副局长潘骥，以及市局相关科长参加考察学习。', '日，吉安市市场监管局局长周晓霞率队赴江门市和珠海市考察学习市场监管工作。吉安市市场监管局党委委员、副局长潘骥，以及市局相关科长参加考察学习。', '周晓霞强调，此次赴江门市、珠海市市场监管局考察学习，是为了深入贯彻落实习近平总书记对市场监管工作的重要指示精神，学习先进地区工作经验，进一步提升各项工作水平，促进市场监管事业高质量发展的“友谊之旅”。周晓霞表示，江门市、珠海市作为沿海发达地区，很多地方值得我们学习借鉴，吉安市市场监管局一定要加强与江门市、珠海市同行的交流对接，学真经、求实招，不断锻长板、补短板、拓新板。同时，周晓霞代表吉安市市场监管局诚邀江门市、珠海市市场监管局同行莅临吉安指导工作、传经送宝。', '周晓霞强调，此次赴江门市、珠海市市场监管局考察学习，是为了深入贯彻落实习近平总书记对市场监管工作的重要指示精神，学习先进地区工作经验，进一步提升各项工作水平，促进市场监管事业高质量发展的', '。周晓霞表示，江门市、珠海市作为沿海发达地区，很多地方值得我们学习借鉴，吉安市市场监管局一定要加强与江门市、珠海市同行的交流对接，学真经、求实招，不断锻长板、补短板、拓新板。同时，周晓霞代表吉安市市场监管局诚邀江门市、珠海市市场监管局同行莅临吉安指导工作、传经送宝。', '局的到来表示热烈欢迎，江门市局和珠海市局知识产权、药品化妆品监管、特种设备安全监察、执法稽查等相关科室负责同志与', '进行了面对面座谈。座谈会上，分别介绍了江门市、珠海市市场监管局基本情况，尤其就认真落实安全主体责任，增强红线意识和底线思维，做好安全风险分级管控和隐患排查治理，有效防范和遏制特种设备事故发生的工作经验及做法进行了深入交流。同时，', '局详细介绍了由市市场监管局牵头的吉安市生物医药千亿产业攻坚战的基本情况，并对考察学习的其他重点问题进行了讨论分享。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>125</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>贵州省人大常委会考察组来吉学习考察李三旗率队徐力廖宏陪同</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-06-29</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-89816.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['（陶智、全媒体记者曾诗敏）6月26日，贵州省人大常委会党组成员、机关党组书记、秘书长李三旗一行来到泰和县学习考察。省人大常委会副秘书长徐力、省人大常委会办公厅二级巡视员钟鸣、市人大常委会主任廖宏陪同。', '考察组一行来到泰和县澄江镇基层立法联系点，实地了解基层立法联系点运行、代表活动开展等情况，认真听取了“三微三员”工作法有关介绍，并进行深入交流和探讨，对泰和县基层立法联系点规范化建设以及“三微三员”工作法表示赞许。', '考察组还前往马市镇汪陂村、泰和原种乌鸡场、傲昕泰和乌鸡扩繁场等地，与相关负责人详细交谈，深入了解泰和乌鸡原种保护、产业发展、市场营销、养殖基地建设以及技术创新等情况，对泰和乌鸡产业的蓬勃发展给予肯定。', '在浙大西迁泰和旧址，考察组对旧址设施的建设背景、历史事件、保护措施、教育传承等情况进行了详细了解，聆听了浙大西迁的历史故事，对老一辈浙大人坚持办学、坚强不屈的精神以及泰和人民守护文脉、无私奉献精神颇为感动。', '考察组表示，泰和县产业发展、文化资源保护开发与利用、基层立法联系点建设等方面工作成效显著，有很多创新做法和特色经验值得学习借鉴，希望两地进一步加强交流合作，共同推动人大工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>125</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>福地如何绿创未来</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-89795.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['\u200b （刘志宏王小菁）安福，素有“赣中福地”之称，森林面积311万亩，森林覆盖率71.1%，被武功山、羊狮慕、武功湖等山水环绕，宛如一幅清新脱俗的水墨画卷。', '今年1月，该县顺利通过首批“江西绿色生态”品牌建设试点县项目验收考核。连日来，笔者行走于安福大地，试图探寻它是如何走出一条变生态资源优势为经济发展优势的新路子。', '走进安福县金田乡大山深处的铁皮石斛种植基地，只见基地负责人谢满月正领着村民一起劳动，他们有的正仔细拔除杂草，有的则小心翼翼地采摘成熟的石斛鲜条，还有的在娴熟地分拣、封装、打包，一片忙碌的景象。', '谢满月领笔者来到产品陈列室，只见展柜上花茶、花蜜等各色产品琳琅满目。她拿起一罐铁皮石斛枫斗介绍说：“它全身都是宝，花、叶、茎、根都可开发利用。我们这种仿野生石斛加工的枫斗，石斛多糖、生物碱等营养成分要比起市面一般的枫斗更高。”', '2023年初，谢满月从海外学成归来，与父亲经过多方考察，认为疫情后生态健康食品药品行业大有可为。“‘中华九大仙草’之首就是石斛，家乡山多林多，气候适宜，所以我和父亲选中它了。”', '金田乡胡椒顶有一片山林，峡谷间流淌着潺潺清泉，原始森林和次生林密布，极适合铁皮石斛生长。更难得的是，这里还有一片自然生长了20余年、面积1800余亩的南方红豆杉林。', '就是在这片特殊的山林里，谢满月独辟蹊径，利用红豆杉残枝、树皮等有机基质，模拟野生的生长环境，开始培育铁皮石斛。', '那段时间，她不是学习研究各种资料，就是外出到高校联系专家讨教，或者到铁皮石斛盛产地学习考察。虽然很辛苦，但她眼中的光却越来越明亮。', '基地铁皮石斛以肉眼可见的速度生长，种植面积也扩大到600亩，并与省内外多所高校的专家教授达成了长期合作，创立现代多元化综合性农业科技公司。', '2023年底，基地生产的铁皮石斛一举通过有机产品认证，产品远销北京、深圳等地，年产值1000万余元。', '“我从去年开始就在基地上班，帮着除草、种植、喷水，离家也不远，每月收入有3000多元呢！”高源村脱贫户黄锦昌说。', '2023年，基地以“公司+基地+农户”模式，让周边的村集体、种植户、村民通过入股分红、山林租赁、中药种植等形式获得150多万元收益。', '竹碗、竹盆、竹柜、竹笔记本……来到位于安福县横龙镇的江西添竹工艺有限公司的展厅，竹香四溢、琳琅满目的新奇竹制品让笔者目不暇接。', '该公司总经理刘庆介绍道：“像这个竹制的洗手盆，口径为80厘米，市场并不多见。我们通过材料重组，突破原生形态对竹产品加工的限制，可以加工成任意形状和尺寸，深受欧美用户欢迎。”', '刘庆回乡创业，从事竹制品加工，借助原来从事模具开发设计的经验，将竹材加工重组后，再以独有的榫卯结构进行拼接，一件件带着原生态又不失现代气息的产品不断下线。', '在20公里外的鲁丽绿色新材料科技产业园，一捆捆竹木被送入长达一公里的智能生产线，经过全自动的切削、刨片、热压、打磨、切割、封装，变成了一片片新型绿色环保型竹木复合板材。加工的竹木剩余边角料则用作该园区生物质热电联产发电项目发电，可谓是“吃干榨净”。', '安福是江西重点产竹县，全县毛竹总面积45万亩，活立竹5800万根，年可采伐毛竹1000余万根，2023年被省林业局认定为全省竹产业高质量发展项目县。', '凭借着丰厚的“竹家底”，乘着“以竹代塑”的东风，安福大力做全“竹链条”、做强“竹经济”、做足“竹文章”。', '2022年，安福与中国民营企业500强企业山东鲁丽集团一拍即合，投资103亿元建成了鲁丽绿色新材料科技产业园，年产80万立方米竹木复合板材生产线，并于次年12月投入运营。', '安福以该产业园为龙头，招引集聚了上下游30余家竹木企业入驻，正致力于打造百亿绿色新材料产业集群。', '夏风习习，万物竞秀。紧邻羊狮慕景区的“兔子的老家”旅游度假区内，一群游客正在草甸上搭帐篷露营。大人坐着喝茶聊天，小孩则在不远处撸兔、滑滑梯、追逐打闹，不时传来阵阵欢声笑语。', '“我们一家自驾从宜春到这才半小时，不仅能品尝到当地最新鲜的山珍农味，还能陪孩子游玩这么多亲子项目……”多次到此游玩的宜春游客文女士向笔者说道。', '“把好山好水变成百姓致富的好风景是我和家乡的一场双向奔赴。”度假区负责人叶爱民深有感触地说。2018年，在叶爱民的“穿针引线”下，安福引进北京暖山集团投资10亿元在章庄乡打造了“兔子的老家”旅游度假区项目。', '如今，亲子漂流、垂钓乐园、UTV全地形车越野基地、热气球体验、丛林探险等项目人气火爆，深受游客欢迎。目前，度假区年接待游客突破20万人次，年营业收入6000余万元，并于2019年成功创建江西省4A级乡村旅游点。', '度假区吸收了76位本地村民就业，村民摇身一变成为景区保洁员、前台客服以及餐厅厨师等，人均月收入可达4000元。项目还带动了周边20多家农户开办农家乐，当地的鸡、鸭、羊、竹笋等土特农产品也呈现产销两旺的良好局面。', '人气火爆可不止“兔子的老家”。每当夜幕降临，武功山景区“幸福小镇”灯火璀璨，臻福里、时光里的创意集市、民俗展演区人头攒动。', '“现在，游客不仅可以欣赏山上羊狮慕、武功山的美景，而且还能参与各色旅游项目，我们月月有活动、周周有演出，景区人气明显提升。”安福武功山管委会营销科科长李颖卿介绍。', '以山水为客厅，款待八方来宾。依托县域“一湖两山三泉”，城区“一镇两带三千年”丰富文旅资源，不断满足广大游客“吃住行、游购娱”需求，“吉安生态会客厅”不仅有前景，更有“钱”景。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>125</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>外出考察学经验实地交流促发展曾永健副主任带队外出开展学习考察活动</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10223096.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['吉安市人民政府 重大战略部署落实 外出考察学经验 实地交流促发展——曾永健副主任带队外出开展学习考察活动', '市发改委党组成员，市重点工程建设服务党组成员、中心副主任曾永健率社会发展科一行赴宜春市、萍乡市和安福县', '4月22日，曾永健一行在宜春市发改委开展座谈，双方就社会领域项目申报和管理工作进行了深入的交流讨论，会后参观了宜春市人民医院省级区域医疗中心、袁州区保育院、宜春市养老服务中心第二分中心等托育医养项目。', '萍乡市、安福县考察。在萍乡，实地参观了萍乡市萍矿总医院高坑普惠养老医养结合项目、安源金秋养老服务中心、安源区妇幼保健院托育服务中心三部建设项目，并就医育、医养融合模式、项目储备与支持等方面与萍乡市发改委开展了座谈交流。在安福县，现场查看了安福中学、安福县人民医院等在建项目，随后召开', '2024年中央预算内项目建设及社会领域项目储备座谈会，与安福县发改委、卫健委和有关项目责任单位负责人对照项目逐项过筛，']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>125</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>罗文江率队赴深圳市南山区学习考察推动两地交流合作进一步走深走实共享产业转型升级发展新机遇黄湘岳参加会谈交流</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-04-27</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-88073.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['吉安市人民政府 罗文江率队赴深圳市南山区学习考察 推动两地交流合作进一步走深走实共享产业转型升级发展新机遇 黄湘岳参加会谈交流', '罗文江率队赴深圳市南山区学习考察 推动两地交流合作进一步走深走实共享产业转型升级发展新机遇 黄湘岳参加会谈交流', '（全媒体记者郭欢）吉安市与深圳市南山区在长期的交流互学互促中结下了深厚的情谊。4月26日，市委书记罗文江率队赴深圳市南山区，学习考察南山区先进的工作理念和良好的发展态势，推动两地交流合作进一步走深走实，并走访对接智能制造头部企业，坚定优质企业、项目来吉安发展信心，共享产业转型升级发展新机遇。', '期间，罗文江与南山区委书记黄湘岳进行会谈交流。市领导王大胜、傅正华参加。南山区委副书记、政法委书记廖子彬陪同考察并参加会谈。', '会谈中，罗文江简要介绍了吉安经济社会发展情况。他指出，吉安市与南山区的合作交流已有一个很好的基础，双方结下了深厚的情谊。当前，吉安上下深入贯彻落实习近平总书记考察江西重要讲话精神，聚焦“走在前、勇争先、善作为”目标要求，深入实施“十大攻坚战”，立足吉安实际锻长板、补短板、布新板。深圳是改革开放的排头兵，南山作为深圳经济第一强区，培育优质产业，推动高质量发展的先进经验是吉安学习对标的榜样。热切期盼双方继续加强交流、互学互促，发挥南山区在创科赋能产业发展、培育新质生产力的经验优势，指导帮助吉安增强电子信息“三驾马车”服务牵引作用，并在人才招引培育、电子信息产业转型升级、“井冈山”农产品区域公用品牌建设和市场拓展、游客互送等方面加强合作对接，实现两地共赢发展。', '黄湘岳对吉安经济社会发展取得的成效表示祝贺。他说，吉安与南山多年的交流合作是两地优势互补、发展互促的双向奔赴，两地干部群众结下了深情厚谊。希望双方在电子信息产业制造和研发上建立长效合作机制，加快推动两地电子信息产业“产供销、内外贸、上下游”一体化发展。南山区将发挥市场优势，线上线下齐发力，帮助“井冈山”农产品区域公用品牌构建供需渠道、畅通物流通道，推动吉安优质农产品进机关、进食堂、进商超、进电商平台，满足南山乃至深圳群众对绿色精品特色农产品的消费需求。围绕干部培训、红色旅游、康养度假等加强两地对接合作，打造更多精品旅游路线，推动吉安和南山旅游高质量发展。', '吉安要实现突围发展、争得应有地位，就是要瞄准“领头雁”“排头兵”，提高标准找差距，全面深入学习南山区在发展境界、发展质量、深化改革、创新发展、对外开放、优化营商环境等方面的真经。罗文江一行前往深圳湾科技生态园，学习项目培育产业生态模式的实践与探索；考察云天励飞公司、鲲鹏产业源头创新中心，了解“科创+产业”发展与应用；考察南头古城保护开发项目，学习当地城市更新经验。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>125</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>推动赣吉两地全面联动发展建设江西南部重要增长极吴忠琼罗文江讲话王亚联李克坚肖玉兰廖宏刘兰芳赵多仙徐兵等出席活动</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-87073.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['吉安市人民政府 推动赣吉两地全面联动发展建设江西南部重要增长极 吴忠琼罗文江讲话 王亚联李克坚肖玉兰廖宏刘兰芳赵多仙徐兵等出席活动', '推动赣吉两地全面联动发展建设江西南部重要增长极 吴忠琼罗文江讲话 王亚联李克坚肖玉兰廖宏刘兰芳赵多仙徐兵等出席活动', '（全媒体记者郭欢、任洪广）3月19日，赣州市党政代表团在我市考察，并召开赣州·吉安联动发展第二次联席会议，深入学习贯彻习近平总书记考察江西重要讲话精神和全国两会精神，认真贯彻省委、省政府决策部署，推动赣州、吉安两地全面联动发展，建设江西南部重要增长极。', '省委副书记、赣州市委书记吴忠琼出席并讲话，市委书记罗文江主持并陪同考察。市委副书记、市长王亚联，赣州市委副书记、市长李克坚，市领导肖玉兰、廖宏、刘兰芳，赣州市领导赵多仙、徐兵、胡剑飞、何善锦出席活动。', '会上，双方共同签署了战略合作框架协议。两地将在产业互促、设施互通、游客互送、干部互派、民生互惠等方面深入开展务实合作，联动建设江西南部重要增长极。', '吴忠琼说，赣州联动吉安建设江西南部重要增长极，是省委十五届四次全会作出的重大部署、提出的更高要求。赣吉两地源远流长，在中国革命史上谱写了壮丽诗篇，现在同饮赣江水、同行京九（昌赣）线，共享振兴利、共建增长极，具有良好的合作基础和广阔合作前景。赣吉两地要按照省委、省政府部署要求，发挥各自优势，进一步深化合作，共同争取重大政策、重大项目，努力将各类支持政策转化为老区发展的务实举措，实现共用共享，推动政策效应最大化；共同促进产业错位发展、协同发展，精准承接粤港澳大湾区产业转移，协同打造赣粤电子信息产业带和赣深数字经济走廊，开展科研攻关和人才招引，加快推动产业往价值链中高端攀升；共同优化公共服务、密切交流协作，推动两地住房公积金、异地就医报销、户籍迁移、养老保险关系转移接续等高频事项跨市通办，强化高等教育、职业教育、人才交流、对外开放等方面的对接合作，方便两地企业和群众办事，进一步优化营商环境。希望两地携手合作、双向发力，共同建设江西南部重要增长极，为全省打造“三大高地”、实施“五大战略”作出新的更大贡献。', '罗文江代表市委、市政府对赣州市党政代表团的到来表示欢迎。他说，一直以来，赣州都是吉安学习的榜样，两地联动建设江西南部重要增长极以来，结出了丰硕的成果。去年以来，吉安谋划实施“十大攻坚战”，并取得初步成效，但发展不足仍然是吉安最大的短板，希望赣州给予更多支持和帮助，两地全面联动，唱好“双城记”、建设“增长极”。在争取政策方面，希望赣州发挥经验优势，给予吉安精准有力的指导和帮助，争取更多事项纳入国家、省政策支持。在产业合作方面，希望两地聚焦电子信息等特色优势产业，加强合作、协同招商，推动吉安电子信息“三驾马车”共建共享，形成内部供应链配套，共同打造国家级电子信息先进制造业集群；基础设施互通方面，希望共同推进长赣高铁、樟树至兴国、兴国至桂东高速公路等项目尽快开工建设，加快赣江全河段、全时段三级通航建设，促进两地水运经济高质量发展。同时，在文化旅游、人才引培、农业发展等方面继续保持深度合作，推动联动发展走深走实，共同谱写两地合作的崭新篇章。', '王亚联通报了两地联动发展有关事项推进情况，并提出今年工作建议。李克坚就有关事项作了回应。', '当日，代表团一行来到吉安电子信息产品检验检测中心、江西立讯智造有限公司、吉安高铁新区科创中心和万安水电厂及赣江万安二线船闸等地学习考察。大家认为，吉安市在产业发展、城市建设、红色旅游、乡村风貌等方面成绩显著，创造了许多改革创新经验，值得赣州学习借鉴。下一步，要进一步解放思想、积极进取，努力将此次学习考察成果转化为切实可行的思路举措，加快建设革命老区高质量发展示范区。同时，加强与吉安的沟通交流，不断创新合作机制、提升合作层次，努力实现高质量联动发展。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>125</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>万安提升干部能力作风谋振兴促赶超</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-88485.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['（邱哲、林海宾）“通过到赣州市南康区学习，发现了差距、拓宽了思路。”近日，万安县夏造镇相关负责人说。今年以来，万安县深入贯彻联动建设江西南部重要增长极的工作部署，以打好党员、干部能力作风提升攻坚战为抓手，持续推动思想大解放，促进县域经济赶超跨越、突围发展。', '注重专业专技提升能力。该县组织党员、干部前往赣州等地开展学习考察20余批次。开展“联动赣州话比拼”活动，以“学习归来谈举措”“‘十大攻坚战’金点子征集”、县委理论中心组集中学习等形式，吸收消化学习成果。充分发挥县委党校主阵地作用，开设工业攻坚、农业攻坚等8个主题专修班，针对性安排课程48门，全面系统提升业务能力。建立一线历练机制，在全县选派28名优秀干部到“十大攻坚战”一线，提升综合素质。', '注重典型引领提升效能。该县坚持先进典型的培育与选树，以典型引领激发攻坚活力。精心部署开展“最美奋斗者”“最美拼搏者”“最美开拓者”等先进典型选树活动，在各领域、各行业、各层面发现榜样标杆。去年，该县共分两批次选树、表彰了“四最”典型40名，举办先进事迹宣讲报告会20余场，在全县上下营造学习典型、争当典型的浓厚氛围。同时，坚持正确导向，对业绩突出、表现优秀干部提拔重用41名、激励性职级晋升46名，激励干部担当作为。', '注重勤廉教育转变作风。该县实施作风突出问题专项整治行动，深化勤廉教育和监督执纪，深入开展政治家访、开设“纪律小课堂”等活动，对新任科级干部集体廉政谈话。积极探索创新警示教育方式，深入挖掘万安红色资源，组织党员干部聆听红色故事、参观红色教育基地等，锤炼政治本色。同时，广泛收集整理万安勤廉好故事，通过举办“涵养好家风、争当廉内助”培训班、上专题廉政党课等方式，筑牢领导干部拒腐防变防线。今年一季度，该县地区生产总值完成28.95亿元，同比增长6.1%，规上工业累计完成总产值26.01亿元，同比增长5.2%，实现经济平稳开局，回升向好。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>125</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>关于市五届人大四次会议第号代表建议的答复</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10220288.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['您提出的“关于帮助吉安市企业提供产品检测服务的建议”的建议已收悉，现结合我局职能答复如下：', '接到建议通知后，我局高度重视，经局党委会专题研究，决定指定专职机构、专人承办。承办机构结合我局的工作职能，认真开展了该提案的办理工作。', '吉安市这两年的高质量发展下，引进了多家高新技术企业和配套的供应链企业，在企业产品研发创新的同时，本地缺乏对企业产品检测的权威机构和第三方的认证机构，导致一些新开发产品需外发检测，延缓进度', '”等问题切中要害，揭示了我市目前检验检测的窘境和现状，这些问题也是监管部门一直以来关注、思考、探索的重点；您提出的“', '如在吉安市本地能够有相关的检测机构对接企业产品性能检测，同时检测中心能够为企业提供技术指导，那不仅可以加快企业研发创新及新产品升级的进程，还大大提高了企业产品在市场的竞争力，增强吉安市企业的核心竞争力，助推吉安市经济高质量发展', '目前，世界各国普遍采用认证认可检验检测方式来加强市场监管、促进经济贸易发展，检验检测产业被称为质量管理的“体检证”、市场经济的“信用证”、国际贸易的“通行证”。', '2011年，国务院首次将检验检测服务产业以一个产业整体确定为国家重点发展的八大高技术服务业之一；但检验检测产业“依附性”较强，制造业及其他相关服务业的发展与其形成强关联。如何做好检验检测促进经济社会创新发展是我们市场监管部门根据自身职责如何依法依规履职尽责的一项长期工作。', '通过对吉安市的检验检测机构水平能力走访调研，我们了解到目前我市共有各类检验检测机构', '2家，技术含量均偏低；涉及到我市高质量发展的主要产业电子信息相关检测机构没有一家，目前也只有几家大型的电子企业（红板、满坤、博硕等）拥有自己的实验室还是不能对外服务出具数据的内部实验室。', '为更好地服务我市经济建设，促进吉安市电子信息产业健康快速发展，目前，我局正全力配合井冈山经济开发区筹建吉安市电子信息产业公共检测平台。', '我们成立了工作专班，明确了责任领导、责任人员，及时跟进衔接有关工作。赴省市场监管局进行专题汇报请求支持，恳请省局对吉安建设平台工作给予全力支持、全力以赴，开辟申报审批绿色通道。争取省检验检测认证总院的技术指导，省总院专家组多次到我市进行专题调研，提出了可行性建议。组织赴赣州市国家钨与稀土产品质量检验检测中心、南康家具国检中心进行平台建设考察，学习了先进经验，明析了建设思路。形成了《关于建设省级、国家级电子信息产业公共检验检测平台的请示》报市政府参考。协同井开区赴深圳市、广州市学习考察赛宝、赛西等全国顶尖电子信息专业检验检测机构的先进经验，收集、整理了《省级产品质量监督检验中心申报程序条件及建设要求》供决策参考。按照市政府要求，对组建吉安电子信息产品公共检验检测中心的课题深入调查研究，形成了专题调研报告，提供精准数据和翔实参考。', '目前，吉安市人民政府与省市场监管局已签订了战略合作框架协议，提出了在吉安建设江西省电子信息产品检验检测平台的构想；为落实战略协议的内容，井开区管委会与省检验检测认证总院签署合作共建江西省数字电子材料及显示器件产品质检中心的具体协议；', '12日，省市场监管局批复同意筹建江西省数字电子材料及显示器件产品质检中心。同时，通过发放检验检测需求表、座谈等形式向', '50余家电子信息产品相关制造企业了解产品检验检测需求，通过对企业反馈数据进行全方位分析研判，在前期调研的基础上，确定建设产品检验检测中心主要建设“', '8000万元，主要用于场地改造装修、实验室建设、检测设备采购等，目前已花费建筑安装工程费约', '7台设备）。质检中心东南西北四个面改造、市政工程建设、门卫室建设、院子围栏安装、前广场绿化已基本完成，处于收尾阶段。院内道路还需要增铺沥青。室内实验室、办公场所建设正在有序推进，首层地砖铺贴完成', '下一步，我局将在市委、市政府的高位推动下，在井开区的牵头下，积极发挥我局的资源和职能作用，努力做好对接、协调等具体工作。', '加紧与省市场局、省检验检测认证总院的汇报沟通，争取政策、技术、人才等方面的支持，落实省市场局与市政府签定战略合作协议以及与省检验检测认证总院签定具体合作协议的内容，同时，协助做好项目的筹建工作。', '积极协助、参与检验检测设备选型、实验室布局，以及建设运行平台所需的技术人才引进落地等工作。', '3个调研组，对全市各工业园区的电子信息规模以上企业的检验检测能力、委外检测需求，以及中心检验检测方向等方面进行深入调研，摸清情况，保障在检测中心建设上做到精准定位、满足企业检验检测需求。', '积极申报批筹。市场监管局配合井开区管委会向省检验检测认证总院完善各项筹建材料，上报省总院，由省总院综合所有筹建材料后，上报省市场监管局批筹。', '压实责任，按照市委、市政府的部署，将平台建设工作落实到部门、落实到人员，举全局、全系统之力，推进质检中心早日落地见效。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>125</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>关于市五届人大四次会议第号代表建议的答复</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10220629.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['分管副市长徐开萍高度重视，对市中心城区三家试点医院以及泰和县安宁疗护试点机构进行了专题调研指导。', '。严格按照国家《安宁疗护中心基本标准(试行》《安宁疗护中心管理规范(试行)》和《安宁疗护实践指南(试行)》要求设置硬件、软件，努力提高安宁疗护服务质量。', '2022年医养结合民生工程项目省级资金投入50万在泰和人民医院、中医院和吉水县中医院', '参照《安宁疗护中心基本标准和管理规范》，不断完善服务模式，推行医生、护士、康复师、心理咨询师、营养师等多学科安宁疗护团队协作的服务模式，为疾病晚期与生命终末期患者提供疼痛及其他症状控制、舒适护理、心理慰藉等服务，对患者及家属提供社会支持、心理支持、死亡教育和人文关怀等服务。', '通过多次外派学习考察和院内培训，团队成员多次参加国家及省级安宁疗护实践技术培训，并安排数名医生、护士赴省内、外进修', '各地医疗机构严格按照国家《安宁疗护中心管理规范(试行)》《安宁疗护实践指南(试行)》要求', '建立了安宁疗护病房管理制度、工作流程、安宁疗护病情告知书、安宁疗护病房住院协议书、营养状态评估量表等', '，并对试点医院院护士、肿瘤血液科护士及相关医护人员进行安宁疗护相关知识、操作技能培训', '探索制定安宁疗护治疗和护理收费项目及标准，推动心理疏导、上门服务等项目纳入收费范围。探索推动将居家和机构安宁疗法护服务费用逐步纳入其他补充医疗保险范畴。', '保障药物配备。对安宁疗护服务中所需的止痛、镇痛、麻醉等药物给予政策支持，并加强监管。建立科学合理的药物配送流程。', '各地打造以二级医疗机构为中心，医养结合机构、一级医疗机构相联合的安宁疗护体系。二级医院通过技术合作、远程诊疗、定向帮扶，实现安宁疗护患者经过县级医院治疗后，待身心状态平稳，可再由县级医院向医养结合机构或一级医院进行转诊，由基层医院参与后期安宁疗护治疗，有需要的患者同时享受养老护理服务。开展安宁疗护的', '我市安宁疗护试点以来，市直及各县（市、区）医疗机构都由医院党委结合“党建+安宁疗护志', '”模式，组建了由临床医师、护士、心理咨询师、营养师、社工志愿者组成的“安宁疗护”志愿服务队伍，以“提高患者生命质量”为目标，通过每周组织志愿者为临终患者及家属提供“全人、全程、全家、全心、全队、全社区”的“六全”照顾，使患者在身、心、社、灵方面的到全方位的关怀，帮助患者获得高质量的临终医学照顾。为加强', '安宁疗护工作理念和知识的宣传普及力度，市、县各级充分利用“重阳节”、“敬老月”和“世界安宁疗护日”等时机，广泛开展老年健康与安宁疗护服务相关的理念、知识宣传，尤其是加强对全人群的“生命教育”，增强社会对安宁疗护服务的认识和接纳。', '号推出《让患者“归途”更有爱，让生命带着尊严谢幕》、在井冈山报上刊登《用爱温暖“生命最后一公里”》、在中国家庭报上刊登《临终关怀，让爱围绕》、', '通过有效的症状控制、舒适照护和人文关怀，减轻痛苦与不适，得到患者及家属的充分肯定和赞扬，满意度达98.5%。', '我市各中医院安宁疗护病区发挥中医文化和经典理论优势，将中医经典理论与名老中医学术思想作为临床指导，坚持“协同联动为轴、中医经典为经、安宁疗护为纬”精心打造“红色老区中医经典安宁疗护病区”病区以肿瘤科前期工作为基础，联合内科、疼痛科、老年医学科、志愿者及医务社工团队等共同开展安宁疗护工作。针对患者的病情，医院在现代医学的基础上，应用隔物灸、鳖甲灸、中医按摩膏、金针、药罐等中医适宜技术，制定内服外调为主导的中医安宁诊疗方案，取得了满意的效果。', '我市安宁疗护工作虽然取得了一点成绩，但与人民群众的期朌和要求还有较大的差距。下一步，我们将进一步提高思想认识，加强业务学习，', '将按照市老龄委印发的《吉安市“十四五”老龄事业发展实施方案》和《关于加强新时代老龄工作的实施方案》的要求，积极', '加快安宁疗护机构的标准化，规范化建设，支持社区和居家安宁疗护服务发展，建立机构社区居家相衔接的安宁疗护工作机制，形成畅通合理的转诊制度，', '进一步强化医生、护士、心理咨询等安宁疗护工作人员对安宁疗护基础知识、实践操作的能力，为安宁疗护工作推广打好基础。', '扩大社工志愿者服务工作。社工和志愿者服务成为安宁疗护服务中不可缺的组成部分，我们将以“学雷锋日”为契机或依托井冈山大学等专业高校资源开展全市社工和志愿者服务培训，引导团员青年及社会各行业志愿者在奉献中体现作为，并且让大家更深切理解安宁疗的意义。', '广泛开展舆论宣传和科普教育，通过制作宣传片、生命教育绘本、论坛、讲座、微信公众号、板报、电视、展版、发放宣传单等方式，', '宣传普及安宁疗护的知识和理念，使广大群众对安宁疗护工作有基本了解，对死亡有更新的认识，提高社会公众对安宁疗护的认知度接受度,积极营造文明的社会舆论氛围。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>125</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>关于市政协五届三次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-06-28</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10220506.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['您好！您在市五届政协三次会议上所提的《预制菜产业潜力巨大》已收悉。我局对您提出的建议高度重视，现就您提出的建议回复如下：', '近年来，全国预制菜产业目前处于高速增长期，从2010年的70亿左右，发展到2020年2500亿元，2021年根据各电商平台公布的数据，预制菜销量大多实现了销量/销售额翻番，有人预测预制菜产业规模将超过4万亿元。预制菜产业已成为带动“三产”融合，提高农产品附加值，促进乡村振兴的新兴产业。', '我市具有农副产品丰富的优势，粮食、蔬菜、畜禽、水产均为省内大市，外销量巨大，但均为初级产品，市内预制菜产业主要涉及畜禽肉类、蔬菜类和水产类，目前集中于泰和县、吉安县、遂川、峡江、安福、吉水、新干、永丰、永新、吉州等县（区），目前全市预制菜产业目前仍处于起步阶段，产值破千万级、亿元级的预制菜企业很少，多数产品只是初加工产品，如板鸭、火腿等，整个预制菜产业氛围不浓，规模小（超亿元企业几乎没有），标准低（目前尚未建一家标准中央厨房），研发、营销人才和产业工人缺乏，部分原辅料及包装材料短缺，品牌效应弱，同时还受肘于用地困难、贷款门槛及利息高、电价贵甚至营商环境等因素。我市预制菜发展周边省、市相比，起点低，外部环境、市场和产业链齐全等方面不具备优势，必须急起直追，实现弯道超车。', '1.起草出台产业发展扶持政策。根据市委、市政府领导批示精神，结合调研情况，3月份开始，我局着手起草《关于推进吉安市预制菜产业高质量发展的若干措施（征求意见稿）》以下简称《措施》，3月24日下午，肖玉兰副书记亲自主持座谈会，听取各县（市、区）政府对该《措施》的意见；6月26日下午肖玉兰副书记再次召开市农业农村工作领导小组会，审议该《措施》；7月3日，陈庆寿副市长听取了该《措施》的情况汇报；目前该文件准备通过市政府常务会审议下发', '2.创新开展预制菜产业调研。预制菜产业在我市是新鲜事，相关部门都不熟悉。为此，市农业农村局专门组织人员赴市内个相关行业开展调研，摸清市内预制菜底细。3月21日下午，市农业农村局又组织召开了预制菜产业发展企业家座谈会，并充分听取企业主体意见；5月5日-6日，市农业农村局又组织部分预制菜产业企业一起前往湖南宁乡市等地学习考察预制菜产业发展经验和做法，同时学习借鉴广州、赣州以及河南原阳等地做法，为《措施》的起草积累素材。', '3.大力培引预制菜产业主体。前期各地积极运用招商引资政策，全力招引和培育了一批预制菜企业落户吉安，如万安招引广东企业开发“万安鱼头”,吉安县培育龙汇食品投资预制菜，永新推动“新四季”公司开发牛肉干，安福继续做强“带皮牛肉”等；6月8日，吉安市农业产业招商重点项目（预制菜）集中开工暨傲农毅植生物科技项目开工活动在泰和召开，全市又有10余家预制菜企业集中开工，营造出良好的预制菜产业发展氛围。', '一是大力培育招引预制菜产业主体。通过从用地、税收等方面给予支持，在固定资产投资和国家级龙头企业认定方面给予奖励，招大引强和“老树发新枝”同步推进，培育一批预制菜龙头企业，引领我市预制菜产业弯道超车。', '二是建立一批高品质原料供应基地。推动预制菜企业与农民专业合作社、家庭农场和种养殖大户建立完善利益联结机制，建设一批规模化、标准化原料基地，引导有条件的餐饮企业建设产地原辅料配送中心，带动农业产业发展。', '三是壮大市内预制菜人才队伍。发挥和利用好市内人才引进的各项政策，引进、培育并留住一批高素质预制菜研发、营销、管理人才，本地院校开设预制菜相关专业培养一批预制菜产业技工，解决产业人才缺乏问题。', '四推动预制菜产业集群发展。支持组建吉安预制菜产业发展联盟，制定一批“井冈山”品牌预制菜标准和和入标企业，建设一批“标准化、规范化、透明化”中央厨房，并引导建立全产业链信心共享平台，推进地方特色预制菜产业集群发展，走出吉安。', '五是优化预制菜产业发展环境。从营商环境、政策支持、用地、资金、项目等相关政策上予以支持和保障，建立预制菜产业发展工作协作机制，纳入市对县（市、区）的考核；落实市级专项资金，在用地、财税、金融政策等方面予以支持，不断优化预制菜产业发展营商环境。', '相信相关政策实施后将对吉安预制菜产业发展发挥好的引领带动作用。同时感谢您对全市预制菜产业的关心和关注，希望今后在您的关注下，吉安预制菜产业会有更大的发展。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>125</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>文字解读吉安市中心城区智能消火栓试点建设实施方案</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10219953.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['吉安市人民政府 政策解读 【文字解读】《吉安市中心城区智能消火栓试点建设实施方案》', '为进一步强化我市中心城区市政消火栓管理，推进消火栓智能化升级改造，吉安市政府办公室于', '2023年4月11日出台了《吉安市中心城区智能消火栓试点建设实施方案》，现将有关政策解读如下：', '市政消火栓是重要公共消防设施，具有点多、面广、易损坏、难管护等特点，全国多地都出现过因市政消火栓损坏、缺失、无水或水压不足等问题而导致消防扑救时间延迟等情况。为有效解决上述问题，国内部分城市探索智能消火栓建设，取得较好效果，如长沙、新余等市开展智能消火栓试点，实现试点区域内智能消火栓全覆盖，并通过智能化管理，实时掌握消火栓状态，减少了私启消火栓等违法行为的发生，', '市政府召开的市政消火栓建设调度会上，与会同志认为有必要在市中心城区部分区域试点建设智能消火栓。', '、吉州区城管局、青原区住建局、庐陵新区工程建设局参加的学习考察组，赴长沙市、新余市学习考察了智能消火栓建设管理工作情况并形成考察报告呈报市政府。', '2023年3月27日在王大胜常务副市长、胡海洋副市长主持召开的智能消火栓建设调度会上予以讨论。2023年3月28日，市住建局根据调度会会议精神修改完善，形成《吉安市中心城区智能消火栓试点建设实施方案（征求意见稿）》，向三区人民政府（管委会）及市直有关单位征求意见，共征求到意见建议3条，并根据意见进行修改完善，经2023年6月25日市五届政府第16次市长办公会审议通过。', '4个试点建设区域范围等三个方面内容。其中智能化升级改造分三种方式：一是加装非法用水报警器。对于运行情况良好的市政消火栓，通过加装非法用水报警器（智能帽）进行智能化升级。二是增补一体式智能消火栓。对于无法正常使用的市政消火栓，更换为带有压力监测功能的一体式智能消火栓，同时在缺口区域同步新增一体式智能消火栓。三是新增智能取水栓。在试点范围内设置市政园林环卫等专用取水点，安装带有精准计量']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>125</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市行政服务中心深入推进莞吉通办</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-78930.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['积极对接东莞市政数局，加强数据互通共享，先后4次赴东莞学习考察，探索双方合作方式。', '学习东莞先进做法，创新推出“带押过户”、“涉企不动产登记零收费”等业务，推动不动产预告登记、一手商品房转移登记等业务前移至开发企业或银行办理。', '开设“跨省通办”专窗专区，全面推行“莞吉通办”服务，确保两地企业群众办事无差别受理。截至目前，累计办理“莞吉通办”业务2941件。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>125</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>深圳市龙岗区南湾商会赴井冈山经开区考察</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-78042.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['月深圳市龙岗区南湾街道工商联主席、商会会长赵志明率企业考察团一行赴我市井冈山经开区开展商务学习考察活动，受吉安市妇联党组书记、主席张敏同志委托，党组成员、副主席郭丽兰陪同考察，经开区党工委副书记郭晶晶、经开区招商服务局等相关负责人参加了座谈会。', '座谈会上，经开区招商服务局详细介绍了经开区的区位优势、投资政策、产业定位及园区建设情况，并诚挚邀请企业负责人到园区实地考察，共同探讨合作事宜，共谋事业发展。考察团一行表示，近年来吉安地理位置、生态环境愈发优越，首位产业发展强劲，各类配套设施完善，他们十分看好我市的资源、政策、市场、文化等方面的优势和良好的投资环境。', '市妇联招商队表示，深圳是改革开放的前沿，吉安作为革命老区，将深入学习深圳开放、友善、包容的城市精神，并希望以此次座谈会为契机，共同搭建合作平台和机遇，推动两地企业合作共赢。随后考察团一行还实地参观考察了南亚新材料公司，并与负责人进行了交流', '。今后，吉安市妇联将持续做好招商引资工作，结合妇联职能职责，充分利用各类资源，加强汇报对接，积极主动协调，努力吸引更多优质企业到我市投资兴业。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>125</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>罗彩燕率队到上饶衢州等地学习考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/1OLMT4RMS9Cm--i_lfgyjQ</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['吉安市行政服务中心大厅是市委、市政府为进一步优化投资环境、提高行政效率设立的集中办理行政审批和相关业务的场所。', '6月18日至21日，中心党组书记、主任罗彩燕带队赴我省上饶市和浙江省衢州市、杭州市、嘉兴市，就数字化政务大厅建设与管理、区块链+政务服务、人才服务等工作开展学习考察活动，中心党组成员尹桂云、相关科室同志，永新县、新干县行政服务中心负责人及市税务局窗口分管领导等参加。', '上饶市政务服务中心于2019年进行智能化升级改造，大力推进政务服务由传统审批向智能服务转变。考察组实地了解了大厅布局、功能设置、业务办理流程、人员配置，以及“一件事一次办”、“免费刻章”、无声叫号、24小时自助服务区等便利化服务举措开展情况，并就政务服务数字化建设等方面工作进行了座谈交流。', '衢州市政务服务中心融合政务服务、公共服务、便民服务等多功能于一体，设有无差别受理、数字加工厂、小秘书帮办区等数字化模块，大大提高了智能化水平。考察组深度体验了智能导服、无人超市、社保医保协同办理窗口、智能科技展示体验区，还参观了健康小屋、城市休闲书吧、市民艺术会客厅、百姓梦想舞台等功能板块，通过沉浸式交互体验前沿科学技术给政务服务带来的便利，感受传统文化与未来科技融合的魅力。考察组还参观了江山市政务服务中心，认真询问了无差别受理板块办结情况和企业开办导办区的日常工作，详细了解关于个人全生命周期“一件事”联办、企业水、电、气、网络报装“一件事”等便利化改革工作，并就如何做好政务服务“集成办”“网上办”“就近办”工作交流了意见。', '在杭州市萧山区政务服务中心，考察组一行实地考察了大厅建设、功能布局、便民服务设施配套等情况，详细了解“刷脸办”、“无声叫号系统”、“压力分流”等智能服务模式，切实体会到智慧政务大厅的高效性和便捷性。', '考察组一行来到嘉兴市南湖区行政审批服务中心。参观考察了常态化企业开办一日办结、“无差别全科受理”、政务服务2.0升级试点、机关内部“最多跑一次”改革、公用事业服务办理基层集成办及“最多跑一次”向基层延伸推进“就近办”等情况。在座谈交流会上，考察组重点了解了南湖区在大厅智能化建设、规范化管理、信息化建设、一体化建设等方面好的举措和做法。双方就政务服务改革工作中的一些难点问题进行了深入交流。', '考察组成员一致表示获益匪浅：既看到了差距、发现了“短板”、感受了压力，也开阔了视野、丰富了思想、更新了观念。下一步，中心将以此次考察学习为契机，持续深化“放管服”改革，加快推进政务服务数字化大厅建设，深刻剖析现状，梳理查找短板、谋划功能布局，借助数字化改革大刀阔斧地减材料、减环节、减时限，聚力推动改革理念和服务效能双提升，不断擦亮“吉事即办”政务服务品牌，以有力举措助力重大项目建设提速增效，以更优服务保障市场主体健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>125</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>莞吉通办让政务服务更畅通</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-79075.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['（记者曾诗敏）吉安和东莞历来经济合作紧密，人文交流频繁。去年6月，经国务院批准，吉安市与东莞市正式建立对口合作关系，两地合作交流更加紧密。为进一步提升吉安与东莞两地企业群众办事便利度，我市行政服务中心积极探索，创新推出“莞吉通办”服务，不断提升跨区域政务服务水平，携手书写“特区带老区”发展新篇章。', '数据多跑路，群众少跑腿。为免去群众办事莞吉两地奔波的麻烦，去年以来，我市在“跨省通办”的基础上特推出“莞吉通办”服务，让高频事项实现不出远门，即刻就能办好。“迁户口、异地身份证办理是我们派出所办理的高频事项。”吉州公安分局北门派出所户籍民警王璐还告诉记者，以前想要迁户口，群众要拿着纸质材料，在莞吉两地来回跑三次左右，要花费较长时间才能办好。现在只需在迁入地派出所提交申请材料，在短时间内，一站式就能办结。', '“太方便了，我们都不用回吉安县，直接在东莞的派出所提交申请材料，就把户口都迁过来了。”吉安县人肖三英说道，她们一家早在2007年就在莞经商，为了方便三个小孩在东莞入学，需要把户口迁入东莞市东坑镇。肖三英在东莞当地派出所提交申请材料后，没过几天就把户口迁过来了，她自己都没想到现在这么方便。她还说如果是以前那样两地来回跑几趟自己肯定不会去办理了。', '为推出“莞吉通办”服务，我市行政服务中心积极对接东莞市政数局，加强交流互动，探索双方合作方式，多次组织相关工作人员赴东莞市及虎门镇、厚街镇实地学习考察。通过线下开设“跨省通办”专窗、线上建设互联互通的“跨省通办”专区方式，全面推行“跨省通办”“莞吉通办”服务，实现两地企业和群众办事无差别受理、同标准办理、“就近一次办成”。截至目前，在东莞市可办理吉安市市本级事项130项，在吉安市可办理东莞市市、乡（街道）两级事项502项，共办理“莞吉通办”业务2941件。接下来我市行政服务中心还将推动“莞吉通办”服务下沉至县区，探索合作推广东莞、吉安两地“电子证照”“电子印章”在政务服务领域的跨省应用。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>125</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>学习先进经验深化合作交流推动吉安高质量发展王少玄率队在上海市浦东新区学习考察朱芝松会见考察团一行</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-78810.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['吉安市人民政府_ 学习先进经验 深化合作交流 推动吉安高质量发展 王少玄率队在上海市浦东新区学习考察 朱芝松会见考察团一行', '学习先进经验 深化合作交流 推动吉安高质量发展 王少玄率队在上海市浦东新区学习考察 朱芝松会见考察团一行', '（记者郭欢）浦东新区从一片阡陌农田建成为一座现代化新城，是我国改革开放的象征和上海现代化建设的缩影。5月22日至23日，市委书记王少玄率队在上海市浦东新区学习考察。上海市委常委、浦东新区区委书记朱芝松会见考察团一行。', '上海市委副秘书长燕爽，浦东新区人大常委会副主任刘宇青陪同考察。市领导王大胜、刘志斌，以及井冈山经开区领导黄国栋随同参加相关学习考察活动。', '王少玄一行实地考察了张江人工智能岛、上海集成电路设计产业园、浦东新区城市运行综合管理中心、上海东方医院等地，深入学习借鉴浦东新区综合改革、科技创新、开放合作、产业培育、城市治理、平台建设等方面经验做法，拓展合作交流领域，积极争取上海先进医疗、教育资源支持，推动吉安高质量发展。', '张江人工智能岛是国内首个“5G+AI”全场景商用示范园区、上海市首批“AI+园区”试点应用场景、上海（浦东新区）人工智能创新应用先导区的核心承载区。王少玄一行详细了解张江人工智能岛软件信息产业和人工智能产业发展情况，现场观摩人工智能在校园、医疗、制造、无人系统等行业应用场景。在上海集成电路设计产业园，王少玄一行听取园区发展成效介绍，了解上海集成电路产业发展现状、成果应用、未来规划等情况。就学习借鉴上海产业发展先进经验，推动吉安电子信息产业向高端化、集群化发展，王少玄强调，要找准定位，积极承接上海等先进地区产业转型升级需求，发挥吉安优势，差异化打造功能载体，着力营造良好发展环境，加大产业对接、平台对接、项目对接力度，加快建设具有国际竞争力的综合性产业集群。', '浦东新区城市运行综合管理中心是浦东城市运行综合管理的统筹协调机构。在该管理中心，王少玄一行观看浦东“城市大脑”功能演示，听取中心体制机制、流程衔接、工作联动等方面情况介绍。王少玄要求，要认真学习浦东城市精细化管理等方面的先进经验，紧紧围绕数据中心、城市大脑、指挥平台的功能定位，进一步提高吉安数据采集、分析、应用的科学性和精准性，有效破解城市治理中的难点、堵点，持续提升城市治理精细化水平。', '上海东方医院与吉安有着深厚的情谊。王少玄一行与医院有关负责同志、医护代表亲切交流座谈，共忆合作友谊、共话合作发展。王少玄代表市委、市政府，以及540万老区人民向上海东方医院给予吉安卫生事业发展、保障群众健康等方面的支持表示感谢。他说，源于情怀的合作，开创了特区带老区的新模式；源于责任的坚守，架起了东方、吉安真挚友谊的彩虹；面向未来的发展，引领我们开启传帮带新篇章。在更加深入长远的合作中，我们将在保持合作感情不变，以及“打造赣中南医疗中心、江西最有品质的健保中心”目标不变的基础上，通过合作模式的改变、合作重点的改变，提高医院的区域竞争力，满足老区群众日益增长的医疗卫生服务需求。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>125</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>助乡村振兴谱检察真情记市人民检察院驻万安县百嘉镇黄南村工作队</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-01-04</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-75372.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['吉安市人民政府_ 助乡村振兴 谱检察真情 —— 记市人民检察院驻万安县百嘉镇黄南村工作队', '(记者曾诗敏)近年来，吉安市人民检察院驻万安县百嘉镇黄南村工作队立足驻村实际，以党建为引领，聚焦产业发展，强化对特殊群体关爱，有力推动乡村振兴工作取得实效。驻村以来，工作队先后入户走访村民400余户，开展各种形式的慰问困难群众活动10余次，落实帮扶资金70余万元，发展产业项目3个，帮助化解矛盾纠纷10余起。', '强化基层组织建设。驻村第一书记曾伟发挥“班长”带头引领作用，主动扛起抓党建主体责任，带领村“两委”扎实开展“三比一争”跨越赶超主题活动和基层党建“三化三争”活动，争创“吉先锋”品牌。2022年以来，黄南村先后被市委组织部评为“六好基层党组织”，被百嘉镇党委评为“先进基层党组织”；村党总支书记李小文被评为全县“三比一争·一心为民好支书”先进典型，曾伟被评为“2022年全市十大最美退役军人”。', '驻村以来，工作队针对村党总支部开展组织生活形式单一、缺乏载体的问题，采取“走出去，请进来”的方式开展各类党建活动。工作队邀请市人民检察院各党支部到黄南村与村党总支部开展结对共建工作。党员们在交流学习中感受到新时代美丽乡村建设取得的显著成就，表示将充分发挥检察职能优势，以党建为引领，以检察工作高质量发展助力乡村振兴工作高质量发展。', '产业发展是乡村振兴的“原动力”。市人民检察院党组多次深入黄南村就产业发展走访、座谈，了解黄南村特色产业发展现状，指导理清产业发展思路，强调完善“村集体＋企业＋农户”共同致富发展模式，助力村民通过土地流转、务工等方式增加收入。让帮扶单位成为帮扶村产业发展的“智囊团”。2022年以来，市检察院驻村工作队结合黄南村实际，帮助黄南村引进种植经济林树木华桐树300棵，成林后可为村集体增收16万元；同时充分借助万安县玻璃红鲤鱼资源优势，大力发展玻璃红鲤鱼养殖，利用25亩闲置水塘，购置投放一万余尾鱼苗，助力黄南村村级产业发展。', '为黄南村产业发展找寻新路子，2022年3月，曾伟主动联系，带领村“两委”干部到青原区富田镇山中村交流学习，实地考察当地乡村振兴主导产业——富田镇黑木耳基地，学习黑木耳种植技术。通过学习考察，确定了黄南村发展本村黑木耳产业的思路。曾伟主动向市检察院申请下拨产业帮扶资金15万元，用于建设黄南村富硒黑木耳产业基地，并全程参与黑木耳菌棒采购和种植，现已完成基地10亩、7万包黑木耳菌棒的“着床”，预计可为村集体增收6万元以上，解决10余户脱贫户就业，平均每人可增收2000元以上。', '市人民检察院党组对乡村振兴工作高度重视，驻村工作队紧紧围绕市院工作目标，立足黄南村本土文化与检察特性，争取在黄南村创建检察服务保障乡村振兴的特色品牌，用检察监督传递法律温暖，让阳光司法护航乡村振兴，将工作队打造成“群众家门口的检察院”。', '驻村工作队开展送法下乡法治宣传活动。邀请万安县检察院检察官在黄南村小学开展“把爱带回家——送法进校园护航伴成长”留守儿童关爱活动。邀请市院检察官开展“守住钱袋子、护好幸福家”为主题的反诈宣传活动，提示村民不要贪图便宜，端正保健理念，提高法治意识，守住钱袋子。驻村工作队践行“枫桥经验”，将矛盾化解在源头。2022年，黄南村矛盾纠纷调解率100%，为社会和谐奠定了坚实的群众基础。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>125</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>凝心聚力虚心学赶考路上破难题吉安市委党校年春季主体班赴湖州培训纪实</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-77997.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['吉安市人民政府_凝心聚力虚心学“赶考”路上破难题——吉安市委党校2023年春季主体班赴湖州培训纪实', '凝心聚力虚心学“赶考”路上破难题——吉安市委党校2023年春季主体班赴湖州培训纪实', '\u200b （彭生苟、邓恢萌）坚持学用结合，提升干部综合能力，这是党校干部培训的重要着力点。4月10日至14日，吉安市委党校2023年春季主体班（县处班、乡镇班、正科班）赴浙江省生态文明干部学院（浙江省湖州市委党校）开展异地培训。', '山从天目成群出，水傍太湖分港流。授课教师围绕新时代共同富裕、建设生态文明等内涵及湖州实践进行专题辅导，通过图文结合的方式，以典型案例为指引，从讲好湖州故事入手，深入浅出地讲述了共富的内在逻辑、湖州实践及深化之路。“发展战略是优势区域重点突破，发展理念是生态优先统筹协调。吉安市从吉泰走廊率先发展到建设‘三区’、打造赣江中游生态经济带，要求我们久久为功，战略理念制胜；步步为赢，创新实干制胜；绵绵用力，环境作风制胜。”县处班学员肖向前表示。', '“这次课程涵盖了乡村振兴政策解读、农村如何发展、乡村振兴经验与启示等，既有理论，又有实例，听后受益匪浅，使我更加坚定了理想信念，将以更优良的作风开展工作。”乡镇班学员曾宣淦说道。', '学员们深入长兴县小浦镇方一村、湖州城市规划展览馆、南太湖新区党建+生态示范基地、南浔镇、安吉县余村、水口乡顾渚村等地，授课教师现场教学，引领学员近距离接触湖州深入贯彻习近平生态文明思想。每到一处，学员们谈看法、谈心得，探讨回去后如何开展生态文明各方面工作，用“绿水青山就是金山银山”的工作理念，把生态文明、乡村文明、乡村振兴、乡村旅游等各项工作抓实抓细，抓出成效。', '“通过湖州学习考察后，我看到了湖州开放开明的精神和创新创业的面貌、善谋实干的作风和善作善成的水平、永不满足的态度和奋进担当的勇气。”县处班学员张菊明说，下一步，要注重“干部担当+发动群众”，领导干部提高宣传、组织、服务群众的能力，作榜样，敢决策、敢拍板，以实际行动感染、带动群众。要注重“苦干实干+高质高效”，把高质高效作为实干作风的最佳体现，在工作中改进方法、创新机制、提高效能。要注重“精神引领+考核激励”，大力弘扬井冈山精神，在重大项目、招商引资、生态建设、揭榜挂帅、深化改革等工作中考察干部，把考核结果作为衡量和使用干部的依据，形成全市上下创先争优、比学赶超的良好局面。', '县处班学员左彪说：“此次异地培训对我触动很大、体会很深、收获很多，学习湖州超前的品位、超优的品质、超强的品牌等做法，努力做大做强全市生态文明建设。”在研讨会上，学员们打开心扉，从内心深处讲认识、谈体会、话感悟；或围绕坚持新发展理念，谈对高质量发展的理解；或结合工作实际深入剖析当前生态文明发展的短板，或分享乡村振兴改革以来的经验做法，通过开放、辩论、探讨式的学习，使学习快速升温，也拓展了大家学习理论、思考问题的深度和广度，使学习在研讨交流中取得进步，思想在相互碰撞中得到提升。', '乡镇班学员欧阳小文也深有体会：“我将大兴调查研究之风‘破题’，确立‘两山’发展理念和行动指南，一往无前抓生态建设、一张蓝图抓乡村振兴、一以贯之抓富民产业，营造凝聚‘凡事必成’强大合力。”', '正科班学员万春波深有感触地说：“要以东莞市和吉安市对口合作为契机，建立参观学习、专家授课、优秀干部跟岗、推荐优秀专家团队进驻等多渠道的相互交流机制，不断提升规划设计水平。”']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>125</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>全方位全领域深化莞吉对口合作赋能革命老区高质量发展王少玄率队赴东莞开展对口合作交流活动肖亚非吕成蹊分别陪同考察</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-12-19</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-75045.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['吉安市人民政府_全方位全领域深化莞吉对口合作赋能革命老区高质量发展 王少玄率队赴东莞开展对口合作交流活动 肖亚非吕成蹊分别陪同考察', '全方位全领域深化莞吉对口合作赋能革命老区高质量发展 王少玄率队赴东莞开展对口合作交流活动 肖亚非吕成蹊分别陪同考察', '（记者郭欢）12月15日至16日，市委书记王少玄率队赴广东省东莞市开展考察及对口合作交流活动。东莞市委书记肖亚非，市委副书记、市长吕成蹊分别陪同考察。双方召开东莞·吉安对口合作交流座谈会，共同深入贯彻落实党的二十大精神，推动《革命老区重点城市对口合作工作方案》落地落实，正式签订对口合作协议，进一步深化两市合作交流，赋能革命老区高质量发展。', '市委常委、常务副市长王大胜，副市长傅正华等参加活动。东莞市委常委、组织部部长吕元元，市委常委、副市长刘光滨分别参加相关活动。', '王少玄首先对东莞市委、市政府对吉安这次学习考察的盛情接待、精心安排表示衷心感谢。他指出，东莞与吉安建立对口合作关系，充分体现了党中央、国务院对吉安革命老区的高度重视和特殊关怀，充分体现了东莞市委、市政府的大局意识、责任担当和老区情怀。王少玄说，改革开放以来，东莞发展成就十分显著，发展格局、发展态势令人赞叹，前瞻性思维、创造性思维令人深受启发。我们这次前来东莞，首先是来访亲结对和学习的，学习东莞新思路新理念，同时也是为寻求务实合作交流而来。王少玄指出，一直以来，吉安与东莞的经贸合作十分密切，尤其是今年5月份国务院正式确定吉安与东莞对口合作关系以来，两地交流合作不断拓展，吉安先后在东莞开展了产业招商、旅游推介、农产品销售等一系列活动。当前，吉安上下深入贯彻落实党的二十大精神，锚定“作示范、勇争先”目标要求，聚焦发展“1+4”工业，推进六大富民产业和全域旅游发展。随着对口合作协议的正式签订，两地合作更加务实、空间更加广阔、前景更加令人期待，也一定能够结出更加丰硕的果实。就下一步两地全面深化对口合作，王少玄希望双方建立常态化对接机制，在市县层面推进全域合作；加大干部互派挂职力度，建立双向干部交流挂职长效机制，开展分层次挂职交流。同时，在产业发展上加强合作，在发展电子信息、数字经济、现代农业、红色旅游、生产性服务业，以及推进科技创新、人才引进、政务服务、乡村振兴、平台共建等方面，全面开展交流合作，不断推动政策红利转化为发展红利、外部资源转化为发展的内生动力，实现互惠共赢，让吉安东莞友谊之树不断茁壮成长、枝繁叶茂。', '肖亚非代表东莞市委、市政府对代表团一行的到来表示热烈欢迎，对吉安良好发展态势表示祝贺与肯定。他指出，近年来，吉安市大力弘扬伟大建党精神和井冈山精神，努力在江西崛起中奋勇争先，工作经验值得东莞学习借鉴。东莞与吉安人缘相亲、商缘相连，接下来，东莞将深入学习贯彻习近平总书记关于革命老区振兴发展的重要讲话和重要指示批示精神，认真落实党中央、国务院有关工作部署，把与吉安合作发展放在重要位置，倾注更多资源力量，深化两市对口交流合作。他指出，东莞将大力推动两地红色文化旅游合作，在红色文化交流、全域旅游合作等方面加强沟通对接，联合打造更多精品旅游路线；深入推进乡村振兴，结合东莞产业优势和吉安资源优势，加强在农产品、食品加工、饮用水产品等方面的产业协作，加大吉安农产品采购力度，助力打响吉安革命老区农产品品牌；建立常态化对接机制，互派干部挂职锻炼；共同搭建产业合作平台，推进农业、旅游、电子信息、数字经济等领域合作；加强民生社会事业对接合作，在“一网通办”、打造数字化服务平台、优化营商环境等方面，加强经验共享、模式共创。', '在莞期间，王少玄一行先后前往中国散裂中子源、松山湖材料实验室、松湖智谷产业园、东莞市凯格精机股份有限公司、东莞市规划展览馆等地，学习考察东莞产业发展、科技创新、政务服务和城市建设等方面的先进经验。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>125</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>传达学习中央经济工作会议精神研究我市贯彻落实意见市委常委会召开会议王少玄主持并讲话</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2022-12-19</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-75042.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['吉安市人民政府_传达学习中央经济工作会议精神 研究我市贯彻落实意见 市委常委会召开会议 王少玄主持并讲话', '传达学习中央经济工作会议精神 研究我市贯彻落实意见 市委常委会召开会议 王少玄主持并讲话', '（记者郭欢）12月18日，市委常委会召开会议，传达学习中央经济工作会议精神和省委常委会（扩大）会议精神，研究我市贯彻落实意见。市委书记王少玄主持会议并讲话。', '会议指出，中央经济工作会议深刻分析了当前国内国外经济形势，明确提出了明年经济工作的总体要求、主要目标、政策取向和重点任务，具有很强的前瞻性、系统性、指导性，是我们做好明年经济工作的根本遵循。省委常委会（扩大）会议对贯彻落实中央经济工作会议精神提出了“五个准确把握”具体要求，全市各级干部要认真学习领会、一体贯彻落实。会议强调，要奋力冲刺，确保今年圆满收官。既要确保完成今年的目标任务，也要力争实现进位，为明年开好局奠定坚实基础。要认真研判，增强经济工作主动性。从讲政治的高度，充分认识做好明年经济工作的重要性，深刻领会习近平总书记对当前经济形势的研判，既要看到外部环境更趋复杂严峻和不确定的现实，也要看到国内经济韧性强、潜力大、长期向好的基本面没有改变的优势，加强各类政策的协调配合。根据中央的要求导向，抓住重大政策机遇，把吉安的产业优势、生态优势、区位优势彰显出来。要把准基调，合理确定指标目标。把“稳”字贯穿于明年全市经济工作全过程，遵循“六个坚持”的规律性认识，抓紧确定明年经济发展的预期目标。各县（市、区）、各工业园区都要结合实际，合理确定增速，确保实现质的明显提升和量的较快增长。要扭住重点，创造性抓好贯彻落实。学习领会“六个更好统筹”工作要求和“五方面重点工作”“六个着力点”，认真对标谋划，结合省委工作部署，消化转化赴湖州、东莞学习考察的成果，找准明年全市经济工作抓手，坚定实施扩大内需战略，坚持主攻工业倍增与做强现代农业双轮驱动，落实“两个毫不动摇”，用心用情保障和改善民生，为经济社会发展创造良好条件。', '会议强调，要做好岁末年初各项工作，科学精准抓好疫情防控，做好保健康、防重症重点工作，顺利度过流行期，确保平稳转段。要抓好民生保障，做好保供稳价工作，关心困难群众生产生活，抓好安全生产工作，深入排查整治安全生产风险隐患，坚决遏制重特大事故，维护社会大局和谐稳定。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>125</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>对标先进问计取经解放思想以学促干王少玄率队在浙江湖州学习考察陈浩洪湖鹏等分别陪同</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2022-11-21</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-74273.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['吉安市人民政府_对标先进 问计取经 解放思想 以学促干 王少玄率队在浙江湖州学习考察 陈浩洪湖鹏等分别陪同', '对标先进 问计取经 解放思想 以学促干 王少玄率队在浙江湖州学习考察 陈浩洪湖鹏等分别陪同', '（记者郭欢）11月16日至18日，市委书记王少玄率队在浙江省湖州市学习考察，聚焦当地在以习近平生态文明思想为指导下的发展理念、发展思路、发展举措、发展机制、干部作风等，对标先进、问计取经，解放思想、以学促干。湖州市委书记陈浩，市委副书记、市长洪湖鹏，市领导蔡旭昶、杨卫东、申中华等分别陪同。', '湖州市以“在湖州看见美丽中国”实干争先主题实践为总载体和总抓手，把握“目标引领、差距管理、过程控制、考核激励、以实绩论英雄”的闭环逻辑，通过对标问短、分类比拼、全民监督、政企恳谈、即时评优等，真正把广大党员干部、企业家、人民群众调动起来，开辟建设“六个新湖州”新境界。', '王少玄首站直奔湖州城市规划展览馆，通过声光电，全面了解湖州的历史演变和城市变迁，深入了解低成本创业之城、高品质生活之城的发展魅力。王少玄指出，湖州是习近平总书记“两山”理论的诞生地、中国美丽乡村的发源地，是吉安学习对标的榜样。要借他山之石，琢己身之玉，运用好湖州的好做法、好经验，探索湖州成功之道在吉安的转化之路。', '南太湖新区入选浙江省首批培育的高能级平台名单，被寄予撬动湖州未来发展的战略支点重望。王少玄听取新区规划、项目推进等情况介绍。每到关键问题，对可学之做法、可鉴之经验，王少玄都结合吉安实际，进行联系对比，并叮嘱有关部门要学好用活南太湖新区推进产城融合的经验、做法，强化规划引领，全力构建集产业链、创新链、人才链、服务链、资金链于一体的创新体系，推动吉安城市发展理念之变。', '学习考察团一行实地考察全国百强县之一长兴县，大家一路听、一路看、一路思、一路议。在太湖龙之梦，大家一致认为：“项目集聚了‘吃、住、行、游、购、娱、养、育、展’九种功能，对吉安打造高质量文旅产业很有借鉴意义。”长兴县把工业作为立县之本、强县之基，王少玄深入吉利汽车部件有限公司、天能控股集团等地，对该县持之以恒抓产业、强实体，推动一批百亿级项目落地投产给予肯定。他强调，要学以致用强经济，坚持发展出题目、改革做文章，推动园区治理、腾笼换鸟、“亩均论英雄”等改革取得新成效。', '德清县顺应国家发展战略创造了“从无到有、从有到优”的发展路径，让小县城实现大跨越、大变样、大融合。在郡安里、在莫干山镇五四村、在地信小镇，王少玄与当地干部群众、项目负责人广泛交流，深入探讨休闲农业与美丽乡村有机结合、数字赋能基层社会治理等推动城乡一体融合、全域系统联动的方式与路径。', '在“绿水青山就是金山银山”理念指引下，安吉县天荒坪镇余村调整发展模式，从“卖石头”到“卖风景”，昔日“废矿区”变身网红“度假区”；小瘾·半日村打造出“集群民宿村落”，实现经济效益、社会效益、生态效益、文化效益的多丰收。产品策划、产业链延伸、共同富裕等一个个关键词，无不吸引学习考察团一行，大家听介绍、看实地、亲感受当地绿色发展的成果。王少玄强调，要把学习成果转化为推动吉安发展的实效，激发干部创先的主动性，解决项目操作中精致度不够、档次不高、文化底蕴不厚等问题。', '王少玄希望，吉安与湖州在党的二十大精神指引下，围绕乡村振兴、共同富裕、绿色发展等深化交流与合作，推动协同发展，造福两地人民。', '结束在湖州的学习考察行程后，王少玄一行还赴上海、昆山等地走访重点企业、重点客商，推动招商引资项目早落地、早见效。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>125</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>对标先进问计取经解放思想以学促干王少玄率队在浙江湖州学习考察陈浩洪湖鹏等分别陪同王大胜参加学习考察</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2022-11-21</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-74225.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['吉安市人民政府_对标先进 问计取经 解放思想 以学促干 王少玄率队在浙江湖州学习考察 陈浩洪湖鹏等分别陪同 王大胜参加学习考察', '对标先进 问计取经 解放思想 以学促干 王少玄率队在浙江湖州学习考察 陈浩洪湖鹏等分别陪同 王大胜参加学习考察', '\u200b （记者郭欢）11月16日至18日，市委书记王少玄率队在浙江省湖州市学习考察，聚焦当地在以习近平生态文明思想为指导下的发展理念、发展思路、发展举措、发展机制、干部作风等，对标先进、问计取经，解放思想、以学促干。湖州市委书记陈浩，市委副书记、市长洪湖鹏，市领导蔡旭昶、杨卫东、申中华等分别陪同。', '湖州市以“在湖州看见美丽中国”实干争先主题实践为总载体和总抓手，把握“目标引领、差距管理、过程控制、考核激励、以实绩论英雄”的闭环逻辑，通过对标问短、分类比拼、全民监督、政企恳谈、即时评优等，真正把广大党员干部、企业家、人民群众调动起来，开辟建设“六个新湖州”新境界。', '王少玄首站直奔湖州城市规划展览馆，通过声光电，全面了解湖州的历史演变和城市变迁，深入了解低成本创业之城、高品质生活之城的发展魅力。王少玄指出，湖州是习近平总书记“两山”理论的诞生地、中国美丽乡村的发源地，是吉安学习对标的榜样。要借他山之石，琢己身之玉，运用好湖州的好做法、好经验，探索湖州成功之道在吉安的转化之路。', '南太湖新区入选浙江省首批培育的高能级平台名单，被寄予撬动湖州未来发展的战略支点重望。王少玄听取新区规划、项目推进等情况介绍。每到关键问题，对可学之做法、可鉴之经验，王少玄都结合吉安实际，进行联系对比，并叮嘱有关部门要学好用活南太湖新区推进产城融合的经验、做法，强化规划引领，全力构建集产业链、创新链、人才链、服务链、资金链于一体的创新体系，推动吉安城市发展理念之变。', '学习考察团一行实地考察全国百强县之一长兴县，大家一路听、一路看、一路思、一路议。在太湖龙之梦，大家一致认为：“项目集聚了‘吃、住、行、游、购、娱、养、育、展’九种功能，对吉安打造高质量文旅产业很有借鉴意义。”长兴县把工业作为立县之本、强县之基，王少玄深入吉利汽车部件有限公司、天能控股集团等地，对该县持之以恒抓产业、强实体，推动一批百亿级项目落地投产给予肯定。他强调，要学以致用强经济，坚持发展出题目、改革做文章，推动园区治理、腾笼换鸟、“亩均论英雄”等改革取得新成效。', '德清县顺应国家发展战略创造了“从无到有、从有到优”的发展路径，让小县城实现大跨越、大变样、大融合。在郡安里、在莫干山镇五四村、在地信小镇，王少玄与当地干部群众、项目负责人广泛交流，深入探讨休闲农业与美丽乡村有机结合、数字赋能基层社会治理等推动城乡一体融合、全域系统联动的方式与路径。', '在“绿水青山就是金山银山”理念指引下，安吉县天荒坪镇余村调整发展模式，从“卖石头”到“卖风景”，昔日“废矿区”变身网红“度假区”；小瘾·半日村打造出“集群民宿村落”，实现经济效益、社会效益、生态效益、文化效益的多丰收。产品策划、产业链延伸、共同富裕等一个个关键词，无不吸引学习考察团一行，大家听介绍、看实地、亲感受当地绿色发展的成果。王少玄强调，要把学习成果转化为推动吉安发展的实效，激发干部创先的主动性，解决项目操作中精致度不够、档次不高、文化底蕴不厚等问题。', '王少玄希望，吉安与湖州在党的二十大精神指引下，围绕乡村振兴、共同富裕、绿色发展等深化交流与合作，推动协同发展，造福两地人民。', '结束在湖州的学习考察行程后，王少玄一行还赴上海、昆山等地走访重点企业、重点客商，推动招商引资项目早落地、早见效。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>125</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>市五型政府建设简报第一百零六期</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2022-09-15</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-73280.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['制定促进重大科技创新平台建设的政策措施，建立优胜劣汰和择优支持动态管理机制，切实增强平台对科技创新的支撑能力。全市省级技术创新中心、重点实验室、工程技术研究中心等平台达', '1项成果获批“2021年江西省十大科技成果转化典型案例”，6个项目荣获2021年度省科学技术奖，获奖数量保持在全省第一方阵。', '“揭榜挂帅”项目工作实施方案》，向全社会发布了3项关键核心共性技术“揭榜挂帅”项目。', '率先在全省出台了《关于深化科研单位改革的若干意见（试行）》，开展扩大单位人事权和管理权、科研项目经费管理以及职务科技成果所有权改革四项试点，深入推进人才分类评价机制，大力破除', '“四唯”问题，建立健全以创新能力、质量、贡献、绩效为导向的人才评价体系，激发科研人员创新创造活力。', '为着力优化科技创新的体制机制，抓紧完善《吉安市深化科技体制改革三年攻坚行动实施方案（', '“数字产业化、产业数字化、数字化应用”为主线，围绕产业链部署创新链、围绕创新链布局产业链，', '积极配合吉安光电科创城和金鸡湖创新小镇建设，组织人员学习考察先进经验做法，科学编制发展规划及建设方案。先后邀请南昌航空大学、赣吉专家组、井冈山大学等专家参与数字经济工作研讨，积极布局数字产业发展赛道。', '2021年度全省政府系统“五型”政府先进集体为契机，制定示范创建方案，开展示范乡镇、示范单位、示范窗口创建活动，积极引导全县政府系统和广大干部见贤思齐、争先创优，在全县各乡镇营造比学赶超的创建氛围。', '94项重点改革事项，升级打造赣江流域环境资源法庭，建成千亩生态司法替代性修复林基地，', '“村干部+网格员+代办员”政务服务模式，入选全省“放管服”改革和优化营商环境典型案例。探索推行“四会”招商模式，出台招商引资有功人员奖励办法，设立5亿元产业发展引导基金并完成备案，招商引资热潮持续高涨，新引进亿元以上工业项目28个，其中', '65个市重点项目序时推进，向上争取资金8.3亿元；加快打造全省大健康产业融合发展示范区，出台生物医药大健康产业倍增升级三年行动方案，精选30家实体企业实行点对点帮扶；深入开展小县大节庆系列活动，举办商贸促销活动12场，发放消费券120万元，带动商贸消费4000余万元。', '40条，累计为企业减负3.82亿元。不定期举办企业家早餐、午餐会，全覆盖结对帮扶县内1.2万余户市场主体，常态化开展大走访大排查活动，梳理并解决市场主体急难愁盼问题391个。', '持续整治“十型”问题，自觉接受人大监督和政协民主监督，主动接受社会和舆论监督，着力锻造一支信念过硬、政治过硬、责任过硬、能力过硬、作风过硬的干部队伍，切实树立政府的良好形象。', '问题，自觉接受人大监督和政协民主监督，主动接受社会和舆论监督，着力锻造一支信念过硬、政治过硬、责任过硬、能力过硬、作风过硬的干部队伍，切实树立政府的良好形象。', '”等活动，加强“五型”政府建设监督员队伍建设，每季度组织开展明察暗访，定期开展“五型”政府建设座谈会，每季度开展网络平台和监督员反馈问题回头看，通过“掌上峡江”微信公众号、政府网站“五型”政府建设专栏和电视新闻等渠道，及时向社会公布反馈问题整改情况。', '“五型”政府建设访谈活动，每月编发“五型”政府建设简报，将“五型”政府建设示范县创建工作纳入年度绩效管理考核评价体系，', '2022中国泰和第四届小龙虾文化旅游节、“我们一起来养虾吧”小龙虾产业发展大会、“虾王”“虾后”争霸赛', '“一村一社一基地”改革项目，成立螺溪镇“田教授”产业发展奖补基金池，壮大村级集体经济收入', '幸福茶馆并投入使用，积极发挥初心广场、肖华燧故居、周矩纪念馆、秋岭红色名村等红色教育阵地作用，积极开展庆', '“四个不摘”，加强防返贫监测、帮扶，走访排查重点农户，消除“两类人群”风险；搭建6个村级“党建+互助养老之家”，深入开展“四问四访”“五民”活动，帮助群众解决实际困难。', '开展生活垃圾分类试点工作，出台《螺溪镇圩镇市容和环境卫生管理办法》，圩镇管理坚持实行街长制；', '“红黑榜”“曝光台”，推广“整治+积分”模式，巩固提升“三沿六边”环境卫生整治成效。', '结合幸福茶馆、普田村周矩家风家训教育基地、藻苑村纪律教育室、保全村纪律漫画室等教育阵地，定期组织镇村干部和家属开展廉政专题教育。', '“最后一公里”，村级便民服务代办点主动为在外人员和出门不便的群众提供“隔空办件”和“上门服务”。', '“十热线”连心卡、网上公布热线查询，确保群众遇到事情能第一时间找到部门，为民服务渠道更公开、更透明、更畅通。', '“实战练兵”，把招商引资、重点项目建设、深化改革等作为干部一线实战主战场，练就攻坚克难的过硬本领。', '30个全科干部名额，以月促季考年评方式对干部进行量化考核，表现突出的干部优先推荐使用。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>125</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>万安多措并举打造模范机关</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-73798.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['（刘耀金、袁国华）今年以来，万安县紧扣“讲政治、守纪律、负责任、有效率”工作要求，以“比学习、比服务、比业绩，争先进”跨越赶超活动为抓手，全力推动模范机关打造工作走深走实，营造了发展提质、项目提速、党建提效、干部提能的良好态势。', '该县围绕打造模范机关主线，聚焦工作重点，细化工作措施，通过率先启动、督查促动、示范带动，奋力打造让党放心、人民满意的模范机关。明确打造让党放心、人民满意模范机关的5个方面24项具体工作任务，确保县直机关在打造模范机关工作中有路径、懂方法。同时，将打造模范机关工作纳入基层党建述职评议重要内容，组建工作专班，建立“定期调度、定期督查、定期通报”机制，先后开展3轮督导督查，有效压实了工作责任。此外，收集整理50个县直单位做法，编印《县直机关打造模范机关主要做法汇编》，并择优选择11个单位创建做法和成效通过展板、通报等形式予以推广，以典型引领模范机关打造工作走前列、作示范。', '通过思想教育、干部座谈，激励广大机关干部担当作为。先后举办集中警示教育、“思想大解放、工作大提升”暨干部创先专修班等10余次，开展“干部夜读”930场，组织干部赴淳安、奉新等地学习考察36批次，全力以思想之变推动作风之变。创新组织300名75后、85后、90后干部开展省、市、县党代会报告落实落地情况大调研，分领域、分系统召开干部座谈会30多场，引导党员干部在座谈讨论中统一思想、在凝聚共识中汇聚力量。聚焦省、市、县基层党建巡察以及日常督查发现问题，创新开展“啄木鸟”行动，召开党建工作、业务工作“找茬会”50余次，进一步提升干部发现问题、解决问题的能力。', '围绕县委“1365”工作思路，紧扣打造模范机关“五大行动”“五大机制”，为50多个县直单位确定主题主线，明确了开展民主测评、暗访督查等11个方面工作举措。如县住建局围绕“现场是考场、工地是阵地”主题主线，扎实实施47个城建和圩镇建设重点项目，极大提升了全县城乡品质。选树2个先进集体、24名先进个人，通过微信、展板、座谈交流等方式对国家、省、市先进典型事迹进行学习宣传，有效激励机关干部学先进、争先进、赶先进。深化开展“三化三争”主题活动，创建了“党旗红引领校园红”等党建品牌。创新推行“红黄绿”三色管理机制，重点围绕“党建工作、业务工作、综合考核、队伍建设”等内容，每个季度以项目化、清单化、责任化的形式对各单位工作进行验收督战，进度达标的用绿色标识、基本达标的用黄色警示、没有达标的用红色督办，激励机关党员干部创先争优。', '坚持融合共进，推动模范机关打造与中心重点工作一起部署、一体推进、一并落实。先后举办教体系统党务技能比武、卫健系统临床实践技能大赛、应急系统半专业扑火队练兵比武、水利系统四项技能大比武、10个专业招商队推介大比武、10个文旅项目专班技能大比武等10余次，极大提升了机关干部业务能力。聚焦“晒业绩提动能”目标，全面推行业绩晾晒机制，县级层面以“巡回陈展”的形式，在县行政中心、乡镇圩镇等公共场所将各县直单位重点工作业绩向社会公众晾晒，接受群众监督；县直单位设立业绩晾晒公示栏，对单位业绩和机关干部个人业绩进行“一月一晒、一月一评、一月一奖”，晾晒结果与干部使用挂钩，12名表现优秀的干部得到提拔重用，3名不在状态的干部被免职。同时，坚持问题导向，深入开展机关党务大整顿活动，出台《关于做好机关党建有关问题的整改方案》，全面整改“三会一课”不规范、发展党员程序不到位、民主生活会不够辣等问题，重拳整治“机关病”，推动了机关党建工作大提升。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>125</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>月工作进展</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2022-03-30</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-73015.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['3月4日，刘兰芳主席主持召开了市政协党组（扩大）暨五届九次主席会议，传达学习了习近平总书记近期发表的《不断做强做优做大我国数字经济》文章精神。', '“十四五”数字经济发展规划、江西及吉安数字经济一号发展工程思考等方面，讲解了数字经济的战略意义、深刻内涵、目标方向和未来前景，并针对吉安实际提出了数字经济发展方向。', '2月25日下午，开展了第二期“工信大讲堂暨科长讲业务”专题培训，以《数字产业化与产业数字化发展》为题，从数字经济概况、数字经济分类、工信在数字经济领域工作职能、我市数字经济特点、下一步工作设想等方面详细阐述了推进两化融合、推进中小企业上云上平台、发展工业互联网、制造业数字化转型、推进软件服务业、推动新一代信息技术应用及产业发展等十一个方面工作及面临的问题、矛盾和思考。', '3月3日-11日，开展了电子商务培训班，通过“理论+实操”的方式，培养电商人才，助力吉安数字经济发展。', '2月25日，联合市发改委、市工信局举办了“吉事即办·惠企通”平台应用培训会。3月1日-4日，聚焦政务服务体制机制建设、改革先进经验、窗口管理模式、服务体制运行等方面，赴南昌市、景德镇市、赣州市学习考察，助力数字化政务服务改革在吉安纵深推进。依托“赣服通”平台，建设了市县两级共同使用的企业综合服务平台，即“吉事即办·惠企通”平台。', '3月1日，召开吉安市“十四五”智慧水利规划座谈会，分享宣贯了江西省智慧水利顶层设计的成果，明确了下一步工作思路。', '3月19日，智赣“119”运维中心监测到吉水县江西昊轩电镀有限公司电镀集控区12栋1楼发出报警信号，智赣“119”运维中心及时联系户主，为扑救初期火灾赢得宝贵时间。', '3月11日，应邀到永丰县开展数字经济知识专题讲座，以“全面开启数字经济发展新时代”为主题，从大数据与数字经济的发展变迁、数字经济的发展形式、数字经济发展面临的挑战、全市数字经济发展的思考等四个方面进行理论授课。', '井冈山报社：在《井冈山报》、吉安新闻网、吉安发布客户端、吉安发布微信、井冈山报微信等全媒体平台，统一开设', '“深化发展和改革双‘一号工程’”专题专栏。对接中央、省级主流媒体和网络媒体，在人民日报、学习强国学习平台、江西日报、江西新闻客户端等主流媒体刊播稿件。', '“区块链+供应链金融”，推出“云企链”线上保理融资业务，帮助产业链上的中小微制造企业盘活应收账款和加快资金周转，降低企业融资成本。', '3月16日，举行了北大荒农服集团政企合作框架协议签约仪式，双方按照“政企协同、市场规则、经济规律、总体规划、统筹开发、分段立项、分步实施”的合作原则，建立了共同打造井冈山市现代农业全产业链和全价值链的战略合作关系。', '2月28日，国家信息中心信息化和产业发展部主任、中国智慧城市发展研究中心主任单志广到井冈山经开区调研产业数字化“5G+工业互联网”发展情况、数字经济新型研发机构建设和新兴产业培育情况。井冈山经开区金鸡湖创新小镇成功获批首批省级数字经济集聚区，吉安市木林森实业有限公司、南亚新材料科技（江西）有限公司、吉安螃蟹王国科技有限公司获批第二批省级数字经济重点企业。', '3月3日，举行了“新华精选•青原”数字经济运营中心项目签约仪式，为加速推进青原区数字经济一号工程发展，助力网络资源、客户资源、业务资源向青原区倾斜提供重大机遇。', '3月7日，县委书记肖梓才会见科大讯飞股份有限公司联合创始人、高级副总裁、安徽讯飞医疗股份有限公司董事长赵志伟一行，双方就数字经济发展进行了座谈。3月12日，举行了首场以“抢占赛道育先机、数字驱动赋新能”为主题的企业家早餐会。', '2月23日下午，县委书记谭晓艳深入县公安局110指挥中心、县交警大队指挥中心，现场调研了解数字指挥平台运行情况。', '2月24日，召开了全县双“一号工程”暨招商引资工作动员大会。《永新县数字经济工作方案》已通过县政府常务会讨论和县委常委会审议。', '3月1日，出台并印发了《关于深入推进数字经济“一号发展工程”融入打造赣深数字经济走廊的意见》和《推进数字经济“一号发展工程”融入打造赣深数字经济走廊2022年工作要点》。3月2号，召开了全县双“一号工程”推进暨招大引强、项目“双赛制”动员大会。', '2月23日，召开了遂川县“一号工程”推进暨招大引强、工业倍增动员会。《遂川县关于深入实施数字经济“一号发展工程”融入赣深数字经济走廊的实施意见》已通过县政府常务会讨论和县委常委会审议。遂川县茶业局与京东集团就遂川县狗牯脑茶产业全产业链提升项目达成初步合作意向，下一步将进行正式签约。', '3月16日，开展了招商等经济发展业务知识（第一期）培训，围绕《庐陵新区楼宇经济发展现状与数字经济的未来展望》进行了授课讲解和现场交流互动。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>125</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>全市不动产登记便民利企增效行动实施方案</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2022-03-18</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-77949.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['吉安市营商环境 “一号改革工程” | 登记财产|全市不动产登记便民利企增效行动实施方案', '为扎实做好不动产登记便民利企增效行动，确保工作落地见效，根据《江西省自然资源厅办公室关于印发全省不动产登记便民利企增效行动方案的通知》（赣自然资办发〔2022〕5号），结合我市实际，制定本方案。', '以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大和十九届历次全会精神，认真落实习近平总书记关于优化营商环境的重要论述和视察江西重要讲话精神，按照省第十五次党代会、省深化发展和改革双“一号工程”推进大会、市第五次党代会工作部署，弘扬和传承革命老区红色基因，打造“吉事即办”政务服务品牌，唱响“江西办事”吉安样板，对标国内一流水平，勇于开拓创新，持续深化不动产登记领域“放管服”改革，聚焦企业群众的痛点、堵点和难点，精准发力、久久为功，推进登记财产便利度提升，不断增强企业群众的获得感和幸福感，推动全市营商环境登记财产指标再上新台阶，为谱写吉安全面现代化建设新篇章提供强大助力。', '全面建立标准化、规范化的“一窗综合受理”窗口，推进“互联网+不动产登记”，提升登记业务“全程网办”服务质量，不动产登记与金融、民生、司法查控等联办范围进一步拓展，巩固提升登记办理的时限，进一步压缩办理时限。', '建立标准化、规范化的“一窗综合受理”窗口，推动全市不动产登记“一窗综合受理”窗口持续优化，提升窗口“一窗受理、并行办理”工作成果。各地不动产登记和办税联办业务应全部通过“一窗综合受理”窗口受理，当事人签订买卖合同后即可申请办理不动产登记，不得通过单一窗口分别受理、串联办理。对涉税的登记业务要统一综合受理窗口业务规范，整合归并房屋落宗、房屋查档、土地交易等内部环节，坚决取消违法违规的前置环节、合并相近环节，凡是部门内部能做到的一律不让群众跑，变群众跑为内部办，做到全方位全链条精简环节，进一步改善企业群众办事体验。', '一是各地要认真落实自然资源部和省自然资源厅关于压缩不动产登记办理时间的要求，依托电子政务外网、自然资源业务专网等路径，实现不动产登记相关信息互通共享。二是各地要加快不动产登记一件事平台建设，实现不动产登记统一的“一窗受理”、“全市通办”、“跨省通办”、“最多跑一次”等便民举措，全面落实信息数据共享机制，通过整合优化登记流程形成“一件事一次办”全链条服务。', '各地要依托省级“一窗办”统一在线受理系统，拓展“全程网办”业务类型。一是将登记信息查询、抵押登记、预告登记、电子证照申领等业务挂接到“赣服通”平台的“不动产登记专区”，实现从“网上办”拓展到“掌上办”。二是稳定开展以商品房预售、抵押涉及的不动产预告登记、不动产登记资料查询、不动产抵押登记等三项业务“跨省通办”。三是深化登记与办税业务线上融合联办，实现登记与办税网上申请、网上办理、全程网办。四是逐步推进不动产登记业务向房地产开发企业、中介机构等延伸，实现就近能办、多点可办，推广不动产登记电子证照应用。', '一是增加抵押登记延伸服务点，进一步拓展抵押登记在银行窗口延伸服务，推行金融服务与相应的不动产抵押登记“一站式”服务。二是加强与法院的工作协调，做好系统对接，推进实现法院不动产司法查控所涉及的查封登记可在“网上”办、“不见面”办。三是通过将不动产登记受理信息推送至政务数据共享平台，推动实现不动产登记与水、电、气等民生服务“一链办理”。', '在中心城区推行试点新建商品房“交房即交证”登记服务，各地不动产登记部门要主动对接住建、税务、人防、水电气等部门，建立联办机制，实行“多环合一，同步办理”，依托不动产登记企业服务平台，实现新建商品房业主在收房时同步申请办理不动产登记及纳税，领取不动产权证书，并完成水电气等业务开户申请。', '各地要按照减环节、减材料、减时限、减成本的要求，进一步压缩不动产登记办理时间，取消无法律法规依据而设立的前置条件和材料。继续巩固一般不动产登记3个工作日内办结、抵押登记1个工作日内办结的成果。各类登记相关联的事项，可以一并申请、一并受理与审核。凡属于自然资源部门自身产生的，或者能够通过部门实时信息共享获取、核验的材料，不得要求申请人提交；凡能够直接提取的前期规划、供地和预售等形成的测绘成果，应直接共享。', '各地要主动排查和梳理不动产登记中的历史遗留问题，建立历史遗留问题台账清单。本着尊重历史、面对现实、信守政府承诺、维护群众合法权益的原则，畅通群众诉求和意见受理渠道，积极回应群众和社会关切，积极稳妥处理历史遗留问题。', '各地要根据新修改的《不动产登记数据库标准》《不动产登记信息管理基础平台接入技术规范》和《不动产登记存量数据成果汇交规范》，加快升级改造不动产登记系统、不动产登记数据库结构和内容、报文生成程序等工作，在年底前全面完成存量数据规范完善和补充汇交，一是按照新标准完善数据。二是全面清理漏报数据。三是全面完成整合建库。四是完善集体土地所有权登记数据。五是完善农村房地一体登记数据。六是完善林权登记数据。要全力提升增量数据上传质量，设置登簿质量检查岗位，落实专人负责数据上传工作，规范填写登记簿，及时发现质量问题，及时整改完善。要认真做好精准查询工作，落实AB岗位设置，查询人员要严格遵守各项政治纪律和保密纪律，不得透漏任何查询信息，并对查询结果负责，切实提高明查查询反馈质量和工作时效。', '各地要加强不动产权属争议调处的力度，做好日常权属争议案件调处的各项工作，落实专人负责权属争议案件上报，及时将争议调处案件信息录入权属争议案件登记试运行系统。', '各地要建立健全与不动产登记风险相适应的内部管控制度，科学设置登记工作岗位，严把登记受理、审核和登簿关口，确保登记结果准确无误。针对不同岗位，规范个人权限、专人专号、账号保密管理，严控串岗混岗，严防弄虚作假，确保登记信息安全可靠。要推进不动产登记档案管理标准化、规范化。', '各地要以党的建设为统领，加强不动产登记队伍思想建设、作风建设、业务建设，增强服务意识，着力提升服务质量和效率。要建立绩效考核制度，设立党员示范岗，发挥党员模范先锋作用。要配足配强与不动产登记任务相适应的工作队伍，保障不动产登记人员工资薪酬到位。要加大交流轮岗，加强业务培训，提高业务素质。有条件的县（市、区）可以推行统一着装，实施规范化服务，展现良好形象。', '各地要结合实际，制定本地不动产登记便民利企增效行动实施方案，于3月22日前报市局。', '按照省、市政府关于优化营商环境、实施登记财产对标提升行动的工作部署，对照工作任务，建立工作台账，分解细化任务，明确责任分工，实行挂图作战和销号管理。', '市局将组成工作组，不定期深入各地开展实地督促指导，加强工作调度，统筹推进全市工作的进展。', '对标省外先进地区经验做法，借鉴国内标杆城市的特色亮点，市局将有针对性地组织基层登记工作人员赴省外标杆城市实地学习考察，有条件的县（市、区）可探索尝试建立赴国内标杆城市跟班学习制度，派员到先进地区不动产登记窗口实地学习锻炼，开阔视野、增长才干。', '优化营商环境是一项系统性工程，涉及市场环境、法治环境、政务环境、人文环境等各个方面，人人都是营商环境、事事关乎营商环境、处处体现营商环境，全市不动产登记工作人员要发扬求真务实的工作作风，克服浮躁情绪，抛弃私心杂念，以时不我待、只争朝夕的责任感和紧迫感紧盯重点薄弱环节，用心用情用力为吉安营商环境谋实招、办实事、求实效、作贡献、添光彩，为推动我市营商环境进入全省“第一方阵”作出应有的贡献。', '各地要成立“登记财产对标提升”工作专班，具体负责本地便民利企增效行动的组织实施、台帐管理、调度推进、统计汇总、材料撰写等日常工作。', '提高政治站位，认真履行工作主体责任，层层压实责任，分解工作任务，每项任务落实责任领导、责任科（股）室、责任人，压实压紧责任。', '要做好舆论宣传和引导工作，充分利用各类传播平台，加大宣传力度，广泛宣传报道改革举措、推进情况，做好记录并保存影像资料。及时总结推广服务企业便利市场的好经验好做法，增进社会公众对营商环境创新改革的了解和支持，提升影响力和知晓度，营造更加浓厚改革氛围。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>125</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>吉安市双一号工程简报一号改革工程专刊第期</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-74351.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['吉安市营商环境 “一号改革工程” | 综合进展|吉安市双“一号工程”简报(一号改革工程专刊） 第 1 期', '“水深则鱼悦，城强则贾兴”，营商环境是决定企业进入市场的“吸引度”和企业长久发展的“可持续度”的关键因素和核心要件。为贯彻落实', '易炼红书记在吉安调研时提出的“要在深化改革开放上奋勇登攀，着力打造一流营商环境品牌”要求，', '“江西办事”吉安样板，争当全国政务服务满意度一等省份“最佳设区市”，让吉安成为要素集聚的“磁场”、企业发展的“沃土”、投资兴业的“宝地”、现代治理的“范本”。', '从本期起将陆续刊发市委市政府关于“一号改革工程”的决策部署和督促落实，以及各地各部门营商环境工作动态、特色亮点等,以供学习借鉴。', '●2月18日，市委书记王少玄出席全市双“一号工程”暨招大引强、项目“双赛制”动员大会。王少玄书记强调，要把优化营商环境作为“一把手”工程，', '强化“一号改革工程”对重点领域改革的先导性、引领性作用，各重点领域改革要主动支持、积极服务“一号改革工程”，以营商环境优化升级检验全面深化改革成效。', '各牵头市领导是评价指标的总负责人，要担起责任，以身作则带领相关部门合力攻坚；“指标长”单位要抓好统筹协调、调度会商；责任单位要主动作为、协同作战，做到任务共担、工作联动、服务协同。', '●市委副书记、市长罗文江出席全市双“一号工程”暨招大引强、项目“双赛制”动员大会。罗文江市长强调，要在营商环境大提升中争创品牌，坚持“规定动作要做好，特色品牌要打响”，对标发达地区，借鉴先进经验，落实“指标长”制，确保吉安年度营商环境评价排名进入全省第一方阵，更多指标进入全国前列。', '●市委常委、市政府副市长漆海云同志在全市双“一号工程”暨招大引强、项目“双赛制”动员大会上指出，各地各部门要主动靠前谋划，及时掌握评价要求、把握工作主动。对照问题找准短板差距，聚焦“三减三提”（即减环节、减时限、减费用；提效能、提服务、提品牌），全力打造营商环境品牌。', '●2月21日，市政府副市长刘志斌到市行政服务中心专题调研优化营商环境工作，要求各指标长单位要坚持问题导向，强化沟通协调，加强宣传推介，对标一流发力，引导企业和群众参与到优化营商环境工作中来。', '●2月15日，市政府副市长胡海洋召集市住建局、市发改委、市自然资源局、市人防办、市城管局、市行政服务中心等单位，调度工程建设“六多合一”改革升级版工作，提出了明确的工作要求，持续深化工程建设项目审批制度改革，推进办理建筑许可效率提升。', '●市政府办：2月21日，市政府秘书长刘烨球专题听取了政务服务指标整改、提升情况汇报，对全市政务服务指标提升工作，作了具体部署；2月22日，市政府副秘书长、办公室（政务服务办）主任刘勇主持召开政务服务指标提升工作专班会议，研究部署了今年政务服务指标提升工作。', '●市发改委：召开委党组会专题研究贯彻落实意见，明确总牵头工作职责和三项一级指标定期调度职责。完成对标提升改革清单、业务培训、问题台账梳理等工作，会同供电公司调度获得电力指标细化分解落实；组织召开招投标领域协调会，明确责任单位和完成对标提升目标、时间，加强日常调度，在每月25日前将进度情况汇总报市公管办。', '●市市场监管局:召集相关科室分析牵头负责的三项指标2021年完成情况及存在短板、2022年主要工作举措及目标。', '●市人社局：将省、市深入推进营商环境优化升级“一号改革工程”意见和2022年对标提升方案复印给各科室学习，并于2月21日召开局党组扩大会议进行集中学习。2月25日，局领导班子听取了《全市人社系统推进营商环境优化升级“一号改革工程”暨2022年对标提升工作方案》的起草情况汇报。', '●市财政局：会同市公管办、市公共资源交易中心共同商议政府采购相关指标落实事宜，对标对表布置推进工作。', '●吉安供电公司：组织牵头负责科室对《深入推进营商环境优化升级“一号改革工程”暨2022年营商环境大提升年实施方案》、《2022年吉安市优化营商环境对标提升改革清单》进行深入学习研讨，明确下一步工作思路。', '●市自然资源局：2月23日，召开中心城区推行“交房即交证”试点工作推进会，要求科学把握改革时序、节奏、步骤，推动创新试点工作走深走实，为中心城区更好开展试点工作指明了方向。', '●市政府金融办：召开了信贷调度会，协调责任单位，加强信贷调度，推动银企对接。2月23日，组织召开全市金融工作暨“金融保链强链”政银企对接会。', '●市法院：2月23日，召开党组中心组学习扩大会，对双“一号工程”工作进一步推进落实。当日下午召开党组会，审议通过吉安市法院贯彻实施方案，并成立了由院长担任组长的服务保障双“一号工程”工作领导小组，下设领导小组办公室和四个指标工作专班。', '●吉安海关：召集相关人员传达会议精神，并对方案内容再次学习，制定下一步工作方案，要求对涉及指标责任人，按月调度。', '●市商务局：明确专人负责，组建专班推进，赴省商务厅对接争取支持，省商务厅陈长生副厅长对吉安市积极优化营商环境给予充分肯定，并对RCEP原产地认证工作提出明确要求。', '●市税务局：2月18日下午，召开专题会议传达贯彻全市双“一号工程”推进大会精神，结合实际细化工作措施，明确由纳税服务科统筹协调，财产行为税科、货物与劳务税科牵头全面推行税费合并申报，压减纳税次数。', '●市行政服务中心：依托“赣服通”平台，建设了市县两级共同使用的企业综合服务平台，即“吉事即办·惠企通”平台。深化工程建设项目全过程帮代办服务，出台了《吉安市重点项目审批“全程代办”服务实施方案》，成立了由市行政服务中心工作人员与窗口首席代表组成的党员代办服务小组。3月1日-3月4日，由市行政服务中心主要领导带队，联同分管领导、各科室负责同志、部分窗口首席代表以及峡江县、青原区行政服务中心有关同志，聚焦政务服务体制机制建设、改革先进经验、窗口管理模式、服务体制运行等方面，前往南昌市、景德镇市、赣州市学习考察，助力双“一号工程”在政务服务领域的落地实施。', '●吉州区：2月21日，召开双“一号工程”推进暨招大引强动员大会，成立了优化营商环境工作领导小组，印发《吉州区深入推进营商环境优化升级“一号改革工程”实施方案》。', '●青原区：2月25日，召开双“一号工程”推进会暨招大引强大会战动员会，印发《青原区深入推进营商环境优化升级“一号改革工程”暨2022年营商环境大提升年实施方案（征求意见稿）》。', '●吉安县：2月24日，召开全县双“一号工程”推进暨招大引强动员大会，印发《吉安县深入推进营商环境优化升级“一号改革工程”暨2022年营商环境大提升年实施方案》，调整县优化营商环境工作领导小组，县委、县政府主要领导为双组长，抽调人员筹备建立专班。', '●吉水县：成立县营商环境荣誉战指挥部，研究制定了《吉水县深入推进营商环境优化升级“一号改革工程”暨营商环境荣誉战行动方案》，建立“周梳理、月调度、季分析”工作机制。', '●泰和县：先后两次召开全县营商环境大提升工作调度会，并牵头组织人员草拟了《泰和县营商环境大提升举措二十条》、《泰和县营商环境“十必须”“十严禁”》，现待审定印发。', '●永丰县：起草了《永丰县深入推进营商环境优化升级“一号改革工程”暨2022年营商环境大提升年实施方案（征求意见稿）》，开展了“送政策进企业”活动，梳理了永丰县2022年惠企政策宣传手册，发放到各企业，确保全覆盖。', '●安福县：3月2日，召开双“一号工程”推进暨招大引强、项目“双赛制”动员大会,印发《安福县深入推进营商环境优化升级“一号改革工程”暨2022年营商环境提升年行动方案》。正在筹备成立双“一号工程”办公室，抽调人员集中办公。', '●峡江县：2月7日，印发了《深入开展“作风建设提升年”活动实施方案》，其中开展优化营商环境作为专项行动，县营商办组织开展了电视问政“县直单位主要领导公开承诺”谈优化营商环境活动。', '●新干县：2月22日，召开工业和开放型经济暨“奋战双一号、决战双赛制、招大引强再出发”动员大会，就双一号等工作进行了部署。以县优化营商环境工作领导小组名义印发了《关于建立新干县营商环境指标长工作机制的通知》，制定了《新干县深入推进营商环境优化升级“一号改革工程”暨2022年营商环境大提升年实施方案》。', '●万安县：组建了营商环境工作推进领导小组，县委常委、纪委书记、监委主任叶菁菁同志担任领导小组组长。2月14日，叶菁青和县委常委、统战部长肖劲光率队赴赣州市行政审批局参观考察，就赣州市行政审批局典型经验进行学习交流。', '●永新县：2月24日，召开全县双“一号工程”暨招商引资工作动员大会，正在调整营商环境领导小组成员，下设办公室（营商办），成立19个专项小组，重新编印《2021-2022年度永新惠企政策汇编》，正在从各部门抽调工作人员组成营商环境工作专班。', '●遂川县：2月23日，召开双“一号工程”推进暨招大引强、工业倍增动员大会。从各部门抽调了8名工作人员组建了营商环境工作专班，重新编印了《遂川县惠企政策汇编》和《遂川县政务服务事项办理指南》。', '●井冈山市：成立优化营商环境工作领导小组，领导小组下设办公室（市营商办）和18个专项小组，建立市优化营商环境指标长工作机制。2月25日，召开市营商环境“一号改革工程”动员大会，制定了《关于深入推进营商环境优化升级“一号改革工程”暨创建“吉好办”营商服务品牌实施方案》。3月2日，召开了2021年度重点工作目标管理总结表彰暨发展和改革双“一号工程”动员大会。', '●2月21日下午，市营商办组织开展营商环境评价工作培训会。评估专家就全省营商环境评价省直数据运用和2021年度全省营商环境第三方评吉安市失分情况等进行了讲解和比较分析，13家指标长单位分管领导和主办科长、22家责任单位具体主办人员、各县（市、区）营商办人员参加了此次培训。', '会后，市营商办负责同志布置了优化整改工作，提出了具体要求。一要聚焦问题，整改销号。市营商办将86个问题列入“不便利负面清单”第一批整改销号内容，分类明确整改优化目标和时限。二是要纵向提分，横向进位。各指标长牵头单位、责任单位务必突出时效性，按对标提升方案统筹推进各项工作；每月调度单项指标进展情况，汇总分析后报指标长对口市领导、市营商办。三是要凸显特色，积极创新。各地、各单位要从便利度、人文角度出发，积极创新自选动作，凸显特色。', '会后，市营商办负责同志布置了优化整改工作，提出了具体要求。一要聚焦问题，整改销号。市营商办将', '●2月23日，市优化营商环境工作领导小组印发2022年吉安市优化营商环境对标提升改革清单，清单梳理了18个指标领域国内标杆城市经验做法，提出了199项对标提升改革措施。全市上下同频共振、同向发力、同步推进，政策化、事项化、清单化推进，按照“周梳理、月调度、季分析”工作要求，各责任单位每月将推进情况报指标长单位，各指标长单位每月末将营商环境大提升年方案提升措施和对标提升改革措施进展情况报送牵头市领导和市营商办，市营商办不定期通报对标提升进展情况并报市领导。', '●3月1日，市营商办组织市政务服务办、市市场监管局、市住建局、市金融办、市城管局、吉安供电公司等部门一行14人赴赣州市学习营商环境优化提升推进落实、政务服务优化提升、工改、普惠金融、市场监管、涉水电气行政许可审批等工作经验做法。', '报：王少玄书记，罗文江市长，漆海云常委副市长，朱晓东常委副市长，刘志斌副市长，胡海洋副市长，刘烨球秘书长。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>125</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>内蒙古赤峰市党政考察团在我市考察王少玄万超岐肖玉兰等参加活动</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2022-03-13</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-68834.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['（记者郭欢）3月11日至12日，内蒙古自治区赤峰市党政考察团一行，在我市考察承接产业转移、优化营商环境等工作，双方就进一步深化合作进行了座谈交流。', '市委书记王少玄主持召开座谈会，与赤峰市委书记万超岐及考察团一行深入交流工作经验、互学互鉴。市领导肖玉兰、王大胜、漆海云，赤峰市领导陈占英、赵志刚等参加活动。', '王少玄代表市委、市政府对赤峰市党政考察团的到来表示欢迎。他说，赤峰与吉安相隔2000多公里，赤峰党政考察团到来对于吉安来说，既是远客，更是稀客，给吉安提供了难得的学习借鉴机会，也给吉安的同志更好、更深入了解内蒙古发展、了解赤峰文化、了解祖国大家庭良好发展态势提供了难得机会。', '王少玄表示，赤峰悠久的历史文化、壮美的北国风光，令人向往。近年来，赤峰经济社会发展取得的显著成效，令人钦佩，对吉安有很好的学习和借鉴作用。吉安与赤峰相交相亲，距离从未阻断两地的交流。两地区位与产业相近，真诚期待，通过此次交流进一步奠定双方互助共赢的基础，促进吉安与赤峰在工业、农业、文化旅游等领域深化对接与合作，共同推进两地高质量跨越式发展。王少玄说，希望赤峰各位领导带走吉安对赤峰发展的美好祝福、对赤峰人民的美好祝福，留下赤峰和内蒙古草原对江西吉安老区的一片深情与合作发展的美好期待。', '万超岐谈了在吉安的考察体会。他说，吉安承接产业转移行动早、力度大、成效显著。考察团重点学习了吉安在对接融入粤港澳大湾区，承接大湾区产业转移方面的好思路、好做法、好成效；在吉安市委、市政府多年的努力与打造下，吉安形成了完整系统的产业；吉安的营商环境优良，打造“吉事即办”政务服务品牌、井冈山经开区“免申即享”服务平台等，在打造江西办事的“吉安样板”上探索创新步子大，成效明显；吉安的党员干部创意创新、创业创造的精气神以及一心一意谋发展的状态，令人印象深刻；吉安发展的速度、效率也给考察团留下深刻印象，使大家感受到压力，也感受到奋进的动力；吉安市委在谋划未来发展上谋得远、谋得深，“一二三”发展战略符合吉安发展实际。我们将借此次学习考察的机遇，认真学习好吉安的好经验、好做法，更好地促进赤峰市的高质量发展。', '其间，赤峰市党政考察团一行先后来到市行政服务中心、吉安市木林森实业有限公司、南亚新材料科技（江西）有限公司、吉安生益电子有限公司、井冈山经开区惠企政策“免申即享”平台、江西普正制药股份有限公司、吉安螃蟹王国科技有限公司、江西立讯智造有限公司、江西宏瑞兴科技股份有限公司、吉安创德精密电子有限公司等地，现场考察我市承接粤港澳大湾区产业转移、数字经济发展以及优化提升营商环境等工作情况。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>125</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>王少玄调研推进文旅产业高质量发展全省旅发大会重点项目建设情况</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2022-02-19</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-68434.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['\u200b （记者郭欢）2月18日，市委书记王少玄主持召开汇报会，听取有关同志赴上饶、景德镇市学习考察文旅项目，全省旅发大会重点项目推进情况汇报，就推进吉安文旅产业高质量发展集众智、议良策。他强调，要深入学习贯彻习近平总书记关于文化和旅游工作的重要论述，完整准确全面贯彻新发展理念，以筹备省、市旅发大会为契机，统筹兼顾、精准施策，推动全市文旅产业高质量发展。', '在汇报会上，大家围绕赴上饶、景德镇学习考察的所见、所思，讲体会、找差距、议举措。王少玄强调，要加大政策引导力度，做好顶层设计，借省旅发大会的东风，抓大事、干大事、谋大事，尽快出台一系列规范旅游健康发展相关文件，在政策、制度、改革等方面探索新路。树立“给政策不等于给资金、给政策不等于占便宜”的鲜明导向，把政策体现在服务、包容、环境上，体现在助企业一臂之力、帮助企业成功上。要加快旅发大会项目推进，打开眼界、提高标准、精心雕琢。要加强旅游服务软体建设，打开脑洞、调动情商，高水平谋划庐陵文化节、设计新颖的会议推介活动。要做好服务保障、完善宣传推介资料，创新方式展示吉安智慧旅游。', '汇报会前，王少玄还冒雨实地调研旅发大会项目之一——钓源古村景区推进情况。他强调，要精致建设做细节，在景区景观的雕梁画栋上、一砖一瓦上以及街头巷尾的景致上，体现出钓源古村的古风古貌古文化；要创意经营做业态，让游客静得下来、玩得起来、来了还想来；要强化调度抓工期，全力以赴营造环境推进项目施工。既要做好群众工作，让村民受益“职业化”，提高群众主人翁意识，真正让群众参与、群众获益，推动共同富裕。要务求实效可持续发展，坚持差异化发展，在组织方式、开发模式、运营方式等方面增强景区竞争力，留下旅发大会的“精神财富”，创造适合吉安文旅发展的制度模式，开发出体现吉安特色的旅游产品。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>125</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>我市加强湘赣边区域医保领域合作交流</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2022-02-16</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-68378.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['\u200b 一是签订合作协议。市医保局分别与株洲市医保局、郴州市医保局签订医疗保障服务共享合作协议，在就医备案互通、就医结算互联、缴费年限互认、就医监管互助等方面实行共享合作。二是深化业务交流。通过“你来我往”学习考察等形式，多次进行座谈交流，在医保基金监管、协议医药机构管理、异地结算、保障待遇落实、医保服务提升等方面深入交流经验、开阔思路，进一步明确医疗保障制度改革方向。三是强化工作支持。相互支持、合力推动重大项目建设顺利实施，在上线国家医保信息平台前，市医保局与株洲市医保局进行了充分的信息共享和经验交流，互相取长补短，确保双方医保信息化建设高效推进。下一步，三地医保局还将在医保经办服务、跨省异地就医结算等医保重点事项上开展更为广泛的合作。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>125</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>吉安市人民政府办公室关于年度市政府工作报告重点任务落实情况的通报</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2022-01-14</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10193196.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t xml:space="preserve">['吉安市人民政府 重大战略部署落实 吉安市人民政府办公室关于2021年度市《政府工作报告》重点任务落实情况的通报', '\u200b井冈山管理局，井冈山经开区管委会，各县(市、区)人民政府，庐陵新区管委会，市直有关单位：', '2021年市政府工作报告重点任务责任分工的通知》(吉府办字〔2021〕38号)要求，市政府督查室对2021年度市《政府工作报告》重点任务落实情况进行了专项调度。从调度情况来看，151项重点任务，已完成或基本完成144项，占总任务数的95.4%；因其他因素导致项目迟缓的4项，占总任务数的2.6%；尚未完成3项，占总任务数的2%，分别为市文广新旅局牵头负责的“‘五个一’工程”；市金融办牵头负责的“年内新增贷款450亿元”；市卫健委牵头负责的“打造全民健康信息平台”。经市政府同意，现将有关情况予以通报。已完成或基本完成的责任单位要继续抓好推进落实，巩固实效。尚未完成事项的责任单位要咬定目标，采取有效举措，加快调度推进，迎头赶上。', '深化高端研发机构攻坚行动，支持企业面向市场、依托产业链，打造紧密型、任务型创新联合体。', '积极组织中科生态环境研究院、省通讯终端技术研究院申报了省级高端研发机构。积极申报了5家省级新型研发机构，目前正在评审阶段，我们将加强跟踪对接，力争获批1家以上。年内，我市新增1家省级产业技术创新战略联盟，即由江西省通讯终端产业技术研究院有限公司为牵头单位组建江西省通讯终端技术创新战略联盟”。', '实施国家级创新平台攻坚行动，深化与中国工程院、中国科学院等大院大所合作，加大重大创新平台创建奖励力度，争创木林森半导体发光材料国家重点实验室、博硕国家企业技术中心。', '一是加大了平台创建攻坚力度。起草了《关于加快吉安市重大科技创新平台建设的实施办法（征求意见稿）》，明确了对重大创新平台的奖补措施。陪同省科技厅分管领导赴科技部汇报了广源化工和普正制药等2家省级工程技术研究中心申报国家级创新平台情况；组织博硕科技、立讯智造和木林森实业等9家单位申报了省科技创新平台，5家单位参加了专家答辩，省科技厅考察了其中3家,通过对接获悉，今年我市将获批3家省级技术创新中心，其中木林林公司成功获批江西省高稳定性LED封装及应用技术创新中心，博硕国家企业技术中心已经国家发改委批准进入立项公示阶段。二是深化与大院大所合作。连续两年承办了国家级大院大所产业技术进江西吉安专项对接会，今年会议邀请了14家国家级大院大所28名专家重点就新型材料产业技术开展了科技对接合作，促成了5项签约合作，并组织专家与我市50多家新材料企业开展了深度交流合作。推动王耀南院士团队在井冈山经开区组建了“吉安市机器人智能感知与高端装备联合研发中心”，推荐吉为科技与中国科学院深圳先进技术研究院开展技术合作，联合创建了“新能源材料与技术联合实验室”；引进华南农业大学罗锡文院士团队，协助组建我市农机装备智能研究院，并推动华南农业大学工学院与井冈山大学机电工程学院3个科技合作项目落地实施。', '实施创新平台提能行动，健全中科吉安生态环境研究院、电子信息产业研究院、井冈山红壤研究所管理机制，推进机器人智能感知与高端装备联合研发中心建设，持续激发创新活力。', '一是实施了创新平台提能行动，将中科生态研究院列入“需要享受‘十四五’期间支持科技创新进口税收政策机构”名单，提交了相关证明资料，若通过审核，中科生态购进口仪器设备将享受税收优惠。同时，积极争取了井冈山农高区科研单位（井冈山红壤研究所、井冈山生物技术研究院）申报省级新型研发机构。二是健全完善了管理机制。井冈山农高区出台了《入驻科研单位绩效评价办法》、《院士创新基地建设方案》，有力激发中科吉安、井冈山红壤研究所等园区入驻科研单位和院士等高端人才发挥创新活力，助力农高区升建。三是推进了智能感知中心建设。推动与湖南大学共建吉安市机器人智能感知与高端装备联合研发中心，依托王耀南院士团队科技和人才资源，搭建园区高端研发平台。现已组建一支包含博士、硕士、工程师等24人的专业研发团队，并与园区内木林森、米田、金匠、三江超纤等企业开展深入合作，签订省外合作项目4个。', '深化研发投入攻坚行动，提升财政科技专项资金效能，加大企业研发奖补力度，力争全市R&amp;D经费支出占GDP比重达1.8%。', '加强研发投入统计培训和指导，召开了全市全社会研发投入攻坚推进会，今年起市本级财政科技专项经费增加到5000万元，明确对上年度研发投入没有达到200万元的企业原则上不得申报重大科技专项。同时，统筹省、市财政资金1029万元用于奖补2020年研发投入总量和增幅在全市排位靠前的县（市、区）和企事业单位，再加上县级承担部分，资金总额达到1944万元。2020年我市R&amp;D经费31.88亿元，投入强度为1.47%，', '目前全市规模以上工业企业有研发投入数量占比达50.73%，被省推进型省份建设领导小组通报表彰为“2020年度江西省加大全社会研发投入攻坚行动优秀设区市”。以“科贷通”为代表的科技金融在市中行的基础上新增了市农行、市邮储、市农商行三家合作银行，', '加快科研成果转化运用，实施一批重点科技专项，加强知识产权保护，落实装备首台套、材料首批次、软件首版次政策，建立首购首用风险补偿制度，提升全民科学素质。', '一是申报了一批重点科技项目。目前已申报省级重点新产品项目18个，重点研发计划项目26个，科技成果转移转化项目17个，区域创新体系建设项目10个。获批省级以上科技项目资金3776万元，其中，国家级2720万元，省级1833.17万。二是加强了技术合同登记。全市新增技术合同登记135项，合同金额共24亿元；完成科技成果登记89项。三是认真开展了科技奖申报。我市提名2021年度省科技奖项目中，4项入围初评推荐项目公告名单，并对去年14个科技成果项目分别进行科技奖奖补和培育。四是探索实施了“揭榜挂帅”机制。征集了一批关键核心技术问题和需求，并向全社会发布了2021年度吉安市第一批“揭榜挂帅”项目，共3项，合计2500万元。其中，机器视觉与人工智能融合的LED巨量分选关键技术研究，榜单金额800万元，已由湖南大学和江西省通信终端研究院揭榜；中药生产膜分离关键技术，榜单金额700万元，已由南京工业大学揭榜；泰和乌鸡种质资源开发及健康养殖关键技术研究与应用，榜单金额1000万元，已由浙江大学揭榜。市科技计划专项已提请审定，待审定后发文下达。', '深入实施市“双百计划”，发挥T类人才政策效应，启动市高层次人才产业园建设，年内引进科技金融、教育卫生等领域高层次人才100名。', '大力宣传实施“庐陵英才”计划，兑现首批市6名T类人才每人100万安家费、生活补贴、人才住房等政策，共计677.1万元。聚焦人才与产业深度融合，吉安市高层次人才产业园开园，邀请3名院士及140余名高层次人才出席活动，促成包括4名院士团队项目在内的10个人才项目签约，首批纳入高层次人才产业园项目共54个，其中顶尖人才项目5个，领军人才项目16个。出台《关于进一步加强吉安市市直医疗卫生单位高层次人才引进工作的意见》和《吉安市关于引进名师名校长的意见（试行）》，更大力度招引教育、卫生等领域人才。前三季度，刚性引进大学本科及以上人才1427人，其中博士18人、硕士146人。11月16日启动第二批市“双百计划”申报工作，目前正在评审。', '推进技能人才提升工程，打造一批县级公共实训基地，加快培育更多紧缺型、实用型技术人才。', '大力推进技能人才工作，1-11月，吉安市共开展技能培训8.9万人次，企业新型学徒制培训1741人次，线上培训3.5274万人次，分别完成全年任务的103%、116%、408%，职业技能培训券发放数占比名列全省第一，使用专账资金3913.811万元。全市新增省级高技能人才培训基地1家、省级技能大师工作室1家、市级技能大师工作室6家。加快技工教育发展，今年我市新增3所民办技工学校，全市5所普通技校秋季招生3126人。在全省率先开展江西省技能人才评价考评员暨外部质量督导员考核培训班，137人参加，其中考评员81人，均来自我市职业院校、职业技能培训学校和井冈山经开区红板等5家企业的优秀技能人才，为企业自主认定技能人才提供了师资保障。', '在杭州市开展“三请三回”活动，邀约吉安籍在外高层次人才参会并发言。收集整理2016年以来7.3万名青年学子信息，并建立常态联系吉安籍在外人才机制，更大范围吸引在外青年人才回乡发展。12月16日举办“2021年吉安·粤港澳大湾区招才引智活动暨人才政策推介会”，邀请105名吉安籍在外高层次人才参会，现场签约人才项目30个。', '构建全周期人才服务体系，落实落细“庐陵英才”政策，全市建成2500套人才公寓，吸引更多人才汇聚吉安。', '全市八大产业链共制定出台支持政策文件21个，其中以党委政府名义出台4个、部门名义出台17个，县区层面对标细化工作方案。明确提出“一二三”部署要求，将链长制作为推进产业倍增升级的主抓手。1-11月，全市八大重点产业链开展调研、座谈、调度132次、其中链长召集47次，累计举办产销、产融、人才等对接活动37场，开展招商活动17场，签约项目182个、金额1174.02亿元。1-11月，全市八大重点产业链共收集产业链问题86个，已办结84个，办结率97.7%。其中，新型材料产业链收集问题19个、装备制造产业链收集问题12个，均已全部办结。', '提升电子信息首位产业核心优势，加快补齐铜箔等上游原材料短板，拓展高端元器件、智能穿戴、智能家居等终端产品，壮大半导体智能照明、触控显示、电子电路板等优势集群，年内全市电子信息产业营业收入超过1800亿元。', '一是优化顶层设计，编制电子信息产业规划，科学布局细分链条，形成市县共链、县县协同发展格局。二是搭建上下游配套平台，举办电子信息产业供应链对接大会，发布供需清单，邀请国内外企业与我市达成供需、金融、人才、创新等合作；推动成立电子信息产业联盟，首批109家企业入盟，引导企业信息共享、供需配套、抱团发展。三是指导精准招商，将铜箔、胶水、半固化片、光学镜头列为招商重点，同时统筹各地重点招引细分方向，形成协同发展格局。承办了吉安市对接粤港澳大湾区电子信息产业招商推介会，签约项目111个，签约金额811.3亿元。1-11月，全市电子信息产业营业收入1743.8亿元，同比增长22.9%，预计全年营收可超过1800亿元。', '培育主导产业特色优势，推动生物医药大健康多业态融合，深度开发“三子一壳”等道地中药材，振兴乌鸡产业，推出富有吉安特色的保健食品和康养服务。', '一是抓好全市大健康产业发展规划，构建生物医药、健康食品、健康旅游、健康服务4大板块协同发展的产业体系。二是深入实施生物医药产业链链长制工作，加快产业链创新发展，组织10余家中医药企业参加全国中医药高层次专家对接交流会，推动中国中医科学院黄璐琦院士与泰和县建立乌鸡药用价值开发产学研用合作；推动张伯礼院士与我市井冈山经开区达成战略合作，与普正达成杜仲研究专利合作，指导大自然改进固本延龄丸等产品工艺技术。三是加大对中药材种植奖补力度，对新建中药材种植基地，木本类、多年生草本和一年生草本中药材给予补助；大力推广GAP标准化种植良种选育和新品种试验示范技术，今年新增中药材种植面积0.55万亩，总种植面积34.55万亩。', '强力推进全市先进装备制造产业链链长制工作，在省级传统产业优化升级专项资金中对汽车零部件等机械制造类企业开展智能化、绿色化技术改造进行扶持，推动企业技改升级、产业做大做强。预计2021年，全市先进装备制造产业实现营收500亿元，同比增长35%；其中，汽车零部件和数控机床两大细分领域分别实现营收110亿元和37亿元。', '一是持续推进食品类产业基地建设发展，组织和指导新干县、吉水县、安福县、泰和县做好食品类省级新型工业化产业基地复核工作，推动食品产业园区发展平台进一步完善优化；持续调度吉州区绿色食品产业园建设进展，推动加快完善各类平台建设，优化园区承载能力。目前，园区内已落户22家企业，其中17家已投产，今年新引进2个项目（聚吉宏食品、赣之然食品），总投资6000万元。二是全市已有农高区、吉州区、井冈山市、新干县、吉水县、遂川县等地区建立了绿色食品产业园，引进入驻113家企业；三是积极申报创建省级农业产业园，泰和、吉水、万安、峡江、井冈山分别以乌鸡、稻柚、富硒产品、中药材、红色传承产业为主导，创建省级现代农业产业园5个；四是吉水县成功创建全国农业现代化示范区。', '一是召开了全市新型材料产业链工作推进会，分析面临的形势和问题，研究部署下一步工作，推动我市新型材料产业乘势而进、转型升级、产业链向高端迈进。二是深化科技合作，积极争取并于9月16－17日成功举办了2021国家级大院大所产业技术及高端人才进江西暨吉安新型材料产业技术创新对接会。邀请了江铜首席科学家张士宏研究员等28名从事新材料研究或生产的专家教授为吉安新型材料产业发展及技术创新建言献策。征集到我市新材料企业共性关键技术需求21条、平台建设需求信息15条，并逐一向专家反馈，会后专家分8个组实地对接开展合作；同时，组织21名专家申报省级工业领域科技特派员，支持引导企业和科技特派员结对。三是收集整理了新材料产业领域企业问题清单并落实责任单位，帮助企业解决难题。四是印发了2021全市新型材料产业链链长制工作要点，提出了推进传统皮革制品产业向超纤复合新材料转型升级发展。五是积极组织新型材料产业企业申报省技术创新中心，今年推荐2家企业申报省技术创新中心。六是着力引进了一批与新型材料产业链相配套的上下游产业项目，推动产业高端化、智能化、集群化发展。如江西铜业投资吉州区50亿元的新型电缆材料项目，旭祥金属投资遂川县8亿元氧铜杆项目。七是组织实施一批科技攻关项目。今年市本级科技计划拟安排5项新型材料类科技计划专项，仅次于电子信息产业，每个项目资金50-100万元。八是认真研究新型材料产业分布和链上亟需解决的关键技术瓶颈、关键缺失环节，深挖潜在招商目标和合作伙伴，梳理了铜基等5个板块产业链图及重点精准对接项目表。九是实施了重大科技项目技术攻关“揭榜挂帅”行动，走访多家企业凝练共性技术难题，蓝微电子科技公司申报的“高性能铜合金键合丝及特殊铜材研究”吸引了知名科研院所的创新团队参与揭榜。', '大力发展城市旅游，打造高铁游、赣江游、红色游、文化游、乡村游等精品旅游线路，抓好长征国家文化公园吉安段、中心城区高铁新区“三馆”、古后河旅游文化街区等项目，上线运行“云游吉安”智慧平台，高质量承办2021年中国红色旅游博览会，积极筹备2022年全省旅游产业发展大会。', '推出了20条乡村旅游精品线路，8条吉安市红色旅游精品线路。编制了《长征国家文化公园（吉安段）建设实施方案》，三个重点建设县（井冈山、遂川县、永新县）项目稳步推进，其中井冈山新城镇望红台文化公园已完工，遂川县长征驿站、红军码头、红六军团先遣纪念碑、横石纪念碑广场等已完成，永新县红六军团长征出发地文化公园、三湾官兵文化园（三湾改编拍摄基地）、才丰誓词广场等建设已完成。高铁新区“三馆”主体工程完成，正在进行内部装修和布展。古后河景区已成功创建国家4A级景区，庐陵人文谷成功创建“国家级夜间文化和旅游消费集聚区”。依托大数据、云计算、物联网，以及虚拟现实技术建设的吉安智慧旅游平台二期已于2021年8月3日基本建成上线试运行，12月2日通过专家评审验收正式运行。目前云游吉安已有注册用户近20万，入驻文旅企业936家，其中签约可实现网上预订、购买的企业216家，监管服务平台已完成所有3A级以上景区视频监控对接，以及人脸摄像头和红外人流监测设备的安装，实现了一部手机游吉安、一网联动吉安、一屏统筹吉安等应用场景。圆满举办2021中国红色旅游博览会，成立了吉安市筹备2022年江西省旅游产业发展大会工作领导小组，颁发了项目责任状，建立了督查考核机制，全市40个文旅项目正在加速推进。', '推进井冈山经开区工业互联网、永新物联网智能制造等产业园建设，拓展传感器、通讯模组等5G制造，发展智能装备、机器人等人工智能产业。', '井冈山经开区工业互联网、永新物联网智能制造产业园建设推进顺利，其中井冈山经开区工业互联网产业园入驻企业及平台共计20余家，永新物联网智能制造产业园已入驻或签约企业18家。推动木林森、生益电子、威尔高等企业打造5G应用示范工厂，瑞声电子、三江超纤、井冈山大学等企业打造5G应用示范场景，井冈山经开区获评首批江西省5G产业基地，协讯电子获评省级人工智能产业示范项目。大力推进摩比通讯、南亚新材料、生益电子等企业的5G覆铜板、线路板、大规模天线、电子元器件产业化项目建设，形成以经开区、吉州区为代表的5G产业聚集区。经开区5G智能硬件制造产业基地被认定为江西省首批5G产业基地，为全省5地之一。', '采取租用“上公链”模式建设区块链+现代农业示范基地。实现农产品井冈蜜柚、油茶、芦笋溯源。推动了区块链+井冈蜜柚试点工作。应用区块链技术打造了工业互联网电子信息产业标识解析应用节点，20多家重点企业已开展应用。积极对接江西软件职业技术大学，推进区块链应用研究院建设。', '创新打造5G联合创新（江西）开放实验室、通讯终端产业技术研究院、高密度互连印制电路板国家企业技术中心等研发创新平台，建立工业互联网研究院、电子信息产业标准解析应用节点（区块链技术）。', '吉安市农特产品区块链项目全面建成，已完成10家企业上链，井冈蜜柚、井冈芦笋、井冈茶油三种农产品上线销售。', '发展在线教育、互联网医疗等线上服务，打造20个智慧工厂、数字车间，年内实现1000家企业“上云、用数、赋智”。', '深入实施数字经济发展三年行动计划，加快编制数字经济发展“十四五”规划，推进产业数字化转型。一是积极发展在线教育、互联网医疗等线上服务。二是加速推进“5G+工业互联网”，打造22个智慧工厂累计上云企业突破2000家，立讯智造获评工信部2020年工业互联网试点示范项目，全市共获评3个两化融合示范园区、28个省级两化融合示范企业，吉安制造正在加快向吉安智造迈进。推动工业互联网电子信息产业标识解析应用节点建设，全市20多家重点电子信息企业进行了对接。三是启动市级数字经济试点示范工作，拟在全市批复建设一批市级数字经济创新发展试验区和试验基地，拟认定名单已公示，正报市政府审定。', '突出招大引强，围绕产业抓招商、引项目，深化“三请三回”“三企入吉”“三百工程”，推行中介招商、委托招商，招引头部企业、领军企业。', '突出梯次培育，推进工业“5135”强企工程，实施“链主”企业培育计划，每个行业选取一批优质企业重点扶持，推动企业“老树发新枝”，年内新增省级小巨人企业3家、“专精特新”企业28家，净增规上企业100家。', '建立百亿企业专项稳企帮扶机制, 进一步完善“领导挂点+部门对口+特派员驻企”的帮扶体系，截止11月，特派员共收集企业问839个，办结率89.6%。 1-11月在统技术改造项目446个（全年预计450个），完成技改投资同比增长23.8%（全年预计20%），占工业投资比重53.7%（全年预计52%），比全省高12个百分点，打造了南亚新材料等一批老树发新枝典型。今年我市新增10家国家级专精特新“小巨人”企业,3家企业获国家重点支持小巨人企业，每家企业获批扶持资金各200万元。今年已推荐企业申报省级小巨人和“专精特新”企业，预计2022年1月份出认定结果，从申报情况看，能完成全年目标任务。1-11月，新增规模工业企业122家，净入规90家，12月份申报74家，预计全年将超额完成年度目标。', '严格执行国家、省清理规范城镇供水供电供气供暖行业收费有关政策，并已认真贯彻落实到位。', '打造了就业创业公共服务平台，建设“一库三平台”（即：全市劳动力资源动态数据库、招工和求职信息发布平台、招工和求职信息精准匹配推送平台、就业创业服务平台）并即将投入使用。完成全市劳动力资源调查，共采集劳动力信息225.46万人，共录入信息数据库207.71万条，信息采集人数占全市2020年末总人口的42%，占全市18-59岁总人数的72%。加大弹性用工、共享用工政策宣传，鼓励企业实行共享用工、弹性用工，井冈山经开区出台了《井冈山经开区推进疫情期间共享用工实施方案》，一定程度上缓解了用工问题。', '持续落实减税降费政策，优化“免申即享、零跑即享”服务，让惠企政策像快递一样精准直达。', '健全减税降费工作机制，利用信息化手段对纳税人享受情况进行主动甄别、预警提醒、事后纠正，确保应知尽知、应享尽享、落实落细。2021年1-11月，全市税务部门新增减税降费15.08亿元。全力落实制造业中小微企业延缓缴纳2021年第四季度部分税费政策，预计延缓缴税费超4亿元，助力全市工业经济平稳运行。研究制定了《国家税务总局吉安市税务局关于印发&lt;支持全市工业企业“老树发新枝”和内部供应链发展税收优惠政策和服务措施15条&gt;的通知》,全力支持全市工业企业“老树发新枝”和内部供应链发展。通过降低企业税费负担、增强微观主体活力，充分发挥结构性减税政策效应，提升企业转型升级积极性，引导企业将获益资金更多地用于技术研发和设备更新等领域，助推产业链不断优化升级。', '打好工业、农业、服务业、重大基础设施、新基建、公共服务六大领域“项目大会战”，推进实施817个重点项目，完成投资2000亿元以上。', '加快推进“两新一重”项目，抓好千兆5G网络覆盖等新型基础设施项目，实现重点城镇和景区5G网络全覆盖。', '推动长赣铁路、樟吉高速吉安段改扩建、遂川至大余高速尽快开工，推进宜遂高速、大广高速吉安段改扩建等续建项目。', '长赣铁路已按要求做好了地方诉求争取和可研阶段各项工作。长赣铁路可研评估已完成，我市境内线路走向和站场设置方案已基本稳定，有望在2022年启动建设。樟吉高速吉安段改扩建项目已基本完成前期工作，计划本月底前挂网招标，春节前开工建设；遂大高速项目已完成前期工作，主体工程已确定施工单位，计划本月底开工建设；宜遂高速项目路基土石方累计完成97.09%， 2021年已完成投资85.26亿元，占年度投资额的106.58%；大广高速吉安段项目路基土石方累计完成62.9%； 2021年已完成投资29.4亿元，占年度投资额的117.6%。', '加快推进重大产业项目，开工建设南亚新材料三期、宇宙科技产业园、景旺电子三期，推动生益电子、米田科技、巴斯巴新能源等投产见效。', '牢牢把握“签约项目开工、开工项目竣工、竣工项目投产、投产项目达效”四大核心环节，推动一批重大产业项目开工投产。南亚新材料三期智能工厂已在建第一层，宇宙科技产业园主体厂房已出正负零零线，景旺电子三期一栋厂房已部分投产，生益电子、米田科技、巴斯巴新能源都已投产或部分投产，预计年产值15亿元以上。', '提升城市消费，推进步行街改造，加快中心城区步步高新天地、吉安县王府井、吉水县凤凰广场、泰和县宏泰广场等商业综合体建设。', '推进步行街改造，已将铜锣湾广场商业街区、庐陵人文谷特色商业街申报省级商业街区改造项目，其中庐陵人文谷特色商业街8月份成功入选江西省省级商业街区改造提升试点街区名单;步步高新天地项目基坑中部土石方基本开挖完毕，正进行施工图设计，预计年底前完成图审，签定总包合同，办理施工许可证后全面启动施工，项目招商前期工作已启动。吉安县王府井项目商业街三层已封顶,住宅区、公寓已竣工，目前正在内部装修；购物中心地上二层已完成浇筑。吉水县凤凰广场项目主体建筑已完工，正在对公共部位进行装饰，已签约业态面积占比达35%，中影凤莱国际影城、宾悦国际酒店、A+旗舰健身中心、金豪商务KTV、Ins美发沙龙已进场装修，预计春节前影院、KTV等部分业态试营业，2022年4月统一对外营业。泰和县宏泰广场已完成主体建筑外层粉刷，正在实施商业楼外部及配套设施装修。', '稳定大宗消费，有序取消行政性限制消费购买的规定，实施新一轮汽车下乡、家电以旧换新行动。', '市本级已举办春季、秋季2场大型惠民车展，共销售各类小车2416辆，销售金额近4亿元。指导开展2021吉安市汽车下乡巡展活动，7月份在遂川县、9月份在泰和县、10月份在永丰县分别举办巡展，共销售各类小车147辆，销售金额1832.4万元。', '充分发挥电子商务的独特作用，大力发展线上经济，支持餐饮企业开展“无接触配送”模式，切实做好“网订店取”配送服务。目前，好乐福、好客莱、顺旺客、七里香、儒林状元楼等餐饮企业开展在线订餐，通过美团、饿了么等平台线上接单、线下配送，每天接单近2万单。着力夯实电子商务发展基础设施，全市打造了12个直播电商基地，销售收入3亿元。', '大力推进新兴消费业态发展，加快建立健全“互联网+居民生活性服务”，开展吉安市赣菜“百城千店”评选活动，成功举办首届“井冈杯”家庭服务技能大赛，开展家政服务培训3500余人。举办有特色、有吸引力的文旅节庆活动，引导市场需求，拉动文旅消费。截止12月16日，我市共举办文旅消费活动1210场，引导商家让利6.49亿元。全面治理校外培训机构，我市156家学科类培训机构，已转型、注销138家，剩余的18家机构也全部办理“营转非”；提供课后服务的义务教育阶段学校有530所，参与学生达到60余万人。持续深化产教融合，加快校企对接，制定了全市规范民办义务教育发展工作实施方案，开展2020年度全市民办学校年检工作，从办学行为、资产管理等方面对全市所有民办学校办学合理性进行依法年检；全面部署推广应用民办学校办学许可证电子证照，多举措促进民办学校的审批和管理规范化。积极推动热敏灸产业发展，泰和县中医院省级热敏灸区域治疗中心、峡江金坪热敏灸小镇、井冈山罗浮热敏灸小镇、神山村热敏灸体验馆、青原区新圩璋塘热敏灸乡村已完成建设并运营。盘活医疗机构闲置床位开展养老服务，全市现有医养结合机构9家，机构床位数2625张，其中医疗床位1067张，养老床位1558张，医疗机构与养老机构签约服务率达100%，全市二级以上综合医疗机构设置老年医学科比例达到90%。', '物业管理方面：一是加强《吉安市住宅物业管理条例》及配套文件的宣贯。二是规范前期物业管理招投标和物业服务方案备案。全市新建商品房在预售前通过招投标形式选聘前期物业服务企业，推行《吉安市住宅小区前期物业管理合同示范文本》、《吉安市住宅小区临时管理规约》等示范文本，并纳入到前期物业服务方案备案。三是完善企业信用评价和考核体系。推行《吉安市物业服务企业信用档案与评价管理办法（试行）》、全市物业管理信息评价平台，结合日常工作对物业服务企业及从业人员开展信用评价，评价结果与物业招投标、评先评优等工作相结合。四是推行业主决策电子投票平台。开展物业管理提升年、物业服务收费信息公开、美好家园、示范项目创建等活动。制定了《关于加强党建引领打造“红色物业”的实施意见（试行）》。七是提升行业协会服务能力。物业行业协会建立了常态化的培训交流机制，全年累计开展培训8期，参与培训近1000余人次。家政行业方面：一是推荐我市嘉洁物业管理有限公司入选家政服务业提质扩容省级重点联系企业名单。二是联合商务局建立吉安市促进家政服务业提质扩容工作机制，落实国家和省促进家政服务业提质扩容的政策措施，做好全市家政服务业提质扩容重点任务分解，同步建立家政服务业发展常态化监测机制。三是全市人社部门开展就业技能提升培训19250人，其中家政培训1536人、中式面点师培训4767人、养老护理员培训2515人、育婴员培训7445人、美容培训215人、美发培训58人，较好地提高了家政服务行业人员的技能水平。', '抓好交通强国建设试点，推进万安枢纽二线船闸工程，完成井冈山航电枢纽、泰和沿溪货运码头等项目建设。', '万安枢纽二线船闸工程累计已完成投资25.74亿元、达88.05%，计划2022年6月建成运行；井冈山航电枢纽6合机组全部并网发电，12 月20日完成交工验收，12月28日投产运营；泰和沿溪综合货运码头2021年10月26日已印发项目竣工验收证书，省港口集团计划12月底前申报港口经营许可并完成发放。', '11月底开通吉安至永新公交线。已完成吉水县、泰和县、安福县、永丰县、井冈山景区、永新县城际客运班线公交化改造。', '按照省委、省政府打造精品服务区的要求，建设宜遂高速“井冈山东”服务区，规划樟吉高速吉州区段增设的“金庐陵”服务区打造成国家一流旅游示范景区。', '深入实施物流高质量发展三年行动，加快青原区富盈新零售、吉安县中通省级转运中心等物流园区建设，推进万佶江西物流公共信息平台、中心城区高铁新区快运物流基地、吉安冷链物流中心等项目，全市新增A级物流企业5家。', '稳步推进富盈供应链产业园、吉安市冷链物流中心等重大项目前期工作，加快吉安县中通省级转运中心（二期）建设；帮助江西万佶物流有限公司协调市直有关单位提供物流领域的政务非涉密信息数据接口。推动万佶智慧物流产业园项目落地，11月11日，吉安万佶智慧物流产业园项目在井开区举行了签约仪式；推进全市城乡高效配送体系建设，12月16日，与正广通科技集团有限公司签订吉安市全域数智物流体系战略投资框架协议。积极组织开展A级物流企业申报工作，全市新增A级物流企业1家，5家物流企业通过中物联A级物流企业现场评估，正在公示，预计到年底全市国家标准A级物流企业达到20家。', '开展“深化大改革、引领大发展”专项行动，市领导领衔推进重点改革项目，推动思想再解放、改革再出发。', '成立了“市委改革与发展专班”，创新“领导领衔、部门领办、专班专办”做法，建立领导齐上、部门齐动、项目齐抓、绩效齐创工作机制，以项目为抓手贯彻落实“大改革引领大发展”战略部署，推动思想再解放、改革再出发。市四套班子34位成员领衔重大改革项目51个，市本级明确206个重点改革项目，并延伸范围至县、乡镇一级，形成市、县、乡三级齐抓改革、引领发展的新格局。', '大自然制药已于3月23日在纳斯达克交易所正式上市。5月26日，满坤科技上市申请获深圳证券交易所正式受理，成为今年我省首家获沪深证券交易所受理的拟上市企业，12月21日完成第三轮反馈回复工作，正在筹备上发审会。宏瑞兴科技、威尔高电子、新赣江药业、红板科技先后报江西证监局辅导备案，我市新增辅导备案企业数居全省前列。今年前11个月，我市投融资平台债券融资达138.5亿元，同比增长28.63%。其中，市城投发行了我省首单地市级革命老区振兴发展融资工具，新庐陵发行了10亿元绿色债，家庐陵首次发行企业债12亿元。', '深化开发区改革创新，推行“开发区+主题产业园”“管委会+平台公司”运营模式，推进井冈山经开区薪酬制度等改革，探索“企业评园区、园区评部门”管理机制。', '一是制定出台了《吉安市促进开发区改革和创新发展2021年度工作要点》，提出年度工作计划和改革任务；二是谋划推进一批如“开发区+主题产业园”“管委会+平台公司”等市级改革试点；三是制定印发《关于组织开展企业评部门、园区评干部改革试点工作的通知》，对改革涉及的评议对象、评议重点、评议方法、结果运用、进度安排进行明确，井冈山经开区、吉高新区完成第一次评议工作。四是会同市人社局抓好井冈山经开区薪酬体系重塑工作，将工资总额与园区收入等指标有效挂钩。五是推进亩产效益评价工作。印发吉安市工业企业亩产效益综合评价工作方案，坚持“边试点、边总结、边推广”的工作原则，在经开区、吉安县的试点基础上，全面推广至全市所有县（市、区）实施工业企业亩产效益综合评价工作。', '实现事项职能人员三集中，对已划转的148项审批事项实行“一枚公章盖到底”。目前，井冈山经开区行政审批局共进驻依申请类事项1171项，进驻率100%；梳理公布“一次不跑”“只跑一次”政务服务事项1148项，“最多跑一次”事项数占依申请政务服务事项总数比例达98%以上。设置“异地通办”专窗，推行“承诺制+容缺受理”，审批时限压缩50%以上；实行一窗受理、集成服务，推行“前台统一受理，后台分类审批，综合窗口出件”的模式，一窗受理率、及时办结率、“好差评”满意率均为100%。', '着力推进现有“飞地园区”南山示范园建设，加快项目招引落地，目前一期13.2万平方米厂房已投入使用，红米谷创业园、螃蟹王国电商基地等新经济新业态项目已落户，正在洽谈对接深圳启航动力公司高低压电气设备、佛山尧米科技球面光学镜头等项目；二期建成生活区面积4.3万平方米；三期正在开展初步方案设计，计划建设高级人才公寓和研发大楼6万平方米。同时，推动有条件的县市区探索发展“飞地经济”，万安县正在对接深圳南山区街道，洽谈产业园飞地部分搬迁合作模式；永新县探索利用湘赣边区域合作机遇,共建“飞地园区”。', '深化区域合作，积极融入江西内陆开放型经济试验区建设，深度对接长江经济带、粤港澳大湾区和长三角一体化等国家战略，推进海峡两岸产业合作区、青年创业就业基地建设。', '一是积极行动加强与大湾区的产业、商贸交流合作。今年以来签约粤港澳大湾区招商合作项目68个，总投资358.86亿，全年预计销往粤港澳大湾区粮食35亿斤，生猪210万头，吉安已成为粤港澳大湾区不可或缺的优质农产品供应基地。二是抢抓赣深高铁开通机遇，推进与粤港澳大湾区深入合作，12月16日，我市对接粤港澳大湾区系列经贸合作活动在深圳市成功举办，共签约电子信息产业项目111个，金额达811.3亿元；人才项目30个；科创和总部经济项目14个，金额达22.8亿元。三是加快推进内陆开放型经济试验区建设。2021年4月，制定印发《吉安市贯彻落实&lt;江西内陆开放型经济试验区建设实施方案&gt;责任分工方案》，全面启动内陆开放型经济试验区建设工作。举办吉安市加快推进内陆开放型经济试验区建设新闻发布会。加快推进井冈山综合保税区等重大平台建设，综保区引进项目10个，其中引进了20亿元的进境粮食加工项目，新增英吉森电子等6家投产企业。截至11月底，井冈山综保区完成一线进出口总额5.8亿美金，同比增长125%。', '实施外贸高质量发展三年行动，推动井冈山综保区共建共享，建设跨境电子商务园区，支持企业建设海外仓，争创国家跨境电商综合试验区。', '印发了《推进吉安市外贸高质量发展三年行动方案（2021-2023年）的通知》（吉办发〔2021〕11号），促进外贸提质扩量。今年获批一般纳税人资格试点，打通了国内国外市场，拓宽了企业销售半径。全省首创将县（市、区）支持综保区建设纳入全市高质量发展考核，1-11月，井冈山综保区完成进出境贸易额5.82亿美元，同比增长307%，完成进出口贸易额5.9亿美元，同比增长95%。探索“管理局+公司”管理模式创新方面取得了新进展，提出了初步方案。目前，金庐陵公司与广州伟世博集团共同出资组建伟世博跨境电子商务综合服务平台，该项目总投资1亿元人民币，主要服务于各大电商平台、物流供应链企业、跨境电商零售企业等。一期项目已于2021年10月开始正式运营。园区投入使用后，将逐步开通1210跨境电商保税BBC进口，9610跨境电商直邮进口，以及跨境电商9710、9810出口等跨境电商进出口业务。9月15日我市顺利开通1210跨境电商首票出口业务，10月开通1210保税零售进口业务，并在年底前争取开通9710、9810出口业务，预计年内跨境电商可实现出口1亿美元，明年出口2亿美元以上。', '推行涉企经营许可事项告知承诺制、持续减证便民。市本级初步映射匹配的依申请政务服务事项统计共有1418项，对比减少175项。完善延时错时预约服务。调整增加不动产延时错时服务窗口，提升线下延时错时办理能力；增设税务部门社保、医保代收窗口，确保延时错时期间能完整办成“一件事”，全市累计为企业和群众提供延时错时预约服务17.53万余件，其中市本级3万余件；市本级实现依申请类事项“三免”（免费复印、打印、邮寄）服务全覆盖；优化老年人等特殊群众办事体验，为老年人提供引导办、帮代办、上门办等服务，今年以来，累计为老年群众提供各类服务1500余件；“好差评”政务服务系统全域覆盖，今年以来，全市共完成“好差评”评价452.15万件，群众满意度达99.99%。', '打造“吉事即办”政务服务品牌，拓展“赣服通”4.0版应用，大力推进涉企审批事项减环节、减材料、减时限、减费用，推动高频政务服务事项跨省通办、市内通办，建设全国政务服务满意度一等省份最佳设区市。', '印发了《吉安市打造“吉事即办”政务服务品牌实施方案》，共梳理工作任务40项，涵盖“放管服”改革各项工作任务。一是完善服务体系，在全省率先推进基层政务服务场所升级改造，目前全市224个乡镇（街道）便民服务中心全部完成“规范化标准化便利化”建设，2914个村级便民服务代办点实现全覆盖；着眼统一服务标准，将事项标准化工作延伸至乡镇，在全省率先发布乡镇（街道）统一的41项公共服务事项清单，实现市县乡三级事项信息要素的规范统一。二是持续开展“六减一增”专项行动（减环节、减材料、减证明、减跑动、减时间、减费用、增强透明度）。经过两批次累计减少办事环节627个，减少申请材料1322份，减少证明271项，减少群众跑动次数2.6万人次，减少事项办理时间1743个工作日。三是建设免证办理政务服务大厅。率先在全省推行“区块链+电子证照+无证办理”模式，首批接通身份证、户口簿、结婚证、居住证、行驶证等20项证照。目前，市、县两级均已建设免证办理政务服务大厅，市本级实现400项高频事项涉及的证照可自动获取，无须办事企业或群众再提供。四是加快建设“赣服通”4.0版。全市共上线本地事项10167项,汇聚政策631件，打造了工程建设、人才服务等本地特色专区40个，总用户注册量达300.2万人次，总体建设情况居全省前三。五是积极推动高频政务服务事项跨省通办、市内通办。已签订与浙江衢州、福建龙岩、湖南株洲的跨省通办协议和省内新宜吉通办协议，建设“全市通办”平台，在市县乡三级设立“全市通办”窗口，梳理涉及市本级14家市直单位及水电气网等5家企业公司第一批“全市通办”政务服务事项151项，实现企业和群众办事“就近办”。', '六是推行老年公交卡和学生公交卡全程“帮代办”模式。为进一步优化涉老服务和政务服务事项“就近办”，在全省率先推行老年卡社区全程“帮代办”服务和学生公交卡学校全程“帮代办”服务。变“学生各自跑”为“学校集中办”。', '我市信用平台归集信用数据今年新增约8000万条，已累计归集信用数据4.48亿余条，其中基础信息数据4.39亿条、守信信息443万余条、失信信息4000多条和其他信息510万余条。目前，吉安市公共信用信息共享平台（二期）升级改造建设项目已完成招投标及合同签订，正在进行开发。', '营造公平法治环境，全面落实《江西省优化营商环境条例》，强化反垄断和反不正当竞争执法，加大违规涉企收费整治力度，让企业安心经营、专心创业、放心发展。', '制定《2021年优化营商环境工作要点》《吉安市打造“三重”营商环境实施方案》，将营商便利度纳入市、县高质量发展考评内容。市法院联合吉安仲裁委制定《关于建立和完善诉讼与仲裁衔接工作机制的实施意见》。妥善审理涉民营企业案件，健全破产审判工作制度，推进府院联动机制建设和“执转破”工作。印发《关于在全市推广多领域实施包容免罚清单模式的方案》，已公布六大领域182项免罚清单。市市场监管局开展违规收费行为专项督查，市发改委开展降低市场准入门槛专项清理行动，对工程建设、教育、医疗、体育四个重点领域的准入规定组织自查清理，实现非禁即入“普遍落实”。公布市场准入负面清单受理电话，督促整改抬高准入门槛问题2件。市法院开展送“法”送“策”入企活动，选派驻企联络员，帮助企业排忧解难。', '强化走廊思维，促进“三县四区”产业互融、设施互通、服务共享，打造江西“中部脊梁”核心支撑。', '印发了《吉泰走廊一体化高质量发展（2021-2023年实施意见》和前三季度《吉泰走廊季度分析报表》，加强了工作调度，通报了各地贯彻落实《实施意见》进展情况，预计今年1-12月，走廊固定资产投资增长15.2%，较上年提高3.6个百分点；规模工业主营收入超过2300亿元、增长30%，占全市比重较上年提高2个百分点。重点推动了井冈山经开区成功获批为省级数字经济创新发展试验基地、吉安高新区列为全省“满园扩园”重点产业集群、井冈山农高区R&amp;D投入达到2.5%以上以及赣江西岸沿江路及滨江生态公园（螺湖桥至新井冈山大桥段）、中心城区及吉泰城镇群一体化项目(高铁新区站前大道南北延伸工程）等重点项目完工；特别是立足新发展阶段，拓展升级吉泰走廊战略，谋划提出建设赣江中游生态经济带建设并争取纳入了省党代会报告重要内容。', '推动中心城区高铁新区建设提速提档，加快“五指峰、三中心”建设运营，开工建设会展服务区、总部商务区、吉安欢乐世界等项目，完成东塘大道、站前大道南北延伸工程，年内会展中心、海洋馆投入运营。', '“五指峰”建筑群已全面封顶，玻璃幕墙完成90%，内装修完成70%，春节前基本完成室外玻璃幕墙工程，五星级酒店明年4月份试运营。会展服务区、总部商务区一期工程已出正负零，其中3栋已封顶，另外3栋施工至10层。吉安欢乐世界项目已完成规划设计方案（送审稿）和宣传片的制作。东塘大道道路及地下综合管廊工程已基本完工。站前大道南北延伸工程已完成沥青摊铺，视情况开放交通。吉安国际会展中心已于2021年9月投入使用，并顺利承办市五届人大一次会议、市政协五届一次会议和吉安市“十三五”成就与“十四五”展望暨吉安商品博览会。海洋馆已全面封顶，室内装修已基本完成，正在进行扫尾；室外市政工程东面及南面水稳完成，西面及北面路床整形完成；白蚁防治打药完成，人防检测完成、绿建室内环境开始检测、防雷检测正在整改、消防邀请专家现场指导；养水工作正在进行；运营单位已就海洋馆开业前宣传造势工作，预计明年春节前开馆营业。', '加快推进产城融合。井冈山经开区同心中学已投入使用，深圳大道企业组团配套服务项目已挂牌出让，已完成樟树移栽；东区产业配套服务项目已完成主体结构封顶，西区产业配套服务项目一期已竣工验收，二期主体结构已封顶；颐园西路等畅通微循环道路工程已完成前期工作。加快推进金鸡湖创新小镇项目建设。创新大厦主体已封顶，完成了酒店招商运行;工业设计中心的AB地块已竣工验收，CD地块主体结构已封顶；人才公寓主体已封顶，砌体工程完成50%；数字经济体验服务中心的体育中心地下室顶板已完成90%。', '8家企业获批高企，入库科技型中小企业54家。高新区数字视听创新型产业集群项目纳入科技部火炬中心2021年度创新型产业集群试点（培育），立讯获批省级产业技术创新战略联盟，奕方科技获批省级企业技术中心，富鸿金属获批国家专精特新“小巨人”企业，鑫泰科技获批省级“瞪羚”企业。3人入选省“双千计划”人才项目；6人入选市“双百计划”人才项目。设立科技创新专项资金，累计发放科贷通贷款4300万元。', '策划包装了创新产业园、智能制造产业园项目，并在长三角招商推介会上宣传、对接；拟在粤港澳大湾区经贸活动上举办高铁新区、井开区科创和总部经济恳谈会；推进永新县湘赣边智能制造产业园项目建设，目前已经落户企业14家，推进井冈山浙赣合作总部基地的双创产业园建设，将聚邦园区企业、浙江大学培训班企业、浙商理事会成员企业导入双创产业园，积极对接了深圳市产业园发展促进会等项目。', '加快井冈山农高区升建步伐，开工建设创新研发产业园、智能农机产业园，组建“1+13”农科园集团，力争成功创建国家级农高区。', '一是创新研发产业园一期第一批项目7栋楼主体结构封顶，6栋楼施工至4层，人才公寓楼墙体砌筑完成10%；市政十三条道路项目全面启动，路基土方工程完成60%，污水管道埋设完成10%；科创大桥项目路基工程完成50%，桥梁桩基础工程完成40%；食品研究院项目完成地下室30%土方开挖；科创大道天然气主管施工完成，电力管线施工完成60%；冻干食品标准厂房完成桩基础施工，孵化器项目完成地下室土方开挖及桩基施工。二是吉安市智能农机装备研究院正在筹建，已签约引进1亿元以上智能农机项目1个;三是按照市委市政府“坚持市场运作，做实农科园集团”工作要求，园区注册成立了吉安市农科园集团有限公司，推行“管委会+国有公司”以及“集团+县（市、区）”的体制机制，以吉安市农科园集团有限公司为载体，以市场化运作为手段，力求发挥农科园集团和各县（市、区）积极作用，做大做强全市各农业园区。', '推进管理再精细，深化城乡环境综合整治，推进防盗窗、线乱拉、屋顶垃圾专项治理，全面完成背街小巷整治提升，提高住宅小区物业管理水平，健全菜市场、公厕长效管理机制，巩固全国文明城市建设成果。', '加快推进市中心城区店招整治提升工作，井冈山大道店招整治工作目前已完成施工单位招标，吉州区韶山路、青原区青原大道、庐陵新区青原大道正在提升改造。三区目前已拆除破旧店招240块，并新制作了193块。', '组织开展了中心城区星级菜市场考核评定工作，评定三星级菜市场5个、二星级菜市场5个、一星级菜市场5个；召开吉安市建设新时代更高水平全国文明城市动员大会，印发了《关于建设新时代更高水平全国文明城市的实施方案》，突出抓好背街小巷、公共秩序、老旧小区、农贸市场、公共厕所等“五个重点提升”，统筹抓好价值培育践行、文明行为养成、诚信吉安建设等“七个持续深化”；建立线片联创共建机制、季度测评讲评机制、材料月报月审机制，组织开展2021年第1次模拟测评，举办了全市文明城市创建业务专题培训班，打好全国文明城市“保牌进位”攻坚战。', '加快智慧城市二期建设，推动市县大数据整合，拓展智慧环保、智慧医保、智慧交通、智慧房产等应用。', '智慧城市二期建设加快推进，整体架构已基本搭建完成，相关设备安装调试已全部完成，目前正对各业务专题开展内部评审、问题修复和上屏调试，力争明年初上线试运行；市县一体化数据交换平台已建成投用；县级智慧城市指挥中心建设工作有序推进，新建场所正加快施工，使用过渡场所的均已投入使用；智慧医保和智慧房产平台已上线试运行，智慧环保和智慧交通应用建设有序推进。', '推动县城扩容提质，突出城市风貌和特色文化，统筹老城改造和新区开发，推进吉安县全国新型城镇化建设示范区、吉州区省级城乡融合发展试验区、永新县城市更新试点建设，推动井冈山市、新干县创建全国文明城市。', '积极推动吉安县全国县城新型城镇化建设示范县、吉州区省级城乡融合发展试验区建设，《2021年度吉安县新型城镇化补短板强弱项工作要点》《吉州区省级城乡融合发展试验区建设实施方案》等配套文件经省发改委审核通过后已印发实施，各项试点建设任务有序推进。', '永新县重点推进大美秀水二期、重见永新二期项目；打通了拓东大道、教育路、兴安路、田南路、仰山东大道、三湾路三期、禾河北路、禾河西路、站前西路等9条微循环路 ；建设了工业园区、仰山公园、新区管委会等11个社会停车场，新增公共停车泊位6000多个；新建城北、城南、二机三个面积达11000平米的农贸市场；共改造公厕12座，新建公厕28座，开放单位厕所130多座。举办全国文明城市创建工作业务培训班，帮助井冈山市、新干县创建办以及基层创建工作员提高业务能力。委托第三方，结合全市公共文明指数测评，对井冈山市、新干县开展全覆盖模拟测评，帮助两地进一步发现问题、解决问题。', '与郴州市、株洲市初步建立了市级层面合作交流机制，推动遂川、永新、井冈山等湘赣边区县市互动合作，在遂桂高速、传承弘扬红色文化、旅游等产业协同发展、“千年鸟道”护鸟联盟、边界小镇商贸繁荣、政务服务“跨省通办”等方面开展了务实合作。组织峡江、新干深度对接新宜吉合作示范区建设，谋划了“十四五”示范区建设规划，启动新一轮的基础设施、产业延链补链、民生设施共建共享等合作项目15个。新干县黎山至桃溪红色旅游公路、S312新干赣江大桥危桥改造、峡江灌区工程、峡江县中心粮库仓储设施建设等项目纳入新一轮合作共建。深度融入新宜吉转型合作示范区建设。按照省批复的“十四五”示范区发展规划，认真研究落实新宜吉“南翼”支撑区建设工作，加快推进新干打造全国盐化产业基地和箱包皮具产业基地，峡江县打造全省大健康产业融合发展示范区。抓紧抓实新干县承办第五届新宜吉转型合作大会筹备工作，科学谋划推进一批合作共建项目，持续推动设施互通、产业共建、民生共享等合作事项落地生效。', '一是新干县调整产业结构，明确首位产业为盐化产业，箱包皮具、智能制造、电子信息和生物医药大健康为四大主导产业。在园区定位上，明确重点发展盐化工业城和河西科创城，原则上项目一律入驻以上两大园区，城南工业园、玻璃工业城、林产工业城不再新上、扩建项目，并逐步淘汰落后产能。新干县列入了省级两业融合发展试点区域。河西现代箱包产业园标准厂房10栋已建成2层，河西工业园装备重点集聚区已引进赣铃、瑞合等2家企业落户，已完成园区5G智慧平台建设。二是永丰县推动非金属新材料产业全产业链发展、生物医药大健康产业融合发展，加快培育电子信息、新能源等特色制造业。三是峡江县大力培育生物医药大健康产业和电子信息产业。生物医药大健康产业,聚焦现代中药、化学药、医药保健品、新型医疗器械、医疗服务五大领域，推动“种、医、游、养、购”融合发展，今年上半年新增中药材种植面积2600亩，电子信息产业以嵘天科技东南光电为龙头，引进了上下游配套企业，目前2个项目拟签约。', '推动遂川县、万安县、永新县、安福县打造“两山”转化示范区，形成县县联通、区域合作的县域发展格局。', '遂川县贯彻落实《湘赣边区域合作示范区建设总体方案》要求，加强与永新区域合作，推动长赣高铁（遂川段）、生态环境保护、红色旅游等品牌建设；积极打通“两山”转化通道，率先开展生态产品价值核算工作，制定了全县生态产品价值核算目录清单。被省生态环境厅、省文化和旅游厅授予“两山”省级实践创新基地牌子。万安县成立了“两山”转化工作专班，多次组织相关单位及专班成员赴浙江丽水、抚州资溪等地学习考察；起草了关于建立健全生态产品价值实现机制工作的实施方案，建立了重点任务清单，凝练总结了7个关于“两山”转化的成功案例，目前正在筹建两山银行，力争明年3月份挂牌成立。永新县在原有光伏、生物质能、垃圾发电的基础上，积极引进清洁能源项目，完成与华能井冈山电厂抽水蓄能和光伏发电框架协议签订工作，力争在清洁能源方面打造成有示范性的“两山”理论转化县。安福县出台了《关于进一步探索“两山”转化实践建立健全生态产品价值实现机制的工作方案》，以实施长征国家文化公园安福段建设为契机，开辟3条红色旅游精品线路，培育7个红色名村，打造彭坊“三线记忆”小镇。', '着力稳粮保供，遏制耕地“非农化”、防止耕地“非粮化”，深化农村乱占耕地建房专项整治，', '根据上级工作安排，对国家下发843个耕地卫片图斑完成840个图斑核实举证，并督促各县（市、区）按要求落实整改；', '一是持续贯彻落实市政府关于做好耕地抛荒整治的工作要求，不断巩固耕地抛荒整治成果。二是大力组织开展“大棚房”问题专项清理整治行动“回头看”，共发现“大棚房”问题8个，全部完成整改。2021年度无新增占用基本农田发展稻田环沟养殖及从事果业发展。三是全面做好耕地“非农化”疑似图斑核查工作，加大政策宣传，禁止占用永久基本农田从事林果业以及挖塘养鱼、非法取土等破坏耕作层的行为。持续大力开展', '一是完善了农村乱占耕地建房问题工作台账，整理农村乱占耕地建房问题30272宗，其中住宅类房屋27099宗。二是压实了农村乱占耕地建房问题整改责任，向各县（市、区）农业农村局下发了农村乱占耕地建房整改工作的通知，重点对2020年第四季度卫片执法发现的92起瞒报漏报或新增乱占耕地建房问题进行了跟踪，已按要求完成整改。三是开展了农村乱占耕地建房问题整改督导，先后至吉州区等10个县（市、区）开展了调研督导，对部分疑似卫片图斑和问题住宅进行了现场核查，对县（市、区）农业农村局组织实施整改工作方法、工作举措、建立工作台账和长效工作机制、日常巡查等方面进行了指导。', '健全耕地抛荒整治长效机制，新开工高标准农田61.9万亩，确保全市粮食播面稳定在960万亩、总产稳定在73.4亿斤以上，巩固吉安粮食主产区地位。', '一是健全耕地抛荒整治长效机制，持续做好2021年粮食生产工作，完善耕地抛荒整治长效治理机制，持续推进耕地抛荒整治，并派出13个指导组指导各县（市、区）开展耕地抛荒整治工作。二是大力推进高标准农田建设，全市2021年度61.9万亩高标准农田于11月初如期开工建设，截止12月15日，全市已建设完成总工程量的60.8%，提前完成省下达的12月底建设完成总工程量60%的建设任务。三是持续稳定粮食生产。根据农情系统数据显示，全市早稻播种面积396万亩，全年粮食播种面积共计960.21万亩，总产量74.9亿斤，超额完成省厅下达我市粮食生产任务。', '保障肉蛋奶、果蔬鱼等农副产品供应，新建7个生猪生态循环养殖小区，新增设施蔬菜5.6万亩、“大品种”蔬菜1.95万亩。', '一是重要农产品供应能力稳固，预计全年生猪存栏262万头、出栏460万头、能繁母猪存栏29万头，超额完成省里下达的生猪生产目标任务。全市出栏（笼）肉牛46万头、羊9.6万头、家禽1.2亿羽，肉类总产65.3万吨、禽蛋总量9万吨。全市蔬菜播种面积162万亩，产量268万吨，全市水果面积97.26万亩，总产量77.86万吨，全市水产养殖面积58.3万亩，预计总产量23.3万吨，其中特种水产品产量7.78万吨。二是生猪生态循环养殖小区示范引领效应持续增强，全年新增7个养殖小区，目前全市建成运营生猪生态循环养殖小区45个，养殖小区内存栏生猪96万头、能繁母猪20万头，分别占全市生猪存栏量、能繁母猪存栏量的45%和75%。生猪生态循环养殖小区模式已成为“中国养猪业在新发展阶段的方向和主流”。三是持续推进设施蔬菜、大品种蔬菜建设，新增设施蔬菜面积5.6万亩，已完成全年新增任务，总面积超过16万亩；新增大品种蔬菜面积2.35万亩，占全年任务的120%。', '着力提质增效，突出品种培优、品质提升、品牌打造，加强育种基地建设，推进多胚稻、竹稻等品种扩产扩面。', '一是持续推进品种培育，进行了井冈软粘品种香味改良并完成了8个稳定材料交接，并安排了早、晚稻种植试验，为“井冈山”牌稻米区域公用品牌建设筛选优新品种；二是强化育种基地建设，落实井冈软粘良种繁育基地4000亩，其中峡江1000亩，吉水3000亩；三是加快助力品牌打造，通过良种繁育基地建设和试验改良，持续为“井冈山”牌稻米提供优质新品种，共收获良种150万公斤以上，充分保障了“井冈山”品牌订单生产用种。', '一是推动实施意见落地。印发了《关于推进“井冈山”农产品区域公用品牌高质量发展的实施意见（试行）》，成立了由市政府主要负责同志任组长，市委、市政府分管负责同志任副组长，相关市直单位主要负责人为成员的“井冈山”农产品区域公用品牌建设领导小组；二是强化品牌宣传推广，在北京新发地设立“吉安农产品旗舰店”，积极对接粤港澳大湾区和湘赣边区活动，建设“井冈山大米粒粒源初心”广告牌和LED滚动宣传广告，推进井冈山大米品牌高铁冠名集中宣传推广活动。借助红色旅游博览会平台，将井冈蜜柚、井冈山大米、狗牯脑茶、泰和乌鸡等区域品牌农产品在博览会上展出，扩大品牌影响力。组织有关农业经营主体参加2021年第三届江西“生态鄱阳湖·绿色农产品”（南昌）博览会、第十九届中国国际农产品交易会（广州）等。三是积极开展品牌认证，泰和乌鸡、狗牯脑茶等6个农产品品牌入选首批“赣鄱正品”认证品牌名单，井之绿、半边天等9个农产品品牌入选第二批“赣鄱正品”认证品牌名单。泰和乌鸡、狗牯脑茶入选2021年江西农产品“二十大区域公用品牌”名单，吉田大米、绿海食用油等10个企业产品品牌入选2021年江西农产品“企业产品品牌百强榜”名单。井冈蜜柚等18个农产品入选湘赣两地共同打造的“湘赣红”区域产品品牌。四是积极推动“井冈山大米”商标注册，目前，井冈山大米”商标已通过国家知识产权局初步审定，其商标注册公示已于12月6日结束，下一步即可颁发商标注册证。五是大力推动井冈蜜柚出口实现新突破，2021年吉安庆丰农业有限公司生产的井冈蜜柚首次自营出口新加坡16.3吨，江西联正现代农业科技有限公司和江西硕丰果业开发有限公司与广东中荔集团合作，果品首次成功出口加拿大40吨。', '着力完善农业设施，推进白云山、老营盘等大中型灌区续建配套与现代化改造，加强病险水库除险加固。', '白云山大型灌区已完成年度投资3900万元；泰和老营盘灌区完成年度投资2925万元；遂川南澳陂灌区完成年度投资2050万元；新干窑里灌区完成年度投资2450万元。大型水库社上水库、中型水库谷口水库已完工，天马山水库已完成投资99%，中型水库遂川县安村水库除险加固工程已开工。集中开展小型水库除险加固攻坚行动，未竣工验收水库69座已完成整改69座，防汛能力提升待实施水库7座基本完工；遗留问题水库117座全部完成整改。', '制定下发了《贯彻落实&lt;江西省实施数字乡村发展战略的意见&gt;责任分工方案》。按照省委网信办要求，组织并指导我市各县（市、区）申报江西省数字乡村试点（市、区）。12月1日，吉州区经过自主申报、市级推荐、省级评审等环节成功入选。', '印发了《2021年吉安市城乡供水一体化建设行动方案》，对今年城乡供水一体化的主要目标、重点任务、保障措施作出部署。在全省率先启动城乡供水一体化试点工程建设，启动26处规模化水厂（城市含管网延伸工程）、33处单村（联村）水站试点建设，到位城乡供水一体化建设资金11.97亿元，完成投资4.78亿元。', '一是推动工作方案下发实施，印发了《关于做强做优中心镇加快推进乡村振兴的实施方案（试行）》，以中心镇的发展壮大引领乡村全面振兴。二是推动各地中心镇项目开工建设，全市56个中心镇在产业发展、商贸服务、基础设施、公共服务、生态环境、镇区管理等方面多向发力，取得了一定成效。共规划镇区面积240平方公里，新增路网38公里，同步发展客运站点、物流货运，乡镇快递末端网点，公交客运网络实现村村通，镇区供电、供水、供气服务质量有较大改善，启动商贸综合体建设24个、建成运营4个，有力带动周边农村生产生活。', '围绕深入学习宣传习近平法治思想、“美好生活 民法典相伴”等主题，积极开展疫情防控、扫黑除恶、防范非法集资等法治宣传3900余场次，发放宣传手册3万余份。目前，全市共培养“法律明白人”56.09万名，开展法治实践29.63万余次，引导法律服务3.4万件。', '一是严格落实《关于加强农村祠堂建设管理工作的通知》，按照乡村公共设施建设审批流程，由市级人民政府审批，全市共办理农转用祠堂15宗。加大动态巡查力度，对发现的违法违规建祠堂行为，以督办函形式督促各县（市、区）依法整改，青原区整改了一宗卫片违法用地，目前正在用地审批。二是排查现有祠堂场所安全隐患和消防隐患。已完成全市2513个行政村的祠堂安全隐患全面排查工作，对经鉴定存在隐患的祠堂进行重点督办整改。三是加强农村思想道德建设，在全市各行政村每季度发布一期道德红黑榜。目前，全市2513个行政村设立道德“红黑榜”2077个，占比82.6%，累计发布红黑榜6700余期。持续推进农村移风易俗，协调相关部门狠抓15个诚信缺失突出问题专项治理，坚持每季度发布一期诚信“红黑榜”，累计发布诚信“红黑榜”12期，其中红名单44个、黑名单46个。', '推进巩固拓展脱贫攻坚成果同乡村振兴有效衔接，立足脱贫摘帽新起点向增收致富更高目标迈进。', '。5月底，我市在全省设区市中率先完成市级乡村振兴局重组，6月上旬，县级乡村振兴局全部重组成立到位，所有扶贫工作站（室）转变为乡村振兴工作站（室），村级扶贫信息员转变为乡村振兴信息员，市级对县、乡两级近600余名信息员开展政策、系统操作视频培训。', '5月中旬，出台《关于实现巩固拓展脱贫攻坚成果同乡村振兴有效衔接的实施方案》，完善健全有效衔接长效机制。各市直行业部门立足自身职责，研究制定下发各行业衔接意见（方案），推进有效衔接。', '巩固脱贫稳增收，严格落实5年过渡期和“四个不摘”要求，完善“遇困即扶”机制，加强对低收入人口动态监测和帮扶，确保不发生规模性返贫。', '严格落实5年过渡期和“四个不摘”要求，做好政策衔接落实，保持了帮扶政策的总体稳定，在新政策出台前，全部执行老政策，避免政策空档。强化防止返贫监测帮扶。今年来，常态化开展数据比对共享，采取农户APP自主申报、干部走访摸排、部门比对筛查“三线”预警方式，确保防贫监测全覆盖。全市 “三类人群”累计达4406户、14198人（其中今年新增625户2314人），经差异化措施帮扶，有3235户、10158人已消除风险，消除比率达71.5%。巩固脱贫质量。5月份、8月份开展了全市巩固脱贫成果大排查和排查整改“回头看”，对排查出的住房安全、饮水安全、慢性病鉴定、教育补助等问题全面完成整改，脱贫成果持续巩固。实施“遇困即扶”智慧化管理。积极探索新机制、新模式，充分利用信息技术，推行“遇困即扶”市、县、乡、村四级一体化智慧管理，建立大数据防返贫监测帮扶平台，每月至少开展一次数据共享互通，实现监测预警更迅速、对象认定更精准、落实帮扶更及时、高效调度更全面。该项改革举措已纳入市委、市政府“30项民生实事”，实施方案已经制定出台，目前已建成平台， 12月份在吉安全域推广。 强化定点帮扶。下发《2021－2023年全市乡村振兴定点帮扶重点村工作方案》，明确驻村帮扶范围、单位安排、干部选派和工作要求，对脱贫村、十四五省定乡村振兴重点村、易地搬迁安置200人上的村或社区、党组织软弱涣散村和红色名村做到应派尽派，对实力较强的单位推行“1+2”对口帮扶，对部分人员少、力量偏弱的单位实行2个单位挂1个村。新一轮驻村帮扶共安排1266个单位，选派第一书记992人（省、市、县三级重点村）、驻村队员1845人，市县两级333名第一书记主动留任。', '产业带动促增收，实施农民合作社、家庭农场规范提升行动，大力发展农产品加工、乡村旅游和农村电商等乡村产业，让农民更多分享增值收益。', '一是推动农民合作社规范引领，督促指导吉安县和泰和县推进国家农民合作社质量提升整县试点，积极开展示范社认定和监测，全市现有农民合作社7623家，其中国家级示范社40家、省级示范社100家、市级示范社243家。二是持续开展家庭农场规范提升，新增录入家庭农场数达到11028家，较去年底新增352家。三是持续大力发展农产品加工，支持果宝特攻等10家加工企业申报省级农产品加工项目，争取扶持资金1882万元。获得省级农产品加工贴息补助资金500万元。四是大力发展乡村旅游。推荐认定全国休闲农业重点县1个、中国美丽休闲乡村1个、全国休闲乡村旅游星级企业2个。', '深化改革促增收，稳步推进农村宅基地、集体经营性建设用地入市、集体产权制度等改革，壮大农村集体经济，让农民进城安心、回村放心。', '一是稳步推进宅基地制度改革试点，永丰县22个乡镇（场）41个行政村329个自然村已基本完成基础信息调查摸底、资格权认定等基础工作。永丰县累计完成农村建房审批备案2931户，探索总结了“宅票置换、申请优先”、“多户联建、产权共享”等宅基地退出和管理模式，“集体托管推动”、“乡贤助力”、“合作社促进”、“城乡融合发展”等在闲置宅基地和住宅盘活利用等模式。二是持续深入开展村集体产权制度改革，农村集体产权制度基本完成，全市成立股份经济合作社644个、经济合作社1932个，已向农户发股权证112.03万本，发放率达98.2%，所有行政村集体经济经营性收入超过10万元。。三是加快推进农村综合产权交易市场建设，目前正在与土流网协作推进农村综合产权交易中心的运营管理模式，积极引导农村产权进场交易，目前市级已开展农村产权交易4宗，涉及交易金额119.82万元，有效释放了农村集体经济动能。', '坚决抓好中央和省环保督察反馈问题整改，持续推进精准治污、科学治污、依法治污。着力提升空气质量，推进细颗粒物和臭氧协同控制，加强工地扬尘、餐饮油烟、汽车尾气等专项治理，健全秸秆综合利用长效机制，确保空气质量稳定在二级标准。', '截至目前，2016年第一轮中央环保督察共反馈问题9个，已完成4个，5个达序时进度，交办信访件79件全部销号；2017年第一轮省环保督察共反馈53个问题，30个完成整改，22个达序时进度，30个已销号，共交办319件信访件，全部完成整改，已销号14件；2018年中央回头看共反馈问题10个，已完成2个（正在推进销号工作），8个达序时进度，共交办217件信访件，全部完成销号，2019年省环保督察“回头看”共反馈问题60个，已完成36个，达序时进度23个，已销号32个，共交办信访件128件，全部完成销号；2021年中央第二轮环保督察共交办吉安信访件387件，已办结307件，阶段性办结80件，销号54件。聚焦三个治污，着力提升空气质量，推进细颗粒物和臭氧协同控制，稳步推进VOCs组分站、臭氧激光雷达、中心城区乡镇空气自动站、大气颗粒物组分自动监测站等技术支撑项目建设，综合运用便携式检测设备、无人机、在线监控、平台数据抓取等智能科技手段，为分析污染物特征提供有效数据支撑；持续开展VOCs、移动污染源综合整治，完成12家重点VOCs企业整治效果评估、68家涉VOCs重点行业企业绩效分级、1289辆柴油货车尾气路查，联合开展市中心城区建筑工地扬尘污染治理专项巡查。以差异化管控措施推动行业治理水平整体提升；聚焦重点区域、重点时段、重点行业，分级落实错峰生产等臭氧应急管控措施。截至12月23日，全市环境空气质量均达到国家二级标准，市中心城区国控站点PM2.5浓度均值为27微克/立方米，空气质量优良天数比例为98.0%，较去年同期上升2.5个百分点，污染天数比去年减少9天。', '一是印发了《吉安市推动长江经济带发展2021年工作要点》，开展了县市区长江经济带“共抓大保护”专项行动成效考核。二是积极组织各县市区申报长江经济带中央预算内投资计划和参加《长江保护法》等专题学习培训。三是联合市生态局、市城管局、吉州区对长江带披露问题整改进展情况进行2021年年终调研评估现场检查。四是印发《关于举一反三做好国家长江办年中调研评估指出问题整改的通知》《关于加快推进国家长江经济带2020年生态警示片披露我市生态环境突出问题整改工作的督办函》督促相关单位做好问题整改验收销号工作。五是择优筛选4个长江带项目申报2022年国家长江经济带绿色发展方向中央预算内投资计划。', '5月17日召开了总河湖长会，印发了2021年工作要点、考核方案、市级河湖长巡河督导方案、清河行动方案、生态赣江流域建设行动计划等，强化调度推进，确保工作见效。根据巡河督导方案要求，组织12名市级河湖长扎实履职，带着问题陆续开展巡河督导，今年以来市县河湖长巡河巡湖600余次，现场处理问题100余件。常态化开展“清河行动”，对摸排出的233个问题已全部整改完成，整改完成率达100%。', '组织开展了全市工业园区环保基础设施建设专项行动，加大对峡江县河西产业园、永丰县循环经济产业园污水处理厂建设进展调度力度，指导督促峡江河西污水处理厂、永丰县循环经济产业园污水处理厂分别于4月、8月建成投运。截至目前，全市工业园区共有处理工业废水的处理厂20座，处理能力达30万吨/日。', '按照《吉安市水库水质保护提升实施方案》，各地按照方案要求开展了水库水质污染整治专项治理工作，并在持续推进中。目前，已完成对小型水库水质抽检，水库水质稳定提升。', '紧盯断面水质，综合运用风险预警、整改督办等方式督促降类断面县区开展专项整治,对月度不达标断面开展上溯5公里排污口再排查，新干县樟树巷里曹家断面排查发现4个入河排污口，其中问题排污口3个，均已完成整治。强化项目资金支撑，争取中央水污染防治资金近1.25亿元用于我市水污染防治工作，今年成功申报入库中央水污染物防治项目8个（批复投资约2.32亿元）。开展了集中式饮用水水源地自查和赣江吉安段5条主要支流排污口整治，截至目前，共排查179个水源地，发现问题16个，5个已完成整治，11个正有序开展整治；主要入河排污口排污口按照规范已经全部完成命名编码和标志牌设置。1-11月全市37个国控省控地表水监测断面36个断面水质类，一个断面III类， 13个赣江干流水质全部为Ⅱ类，28个县级以上城市集中式饮用水水源水质达标率100%，1-11月水环境质量排名全省第二。', '一是严格受污染耕地保护分类，全市共划定优先保护类耕地631.9万亩，安全利用类耕地10.09万亩，严格管控类耕地0.36万亩，形成的耕地土壤环境质量类别划分成果，经各级政府审定通过后，按照上报时间节点上报省农业农村厅、生态环境厅;二是指导各地落实好耕地安全利用及严格管控措施，全市采购土壤调理材料1423.27吨，叶面阻控剂16289.7升，其他（营养调控等）410.45吨；安全利用已实施90702亩、严格管控实施3675亩，全面完成了今年省厅下达的任务数；三是持续配合开展矿山整治排查，按照矿山大排查工作要求，共排查矿山企业360处，发现涉农问题55个，完成整治54个，对疑似污染耕地地块进行了采样检测，对于矿山周边严格管控类耕地，各地严格按照《土壤污染防治法》规定，采取调整种植结构、轮作休耕等风险管控措施，严禁种植可食用农产品。四是扎实推进农药化肥减量增效，全市共完成土壤采样1337个，采集植株样210个，分析项次达7181项次。完成田间肥效试验数68个，建立16个示范区，示范面积15.21万亩。开展农户施肥调查831户，测土配方施肥技术推广面积1178.68万亩，测土配方施肥技术覆盖率达94%，有机肥应用面积125.62万亩。全市农药使用量5313.10吨，比去年减少87.94吨，实现了农药零增长，全市绿色防控覆盖率达43.35%，统防统治覆盖率达45.3%。', '抓好白色污染治理，加强固体废物、医疗废弃物收集处置能力建设，实现城市原生生活垃圾“零填埋”。', '一是制定出台了塑料污染治理年度工作要点。将塑料污染治理列入生态文明宣传月重要内容，积极进行减塑、限塑宣传。积极争取项目资金支持，永丰县生活垃圾焚烧发电项目、永新县生活垃圾焚烧发电项目、安福县生活垃圾焚烧发电项目列入污染治理和节能减碳专项2021年度中央预算内投资支持项目，已获得中央资金5850万元。二是完成了市医废处置中心改扩建，医废处置能力由5吨/天提升至15吨/天，2021年1-12月23日收集医废2749.82，处置医废2749.82吨，医废收集已覆盖吉安市所有的主要医疗机构（人民医院、中医院、妇保院）、民营医院和乡镇卫生院；2022年6月底前完成村卫生室医废收集全覆盖。三是开展了申报全国“无废城市”创建工作，省生态环境厅同意支持我市开展“无废城市”建设并将有关情况向生态环境部报备，11月24日生态环境部固管中心赵康处长带队到我市调研无废城市创建工作；正在积极协调省生态环境厅对我市 “无废城市”建设方案编制、全过程技术支撑、典型示范模式创建等方面给予支持。四是全市生活垃圾焚烧发电“1+4”规划布局全面落地完成，目前5座生活垃圾焚烧发电厂已全部建成运行，其中市本级焚烧发电厂于2019年11月建成并投产，遂川县、永新县焚烧发电厂分别于今年5月、7月建成运行，安福县和永丰县焚烧发电厂于今年9月底前建成运行。这标志着我市生活垃圾处置从传统的填埋转变为焚烧发电，将真正实现垃圾处理无害化、资源化和减量化。', '实施生物多样性保护、湿地保护修复、水土保持等工程，巩固重点水域禁捕退捕成果，严厉打击破坏野生动物资源行为。', '一是在全市范围内推广等高线耙带式造林整地，最大限度保留原生植被，防止水土流失，维护生物多样性。二是推进湿地保护。全面推进中央财政湿地补助项目实施，投入资金500万元。庐陵赣江国家湿地公园已完成项目建设，开展了智慧湿地预警平台建设、鸟类生镜修复及入侵物种清理等；五斗江国家湿地公园已完成项目建设，开展了退化湿地修复、监控设备购置、管护队员聘用等；玉峡湖国家湿地公园已完成年度计划，开展了基础保护设施建设、监测监控设备购置、管护队伍聘用。三是加强野生动植物保护管理。持续抓好执法检查、野外巡护、疫源疫病监测、宣传教育等工作，先后开展“清风行动”等4次专项执法检查和8次公共宣传活动，查处野生动植物违法案件90起，处罚85人，罚金2.072万元；收容救助穿山甲、凤头鹰等各级保护动物47只，完成“千年鸟道”现场直播活动，累计观看人数达50余万。四是落实水域禁捕退捕。今年以来，全市林业部门出动行政执法人员9000多人次，在重点水域范围持续开展巡护巡查工作，着力打击非法捕捞行为。', '深化林长制，实施国土空间绿化、森林质量提升工程，加快国储林基地、绿色矿山建设，推进裸露山体修复，新增人工造林17万亩，完成封山育林15.5万亩、退化林修复35.5万亩、森林抚育92万亩，推进井冈山国家公园建设，年内实现省级森林城市县域全覆盖。', '一是深化林长制，全市召开县级以上总林长会议16次，签发市县两级总林长令42次，市、县两级林长巡林909人次，县级以上林长巡林协调解决森林资源保护发展问题共536个。同时，抓好林长制“一长两员”森林资源源头管理体系建设，全面推进林长制标准化、智慧林长信息平台、专职护林员服装配置三项建设。二是实施国土空间绿化、森林质量提升工程，持续推进重点区域森林“四化”建设、低产低效林改造、重点防护林工程和国家储备林基地建设等，加大珍贵树种和针阔混交造林力度，精准提升森林质量。全市完成人工造林面积27万亩，森林“四化”建设面积3.2万亩，国储林项目建设16.48万亩，退化林修复面积36.27万亩，封山育林面积19.18万亩，森林抚育92万亩，裸露山体修复面积6420亩。三是推进井冈山国家公园建设，成立了由市政府主要负责同志任组长的井冈山国家公园创建工作领导小组，明确由市林业局牵头组织实施。7月19日，国家林草局下发《关于设立井冈山国家公园的复函》（办函发〔2021〕49号），支持井冈山国家公园创建工作。目前，已报送《创建井冈山国家公园实施方案》和《创建井冈山国家公园工作技术方案》至省林业局，10月份国家林草局昆明规划设计院专家组来我市开展了有关工作。', '四是森林城市创建工作，永新县按照《永新县省级森林城市创建总体规划（2019-2030年）》要求，积极创建“省级森林城市”，广泛开展宣传活动，大力推进城市绿化建设，完成森林博物馆建设，实现省级森林城市县域全覆盖。同时，新干、峡江、遂川、永丰、泰和、井冈山等6个县（市）正在申报创建“国家森林城市”，其中新干县和峡江县已获得国家林草局批复。五是市自然资源局根据《关于加快绿色矿山建设促进绿色矿业发展的实施意见》（吉府发[2021]8号）要求，对全市矿业发展进行了总体布局，明确了绿色矿山建设目标。在全面完成了“十三五”期间省级考核任务的基础上（23家），今年全市启动绿色矿山建设矿山36家。', '制定碳达峰行动方案，严控高耗能、高排放项目，推动重点行业绿色化改造，发展绿色建筑、绿色金融、节能环保等产业。', '《关于完整准确全面贯彻新发展理念做好碳达峰碳中和工作的实施意见》《吉安市碳达峰实施方案》《吉安碳达峰碳中和“1+N”政策体系编制工作方案》等3个文件已经完成了三轮意见征求，即将提交市领导小组审议讨论。', '我市在全省率先出台《吉安市进一步强化节能“双控”遏制“两高”项目盲目发展工作方案》，成立了以常务副市长为组长的市节能“双控”工作领导小组，完成了13个县（市、区）完成了“十三五”节能“双控”目标责任考核。建立了市、县两级全社会能源消耗半年统计核算制度，并首次印发了《各县（市、区）2021年上半年能耗“双控”目标完成情况晴雨表》。', '印发了《“两高”项目全面排查清理整改专项行动方案》，先后开展了6次排查整改，排查出5000吨标准煤以上“两高”项目26个，建立了“两高”项目动态管理清单，明确了分类处置意见。', '：印发了《吉安市绿色建筑创建行动实施方案》，积极推动绿色建筑标识管理管理工作有序开展，联合江西省建筑设计研究总院集团有限公司编印《吉安市绿色建筑一星级设计阶段预评价技术要点（试行）》，指导相关单位开展绿色建筑一星级预评价工作。', '制定印发《全市传统产业优化升级行动方案》，安排1110万元支持化工、有色、建材、机械、食品、纺织、轻工等传统产业企业进行智能化改造、绿色化改造和淘汰落后设备。', '探索生态产品价值实现机制，推进排污权、碳排放权、用能权、用水权等市场化交易，抓好井冈山国家“两山”实践创新基地和国家生态综合补偿试点。', '印发了《关于打通“两山”转换通道建立健全生态产品价值实现机制的实施意见》，赴丽水调研生态产品价值实现，形成了考察调研报告并转发各地各部门参阅。增设生态产品价值实现推进工作组，作为省级GEP核算试点市，起草《吉安市生态产品（GEP)价值核算工作方案》，目前已完成数据收集和整理工作，启动了GEP核算工作招标工作。吉安县群兴实业有限公司成功申报林业碳汇交易项目，已挂牌中国碳汇交易平台待交易。启动水权交易改革工作，目前有意向开展的单位4家，已经明确了1家企业开展水权交易工作，即将举行签约仪式。井冈山市依托良好的生态优势，初步建立了生态产品价值核算评估应用机制，选取了1至2个乡镇启动生态系统生产总值(GEP)核算评估试点工作，达到一定成效后，在全山范围内铺开，力争全市GEP的GDP转化率达到40%，创新生态价值产业实现路径。', '印发了《吉安市绿色发展2021年工作要点》，持续开展绿色生活创建行动作为重要工作任务。组织开展了江西省生态文明宣传月（每年6月）和节能宣传周（8月23-29日）活动；组织各县（市、区）及市直有关单位开展生态文明、节能降碳宣传，积极倡导简约适度、绿色消费的绿色低碳生活方式；举办环保设施和城市污水垃圾处理设施向公众“线上线下”开放活动；举办六五世界环境日宣传活动，向广大群众宣传环保知识、环境理念、环保政策，鼓励引导市民从身边点滴做起，自觉践行简约适度、绿色低碳的生活方式。', '抓好高校毕业生、退役军人、农民工等重点群体就业工作，确保零就业家庭动态清零，城镇新增就业4万人、新增转移农村劳动力6.5万人。', '线上线下双向发力，先后开展“就业援助月”“迎新春送温暖稳岗留工暨就业帮扶”大型网络招聘会、“我为群众办实事”金秋双节送岗下乡进百村等专项招工行动，为用工单位和求职者提供精准对接服务。截至11月底，组织开展各类线上线下招聘会共610场，提供岗位数14.83万余个，前来咨询人数达到34.03万余人次，初步达成意向3.51万人次。全市城镇新增就业人数5.9万人，完成年任务的154.84%；新增转移农村劳动力7.1万人，完成年任务的113.13%；城镇登记失业率为2.36%；就业困难人员再就业人数5602人，完成年任务的207.48%；零就业家庭就业安置率100%。', </t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>125</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>王少玄在吉州区调研时强调提升首位度争当排头兵开辟高质量跨越式发展新境界</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2022-01-08</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-67523.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄在吉州区调研时强调：提升首位度 争当排头兵 开辟高质量跨越式发展新境界', '（记者郭欢）1月7日，市委书记王少玄在吉州区调研并主持召开座谈会，听取换届以来班子运行情况、工作开展情况汇报，以及对市委工作的建议。他强调，要深入学习贯彻党的十九届六中全会和省、市党代会精神，按照习近平总书记在元旦贺词中的要求踔厉奋发、笃行不怠，全力提升首位度，争当排头兵，开辟高质量跨越式发展新境界，以优异成绩迎接党的二十大胜利召开。', '吉安市阳光学校是一所未成年人专门学校。王少玄实地察看学校警务室、心理咨询室等，亲切看望教职工代表，并通过他们向全体教职工送上新年问候。他要求，要深刻认识做好未成年人保护和预防犯罪工作的重大意义，增强改革意识，积极探索师资、教育教学等资源整合办法，充分发挥政法机关与教育、群团组织、宣传等部门的作用，建立科学的未成年人罪错行为预防矫治体系；要加强学校管护，尊重教育规律，增强教育情怀，坚持有教无类、因材施教，通过感恩教育、劳动教育等引导学生树立正确的世界观、人生观、价值观。', '调研中，王少玄一行以党员身份参加了电子信息产业链党建联盟的党组织活动，对支部建在产业链上的新探索给予肯定，并为进一步做好产业链党建工作提出建议。他要求，要牢固树立“以链促党建，以党建强链”的意识，把握好产业链党建的必要性、可行性、实效性、特殊性，通过党建促进产业链延链补链强链，促进协同创新，帮助链上企业降成本、扩市场，增强产业链党建的生命力与活力。', '座谈会上，听取有关情况汇报后，王少玄对吉州区换届以来各项工作给予肯定，希望吉州区在“作示范、勇争先”进程当中打头阵、当先锋、作表率。他强调，', '——要高标定位，努力在高质量倍增发展上彰显首位担当。聚焦做大总量和提升质量双重任务，跳出吉安看吉州，学习标兵、借鉴经验，实施工业倍增升级，全力打造数字经济一号工程，同时发展全域旅游，努力在全省争先进位。', '——要坚定决心，努力在深化改革开放上彰显首位魄力。对标“以大改革引领大发展”目标要求，以更硬的举措改革攻坚，用改革的思维、改革的办法，打造“四最”营商环境，办好民生实事，推动工业发展；以更高的水平对外开放，聚焦数字经济、人才培养、“一老一小”等积极探索有效经验；以更优的环境安商稳商，积极落实帮扶政策，针对企业“量体裁衣”，推动“只跑一次”向“一次都不跑”转变。', '——要精心精细，努力在提升城市功能品质上彰显首位颜值。聚焦老旧小区改造、城市停车、灯光亮化等民生实事补短板；用好学习考察成果，汲取各地先进经验，进一步提升城市功能与品质；强化管理，增强城市“趣味”，打造宜居宜业精致精美人见人爱的城市。', '——要用心用情，努力在保障和改善民生上彰显首位标准。聚焦教育、社会治理、医疗、养老、托幼等重点领域，积极推进市域社会治理现代化试点；抓细抓小抓严疫情防控各项工作，管好路口、社区、输入等关键环节，确保全市人民过上欢乐祥和的春节。', '——要履职担当，努力在推进全面从严治党上彰显首位成效。做到绝对忠诚、敢于担当，既要干事又要干净，坚决克服“躺平”思想。同时，既要涵养感恩情怀，感恩组织的培养与群众的信任，也要涵养专业情怀，培养与角色岗位相适应、相匹配的能力、气质与担当，努力创造出一流业绩，推动吉州区各项工作在新的一年奋勇登攀。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>125</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>萍乡市党政代表团来吉学习考察陈敏刘烁率团罗文江肖玉兰廖宏刘兰芳漆海云陪同</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2021-12-14</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-67021.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['吉安市人民政府_萍乡市党政代表团来吉学习考察 陈敏刘烁率团 罗文江肖玉兰廖宏刘兰芳漆海云陪同', '\u200b （记者任洪广）在深入学习贯彻党的十九届六中全会精神以及省第十五次党代会精神之际，12月12日至13日，萍乡市党政代表团来到我市学习考察城市建设、产业发展、乡村振兴、红色培训等工作。', '萍乡市委书记陈敏，市委副书记、市长刘烁率团，鲍峰庭、吴运波、聂晓葵等萍乡市四套班子领导，市检察院检察长等参加考察。', '市委副书记、市长罗文江代表市委市政府对萍乡市党政代表团来吉考察交流表示热烈欢迎，并全程陪同考察，介绍我市经济社会发展等方面情况。市领导肖玉兰、廖宏、刘兰芳、漆海云、彭学凯、李克坚、傅正华以及井冈山管理局领导廖东生分别陪同考察。', '考察期间，党政代表团先后来到井冈山市、市中心城区、井冈山经开区和吉安县。在井冈山市，党政代表团考察了葛田乡古田研旅基地和茅坪镇神山村，了解基地打造以红色研学为核心的乡村旅游综合体，带动群众增收致富的实践；了解神山村牢记习近平总书记殷切嘱托，大力推进脱贫攻坚和乡村振兴的举措以及发生的巨变。来到茨坪井冈山革命博物馆，党政代表团参观和聆听了井冈山革命根据地创建历程，学习感悟井冈山精神。在井冈山革命烈士陵园，党政代表团向革命烈士敬献花篮，拜谒革命先烈，重温入党誓词。', '在市中心城区，党政代表团考察了吉安高铁新区建设情况，听取了“五指峰三中心”项目规划、建设、产业布局等情况介绍，对我市坚持大手笔规划、大空间布局、大尺度绿化、大气魄呈现给予点赞。党政代表团还来到白鹭洲书院，感受深厚的庐陵文化，了解我市加强对古书院人文景观和白鹭洲生态的保护利用情况。', '党政代表团来到井冈山经开区和吉安县，考察了南亚新材料科技、木林森实业、生益电子、立讯智造等企业，深入了解我市坚持工业强市战略不动摇，尤其是大力发展电子信息首位产业，着力招引培育龙头企业、聚力补链延链强链，组建电子信息产业联盟等先进做法和成功经验。党政代表团还考察了井冈山经开区金鸡湖创新小镇，听取项目定位、规划、建设、运营等情况介绍；考察了吉安县圣大农业高科技示范园，了解运营模式以及发挥示范引领，助力乡村振兴的做法与成效。', '一路看、一路思。我市经济社会发展特别是城市建设、产业发展、乡村振兴、红色培训等方面的经验和做法，让大家印象深刻、深受感触。他们表示，此次来吉学习考察收获满满，将学习借鉴吉安的好做法、好经验，深化交流与合作，携手推动两地高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>125</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>萍乡市党政代表团来吉学习考察陈敏刘烁率团罗文江肖玉兰廖宏刘兰芳陪同</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2021-12-14</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-67017.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['吉安市人民政府_萍乡市党政代表团来吉学习考察 陈敏刘烁率团 罗文江肖玉兰廖宏刘兰芳陪同', '（记者任洪广）在深入学习贯彻党的十九届六中全会精神以及省第十五次党代会精神之际，12月12日至13日，萍乡市党政代表团来到我市学习考察城市建设、产业发展、乡村振兴、红色培训等工作。', '萍乡市委书记陈敏，市委副书记、市长刘烁率团，鲍峰庭、吴运波、聂晓葵等萍乡市四套班子领导，市检察院检察长等参加考察。', '市委副书记、市长罗文江代表市委市政府对萍乡市党政代表团来吉考察交流表示热烈欢迎，并全程陪同考察，介绍我市经济社会发展等方面情况。市领导肖玉兰、廖宏、刘兰芳、漆海云、彭学凯、李克坚、傅正华以及井冈山管理局领导廖东生分别陪同考察。', '考察期间，党政代表团先后来到井冈山市、市中心城区、井冈山经开区和吉安县。在井冈山市，党政代表团考察了葛田乡古田研旅基地和茅坪镇神山村，了解基地打造以红色研学为核心的乡村旅游综合体，带动群众增收致富的实践；了解神山村牢记习近平总书记殷切嘱托，大力推进脱贫攻坚和乡村振兴的举措以及发生的巨变。来到茨坪井冈山革命博物馆，党政代表团参观和聆听了井冈山革命根据地创建历程，学习感悟井冈山精神。在井冈山革命烈士陵园，党政代表团向革命烈士敬献花篮，拜谒革命先烈，重温入党誓词。', '在市中心城区，党政代表团考察了吉安高铁新区建设情况，听取了“五指峰三中心”项目规划、建设、产业布局等情况介绍，对我市坚持大手笔规划、大空间布局、大尺度绿化、大气魄呈现给予点赞。党政代表团还来到白鹭洲书院，感受深厚的庐陵文化，了解我市加强对古书院人文景观和白鹭洲生态的保护利用情况。', '党政代表团来到井冈山经开区和吉安县，考察了南亚新材料科技、木林森实业、生益电子、立讯智造等企业，深入了解我市坚持工业强市战略不动摇，尤其是大力发展电子信息首位产业，着力招引培育龙头企业、聚力补链延链强链，组建电子信息产业联盟等先进做法和成功经验。党政代表团还考察了井冈山经开区金鸡湖创新小镇，听取项目定位、规划、建设、运营等情况介绍；考察了吉安县圣大农业高科技示范园，了解运营模式以及发挥示范引领，助力乡村振兴的做法与成效。', '一路看、一路思。我市经济社会发展特别是城市建设、产业发展、乡村振兴、红色培训等方面的经验和做法，让大家印象深刻、深受感触。他们表示，此次来吉学习考察收获满满，将学习借鉴吉安的好做法、好经验，深化交流与合作，携手推动两地高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>125</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>萍乡市党政代表团来吉学习考察陈敏刘烁率团罗文江肖玉兰廖宏刘兰芳彭学凯陪同</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2021-12-14</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-67022.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['吉安市人民政府_萍乡市党政代表团来吉学习考察 陈敏刘烁率团 罗文江肖玉兰廖宏刘兰芳彭学凯陪同', '\u200b （记者任洪广）在深入学习贯彻党的十九届六中全会精神以及省第十五次党代会精神之际，12月12日至13日，萍乡市党政代表团来到我市学习考察城市建设、产业发展、乡村振兴、红色培训等工作。', '萍乡市委书记陈敏，市委副书记、市长刘烁率团，鲍峰庭、吴运波、聂晓葵等萍乡市四套班子领导，市检察院检察长等参加考察。', '市委副书记、市长罗文江代表市委市政府对萍乡市党政代表团来吉考察交流表示热烈欢迎，并全程陪同考察，介绍我市经济社会发展等方面情况。市领导肖玉兰、廖宏、刘兰芳、漆海云、彭学凯、李克坚、傅正华以及井冈山管理局领导廖东生分别陪同考察。', '考察期间，党政代表团先后来到井冈山市、市中心城区、井冈山经开区和吉安县。在井冈山市，党政代表团考察了葛田乡古田研旅基地和茅坪镇神山村，了解基地打造以红色研学为核心的乡村旅游综合体，带动群众增收致富的实践；了解神山村牢记习近平总书记殷切嘱托，大力推进脱贫攻坚和乡村振兴的举措以及发生的巨变。来到茨坪井冈山革命博物馆，党政代表团参观和聆听了井冈山革命根据地创建历程，学习感悟井冈山精神。在井冈山革命烈士陵园，党政代表团向革命烈士敬献花篮，拜谒革命先烈，重温入党誓词。', '在市中心城区，党政代表团考察了吉安高铁新区建设情况，听取了“五指峰三中心”项目规划、建设、产业布局等情况介绍，对我市坚持大手笔规划、大空间布局、大尺度绿化、大气魄呈现给予点赞。党政代表团还来到白鹭洲书院，感受深厚的庐陵文化，了解我市加强对古书院人文景观和白鹭洲生态的保护利用情况。', '党政代表团来到井冈山经开区和吉安县，考察了南亚新材料科技、木林森实业、生益电子、立讯智造等企业，深入了解我市坚持工业强市战略不动摇，尤其是大力发展电子信息首位产业，着力招引培育龙头企业、聚力补链延链强链，组建电子信息产业联盟等先进做法和成功经验。党政代表团还考察了井冈山经开区金鸡湖创新小镇，听取项目定位、规划、建设、运营等情况介绍；考察了吉安县圣大农业高科技示范园，了解运营模式以及发挥示范引领，助力乡村振兴的做法与成效。', '一路看、一路思。我市经济社会发展特别是城市建设、产业发展、乡村振兴、红色培训等方面的经验和做法，让大家印象深刻、深受感触。他们表示，此次来吉学习考察收获满满，将学习借鉴吉安的好做法、好经验，深化交流与合作，携手推动两地高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>125</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>吉安市城市管理局关于年省环保督察交办信访件编号整改情况的公示</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2021-12-09</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10209852.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['\u200b 对照《关于进一步规范完整吉安市生态环境保护督察问题整改销号管理工作的通知》（吉市环督字〔2021〕18号）文件要求，现将我局承担的', '\u200b 对照《关于进一步规范完整吉安市生态环境保护督察问题整改销号管理工作的通知》（吉市环督字〔', 'D0907-01：来电人反映，井冈山经济技术开发区智慧城小区、德逸小区、鑫瑞城市花园小区、江南春晓小区、庐贤雅居小区、梨塘村、叶森然小学、吉安市外国语学校附近将新建一个垃圾焚烧发电厂，附近有森林公园、君山湖湿地公园、敬老院等，居民担心项目建成后会造成大气污染，影响居民及附近学生的正常生活及学习。当地居民8月中旬曾向相关部门反映情况，但井开区管委会及派出所对维权居民进行单独约谈，甚至人身威胁。居民希望能够重新规划该发电厂的选址。', 'D0916-01：来电人反映，井开区垃圾焚烧发电厂仍在建，政府并没有重新选址的意思，只是在做居民的群众的思想工作，群众对处理结果不满意，希望迁离居民区。', '1.2017年7月14日，项目选址通过了中国城市环境卫生协会及省煤炭设计院等知名专家组成的专家组评审，并于8月4日通过了市四届政府第十次市长办公会审议。', '2.2017年11月8日，市四届人大常委会第七次会议审议并表决通过了《关于加快建设吉安市生活垃圾焚烧发电厂的决议（草案）》。', '3.通过组织专家宣讲、进村入户发放科普手册、组织干群代表外出学习考察、制作宣传片等方式，进一步做好了项目宣传解释工作，为项目建设赢得了群众信任和支持。', '如有异议，请在公示期内向吉安市环境保护督察问题整改办以实名、书面等形式提出意见（电话']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>125</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>萍乡市党政代表团来吉学习考察陈敏刘烁率团罗文江肖玉兰廖宏刘兰芳傅正华陪同</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2021-12-14</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-67026.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['吉安市人民政府_萍乡市党政代表团来吉学习考察 陈敏刘烁率团 罗文江肖玉兰廖宏刘兰芳傅正华陪同', '\u200b （记者任洪广）在深入学习贯彻党的十九届六中全会精神以及省第十五次党代会精神之际，12月12日至13日，萍乡市党政代表团来到我市学习考察城市建设、产业发展、乡村振兴、红色培训等工作。', '萍乡市委书记陈敏，市委副书记、市长刘烁率团，鲍峰庭、吴运波、聂晓葵等萍乡市四套班子领导，市检察院检察长等参加考察。', '市委副书记、市长罗文江代表市委市政府对萍乡市党政代表团来吉考察交流表示热烈欢迎，并全程陪同考察，介绍我市经济社会发展等方面情况。市领导肖玉兰、廖宏、刘兰芳、漆海云、彭学凯、李克坚、傅正华以及井冈山管理局领导廖东生分别陪同考察。', '考察期间，党政代表团先后来到井冈山市、市中心城区、井冈山经开区和吉安县。在井冈山市，党政代表团考察了葛田乡古田研旅基地和茅坪镇神山村，了解基地打造以红色研学为核心的乡村旅游综合体，带动群众增收致富的实践；了解神山村牢记习近平总书记殷切嘱托，大力推进脱贫攻坚和乡村振兴的举措以及发生的巨变。来到茨坪井冈山革命博物馆，党政代表团参观和聆听了井冈山革命根据地创建历程，学习感悟井冈山精神。在井冈山革命烈士陵园，党政代表团向革命烈士敬献花篮，拜谒革命先烈，重温入党誓词。', '在市中心城区，党政代表团考察了吉安高铁新区建设情况，听取了“五指峰三中心”项目规划、建设、产业布局等情况介绍，对我市坚持大手笔规划、大空间布局、大尺度绿化、大气魄呈现给予点赞。党政代表团还来到白鹭洲书院，感受深厚的庐陵文化，了解我市加强对古书院人文景观和白鹭洲生态的保护利用情况。', '党政代表团来到井冈山经开区和吉安县，考察了南亚新材料科技、木林森实业、生益电子、立讯智造等企业，深入了解我市坚持工业强市战略不动摇，尤其是大力发展电子信息首位产业，着力招引培育龙头企业、聚力补链延链强链，组建电子信息产业联盟等先进做法和成功经验。党政代表团还考察了井冈山经开区金鸡湖创新小镇，听取项目定位、规划、建设、运营等情况介绍；考察了吉安县圣大农业高科技示范园，了解运营模式以及发挥示范引领，助力乡村振兴的做法与成效。', '一路看、一路思。我市经济社会发展特别是城市建设、产业发展、乡村振兴、红色培训等方面的经验和做法，让大家印象深刻、深受感触。他们表示，此次来吉学习考察收获满满，将学习借鉴吉安的好做法、好经验，深化交流与合作，携手推动两地高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>125</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>王少玄在主持召开市委常委会扩大会议时强调深入贯彻落实中央经济工作会议和省委常委会扩大会议精神推动吉安高质量跨越式发展罗文江传达中央及省委会议精神肖玉兰等出席</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2021-12-13</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-67006.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄在主持召开市委常委会（扩大）会议时强调：深入贯彻落实中央经济工作会议和省委常委会（扩大）会议精神推动吉安高质量跨越式发展 罗文江传达中央及省委会议精神 肖玉兰等出席', '王少玄在主持召开市委常委会（扩大）会议时强调：深入贯彻落实中央经济工作会议和省委常委会（扩大）会议精神推动吉安高质量跨越式发展 罗文江传达中央及省委会议精神 肖玉兰等出席', '（记者郭欢）12月12日，市委常委会（扩大）会议召开。会议传达学习中央经济工作会议精神和省委常委会（扩大）会议精神，学习省委书记易炼红《关于抓工作落实的调研与思考》，研究我市贯彻落实意见。市委书记王少玄主持会议并讲话。', '市委副书记、市长罗文江传达中央精神和省委精神，市委副书记肖玉兰等出席会议。市人大常委会、市政府、市政协领导班子成员，市法院、市检察院主要负责同志列席会议。', '王少玄指出，习近平总书记在中央经济工作会议的重要讲话，全面分析了国内经济形势和国际经济环境，明确提出了明年经济工作的总体要求和政策取向，深刻阐释了一系列重大理论和实践问题，系统回答了当前经济形势“怎么看”、下一步经济工作“怎么干”，具有很强的前瞻性、系统性和指导性，是做好明年经济工作的根本遵循。省委召开常委会（扩大）会议，第一时间传达学习，并就提出“六个深刻领会、准确把握”的具体要求，要认真学习，一体贯彻落实。', '就贯彻落实中央经济工作会议精神和省委常委会（扩大）会议精神，王少玄强调，要盘点梳理，确保今年圆满收官。抓住今年最后不到20天的收官时间，加大经济指标调度力度，将各项经济指标放在全省范围里面来考评、定位、把关、看待。同时，加大推进重大项目“百日攻坚”行动，强化企业帮扶，对标重点补短板，紧盯问题强弱项，既要确保完成目标任务，也要力争实现进位。要研判形势，掌握经济工作主动权。从讲政治的高度充分认识做好明年经济工作的重要性，深刻领会习近平总书记对明年经济形势和特殊背景的分析及提出重要指示要求，在抢抓机遇当中掌握主动，奋勇登攀，在应对挑战当中趋利避害，化危为机。要把准基调，合理确定明年各项经济指标。按照中央的要求，把“稳”字贯穿到明年全市经济工作的全过程上，遵循“四个必须”的规律性认识，抓紧确定明年经济发展预期目标，精准研判测算和谋划，结合实际，合理确定明年的指标增速，做到既体现“稳字当头、稳中求进”的原则要求，又充分体现“作示范、勇争先”的目标定位，既保持量的持续增长，又推进质的稳步提升。要聚焦关键，找准明年经济工作的着力点。对标习近平总书记对经济工作“五个重大问题”作出的系统强调，结合省、市党代会精神和省委书记易炼红在吉安的调研讲话要求，消化学习考察的成果，找准明年全市经济工作的抓手，廓清思路、创新举措。要聚焦产业升级，在平台建设项目招引，扶优扶强、延链补链、创新驱动等方面狠下功夫，努力破解电子信息产业“缺芯少板”、终端产品不多、品牌不多、利润不高等问题；加强数字经济发展研究，推动数字经济发展壮大；聚焦办好明年全省旅发大会，在景区建设丰富业态，市场运作上谋求突破。聚焦优化区域布局。围绕打造赣江中游生态经济带，抓紧制定经济带的建设总体规划、产业布局、重大项目政策措施推进机制，推动经济带建设取得突破。聚焦营商环境，围绕打造“吉事即办”品牌和营商环境最佳设区市目标，深化改革攻坚，推动营商环境系统性重塑，整体性重构，不断激发市场主体活力，畅通国民经济循环。聚焦碳达峰碳中和，打通“两山”转化路径。聚焦推动共同富裕，着力在乡村振兴、就业创业、养老服务等方面多提创新的办法。聚焦防范化解风险，强化金融房地产平台公司等领域的风险防范，完善具体措施。', '王少玄强调，各级领导干部，尤其是常委同志，要坚决做到“两个维护”、锤炼“政治三力”，牢固树立正确政绩观，强化系统思维，加强科学谋划，带头调查研究。全市各级领导干部要加强经济、科技、历史、文化、生态等各方面知识的学习，提高经济工作的专业化能力。', '对近期工作，王少玄强调，要科学精准扎实做好常态化疫情防控，坚持“外防输入、内防反弹”，坚决防止疫情反弹；要抓好今冬明春的农业生产，提前做好春耕备耕的工作；要保障困难群众基本生活和农民工工资发放，确保人民群众过好“两节”；要严格落实安全生产责任，从严从实抓好各类风险防控。', '王少玄指出，《关于抓工作落实的调研与思考》充分彰显了新一届省委勇担当、重实干的鲜明导向，充分彰显了省委书记易炼红一以贯之的务实作风，要认真学习领会，指导实际工作，进一步营造“愿抓落实、敢抓落实、会抓落实”的浓厚氛围。', '王少玄强调，要铸牢忠诚抓落实，自觉站在“两个维护”的政治高度，以对党绝对忠诚的政治品质，坚定坚决、不折不扣抓好中央省委决策部署在吉安的贯彻落实。要锤炼本领抓落实，立足岗位，坚持干什么学什么、缺什么补什么，在真刀真枪的实干当中增强抓落实的本领，真正做到善于谋划、强于推动、精于落实。要改进作风抓落实，把转变作风作为狠抓落实的关键保障，针对调研报告中指出的“六个方面的问题”，举一反三，向干部作风“十型”问题说不，奋力“拼”、尽力“抢”、全力做“实”。要完善机制抓落实，建立横向到边、纵向到底的责任制，强化分工协作，全面推行高位化调度、集成化作战、扁平化协调、一体化办理，实现无缝对接运转协调。要构建闭环机制，形成部署、安排、检查、落实的完整闭环体系，改革考评体系，以实干论英雄、以实绩定优劣，以考核“指挥棒”推动吉安各项工作成效明显提升。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>125</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>借力大湾区振兴红土地赣深高铁助力吉安高质量发展之工业篇</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2021-12-13</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-67013.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['吉安市人民政府_借力“大湾区” 振兴“红土地”—— 赣深高铁助力吉安高质量发展之工业篇', '\u200b （记者罗仁瑾）在井冈山经开区，深圳大桥、深圳大道、南山大道、小南山公园……这些富有深圳特色的元素和地标，正在讲述着“老区”携手“特区”的生动故事。', '在井冈山经开区，深圳大桥、深圳大道、南山大道、小南山公园……这些富有深圳特色的元素和地标，正在讲述着“老区”携手“特区”的生动故事。', '故事缘起2007年。江西省人民政府与深圳市人民政府共同签署了《关于加强赣深经济社会领域合作与发展的框架协议》，双方决定，共同推进在吉安建设深圳产业园，以加强两地在工业园区产业聚集、人才、项目、管理、信息等方面的合作与交流。', '2013年，吉安（深圳）产业园南山示范园项目正式动工建设。经历9年苦心经营，曾经的荒地高楼耸立，一个集生活、休闲、创业、工业为一体的现代化产业园区拔地而起。启航动力、奥普智能、中创光电、螃蟹王国等一大批企业入驻园区，点燃了创新创业的希望之火。', '希望的火种一经点燃，生生不息。对接粤港澳大湾区，吉安积极融入，学习先进发展经验，引进先进发展理念，全面承接产业转型，助推吉安高质量跨越式发展。据不完全统计，我市规上企业1700余家，其中1000余家来自粤港澳大湾区，占比高达60%。', '老区要振兴，交通当先行。赣深高铁开通，吉安至深圳从原来的八九个小时车程缩短至两三个小时，为吉安这片红土地深度融入粤港澳大湾区装上了“加速器”。一条高铁，将见证吉安老区与粤港澳大湾区的加速联动。', '木林森实业有限公司上游支架、胶水、载带、包材和下游应用MiniLED显示模组共10余条生产线已投产，与京东方合作的Mini背光正在试制，项目全部达产后，将成为LED领域的“产业之树”。', '这家来自广东中山的LED产业链龙头企业，成为粤港澳大湾区企业与我市电子信息产业合作的典范。', '电子信息产业是吉安首位产业。目前，全市集聚电子信息企业近千家，营业收入连续7年以百亿量级增加，2020年达到1706.6亿元，总量位居全省第一。', '大湾区，中国大陆南端面向蔚蓝海洋的窗口。拥抱大湾区，加快江西对接珠三角、承接珠三角地区产业转移，吉安电子信息产业高速发展，一家家来自大湾区的企业茁壮成长——', '江西红板，主要产品高密度互联电路板2020年产量100万平方米，占全国行业市场份额4.5%，正在筹备上市阶段。', '立讯智造集研发、智造、销售为一体，公司生产的蓝牙耳机品牌2020年市场占有率达31%，位列全球第一。', '吉安生益电子是生益电子股份有限公司全新打造的5G通信、服务器和汽车电子等产品的高端印制电路板生产基地，产品远销北美、欧洲、亚太等国家及地区。', '向上延链、向下补链、全面强链，吉安电子信息产业从一根小小数据线发展成为集1000多个产品的“点线面体网”全链条产业。', '抢抓赣深高铁开通机遇，抓牢产业这一经济发展的核心。吉安坚定“1+4+n”产业发展方向，奋力推进工业高质量倍增升级，实现“十四五”开局蹄疾步稳、态势良好。1—9月，全市规模工业增加值同比增长14.7%、列全省第4位，两年平均增长9%、列全省第2位，预计全年同比增长12.5%，有望连续第十年保持全省前列。', '“赣深高铁开通，将加速企业更好更快地融入粤港澳大湾区，我相信赣深两地经济社会发展与人文交流合作会迈向新台阶，园区企业发展也会提质增效。”吉安（深圳）产业园南山示范园负责人丁立表示。', '井冈山经开区积极融入和对接粤港澳大湾区建设，加速融入“双循环”新发展格局，全方位构建对外开放平台。先后从大湾区引进了3个50亿元的投资项目，助力开发区高质量跨越式发展。', '开放型经济工作进入全省第一方阵。我市先后获评2016年度全省开放型经济综合先进设区市，以及2017—2019年度全省开放型经济综合先进设区市、外贸出口先进设区市。', '招商引资稳中提质。实施招大引强“三百工程”，市县主要领导外出招商110批次，走访500强和行业龙头企业314家，世界500强星巴克、中电科集团签约落户，新签约50亿元以上项目6个。', '开放平台取得新突破。充分发挥井冈山综合保税区这块“金字招牌”作用，深入推进“三请三回”“三企入吉”，打造了“三请三回”恳谈会、粤港澳大湾区经贸合作活动等重大招商活动平台。创新搭建“投资吉安”云招商平台，线上招商如火如荼。', '赣深铁路的开通，将极大地促进两地的交流合作。这既是机遇，也是挑战，更是考验吉安营商环境好不好的“试金石”。', '井冈山经开区行政审批服务中心专门前往大湾区学习考察，汲取广州等地的先进经验，实现了帮办审批一条龙。“只要企业达到了优惠政策兑现的时间和条件，我们一对一服务专员就会主动联系企业，第一时间给予政策奖励。系统上线一个多月，已经完成了8家企业的惠企政策审批受理。”该中心主任刘玲荣介绍。', '对标粤港澳大湾区，吉安全力打造“吉事即办”政务服务品牌，营造“四最”营商环境，努力建设政务服务满意度一等省份“最佳设区市”，高质量打造投资创业热土。', '从革命老区、农业大市到投资热土、创业福地，在吉安奋力建设“三区”，全面开启社会主义现代化建设新征程时，赣深高铁的开通，无疑更坚定了吉安跨越赶超、奋勇争先的信心和决心。未来，吉安更可期！']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>125</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>王少玄主持召开党政代表团学习考察小结座谈会时强调化紧迫感为责任感化压力为动力在推进吉安全面现代化新征程中实现新跨越罗文江出席并讲话王大胜出席</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66490.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 王大胜出席', '王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 王大胜出席', '\u200b （记者郭欢）11月21日，我市党政代表团结束在南昌的学习考察行程后，市委书记王少玄紧接着在南昌主持召开小结座谈会。他强调，要深入学习贯彻落实党的十九届六中全会精神和即将召开的省第十五次党代会精神，对标发展前景好、速度快、质量优以及谋划水平高的先进地区，化紧迫感为责任感、化压力为动力，立下愚公志、鼓起精气神，在推进吉安全面现代化新征程中迈出新步伐、见到新气象、实现新跨越。', '市委副书记、市长罗文江出席会议并讲话。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋出席会议。', '王少玄指出，继我市党政代表团赴赣州市学习考察之后，又赴省会南昌市学先进、取真经。兄弟地市推动高质量发展的经验与成效，既让大家开阔了眼界、认清了差距，也给予我们启示，鼓舞了干劲，要不断汲取兄弟地市的好经验、好做法，结合吉安实际奋力追赶，努力创造新时代“第一等的工作”。', '王少玄强调，要增强加快高质量发展之紧迫感。既要学习南昌、赣州等地在推进高质量发展中的站位高远、格局开阔、思路清晰，更要看清我们与之县域经济、产业能级、项目建设等方面的差距，增强坐不住的紧迫感、慢不得的危机感、等不起的责任感，奋起直追、拼搏进取，把发展的差距转化为赶超的动力。要加快产业，尤其是工业转型升级之步伐，学习借鉴南昌、赣州等地以平台建设为引领，实施创新驱动，引进人才、推进项目的成功实践，锤炼前瞻性眼光，完善科学决策机制，锚定聚焦主导产业的决心，提升干部专业化水平，优化考核体系、有效防范风险，持续不断推动大企业、大产业的引进和发展。要强化“平台与人才决定企业层次和品质”的意识，大力实施研发投入和创新平台攻坚行动，优化人才环境，通过平台集聚人才、招引项目、做大产业，推动产业链供应链创新链价值链相互融合，实现产品向终端转型、产业向高端升级。同时，加快新兴产业发展步伐，大力实施数字经济“一号工程”，探索5G、区块链等新技术应用，从根本上改变“一企独大”“一业独大”。要提升产城融合、文旅融合之水平，增强市中心城区的首位担当，以“文化为魂、商业为体”，将高标准打造历史文化街区与提升城市功能品质相结合，拓宽投融资渠道。要树立敢想、敢闯、敢拼之作风，发挥领导干部“头雁效应”，增强奋进之姿、奋斗之志、奋发之为，为实现建设“三区”目标作出新的更大贡献。', '罗文江围绕南昌、赣州两地学习考察所见、所思、所想谈体会、提要求。他指出，产业发展日新月异，要学习。要大力招大引强，提高干部专业化水平，培育专业招商队伍，加快项目落地；各地发展定位不同，要清醒。围绕产业链抓项目，做大做强主导产业，推动“老树发新枝”。同时，立足产业发展趋势，积极培育新兴产业；优化产业发展环境，要搭台。不断优化营商环境，完善平台建设，实施创新驱动；区域竞争日趋激烈，要努力。一方面狠抓项目，树牢“项目为王”理念，形成一批项目在谈、一批项目签约、一批项目开工、一批项目在建、一批项目建成投产、一批项目达产达标的滚动发展局面。另一方面，要依托抓手，创新思路抓项目，完善产业引导基金，建立科学决策机制，有效撬动社会资本，支持项目建设。要强化作风建设，对照干部作风“十型”问题，扫除作风之弊，不断增强抓工作、抓项目的劲头，把学习考察所思所得转化到推进实际工作的成效，促进吉安发展在“十四五”取得新的更好成绩。', '座谈会上，漆海云、李克坚以及新干县、泰和县、吉州区、市住建局、市商务局主要负责同志结合自身岗位，谈了学习考察体会，并就下一步工作中如何对标先进、加快发展分别作了交流发言。大家一致表示，两次学习考察活动，不仅收获了兄弟地市的先进经验，也加深了自身对加快发展、奋力追赶的使命感和紧迫感。在接下来工作中，要深入学习贯彻党的十九届六中全会精神和即将召开的省第十五次党代会精神，按照市第五次党代会擘画的宏伟蓝图，进一步开阔视野格局、创新发展思路，增强担当实干的务实作风，把学习考察中获得的先进经验转化为推动工作的方法，狠抓落实，为实现吉安经济社会高质量跨越式发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>125</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>王少玄主持召开党政代表团学习考察小结座谈会时强调化紧迫感为责任感化压力为动力在推进吉安全面现代化新征程中实现新跨越罗文江出席并讲话漆海云出席</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66491.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 漆海云出席', '王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 漆海云出席', '\u200b （记者郭欢）11月21日，我市党政代表团结束在南昌的学习考察行程后，市委书记王少玄紧接着在南昌主持召开小结座谈会。他强调，要深入学习贯彻落实党的十九届六中全会精神和即将召开的省第十五次党代会精神，对标发展前景好、速度快、质量优以及谋划水平高的先进地区，化紧迫感为责任感、化压力为动力，立下愚公志、鼓起精气神，在推进吉安全面现代化新征程中迈出新步伐、见到新气象、实现新跨越。', '市委副书记、市长罗文江出席会议并讲话。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋出席会议。', '王少玄指出，继我市党政代表团赴赣州市学习考察之后，又赴省会南昌市学先进、取真经。兄弟地市推动高质量发展的经验与成效，既让大家开阔了眼界、认清了差距，也给予我们启示，鼓舞了干劲，要不断汲取兄弟地市的好经验、好做法，结合吉安实际奋力追赶，努力创造新时代“第一等的工作”。', '王少玄强调，要增强加快高质量发展之紧迫感。既要学习南昌、赣州等地在推进高质量发展中的站位高远、格局开阔、思路清晰，更要看清我们与之县域经济、产业能级、项目建设等方面的差距，增强坐不住的紧迫感、慢不得的危机感、等不起的责任感，奋起直追、拼搏进取，把发展的差距转化为赶超的动力。要加快产业，尤其是工业转型升级之步伐，学习借鉴南昌、赣州等地以平台建设为引领，实施创新驱动，引进人才、推进项目的成功实践，锤炼前瞻性眼光，完善科学决策机制，锚定聚焦主导产业的决心，提升干部专业化水平，优化考核体系、有效防范风险，持续不断推动大企业、大产业的引进和发展。要强化“平台与人才决定企业层次和品质”的意识，大力实施研发投入和创新平台攻坚行动，优化人才环境，通过平台集聚人才、招引项目、做大产业，推动产业链供应链创新链价值链相互融合，实现产品向终端转型、产业向高端升级。同时，加快新兴产业发展步伐，大力实施数字经济“一号工程”，探索5G、区块链等新技术应用，从根本上改变“一企独大”“一业独大”。要提升产城融合、文旅融合之水平，增强市中心城区的首位担当，以“文化为魂、商业为体”，将高标准打造历史文化街区与提升城市功能品质相结合，拓宽投融资渠道。要树立敢想、敢闯、敢拼之作风，发挥领导干部“头雁效应”，增强奋进之姿、奋斗之志、奋发之为，为实现建设“三区”目标作出新的更大贡献。', '罗文江围绕南昌、赣州两地学习考察所见、所思、所想谈体会、提要求。他指出，产业发展日新月异，要学习。要大力招大引强，提高干部专业化水平，培育专业招商队伍，加快项目落地；各地发展定位不同，要清醒。围绕产业链抓项目，做大做强主导产业，推动“老树发新枝”。同时，立足产业发展趋势，积极培育新兴产业；优化产业发展环境，要搭台。不断优化营商环境，完善平台建设，实施创新驱动；区域竞争日趋激烈，要努力。一方面狠抓项目，树牢“项目为王”理念，形成一批项目在谈、一批项目签约、一批项目开工、一批项目在建、一批项目建成投产、一批项目达产达标的滚动发展局面。另一方面，要依托抓手，创新思路抓项目，完善产业引导基金，建立科学决策机制，有效撬动社会资本，支持项目建设。要强化作风建设，对照干部作风“十型”问题，扫除作风之弊，不断增强抓工作、抓项目的劲头，把学习考察所思所得转化到推进实际工作的成效，促进吉安发展在“十四五”取得新的更好成绩。', '座谈会上，漆海云、李克坚以及新干县、泰和县、吉州区、市住建局、市商务局主要负责同志结合自身岗位，谈了学习考察体会，并就下一步工作中如何对标先进、加快发展分别作了交流发言。大家一致表示，两次学习考察活动，不仅收获了兄弟地市的先进经验，也加深了自身对加快发展、奋力追赶的使命感和紧迫感。在接下来工作中，要深入学习贯彻党的十九届六中全会精神和即将召开的省第十五次党代会精神，按照市第五次党代会擘画的宏伟蓝图，进一步开阔视野格局、创新发展思路，增强担当实干的务实作风，把学习考察中获得的先进经验转化为推动工作的方法，狠抓落实，为实现吉安经济社会高质量跨越式发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>125</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>王少玄主持召开党政代表团学习考察小结座谈会时强调化紧迫感为责任感化压力为动力在推进吉安全面现代化新征程中实现新跨越罗文江出席并讲话刘志斌出席</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66496.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 刘志斌出席', '王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 刘志斌出席', '\u200b （记者郭欢）11月21日，我市党政代表团结束在南昌的学习考察行程后，市委书记王少玄紧接着在南昌主持召开小结座谈会。他强调，要深入学习贯彻落实党的十九届六中全会精神和即将召开的省第十五次党代会精神，对标发展前景好、速度快、质量优以及谋划水平高的先进地区，化紧迫感为责任感、化压力为动力，立下愚公志、鼓起精气神，在推进吉安全面现代化新征程中迈出新步伐、见到新气象、实现新跨越。', '市委副书记、市长罗文江出席会议并讲话。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋出席会议。', '王少玄指出，继我市党政代表团赴赣州市学习考察之后，又赴省会南昌市学先进、取真经。兄弟地市推动高质量发展的经验与成效，既让大家开阔了眼界、认清了差距，也给予我们启示，鼓舞了干劲，要不断汲取兄弟地市的好经验、好做法，结合吉安实际奋力追赶，努力创造新时代“第一等的工作”。', '王少玄强调，要增强加快高质量发展之紧迫感。既要学习南昌、赣州等地在推进高质量发展中的站位高远、格局开阔、思路清晰，更要看清我们与之县域经济、产业能级、项目建设等方面的差距，增强坐不住的紧迫感、慢不得的危机感、等不起的责任感，奋起直追、拼搏进取，把发展的差距转化为赶超的动力。要加快产业，尤其是工业转型升级之步伐，学习借鉴南昌、赣州等地以平台建设为引领，实施创新驱动，引进人才、推进项目的成功实践，锤炼前瞻性眼光，完善科学决策机制，锚定聚焦主导产业的决心，提升干部专业化水平，优化考核体系、有效防范风险，持续不断推动大企业、大产业的引进和发展。要强化“平台与人才决定企业层次和品质”的意识，大力实施研发投入和创新平台攻坚行动，优化人才环境，通过平台集聚人才、招引项目、做大产业，推动产业链供应链创新链价值链相互融合，实现产品向终端转型、产业向高端升级。同时，加快新兴产业发展步伐，大力实施数字经济“一号工程”，探索5G、区块链等新技术应用，从根本上改变“一企独大”“一业独大”。要提升产城融合、文旅融合之水平，增强市中心城区的首位担当，以“文化为魂、商业为体”，将高标准打造历史文化街区与提升城市功能品质相结合，拓宽投融资渠道。要树立敢想、敢闯、敢拼之作风，发挥领导干部“头雁效应”，增强奋进之姿、奋斗之志、奋发之为，为实现建设“三区”目标作出新的更大贡献。', '罗文江围绕南昌、赣州两地学习考察所见、所思、所想谈体会、提要求。他指出，产业发展日新月异，要学习。要大力招大引强，提高干部专业化水平，培育专业招商队伍，加快项目落地；各地发展定位不同，要清醒。围绕产业链抓项目，做大做强主导产业，推动“老树发新枝”。同时，立足产业发展趋势，积极培育新兴产业；优化产业发展环境，要搭台。不断优化营商环境，完善平台建设，实施创新驱动；区域竞争日趋激烈，要努力。一方面狠抓项目，树牢“项目为王”理念，形成一批项目在谈、一批项目签约、一批项目开工、一批项目在建、一批项目建成投产、一批项目达产达标的滚动发展局面。另一方面，要依托抓手，创新思路抓项目，完善产业引导基金，建立科学决策机制，有效撬动社会资本，支持项目建设。要强化作风建设，对照干部作风“十型”问题，扫除作风之弊，不断增强抓工作、抓项目的劲头，把学习考察所思所得转化到推进实际工作的成效，促进吉安发展在“十四五”取得新的更好成绩。', '座谈会上，漆海云、李克坚以及新干县、泰和县、吉州区、市住建局、市商务局主要负责同志结合自身岗位，谈了学习考察体会，并就下一步工作中如何对标先进、加快发展分别作了交流发言。大家一致表示，两次学习考察活动，不仅收获了兄弟地市的先进经验，也加深了自身对加快发展、奋力追赶的使命感和紧迫感。在接下来工作中，要深入学习贯彻党的十九届六中全会精神和即将召开的省第十五次党代会精神，按照市第五次党代会擘画的宏伟蓝图，进一步开阔视野格局、创新发展思路，增强担当实干的务实作风，把学习考察中获得的先进经验转化为推动工作的方法，狠抓落实，为实现吉安经济社会高质量跨越式发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>125</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>王少玄主持召开党政代表团学习考察小结座谈会时强调化紧迫感为责任感化压力为动力在推进吉安全面现代化新征程中实现新跨越罗文江出席并讲话廖宏刘兰芳等出席</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66486.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 廖宏刘兰芳等出席', '王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 廖宏刘兰芳等出席', '（记者郭欢）11月21日，我市党政代表团结束在南昌的学习考察行程后，市委书记王少玄紧接着在南昌主持召开小结座谈会。他强调，要深入学习贯彻落实党的十九届六中全会精神和即将召开的省第十五次党代会精神，对标发展前景好、速度快、质量优以及谋划水平高的先进地区，化紧迫感为责任感、化压力为动力，立下愚公志、鼓起精气神，在推进吉安全面现代化新征程中迈出新步伐、见到新气象、实现新跨越。', '市委副书记、市长罗文江出席会议并讲话。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋出席会议。', '王少玄指出，继我市党政代表团赴赣州市学习考察之后，又赴省会南昌市学先进、取真经。兄弟地市推动高质量发展的经验与成效，既让大家开阔了眼界、认清了差距，也给予我们启示，鼓舞了干劲，要不断汲取兄弟地市的好经验、好做法，结合吉安实际奋力追赶，努力创造新时代“第一等的工作”。', '王少玄强调，要增强加快高质量发展之紧迫感。既要学习南昌、赣州等地在推进高质量发展中的站位高远、格局开阔、思路清晰，更要看清我们与之县域经济、产业能级、项目建设等方面的差距，增强坐不住的紧迫感、慢不得的危机感、等不起的责任感，奋起直追、拼搏进取，把发展的差距转化为赶超的动力。要加快产业，尤其是工业转型升级之步伐，学习借鉴南昌、赣州等地以平台建设为引领，实施创新驱动，引进人才、推进项目的成功实践，锤炼前瞻性眼光，完善科学决策机制，锚定聚焦主导产业的决心，提升干部专业化水平，优化考核体系、有效防范风险，持续不断推动大企业、大产业的引进和发展。要强化“平台与人才决定企业层次和品质”的意识，大力实施研发投入和创新平台攻坚行动，优化人才环境，通过平台集聚人才、招引项目、做大产业，推动产业链供应链创新链价值链相互融合，实现产品向终端转型、产业向高端升级。同时，加快新兴产业发展步伐，大力实施数字经济“一号工程”，探索5G、区块链等新技术应用，从根本上改变“一企独大”“一业独大”。要提升产城融合、文旅融合之水平，增强市中心城区的首位担当，以“文化为魂、商业为体”，将高标准打造历史文化街区与提升城市功能品质相结合，拓宽投融资渠道。要树立敢想、敢闯、敢拼之作风，发挥领导干部“头雁效应”，增强奋进之姿、奋斗之志、奋发之为，为实现建设“三区”目标作出新的更大贡献。', '罗文江围绕南昌、赣州两地学习考察所见、所思、所想谈体会、提要求。他指出，产业发展日新月异，要学习。要大力招大引强，提高干部专业化水平，培育专业招商队伍，加快项目落地；各地发展定位不同，要清醒。围绕产业链抓项目，做大做强主导产业，推动“老树发新枝”。同时，立足产业发展趋势，积极培育新兴产业；优化产业发展环境，要搭台。不断优化营商环境，完善平台建设，实施创新驱动；区域竞争日趋激烈，要努力。一方面狠抓项目，树牢“项目为王”理念，形成一批项目在谈、一批项目签约、一批项目开工、一批项目在建、一批项目建成投产、一批项目达产达标的滚动发展局面。另一方面，要依托抓手，创新思路抓项目，完善产业引导基金，建立科学决策机制，有效撬动社会资本，支持项目建设。要强化作风建设，对照干部作风“十型”问题，扫除作风之弊，不断增强抓工作、抓项目的劲头，把学习考察所思所得转化到推进实际工作的成效，促进吉安发展在“十四五”取得新的更好成绩。', '座谈会上，漆海云、李克坚以及新干县、泰和县、吉州区、市住建局、市商务局主要负责同志结合自身岗位，谈了学习考察体会，并就下一步工作中如何对标先进、加快发展分别作了交流发言。大家一致表示，两次学习考察活动，不仅收获了兄弟地市的先进经验，也加深了自身对加快发展、奋力追赶的使命感和紧迫感。在接下来工作中，要深入学习贯彻党的十九届六中全会精神和即将召开的省第十五次党代会精神，按照市第五次党代会擘画的宏伟蓝图，进一步开阔视野格局、创新发展思路，增强担当实干的务实作风，把学习考察中获得的先进经验转化为推动工作的方法，狠抓落实，为实现吉安经济社会高质量跨越式发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>125</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>王少玄主持召开党政代表团学习考察小结座谈会时强调化紧迫感为责任感化压力为动力在推进吉安全面现代化新征程中实现新跨越罗文江出席并讲话傅正华出席</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66497.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 傅正华出席', '王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 傅正华出席', '\u200b （记者郭欢）11月21日，我市党政代表团结束在南昌的学习考察行程后，市委书记王少玄紧接着在南昌主持召开小结座谈会。他强调，要深入学习贯彻落实党的十九届六中全会精神和即将召开的省第十五次党代会精神，对标发展前景好、速度快、质量优以及谋划水平高的先进地区，化紧迫感为责任感、化压力为动力，立下愚公志、鼓起精气神，在推进吉安全面现代化新征程中迈出新步伐、见到新气象、实现新跨越。', '市委副书记、市长罗文江出席会议并讲话。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋出席会议。', '王少玄指出，继我市党政代表团赴赣州市学习考察之后，又赴省会南昌市学先进、取真经。兄弟地市推动高质量发展的经验与成效，既让大家开阔了眼界、认清了差距，也给予我们启示，鼓舞了干劲，要不断汲取兄弟地市的好经验、好做法，结合吉安实际奋力追赶，努力创造新时代“第一等的工作”。', '王少玄强调，要增强加快高质量发展之紧迫感。既要学习南昌、赣州等地在推进高质量发展中的站位高远、格局开阔、思路清晰，更要看清我们与之县域经济、产业能级、项目建设等方面的差距，增强坐不住的紧迫感、慢不得的危机感、等不起的责任感，奋起直追、拼搏进取，把发展的差距转化为赶超的动力。要加快产业，尤其是工业转型升级之步伐，学习借鉴南昌、赣州等地以平台建设为引领，实施创新驱动，引进人才、推进项目的成功实践，锤炼前瞻性眼光，完善科学决策机制，锚定聚焦主导产业的决心，提升干部专业化水平，优化考核体系、有效防范风险，持续不断推动大企业、大产业的引进和发展。要强化“平台与人才决定企业层次和品质”的意识，大力实施研发投入和创新平台攻坚行动，优化人才环境，通过平台集聚人才、招引项目、做大产业，推动产业链供应链创新链价值链相互融合，实现产品向终端转型、产业向高端升级。同时，加快新兴产业发展步伐，大力实施数字经济“一号工程”，探索5G、区块链等新技术应用，从根本上改变“一企独大”“一业独大”。要提升产城融合、文旅融合之水平，增强市中心城区的首位担当，以“文化为魂、商业为体”，将高标准打造历史文化街区与提升城市功能品质相结合，拓宽投融资渠道。要树立敢想、敢闯、敢拼之作风，发挥领导干部“头雁效应”，增强奋进之姿、奋斗之志、奋发之为，为实现建设“三区”目标作出新的更大贡献。', '罗文江围绕南昌、赣州两地学习考察所见、所思、所想谈体会、提要求。他指出，产业发展日新月异，要学习。要大力招大引强，提高干部专业化水平，培育专业招商队伍，加快项目落地；各地发展定位不同，要清醒。围绕产业链抓项目，做大做强主导产业，推动“老树发新枝”。同时，立足产业发展趋势，积极培育新兴产业；优化产业发展环境，要搭台。不断优化营商环境，完善平台建设，实施创新驱动；区域竞争日趋激烈，要努力。一方面狠抓项目，树牢“项目为王”理念，形成一批项目在谈、一批项目签约、一批项目开工、一批项目在建、一批项目建成投产、一批项目达产达标的滚动发展局面。另一方面，要依托抓手，创新思路抓项目，完善产业引导基金，建立科学决策机制，有效撬动社会资本，支持项目建设。要强化作风建设，对照干部作风“十型”问题，扫除作风之弊，不断增强抓工作、抓项目的劲头，把学习考察所思所得转化到推进实际工作的成效，促进吉安发展在“十四五”取得新的更好成绩。', '座谈会上，漆海云、李克坚以及新干县、泰和县、吉州区、市住建局、市商务局主要负责同志结合自身岗位，谈了学习考察体会，并就下一步工作中如何对标先进、加快发展分别作了交流发言。大家一致表示，两次学习考察活动，不仅收获了兄弟地市的先进经验，也加深了自身对加快发展、奋力追赶的使命感和紧迫感。在接下来工作中，要深入学习贯彻党的十九届六中全会精神和即将召开的省第十五次党代会精神，按照市第五次党代会擘画的宏伟蓝图，进一步开阔视野格局、创新发展思路，增强担当实干的务实作风，把学习考察中获得的先进经验转化为推动工作的方法，狠抓落实，为实现吉安经济社会高质量跨越式发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>125</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>王少玄主持召开党政代表团学习考察小结座谈会时强调化紧迫感为责任感化压力为动力在推进吉安全面现代化新征程中实现新跨越罗文江出席并讲话胡海洋出席</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66498.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 胡海洋出席', '王少玄主持召开党政代表团学习考察小结座谈会时强调：化紧迫感为责任感 化压力为动力 在推进吉安全面现代化新征程中实现新跨越 罗文江出席并讲话 胡海洋出席', '\u200b （记者郭欢）11月21日，我市党政代表团结束在南昌的学习考察行程后，市委书记王少玄紧接着在南昌主持召开小结座谈会。他强调，要深入学习贯彻落实党的十九届六中全会精神和即将召开的省第十五次党代会精神，对标发展前景好、速度快、质量优以及谋划水平高的先进地区，化紧迫感为责任感、化压力为动力，立下愚公志、鼓起精气神，在推进吉安全面现代化新征程中迈出新步伐、见到新气象、实现新跨越。', '市委副书记、市长罗文江出席会议并讲话。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋出席会议。', '王少玄指出，继我市党政代表团赴赣州市学习考察之后，又赴省会南昌市学先进、取真经。兄弟地市推动高质量发展的经验与成效，既让大家开阔了眼界、认清了差距，也给予我们启示，鼓舞了干劲，要不断汲取兄弟地市的好经验、好做法，结合吉安实际奋力追赶，努力创造新时代“第一等的工作”。', '王少玄强调，要增强加快高质量发展之紧迫感。既要学习南昌、赣州等地在推进高质量发展中的站位高远、格局开阔、思路清晰，更要看清我们与之县域经济、产业能级、项目建设等方面的差距，增强坐不住的紧迫感、慢不得的危机感、等不起的责任感，奋起直追、拼搏进取，把发展的差距转化为赶超的动力。要加快产业，尤其是工业转型升级之步伐，学习借鉴南昌、赣州等地以平台建设为引领，实施创新驱动，引进人才、推进项目的成功实践，锤炼前瞻性眼光，完善科学决策机制，锚定聚焦主导产业的决心，提升干部专业化水平，优化考核体系、有效防范风险，持续不断推动大企业、大产业的引进和发展。要强化“平台与人才决定企业层次和品质”的意识，大力实施研发投入和创新平台攻坚行动，优化人才环境，通过平台集聚人才、招引项目、做大产业，推动产业链供应链创新链价值链相互融合，实现产品向终端转型、产业向高端升级。同时，加快新兴产业发展步伐，大力实施数字经济“一号工程”，探索5G、区块链等新技术应用，从根本上改变“一企独大”“一业独大”。要提升产城融合、文旅融合之水平，增强市中心城区的首位担当，以“文化为魂、商业为体”，将高标准打造历史文化街区与提升城市功能品质相结合，拓宽投融资渠道。要树立敢想、敢闯、敢拼之作风，发挥领导干部“头雁效应”，增强奋进之姿、奋斗之志、奋发之为，为实现建设“三区”目标作出新的更大贡献。', '罗文江围绕南昌、赣州两地学习考察所见、所思、所想谈体会、提要求。他指出，产业发展日新月异，要学习。要大力招大引强，提高干部专业化水平，培育专业招商队伍，加快项目落地；各地发展定位不同，要清醒。围绕产业链抓项目，做大做强主导产业，推动“老树发新枝”。同时，立足产业发展趋势，积极培育新兴产业；优化产业发展环境，要搭台。不断优化营商环境，完善平台建设，实施创新驱动；区域竞争日趋激烈，要努力。一方面狠抓项目，树牢“项目为王”理念，形成一批项目在谈、一批项目签约、一批项目开工、一批项目在建、一批项目建成投产、一批项目达产达标的滚动发展局面。另一方面，要依托抓手，创新思路抓项目，完善产业引导基金，建立科学决策机制，有效撬动社会资本，支持项目建设。要强化作风建设，对照干部作风“十型”问题，扫除作风之弊，不断增强抓工作、抓项目的劲头，把学习考察所思所得转化到推进实际工作的成效，促进吉安发展在“十四五”取得新的更好成绩。', '座谈会上，漆海云、李克坚以及新干县、泰和县、吉州区、市住建局、市商务局主要负责同志结合自身岗位，谈了学习考察体会，并就下一步工作中如何对标先进、加快发展分别作了交流发言。大家一致表示，两次学习考察活动，不仅收获了兄弟地市的先进经验，也加深了自身对加快发展、奋力追赶的使命感和紧迫感。在接下来工作中，要深入学习贯彻党的十九届六中全会精神和即将召开的省第十五次党代会精神，按照市第五次党代会擘画的宏伟蓝图，进一步开阔视野格局、创新发展思路，增强担当实干的务实作风，把学习考察中获得的先进经验转化为推动工作的方法，狠抓落实，为实现吉安经济社会高质量跨越式发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>125</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南昌学习考察李红军万广明会见王少玄罗文江率队傅正华参加相关活动</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66509.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 傅正华参加相关活动', '我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 傅正华参加相关活动', '（记者郭欢）11月20日至21日，我市党政代表团在南昌市学习考察。省委常委、南昌市委书记李红军，南昌市市长万广明会见代表团一行，并参加考察活动。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '南昌市领导李镇发、卢伟平、王万征、肖云分别陪同。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋参加。', '会见中，李红军代表南昌市委、市政府对吉安市党政代表团的到来表示欢迎。李红军说，吉安市井冈山是中国革命的摇篮。井冈山精神是中国共产党人的宝贵精神财富。近年来，吉安市坚持以习近平新时代中国特色社会主义思想为指导，大力弘扬井冈山精神，践行新发展理念，发展新经济、培育新动能，经济社会发展取得骄人成绩。当前，南昌全市上下正深入学习贯彻党的十九届六中全会精神，紧扣省委书记易炼红对南昌工作提出的“率先‘作示范、勇争先’，再展英雄城雄姿，续写新的时代荣光”更高要求，全力实现“两个大幅提升”目标任务，进一步落实“六个尽显”工作要求，奋力开创各项事业发展新局面。南昌人民与吉安人民心连心，两地交流合作空间广阔、潜力巨大。希望双方深入学习贯彻习近平总书记视察江西重要讲话精神，按照省委省政府的决策部署，充分发挥各自优势，持续深化红色旅游、电子信息产业等方面交流合作，努力开创互利共赢、共同发展新局面。', '王少玄对南昌市传经送宝促进吉安经济社会高质量发展表示感谢。他表示，近年来，南昌坚定扛起省会责任，产业发展势头强劲，无论是经济总量，还是发展质量都是全省的龙头。当前，吉安上下正深入学习贯彻落实党的十九届六中全会精神，全力践行“作示范、勇争先”目标要求，南昌创造的很多经验，以及干部的广阔视野、实干作风、境界格局都值得吉安学习。希望借助南昌的平台优势，加强科技人才对接，促进更多创新成果在吉安转化、落地；希望进一步加强两地红色资源统筹，优势互补，打造更多红色旅游经典线路，共同促进江西文旅产业高质量发展。同时，吉安将积极对接大南昌都市圈，加快建设赣江中游生态经济带，以生态经济带引领全域发展，挺起江西“中部脊梁”，展现吉安革命老区面向新时代的新作为、新作风。', '在昌期间，我市党政代表团先后考察了江铃股份富山工厂、中科院苏州纳米所南昌研究院、煌上煌集团、江西百胜智能科技有限公司、万寿宫历史文化街区夜市经济、南昌航空城规划展示中心、中国商飞江西生产试飞中心、江西兆驰半导体有限公司、鱼尾洲公园等地。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>125</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南昌学习考察李红军万广明会见王少玄罗文江率队王大胜参加相关活动</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66504.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 王大胜参加相关活动', '我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 王大胜参加相关活动', '（记者郭欢）11月20日至21日，我市党政代表团在南昌市学习考察。省委常委、南昌市委书记李红军，南昌市市长万广明会见代表团一行，并参加考察活动。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '南昌市领导李镇发、卢伟平、王万征、肖云分别陪同。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋参加。', '会见中，李红军代表南昌市委、市政府对吉安市党政代表团的到来表示欢迎。李红军说，吉安市井冈山是中国革命的摇篮。井冈山精神是中国共产党人的宝贵精神财富。近年来，吉安市坚持以习近平新时代中国特色社会主义思想为指导，大力弘扬井冈山精神，践行新发展理念，发展新经济、培育新动能，经济社会发展取得骄人成绩。当前，南昌全市上下正深入学习贯彻党的十九届六中全会精神，紧扣省委书记易炼红对南昌工作提出的“率先‘作示范、勇争先’，再展英雄城雄姿，续写新的时代荣光”更高要求，全力实现“两个大幅提升”目标任务，进一步落实“六个尽显”工作要求，奋力开创各项事业发展新局面。南昌人民与吉安人民心连心，两地交流合作空间广阔、潜力巨大。希望双方深入学习贯彻习近平总书记视察江西重要讲话精神，按照省委省政府的决策部署，充分发挥各自优势，持续深化红色旅游、电子信息产业等方面交流合作，努力开创互利共赢、共同发展新局面。', '王少玄对南昌市传经送宝促进吉安经济社会高质量发展表示感谢。他表示，近年来，南昌坚定扛起省会责任，产业发展势头强劲，无论是经济总量，还是发展质量都是全省的龙头。当前，吉安上下正深入学习贯彻落实党的十九届六中全会精神，全力践行“作示范、勇争先”目标要求，南昌创造的很多经验，以及干部的广阔视野、实干作风、境界格局都值得吉安学习。希望借助南昌的平台优势，加强科技人才对接，促进更多创新成果在吉安转化、落地；希望进一步加强两地红色资源统筹，优势互补，打造更多红色旅游经典线路，共同促进江西文旅产业高质量发展。同时，吉安将积极对接大南昌都市圈，加快建设赣江中游生态经济带，以生态经济带引领全域发展，挺起江西“中部脊梁”，展现吉安革命老区面向新时代的新作为、新作风。', '在昌期间，我市党政代表团先后考察了江铃股份富山工厂、中科院苏州纳米所南昌研究院、煌上煌集团、江西百胜智能科技有限公司、万寿宫历史文化街区夜市经济、南昌航空城规划展示中心、中国商飞江西生产试飞中心、江西兆驰半导体有限公司、鱼尾洲公园等地。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>125</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南昌学习考察李红军万广明会见王少玄罗文江率队漆海云参加相关活动</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66505.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 漆海云参加相关活动', '我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 漆海云参加相关活动', '（记者郭欢）11月20日至21日，我市党政代表团在南昌市学习考察。省委常委、南昌市委书记李红军，南昌市市长万广明会见代表团一行，并参加考察活动。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '南昌市领导李镇发、卢伟平、王万征、肖云分别陪同。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋参加。', '会见中，李红军代表南昌市委、市政府对吉安市党政代表团的到来表示欢迎。李红军说，吉安市井冈山是中国革命的摇篮。井冈山精神是中国共产党人的宝贵精神财富。近年来，吉安市坚持以习近平新时代中国特色社会主义思想为指导，大力弘扬井冈山精神，践行新发展理念，发展新经济、培育新动能，经济社会发展取得骄人成绩。当前，南昌全市上下正深入学习贯彻党的十九届六中全会精神，紧扣省委书记易炼红对南昌工作提出的“率先‘作示范、勇争先’，再展英雄城雄姿，续写新的时代荣光”更高要求，全力实现“两个大幅提升”目标任务，进一步落实“六个尽显”工作要求，奋力开创各项事业发展新局面。南昌人民与吉安人民心连心，两地交流合作空间广阔、潜力巨大。希望双方深入学习贯彻习近平总书记视察江西重要讲话精神，按照省委省政府的决策部署，充分发挥各自优势，持续深化红色旅游、电子信息产业等方面交流合作，努力开创互利共赢、共同发展新局面。', '王少玄对南昌市传经送宝促进吉安经济社会高质量发展表示感谢。他表示，近年来，南昌坚定扛起省会责任，产业发展势头强劲，无论是经济总量，还是发展质量都是全省的龙头。当前，吉安上下正深入学习贯彻落实党的十九届六中全会精神，全力践行“作示范、勇争先”目标要求，南昌创造的很多经验，以及干部的广阔视野、实干作风、境界格局都值得吉安学习。希望借助南昌的平台优势，加强科技人才对接，促进更多创新成果在吉安转化、落地；希望进一步加强两地红色资源统筹，优势互补，打造更多红色旅游经典线路，共同促进江西文旅产业高质量发展。同时，吉安将积极对接大南昌都市圈，加快建设赣江中游生态经济带，以生态经济带引领全域发展，挺起江西“中部脊梁”，展现吉安革命老区面向新时代的新作为、新作风。', '在昌期间，我市党政代表团先后考察了江铃股份富山工厂、中科院苏州纳米所南昌研究院、煌上煌集团、江西百胜智能科技有限公司、万寿宫历史文化街区夜市经济、南昌航空城规划展示中心、中国商飞江西生产试飞中心、江西兆驰半导体有限公司、鱼尾洲公园等地。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>125</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南昌学习考察李红军万广明会见王少玄罗文江率队刘志斌参加相关活动</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66508.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 刘志斌参加相关活动', '我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 刘志斌参加相关活动', '（记者郭欢）11月20日至21日，我市党政代表团在南昌市学习考察。省委常委、南昌市委书记李红军，南昌市市长万广明会见代表团一行，并参加考察活动。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '南昌市领导李镇发、卢伟平、王万征、肖云分别陪同。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋参加。', '会见中，李红军代表南昌市委、市政府对吉安市党政代表团的到来表示欢迎。李红军说，吉安市井冈山是中国革命的摇篮。井冈山精神是中国共产党人的宝贵精神财富。近年来，吉安市坚持以习近平新时代中国特色社会主义思想为指导，大力弘扬井冈山精神，践行新发展理念，发展新经济、培育新动能，经济社会发展取得骄人成绩。当前，南昌全市上下正深入学习贯彻党的十九届六中全会精神，紧扣省委书记易炼红对南昌工作提出的“率先‘作示范、勇争先’，再展英雄城雄姿，续写新的时代荣光”更高要求，全力实现“两个大幅提升”目标任务，进一步落实“六个尽显”工作要求，奋力开创各项事业发展新局面。南昌人民与吉安人民心连心，两地交流合作空间广阔、潜力巨大。希望双方深入学习贯彻习近平总书记视察江西重要讲话精神，按照省委省政府的决策部署，充分发挥各自优势，持续深化红色旅游、电子信息产业等方面交流合作，努力开创互利共赢、共同发展新局面。', '王少玄对南昌市传经送宝促进吉安经济社会高质量发展表示感谢。他表示，近年来，南昌坚定扛起省会责任，产业发展势头强劲，无论是经济总量，还是发展质量都是全省的龙头。当前，吉安上下正深入学习贯彻落实党的十九届六中全会精神，全力践行“作示范、勇争先”目标要求，南昌创造的很多经验，以及干部的广阔视野、实干作风、境界格局都值得吉安学习。希望借助南昌的平台优势，加强科技人才对接，促进更多创新成果在吉安转化、落地；希望进一步加强两地红色资源统筹，优势互补，打造更多红色旅游经典线路，共同促进江西文旅产业高质量发展。同时，吉安将积极对接大南昌都市圈，加快建设赣江中游生态经济带，以生态经济带引领全域发展，挺起江西“中部脊梁”，展现吉安革命老区面向新时代的新作为、新作风。', '在昌期间，我市党政代表团先后考察了江铃股份富山工厂、中科院苏州纳米所南昌研究院、煌上煌集团、江西百胜智能科技有限公司、万寿宫历史文化街区夜市经济、南昌航空城规划展示中心、中国商飞江西生产试飞中心、江西兆驰半导体有限公司、鱼尾洲公园等地。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>125</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南昌学习考察李红军万广明会见王少玄罗文江率队李镇发卢伟平廖宏刘兰芳参加相关活动</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66499.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 李镇发卢伟平廖宏刘兰芳参加相关活动', '我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 李镇发卢伟平廖宏刘兰芳参加相关活动', '（记者郭欢）11月20日至21日，我市党政代表团在南昌市学习考察。省委常委、南昌市委书记李红军，南昌市市长万广明会见代表团一行，并参加考察活动。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '南昌市领导李镇发、卢伟平、王万征、肖云分别陪同。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋参加。', '会见中，李红军代表南昌市委、市政府对吉安市党政代表团的到来表示欢迎。李红军说，吉安市井冈山是中国革命的摇篮。井冈山精神是中国共产党人的宝贵精神财富。近年来，吉安市坚持以习近平新时代中国特色社会主义思想为指导，大力弘扬井冈山精神，践行新发展理念，发展新经济、培育新动能，经济社会发展取得骄人成绩。当前，南昌全市上下正深入学习贯彻党的十九届六中全会精神，紧扣省委书记易炼红对南昌工作提出的“率先‘作示范、勇争先’，再展英雄城雄姿，续写新的时代荣光”更高要求，全力实现“两个大幅提升”目标任务，进一步落实“六个尽显”工作要求，奋力开创各项事业发展新局面。南昌人民与吉安人民心连心，两地交流合作空间广阔、潜力巨大。希望双方深入学习贯彻习近平总书记视察江西重要讲话精神，按照省委省政府的决策部署，充分发挥各自优势，持续深化红色旅游、电子信息产业等方面交流合作，努力开创互利共赢、共同发展新局面。', '王少玄对南昌市传经送宝促进吉安经济社会高质量发展表示感谢。他表示，近年来，南昌坚定扛起省会责任，产业发展势头强劲，无论是经济总量，还是发展质量都是全省的龙头。当前，吉安上下正深入学习贯彻落实党的十九届六中全会精神，全力践行“作示范、勇争先”目标要求，南昌创造的很多经验，以及干部的广阔视野、实干作风、境界格局都值得吉安学习。希望借助南昌的平台优势，加强科技人才对接，促进更多创新成果在吉安转化、落地；希望进一步加强两地红色资源统筹，优势互补，打造更多红色旅游经典线路，共同促进江西文旅产业高质量发展。同时，吉安将积极对接大南昌都市圈，加快建设赣江中游生态经济带，以生态经济带引领全域发展，挺起江西“中部脊梁”，展现吉安革命老区面向新时代的新作为、新作风。', '在昌期间，我市党政代表团先后考察了江铃股份富山工厂、中科院苏州纳米所南昌研究院、煌上煌集团、江西百胜智能科技有限公司、万寿宫历史文化街区夜市经济、南昌航空城规划展示中心、中国商飞江西生产试飞中心、江西兆驰半导体有限公司、鱼尾洲公园等地。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>125</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>我市党政代表团赴南昌学习考察李红军万广明会见王少玄罗文江率队胡海洋参加相关活动</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66510.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 胡海洋参加相关活动', '我市党政代表团赴南昌学习考察 李红军万广明会见 王少玄罗文江率队 胡海洋参加相关活动', '（记者郭欢）11月20日至21日，我市党政代表团在南昌市学习考察。省委常委、南昌市委书记李红军，南昌市市长万广明会见代表团一行，并参加考察活动。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '南昌市领导李镇发、卢伟平、王万征、肖云分别陪同。市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、刘志斌、傅正华、胡海洋参加。', '会见中，李红军代表南昌市委、市政府对吉安市党政代表团的到来表示欢迎。李红军说，吉安市井冈山是中国革命的摇篮。井冈山精神是中国共产党人的宝贵精神财富。近年来，吉安市坚持以习近平新时代中国特色社会主义思想为指导，大力弘扬井冈山精神，践行新发展理念，发展新经济、培育新动能，经济社会发展取得骄人成绩。当前，南昌全市上下正深入学习贯彻党的十九届六中全会精神，紧扣省委书记易炼红对南昌工作提出的“率先‘作示范、勇争先’，再展英雄城雄姿，续写新的时代荣光”更高要求，全力实现“两个大幅提升”目标任务，进一步落实“六个尽显”工作要求，奋力开创各项事业发展新局面。南昌人民与吉安人民心连心，两地交流合作空间广阔、潜力巨大。希望双方深入学习贯彻习近平总书记视察江西重要讲话精神，按照省委省政府的决策部署，充分发挥各自优势，持续深化红色旅游、电子信息产业等方面交流合作，努力开创互利共赢、共同发展新局面。', '王少玄对南昌市传经送宝促进吉安经济社会高质量发展表示感谢。他表示，近年来，南昌坚定扛起省会责任，产业发展势头强劲，无论是经济总量，还是发展质量都是全省的龙头。当前，吉安上下正深入学习贯彻落实党的十九届六中全会精神，全力践行“作示范、勇争先”目标要求，南昌创造的很多经验，以及干部的广阔视野、实干作风、境界格局都值得吉安学习。希望借助南昌的平台优势，加强科技人才对接，促进更多创新成果在吉安转化、落地；希望进一步加强两地红色资源统筹，优势互补，打造更多红色旅游经典线路，共同促进江西文旅产业高质量发展。同时，吉安将积极对接大南昌都市圈，加快建设赣江中游生态经济带，以生态经济带引领全域发展，挺起江西“中部脊梁”，展现吉安革命老区面向新时代的新作为、新作风。', '在昌期间，我市党政代表团先后考察了江铃股份富山工厂、中科院苏州纳米所南昌研究院、煌上煌集团、江西百胜智能科技有限公司、万寿宫历史文化街区夜市经济、南昌航空城规划展示中心、中国商飞江西生产试飞中心、江西兆驰半导体有限公司、鱼尾洲公园等地。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>125</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>互融互通互学携手共促革命老区振兴发展吴忠琼会见吉安党政代表团王少玄罗文江率队赴赣州考察许南吉赵多仙徐兵廖宏刘兰芳等参加会见</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-65993.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['吉安市人民政府_互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 许南吉赵多仙徐兵廖宏刘兰芳等参加会见', '互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 许南吉赵多仙徐兵廖宏刘兰芳等参加会见', '（记者郭欢）10月30日至31日，我市党政代表团赴赣州市考察，学习借鉴兄弟地市在园区建设、产业发展、促进消费、城市管理、乡村振兴等方面的特色亮点和工作经验，以学促谋、以学促做，高起点推动建设“三区”。省委常委、赣州市委书记吴忠琼会见吉安党政代表团一行。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '赣州市领导许南吉、赵多仙、徐兵、胡剑飞、许忠华、孙敏、罗瑞华，市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋、刘晓彬等参加会见。', '吴忠琼对吉安党政代表团一行的到来表示欢迎。她说，赣州、吉安地缘相接、人缘相亲、产业相近，两地人才、产业、社会事业等交流往来已久。尤其近年来，吉安电子信息首位产业发展迅速、城乡面貌变化日新月异、百亿项目推进成效明显，激励赣州干部比学赶超的热情。希望两地继续保持好传统，在过去良好的基础上，进一步加强合作交流，在产业上融合互通，在理念上互学互鉴，扬优补短、携手共进，为实现革命老区振兴发展作出新的更大贡献。', '王少玄简要介绍了吉安市第五次党代会提出的发展蓝图，以及市两会确立的工作路径。他说，实现“三区”建设目标，重在实干。近年来，赣州干部谋划项目、推进项目的积极性、主动性和创造性为吉安树立了榜样、探索了经验、开阔了思路，是我们学习的标兵。吉安不仅要向标兵学习、向标兵靠近，还要在构建新发展格局中与赣州加强合作交流，促进大赣南片区文旅产业、电子信息产业、乡村振兴等事业融通联合、共同进步，实现共赢。', '在赣州考察期间，我市党政代表团先后实地考察了赣州方特东方欲晓主题公园、章贡区历史文化街区、福寿沟博物馆、赣州国际陆港、共享智能备料中心、格力电器（赣州）智能制造基地、南康家居小镇博览中心、会展中心、工业设计中心等项目。', '一个个项目起于荒坡、一组组数据记录奋进，它们的背后是赣州干部在项目建设与推进发展中始终秉承的大格局、高视野，以及国际化的谋划、解题思维和敢闯敢干、创新奋进的气魄，专业专注专研的精神，值得吉安干部认真学习借鉴。代表团成员一边走、一边看、一边思，大家纷纷拿出手机将赣州的好做法拍下来、拿出笔记本将好经验记下来。代表团成员一致表示，一路走来，学习了先进经验，拓宽了发展思路。下一步，要打破自我满足，放大视野格局，自觉置身全国全省发展大局，解放思想、对标补差，冲破思想桎梏、创新工作方法，努力为实现建设“三区”目标作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>125</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>互融互通互学携手共促革命老区振兴发展吴忠琼会见吉安党政代表团王少玄罗文江率队赴赣州考察王大胜参加会见</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-65997.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['吉安市人民政府_互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 王大胜参加会见', '互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 王大胜参加会见', '\u200b （记者郭欢）10月30日至31日，我市党政代表团赴赣州市考察，学习借鉴兄弟地市在园区建设、产业发展、促进消费、城市管理、乡村振兴等方面的特色亮点和工作经验，以学促谋、以学促做，高起点推动建设“三区”。省委常委、赣州市委书记吴忠琼会见吉安党政代表团一行。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '赣州市领导许南吉、赵多仙、徐兵、胡剑飞、许忠华、孙敏、罗瑞华，市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋、刘晓彬等参加会见。', '吴忠琼对吉安党政代表团一行的到来表示欢迎。她说，赣州、吉安地缘相接、人缘相亲、产业相近，两地人才、产业、社会事业等交流往来已久。尤其近年来，吉安电子信息首位产业发展迅速、城乡面貌变化日新月异、百亿项目推进成效明显，激励赣州干部比学赶超的热情。希望两地继续保持好传统，在过去良好的基础上，进一步加强合作交流，在产业上融合互通，在理念上互学互鉴，扬优补短、携手共进，为实现革命老区振兴发展作出新的更大贡献。', '王少玄简要介绍了吉安市第五次党代会提出的发展蓝图，以及市两会确立的工作路径。他说，实现“三区”建设目标，重在实干。近年来，赣州干部谋划项目、推进项目的积极性、主动性和创造性为吉安树立了榜样、探索了经验、开阔了思路，是我们学习的标兵。吉安不仅要向标兵学习、向标兵靠近，还要在构建新发展格局中与赣州加强合作交流，促进大赣南片区文旅产业、电子信息产业、乡村振兴等事业融通联合、共同进步，实现共赢。', '在赣州考察期间，我市党政代表团先后实地考察了赣州方特东方欲晓主题公园、章贡区历史文化街区、福寿沟博物馆、赣州国际陆港、共享智能备料中心、格力电器（赣州）智能制造基地、南康家居小镇博览中心、会展中心、工业设计中心等项目。', '一个个项目起于荒坡、一组组数据记录奋进，它们的背后是赣州干部在项目建设与推进发展中始终秉承的大格局、高视野，以及国际化的谋划、解题思维和敢闯敢干、创新奋进的气魄，专业专注专研的精神，值得吉安干部认真学习借鉴。代表团成员一边走、一边看、一边思，大家纷纷拿出手机将赣州的好做法拍下来、拿出笔记本将好经验记下来。代表团成员一致表示，一路走来，学习了先进经验，拓宽了发展思路。下一步，要打破自我满足，放大视野格局，自觉置身全国全省发展大局，解放思想、对标补差，冲破思想桎梏、创新工作方法，努力为实现建设“三区”目标作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>125</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>互融互通互学携手共促革命老区振兴发展吴忠琼会见吉安党政代表团王少玄罗文江率队赴赣州考察漆海云参加会见</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-65998.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['吉安市人民政府_互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 漆海云参加会见', '互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 漆海云参加会见', '\u200b （记者郭欢）10月30日至31日，我市党政代表团赴赣州市考察，学习借鉴兄弟地市在园区建设、产业发展、促进消费、城市管理、乡村振兴等方面的特色亮点和工作经验，以学促谋、以学促做，高起点推动建设“三区”。省委常委、赣州市委书记吴忠琼会见吉安党政代表团一行。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '赣州市领导许南吉、赵多仙、徐兵、胡剑飞、许忠华、孙敏、罗瑞华，市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋、刘晓彬等参加会见。', '吴忠琼对吉安党政代表团一行的到来表示欢迎。她说，赣州、吉安地缘相接、人缘相亲、产业相近，两地人才、产业、社会事业等交流往来已久。尤其近年来，吉安电子信息首位产业发展迅速、城乡面貌变化日新月异、百亿项目推进成效明显，激励赣州干部比学赶超的热情。希望两地继续保持好传统，在过去良好的基础上，进一步加强合作交流，在产业上融合互通，在理念上互学互鉴，扬优补短、携手共进，为实现革命老区振兴发展作出新的更大贡献。', '王少玄简要介绍了吉安市第五次党代会提出的发展蓝图，以及市两会确立的工作路径。他说，实现“三区”建设目标，重在实干。近年来，赣州干部谋划项目、推进项目的积极性、主动性和创造性为吉安树立了榜样、探索了经验、开阔了思路，是我们学习的标兵。吉安不仅要向标兵学习、向标兵靠近，还要在构建新发展格局中与赣州加强合作交流，促进大赣南片区文旅产业、电子信息产业、乡村振兴等事业融通联合、共同进步，实现共赢。', '在赣州考察期间，我市党政代表团先后实地考察了赣州方特东方欲晓主题公园、章贡区历史文化街区、福寿沟博物馆、赣州国际陆港、共享智能备料中心、格力电器（赣州）智能制造基地、南康家居小镇博览中心、会展中心、工业设计中心等项目。', '一个个项目起于荒坡、一组组数据记录奋进，它们的背后是赣州干部在项目建设与推进发展中始终秉承的大格局、高视野，以及国际化的谋划、解题思维和敢闯敢干、创新奋进的气魄，专业专注专研的精神，值得吉安干部认真学习借鉴。代表团成员一边走、一边看、一边思，大家纷纷拿出手机将赣州的好做法拍下来、拿出笔记本将好经验记下来。代表团成员一致表示，一路走来，学习了先进经验，拓宽了发展思路。下一步，要打破自我满足，放大视野格局，自觉置身全国全省发展大局，解放思想、对标补差，冲破思想桎梏、创新工作方法，努力为实现建设“三区”目标作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>125</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>互融互通互学携手共促革命老区振兴发展吴忠琼会见吉安党政代表团王少玄罗文江率队赴赣州考察傅正华参加会见</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66001.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['吉安市人民政府_互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 傅正华参加会见', '互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 傅正华参加会见', '\u200b （记者郭欢）10月30日至31日，我市党政代表团赴赣州市考察，学习借鉴兄弟地市在园区建设、产业发展、促进消费、城市管理、乡村振兴等方面的特色亮点和工作经验，以学促谋、以学促做，高起点推动建设“三区”。省委常委、赣州市委书记吴忠琼会见吉安党政代表团一行。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '赣州市领导许南吉、赵多仙、徐兵、胡剑飞、许忠华、孙敏、罗瑞华，市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋、刘晓彬等参加会见。', '吴忠琼对吉安党政代表团一行的到来表示欢迎。她说，赣州、吉安地缘相接、人缘相亲、产业相近，两地人才、产业、社会事业等交流往来已久。尤其近年来，吉安电子信息首位产业发展迅速、城乡面貌变化日新月异、百亿项目推进成效明显，激励赣州干部比学赶超的热情。希望两地继续保持好传统，在过去良好的基础上，进一步加强合作交流，在产业上融合互通，在理念上互学互鉴，扬优补短、携手共进，为实现革命老区振兴发展作出新的更大贡献。', '王少玄简要介绍了吉安市第五次党代会提出的发展蓝图，以及市两会确立的工作路径。他说，实现“三区”建设目标，重在实干。近年来，赣州干部谋划项目、推进项目的积极性、主动性和创造性为吉安树立了榜样、探索了经验、开阔了思路，是我们学习的标兵。吉安不仅要向标兵学习、向标兵靠近，还要在构建新发展格局中与赣州加强合作交流，促进大赣南片区文旅产业、电子信息产业、乡村振兴等事业融通联合、共同进步，实现共赢。', '在赣州考察期间，我市党政代表团先后实地考察了赣州方特东方欲晓主题公园、章贡区历史文化街区、福寿沟博物馆、赣州国际陆港、共享智能备料中心、格力电器（赣州）智能制造基地、南康家居小镇博览中心、会展中心、工业设计中心等项目。', '一个个项目起于荒坡、一组组数据记录奋进，它们的背后是赣州干部在项目建设与推进发展中始终秉承的大格局、高视野，以及国际化的谋划、解题思维和敢闯敢干、创新奋进的气魄，专业专注专研的精神，值得吉安干部认真学习借鉴。代表团成员一边走、一边看、一边思，大家纷纷拿出手机将赣州的好做法拍下来、拿出笔记本将好经验记下来。代表团成员一致表示，一路走来，学习了先进经验，拓宽了发展思路。下一步，要打破自我满足，放大视野格局，自觉置身全国全省发展大局，解放思想、对标补差，冲破思想桎梏、创新工作方法，努力为实现建设“三区”目标作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>125</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>互融互通互学携手共促革命老区振兴发展吴忠琼会见吉安党政代表团王少玄罗文江率队赴赣州考察胡海洋参加会见</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66002.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['吉安市人民政府_互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 胡海洋参加会见', '互融互通互学 携手共促革命老区振兴发展 吴忠琼会见吉安党政代表团 王少玄罗文江率队赴赣州考察 胡海洋参加会见', '\u200b （记者郭欢）10月30日至31日，我市党政代表团赴赣州市考察，学习借鉴兄弟地市在园区建设、产业发展、促进消费、城市管理、乡村振兴等方面的特色亮点和工作经验，以学促谋、以学促做，高起点推动建设“三区”。省委常委、赣州市委书记吴忠琼会见吉安党政代表团一行。市委书记王少玄，市委副书记、市长罗文江率队学习考察。', '赣州市领导许南吉、赵多仙、徐兵、胡剑飞、许忠华、孙敏、罗瑞华，市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋、刘晓彬等参加会见。', '吴忠琼对吉安党政代表团一行的到来表示欢迎。她说，赣州、吉安地缘相接、人缘相亲、产业相近，两地人才、产业、社会事业等交流往来已久。尤其近年来，吉安电子信息首位产业发展迅速、城乡面貌变化日新月异、百亿项目推进成效明显，激励赣州干部比学赶超的热情。希望两地继续保持好传统，在过去良好的基础上，进一步加强合作交流，在产业上融合互通，在理念上互学互鉴，扬优补短、携手共进，为实现革命老区振兴发展作出新的更大贡献。', '王少玄简要介绍了吉安市第五次党代会提出的发展蓝图，以及市两会确立的工作路径。他说，实现“三区”建设目标，重在实干。近年来，赣州干部谋划项目、推进项目的积极性、主动性和创造性为吉安树立了榜样、探索了经验、开阔了思路，是我们学习的标兵。吉安不仅要向标兵学习、向标兵靠近，还要在构建新发展格局中与赣州加强合作交流，促进大赣南片区文旅产业、电子信息产业、乡村振兴等事业融通联合、共同进步，实现共赢。', '在赣州考察期间，我市党政代表团先后实地考察了赣州方特东方欲晓主题公园、章贡区历史文化街区、福寿沟博物馆、赣州国际陆港、共享智能备料中心、格力电器（赣州）智能制造基地、南康家居小镇博览中心、会展中心、工业设计中心等项目。', '一个个项目起于荒坡、一组组数据记录奋进，它们的背后是赣州干部在项目建设与推进发展中始终秉承的大格局、高视野，以及国际化的谋划、解题思维和敢闯敢干、创新奋进的气魄，专业专注专研的精神，值得吉安干部认真学习借鉴。代表团成员一边走、一边看、一边思，大家纷纷拿出手机将赣州的好做法拍下来、拿出笔记本将好经验记下来。代表团成员一致表示，一路走来，学习了先进经验，拓宽了发展思路。下一步，要打破自我满足，放大视野格局，自觉置身全国全省发展大局，解放思想、对标补差，冲破思想桎梏、创新工作方法，努力为实现建设“三区”目标作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>125</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>王少玄再部署再压实疫情防控各项工作坚持精准防控细化责任落实统筹推进疫情防控和经济社会发展廖宏刘兰芳等出席会议</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66005.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 廖宏刘兰芳等出席会议', '王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 廖宏刘兰芳等出席会议', '（记者郭欢）10月31日，吉安党政代表团在赣州市学习考察，市委书记、市委应对新冠肺炎疫情工作领导小组组长王少玄召集代表团全体成员，传达学习省委书记易炼红，省委副书记、代省长叶建春关于切实做好新冠肺炎疫情防控相关工作要求，对我市疫情防控各项工作再部署、再压实。', '市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋以及各县（市、区）主要负责同志参会。', '王少玄要求，要提高政治站位，保持清醒头脑，深刻认识当前疫情防控形势的复杂多变，要全面从严落实疫情防控措施。', '王少玄强调，要坚持快字当头，分秒必争抓防控。各县（市、区）要迅速行动，精准摸排近期有中高风险地区、阳性检测者报告地区旅居史的来吉返吉人员，在最短时间内把潜在风险全部找到、全部控制，并迅速做好核酸检测、相关流调工作。要强化精准施策，细化举措抓统筹。加强旅游景区管理，对工作人员全部进行核酸检测，并建立常态化检测机制；坚持“非必要，不外出”，不前往中高风险地区和有阳性检测者报告地区，中、高风险地区人员暂缓来吉返吉；加强机场、车站等重点场所防控，严格审批会议、活动；坚持常态化疫情防控措施，倡导勤洗手、戴口罩、常通风、常消毒，严格遵守测温、健康码查验、保持社交距离等有关规定，减少不必要的人员聚集，同时安全有序加快疫苗接种；保持理性科学务实的态度，避免过度反应，统筹做好疫情防控和项目建设、招商引资等各项工作。要压实各方责任，合力共为抓落实。各地各部门要坚持守土有责、守土担责、守土尽责，严格落实“四早”要求，压实“四方”责任。对疫情防控工作进行再部署、再强调，将责任再压实、工作再细化、措施再抓实，坚决把常态化防控措施落实到每个岗位、每个环节、每个个人。主要领导要当好第一责任人，靠前指挥、全力处置。市疫情防控指挥部要加强分析研判、工作调度，及时发布权威信息，回应社会关切。各相关部门要协同做好相关工作，以细化的举措、扎实的工作，确保夺取常态化疫情防控和经济社会发展“双胜利”。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>125</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>王少玄再部署再压实疫情防控各项工作坚持精准防控细化责任落实统筹推进疫情防控和经济社会发展胡海洋出席会议</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66013.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 胡海洋出席会议', '王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 胡海洋出席会议', '（记者郭欢）10月31日，吉安党政代表团在赣州市学习考察，市委书记、市委应对新冠肺炎疫情工作领导小组组长王少玄召集代表团全体成员，传达学习省委书记易炼红，省委副书记、代省长叶建春关于切实做好新冠肺炎疫情防控相关工作要求，对我市疫情防控各项工作再部署、再压实。', '市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋以及各县（市、区）主要负责同志参会。', '王少玄要求，要提高政治站位，保持清醒头脑，深刻认识当前疫情防控形势的复杂多变，要全面从严落实疫情防控措施。', '王少玄强调，要坚持快字当头，分秒必争抓防控。各县（市、区）要迅速行动，精准摸排近期有中高风险地区、阳性检测者报告地区旅居史的来吉返吉人员，在最短时间内把潜在风险全部找到、全部控制，并迅速做好核酸检测、相关流调工作。要强化精准施策，细化举措抓统筹。加强旅游景区管理，对工作人员全部进行核酸检测，并建立常态化检测机制；坚持“非必要，不外出”，不前往中高风险地区和有阳性检测者报告地区，中、高风险地区人员暂缓来吉返吉；加强机场、车站等重点场所防控，严格审批会议、活动；坚持常态化疫情防控措施，倡导勤洗手、戴口罩、常通风、常消毒，严格遵守测温、健康码查验、保持社交距离等有关规定，减少不必要的人员聚集，同时安全有序加快疫苗接种；保持理性科学务实的态度，避免过度反应，统筹做好疫情防控和项目建设、招商引资等各项工作。要压实各方责任，合力共为抓落实。各地各部门要坚持守土有责、守土担责、守土尽责，严格落实“四早”要求，压实“四方”责任。对疫情防控工作进行再部署、再强调，将责任再压实、工作再细化、措施再抓实，坚决把常态化防控措施落实到每个岗位、每个环节、每个个人。主要领导要当好第一责任人，靠前指挥、全力处置。市疫情防控指挥部要加强分析研判、工作调度，及时发布权威信息，回应社会关切。各相关部门要协同做好相关工作，以细化的举措、扎实的工作，确保夺取常态化疫情防控和经济社会发展“双胜利”。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>125</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>王少玄再部署再压实疫情防控各项工作坚持精准防控细化责任落实统筹推进疫情防控和经济社会发展王大胜出席会议</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66007.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 王大胜出席会议', '王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 王大胜出席会议', '\u200b （记者郭欢）10月31日，吉安党政代表团在赣州市学习考察，市委书记、市委应对新冠肺炎疫情工作领导小组组长王少玄召集代表团全体成员，传达学习省委书记易炼红，省委副书记、代省长叶建春关于切实做好新冠肺炎疫情防控相关工作要求，对我市疫情防控各项工作再部署、再压实。', '市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋以及各县（市、区）主要负责同志参会。', '王少玄要求，要提高政治站位，保持清醒头脑，深刻认识当前疫情防控形势的复杂多变，要全面从严落实疫情防控措施。', '王少玄强调，要坚持快字当头，分秒必争抓防控。各县（市、区）要迅速行动，精准摸排近期有中高风险地区、阳性检测者报告地区旅居史的来吉返吉人员，在最短时间内把潜在风险全部找到、全部控制，并迅速做好核酸检测、相关流调工作。要强化精准施策，细化举措抓统筹。加强旅游景区管理，对工作人员全部进行核酸检测，并建立常态化检测机制；坚持“非必要，不外出”，不前往中高风险地区和有阳性检测者报告地区，中、高风险地区人员暂缓来吉返吉；加强机场、车站等重点场所防控，严格审批会议、活动；坚持常态化疫情防控措施，倡导勤洗手、戴口罩、常通风、常消毒，严格遵守测温、健康码查验、保持社交距离等有关规定，减少不必要的人员聚集，同时安全有序加快疫苗接种；保持理性科学务实的态度，避免过度反应，统筹做好疫情防控和项目建设、招商引资等各项工作。要压实各方责任，合力共为抓落实。各地各部门要坚持守土有责、守土担责、守土尽责，严格落实“四早”要求，压实“四方”责任。对疫情防控工作进行再部署、再强调，将责任再压实、工作再细化、措施再抓实，坚决把常态化防控措施落实到每个岗位、每个环节、每个个人。主要领导要当好第一责任人，靠前指挥、全力处置。市疫情防控指挥部要加强分析研判、工作调度，及时发布权威信息，回应社会关切。各相关部门要协同做好相关工作，以细化的举措、扎实的工作，确保夺取常态化疫情防控和经济社会发展“双胜利”。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>125</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>王少玄再部署再压实疫情防控各项工作坚持精准防控细化责任落实统筹推进疫情防控和经济社会发展傅正华出席会议</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66012.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 傅正华出席会议', '王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 傅正华出席会议', '（记者郭欢）10月31日，吉安党政代表团在赣州市学习考察，市委书记、市委应对新冠肺炎疫情工作领导小组组长王少玄召集代表团全体成员，传达学习省委书记易炼红，省委副书记、代省长叶建春关于切实做好新冠肺炎疫情防控相关工作要求，对我市疫情防控各项工作再部署、再压实。', '市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋以及各县（市、区）主要负责同志参会。', '王少玄要求，要提高政治站位，保持清醒头脑，深刻认识当前疫情防控形势的复杂多变，要全面从严落实疫情防控措施。', '王少玄强调，要坚持快字当头，分秒必争抓防控。各县（市、区）要迅速行动，精准摸排近期有中高风险地区、阳性检测者报告地区旅居史的来吉返吉人员，在最短时间内把潜在风险全部找到、全部控制，并迅速做好核酸检测、相关流调工作。要强化精准施策，细化举措抓统筹。加强旅游景区管理，对工作人员全部进行核酸检测，并建立常态化检测机制；坚持“非必要，不外出”，不前往中高风险地区和有阳性检测者报告地区，中、高风险地区人员暂缓来吉返吉；加强机场、车站等重点场所防控，严格审批会议、活动；坚持常态化疫情防控措施，倡导勤洗手、戴口罩、常通风、常消毒，严格遵守测温、健康码查验、保持社交距离等有关规定，减少不必要的人员聚集，同时安全有序加快疫苗接种；保持理性科学务实的态度，避免过度反应，统筹做好疫情防控和项目建设、招商引资等各项工作。要压实各方责任，合力共为抓落实。各地各部门要坚持守土有责、守土担责、守土尽责，严格落实“四早”要求，压实“四方”责任。对疫情防控工作进行再部署、再强调，将责任再压实、工作再细化、措施再抓实，坚决把常态化防控措施落实到每个岗位、每个环节、每个个人。主要领导要当好第一责任人，靠前指挥、全力处置。市疫情防控指挥部要加强分析研判、工作调度，及时发布权威信息，回应社会关切。各相关部门要协同做好相关工作，以细化的举措、扎实的工作，确保夺取常态化疫情防控和经济社会发展“双胜利”。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>125</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>王少玄再部署再压实疫情防控各项工作坚持精准防控细化责任落实统筹推进疫情防控和经济社会发展漆海云出席会议</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-66008.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 漆海云出席会议', '王少玄再部署再压实疫情防控各项工作 坚持精准防控 细化责任落实 统筹推进疫情防控和经济社会发展 漆海云出席会议', '（记者郭欢）10月31日，吉安党政代表团在赣州市学习考察，市委书记、市委应对新冠肺炎疫情工作领导小组组长王少玄召集代表团全体成员，传达学习省委书记易炼红，省委副书记、代省长叶建春关于切实做好新冠肺炎疫情防控相关工作要求，对我市疫情防控各项工作再部署、再压实。', '市领导廖宏、刘兰芳、王大胜、漆海云、李克坚、张智萍、傅正华、胡海洋以及各县（市、区）主要负责同志参会。', '王少玄要求，要提高政治站位，保持清醒头脑，深刻认识当前疫情防控形势的复杂多变，要全面从严落实疫情防控措施。', '王少玄强调，要坚持快字当头，分秒必争抓防控。各县（市、区）要迅速行动，精准摸排近期有中高风险地区、阳性检测者报告地区旅居史的来吉返吉人员，在最短时间内把潜在风险全部找到、全部控制，并迅速做好核酸检测、相关流调工作。要强化精准施策，细化举措抓统筹。加强旅游景区管理，对工作人员全部进行核酸检测，并建立常态化检测机制；坚持“非必要，不外出”，不前往中高风险地区和有阳性检测者报告地区，中、高风险地区人员暂缓来吉返吉；加强机场、车站等重点场所防控，严格审批会议、活动；坚持常态化疫情防控措施，倡导勤洗手、戴口罩、常通风、常消毒，严格遵守测温、健康码查验、保持社交距离等有关规定，减少不必要的人员聚集，同时安全有序加快疫苗接种；保持理性科学务实的态度，避免过度反应，统筹做好疫情防控和项目建设、招商引资等各项工作。要压实各方责任，合力共为抓落实。各地各部门要坚持守土有责、守土担责、守土尽责，严格落实“四早”要求，压实“四方”责任。对疫情防控工作进行再部署、再强调，将责任再压实、工作再细化、措施再抓实，坚决把常态化防控措施落实到每个岗位、每个环节、每个个人。主要领导要当好第一责任人，靠前指挥、全力处置。市疫情防控指挥部要加强分析研判、工作调度，及时发布权威信息，回应社会关切。各相关部门要协同做好相关工作，以细化的举措、扎实的工作，确保夺取常态化疫情防控和经济社会发展“双胜利”。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>125</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>我局派考察组赴南昌市住房保障和房产管理局学习考察</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021-01-05</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10186726.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['为学习南昌市二手房交易资金监管工作先进经验，9月27日，我局派出由孙伏生同志和邱岩同志带队的考察组赴南昌市住房保障和房产管理局学习考察，重点学习了二手房交易资金监管流程、二手房交易网上办理、信息系统建设、中介市场管理和二手房交易监管制度建设等内容。局市场管理科，吉州、青原房地产交易所、置业担保公司相关负责人参加了学习。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>125</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>文字解读吉安市电动车管理办法</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2020-12-20</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10183889.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>[',维护道路交通秩序，预防和减少道路交通事故，切实保障人民群众出行安全，吉安市公安局交警支队根据国家有关法律法规的规定，结合本市实际,起草了《吉安市电动车管理办法》，并经吉安市人民政府同意，于2020年12月16日发布。', '电动车作为重要的民生交通工具，因具有成本低、省体力和速度快等特点，其保有量快速递增', ',但随之而来的是，与其相关的交通管理问题日益凸显。我市电动车数量非常大，绝大部分为非标电动车，电动车摩托化现象日趋严重。近年来，涉及电动车的交通事故占事故总量的60%左右，且比重有进一步加大趋势。由于对非标电动车是否属于机动车国家没有明确法律规定，地方政府部门也还没出台相应的管理办法，导致日常管理中缺乏相应的管理法规作为执法依据，非标电动车交通违法行为突出，因部分违法行为无处罚依据，少数严重违法行为缺乏强制措施，违法行为难以遏制，事故责任认定和理赔的难度大，给各地安全生产工作带来极大隐患。因此制定电动车管理办法，进一步加强电动车日常管理显得十分必要。', '市委、市政府领导就关于加强电动车管理，推动电动车立法工作作出了相关批示，为全面推进电动车立法工作实施，吉安市公安局交警支队前期做了大量基础工作。', '2017年3月13日至18日，由市公安局交警支队牵头，市场和质量监督、交通运输、环保等部门参与，分别对吉州、青原、泰和、遂川等9个县（区）电动车管理情况启动了立法调研工作，形成了《吉安市电动车管理条例立法调研报告》并送交市人大常委会有关部门审核。为了解其他地市的电动车立法管理情况和经验做法，先后赴南昌、江苏宿迁、南京、山西大同进行实地学习考察，并形成了《制定文明交通吉安规矩，助力全国文明城市创建考察报告》。2019年7月26日、2020年5月18日、7月30日、7月31日分别组织人员赴赣州、上饶、新余、抚州等地考察学习，在收获经验成果回来后，立即组织机关单位草拟管理办法。', '在起草过程中，主要认真参照了《中华人民共和国道路交通安全法》、《中华人民共和国产品质量法》、《中华人民共和国认证认可条例》、《江西省实施〈中华人民共和国道路交通安全法〉办法》等有关法律法规的规定，对电动车尤其是非标电动车管理进行了严格规范。目前我市非标电动车数量多、涉及面广，我们从有利于社会稳定和营造良好的营商环境考虑，参照全省各地市的做法，结合我市的实际情况，将非标电动车管理设置', '3年的过渡期，期满后禁止非标电动车上路行驶。通过前期规范生产销售和路面管控“双管齐下”，慢慢压缩非标电动车生存空间，力争在管理办法预期的时间节点，将非标电动车全面清除出市场，力争有效控制，电动车违法乱象，涉及电动车交通事故呈现显著下降。', '明确了本市行政区域内生产和销售的电动车应当符合国家标准，不符合国家标准的电动车一律禁止生产、销售，同时禁止任何单位和个人对电动车进行非法改装；', '明确了电动车应当经公安机关交通管理部门登记后，方可上道路行驶，规范了电动车登记办理流程及办理材料要求。框定了在本市行政区域内通行的所有超标电动车登记，有效期为', '规定了已登记的符合国家标准的电动自行车上道路行驶的，明确驾驶人的条件和电动车路面通行规则及禁止行为规定；', '《办法》明确：县级以上人民政府公安机关交通管理部门负责本行政区域内电动车的道路交通安全管理工作。工业和信息化、市场监督管理部门负责电动车生产和流通领域相关产品质量及经营行为的监督管理工作。环境保护行政主管部门负责电动车废旧电池收集、贮存、转移、利用、经营活动的监督管理工作。城市管理、消防救援、交通运输、住房和城乡建设、财政、教育、税务等其他行政主管部门，应当依据职责共同做好电动车的管理工作。电动车生产者、销售者，应当加强电动车驾驶知识、通行规则和消防安全的宣传教育，提升电动车驾驶人的交通安全、消防安全意识。', '实行电动车登记、编号主要出发点：实现了车辆身份制度管理，充分借助交通监控设备记录电动车驾驶人的交通违法行为并实行责任追究，督促电动车驾驶人自觉守法守规，达到路畅人安得目的，悬挂号牌后为车辆被盗抢的查案提供线索，有利于保护群众的财产安全，且在登记、编号过程中让电动车驾驶人接受交通安全宣传教育，提升驾驶人安全意识。', '《办法》作为政府规范性文件，未设置罚则，将参照相关的法律法规执行，后期相关部门也将制定配套细则实施。', '为切实维护老百姓的利益，依据市场监管总局、工信部、公安部《关于加强电动自行车国家标准实施监督的意见》（国市监标创〔', '2019〕53号）文件精神，参照省内外的做法，对于非标电动车，实行过渡期管理，由公安交通管理部门编号后，实行过渡期3年。', '在具体交通事故中是按机动车还是非机动车来划分责任，由主管部门及司法机关根据车辆鉴定结果，通过个案来处理。', '按照国家保险法的规定，规定强制保险由法律、行政法规设定，我市无权设定强制保险。故《办法》对电动车保险只作了鼓励性规定。', '电动自行车为非机动车，登记上牌，无须办理驾驶证；电动摩托车、电动轻便摩托车为机动车，必须持相应驾驶证，登记上牌并购置交强险后方可上道路行驶，未取得驾驶证、号牌、购买交强险的，公安机关将依法查处。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>125</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>我市党政代表团赴鹰潭学习考察胡世忠王少玄率团朱晓东刘志斌邓淑斌参加</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2020-12-10</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-57886.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团赴鹰潭学习考察 胡世忠王少玄率团 朱晓东刘志斌邓淑斌参加', '\u200b\u200b （记者谢炳华）为深入学习贯彻党的十九届五中全会和习近平总书记视察江西重要讲话精神，认真落实省委十四届十二次全体（扩大）会议精神，12月9日，我市党政代表团赴鹰潭市学习考察，学习兄弟市的好经验好做法，深化合作对接，积极融入新发展格局，推动吉安高质量跨越式可持续发展。', '市委书记胡世忠，市委副书记、市长王少玄率团，市领导朱晓东、刘志斌、邓淑斌，以及井冈山经开区党工委书记彭学凯参加学习考察。市委副书记、市长陈敏，市委常委、副市长王雄，以及鹰潭高新区党工委书记李卫国陪同。', '5G邂逅旅游、铜产业牵手移动物联网，推动“世界铜都”“中华道都”“智慧新城”恰如其分的融合，“智铜道合”生动形象地展现了鹰潭加速转型升级，推动高质量跨越式发展的方法路径。学习考察期间，市党政代表团一行马不停蹄，先后参观考察了江西铜业股份有限公司贵溪冶炼厂、康硕（江西）智能制造有限公司、至信搏远新材料科技有限公司、江西沃得尔科技有限公司、江西鑫铂瑞科技有限公司、江西欧菲炬能物联科技有限公司、鹰潭吉声乐器有限公司、江西赛鹰智能科技有限公司。这些企业各具特色，有的是传统优势产业改造升级实现“老树发新枝”，有的是掌握核心技术的高新技术企业，有的是产业链上的配套企业。但都有共同点：即拥有领军技术人才队伍，生产技术处于行业前沿，占据细分领域制高点，数字化、智能化、自动化程度高，实现互联网、大数据、人工智能和实体经济的深度融合。', '一路看、一路学、一路思。鹰潭市经济社会发展尤其是产业项目所迸发出的强劲势头和招引项目、招才引智等方面的显著成效，让大家印象深刻、深有感触。胡世忠、王少玄指出，我们要虚心学习请教。学习鹰潭各方面的好经验好做法，尤其是在发展新经济，培育新动能，招引“上天、入地、下海”高精尖项目和高端人才，大干快上、雷厉风行推进项目落地，以及建设标准化、规范化、现代化工厂等方面的好经验好做法。要深入思考学、结合实际学、注重实效学，透过现象看本质，努力做到学有所获、学有所用。要深化合作对接。在已有基础上，强化产业链、创新链、供应链、价值链的对接，形成互通有无、优势互补的良好局面。通过对接合作，不断强链、延链、补链，畅通资源要素循环，积极融入以国内大循环为主体、国内国际双循环相互促进的新发展格局，促进共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>125</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>粤港澳大湾区吉安赣商联盟来吉考察胡世忠与企业家座谈交流</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2020-11-05</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-56674.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['（记者谢炳华）11月4日，市委书记胡世忠亲切会见了来吉考察的粤港澳大湾区吉安赣商联盟企业家，并与他们座谈交流，共叙家乡情谊，共谋未来发展。', '市政协副主席徐年春、市政府一级巡视员邓淑斌，井冈山经开区管委会主任陈庆寿；吉安赣商联盟主席刘昊、名誉主席杨洪、执行主席张志全等参加会见。', '一个月前，我市在深圳举办系列经贸合作活动时，市委、市政府向粤港澳大湾区的乡贤，发出了回乡投资兴业的热忱邀请。一个月后，吉安赣商联盟的40余名企业家相约返乡，于11月3日至6日在吉安投资考察。胡世忠代表市委、市政府，对企业家回乡表示热烈欢迎。他说，在全国上下认真学习宣传贯彻党的十九届五中全会精神的时刻，各位企业家回到家乡投资考察，更进一步感受家乡的发展变化，并通过洽谈合作、深化对接，积极促进吉安与粤港澳大湾区经贸交流合作，助推吉安融入新发展格局、实现高质量发展，这令人感动。', '胡世忠向各位乡贤、企业家表示敬意和感谢。他说，一直以来，大家身在异乡、不忘家乡，发扬庐陵文化“追求卓越、坚守气节”的精髓和“放眼天下、崇文重教、传扬家风、团结拼搏、忠义报国”的行为特质，在多个方面创造了卓越成就。长期以来，广大吉商积极返乡投资创业，热心为家乡宣传推介、牵线搭桥，捐资助学、扶贫济困，为吉安经济社会发展作出很多贡献。特别是，在家乡人民遭受疫情、洪涝灾害等危急时刻，广大吉商怀着对家乡的一片赤诚，慷慨解囊、捐款捐物、奉献爱心。对于大家的大力支持和倾情奉献，家乡人民永远铭记于心。胡世忠指出，“十四五”时期我国将进入新发展阶段，吉安也将站在新的历史起点上，迎来难得的发展机遇。他希望，广大企业家在产业发展、人才引进、科技创新等方面找准切入点、着力点，实事求是开展对接合作。家乡将一如既往为企业、为项目提供优质服务，助力企业家在这片充满生机与希望的土地上施展抱负、大展宏图。', '刘昊、杨洪、张志全作了发言。他们表示，通过学习考察，深刻感受到了家乡日新月异的风貌、良好的产业基础、优良的投资环境、担当实干的作风。粤港澳大湾区吉安赣商联盟将竭尽所能，为家乡经济社会发展献计出力，大力宣传推介吉安，吸引更多企业家来家乡观光考察、投资兴业。', '11月3日至4日，粤港澳大湾区吉安赣商联盟企业家参观考察了高铁新区、吉安高新区、井冈山经开区、庐陵新区。市领导刘志斌、邓淑斌分别陪同。接下来，他们还将前往吉水县、永丰县、泰和县、井冈山市、遂川县考察。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>125</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>我市夯实扫黑除恶基层组织建设基础</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2020-11-05</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-56681.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['（记者罗来刚）今年以来，我市积极探索建立备案管理、优化提升、干部储备等长效常治机制，着力打造“三支队伍”，有效提升村干部队伍建设质量，优化基层组织建设环境，夯实筑牢扫黑除恶基层组织基础。', '建立备案管理机制，打造素质过硬的村党组织书记队伍。由县级党委主导，坚持“思想政治好、能力素质好、遵纪守法好、道德品行好、群众基础好”五好标准，把好村党组织书记人选关，明确“受过刑事处罚或被判处刑罚正在服刑期间”“被认定为涉黑涉恶、‘村霸’”等14种情形不得作为村党组织书记人选；村党组织书记在届中调整变动时，严格履行“事前报告、县级联审、组织考察、会议研究、正式任命”等程序，县级党委组织部门全程参与，并牵头相关部门做好联审、考察、过会等工作，指导乡镇党委对村党组织书记严格任免；参照机关事业单位干部档案建档标准和管理要求，由县级党委组织部门集中管理和专人负责，做到村党组织书记“一人一档”。截至目前，全市2526个村党组织书记均实行了县级党委组织部门履职备案管理，其中62名村党组织书记实行了任免备案。', '健全优化提升机制，打造精练高效的村干部队伍。全面推行村党组织书记、主任“一肩挑”和村“两委”干部交叉任职，全市2526个行政村实行“一肩挑”1864个，占比73.8%，较去年底提高33.8个百分点，2424个村实行村“两委”成员交叉任职，占比96%，有效形成了村“两委”班子推动扫黑除恶专项斗争合力；全面落实村“两委”干部常态化县级联审制度，坚持凡进必审、凡动必审，从源头上把好村“两委”干部人选关，严防家族、宗族、宗教势力染指基层政权。全市通过部门联审排查、清理涉黑涉恶和受过刑事处罚等不符合条件的村“两委”干部249人，其中受过刑事处罚173人；切实抓好市委关于提高村干部报酬待遇实施办法的落实落地，明确基础报酬和绩效报酬标准，确保村党组织书记年平均报酬达到3.5万元，其他“两委”干部报酬按不低于村党组织书记报酬80%标准落实。', '完善干部储备机制，打造朝气蓬勃的村后备队伍。按照每村3~6人的数量标准，进一步拓宽选人用人渠道，重点从致富能手、外出务工经商能人、本乡本土大学毕业生、乡村教师、乡村医生、大学生村官等“六类人员”中选拔政治素质好、道德品质优、能带领群众共同致富的党员群众作为村级后备人才大力培养；建立村级后备干部人才储备库，完善信息台账，将村级后备干部纳入村“两委”干部培训计划，并依托市、县、乡、村四级教育培训资源，采取集中办班、专题辅导、学习考察等方式，进行党建业务、扫黑除恶、乡村振兴等专题培训，提高理论素养和致富带富能力；积极推荐后备干部到村任职或参与具体工作，注重政治素质考核，对涉嫌违纪违规的及时清退，并按程序及时补充，保持后备干部数量和结构的动态平衡。截至目前，全市共选拔培养村级后备干部9395名。其中，党员后备干部4603名，村党组织书记后备人选2670名。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>125</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>我市党政代表团在深圳南山区学习考察胡世忠王少玄率团曾湃黄湘岳参加座谈</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2020-09-19</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-55761.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团在深圳南山区学习考察 胡世忠王少玄率团 曾湃黄湘岳参加座谈', '（记者谢炳华）对接合作更深层次，协同发展更高水平。9月18日，省人大常委会副主任、市委书记胡世忠，市委副书记、市长王少玄率市党政代表团来到深圳市南山区学习考察。深圳市南山区委书记曾湃，区委副书记、区长黄湘岳，区委常委、区委（政府）办主任胡芸参加座谈或陪同。市领导郭素芳、刘志斌、邓淑斌，以及井冈山经开区党工委书记彭学凯参加学习考察。双方就新发展格局下进一步加强全方位、深层次对接合作，尤其是深化“1+3+2”对接合作，助力吉安深度融入粤港澳大湾区，承接南山区改革开放前沿辐射和带动，推动区域协同发展等方面进行了深入交流。', '建立对接合作机制以来，市党政代表团每年都会来到南山区“走亲戚”“取真经”。每一次来，都有新变化、新震撼、新收获。今年上半年，面对突如其来的新冠肺炎疫情冲击，南山区实现GDP3042亿元，增长2.5%，总量占深圳市的24%。新发展理念，在这里都能找到鲜活的实践。胡世忠、王少玄一行先后参观考察了深圳迈瑞生物医疗电子股份有限公司、大沙河生态长廊、南头古城，深刻感受到了南山区创新创业的强劲动力和对于生态文明建设的坚定执着及对于人文历史深入挖掘、传承和保护。', '座谈时，胡世忠、王少玄对南山区统筹推进疫情防控和经济社会发展各项工作所取得的成绩，表示由衷敬佩；对南山区始终保持高度的政治站位、深厚的老区情怀，“特区带老区”，大力支持吉安发展，持续推动两地合作对接深化务实表示衷心感谢。他们说，南山区先进的发展理念、创新的发展思路和强劲的发展态势，让我们进一步明确了努力的方向和标杆。要学习南山区敢为人先、勇往直前的精神品格，学习南山区干部干事创业的精气神、工作方法和目标要求，推动吉安高质量跨越式可持续发展。他们表示，下一步，将深入贯彻落实习近平总书记视察江西重要讲话精神，以大开放促进大发展，推进内陆开放型经济试验区建设，积极主动融入以国内大循环为主体、国内国际双循环相互促进的新发展格局。他们希望，两地在已有基础上，进一步深化在人才、产业、科技创新和教育等方面的合作，推动合作之花结出更多香甜硕果。', '曾湃、黄湘岳对吉安市党政代表团的到来表示热烈欢迎。他们说，吉安作为革命老区，经济社会发展各项工作取得了亮眼成绩，正以日新月异风貌决胜全面建成小康社会，这令人振奋、令人鼓舞。他们表示，随着赣深高铁的加快建设，未来两地对接合作将越来越方便、越来越密切。我们将按照“1+3+2”对接合作模式，进一步加大资金、人力、技术和产业转移等方面力度，持续提升吉安（深圳）产业园南山示范园区建设，推动对接合作不断深化，携手实现共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>125</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>我市党政代表团在深圳学习考察王伟中会见胡世忠王少玄一行</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2020-09-18</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-55742.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['（记者谢炳华）为深入贯彻落实习近平总书记视察江西重要讲话精神，推进改革开放走深走实，深度融合粤港澳大湾区，进一步深化与深圳“1+3+2”对接合作，9月17日，省人大常委会副主任、市委书记胡世忠，市委副书记、市长王少玄率市党政代表团在深圳市学习考察。广东省委副书记、深圳市委书记王伟中会见了胡世忠、王少玄一行。深圳市领导高自民、王强，市领导刘志斌、邓淑斌，以及井冈山经开区党工委书记彭学凯参加会见。', '会见时，王伟中对市党政代表团一行的到来表示热烈欢迎。他说，吉安是革命老区，支持革命老区发展，是深圳义不容辞的责任。我们将认真贯彻落实习近平总书记重要讲话精神，一如既往推动两地对接、一以贯之开展务实合作，在全面深化改革、全面扩大开放上加强互学互鉴，在产业发展、农产品流通、文化旅游、柔性引才和创新金融平台支持等方面深化合作，努力实现优势互补、互利共赢，共谱协作发展新篇章，在构建以国内大循环为主体、国内国际双循环相互促进的新发展格局中实现更大作为。', '胡世忠对深圳市的热情接待表示感谢。他说，亲戚越走越亲，近年来，深圳与吉安的对接合作日益密切。特别是2018年以来，两地采取“1+3+2”对接合作模式，聚焦产业这一核心，在农产品流通、文化旅游、柔性引才三个方面重点发力，加快建设深圳党员干部教育培训基地、深圳群众生态康养基地“两个基地”，开启了“特区带老区”发展的崭新篇章，取得明显成效。胡世忠希望，两地在已有基础上进一步深化对接，持续推动各项合作落地见效，吉安将切实承接好粤港澳大湾区辐射带动，在互惠互利中实现合作共赢。', '为进一步深化人才对接，胡世忠、王少玄一行走访了深圳职业技术学院，与该院党委书记、校长杨欣斌等进行了座谈交流。胡世忠说，近年来，得益于深圳职业技术学院的大力支持，吉安职业技术学院实现高质量跨越式发展，为吉安产业发展提供了有力的人才支撑。胡世忠希望，双方能继续深化合作，把这一良好合作模式延续下去，力争打造成为全国品牌。杨欣斌表示，深圳职业技术学院与吉安职业技术学院对接已有6个年头，目前已进入第三个合作阶段，我们将一如既往、一往情深、一心一意推动对接合作不断向“3.0和4.0”版深化，确保取得实实在在的效果。在校期间，胡世忠、王少玄还看望了吉安职业技术学院进修师生，勉励他们珍惜来之不易的机会，好好学习、提升水平，学成归来后为老区振兴发展贡献力量。', '在产业转型升级进程中，高新技术投资发挥着十分重要的作用。胡世忠、王少玄一行走访了深圳市高新投集团有限公司，与该公司董事长刘苏华进行了富有成效的洽谈交流。胡世忠、王少玄简要介绍了吉安产业发展尤其是高新技术产业、战略性新兴产业发展情况，希望该公司发挥自身优势，结合吉安高新技术产业发展特点，在吉安设立创新金融平台，促进吉安产业转型、技术升级。刘苏华表示，十分愿意在吉安设立平台，这既可以助力老区高质量发展，又能拓展公司业务，实现双赢。我们将立即着手启动有关工作，力争项目早日落地见效。', '学习考察期间，市党政代表团一行还参观了大潮起珠江———广东改革开放40周年展览、莲花山公园、深圳市城市规划展等，感受改革开放以来当地经济社会发展取得的巨大成就，学习深圳改革创新和城市规划建设等方面的好经验、好做法。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>125</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市委常委会召开会议胡世忠主持</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2020-09-15</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-55686.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['（记者谢炳华）9月14日，市委常委会召开会议，传达学习习近平总书记近期重要讲话精神，以及省有关会议精神，研究我市贯彻落实意见。市委书记胡世忠主持会议。', '会议强调，要深入学习贯彻习近平总书记在纪念中国人民抗日战争暨世界反法西斯战争胜利75周年座谈会上的重要讲话精神，始终坚定正确政治方向，切实增强“四个意识”、坚定“四个自信”、做到“两个维护”。要持续发扬斗争精神，大力弘扬伟大抗战精神，在加快构建以国内大循环为主体、国内国际双循环相互促进的新发展格局上展现更大作为。要牢记执政为民宗旨，牢固树立以人民为中心的发展思想，用真情实意保障和改善民生。要大力传承红色基因，以抗战精神和抗日战争伟大实践为生动教材，加强爱党爱国爱社会主义教育，确保对党绝对忠诚的红色基因代代相传。', '会议强调，要认真学习贯彻习近平总书记在全国抗击新冠肺炎疫情表彰大会上的重要讲话精神，按照全省应对秋冬季疫情防控工作电视电话会议要求，强化政治担当，弘扬伟大抗疫精神，时刻绷紧疫情防控之弦，落实好持续抓、具体抓、有效抓的要求，抓紧抓实秋冬季疫情防控工作。要科学精准防控，在抓好能力、物资、应急准备，持续巩固全民防控疫情大格局的同时，紧盯重点人和物、重点场所，抓住关键环节和风险点，精准抓好外防输入、内防反弹工作。要把伟大抗疫精神转化为担当实干的强大动力，提速三季度、冲刺下半年，奋力夺取疫情防控和经济社会发展“双胜利”，决战决胜脱贫攻坚，确保全面建成小康社会和“十三五”规划圆满收官。', '会议强调，要深入学习贯彻习近平总书记在科学家座谈会上的重要讲话精神，强化科技创新意识，把科技创新摆在发展全局的战略位置，以更大的决心和毅力推动吉安科技创新迈出坚实步伐。要加大科技创新力度，紧紧围绕电子信息等主导产业和优势产业，瞄准核心技术强化研究创新；大力培育科技创新主体，突出企业的创新主体地位和主导作用；认真落实人才引进办法，确保关键人才引得进、留得住；继续加强与中国工程院、清华大学等对接，争取更多科研成果在吉安转化应用。要浓厚科技创新氛围，全面落实“一把手”抓“第一生产力”责任，鼓励和引导广大企业增强创新意识、开拓意识，用技术创新引领企业发展，促进产业升级。', '会议传达了省党政代表团赴湖北、湖南学习考察情况。会议强调，要深入学习贯彻习近平总书记视察江西重要讲话精神，认真落实省委、省政府的工作要求，勇于向好的学、向强的比、向高的攀，做好学习借鉴、对接合作、分析研究文章，做到心中有数，加快推动吉安高质量跨越式可持续发展。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>125</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>我市党政代表团在厦门学习考察胡昌升胡世忠庄稼汉王少玄进行深入交流座谈</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2020-01-07</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-49737.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团在厦门学习考察 胡昌升胡世忠庄稼汉王少玄进行深入交流座谈', '（记者谢炳华、任洪广）为积极主动融入海西经济区，深化与厦门“2211”对接合作模式，推动更深层次改革开放，1月6日，我市党政代表团在福建省厦门市学习考察。福建省委常委、厦门市委书记胡昌升，厦门市委副书记、市长庄稼汉与省人大常委会副主任、市委书记胡世忠，市委副书记、市长王少玄进行深入交流座谈。厦门市领导黄文辉、黄晓舟，市领导李克坚参加座谈。', '胡昌升对我市党政代表团表示欢迎。他说，近年来，吉安市委、市政府牢记习近平总书记的殷殷嘱托，按照江西省委、省政府的决策部署，大力弘扬跨越时空的井冈山精神，经济社会发展取得的成绩令人振奋，令人钦佩。一直以来，厦门、吉安两地有着亲人般的情谊和深厚的合作渊源。特别是近年来，两地交流交往日益密切、合作领域不断拓展。未来，厦门将务实推进两地在产业项目对接、高新区合作、投洽会招商、旅游推介、职院合作办学、干部挂职交流等方面的交流合作，努力实现互利共赢，与吉安携手推动经济特区与革命老区的合作发展再上新台阶。', '胡世忠说，这次来厦，既是学习之旅，也是深化合作之旅。我们要强化“四个学习”，即学习厦门在经济高质量发展中保持产业质量高、生态发展优、人才聚集多、群众评价高等方面的好经验好做法；学习厦门在融入“一带一路”，立足海西经济区基础上，形成的具有全球眼光、国家战略、务实高效改革开放好经验好做法；学习厦门在改革创新中的成功经验；学习厦门干部群众干事创业的精气神，尤其是高标定位、高效运作的好经验好做法。我们要深化“一个模式”，即与厦门“2211”对接合作模式，依托厦门大学、厦门技师学院、火炬高新区、自贸区厦门片区两校两区和厦门港、厦门国际投资贸易洽谈会吉安馆这两个平台，加快推动两地交流合作步伐。下一步，我们希望能进一步强化“三个对接”，即强化产业对接，以厦门为总部和研发基地，积极承接前沿辐射、产业转移；强化人才对接，通过柔性引才机制，充分发挥厦门人文旅游、生物技术、农业技术等方面人才优势，助力高质量发展；强化市场对接，积极主动融入“一带一路”，发挥“高铁效应”和旅游资源优势，借助各类平台宣传推介两地丰富资源，共同为实现中国梦作出老区和特区的新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>125</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>我市党政代表团在延安学习考察胡世忠王少玄率团</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2020-08-10</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-54959.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['\u200b （记者谢炳华）为深入贯彻落实习近平总书记视察江西重要讲话精神，推进内陆开放型经济试验区建设，深化两地对接合作，推动革命老区高质量发展，8月9日，我市党政代表团来到陕西省延安市学习考察。', '省人大常委会副主任、市委书记胡世忠，市委副书记、市长王少玄率团。陕西省委常委、延安市委书记徐新荣，延安市委副书记、市长薛占海陪同。市领导刘洪、刘志斌、邓淑斌，井冈山经开区党工委书记彭学凯参加学习考察。延安市委常委、常务副市长孙矿玲，延安革命纪念地管理局党委书记刘亚那参加座谈交流。', '从革命摇篮井冈山到革命圣地延安接受革命传统教育，是市党政代表团学习考察的主要内容之一。胡世忠、王少玄一行怀着无比崇敬之情参观了延安革命纪念馆、宝塔山、杨家岭革命旧址。每到一处，代表团成员都认真地看陈列、听讲解，重温中国共产党领导人民取得全国革命胜利的光辉历程，更系统、直观地接受革命传统教育，尤其是延安精神的教育。', '胡世忠、王少玄一行还参观了延安学习书院和延安高新区展览馆。学习书院于2017年5月4日揭牌开放，是全国首家宣传习近平新时代中国特色社会主义思想的实体平台，也是广大市民、游客读书研讨的新空间。延安市高新区立足资源、区位、政策等优势，构建了以能源科技产业为主导，电子信息和节能环保为配套，其他先进制造业和现代服务业为协同的“122”高新技术产业体系。代表团成员深刻感受到，延安在传承红色基因、打赢脱贫攻坚战、推动产业转型升级、发展新经济新业态、推进生态文明建设、提升城市人居环境等方面所取得的成绩。', '当日下午，双方进行了座谈交流。胡世忠对延安市委、市政府的热情接待表示感谢。他说，虽然此次学习考察时间不长，但感触颇深、深受启发。我们更加深刻地感受了延安精神的伟大，这与井冈山精神是一脉相承的，时刻激励着我们奋力赶超、奋勇争先；更加深刻地感觉到你们大力弘扬延安精神，推动经济社会高质量发展的生动实践。', '胡世忠简要介绍了吉安经济社会发展情况。他说，习近平总书记十分关心关怀陕西、江西等革命老区，对加快推进革命老区高质量发展提出了殷切希望。延安和吉安都是革命老区，希望能进一步推进“三个对接”，即产业对接、农产品对接、文化旅游对接，做到相互学习，优势互补、共同进步，不断开辟合作对接新境界，在加快革命老区高质量发展上勇争先。', '徐新荣对我市党政代表团一行的到来表示欢迎。他说，近年来，吉安深入贯彻落实习近平总书记视察江西重要讲话精神，全面贯彻新发展理念，扎实推动高质量发展。尤其是面对突如其来的新冠肺炎疫情，坚持“两手抓、两手硬”，统筹推进疫情防控和经济社会发展，取得明显成效，这令人鼓舞。吉安政治站位高、体制机制活、发展成效好、脱贫质量高，让我们深受启发。', '徐新荣希望，双方以此为新的起点，建立定期交流推进机制，加强走动、来往，不断加强在产业、农产品、文化旅游等方面的对接，携手谱写新时代革命老区追赶超越新篇章，让井冈山精神和延安精神放射出新的时代光芒。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>125</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>我市党政代表团在延安学习考察胡世忠王少玄率团刘志斌参加学习考察</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020-08-10</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-54962.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['吉安市人民政府_我市党政代表团在延安学习考察 胡世忠王少玄率团 刘志斌参加学习考察', '\u200b\u200b （记者谢炳华）为深入贯彻落实习近平总书记视察江西重要讲话精神，推进内陆开放型经济试验区建设，深化两地对接合作，推动革命老区高质量发展，8月9日，我市党政代表团来到陕西省延安市学习考察。', '省人大常委会副主任、市委书记胡世忠，市委副书记、市长王少玄率团。陕西省委常委、延安市委书记徐新荣，延安市委副书记、市长薛占海陪同。市领导刘洪、刘志斌、邓淑斌，井冈山经开区党工委书记彭学凯参加学习考察。延安市委常委、常务副市长孙矿玲，延安革命纪念地管理局党委书记刘亚那参加座谈交流。', '从革命摇篮井冈山到革命圣地延安接受革命传统教育，是市党政代表团学习考察的主要内容之一。胡世忠、王少玄一行怀着无比崇敬之情参观了延安革命纪念馆、宝塔山、杨家岭革命旧址。每到一处，代表团成员都认真地看陈列、听讲解，重温中国共产党领导人民取得全国革命胜利的光辉历程，更系统、直观地接受革命传统教育，尤其是延安精神的教育。', '胡世忠、王少玄一行还参观了延安学习书院和延安高新区展览馆。学习书院于2017年5月4日揭牌开放，是全国首家宣传习近平新时代中国特色社会主义思想的实体平台，也是广大市民、游客读书研讨的新空间。延安市高新区立足资源、区位、政策等优势，构建了以能源科技产业为主导，电子信息和节能环保为配套，其他先进制造业和现代服务业为协同的“122”高新技术产业体系。代表团成员深刻感受到，延安在传承红色基因、打赢脱贫攻坚战、推动产业转型升级、发展新经济新业态、推进生态文明建设、提升城市人居环境等方面所取得的成绩。', '当日下午，双方进行了座谈交流。胡世忠对延安市委、市政府的热情接待表示感谢。他说，虽然此次学习考察时间不长，但感触颇深、深受启发。我们更加深刻地感受了延安精神的伟大，这与井冈山精神是一脉相承的，时刻激励着我们奋力赶超、奋勇争先；更加深刻地感觉到你们大力弘扬延安精神，推动经济社会高质量发展的生动实践。', '胡世忠简要介绍了吉安经济社会发展情况。他说，习近平总书记十分关心关怀陕西、江西等革命老区，对加快推进革命老区高质量发展提出了殷切希望。延安和吉安都是革命老区，希望能进一步推进“三个对接”，即产业对接、农产品对接、文化旅游对接，做到相互学习，优势互补、共同进步，不断开辟合作对接新境界，在加快革命老区高质量发展上勇争先。', '徐新荣对我市党政代表团一行的到来表示欢迎。他说，近年来，吉安深入贯彻落实习近平总书记视察江西重要讲话精神，全面贯彻新发展理念，扎实推动高质量发展。尤其是面对突如其来的新冠肺炎疫情，坚持“两手抓、两手硬”，统筹推进疫情防控和经济社会发展，取得明显成效，这令人鼓舞。吉安政治站位高、体制机制活、发展成效好、脱贫质量高，让我们深受启发。', '徐新荣希望，双方以此为新的起点，建立定期交流推进机制，加强走动、来往，不断加强在产业、农产品、文化旅游等方面的对接，携手谱写新时代革命老区追赶超越新篇章，让井冈山精神和延安精神放射出新的时代光芒。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>125</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>年上半年市政府工作报告重点任务推进落实情况</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020-07-24</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10186527.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['吉安市人民政府 重大战略部署落实 2020年上半年市政府工作报告重点任务推进落实情况', '聚焦便利化要求，深化“放管服”改革，建立政务服务好差评制度，全面推行“证照分离”，探索企业生命全周期“一链办理”，市县两级依申请类“最多跑一次”事项实现全覆盖。', '120台政务服务“好差评”评价器，并完成线上评价和线下评价接入。企业生命全周期“一链办理”工作正在开展调研。截至目前，市县两级依申请类政务服务事项实现“最多跑一次”，占比达', '发挥吉安职业技术学院龙头带动作用，吉职院所有教学资源向中职校全面开放，全市中职校分批选派教师到吉职校观摩学习，从专业组长、专业教师两个方面开展师徒结对，帮助中职校建设重点专业；加强校企合作对接，指导中职校开展订单培养、送教到企、顶岗实习等，提升服务职业教育能力，目前，每所中职校均与当地', '吉安幼儿师范高等专科学校目前已完成项目征地拆迁、可研、土地林地报批、地勘、管线迁移施工、用地手续办理，正在进行图审和预算编制，清表、三通一平等工作，', '各县（市、区）已形成了辖区内耕地初步划分清单成果，省厅拟于近日组织专家开展评审。截止目前，全市累计实施轻中度污染耕地安全利用面积', '聚焦“两不愁三保障”标准和饮水安全，坚持“四个不摘”“四个不减”，坚决完成中央脱贫巡视“回头看”和成效考核反馈问题整改，确保剩余', '1329人“四类对象”危改任务全部竣工；调整健康扶贫四道保障线报账次序，所有贫困户住院报销达到', '90%的适度要求；强化控辍保学，确保全市贫困家庭子女义务教育阶段不因贫失学辍学；对剩余未脱贫人口进行遍访，针对发现的“两不愁三保障”突出问题，着力补齐各项短板、堵漏洞、强弱项，夯实工作基础，全市最后的贫困人口', '积极应对疫情影响，加强不稳定脱贫户、边缘户预警监测，加大临时救助、就业补贴力度，加快扶贫项目、扶贫车间复工复产，开展消费扶贫行动，把疫情对脱贫的影响降到最低。', '18条措施》，围绕“清零、转型、接续、督战”要求，落实复产复工、税收减免、贷款贴息、产品销售等相关扶持政策。加强不稳定脱贫户、边缘户预警监测，做到应纳尽纳，对疫情中生活遇到临时困难的群众进行临时救助，对新招用建档立卡贫困户人员并实际务工', '巩固提升成果，强化志智双扶、遇困即扶、防贫责任险举措，开展脱贫攻坚普查，探索建立解决相对贫困长效机制。', '下发全市“遇困即扶”工作机制实施方案，推行“一套排查识别标准和程序、一套应急救助办法、一套及时帮扶措施、一套组织保障体系”的四个一防贫机制。截至目前，排查认定“遇困即扶”对象', '2470户，参照建档立卡贫困户的各项扶持政策和扶持标准，按照“缺什么、补什么”的原则综合帮扶施策，实施住房、就业、健康、教育等专项扶持，遇困群众的“两不愁三保障”短板得到补齐，有效堵塞了致贫返贫的源头。脱贫攻坚普查工作进展有序，已完成人员选调、设备采购、清底摸查等前期工作，全方位组织开展人员培训，', '大力发展乡村致富产业，培育壮大扶贫合作社，强化扶贫龙头企业、致富带头人、产业发展指导员培育，认定市级扶贫龙头企业', '54家。推进乡村生态和生活环境整治，全面治理贫困村生活垃圾、污水和面源污染，实现贫困村美丽乡村建设全覆盖。强化乡风文明建设和乡村治理，树立和弘扬奋进有为、主动脱贫的先进人物和典型事例', ',讲好身边“脱贫故事”。强化移民安置点后续管理，保障建档立卡搬迁人口享受产业发展、医疗、教育、社会保障等扶贫政策。', '印发了《吉安市城镇贫困群众脱贫解困工作评估验收方案》，进一步明确了城镇贫困群众脱困标准和验收程序，明确了目标任务和时间节点。目前，各地已陆续通过县委、县政府名义召开城镇脱贫解困专题部署会议，召开培训班，组织街道（乡镇）、居（村）委会和帮扶干部对城镇贫困群众“两不愁三保障”和就业、社保等政策落实情况进行逐户评估和登记。', '打赢碧水保卫战，推进长江经济带“共抓大保护”攻坚行动，抓好赣江水环境和中心城区水生态综合治理，推进后河水系连通。', '26个获省政府批复为保护区，万安县枫树坪备用水源保护区划分技术报告已报省厅申请评审；全市', '41个已完成保护区划分技术报告并召开专家技术审查会，待省政府批复保护区。二是全力推进饮用水源保护区整治，', '160个排污口基础上，分类梳理、动态管理并积极开展溯源分析，对筛选出需要整治的入河排污口按照“一口一策”的工作原则，逐个整治销号，目前，存在问题的', '1605公里。中心城区污水管网改造工程（第三阶段）已完成招标，正在推进管网排查工作，特别是对螺湖南岸雨污管网存在的错接、混接等问题开展了全面普查检测，完成箱涵、雨污水管网检测约', '460M已全部完成；过青东公路顶管始发井、接收井已全部完成；加压泵站土建基础完成了', '着力防范化解金融、政府债务、房地产等重点领域风险，积极应对疫情可能引发的贷款逾期和信用违约风险，基本办结非法集资存量案件，有效处置不良贷款。', '积极开展防范非法集资、非法放贷等非法金融活动宣传教育，创建“金融吉安”微信公众号，督促各地、各金融机构加强非法集资常态化防范，大力推进民间融资机构专项整治和小额贷款公司监管评级工作，加强非法集资、非法放贷等非法金融活动风险排查，累计转办涉非法集资线索', '一是严格按照财政部颁布的《地方政府专项债务预算管理办法》的规定，专项债务收支按照对应的政府性基金收入、专项收入实现项目收支平衡，不擅自调剂政府性基金科目。二是建立了政府偿债保障机制，切实履行偿债责任。按照“谁举债、谁偿还、谁承担责任”的原则，落实偿还责任。凡属政府负有偿还责任的直接债务，举债部门（单位）应会同同级财政部门制定具体的偿还计划，将还本付息资金足额纳入预算安排，按期及时偿还。三是规范融资担保行为。除国家出台重大战略，明确可以出具担保函、承诺函和使用外国政府或者国际经济组织贷款进行转贷外，政府、财政及有关部门（单位）不再为其他任何企业、单位的债务承担偿债责任，不得出具担保函、承诺函、安慰函等。四是规范平台公司投融资行为。强化平台公司债务风险管控，规范平台公司融资信息披露，严禁平台公司融资与地方政府信用挂钩，捆绑政府和财政，坚决打消平台公司和金融机构“两个幻想”。', '抓好各领域风险防控，深化严打暴恐专项行动，依法处置敏感案件、稳控重点人员，维护国家安全。', '深化严打暴恐专项行动，以境外恐怖势力“回流”为情报重点，摸排了流入流出涉恐重点敏感国家在我市人员底数和活动情况；加强对互联网、短信平台敏感信息的监测处置，防止境外涉恐信息、音视频向境内传播，进一步加强《反恐怖主义法》执法检查。截止目前，以反恐办名义下发整改通知书', '300余起，未发生涉军重点人员、群体聚集上访事件，有效防止了各类重点群体和人员在重点敏感时期聚集闹事。', '加快重大基础设施项目建设，抓好井冈山航电枢纽、万安枢纽二线船闸、新赣江大桥等续建项目。', 'II段桥机轨道安装完成；船闸电气一、二次接线己完成，电气试验己完成，已进行有水调试；船闸计算机监控系统分项验收；枢纽处管理房配电室配电柜、变压器己安装就位。', '64%，已完成招投标工作，确定了施工单位；主线征地工作基本完成，森林植被恢复费和耕地开垦费已缴交。遂川到大余高速正在研究新增线路方案，完善工可报告。大广高速吉安至南康段扩容改造用地预审已取得吉安市沿线', '5月空军已正式复函同意桐坪机场升级为通用机场，桐坪机场二期改扩建前期工作已全面启动，目前正在落实新增用地', '742亩用地报批，对工可进行修编，待获得用地预审和选址意见书后即送达省发改委报批工可。', '樟吉高速扩容改造项目正在优化工可报告，完成了铁路交叉口初步设计方案，完成了地质外业调查，正在整理资料。长赣铁路已于去年', '4月进行了可研鉴修，正全力推进站房面积、土地综合开发和征收包干等框架协议签署等前期工作，力争年底控制性工程先期开工。温武吉铁路已由中铁上海设计院（简称上铁院）开展预可研勘察设计工作，今年', '4-5月，上铁院项目组多次到我市进行现场踏勘和调研座谈，目前正结合我市意见对建设标准和线路引入方案进行比选研究。', '800千伏特高压直流工程在安福县召开首基组塔试点仪式。目前，塔基工程基本完成，项目建设有序推进。', '围绕“十四五”规划编制和新一轮苏区振兴，对接政府专项债政策，包装、实施和储备一批重大项目。', '296个，并将对接落实任务分解到各地各部门，目前已有“吉泰走廊建设京九电子信息产业带核心区”等', '60余个事项省直有关单位初步表示将给予大力支持。向国家发改委和省苏区办报送《新时代支持吉安等原中央苏区振兴发展政策研究报告》和《关于新时代支持吉安等原中央苏区振兴发展的意见（吉安建议稿）》，同时梳理提报了', '2020年第二批次地方政府专项债项目申报工作，上报第二批次地方政府专项债获批总额度', '35.91亿元。积极跟踪对接中央、省扩大有效投资政策，着力谋划推进一批“两新一重”项目，今年', '提升线下消费，全面推进复商复市，引入购物中心、品牌连锁等实体店，打造高品质步行街和特色商业街，激活假日消费市场。', '今年以来，全市积极发挥电子商务的独特作用，大力促进线上消费，推进线上教育、网络诊疗、线上文化娱乐、在线办公等新兴消费业态，“宅经济”、服务消费需求潜力得到进一步释放。引导电商企业与合作社对接，帮助贫困户销售农产品，', '扩大新兴消费，多渠道增加文体、健康、家政、托幼等服务供给；中心城区加快打造儒林里、庐陵人文谷、古后河绿廊等集美食与文化体验为一体的夜间经济示范街区，各县市打造', '500万元夜间经济专项发展资金，打造一批功能完善、业态多元、管理规范的夜间经济集聚区，', '拓展农村消费，推进国家电子商务进农村示范县建设，基本完成县乡农贸市场建设改造，每个县市区建成', '23个生猪生态循环养殖小区建设，促进屠宰加工、冷链配送一体化，健全动物防疫体系，生猪产能基本恢复正常水平。', '6611”工程和井冈蜜橘三年计划，建设标准园、提升低产园，打造“一橘一柚”果业品牌，年内新增六大富民产业种植面积', '井冈山成功创建全域旅游示范区，井冈山大陇村、菖蒲村入选全国首批乡村旅游重点村，神山村、马源村、黄坳村被省文旅厅推荐文旅部申创全国乡村旅游重点村；吉州窑核心景区、农业观光旅游区、陶瓷文化产业园区三大板块建设正在有序推进，景区主、次入口、遗址公园二期、吉州窑大道景区段、印象吉州窑（一期）、茅庵岭保护棚等工程项目正在建设，创意工坊和居住小区已经完成土地出让，吉州窑大道', '5A景区工作已成立了县党政一把手挂帅的创建工作领导小组，组建工作专班，安排了专项资金，即将印发创建方案。', '加快旅游集聚区建设运营，开发提升中心城区后河游，推动万安贵澳鲜花小镇开业、新干金果世界招商、吉水进士文化园开园，推进泰和蜀口生态岛、青原', '5个由市场主体运营的集聚区均已完成招商，集聚区内产业业态逐步完善，“吃住行娱购游”配套六要素逐渐完善；受疫情影响，万安贵澳鲜花小镇尚未开业，预计在', '9月份开园；新干县金果世界旅游集聚区已与康辉集团、深圳捷晨公司（康养旅游项目）达成投资意向，完成项目选址和规划编制；泰和蜀口生态岛、青原', '市城管局已督促遂川县、永新县城管部门按照“属地负责”原则，做好长赣铁路沿线环境问题排查工作，建立整治工作制度。目前，遂川县已召开动员会，制定了城乡环境整治工作要点和考评方案，将长赣铁路沿线环境纳入考评内容，对城乡环境整治情况每月督查一次，共清理卫生死角', '12日，市发改委到遂川、永新等长赣铁路沿线地方督促加快站场区域规划管控工作，并与赣龙公司和省铁投沟通协调，共同推进前期工作。', '遂川县桃源汤湖旅游集聚区（最美梯田旅游集聚区）内公路提升项目的安防和绿化工程基本完成，桃源景区内的标识系统基本完善，游客中心布置基本完成，汤湖景区内石角茶园的提升已形成初步方案；推进三湾红色文化旅游集聚区，完善传承红色基因景观带，加快三湾改编景区提升工程，打造“三湾人家”，建设龙源口大捷广场、桃花谷、大捷纪念园，龙源口大捷景区旅游公路、景区游客服务中心、停车场等项目。', '深化研发投入攻坚行动，做大“科贷通”规模，设立科技创投基金和创新券，引导企业把政策红利转化为创新实力，力争全市规模工业企业研发投入占营业收入比重突破', '通过加大财政投入，建立研发导向的项目支持机制，每个县市区都设立了奖补政策，引导企业加大研发投入。加强与省级科技、统计部门的工作对接，及时调度推进', '1.115亿元，“科贷通”业务实现市内全覆盖。科技创投基金方面，已联合市金融办起草了具体实施意见，计划在各县（市、区）逐步设立创业投资基金，采取市、县（市、区）联动的方式，引导各类社会机构等在我市设立创业投资基金，扶持初创期及早中期科技企业发展。', '加快井冈山农业科技园创新研发园、智能农机园、冷链物流园建设，组建绿色食品、智能农机研究院，引进大院大所、龙头企业，力争年内获批国家级农高区。', '1千万元用于科研平台建设。目前，井冈山农高区已进入第二批国家农业高新技术产业示范区现场考察范围，科技部将于', '同华南农业大学罗锡文院士团队进行了对接，邀请了江西农业大学、华东交通大学、江西省农业科学院、江西省农业机械研究所等单位农机专家商讨研究院建设事宜，进一步落实合作协议，明确农机研究院的建院模式和研究方向，确定建院方案。大力引进大院大所、龙头企业，井冈山农科园已与中科院地理所、中国农机院等', '8家。推动上海华羿高端智能农机装备研发与制造项目落地建设，做好中合三农水稻良种繁育及示范基地的管护和农产品精深加工区建设。江西京鼎农产品供应链（冷链仓储物流）一期主体结构已完成', '2000套人才公寓，开展突出贡献人才评选，让庐陵大地成为集集人才、实现梦想的高地。', '形成《关于完善“庐陵英才”计划加快人才集聚的十条措施》《市“双百计划”》《吉安市中心城区人才住房保障管理实施细则（试行）》等', '50万元。组织泰和江西航天经纬化工有限公司和江西联创宏声万安电子有限公司申报了中央引导地方科技发展专项定向项目，预计每项可获资助经费', '深化科技入园工程，加强生产力促进中心建设，健全科研成果交易市场，促进“产学研用金”一体化通道。', '开展科技特派员和专家精准帮扶行动，深化科技入园工程，征集了省级科技特派员和企业技术需求', '16项。“科贷通”业务实现市内全覆盖，统筹全市各县（市、区）新增“科贷通”风险补偿金', '布局总部经济、会展经济、旅游经济等服务业态，加快科创中心、海洋世界、商业综合体企业招商、品牌引入。', '引进鸿星美凯龙集团商业综合体，与福建龙川集团就海洋世界入住达成意向合作协议，引进香江集团洽谈香江科创中心入驻运营。', '提高吉泰走廊集聚度，推动井冈山经开区西区转型升级、富滩工业园扩区调区、金鸡湖创新小镇加快成型，完善金融产业园、互联网产业园综合配套，促进企业入驻、产业集聚，年内“一区四园”营业收入达到', '669亩；“一区四园”的总体规划通过专家组评审，控规已原则通过市中心城市规划委员会办公室第', '70%；商业街区和体育馆已完成方案设计；已草拟《吉安市金鸡湖创新小镇数字经济示范基地建设方案》、创新大厦和工业设计中心运营方案，正在与有关方面对接合作。成功引进深圳砺芯半导体设计、金黄光智慧照明市场推广、智赣', '119等新经济、新业态项目成功入驻。洽谈引进配套的游泳馆项目，现处于委托拍卖公司公开拍租程序', '推进吉安高新区国家自主创新示范区建设，推动凤凰园区镇区互动发展，打造大企业组团产城融合示范区，力争吉安高新区营业收入达到', '200万加入吉安市科贷通风险补偿金池，小林电子、盛丰精密、祥和物流、鑫晟电子、华荣电子、吉丰金属、金安林产、久晟油茶、红点印刷、星瀚包装、盈顺科技等', '2条道路正在设计施工图，吉安高新区职业技术学校建筑主体、管网、道路已完工，正在进行绿化和装修，凤凰消防站完成招标，已进场施工。白云路南延（盘龙路至深圳大道段）、盘龙路东延已完工；深圳大道西延、彩虹路南延、白云路南延（深圳大道至规划路段）已完成施工招投标。生态停车场和临时夜市工程正在设计施工图。', '大力推广“以克论净，深度清洁”保洁模式和开展“烟头不落地、吉安更美丽”行动，市中心城区道路机扫率达', '253.8亿元。市大数据中心正式投入运营，整合了公安“天网”、城管“探头”、综合“网格”等资源力量，形成协调联动、精准高效的管理格局。', '74.41%。既有住宅加装电梯方面，吉州区、青原区、庐陵新区、吉安县分别制定了加装电梯实施细则，进一步明确了加装电梯资金奖补，市中心城区完成加装电梯审批', '城北场站内建筑桩基础已全部完成，除办公楼外，其他建筑主体已封顶，场内雨污水管网等工程待天气晴好将安排施工作业；河东场站已完成建筑桩基础施工，完成场站内清淤约', '40000立方；吉安县三山岗场站管桩基础已完成；公交西站充电桩设备已全部进场，正在进行电缆安装。', '动中心城区主干道“以克论净”全覆盖、公共机构垃圾分类全覆盖，各县市城区抓好试点示范。', '213359平米道路作为试点区域。目前，吉福路、吉州大道、阳明路、鹭州路、韶山路正在开展“以克论净”工作，人员，机械设备已调整到位，道路禁停公告已由吉州区政府发出。庐陵新区选取了', '224439平米，已与环卫公司对接，部分设备已购置。青原区选取了文天祥大道作为示范点，面积约', '13680平米，目前已由第三方清扫保洁公司实施。印发了《吉安市全面开展城市生活垃圾分类工作实施方案的通知》《吉安市城市生活垃圾分类', '32座，市行政中心、吉州区、青原区三个机关食堂添置了智能餐厨废弃物就地处理设备，已正式投入使用。', '18181户。市本级五座示范性公厕建设已基本完工，两座已投入使用，三座已建成待交付，预计再新增', '4座公厕，目前正在开展前期工作。制定了《市中心城区城市管理常态长效暨国家卫生城市复审督查包片人员考核方案》，进一步强化城乡环卫一体化督查。', '11个县（市、区）正在编制污水治理专项规划，乡镇政府所在地污水处理设施新建（提质改造）现已开工', '我市印发了《关于全面推进城乡供水一体化的实施意见》，积极推进各项工作，除永新县已整县推进城乡供水一体化外，安福县采取自主实施模式，成立了城控集团负责城乡供水一体化项目建设，目前已完成城乡供水一体化建设设计招标，吉水、永丰县已和省水投公司签订了合作框架协议，正在细化合作方案。青原、吉州、吉安县正在与中国水务集团洽谈合作事宜。', '召开吉安市营商环境整体评估报告集中解读暨整改工作部署会和全市优化营商环境工作推进会，制定下发《关于运用好第三方评估成果大力优化全市营商环境的通知》《关于加紧落实江西省营商环境评价实施方案责任分工的通知》，制定印发《', '[2020]2号）。按照厦门大学课题组的优化对策建议，结合省里“十大行动”部署和全省营商环境评价内容，各地各单位以手续数的缩减、时间的缩短、费用的降低、服务质量提升、信息化水平增强、工作流程优化为重点，着力提升便利度。针对影响我市营商环境的突出问题，先行先试抓优化。如在办理建筑许可方面，印发了《吉安市工程建设项目审批制度改革实施方案》，在开办企业、获得电力方面，出台了《吉安市优化企业注册开办实施办法》《吉安市“证照分离”改革实施方案》《吉安市进一步优化电力接入营商环境实施方案》等，做到集成配套抓改革、促优化。', '聚焦法治化要求，落实《优化营商环境条例》，完善非公企业维权服务体系，清理与企业挂钩的歧视性规定，切实解决行业垄断、账款拖欠、产权纠纷等问题。', '要求有关涉企政策和文件之前，必须召开民营企业家座谈会听取意见建议；完善非公企业维权服务体系，探索建立“企业接待日”工作制度和维权服务与营商环境企业家座谈会制度，建立常态化的非公企业权益司法保护联席协调机制；开展涉政府产权纠纷问题专项治理，对涉及政府部门和国企拖欠民营企业账款问题开展集中清理。清理不符合《优化营商环境条例》规范性文件', '加大稳外贸力度，加快创建国家跨境电商综合试验区，引导企业共建共享海外仓，组织参加网上经贸活动，推行云洽谈、云签约，保订单、稳市场。', '深化“三请三回”“三企入吉”活动，推进科创、金融、旅游、农业全领域招商，拓展科技人才、教育卫生、文化旅游全方位合作。', '收集汇总全市各县（市、区）县情介绍、主要产业、重点项目、招商政策、招商环境等各类资料，已基本完成“投资吉安”公众号的制作；', '抓好泰和千烟洲共同体试验区建设，完成赣江两岸废弃矿山修复，建设永丰县、安福县绿色矿业示范区。', '10个项目建设，千烟洲站区基础设施提升项目基本完工，农村生活垃圾治理第三方收集转运已完成，泰和试验区建设的', '加强生态综合执法，发挥峡江县赣江流域环境资源法庭、安福县生态旅游法庭作用，加大生态公益诉讼力度，落实生态环境损害赔偿制度。', '结合日常业务工作积极开展案例实践和探索，安福县金丽芳非法处置危险废物环境污染犯罪案件已完成损害鉴定，峡江县安盛镍业有限公司无组织排放至树木枯黄案已完成磋商并达成协议。', '13家企业免费接受节能诊断服务，依托第三方专业机构帮助指导企业提出节能技改方案。二是扎实推进节能监察。制定印发了年度节能监察计划，对重点用能企业实行专项监察和日常监察，指出企业能耗方面问题，督促企业进行节能技改。三是依托项目促进节能技改。积极开展绿色制造活动，组织了红板等', '实施森林质量提升工程，推广国有林场转型升级，发展林下经济，促进生态生产总值同步增长。', '以国储林项目、省级低改造专项等项目为重点，持续提升森林质量，全市完成国开行贷款国储林项目造林', '以深化国有林场改革为主线，大力开展国有林场场外造林，全面发展林下经济，加快实施“百场兴百业、百场带百村”行动工程。', '拓宽就业渠道，加大援企稳岗力度，落实社保费阶段性减免、失业保险稳岗返还、就业补贴政策；支持临时性、季节性弹性灵活就业，拓展新业态就业空间。', '优化就业服务，完善岗位信息归集与发布平台，实施青年就业启航计划和职业技能提升行动，加大创业担保贷款支持力度，落实《保障农民工工资支付条例》，构建和谐劳动关系。', '11.25万个。利用企业招聘会、纸质网络媒体多种渠道宣传职业技能，提升补贴政策，扩大政策知晓面，今年', '724.05万元。根据《关于进一步做好全省创业担保贷款工作的通知》，提高个人贷款额度。今年', '20290人次。加强对企业的帮扶指导，依法妥善处置好员工劳动关系和社会保险转移接续工作，截至', '家固体饮料生产企业进行飞行检查和约谈；市食品药品检验检测中心大楼装修基本完工；针对“四小”食品企业，开展小作坊示范单位创建行动，已创建', '家示范单位；针对疫苗、特殊药品、中药饮片、网络销售药品和美容机构化妆品、无菌和植入性医疗器械开展', '实施全民参保计划，推进工伤保险基金、医保基金市级统收统支，划转部分国有资产充实社保基金。', '4%。出台《吉安市工伤保险基金市级统收统支实施方案》，规范我市工伤保险省级统筹、市级统收统支基金管理流程；将医疗保险基金市级统筹工作列入', '2020年重点工作，已开展专项业务培训，成立专项工作组，拟建立市级联席会议机制，正在研究出台统收统支工作方案及相关的配套文件。', '稳步提高退休人员基本养老金、城乡低保、抚恤补助、残疾人补贴标准，抓好社会救助综合改革。', '7月份省统一部署，将做好今年城镇企业职工、机关事业单位基本养老金调待工作。统一城乡困难残疾人生活补贴和重度残疾人护理补贴发放标准，从', '10块。按照省体育局下发的《江西省第六届全民健身运动会实施方案》以及省局竞赛规程总则实施方案要求，确定了江西省第六届全民健身运动会吉安市举办项目、启动仪式时间、地点，编制经费预算等。完成了吉安市全民健身实施计划（', '全面启动市域社会治理现代化试点工作，完善市、县矛盾纠纷联合调处中心和多元主体参与的专业性、行业性调解平台建设，全力做好矛盾纠纷调解工作，特别是针对涉疫矛盾纠纷，开辟绿色通道，集中力量化解。截至', '96.5%。积极推进村（社区）网格化管理，强化网格员事件上报，工作成效进入全省第一方阵。', '推进“天网”六期、未成年人专门学校等项目建设，加强基层综治中心实体化建设，夯实公安、司法基层基础。', '8488个前端监控，启动了“天网”六期建设和农村“雪亮工程”建设，已基本完成设计和前端踩点。加快推进未成年人专门学校，完成投资', '1020万元，三栋建筑单体地基建设工作已完成。坚持民生导向，创新综合治理平台，推进基层综治中心实体化建设，配齐乡镇（街道）政法委员', '236名。扎实推进司法所、派出所建设，加强辅警等力量配备，筑牢维护社会稳定的“第一道防线”。', '在全市应急管理系统干部中实施注册安全工程师培养计划，申报了“庐陵英才”等高层次专业人才引进，加大了专家购买服务力量的力度。各地积极配备防灭火装备，如吉水县、新干县、井冈山市等地采购了防火车，青原区、永新县等地采购了无人机，提高森林火灾扑救水平。加大防汛抢险物资储备，市本级首次采用协议代储方式代储砂石，投入', '建立了“提示卡、告知单、督办函、整改令”工作制度，出台了《关于进一步发挥市县安委会办公室作用发挥的实施意见》，开展了“查身边隐患、保职工安全、促企业发展”活动，开展了企业安全培训和建筑施工领域专项督导检查。', '与安全生产一同下达了责任书，聘请第三方公司对“一长两员”开展抽样调查，形成了评估报告，对', '4个重点乡镇进行验收评估，各乡镇和林业基层单位采取干部包村包片包山头的形式落实到人。', ',与作战部队现地协调对接任务。组织军分区联合指挥部、市国防动员中心成员开展业务培训和战备等级转进演练。做好了国防动员', ',做好了民兵任务分队“一个过程”拉动准备。“智慧动员”系统、市民兵应急营营部及市、县两级民兵训练基地建设正在有序推进。', '在落实退役军人服务保障体系“五有”和全覆盖要求的基础上，按照示范点引领、项目化运作、品牌化建设的思路，选定了', '15项“尊崇”项目，完善管理制度、工作流程、服务规范和运行机制，推动以“七个一”为主要内容的尊崇工作法在基层落地，汇聚形成了具有我市特色的“尊崇工作法”红色井冈品牌。我市“尊崇工作法”做法被省退役军人事务厅转发并推荐报退役军人事务部。', '春节期间，市党政主要领导亲自带队走访了省军区、武警总队机关和驻吉部队；市、县两级退役军人事务部门积极与驻吉部队开展各式各类共建联欢活动，走访慰问驻地部队、军队离退休干部和部分困难优抚对象、军烈属，持续做好拥军优属工作；完善全国双拥模范城考评相关资料台账，加强与全国双拥办、省双拥办沟通联系，经上级评查，我市已获新一轮全省双拥模范城称号，有望再次获评全国双拥模范城。', '2927个村（居）委会普查小组基本组建完成。下发市《人口普查领导小组成员单位职责分工和工作方式》、《人口普查进度安排》、《人口普查领导小组办公室组成人员及内设工作组职责分工》等文件，全市宣传工作方案已制定，正在走程序。在遂川县开展吉安市市级综合试点，核定村级及以上区域名称、地址代码和村级城乡属性，核实修订普查区及以上各级区域边界，完成试点小区区域画图上报。', '形成了《吉安市文明行为促进条例（草案）》，征求有关部门意见，进行了社会稳定风险评估，确定为低风险等级。', '用好再贷款再贴息、延期分期展期还款政策，提高发展升级引导资金和担保基金效能，拓宽应急转贷等融资服务绿色通道，全市新增银行贷款', '18条做好疫情防控各项政策，研究制定了《金融支持疫情防控稳定经济增长的若干措施》，引导全市金融机构加大支持力度。至', '2次全市企业上市“映山红行动”推进会，拟定了企业上市三年规划，正在征求意见。江西国光商业连锁股份有限公司已获得中国证监会', '28日上市。安福县银杉白水泥股份有限公司通过全国中小企业股份转让系统审核，成为今年我市首家、全省第二家新三板挂牌企业。吉水县金田麦食品股份有限公司新三板挂牌申请获全国中小企业股份转让系统受理。遂川县绿洲源木业股份有限公司获全国中小企业股份转让系统核准，由基础层调入创新层。', '24小时自助服务专区建设。网上中介服务超市由省里统建，市县共用，我市已初步梳理市本级中介服务资质', '实施义务教育基本均衡巩固提升计划，加快补齐乡镇寄宿制和小规模学校短板，基本消除义务教育和普通高中大班额，完善随迁子女义务教育入学政策。', '13个县（市、区）义务教育优质均衡发展督导评估推进时间表、路线图。完成了对青原区，新干县、万安县开展县域义务教育学校四年级科学学科，八年级物理、地理、生物学科省级质量动态监测工作。规范小规模学校和寄宿制学校办学建设要求，梳理出全市', '8月底可完成初稿。初步形成“十四五”规划基本思路初稿；拟定“十四五”专项规划目录清单；向上提报申请纳入国家、省“十四五”规划纲要重大工程项目', '建立健全城市主体责任制，完善商品住宅均价备案制度，开展“红五月”房地产消费季活动，', '36万亩，完成耕地抛荒整治，落实最低收购价等奖补政策，确保粮食播面与产量稳中有增，巩固吉安在全省的粮食主产区地位。', '2020年高标准农田项目前期工作，完成了实施方案，正在开展初步设计；超额完成省里下达的早稻生产任务，全市种植早稻面积', '80%以上；积极做好早稻收购准备工作，加大粮食去库存力度，预计早稻上市前可用国有仓容', '全面推行江西省危险废物监管平台的应用，进一步强化危险废物监管能力，网上申报登记管理危险废物管理计划、转移联单、应急预案、管理台账、危险废物经营情况月报等，实现危废产生、收集、转运、处理处置全过程监管。大力推进优艺环保科技（吉安）有限公司的医疗废物处置设施进行处置能力扩容改造和永新县吉安巨联环保科技有限公司年处理', '1.2万吨危险废物项目建设，提升全市危废处置能力。开展全市危险废物专项整治三年行动，确保危废安全处置，现已制定了实施方案，正在部署推进。', '5G基站基本覆盖了市中心城区重点区域，包括核心商圈、机场、高铁站以及部分产业园区、院校、景区。', '加强融资帮扶，加快创建全国普惠金融改革试验区，推进中心城区城南金融集聚区发展，争取中信银行设立分支机构。', '2020年普惠金融行动方案》。正在与蚂蚁金服对接，拟推广蚂蚁金服与永丰县合作推进的“县域普惠金融”项目。', '推进上下游、产供销协同复工复产，推行“链长制”，协调上下游、产供销精准对接；实施物流高质量发展三年行动，完善物流园区平台，健全配送网络，畅通产业循环、市场循环、经济社会循环，努力保持产业链供应链稳定。', '8大产业链，实行“一个重点产业链、一位党政领导、一个牵头部门、一个行动方案”的推进模式，目前', '8个产业链推进方案及“四图”、“五清单”基本制定，协调解决产业链发展存在的困难问题，确保产业链供应链稳定。推进吉安市商贸和物流产业链发展，梳理重点培育的“链主”企业', '15个，将重点调度解决。赴南昌市及各县市区开展物流业发展学习考察和专项调研，摸清“家底”、理清“短板”，正在制定《吉安市推动物流高质量发展促进形成强大国内市场三年行动计划》。', '推动新干盐卤药化、永丰碳酸钙、吉水林化香料、遂川硅基、永新超纤等传统产业转型升级。', '5G通信基础设施建设和管理工作方案》等政策文件，井冈山经开区成功获批省级数字经济创新发展示范基地，全市已形成了摩比通讯、立讯射频、合力泰、红板、景旺电子、南亚新材料等一批', '2020年全市重点项目安排，已明确吉安市新庐陵公司作为出资人及业主单位，初步确定了项目建设的规模、内容和建设方案，编制完成了项目可行性研究报告，目前正积极筹措落实建设资金。', '2019年版）》，预计吉米立科技所报意见将被采纳，有利于企业下一步申报争取国家首台（套）重大技术装备保险补偿。', '引导大中型企业建立研发机构，支持木林森创建国家重点实验室、广源化工创建国家技术创新中心、红板创建国家企业技术中心。', '2020年度省级技术创新中心，积极跟踪木林森创建国家重点实验室、广源化工创建国家技术创新中心相关情况，申报材料去年已上报省科技厅，今年已多次向省科技厅汇报请示，请求支持。', '推动共建中国工程院信息与电子学部吉安基地，参与创建南昌大学和南昌航空大学国际合作创新研究院，做实中科吉安生态环境研究院、江西通讯终端技术研究院等创新平台。', '8月来吉完成框架合作协议签约。中科吉安生态环境研究院先后已制定“中吉院”《章程》、《财务管理规定》、《科研项目管理办法》、《劳务派遣人员报酬管理办法》、《知识产权管理办法》等规章制度，市财政已累计拨付', '完成中心城区高铁站前大道南北延伸、东塘大道及综合管廊、广场北路等项目建设，加快推进“五指峰三中心”项目。', '站前大道南北延伸工程施工、监理招标已完成招标；东塘大道及综合管廊工程已开工建设，正在进行土方挖运；“五指峰”建筑群主体已施工至', '20层；会展中心已主体封顶，正在吊装钢结构；商贸中心（城市商业综合体项目）已完成地勘作业、施工围挡搭建、冲洗平台建设，土方工程完成约', 'G105泰和文田至上田立交桥段工可、初步设计、环评、水保、用地等前期工作已基本完成，征地拆迁完成', '做大县域经济协同区，创新经济发达镇行政管理体制，高质量推进特色小镇建设，深化新宜吉转型合作、湘赣边区域合作，促进县域经济倍增。', '市本级道路提升改造、老旧道路“白改黑”工程已完成可研、初步设计、施工图设计，其中市本级道路提升改造正在进行财政评审，计划', '1）遂川县完成渣坑封顶、主厂房锅炉基础工程、地磅房结构封顶、烟囱第七钢模浇筑、第八钢模钢筋绑扎、主厂房环形道路至渗滤液区', '2）永丰县完成桩基检测，进行基础开挖；完成办公区临建板房搭建、民工生活区地面硬化、一级配电房基础硬化。', 'U型槽已完成，正在进行坝顶施工干砌毛石，库底铺设无纺布及环保膜，因天气原因，预计今年', '2）青原区回填基地项目已完成项目建设并投入使用。目前，进场口及区域内空闲地绿化、安防、门禁系统等配套设施建设已完成。', '提高管的精度，强化建筑风貌与城市天际线规划管控，拓展城乡结合部、背街小巷环境治理，深化防盗窗、屋顶垃圾、杆线乱拉等专项整治，贯彻执行好《吉安市住宅物业管理条例》。', '2020年度吉安市城乡环境综合整治工作考评方案》《吉安市开展防盗窗、“线乱拉”、建筑屋顶三年专项整治工作方案》等文件，召开了全市城管局长会议，加强了相关工作调度，开展了第一、二季度城乡环境综合整治暗访，暗访发现问题反馈各地整治办并督促整改。', '召开了迎接国家卫生城市复审工作会议，在电视、报纸上开辟了国家卫生城市复审专栏，每周召开工作调度会，对照复审标准对中心城区存在问题进行督察整改，截止目前，复审办已下发', '8期督查通报。井冈山市创城办结合路长制工作进度，组织第三方测评机构开展模拟测评，针对测评反馈的', '126项清单，依据路长制责任分工将问题清单落实到具体责任单位，制定整改措施和期限。新干县制定了创文工作方案，细化了十大项工作内容，就基础设施、环境卫生、公共秩序三大专项行动进行安排部署，提出了具体而明确的进度要求、措施办法、责任分工和奖惩办法，建立“每日一收集汇总、每周一督查通报”的工作推进机制。', '目前吉安县、新干县和永丰县已提出争创省级示范县目标，市交通运输局已到申报县进行督导，截止目前，累计完成农村公路建设里', '深化开发区改革创新发展，实施开发区三年倍增行动，构建国家级、重点省级和一般省级园区营业收入', '深化开发区“两型三化”管理提标提档和节地增效行动，开展亩均效益综合评价，消化批而未用土地，完成“僵尸企业”处置，新建标准厂房', '井冈山经开区、吉安县已开展“亩产效益”综合评价试点，目前已基本完成数据收集，下一步将开展评价分档及数据运用等工作。全市开发区共有“僵尸企业”', '聚焦国际化要求，稳定运行吉安至厦门港和深圳盐田港铁海联运，完善吉安陆地港基础设施，推动国际贸易“单一窗口”业务全覆盖，加快实现口岸“三同”目标。', '2.89%；吉安至盐田港业务受疫情影响，业务推广受限。组织市县商务部门工作人员及外贸企业人员', '推进井冈山出口加工区转型升级为综合保税区，争取一般纳税人资格试点，招引高品质外向型企业入驻。', '27日，国务院正式批复井冈山出口加工区转型升级综合保税区，区内企业可以开展一般纳税人资格试点，获取国际、国内两个市场，便于企业内销。', '已确定市级国土空间总体规划编制单位，即将开展调研和编制工作；生态保护红线评估优化成果', '目前已初步完成赣江中游（峡江库区）生态保护与绿色发展专项规划编制工作，形成规划初步成果，正征求沿线县区及相关市直单位意见，待完善相关意见建议后将专门向市委市政府汇报。', '积极做好山水林田湖草生态保护修复项目申报工作，目前，泰和县、新干县、井冈山市提交了山水林田湖草生态保护修复项目实施方案；大力实施生态修复，全面推进赣江沿岸各', '86％，列全省第二。永新县与省地产公司签订了《永新县全域自然资源生态修复项目建设投资合作协议》，今年计划启动第一期废弃矿山和裸露山体生态修复，面积', '聘请中山大学专家教授对井冈山区域开展科学考察，形成了《罗霄山脉生物多样性综合科学考察报告》。', '11日，国家公园办、国家林草局规划院深入井冈山调研指导工作。根据专家组的意见，吉安市林业局专题报送了《罗霄山脉生物多样性综合科学考察报告》资料，吉安市、赣州市分别收集报送了相关县（市）', '2019年的统计年鉴、统计公报、县志，交通、水利、农业相关的发展规划，土地利用规划，生态保护红线及林业有关数据。', '纵深推进河（湖）长制、林长制，完善智慧治水平台，加快砂场混凝土搅拌区建设，打造赣江最美岸线。', '建立了市、县、乡、村四级“流域＋区域”河湖长制组织体系，完善了林长制各项工作制度。健全了“一长两员”森林资源源头管理体系和森林资源监管体系，常态化开展“清河行动”，正在组织问题摸排，围绕五个专项扎实推进赣江流域生态环境专项整治工作。市本级已完成', '3400万的河长制信息平台建设项目正在开展前期工作。有序推进砂场混凝土搅拌区项目建设，印发《市中心城区推进预拌混凝土搅拌站搬迁整治工作方案的通知》，下一步将有序推进搅拌站搬迁。赣江最美岸线（吉安段）生态保护与建设工程等', '20.99万亩，超额完成了省下达的建设任务。森林抚育补贴项目正在编制作业设计和实施方案。', '1290.87亩。加强全市各地取用水户计划用水管理，严控超定额超计划用水，积极探索推进水权水市场改革。', '已向省发改委、省生态环境厅呈报《江西省安福高新技术产业园区环境污染第三方治理实施方案》，争取纳入试点范围。', '根据《吉安市装配式建筑产业发展规划》确定的吉水县黄桥镇和吉安县高新技术产业园区为我市装配式建筑发展产业基地，目前，吉安市建巢远大建筑工业有限公司已在吉安县高新技术产业园区投入生产，申报了省装配式建筑产业基地；吉水县杭萧钢构企业正在建设之中。', '20日，市装配式建筑领导小组下发了《关于进一步推进吉安市装配式建筑发展的通知》，明确了工作目标、工作措施、工作要求，安排了年度任务、配备了装配率计算说明，并将装配式发展情况纳入对县（市、区）高质量发展年度考核内容。', '已完成《井冈山市国家生态综合补偿试点实施方案》编制，通过了省发改委组织的专家评审并报送国家发改委。', '落实全民所有资源资产有偿使用制度，完善生态产品价值核算体系，推进公共资源交易平台整合共享，鼓励企业参与排污权、碳排放权、用能权、水权交易。', '印发了《吉安市深化公共资源交易平台整合共享实施方案》，实施方案已明确将公共资源交易平台覆盖范围逐步扩大到适合以市场化方式配置的自然资源、特许经营权、资产股权、环境权等各类公共资源。对泰和、永丰、安福等', '稳定重点群体就业，有序引导农民工就地就近就业；拓宽高校毕业生就业渠道，扩大就业见习规模，促进校企对接，确保职院毕业生留吉率达', '坚持常态化备灾，启动防护服、口罩、测温仪等医疗物资储备中心建设，倡导家庭自备防疫抗灾用品。', '坚持人才强医、科技强医，关心医务人员身心健康，加大全科医生培养引进力度，推进远程医疗系统和全民健康信息平台建设。', '100名左右全科医师转岗培训名额及经费。《吉安市全民健康信息平台设计项目》确定了预中标单位，目前针对方案需求开展了实地走访，收集了所有市直医院、市直医疗机构和相近区县的数据和需求。', '持续做好城镇小区幼儿园配建与移交工作，推动市保育院二部、吉州区城北幼儿园、市妇联婴幼园秋季开学，推进“山村幼儿园计划”，全市公办幼儿园在园幼儿数占比和普惠性幼儿园覆盖率分别达', '恒大帝景小区配建幼儿园（红黄蓝幼儿园）产权已移交市教体局，签订了产权移交协议书和普惠园办学协议，今年秋季红黄蓝幼儿园将按照普惠性幼儿园标准收费；市保育院二部已完成装修，预计今年', '7月中旬可移交吉安市保育院；吉州区城北幼儿园已完成内部装修；市妇联婴幼园正在进行内部装修和设备采购，已明确除井冈山市和遂川县外，各县（区）至少完成', '9000万元，目前，项目土方场地平整施工即将结束，正在调整优化建筑施工图设计方案；新桥学校规划建设', '12000万元，目前已完成项目场地清表、征地、房屋征收和建筑施工图审查，正在进行工程量清单和招标控制价编制工作。', '加强智慧化治理，持续推进智慧城市建设，拓展智慧交通、智慧医保、智慧消防、物联网水表等应用。', '市大数据中心平台、政务云服务及二大应用项目、智慧交通监管指挥平台、智慧房管（二期）、智慧民政信息系统、天网五期、建筑市场和建设工程质量安全监管服务平台、智慧动员、“智赣', '9个项目已完成招标采购进入施工阶段；全域旅游智慧平台二期、市全民健康信息平台、中心城区物联网水表推行使用工程、天网六期、城建档案信息管理平台、一体化政务服务平台、智慧时空云平台、智慧医保智能监控平台、市交通局智慧交通监管指挥平台等', '印发了《吉安市加强出租屋安全风险管控工作方案的通知》，着力构建“三机制一会制”管理模式，强化出租屋全区域、全方位、全流程安全风险管控。', '打赢蓝天保卫战，加大控煤、减排、管车、降尘、禁烧、治油烟力度，加强柴油货车污染治理，抓好餐饮企业规划布局和准入监管，促进油烟净化设施全覆盖，力争实现空气质量国家二级标准市县全覆盖。', '2020年大气污染防治百日攻坚行动方案》，划定吉安市中心城区高排放非道路移动机械禁止使用区，杜绝高排放非道路移动机械在禁用区使用，倒逼非道路移动机械维修治理或淘汰更新，减少非道路移动机械污染物排放；建立省、市', '4套黑烟车抓拍系统建设，现进入试运行；制定实施《吉安市打赢蓝天保卫战夏季攻坚行动方案》，深入开展五大攻坚行动。截至', '弘扬企业家精神，表彰骨干企业和优秀吉商，激励企业化危为机、逆势奋进，年内新增规上企业', '龙冈畲族乡张家车苏区中央局遗址群、五斗江国家湿地公园、东固革命根据地等一批红色旅游景区进行了改造提升；井冈山茅坪镇大垅村成功创建省', '起草《关于建设长征国家文化公园（吉安段）实施方案》，聘请了北京博雅方略文旅集团完成了《吉安长征国家文化公园建设保护方案建议书》，明确了长征国家文化公园（吉安段）', '完善成果转化激励机制，构建有利于创新的绩效评价体系，开展赋予科研人员职务科技成果所有权或长期使用权试点，让创新源泉充分涌流。', '14个登记点，分布在经开区和各县（市、区）。二是充分利用好我省网上常设技术交易市场功能，积极组织企业参加全省网上技术交易会。三是按照《关于举办网上技术交易专项补助政策落地推进宣讲会的通知》精神，指导帮助符合条件的企业把补助政策落地落实。四是提出了', '的技术转移体系建设工作思路，制定了国家（省）科技奖后备项目培育和获奖优秀科技成果转化等财政支持政策，对', '7月份对已完工部分进行竣工验收；市本级微循环道路绿化提升工程完成了可研、初步设计审批，施工图设计及图审，目前已委托编制单位编制施工图预算；君华大道与光明路东北角空闲地绿化工程开工，现已完成乔木种植，基本完成给排水工程，正在与自来水公司对接开设绿化给水接驳事宜。绿地播种宿根花卉', '开展秸秆综合利用情况调查，完善市县两级秸秆资源台账，初步形成了《吉安市农作物秸秆综合利用实施意见》（征求意见稿），正在征求各地各有关部门意见。', '坚持预防为主工作方针，加强市县疾控中心建设，加快市传染病医院、急救中心改造提升，推动县级综合医院传染病区和门诊全覆盖，提升农村、社区防控能力。', 'PCR仪，全自动核酸提取仪等设备，购置卫生应急车辆一台，提升实验室新冠病毒检测能力和效率。近期，市卫健委正积极与公安、交通、电信等部门建立新冠肺炎防控流行病学调查多部门常态化协作机制。加快市中心人民医院传染病医院的升级改造，争取地方债券项目', '1000万元，已完成施工设计等前期工作，下一步将进行图审、招投标等工作。负压病房的升级改造已基本完成。大部分县级综合医院传染病区完成升级改造。疫情期间市中心城区网络医院急救站共新增负压型救护车', '120指挥调度系统进行升级改造，升级了新版本，新增了电子病历、病种统计分析、短信自动回访、无线对讲等功能，新系统已于', '已完成大部分项目手续报批，办理了“建设项目用地预审与选址意见书”、“建设用地规划许可证”、“建设工程规划许可证”和“土地证”，环评已经批复。', '加快新干县工业园国家环境污染第三方治理试点，重点推进了新干县河西污水处理厂及配套管网工程及盐化工业城大气污染在线监测项目建设，启动了盐化工业城危险固体废物处理及盐化工业城污水处理厂提标改造等项目前期工作，完成总投资', '2020年国家环境污染第三方治理，申报方案已经顺利通过省专家评审，评分成绩居全省第三名，获得了向国家重点推荐申报资格。', '（多证合一、多规合一、多介合一、多评合一、多审合一、多测合一）审批。年内政府和企业工程建设项目全流程审批时间分别压缩至', '市本级各项改革工作正在逐步开展，总体进度达到省工改办的要求。其中已完成精简审批事项、联合图审、联合验收、联合测绘、容缺受理与告知承诺制、统一信息数据平台、一个窗口、一套机制、“双随机、一公开”、市政公用服务单位进驻综合窗口、联合惩信、代办服务等工作任务。区域评估已有压覆重要矿产区域评估报告等成果', ',已基本梳理完成市本级中介资质和中介服务事项。信用平台建设第一阶段工作已完成，已印发信用信息管理办法。', '打造生物医药大健康千亿产业，大力发展中药饮片、医药制造、医疗防护和热敏灸中医药养生，推动更多本地产品纳入政府采购和医保目录，新增道地中药材种植面积', '3万亩。加快推进大健康旅游项目建设，大力构建大健康旅游“三区两网”，推进青原区白云湖生态康养度假区、万安红豆杉养生谷等项目建设；积极推动大健康旅游争创品牌，新增国家', '2家；出台《吉安市公办养老机构规划建设管理若干规定》，促进公办养老机构更有质量、更加规范、更可持续发展。侧重社区嵌入式养老（护理）院，鼓励医疗机构利用闲置场所举办养老（护理）院，全市新增（在建）医养结合机构', '2020年全面深化改革工作方案〉的通知》，就相关任务明确了责任分工、具体要求和完成时限。截止目前，由于深化政府采购制度改革和交通领域财政事权和支出责任划分改革的省级实施方案没有正式出台，导致这两项改革尚未正式启动；卫生领域市县两级财政事权和支出责任划分改革实施方案正在抓紧草拟；科技领域、教育领域市县两级财政事权和支出责任划分改革实施方案制定还在调研阶段。年初预算安排供销社综合改革经费', '着力补齐村集体经济短板，稳步推进农村集体经营性建设用地入市，抓好农村集体产权制度改革，最大限度盘活农村集体资产，力争', '加快完善养老服务体系，改造提升公办养老院，抓好社区嵌入式养老机构建设，年内农村互助养老服务设施覆盖', '出台《吉安市民办养老机构规划建设管理若干规定》，开展养老服务等重点民政工作督查调度，赴江苏南京、安徽滁洲开展养老服务招商考察， 制定公办养老机构三年提升改造方案。', '530亿元。（未实现过半原因，一是受疫情影响，二是按照电子信息产业发展规律、增长主要在下半年）', '1700亿元，成为京九（江西）电子信息产业带重要增长极。推动触控显示、通讯终端迈上', '着力补齐农村治理短板，弘扬乡风文明，巩固殡葬改革成果，加强传统村落保护，真正让农村成为记得住乡愁的美丽家园。', '我市《关于加强和改进乡村治理的实施方案（征求意见稿）》已征求部分单位意见，正在完善。', '1-2个县启动公益林权质押贷款试点，以进一步推进林权改革配套政策的落实，正在筹备中。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>125</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>吉州扎实推动农村基层党建工作</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-46077.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['（罗贵芬、杨志祥）今年以来，吉州区高度重视农村基层党组织建设，加强阵地、队伍建设及村级集体经济发展，推动农村基层党建水平持续提升，进一步强化基层党组织的领导核心地位。', '该区加强阵地建设。对全区77个村级活动场所进行实地调研、分析研判，在此基础上，大力实施“村级组织活动场所标准化建设”项目，打造13个村示范点和55个村达标点，实现组织场所规范化建设全覆盖，确保村级组织活动场所成为便民服务、党员活动、文明建设中心。加强队伍建设。结合扫黑除恶专项斗争和村“两委”换届“回头看”工作，选优配强了村（社区）领导班子，参照干部人事档案标准对村（社区）党组织书记档案进行了专项整理，实现了一人一档，集中存放，专人管理；举办农村党建业务培训班，培训村党组织书记101人，按照“六个一批”建立村级后备干部队伍人才库，全区已按1:1的比例配备了村（社区）级后备干部630余名。加强村级集体经济发展。组织乡镇、村党组织负责人学习考察村级集体经济发展多元模式，出台了《关于支持吉州区村级集体经济发展壮大若干措施》，发展壮大村级集体经济实力。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>125</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>安福三步走推进企业上市映山红行动</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2019-11-15</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-48553.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['创新推出企业批量集中股改模式，通过政府搭建中介对接平台，既“请进来”，主动邀请多家券商到县内作股改辅导，积极组织县内重点企业参与学习、互动交流；又“走出去”，主动组织县内重点企业到省股权交易中心等地学习考察、坚定决心。2018年批量完成企业股改4家并全部在“新四板”标准层挂牌，2019年新增3家企业接续推进批量化股改，经验做法被省地方金融监管局、省联合股权交易中心推广。', '多次邀请武汉大学、江西联合股权交易中心等金融专家团队到县培训指导，积极协调引进中介机构对拟上市企业进行规范改造，对基础较好、符合国家产业政策、市场发展前景广阔的企业，鼓励和支持境内外投资机构对其进行投资，改善股权等结构，促使企业尽快启动上市程序。今年7月，第一批完成股改企业银杉新材料与券商签订“新三板”挂牌辅导协议，力争年底挂牌成功。', '。2019年8月15日，安福海能实业在深交所成功上市，成为2019年全省首家在深交所创业板上市企业、吉安市首家境内A股上市的本土企业。以安福海能实业为全县电子信息产业龙头企业，2019年成功招引']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>125</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>井冈山打造整洁有序生态宜居新农村</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2019-09-11</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-47005.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['（刘庆荣）今年以来，井冈山市坚持政府主导，群众参与，推行市场化运作模式，全面开展农村生活垃圾治理，村庄生活垃圾治理率达到98%以上，无害化、减量化、资源化处理水平显著提升，营造了整洁有序、生态宜居的农村环境。', '加强组织领导，高位推动垃圾治理工作。井冈山市出台了《全山农村生活垃圾专项治理实施意见》，成立农村生活垃圾处理工作领导小组，负责制定规划、方案、计划等，建立运行经费保障制度和监督考核机制，确保垃圾收运处理体系正常运行。乡镇场及林场实行“一把手”负责制，具体负责辖区农村生活垃圾处理日常工作。', '加大财政投入，夯实垃圾治理基础。井冈山市采取政府购买服务方式，将农村生活垃圾治理交由专业机构，在全市24个乡、镇、场、街道全面推行市场化运作，负责清扫保洁、生活垃圾清运、生活垃圾卫生填埋，垃圾分类、餐余垃圾收集运输处理等工作。2019年1月正式运行。项目运行以来，累计投入约3500万元。', '加强服务考核，确保第三方治理质量。强化低碳智慧环卫一体化服务项目的监督检查和考核，确保农村生活垃圾治理服务质量，井冈山市采用“二纵三横”管理考核模式，即纵向考核和横向考核相结合、政府考核和企业考核相结合的管理考核模式。“二纵”是指市政府对各乡、镇、场进行年度目标管理考核，各乡、镇、场对村组进行日常管理考核；中标公司对管理员进行考核，管理员对保洁员进行管理考核。“三横”是指市城管局对生活垃圾填埋场工作进行考核；乡、镇、场对公司管理员进行管理考核；村组对保洁员进行管理考核。', '深入动员部署，开展农村生活垃圾分类。井冈山市组织相关部门和试点单位到外县学习考察，制定《井冈山市生活垃圾分类工作实施方案》，成立垃圾分类管理中心。在红星城区及新城、大陇、柏露、茅坪等4个乡镇开展生活垃圾分类投放、分类收集、分类转运、分类处理工作试点。配置垃圾分类专业管理人员和转运员，投入智能垃圾分类箱、亭、桶以及分类保洁车辆等设备，建设餐厨垃圾处理厂房并配备相关设备，共计投入资金约400万元。', '突出工作重点，补足农村垃圾治理短板。井冈山市投资450多万元，启动了草头洲生活垃圾卫生填埋场渗沥液处理系统升级改造项目，目前该项目已经竣工验收。草头洲、尹亚生活垃圾卫生填埋场等级评定改造提升项目正在有序施工中，今年12月底将完成。', '加强宣传引导，营造浓厚社会氛围。井冈山市组织开展企业、学校、居民广泛参与的以农村生活垃圾治理和垃圾分类为主题的教育宣传活动，积极宣传垃圾治理要求、文明卫生习惯、村民参与义务等，切实提高村民参与垃圾治理责任意识，教育村民养成文明健康的生活习惯，使垃圾分类和有序投放成为村民的自觉行为，形成“洁净家园，从我做起”的新风尚。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>125</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>年上半年吉安市政府工作报告重点任务推进落实情况汇总表</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10186531.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['吉安市人民政府 重大战略部署落实 2019年上半年吉安市政府工作报告重点任务推进落实情况汇总表', '按照中央和省委要求，根据省机构改革领导小组和市委、市政府工作部署，市、县党政机构改革于', '家图审机构进入我市承接图审业务。同时，增强市图审中心专家配备，按照国家对一类图审机构施工图审查人员要求，已增聘', '月底前完成。统一开展了城乡低保年审工作，对城乡低保对象全面入户调查、听证、公示，及时新增、取消、调整低保待遇，确保低保“公开、公平、公正”，截至', '市中心城区以井冈山大道、大桥西路、沿江路、文山步行街、吉州区行政中心周边等为试点区域，面积', '次以上检测，以天平称重路面尘土（不含落叶和树枝）和秒表测定地面垃圾停留时间的方法，对试点范围内环境卫生质量进行检测和考核。庐陵新区将在', '结合贯彻落实“基层减负年”要求，制定下发了《吉安市力戒形式主义切实为基层减负工作举措》，推动“三减三强两倡导”在全市政府系统落地落实，遏制“文山会海”“材料报表”反弹回潮现象。同时，细化制定了《市政府办精文减会具体工作举措》，并通过秘书长主任例会逐月调度，推动市政府层面有关工作的落细落实。', '制定出台了《吉安市关于建立完善守信联合激励和失信联合惩戒制度加快推进社会诚信建设的实施方案》，下发了《关于在全市公共资源交易领域对严重失信主体开展联合惩戒的通知》《关于在全市发改（物价）系统对严重失信主体开展联合惩戒的通知》。市房管局为加强房地产开发企业、房地产中介行业及商品房销售服务行业、物业服务企业信用建设，相继出台了《吉安市房地产中介行业及商品房销售服务行业诚信评价指标》和《吉安市物业服务企业信用档案与评价管理办法（试行）》。同时，依法实施联合惩戒。对吉安市振华房地产开发有限责任公司等', '家被法院等部门列为失信被执行人的企业及法定代表人（负责人）、董事、监事、高级管理人员实施联合惩戒。', '制定并印发了《企业投资项目承诺制改革试点实施意见》，目前，我市中心城区已实现政府、企业投资项目审批时间分别压减至', '。下一步，将坚持扩面和提质并重，继续组织梳理一批新的“一次不跑”“只跑一次”清单，力争年内实现依申请类政务服务事项“最多跑一次”全覆盖。', '月底前建成一体化在线政务服务平台，并与全省平台对接，依申请类政务服务事项网上可办率不低于', '已建成政务服务网、大数据中心平台、事项管理系统等基本（核心）系统，实现了与省平台的对接；正在建设电子证照、“一窗式”综合服务平台等', '个配套支撑系统没有启动建设。积极推动依申请类政务服务事项网上可办，目前市本级已实现了', '健全图书馆、文化馆、美术馆、博物馆等文化设施，推动村（社区）综合性文化服务中心全覆盖，打造“书香庐陵”。', '年基本完成建设任务，实现全市有条件的行政村农家书屋全覆盖；全力推进白鹭洲书院博物馆、永丰县博物馆、泰和县博物馆、吉水中国进士文化园、新干青铜博物馆基础设施建设，改善基层文博陈展条件；举行', '年“书香庐陵”全民阅读暨第九届“读好书”活动启动仪式，开展系列读书活动，营造浓厚的读书氛围。', '已创作《高铁从我门前过》《好人做到底》《半边锄》等反映脱贫攻坚、乡村振兴等现实题材作品', '部。以反映井冈山神山村在全国率先脱贫为背景的电视剧《糍粑粘粘日子甜》已完成二度创作，导演已进驻井冈山体验生活。同时，大力支持《井冈山儿女》的拍摄工作。', '办好“‘望郡吉安’北京文物精品展”，抓好永丰历史文化名城、新干大洋洲牛头城遗址保护利用。', '已在北京首都博物馆成功举办“望郡吉安”文物精品展开展仪式，完成了各县（市、区）主题文化旅游周活动，成功举办了井冈山精神、庐陵文化相关随展专题讲座，原定', '日撤展。推进永丰县恩江古城遗址、古城墙、状元府等考古发掘、保护修缮、申报国家重点文物保护单位工作，推进下西坊、城内街历史文化街区保护修缮工作、改造提升；继续推进新干大洋洲牛头城遗址考古发掘、保护修缮工作，完成一期保护工程建设，启动了牛头城保护规划编制，完成了大洋洲青铜博物馆提升改造工作', '深化移风易俗行动，推进绿色殡葬改革，完善公墓等殡葬服务设施，抓好“三沿六区”散埋乱葬治理。', '加强养老保障体系建设，推进医养结合，完善社区养老、机构养老服务，探索“社区尊老餐桌”服务模式。', '名；赴南昌、新余、萍乡、抚州学习考察养老服务工作，编印了养老服务政策文件汇编和健康养老产业项目招商册；吉州区养老服务中心、万安县社会福利院完成公建民营招标。', '万元专项资金；税务部门已按政策对企业安置每位残疾人每年可退还的增值税按当地最低工资标准的', '个企业及协会对接省农业农村厅开展的“四进一融”活动（进机场、进高铁、进地铁、进楼宇和融合新媒体），“井冈大米”登上央视黄金时段广告，拓宽我市农产品品牌宣传力度和渠道。', '市、县两级农业农村部门按照《江西省农业厅办公室关于印发全省农民教育培训工作实施方案的通知》精神，正在制定本地农民教育培训方案。深入推进“一村一名大学生工程”，按照贫困村优先和零学员村优先原则，精准招生，目前已超额完成', '以“三清一改一管护”、整治“八乱”为重点，压茬推进村庄清洁行动春节战役、春季战役、夏季战役等专项行动，全面清理整治村庄存量垃圾和卫生死角，累计清理各类农村生活垃圾', '一是扎实开展“春季整改”、“夏季提升”整改行动。对标中央专项巡视反馈问题、国家和省脱贫成效考核指出问题、贫困县专项评估检查发现问题，强化举措逐项抓好整改落实。截至', '实施森林质量提升、低效林改造、湿地修复、生物多样性保护等生态工程，加快实施国储林项目，新增人工造林', '日，我市国家级和省级自然保护区除违建旅游设施和水电站外，基本完成整改，正在陆续申报销号。', '日起接管吉州区砂石管理供应，制定出台了中心城区砂石供应保障实施方案，正在开展采砂船劳务招标、试行平价砂石进小区等工作。我市赣江沿县（区）均已将采砂权收回，组建国有砂石资源管理公司，赣江原有', '实施“两型三化”园区管理提标提档行动，年内所有开发区智慧平台与区内规上企业互联互通，实现“园区事、园区办结”。', '已制定下发开发区“两型三化”实施方案，积极推进园区智慧化、绿色化和服务化水平，目前大部分园区实现了与省智慧园区平台对接；所有园区均设有服务中心，基本实现园区的事园区内解决。', '亿元；推进“国企入吉”，建立央企乡友名录库，分别组建央企对接专业招商队，共对接拜访央企', '年江西老字号；起草了《关于加快发展夜间经济的实施方案》和《关于促进商贸三年升级加快商贸流通业发展的优惠奖励办法》，“两上三进”持续推进，多种名特优产品已进驻全市', '多家中石化加油站便利店，下一步将推进名特优进驻中石油加油站；举办了赣品进京启动仪式暨井冈山品牌农产品对接会，我市', '起草了《吉安市“证照分离”改革实施方案》（征求意见稿）并发有关单位征求意见；稳步推进“多证合一、一照一码”工作，', '，全市未发生较大及以上生产安全事故。督促各县（市、区）充实工业园区安监站力量，推行工业园区牵头，应急、消防、专家配合的“', '常态化做好了防灾减灾宣传教育，在井冈山报上开设专栏、开设应急管理微信公众号；积极协调防灾减灾救灾基地建设，对接争取国家、省十大配套工程；加强了救灾专项资金、物资管理；全面开展应急预案梳理修订工作。', '吉安供电公司根据《江西省发展改革委关于电网企业增值税税率调整相应降低一般工商业电价有关事项的通知》，自', '月份完成退差工作，并全部执行了新电价；根据《江西省发展改革委关于一般工商业电价有关事项的通知》', '人，推进生活垃圾分类精品示范点建设；市餐厨垃圾处理中心项目已完成政府采购和谈判，确定了社会资本方，正在进行', '、安装工程完成过半，项目范围内所涉机砖厂、肉鸡场、蛋鸡场、养牛场、高压线杆等已全部拆除，樟树移植、坟墓迁移等工作基本完成，场地平整完成', '实施第三期学前教育行动计划，扩大公办幼儿园、普惠性幼儿园办学规模和比例，规范城镇小区配套幼儿园建设使用。', '起草了《吉安市中心城区小区公办幼儿园招生管理办法》，正在征求意见；城建花苑、铜锣湾中央公园、恒泰小区', '吉州区城区学校建设稳步推进，上半年五里小学投入使用，吉安三中、田侯路小学、新村小学启动改扩建项目；吉安八中城北分校新建项目即将开工，石阳大校场分校已竣工，预计下半年投入使用。吉州区教育城域网建设进展顺利，一期（网络）工程已经完成，二期（网络中心和学校交换中心）建设正在进行中。', '实施医疗服务体系建设三年行动，提升市直公立医院、县级综合医院、乡镇卫生院、村卫生室服务水平。', '按照《吉安市医疗卫生服务体系规划》要求，不断优化医疗卫生资源布局，把医疗投入和资源配置向基层倾斜，合理确定公立医院单体规模，市儿童医院建成试运营，市中心人民医院内儿科大楼建成，井冈山大学附属医院整体搬迁项目进展顺利。推动实施市直三级公立医院绩效考核，加强县级公立医院服务能力建设，', '家县级中医院列入国家全面提升县级医院综合能力建设单位，乡镇卫生院、村卫生室规范化建设得到加强，提升了基层医疗机构服务水平。', '月份将开始联调联试。蒙华铁路吉安段：线上工程基本完工，正在进行电气化和吉安站改工程，计划', '开展失业保险援企稳岗“护航行动”，促进去产能企业分流人员和受“机器换人”影响的员工转岗就业。', '利用企业招聘会、纸质网络媒体多种渠道宣传稳岗补贴政策，扩大政策知晓面。今年上半年，全市为', '按照省人社厅等三部门《关于进一步加强创业担保贷款业务经办与资金管理的通知》要求，已将', '个；出台了《关于印发〈江西省高校毕业生基层成长计划实施方案〉任务分工的通知》，明确市直相关责任部门及市人社局工作职责，形成了内外齐抓共管的良好格局。截止今年', '加强终身职业技能培训，开展技能提升补贴“展翅行动”，支持社会培训机构参与政府补贴培训项目。', '利用企业招聘会、纸质网络媒体多种渠道宣传技能提升补贴政策，开展网上申领，今年上半年，全市发放技能提升补贴', '家民办职业培训机构，结合地方特色开展电商、畜牧业、种植业、家政服务、家庭种养等培训，', '中心城区高铁新区按照“两个龙头”定位，完成阳明西路、君华大道、站前大道等“三纵五横”路网建设，启动“五指峰”、“三中心”、', '个安置小区已出具用地红线图，东塘大道道路及地下综合管廊工程已完成地勘、可行性研究报告。', '月开工建设，目前秀江楼以及其他附属房、管理房、假山大门基础浇筑已完成，西侧绿化完成', '项，所有收费项目在市政府网站和市财政信息网上都已公开。同时，为规范涉企行政事业性收费工作，防止乱收费、乱摊派行为，市财政局正在进行非税收入和财政票据电子一体化改革工作，目前该项工作进展顺利。', '出台了《吉安市城市功能与品质提升三年行动方案》、《吉安市中心城区功能与品质提升三年行动实施方案暨', '年工作计划》等文件，成立了吉安市城市功能与品质提升工作领导小组办公室（品质办），按照省品质办要求，每月对“八大行动、百项工作”进行调度推进。目前各地、各单位正围绕年度任务清单，逐一抓紧推进落实。', '结合城市功能与品质提升三年行动，推进“三改三通三进”和背街小巷改造工作。目前，市中心城区共完成', '日完成市行政中心周边重点区域的亮灯；预算评审工作即将展开，各相关单位基本完成亮化工作。“点亮吉安”项目一期将于', '召开了全市城镇贫困群众脱贫解困工作领导小组第一次会议，下发了《吉安市城镇贫困群众脱贫解困结对帮扶工作方案》（吉办字〔', '号）和《吉安市城镇贫困群众脱贫解困工作领导小组主要职责和议事规则及成员单位工作职责》等文件，开展了全市城镇脱贫解困政策培训班，组织开展了全市城镇脱贫解困调研督导，各项政策正在落实。', '实施企业家成长计划，继续办好“领航井冈”企业家高级研修班，加大优强企业和优秀企业家表彰力度。', '组建市委全面依法治市委员会，成立立法、执法、司法、守法普法协调小组；深入实施“七五”普法规划，组建新时代文明实践普法志愿服务队，开展宪法法律“七进”和主题法治宣传教育活动；持续完善公共法律服务体系，加快整合律师、公证、司法鉴定、仲裁、司法所、人民调解等法律服务资源，持续推进农村“法律明白人”培养工程，已建成市、县、乡、村四级公共法律服务网络。', '编制了《吉安市全民健康信息平台（智慧医疗）建设方案》，该项目市发改委已立项，市信息中心已召集省级专家进行评审。目前，全市', '个县（市区）均完成了基层医疗平台建设，与各县级医院和省卫健委全民健康信息平台进行了对接，所有乡镇卫生院均可开展公共卫生服务及信息直报；建成了全省统一的卫生计生专网，市直医疗卫生机构全部接入专网，完成了预约挂号系统建设。', '吉水县、泰和县、万安县、井冈山市申报了省级县域综合医改试点，吉水县、井冈山市申报了全国紧密型医共体建设试点，将按照“县强、乡活、村稳、上下联、信息通”模式推进改革，实行医共体内部人、财、物统一管理，推动优质医疗资源下沉。截止', '推进生育保险和职工基本医疗保险合并实施、基本医保跨省异地就医住院费用直接结算，落实抗癌药降价措施，严厉打击欺诈骗保行为。', '生育保险与医疗保险合并实施工作由省里统一部署，待省局下发具体办法后，将结合我市实际出台实施方案；', '年吉安市开展打击欺诈骗保专项治理工作方案，市本级专项治理已进入自查自纠阶段，完成了', '日，安福县海能实业股份有限公司首发上市申请获中国证监会核准；青原区明辉光电科技有限公司已获得塞舌尔证券交易所上市核准批文，正在筹划路演。', '据省厅情况通报，目前国家自创区已在部委间会签文件，预计近期将会批复，我市将积极推进吉安高新区融入鄱阳湖国家自主创新示范区建设，跟踪相关工作，争取尽早批复加入。', '吨，目前已完成场地平整及进场道路施工，正进行基础施工和设备采购，下一步将推进主体工程施工、设备安装及调试。', '年工作责任书》，开展文明交通、市容市貌、公共秩序等专项整治行动；井冈山市制定了《井冈山创建全国文明城市公共环境专项整治行动实施方案（', '年）》，结合《全国文明城市测评体系》开展文明巡查和日常督查，对发现问题及时协调整改，创建工作正在全力推进。', '家企业，其中大股东有省行政事业资产集团、省水利投资集团、江西大成国有资产经营管理有限公司，以及我市城投公司和新庐陵公司。筹备报告等资料基本完成，主发起人省行政事业资产集团已向省财政厅提交筹备工作报告，待省政府明确拟任董事长后，以省政府名义向银保监会提报筹建申请材料。', '财政体制改革方面，正在对接中央、省改革进度，将适时出台医疗卫生、教育、科技等领域财政事权和支出责任划分改革方案。', '税收制度改革方面，落实新个人所得税法，实现从分类税制向综合与分类相结合税制的重大转变。深化了增值税改革，降低增值税税率，统一小规模纳税人标准。', '。坚决兜住“保工资、保运转、保基本民生”底线，加大对教育、社会保障、医疗卫生等基本民生保障，支持脱贫攻坚、生态环保、乡村振兴等重点领域，切实提高财政资金、资产、资本的配置效率，促进基本公共服务均等化。', '亿元已注入财兴公司，由财兴公司统一管理，下设重点工业子基金，首个项目为财兴公司出资1亿元投资的吉安立景创新项目。', '2019年3月，出台了《吉安市发展升级引导资金实施方案》，设立了发展升级引导资金，由市本级牵头，市县按1:3配投，撬动银行及其他社会资本，最终引导资金规模达到200亿元，重点支持重大工业、乡村振兴、全域旅游及人才创新创业项目，助推我市高质量跨越式发展。', '发挥中欧班列示范效应，布局“海外仓”，推动吉安产品“走出去”，力争生产型企业出口突破', '依申请类政务服务事项年内原则上全部进驻服务中心，实行延时、错时、预约服务，“一窗式”受理率达', '推动美丽乡村建设提质扩面，抓好井冈山、吉水、安福、万安省级美丽宜居试点县建设，争创一批省级示范村点。', '分类推进特色村点、标准村点和整治村点建设，重点推进全市“三沿两岸一区”〔高速沿线、铁路沿线、旅游干道沿线、赣江两岸、城区近郊区（包括创建中的农高区）〕美丽示范带建设工程，稳步推进井冈山、吉水、安福、万安四个省级美丽宜居试点县建设。', '推进农村承包地“三权分置”和集体产权“三变”，因地制宜发展资源开发型、资产经营型、休闲观光型村集体经济，年内', '以上有经营型资产的村产权制度改革。有序开展农村承包地“三权分置”试点工作，以吉安县作为试点县，在每个乡镇选择', '抓好中央环保督察“回头看”和鄱阳湖水环境专项督察等反馈问题整改，打好八大标志性战役。', '件。印发了《吉安市污染防治攻坚战八大标志性战役总体工作方案》、《吉安市污染防治攻坚战工业废气治理专项行动实施方案》等二十八个专项行动实施方案，建立并完善了市生态环境保护委员会工作规则、调度制度等', '项基本制度；召开了生态环境保护委员会全体会议暨污染防治工作调度推进会，调度并部署了下半年八大标志性战役、', '年度有关新建、续建项目逐一落实由市直投融资平台公司作为市本级城建重点项目资金保障主体。同时，市财政及时调度安排资金补充平台公司的现金流。', '长赣铁路。中铁四院已报中铁总可研报告，市发改委正在协调井冈山市、永新县、遂川县全力配合预审、压覆矿、文物、社会稳定风险评估等各项前置要件的编制审批工作，争取尽早完成可研审查。', '月初完成可研报告编制，争取尽早由南昌铁路局审核并会商省发改委联合上报中铁总审查批复。', '加快城市“双修”和海绵城市建设，实施纳管截污、雨污分流、引水入城工程，全面消除城区黑臭水体，开工建设中心城区应急水源项目。', '城市双修方面：出台了《吉安市中心城区和吉泰走廊沿线生态修复城市修补工作实施方案》，成立了吉安市生态修复城市修补工作领导小组；通过公开招标，聘请浙江省城规院编制城市双修专项规划，已经市中心城市规划委员会专家咨询组会议专题论证通过，待修改完善后邀请省级专家评审，再报市规委会审议。', '海绵城市建设方面：出台了《吉安市中心城区海绵城市建设实施方案》，编制了《吉安市海绵城市专项规划》和《吉安市海绵城市规划设计导则》等三个技术标准。选择鹿鸣湖公园、后河防灾避险公园改造等作为示范项目，以点带面，推动海绵城市建设。目前，鹿鸣湖公园、城建花苑、沿江路北延、后河防灾避险公园海绵化改造、高铁新区君华大道、阳明西路以及城区微循环道路等海绵型项目陆续建成。另外，梳理已建成未统计的建成区海绵城市项目', '出台《吉安市特色小镇创建试点实施意见》、《吉安市特色小镇创建导则》、《吉安市市级特色小镇评价指标体系（试行）》等一系列文件，建立健全了特色小镇创建体制机制。我市', '个国家级特色小镇创建梯队已基本成形。吉水县八都镇在省级特色小镇年度考核被评为优秀。', '全面融入全省区域发展战略，对接新一轮苏区振兴政策，实施“主轴驱动、区域协同”战略，推动高铁新区、井冈山经开区、吉安高新区、井冈山农高区互动发展，促进吉泰城镇群融合发展，推进新宜吉转型合作，将吉安打造成北连大南昌都市圈、南接赣州省域副中心的中部脊梁。', '日，国家发改委在吉安和赣州实地调研并召开座谈会，听取原中央苏区建议意见和诉求。高铁新区加快建设、井冈山经开区一区四园改革顺利实施、吉安高新区提质增效、井冈山农高区加快升建，四大重点板块加速崛起，促进了走廊区域的联动发展、融合发展。吉泰走廊城镇化率突破', '个百分点，“一核两翼三带”的区域空间格局基本建成，形成了中心城区、副中心城市、重点镇、一般镇四级城镇体系，城乡一体化趋势更加明显。', '年农村环境综合整治目标任务的通知》，督促未开工和进度滞后的县（市、区）加快农村环境综合整治进度，完成农村环境综合整治工作。', '加快井冈山国家级农高区升建步伐，抓紧规划编制和基础设施建设，年内力争引进省级以上科研院所', '《农高区总体规划及控制性详规》已报专家会论证通过；中科吉安生态环境研究院、井大现代农业发展研究院已入驻，省科学院、省农科院、江西农大、中化现代农业已与市政府签订合作协议，省级院士工作站于', '个重点项目开工建设，引进江拖丰收农业装备吉安产业园、中合三农（广东）集团绿色大米等农产品精深加工和道地药材交易平台等项目；围绕“南方红壤丘陵”特征，新引进芦笋品种', '已成立对接“航天十二院”深化合作工作组，建立了合作工作机制，正积极跟踪“星融网”顶层设计进展。', '积极支持木林森、立讯等龙头企业做大做强，木林森上半年因企业改革问题，数据略有影响，下半年改革完成后，将有大幅增长，预计今年木林森和立讯均能如期实现百亿目标。', '发展新型材料、绿色食品产业，加快永丰碳酸钙科创城建设，培育遂川硅基材料等重点集群，完善“', '草拟了我市绿色食品、新材料产业高质量跨越式发展五年行动方案；积极争项争资，永丰县碳酸钙科创城加快建设，遂川县硅基新材料产业集群加快培育，指导和信化研、思立科', '已组织企业申报《江西省首台（套）重大技术装备推广应用目录》，鼓励企业充分利用首台（套）政策，开展具有知识产权的首台（套）重大技术装备的研制或购买使用。', '个单位，下半年将根据省厅申报通知，组织相关单位申报省级科技企业孵化器和众创空间，做好市级科技企业孵化器、众创空间申报认定工作，力争年内实现创新载体县域全覆盖。组织', '起草了《吉安市人民政府关于推进“节地增效”行动的实施方案》（征求意见稿），明确全面推进企业“亩产论英雄”、加快推行工业“标准地”、全面落实建设用地“增存挂钩”和加快盘活城镇低效用地四项工作任务。目前，该实施方案正在征求各相关单位意见，待完善后报政府审定。同时，采取各种措施加快消化批而未用土地，截至目前，全市已消化批而未用土地', '加快吉安高新区凤凰园区“北拓西扩”，推进智能制造产业园和创新创业产业园建设，力争吉安高新区年内主营业务收入突破', '加快凤凰园区“北拓西扩”，鹏程大道四期、希望大道、凤翔大道三期、凤凰五路二期正在施工，完成征地', '亩。加快创新创业园、智能制造产业园路网及土地平整等建设进度，创新创业园已办理选址意见书、完成土地预审、立项及规划设计，创新佳苑', '家企业入驻，包括台达设备、骏涛电子等；智能制造产业园正在进行凤凰大道南、宝钢地块的土方平整，凤凰五路二期土路基已完成', '创新发展“枫桥经验”，深化“访调对接”试点，促进信访工作与调解、仲裁、行政裁决、行政复议衔接配合。', '县（市、区）列入省第二批“访调对接”试点单位，出台《关于政府购买人民调解服务实施细则》，探索向社会组织购买人民调解服务模式，试点工作正在推进。', '落实《吉安市市容和环境卫生管理条例》，深化违章搭建、防盗网、小区管线、批而未建围挡地块专项整治。', '条行政处罚自由裁量权细化标准，开展了行政执法监督和执法案卷审查，拆除了鸿盛花园、凯旋华府、文峰汽车城等小区（园区）内', '月份做好标准化驻地、厂站建设，编制施工组织设计及大临设施方案，办理有关许可、审批手续等施工准备工作。', '月份项目已进场施工，中标方已着手进行设备备货、发货等相关工作，正按序时进度完成项目建设工作。', '日召开贵阳旅游推介会；吉州窑景区已拟定全年景区宣传方案，正在完善智慧景区推进建设方案；新干县已制定《国家', '级景区调度协调会。万花世界景区推进花花世界观光园建设，主入口征地已完成，与南昌华清旅游发展有限公司就花花世界华清欢乐大世界项目达成协议，即将签约。', '北京大兴”航权，待协调华北民航局争取一排北京大兴捆绑时刻，执飞公司南航将排入计划进行执飞优化。积极联系各大航司新增“珠海', '青岛（东北方向枢纽城市）”，把港珠澳大湾区、环渤海经济带及东北工业枢纽城市纳入吉安', '目前，该项目初步设计已上报省发改委，待批复后将进行施工图设计和工程招标。同时，已启动吉安高品质公交项目包含的', '日，安福县工业园区已经省政府正式批复为省级高新技术产业园区；永丰县已正式向省政府推荐上报更名材料，近期将赴省厅跟踪汇报，争取年内获批；指导吉水县工业园做好申报省级高新技术园区有关准备工作。', '市科技局已组织吉州区参加省科技厅举办的创新型县（市、区）建设培训班，明确申报要求，正在推进。', '加强市中心城区水巷、能仁巷历史文化街区文物古建筑保护，配合做好历史文化街区保护规划编制，整治街区环境风貌，改造基础设施，修缮历史建筑，传承和推广庐陵建筑风格。对保护性建筑、可利用旧厂房实行登记造册、归档管理和挂牌保护。', '按照省工作方案要求，推荐了吉安市兴桥田园综合体（在吉安市现代农业示范园内）、吉安县的江西圣大农业田园综合体及吉水县的黄泥洞田园综合体申报省级田园综合体。目前，省厅尚未批复。', '年工作计划》和《吉安市污染防治攻坚战农用地污染防治专项行动实施方案》，开展土壤污染状况详查，指导各地受污染耕地安全利用集中推进区建设，吉州区樟山镇瑶埠村受污染耕地安全利用试点、井冈山葛田乡铜锣垇受污染耕地治理修复试点稳步推进。在吉水县、永新县试点开展耕地土壤环境质量类别划定，正按要求做好前期资料准备。', '严守生态保护和永久基本农田保护红线，开展自然资源资产统一确权登记，加强国土空间规划管控。', '我市生态保护红线与永久基本农田保护范围均已划定，在下一步国土空间规划中，将进一步优化生态保护红线和永久基本农田保护范围，严格落实“三线三区”，加强国土空间规划管控。目前，我省尚未开展自然资源统一确权登记工作，将根据省厅统一部署开展我市自然资源统一确权登记工作。', '建立完善了以村级信息员为基础，乡镇国土资源所为纽带，执法监察队伍为主体的执法监察网络，强化动态巡查和日常巡查，市、县两级均配备移动执法终端平台，定期与不定期巡查相结合，加强农民建房监管。截至目前，全市共发现农民违法用地建房', '目前，已启动《赣江中游（峡江库区）生态修复及保护专项规划》编制的前期工作，预计今年', '建立农村饮水安全管理责任体系，全面落实农村饮水安全管理“三个责任”，完善农村饮水工程运行管理“三项制度”。', '万人口饮水安全问题。目前吉水县和新干县已经开工，青原区、峡江县、泰和县准备招投标工作。', '混凝土搅拌区一体化项目接卸点工程已完成招投标，正在抓紧开工建设；吉州区及青原区因生态环境保护要求调整方案，吉州区已调整到位，正在抓紧开展相关前期工作；青原区已调整方案，搅拌区园区设在河东工业园区，砂场通过专线运输运砂。搅拌场搬迁方面，已研究制定奖励资金分配初步方案，正在征求意见。', '开展井冈山经开区“一区四园”改革效果评价。加快青原产业园提质增效和富滩产业园扩区调规；加快经开区西区改造升级，启动小微企业产业园建设，推动低效企业“腾院上楼”、僵尸企业“腾笼换鸟”。', '召开了“一区四园”一体化发展领导小组会议，就井冈山经开区、青原区和青原产业园职能交接问题进行了协调，今年', '月底各项职能已全部交接到位；青原产业园规划建设和富滩产业园扩区调规工作正在有序推进中。经开区西区小微企业产业园已开展土地收储，部分企业入园正在洽谈协商。', '人才公寓项目土地征收等前期工作有序推进，修建性详细规划已研究通过，正在进行施工图设计单位招标。创新大厦已完成桩基建设，正在底板施工。', '升级请示报告已报至海关总署办公厅；受国务院委托，海关总署正在征求自然资源部等部委就土地及规划合法性审核意见；反馈意见后，总署将天津东疆保税港区等', '成立了吉安幼儿师范高等专科学校筹建领导小组，完成了学校项目规划选址及土地征收有关事项，正在做项目设计、拆迁等工作。', '年吉安市食品安全重点工作安排》，加大对本地特色食品风险监测、监督抽验力度，市本级已组织开展', '批次食品抽检工作。筹备召开吉安市食品安全委员会会议，拟成立食品安全示范城市创建工作领导小组，督促各地各单位对照创建方案和工作重点加快工作进度。', '高速公路网规划，已完成工程可行性研究报告编制，目前省发改委已组织工可评审。大广高速（吉安至南康段）扩容改造项目已完成项目工可初稿编制，项目工可初稿', '座。高铁西站公交场站等四个公交充电桩场站建设已纳入利用亚行贷款实施的吉安城市交通项目高品质公交网络与多模式交通整合建设项目的子项目；目前，项目可行性报告已获省发改委批复，项目进入初步设计送审阶段。', '一是武功山通用机场主体工程初步设计已完成，近日将组织专家进行评审；二是挡土墙、取水等先行工程施工图设计及工程量清单编制均已完成，待确定施工单位进场施工；三是机场主体工程招标代理公司已基本确定。目前，正在与广州龙浩集团进行积极对接，双方就合作建设武功山通用机场基本达成共同意向，有关合作细节仍在洽谈中。', '亩；航空特色小镇总体规划和控制性详细规划已出成果；快速通道拆迁民房已测绘；机场二期扩建林地指标', '公顷已通过省林业厅预审待批复。吉安航校、桐坪航空产业园建设，与天翔航空公司初步达成落户航空产业园协议；与南昌理工学院国际飞行学院洽谈在航校产业园内建飞行学院项目；', '日东部战区指挥部空军指挥处派专人到航校就该项目进行了现场审核，待审核通过后开展后续项目跟进工作。', '加大国资国企和投融资体制改革，组建以市城投和新庐陵为龙头的集团公司，实现“规模千亿级、信用上等级”。', '月中旬已印发《吉安市省级军民融合创新示范区建设实施方案》，提出“推进红色教育培训示范标准、电子信息首位产业民参军示范工程等九个重点示范任务，力争到', '正在按照省里统一部署，全力协助中铁经规院、中铁四院等设计研究单位做好资料收集工作，提供运量分析相关数据，并及时与沿线地市沟通，积极向上级对口部门汇报争取支持，争取中铁总早日启动前期工作。', '此项工作主要由省里主导，地方配合，目前省里还未布置具体工作任务，市发改委将密切关注，并积极配合工作。', '已草拟电子信息高质量跨越式发展行动方案，预计今年上半年全市电子信息产业主营业务收入将达', '加强老旧小区设施建设，支持符合条件的旧住宅加装电梯，大力开展既有住宅加装电梯试点，争取在下半年开展既有住宅加装电梯需求摸底调研，尽快出台相关政策。', '月开工建设，主要包括烈士纪念园和白雾山郊野公园两个子项目。目前，烈士纪念园已基本完工，于今年', '日正式开园；白雾山郊野公园正在稳步推进征地拆迁工作，目前只剩几户还未签协议。下一步，将加快工作力度，年前可确保完工。', '中国人民银行《普惠金融改革试验区总体方案》还未出台，待方案出台后，我市再根据方案落实。', '市本级完成了防灾避险公园提升改造、白鹭洲公园健身器材及木亭木桥更换、人民广场音乐喷泉更新、行道树树池改造等；新干县、吉水县、峡江县、万安县、吉安县进展较快；市本级']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>125</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>市五型政府建设简报第三十五期</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019-05-31</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-44471.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['要从更高层次贯彻落实习近平总书记对江西工作的重要要求，按照省委全会和省政府工作报告部署，深入践行新发展理念，抓住江西进入厚积薄发、转型升级阶段的机遇，乘势而上、奋发作为，以高质量大规模的项目建设，推动县域经济3至5年全部实现翻番，助推全省高质量跨越式发展。', '在智慧安福中心，易炼红走访了政务服务窗口，听取了综合指挥中心和大数据管理中心运行情况介绍，他强调，“要打通县级政务服务中心与‘赣服通’对接渠道，加强数据共享，实现‘一网通办’‘一体化办理’，让企业和群众‘一次不跑’或‘最多跑一次’，办事更加便捷爽心。”“政府系统要以‘五型’政府建设为动力，大力倡导‘不为不办找理由，只为办好想办法’，让‘事事马上办、人人钉钉子、个个敢担当’成为公职人员的行为准则和自我追求，提升县域政务服务水平。”', '为更好贯彻落实全市政府办公室工作暨“五型”政府建设推进座谈会精神，主动对标“五型”政府建设要求，提升全市政务信息工作水平，4月19日我市召开全市重点单位政务信息工作调度会。', '做好政务信息工作，是深入贯彻落实“五型”政府建设的题中之意，全市政府系统办公室要主动适应新形势新要求，主照“五型”政府建设要求，坚定信心，保持干劲，切实增强政务信息工作的责任心、紧迫感和敏锐性。一方面要担当负责，推动政务信息高质量发展，注重挖掘深度信息，重于提炼经验信息，广泛收集热点信息，准确研判疑难信息，科学呈报建议信息，及时报送“实、新、快、准、稳”的政务信息，为政府科学决策提供高质量的信息支撑；另一方面要创新方式，进一步激发信息工作内生动力，建立强化“考核—培训—交流”三位一体工作机制，营造浓厚的工作氛围，形成分布广、落点准、反应快的信息员队伍，进一步拓展信息服务广度、丰富信息服务内涵。', '我市各地、各部门从更高层次贯彻落实习近平总书记对江西工作的重要要求，按照省、市全会和市两会精神，积极作为，务实进取，进一步策应“大干项目年”行动，优化政务服务环境，积极破解影响和制约高质量跨越式发展的困难和问题，以项目推进打造全市高质量跨越式发展的强大引擎。', '持续优化政务服务环境。一是进一步精简下放审批事项，对卫生健康领域政务服务事项偏多、流程复杂、周期较长等问题进行全面清理、减量、优化，建立责任清单，实现所有审批事项“压缩环节、优化流程、共建共享”。二是大力推进智慧卫健政务，推行“互联网+”，整合卫健服务窗口、网上服务平台、服务热线等资源，线上线下功能互补，推动卫生健康服务智能化、服务自动化、办事移动化，让“信息多跑路、百姓少跑腿”，方便企业、群众办事创业。三是深入实施健康扶贫再提升工程，贫困户县域内住院实行“先诊疗后付费”、“一站式”结算和扶贫病床设置优惠政策，积极推行家庭医生签约服务制度，实现贫困群众大病集中救治全覆盖。', '积极服务社会经济发展。该调查队围绕市委、市政府中心工作和重大决策部署，发挥调查专业特色，从横向、纵向挖掘专业报表信息，高质量提供优质调查数据和精准的分析研判，为党政领导科学决策提供数据与理论支撑。同时，结合社会经济发展过程中的热点难点，发挥调查队“轻骑兵”功能，深入企业和住户等基层单位开展短平快的快速调研工作，及时、客观地提供专题调研信息，提升统计调查服务经济社会效果。', '集中攻坚开展项目建设。该区以重大项目需求为牵引，加快科技创新，整合产业链条，推动电子产业转型升级，集力构建规模集聚、配套完善、成果转化有效的电子信息产业生态圈。围绕这一目标，该区将高标准建设金鸡湖创新小镇，打造城市客厅；推动益丰泰TFTLCD面板、木林森IC封装、鼎智科技、南亚新材料、思立科二期等项目全面完工并正式投产；推动火乐科技、巴斯巴科技、生益电子、金匠装备、古川科技、富翔科技、蓝晶光学、木几智能、航盛总部和新琪安、蓝微电子异地技改全面开工建设；加快推进燕子窝集中搅拌区、深圳大道东延、人才公寓、新联大厦、螃蟹王国众创产业园等项目建设。', '全力开展“大干项目年”活动。该县紧紧抓住国家和省市重大战略、政策导向，围绕打好“三大攻坚战”、推进制造业高质量发展、实施乡村振兴战略、提升城市功能与品质、保障和改善民生等重点领域，谋划推出一批“含金量”“含新量”“含绿量”高的大项目，力争更多项目进入国家和省市“盘子”。坚持项目为王，年内计划安排县重点项目80个左右，开工建设城北新汽车站、公共租赁住房、高塘堤除险加固等项目。力争年内建成工人文化宫、君山湖湿地公园及立讯产业园周边道路网架、怡心花园等工程。', '推动政府职能转变，优化县域发展环境服务。一是深化“只跑一次”“一次不跑”改革。持续开展“减证便民”行动，推行“多证合一”改革，取消调整各类证明事项191项。创新“一窗受理，集成服务”、不动产“3+5”集成服务、企业注册开办并联办理、办税无差异综合窗口及半小时办结承诺等模式。二是积极推进“互联网+政府服务”，加快落实全县政府服务事项。推进乡镇便民服务中心和村（社区）代办点规范化建设，打造省市县乡村五位一体便民服务体系。三是深入推进“双随机、一公开”监管，建立健全事前事中事后监管机制和相关细则，形成“一处违法，处处受限”联合惩戒机制，增强监管合力，提高监管效能。', '稳步推进企业股改上市工作，助推企业发展。一是结合县情实际，制定出台《安福县扶持企业上市挂牌优惠政策》，其中扶持政策9条，奖励政策5条，全面细化和落实了全省对企业上市挂牌扶持政策的要求，全力支持企业不断创新、大胆股改、积极上市。二是强化帮扶举措，创新推进批量集中股改。通过政府搭建中介衔接平台，一边“请进来”，主动邀请多家券商到县内做股改辅导，积极组织县内重点企业参与学习、互动交流；一边“走出去”，主动组织县内重点企业到省股权交易中心等地学习考察、坚定决心。', '一是实行“一个项目、一个牵头县领导、一个牵头单位、一套方案、一套人马”的“五个一”包干责任制，聚焦重点难点问题，合力攻坚，推进重点项目建设。二是全面落实重点项目审批绿色通道制度，各种要素资源优先向重点项目倾斜，确保项目平稳推进。三是坚持“月通报、季督查、年评比”制度，强化监督检查，确保项目按照时序进度推进。', '加快推进民生项目，惠民、便民、利民，是“五型”政府建设的题中之义。万安县创新养老模式，依托“互联网+”发展智慧养老新业态，为丰富和提高养老服务提供了有利探索；新干县积极整合资源，大力推进基层综合性文化服务中心建设，打通公共文化服务“最后一公里”。', '打造“互联网+智慧养老”新模式，全面提升养老服务质量。一是搭建“互联网+X”大数据平台。积极建立服务对象年龄、身体状况、生活能力、家属信息等个人信息档案，以第三方公司、县民政局、县卫健委等为成员，构建县、乡、村三级紧急救援网络。二是优化“互联网+智慧养老”服务。根据老人不同需求实行养老服务“点餐”，实施智慧养老，为老人提供贴心服务。设立952183紧急救援热线，帮助老人处理紧急事情，提供救助服务，全面降低老年人意外风险。三是强化“互联网+居家养老”服务。通过政府购买服务，为80周岁及以上的高龄老人免费派发具有定位功能及一键紧急救援的手机，每月拨打电话240分钟免费。', '打通公共文化服务“最后一公里”。该县紧紧围绕建设全省文化小康示范县、全国文化强县目标，积极整合资源，加大资金投入，大力推进基层综合性文化服务中心建设，有效打通了普惠平等、均衡高效的公共文化服务“最后一公里”，大大提升了群众的文化获得感、幸福感。目前，该县建成功能齐全、各具特色的村级综合性文化服务中心159个，实现行政村(社区)全覆盖；建成了国家一级县文化馆、县图书馆以及62个图书分馆服务点、26个文化分馆服务点。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>125</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>市五型政府建设简报第三十三期</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2019-04-22</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-43685.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['在全省上下深化“五型”政府建设，大力推动“三减三强两倡导”行动的关键时期，吉州区结合该区“作风提升年”行动部署，在全区政府系统开展“寻标、对标、立标，精神提振、素质提高、效能提升”活动（简称“三标三提”活动），进一步解放思想、拓宽思路，全面提升目标定位、工作标准，优化工作作风，推动全区各项工作进位赶超、创先争优。现将吉州区“三标三提”活动方案转发给大家，希望各地、各单位结合实际，相互借鉴，提升目标定位和工作标准，进一步巩固提升全市“五型”政府建设工作水平。', '为从更高层次贯彻落实习近平总书记对江西工作的重要要求，进一步深化“五型”政府建设，大力推动“三减三强两倡导”，按照吉州区委“作风提升年”行动决策部署，经研究，吉州区决定在全区政府系统开展“寻标、对标、立标，精神提振、素质提高、效能提升”活动。', '寻标就是要找准先进标杆。坚持向一流标准看齐，按照“行业领域同类、基础条件相近、可学可比可赶”的要求，在全省乃至全国范围内选择先进典型作为标杆对象，使学有榜样、赶有目标、干有方向。', '对标就是要对照标杆学真经。全方位学习先进单位的经验做法，既对标单项亮点工作，又对标整体工作。同时，深入对比分析自身存在的差距，认真研究制定切实可用的工作举措，把学习成果转化为实际行动。', '立标就是要树立自己的标杆。发扬庐陵文化“追求卓越、坚守气节”的思想精髓来追求最高的水平，通过学习借鉴和转化实践，真正破解一批制约发展的“瓶颈”问题，创造一批在全市做标杆、在全省当典型、在全国有影响的特色品牌。', '精神提振就是要强化争先意识。坚决落实市委“四个坚决做到、四个坚决反对”要求，与时俱进、高标定位、锐意进取，以一流的思想境界、一流的精神风貌、一流的实干精神，创造一流的工作业绩。', '素质提高就是要提升干事创业本领。坚持干一行、爱一行、钻一行、精一行，始终在学习和研究的状态下工作，在干中学、学中干，切实增强“六种本领”，着力提高把握运用规律的能力、坚持高标准的能力、善于用好方法的能力，做到敬业、专业、精业。', '效能提升就是要强化时效意识。切实增强“今天再晚也是早、明天再早也是晚”只争朝夕的紧迫感和“宁可掉肉、不可掉队”的责任感，按照“四个及时”的要求，做到日事日毕、日清日高，推动各项工作提速提质提效。', '各镇政府、街道办事处、区政府各部门、各产业平台围绕区委、区政府的决策部署，按照扬优势、补短板、破难题的要求，结合自身实际，精心筛选1-2项重点中心工作作为创先争优事项，在全省乃至全国范围内选择1-2个先进单位作为学习标杆，经区政府分管领导审定后，报区政府办公室备案。', '各镇政府、街道办事处、区政府各部门、各产业平台围绕创先争优事项，通过“走出去”“请进来”、建立友好单位等方式，深入学习研究标杆单位的思维理念、体制机制、方法路径以及精神状态、工作作风等，并形成学习考察报告，报区政府办公室。同时，要建立与标杆单位经常性联系沟通机制，增进深入了解，及时掌握标杆单位的工作动态，持续跟进新思路、新举措。', '各镇政府、街道办事处、区政府各部门、各产业平台要充分吸收运用好学习成果，按照高标准、精细化的要求，研究制定具有较强针对性和操作性的创先争优工作方案，明确目标任务、阶段安排、推进措施、完成时限、责任人员等，经区政府分管领导同意后，提交区政府研究审定。', '各镇政府、街道办事处、区政府各部门、各产业平台将创先争优工作目标、主要举措、完成时限等内容，通过电视、广播、报纸、网站、资讯终端等媒体向社会公开承诺，接受群众监督，倒逼履职尽责。', '各镇政府、街道办事处、区政府各部门、各产业平台要严格按照创先争优工作方案和公开承诺的事项，以“担当实干、马上就办”的工作作风和钉钉子的精神抓好工作落实，确保按时保质保量完成既定目标，做到言必行、行必果，确保不失信于民。对完成时限在2020年的，要以“咬定青山不放松，不达目的不罢休”的定力和韧劲，不打折扣、不讲条件、不找理由抓好落实。', '组织人员对各镇政府、街道办事处、区政府各部门、各产业平台“三标三提”活动情况进行检验评估。同时，全面总结活动情况和取得的成效，以点带面，建立健全长效机制，巩固提升活动成果。', '成立区“三标三提”活动领导小组，领导小组办公室设在区政府办公室，负责领导小组日常工作。区政府领导负责牵头抓好分管联系部门“三标三提”。各镇政府、街道办事处、区政府各部门、各产业平台要加强领导，精心组织实施，确保务实、有序、高效推进。', '加大宣传力度，在全社会营造学先进、赶先进、争先进的浓厚氛围。充分调动广大干部群众和社会各界的积极性、主动性和创造性，凝聚各方智慧和力量，形成推动工作的强大合力。', '结合“作风提升年”行动和“五型”政府建设，实行定期调度、督查和通报，及时研究解决推进过程中的问题，确保各项工作按照既定的时间表、路线图有序推进。', '加大考核奖惩力度，将“三标三提”活动作为“五型”政府建设考核重要内容。坚持求真务实，注重工作实效，力戒做表面文章、搞形式主义，真正以活动推进发展，以发展成效检验活动成果。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>125</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>安福县三强三推助力企业股改上市</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2019-04-19</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-43220.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['安福县以“五型”政府建设为抓手，认真贯彻省、市金融工作部署，积极策应全省企业上市“映山红行动”，采取一系列有效政策举措，企业股改上市工作取得积极成效。', '参考省内外先进地区做法，结合县情实际，制定出台真金白银的《安福县扶持企业上市挂牌优惠政策》，其中扶持政策9条，奖励政策5条，全面细化和落实了全省对企业上市挂牌扶持政策的要求，', '明确对企业在各类市场挂牌进行奖励，妥善合规处理企业在股改、上市过程中遇到的土地、房产、税务、环保等各种问题，', '得到企业的高度认可，坚定了企业上市的信心和决心，为推动企业上市创造更为有利的条件。', '在大量走访调研、反复摸排筛选和深入沟通对接的基础上，探索出政府主导企业批量集中股改的新路子，即：运用“看得见的手”，发挥政府主导作用，通过政府搭建中介衔接平台，一边“请进来”，主动邀请多家券商到县内做股改辅导，积极组织县内重点企业参与学习、互动交流；一边“走出去”，主动组织县内重点企业到省股权交易中心等地学习考察、坚定决心；进而在综合券商股改报价、企业主观意愿的基础上，确定了与广州证券签订批量集中股改战略合作协议，并组织县内第一批5家企业与广州证券签订股改协议。采取企业批量集中股改的模式，显著降低了企业股改成本，并有效激发了券商及其中介机构辅导企业股改上市的积极性。截至目前，我县立时科技、樟乡冰片、唯欣高科、银杉白水泥等4家公司已完成股份制改造，股改企业完成数为全市第一；2019年已有4家完成股改企业在省股交中心挂牌。', '始终把推进海能实业上市作为企业上市工作的重中之重。针对海能实业提出的招工难、员工乘车难、子女就学难等热点、难点问题，我县高度重视，全力攻坚。通过“春风行动”、民营企业招聘、高校毕业生招聘等各类专项活动，帮助企业招聘职工400余人，通过职校“订单”培训、企业职工岗前培训等活动，为企业输送人才300余人；优化公交车班次，增强园区交通运力，新增电力公交班车5台；规范城区义务教育学校招生秩序，为企业干部职工子女开设进城就学“绿色通道”，帮助解决企业职工子女就学70人。截至目前，海能实业在深交所创业板排队等候，排名第43位。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>125</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>我市代表团赴厦门交流对接庄稼汉与胡世忠王少玄进行座谈</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019-01-24</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-41173.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['（施伟）为进一步深化对接合作，提升吉安对外开放水平，1月22日，市委书记胡世忠，市委副书记、市长王少玄率团赴厦门市学习考察、对接交流。厦门市委副书记、市长庄稼汉与胡世忠、王少玄就进一步加强对接、深化合作进行深入交流座谈。厦门市委副书记陈秋雄，厦门市委常委、秘书长黄文辉，厦门市副市长李辉跃参加座谈。', '庄稼汉对吉安一行表示欢迎。他说，1986年厦门与吉安开启“特区带动老区发展”的合作之旅，为两市交流合作打下了良好基础。近年来，厦门市以党的十九大精神为指引，深入学习贯彻习近平新时代中国特色社会主义思想，坚持创新驱动，加快转型升级，着力去库存、补短板，坚持高质量发展，落实赶超目标，实现经济社会平稳健康发展。尤其是厦门大力度减税降费，全面取消港口政府性收费，全市服务性收费下降30%，全力打造一流营商环境、并跻身全国前三，创造了“厦门样板”。良好的营商环境孕育了厦门8条千亿级产业链，培育了200多家国家级高新技术企业，全省占比超过40%，厦门港出货量居全国第七。庄稼汉表示，下一步将充分利用厦门港口优势，进一步做大做强吉安陆地港，并在产业发展、社会事业、教育、人才交流、旅游发展、社区治理等方面深化对接合作。', '胡世忠对厦门的热情接待表示感谢。他说，近年来，吉安深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神，从更高层次贯彻落实习近平总书记对江西工作的重要要求，按照省委省政府决策部署，加快推进“三个走在前列”“两大战略任务”和高质量跨越式发展。胡世忠从脱贫攻坚、产业发展等方面，简要介绍了吉安经济社会发展情况。他说，吉安与厦门的合作源远流长，特别是近年来两市往来日益密切，在产业对接、开发区合作、人才对接引进等方面取得明显成效，对接合作领域不断拓展。胡世忠说，希望今后在已有合作的基础上，进一步深化拓展，探索“特区带动老区发展”新路，具体在“强化四个对接、开展一个学习”上着力：一是强化产业对接，进一步深化厦门火炬高新区与吉安高新区产业合作和创新协作，积极承接厦门产业转移，在电子信息产业、旅游业发展上深化对接合作。二是强化平台对接，利用厦门投洽会、厦洽会、工博会等重大开放平台，积极拓展市场，进一步利用厦门港口优势，助推吉安陆地港提升对外出口水平。三是强化人才对接，厦门发挥人才聚集优势，帮助老区柔性引进一批高端实用人才，进一步深化院士工作站、科研实验室对接合作，推动厦门大学与井冈山大学开展深入合作。四是强化红色教育培训对接，把吉安和井冈山作为厦门党员干部的红色培训基地、群众的休闲度假基地。五是开展基层治理经验学习，学习厦门在基层治理和社区建设方面的好经验好做法，提升我市社区建设管理水平，助力城市功能与品质提升三年行动计划。通过一系列的对接合作，两地实现优势互补，共同为实现中国梦作出老区和特区的新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>125</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>省五型政府建设简报第二十五期</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2019-01-22</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-40970.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['省住建厅深入践行“五型”理念，以建设“美丽宜居、整洁文明”城市为目标，念好“留、治、建、管”四字诀，精心规划、精致建设、精细管理、精美呈现，完善城市功能、提升城市品质，推动城市高质量发展。全省11个设区市成功创建国家园林城市，成为率先实现设区市全部进入国家园林城市的省份，城市“双修”、海绵城市建设试点成为全国示范，获得住建部充分肯定。', '。立足城市生态资源和文化特征，优化空间布局，“增绿”“留白”，存乡愁留记忆。一是留住山水风光。做好“显山露水”文章，做到城市与青山绿水融为一体。按照“300米见绿、500米见园”的要求，合理规划和建设城市绿地，全省建设绿色廊道320公里，城镇建成区绿化覆盖率44％、绿地率40.29％，位居全国前列。二是留存城市基因。加强对城市空间立体性、平面协调性、风貌整体性、文脉延续性等方面规划和管控，留住城市特有地域环境、文化特色、建筑风格等“基因”。全省有国家历史文化名城4座，对1272幢历史建筑实行注册登记、挂牌保护、档案管理，推进赣州市国家城市设计试点和景德镇、婺源、瑞金省级城市设计试点工作。三是留下发展空间。划定城镇开发建设边界，坚持集约节约发展理念，拒绝“摊大饼”。既立足当前，又谋划长远，为城市“留白”，实现可持续发展。', '。全力推进城乡环境综合整治，开展百日攻坚行动，打响城市功能与品质提升前哨战。一是治“脏”。加快推进城市道路机械化清扫，新增各类清扫车辆4000多辆，设区城市中心城区主要道路机扫率达88％。宜春市、南昌市、赣江新区生活垃圾分类试点工作进展顺利。二是治“乱”。在点线面上不断发力，全面开展“三线六边”区域环境整治，打好“拆、清、绿、装、亮”组合拳。南昌市投资17.7亿元实施了“一纵一横”道路建筑立面综合整治，有效提高“颜值”。三是治“污”。全省11个设区市建成区完成黑臭水体整治26个。九江市列入国家黑臭水体整治示范城市，6个设区市已建成污泥处理处置设施，在全省开展建筑工地扬尘治理行动，设区市中心城区建筑工地全部达到“六个100％”要求。', '。以项目为抓手，提高城市综合承载力。一是抓好棚户区改造。全年开工改造各类棚户区27.8万套，开工率100％，提前两个月完成国家任务，累计改造棚户区166.6万户。二是抓好市政基础设施建设。推进城市道路、给排水、生活垃圾、污水处理设施等建设，城镇供水、燃气普及率分别达到97.13％和94.34％，垃圾焚烧日处理能力达6400吨，累计形成综合管廊廊体77.56公里。三是抓好公共服务设施建设。完善教育、医疗、文化、体育、养老和社区管理服务等设施布局专项规划，着力提高群众最关心的公共服务设施水平，开展“厕所革命”，出台设计导则和管理服务标准，新建改造城市厕所1100多个，5000多家单位厕所免费开放。四是抓好城市“双修”和海绵城市建设。景德镇将生态修复城市修补作为治理城市生态环境问题、推动老厂区更新利用、解决社区公共服务短缺等一系列“城市病”的综合抓手，22个设市城市加快推广萍乡海绵城市试点经验，全省已建成海绵城市面积121.34平方公里。', '。按照“建管并重”的要求，推进城市精细管理。一是创新管理体制。建立城市管理和执法部门的权力清单、责任清单，向社会公开职能职责、执法依据、处罚标淮、运行流程等。健全“统一领导、分级负责、条块结合、以块为主”城市管理体系，实行管理重心下移，解决“看得见的管不着、管得着的看不见”问题。二是创新管理模式。推行市场化运作，将环卫作业、市政和园林养护、非法张贴物清理等实行政府购买服务，逐步形成政府主导、企业经营、市场运作的养护管理机制，提高了管理效率。三是创新管理手段。充分运用信息化手段，整合平台，推行数字化城管，实现网格化、精细化管理，全省11个设区城市全面完成数字城管平台建设。同时抓住智慧城市建设契机，加快推动城市管理数字化向智慧化升级。', '景德镇市把城市“双修”作为落实“五型”政府建设的重要抓手、视为城市转型发展的重大机遇，既注重塑形又注重铸魂，从建设到管理、从形象到功能、从“面子”到“里子”，推动城市全面脱胎换骨、凤凰涅', '、浴火重生，走出一条集自然生态修复、城市基础功能提升、城市文化功能复兴于一体的“城市‘双修’3.0版”。据民意调查显示，城市“双修”工作成效市民满意率96.7％以上。', '。通过保护山水，保持原有的弯弯曲曲、高高低低、起起伏伏、若隐若现的自然之美、生态之美。一是修复山体生态。加强山体自然风貌的保护，对因开山采石、破山修路、劈山造城等造成的城市山体生态破坏区域，进行了生态修复。全市约51万平方米的山体面积被列入“双修”项目库，超过15万平方米已经修复，12万平方米正在修复，约24万平方米计划2019年3月底前修复完成。二是治理水系生态。在指标体系建构下，重点治理改造昌江、西河、南河，已完成新昌南湖公园、西河湾湿地公园、宝石码头公园、南河蓄洪湖公园、昌江百里风光带(浮梁段)等重点项目，并将开展西河湿地公园、天宝桥湿地公园、昌江百里风光带(城区段)等项目建设，实现“让水清起来、让水留下来、让水动起来”整体目标。三是增加城区绿化。按照居民出行“300米见绿、500米入园”要求，优化城乡开放空间布局。完成了10个公园和20处街头绿地、道路绿化改造提升等项目建设，启动建设凤凰山公园、马鞍山公园、昌江滨江带公园、西河湿地公园等项目，增加瓷都桥头、陶玉路南侧、恒大御景北侧等6处城市街头绿地。', '。把重塑特色风貌作为城市修补的根本要求，修补城市文化生态，完善城市公共服务功能，彰显了瓷都历史文化。一是保护历史城区。坚持把历史街区保护作为“双修”的重要内容，以景德镇“申遗”为龙头，以御窑厂为核心，以“三陶一区”为重点，对老街区、老厂区、老里弄和老窑址等实施立体控制和保护，开工建设和修复了一批老街区保护利用工程，原汁原味保护老城风貌风格、文化肌理，再现了景德镇1000年陶瓷文化遗迹、600年御窑文化遗址和100年陶瓷工业遗存。二是补足基础设施。围绕人民群众关心的医疗、教育、住房、出行等焦点问题，谋划建设了公共设施配套项目248个，重点打造了30个步行15分钟便民服务圈，新建、扩建、改建城市道路34条57公里，投资30亿、总里程30多公里的地下综合管廊建设基本完成。三是提升城市风貌。以整洁治脏，重点清扫环境卫生、清理垃圾死角、清除垃圾杂物。以整齐治乱，重点解决乱搭乱建、乱贴乱画、乱摆乱设问题，全市改造背街小巷239条，拆除违建30多万平方米，拆除蓝顶棚700多处10万平方米，拆除占道广告牌600多块。以整治治差，解决重要节点形象差、交通出行秩序差、公共场所管理差问题。', '通过推进城市“双修”，昔日被称为“草鞋码头”的景德镇逐渐回归到国际瓷都应有的城市形象和内在气质，在与世界对话之中，更加自信从容，更加魅力四射。全省累计有40多个市县考察团400多人次前来学习考察，交流城市“双修”工作经验。今年12月4日，全国生态修复城市修补现场座谈会在景德镇隆重召开，景德镇的城市“双修”工作得到住建部高度评价和积极推广。', '萍乡市以“五型”新理念提升海绵城市建设新水平，圆满完成试点任务，成功实现既定目标，城市发展方式有效转变，城乡人居环境不断优化。在住建部、财政部、水利部组织的海绵城市建设年度绩效考评中，连续两年获全国第一，取得“百姓满意、社会认可，城市功能更加完善、品位明显提升”良好效果。具体做法和成效体现在六个方面。', '。创新提出“全域管控、系统构建、分区治理”建设思路，在全市域层面，建立山、水、林、田、湖、城空间管理格局；在中心城区层面，构建“上截、中蓄、下排”大城市排水系统；在示范区层面，将新老城区159个海绵项目整合成为7个项目片区，以PPP项目包的形式整体推进，系统化建设，有效避免了项目散、小、乱给施工建设带来的碎片化问题，以及审批、预算、招投标等环节带来的复杂化问题。', '等3个标准，解决了海绵城市建设项目无规划引导、无技术参数，建设后竣工验收无标准等问题。', '。对海绵城市项目审批、建设、运营等全过程植入了科学化、严密化、规范化的管理，制定出台了', '。变“区域试点”为“全域试点”，把建设范围从32.98平方公里的试点区域，扩大到全市域3802平方公里，将海绵城市建设要求纳入建设工程“两证一书”等行政审批之中，非试点区域所有新建、改建、扩建工程项目必须按照试点区域的建设标准和技术规范开展建设。', '。变“政府主体”为“社会主体”，有效解决了资金问题。一方面与中国水电八局、中铁建大桥局、山东路桥集团等社会资本合作，以PPP模式推进项目包建设。另一方面通过设立奖补资金，引导房地产企业和社区居民自发对老旧小区开展海绵化改造，变“要我改”为“我要改”，全新改造400万平方米棚户区、老旧小区。', '。聘请北京清控集团等技术服务单位提供社会化专业服务，通过建设统一的项目指标体系和一体化管理模型平台，对全市已建和在建的排水防涝和海绵工程项目进行实时技术监控、指挥调度、维护维修，实现全时空技术服务、监测评估、运营维护。', '通过开展海绵城市建设，萍乡市更新了城市建设理念，促进了城市转型升级，产生了巨大经济效益、社会效益、生态效益。排水防涝成效显著。自2017年以来，城区往年“逢雨必涝”区域没有再现“看海”景象，43个小区的1.2万户、超4万居民免受内涝之苦。城市品位大幅提升。一批高品位的城市公园、广场、湖泊、湿地相继建成，海绵城市建成区域的生态岸线比例从不足40％提升到76％，水域面积新增100公顷，大幅增加了城市“蓝”“绿”空间。城建理念深刻变革。树立生态系统价值理念，更加注重对园林、绿地、湿地等天然水系保护利用，进一步降低了市政建设、运营、维护费用。有效促进城市转型。以海绵城市建设为依托，以提供全套解决方案为目标，推动经济结构调整和产业转型升级。一批传统陶瓷、管道等建材企业生产技术提升到国内先进水平，参与行业标准制定。组建海绵集团、海绵基金，创建全国首个海绵小镇，打造集规划、设计、研发、产品、施工、投资、运维为一体的海绵产业集群，年产值达80亿元。', '１２月１１日，省委、省政府召开全省城市功能与品质提升三年行动动员大会，吹响了城市科学发展的冲锋号，下达了城市品质提升的攻坚令。省住建厅的“留、治、建、管”四字诀，景德镇市的先塑形再铸魂，萍乡市的“六全”措施，展现的是工作、是落实、是思路、是举措、是成效，蕴含的是忠诚、是创新、是担当、是服务、是过硬。“留、治、建、管”，瞄准的是城市病，提升的是城市品，受益的是老百姓；“双修”城市，修的既是城市更是民心；海绵城市，既能排水防涝更能排忧解难、防灾护民。这些以人民为中心、让生活更美好的城市发展理念和经验做法，值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>125</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>省五型政府建设简报第一期</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2018-10-20</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-39535.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['为从更高层次贯彻落实习近平总书记对江西工作的重要要求，坚决落实省委十四届六次全会决策部署，认真贯彻省委、省政府', '，省政府决定在全省政府系统大力开展忠诚型、创新型、担当型、服务型、过硬型政府(简称“五型”政府)建设，加快推动江西高质量、跨越式发展。按照省“五型”政府建设领导小组关于加强宣传引导、推进工作落实的部署要求，省“五型”政府建设领导小组办公室将定期不定期编发简报，设立', '等栏目，重点刊发省委、省政府领导同志有关讲话和批示，全省政府系统推进“五型”政府建设的重要举措和工作进展，各地各部门开展“五型”政府建设的生动实践、经验做法、差距问题和意见建议，以及干部群众的反映反响等，推动“五型”政府建设扎实有序开展。', '年9月21日，省政府召开全体会议，总结今年以来的工作，研究部署下一阶段任务，并对全省政府系统开展忠诚型、创新型、担当型、服务型、过硬型政府建设进行动员部署，引导和推动各级政府和全体工作人员铸牢忠诚之魂、勇闯发展新路、担当时代使命、提升服务效能、锻造过硬本领，确保省委决策部署落到实处，向以习近平同志为核心的党中央、向全省人民交上一份满意答卷。省委副书记、代省长易炼红出席会议并讲话。省委常委、省纪委书记、省监委主任孙新阳对“五型”政府建设提出要求。省委常委、常务副省长毛伟明主持会议。省领导刘强、孙菊生、吴晓军、秦义、陈俊卿出席。', '，建设忠诚型政府，就是要推动全省政府系统始终深怀忠诚之心、践行忠诚之举，把绝对忠诚铸入全体工作人员的血脉和灵魂，贯穿和体现在政府工作的全过程、各方面;建设创新型政府，就是要激励全省政府系统及其工作人员开动脑筋、勇于革新、探索实践，大力推动政府治理理念创新、服务模式创新、体制机制创新，全面释放创新创造活力和强劲动能;建设担当型政府，就是要在全省政府系统大力倡导“事事马上办、人人钉钉子、个个敢担当”的精神，攻坚克难、奋发进取，“不为不办找理由，只为办好想办法”，以实干立身、凭实绩说话;建设服务型政府，就是要把服务作为政府的天职，重塑政府和市场关系，提升政府服务效能，使“思想开明、办事规范、快捷高效”成为全省政府系统及其工作人员的鲜明标签;建设过硬型政府，就是要着力锻造信念过硬、政治过硬、责任过硬、能力过硬、作风过硬的干部队伍，确保政府工作高质量推进。', '，全省各级政府系统及其工作人员要站在战略和全局的高度，深化思想认识，切实增强推进“五型”政府建设的思想自觉和行动自觉。要深刻认识建设“五型”政府是从更高层次贯彻落实习近平总书记对江西工作重要要求的实际行动。习近平总书记对江西工作提出的“新的希望、三个着力、四个坚持”重要要求，为我们做好各项工作指明了前进方向、提供了根本遵循。推进“五型”政府建设，就是要进一步增强全省各级政府及其工作人员的理解力、执行力、创造力，对习近平总书记的重要要求进行再学习、再审视、再对照，把握发展现状，找准存在问题，明确努力方向，始终沿着习近平总书记指引的方向和道路坚定前行。要深刻认识建设“五型”政府是全面落实省委十四届六次全会精神的必然要求。省委十四届六次全会从更高层次贯彻落实习近平总书记的重要要求，提出了“二十四字”工作方针和“六大突破、三大提升”的重点工作，描绘了共绘新时代江西物华天宝、人杰地灵新画卷的宏伟蓝图。推进“五型”政府建设，就是要苦干、实干、巧干，通过打造科学高效的决策、执行、监督、考评、奖惩一体化的“落实链条”，全面推进“二十四字”工作方针和“六大突破、三大提升”重点工作的方案化、项目化、具体化，卓有成效地把省委十四届六次全会描绘的宏伟蓝图变成实景图。要深刻认识建设“五型”政府是推进政府治理体系和治理能力现代化的具体举措。推进“五型”政府建设，就是要引导各级政府及其工作人员从执政理念、职责边界、权力配置、管理模式、行政方式等方面全方位转变职能，在经济调节、市场监管、社会管理、公共服务、生态环境保护等方面全方位提升治理能力，实现政府治理系统制度化、规范化、程序化，提高行政质量、效率和政府公信力，不断提升人民群众对政府的满意度。', '，全省各级政府系统及其工作人员要按照实施方案的要求，突出工作重点，务实推进“五型”政府建设。在具体实施中要突出“四个导向”:一要突出政治导向，筑忠诚之魂、稳思想之舵。坚持以政治建设为统领，把政治标准摆在“五型”政府建设的首位，让旗帜鲜明地真讲政治、实讲政治、严讲政治在全省政府系统和全体工作人员中蔚然成风，做到绝对忠诚不动摇、理论武装不松懈、贯彻落实不走样，切实筑牢“两个坚决维护”的政治忠诚，把坚决维护习近平总书记在党中央和全党的核心地位，坚决维护党中央权威和集中统一领导，作为最高的政治原则、最严的政治要求、最铁的政治纪律，以实际行动维护党中央定于一尊、一锤定音的权威。二要突出目标导向，担时代使命、强能力素质。聚焦发展所需、基层所盼、民心所向，挂好“大局之图”，练就“过硬本领”，推动政府高效运转，更好担当起推进高质量、跨越式发展的时代使命。要善于把握大局、勇于担当作为、增强工作本领，大力营造“干事为荣、避事为耻”“在岗一日、尽职一天，一日无为、三日不安”的浓厚氛围，顶起自己该顶的那片天，交出高质量、跨越式发展的合格答卷。三要突出问题导向，破发展瓶颈、树良好形象。以发展中、工作中存在的问题为导向，针对江西发展面临的问题和矛盾，迎难而上、攻坚克难，不回避矛盾、不躲闪问题、不推诿责任，扎硬寨、打硬仗，打破瓶颈促发展，清正廉洁守底线，改进作风树形象，始终牢牢把握江西发展的主动权，始终坚持严字当头、一严到底，始终把诚信施政作为重要原则，说到做到、一诺千金，以政府诚信带动社会诚信，全面提高政府的公信力。四要突出标杆导向，学先进经验、促江西发展。大力弘扬崇学向上的优良传统，在纵向比较中看到成绩、增强信心，在横向比较中虚心学习、奋发进取。结合这次党政代表团到浙江和上海学习考察情况，认真学习浙江、上海对标一流的先进理念、敢为人先的创新精神、攻坚克难的担当作为和严谨细致的工作作风，做到永无止境、永不满足、永远前进，不断攀登新的高峰，不断促进江西高质量、跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>125</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>遂川县人社局创新举措助力群众办事舒心</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2018-11-01</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-38273.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['制定《服务窗口工作人员管理办法》，推行“流动红旗窗口”评比活动，强化工作人员上下班考勤管理，将缺勤、迟到和早退情况纳入个人年度绩效考核。加强系统内部机关效能督查，不定期对局机关股室、服务大厅进行明查暗访，发现违规情况责令整改和落实处罚措施。提升改造数字化人社办事大厅。对服务大厅进行高标准升级改造，完善办公设施，更新电子设备，强化人员管理，打造资源集中、合理分区、应用高效和整洁清爽的优质数字服务大厅。开发“智慧人社”系统。学习考察南昌市、分宜县等地经验做法，多方筹资近300万元，聘请专业公司研发遂川“智慧人社”手机APP和微信公众号，实现人社政策查询、参保缴费和待遇领取等业务在手机上办理，解决群众大厅排队等待问题，方便群众办事，提高工作效率，使遂川人社工作在现代化、信息化、便捷化、高效化等方面得到全面提升。目前，“智慧人社”进入最后研发阶段，即将上线运行。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>125</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>王少玄在青原区调研时要求要学以致用高起点规划确保工程质量与效果</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2018-10-14</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-37795.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['吉安市人民政府_王少玄在青原区调研时要求 要学以致用高起点规划 确保工程质量与效果', '（记者郭欢）10月13日，市委副书记、市长王少玄在青原区实地调研微循环畅通项目时要求，要学以致用，充分借鉴上海学习考察经验，高起点规划，精心操作，确保工程质量与效果。', '青原区文忠路微循环畅通项目不仅是连接赣江风光带道路，还将有效分流青原大道交通压力，项目施工正平稳推进。王少玄听取了项目建设情况汇报，对项目规划、施工进度等内容一一询问。看到项目现场，施工单位一边作业，一边洒水降尘，王少玄给予了充分肯定。他要求，项目建设不仅要严格按照规划科学施工，还要注重细节，结合周边实际，精细化操作，降尘降噪，尽量减少施工对环境的影响，减少对群众生活的影响。', '王少玄指出，城市路网改造，提升了城市品位，改善了城市功能，也优化了部分建筑物的地理区位。针对由此可能产生的城市管理问题，他强调，要提前研究解决方案，严格坚持房屋属性，杜绝违规改变建筑物性质。同时，要对涉及的空间范围整体规划，整体打造，进一步美化城市环境。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>125</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>井冈山脱贫经验成为全国多地学习样板</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2019-01-11</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10210456.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['（记者严爱群）2017年2月26日，井冈山在全国实现率先脱贫“摘帽”，井冈山脱贫经验成为全国多地脱贫奔小康的学习样板。昨日，记者从井冈山市获悉，两年来，全国各地共计540余批次学习考察团、近2万人次不远千里来到井冈山，实地考察脱贫攻坚成果，详细了解借鉴脱贫攻坚经验和创新方法。', '据了解，这540余批次学习考察团，既有来自省内横峰、信丰、乐安等县（市、区），也有来自云南昆明、南华，贵州六盘水、麻江，陕西佛坪、山西武乡等地。其中，“三卡识别”“五个起来”“四个全覆盖”以及四项落实机制等创新经验是各个考察团争相学习和借鉴的重要内容。', '近年来，井冈山始终牢记习近平总书记“井冈山要在脱贫攻坚中作示范、带好头”的殷切嘱托，不忘初心，砥砺前行，大力弘扬跨越时空的井冈山精神，创新“三卡识别”“五个起来”“四个全覆盖”以及四项落实机制，坚决打赢脱贫攻坚战。2017年2月26日，井冈山在全国实现率先脱贫“摘帽”，该事件被评为2017年全国十大新闻。井冈山用改革思维和创新办法推进精准脱贫的工作法，被评为2017年中国改革年度十大典型案例。这是近五年来我省唯一入选的全国改革十大典型案例。2018年10月17日，井冈山市荣获2018年全国脱贫攻坚组织创新奖，茅坪乡神山村脱贫户彭夏英荣获2018年全国脱贫攻坚奋进奖。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>125</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>庐陵新区践行五型政府理念创新基层社会治理</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2018-12-17</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-39684.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['积极践行“五型”政府理念，提升城乡社会治理水平，11月下旬，新区组成17人学习考察组，赴浙江省诸暨市学习“枫桥经验”。通过实地考察学习“枫桥经验”，开阔了眼界，增长了见识，并借鉴枫桥的先进经验和做法，提出了创新新区基层社会治理工作思路。', '整合党委、政府、群团、社会组织、志愿者队伍五支力量，充分发挥党委的领导核心作用、政府的主导作用、群团组织的参谋助手作用、社会组织的协同作用、志愿者队伍的补充参与作用，进一步理顺关系，抓好协作分工，促进功能互补，实现综合施治。', '“条块”结合化解矛盾纠纷。坚持“属地管理、条块结合”原则，建立和依托新区、街道、村（社区）三级矛盾纠纷调解中心，形成有机衔接、协调联动、高效便捷的矛盾纠纷多元化解机制。二是“点面”结合推进智能化建设。加快推进智慧城市建设，将“雪亮工程”有效融入“智慧新区”工程。建立和依托新区、街道、村（社区）三级综治中心标准化建设工程，有效整合各职能部门力量，将综治中心打造成为集信息聚合、分析研判、综合调度、应急处置、诉求受理、矛盾调解、便民服务于一体，横向集成、纵向到底的综合数字化指挥应用平台。三是“打防”结合强化防控体系。以扫黑除恶专项斗争为抓手，切实加强基层平安建设，推动村（社区）治安环境进一步好转。', '便民服务与社会治理融合。加强基层政务中心和网上政务办理平台建设，推动管理服务力量向街道、村（社区）下沉。二是“互联网+”与网格管理融合。将新区综治网格、城市综合执法巡查网格、文明城市创建网格、殡葬改革管理网格等各类网格统一整合为新区社会治理网格，对网格编码管理，实现“专科网格”向“全科网格”转变。三是基层党建带动“三治”融合。坚持基层党组织领导下的自治，坚持自治、法治、德治融合，推进村（社区）治理（平安建设）先进村创建，努力用一至二年时间，推动新区村（社区）治理水平明显提升。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>125</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>新干商会组织助推非公有制经济发展纪实</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2018-09-24</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-37437.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['(李细兰、胡虎孙)随着改革开放的不断深入，非公有制经济进入了一个快速发展的时期，新干县内盐卤药化、机械机电、箱包皮具、灯饰照明产业发展迅速，为商会组织的发展注入新的活力。新干县抓住这一有利时机，找准服务经济建设的结合点和切入点，积极推进商会组织建设，大力开展“四好”商会创建工作，商会组织建设日益加强，队伍不断扩大。据了解，全县已组建商会组织36个，商会会员达5800多人。', '在新干县河西工业园区内，河西现代箱包产业园、广东虎门智能制造产业园、中山古镇返乡创业园三大特色产业园正在紧张地建设中，而这三大产业园均是由政府倡导、商会组织动员在外务工人员返乡创办的。在新干特色板块经济集群发展进程中，行业商会犹如“红娘”，把行业企业联合起来，集“小舢板”为“联合舰队”，有力促进了全县非公有制经济的加速发展和加快聚集。目前，全县共有非公有制企业3695户，个体工商户10759户，年创税金13.76亿元。', '会长是商会的“领头雁和主心骨”。在选好用好商会会长方面，新干县创新实行三个结合，即创新实行会员选举与有关部门（如税务、公安等）意见征询相结合、创新实行统战部与工商联联合考察与综合评价相结合、创新实行定期考核会长履职情况与班子评价会长相结合。在其他班子成员的配备上，充分征询会长意见，综合各方因素，重点把能力强、素质高的年轻人充实到班子当中，促进商会更好发展。同时，新干县大胆创新，成立了全国新干商会联盟，为商会之间广泛交流合作搭建平台，打造新干商会品牌，已打造出南昌新干商会、中山古镇商会等先进基层商会示范点，有效促进了各商会组织作用发挥。', '新干县砂轮产业有30多年发展历史，曾创造出10多个专利产品，生产的树脂砂轮在全国活塞环工业使用磨料磨具中所占份额达70%，但企业之间存在相互压价、恶性竞争的现象。后来，由15家企业组建的磨料磨具行业商会通过制订行业价格自律公约，结束了多年来恶性竞争的局面，让砂轮企业实现“共赢”，有效地维护了市场秩序、公平竞争，促进产业不断做强做大。新干县电子商务协会每年组织会员外出学习考察，邀请省内外电商创业成功人士举办电商沙龙等活动，带动全县电商产业迅速发展，在淘宝、天猫、京东等电商平台开经营网店的有4000多家，年交易额30亿元以上。各行业商会成立以来，协调解决商会会员企业涉及用工、用地、融资等方面问题200余次，促进了非公有制经济健康发展。', '新干县坚持党建引领，积极探索“党组织+商会”模式，以党的建设促进商会建设，增强商会凝聚力。', '在商会会员登记时，新干县实行党员主动亮明身份，做到商会成立、党员回“家”，并在商会筹建期间，先帮助成立党组织，依托党组织推进商会成立，开展党组织找党员、党员找党组织“双找”活动，共查找出隐形党员116名，组建了18个商会党组织，让广大商会党员在向党组织靠拢的同时，众多经济人士也积极向商会组织靠拢，形成商会会员以党员数倍的增速充实到商会组织中来的良好局面。同时，该县通过党员活动日，认真开展“关键岗位一杆旗”“有问题支部帮,有困难党员帮”“致富不忘家乡”等党建主题活动。在党组织活动开展的同时，广大入党积极分子踊跃参与其中，广大商会会员主动支持，党内活动成为了商会活动，在新农村建设、捐款助学、扶贫济困等方面积极作为，商会组织成为一支推进工业化、城镇化、带动农民致富的生力军。在深入开展“同心·百企帮百村”活动中，全县11个省级贫困村和10个县级贫困村实现非公有制企业帮扶全覆盖，已捐赠和投入帮扶资金250多万元。由24家热心家乡建设的企业牵头成立了新干县新农村建设促进会，13个乡镇均设立分会，引导商会会员积极参与新农村建设，助力乡村振兴。', '开展党组织找党员、党员找党组织“双找”活动，共查找出隐形党员116名，组建了18个商会党组织，让广大商会党员在向党组织靠拢的同时，众多经济人士也积极向商会组织靠拢，形成商会会员以党员数倍的增速充实到商会组织中来的良好局面。同时，该县通过党员活动日，认真开展“关键岗位一杆旗”“有问题支部帮,有困难党员帮”“致富不忘家乡”等党建主题活动。在党组织活动开展的同时，广大入党积极分子踊跃参与其中，广大商会会员主动支持，党内活动成为了商会活动，在新农村建设、捐款助学、扶贫济困等方面积极作为，商会组织成为一支推进工业化、城镇化、带动农民致富的生力军。在深入开展“同心·百企帮百村”活动中，全县11个省级贫困村和10个县级贫困村实现非公有制企业帮扶全覆盖，已捐赠和投入帮扶资金250多万元。由24家热心家乡建设的企业牵头成立了新干县新农村建设促进会，13个乡镇均设立分会，引导商会会员积极参与新农村建设，助力乡村振兴。', '新干县树立“服务非公经济就是服务发展”的理念，引导商会创建了“同心创业”“同心融资”“同心成长”三大服务品牌。该县充分发挥异地商会作用，开展“同心创业”返乡创业工程，先后引导广东中山古镇、广东花都、广东虎门等地老板抱团返乡创业。箱包协会采取“党组织联姻”的形式，通过党员联系企业老板，组织100多位箱包产业老板抱团组建江西东源置业有限公司，投资10亿元兴建了（中国）新干箱包皮具城和东源置业箱包返乡创业园。“借助商会以整体实力参与市场博弈，这几年，箱包企业取得1+1&gt;2的效果。”新干箱包皮具行业协会会长彭春坦言道。', '面对日益严峻的中小企业融资难问题，新干把商会全体会员企业捆绑成一个利益共同体，创新实施了会员企业融资商会担保“同心融资”模式，每年年初由各商会开展融资需求调查摸底，年内组织开展两次以上“银企对接”活动，为有融资需求的企业与金融机构“牵线搭桥”，每年为企业融资2亿多元，既缓解企业融资难问题，又增强了会员的归属感和商会的影响力。', '此外，新干县结合非公有制经济人士理想信念教育实践活动，大力实施以“请进来，走出去”为主要内容的“同心成长”活动，不断提升企业家素质，并注重加强年轻一代非公有制经济人士的教育培养，组建新生代商会，更好地促进非公有制经济人士成长。凯威箱包董事长彭春被评为“全省优秀社会主义事业建设者”、世纪行箱包总经理习干清获“江西省劳动模范”称号、新干县鑫曜果蔬专业合作社董事长张凤鸣被评为全省优秀创业者。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>125</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>深圳旅游协会代表团来吉考察朱新堂陪同</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-06-05</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-34869.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['（记者胡蒋霞）6月4日，深圳市文体旅游局副局长杨永群率深圳旅游协会代表团来到吉安，开始为期5天的全境旅游资源踩线考察。副市长朱新堂陪同。', '今年4月9日至11日，市委书记胡世忠，市委副书记、市长王少玄率市党政代表团赴深圳市学习考察、交流对接，提出加强“三个对接”、打造“两个基地”的“3+2”合作构想。4月20日，朱新堂带领市旅发委等相关部门负责同志再次赴深，就深吉两地旅游业合作发展，与深圳市政府及有关部门、协会组织、市场主体采取“集中———分口———集中”的方式进行了深入对接。双方一致认为，吉安有优质的旅游资源，深圳有雄厚的旅游资本和旅游市场，两地资源、资本、市场的互补性高度契合，旅游业是大有可为的合作方向，双方就两地旅游业合作达成了一个机制、一份协议、两个考察、三场营销、持续客源的具体共识。', '此次来自深圳市旅游行业五大协会的代表们组成考察团来吉，是深吉两地旅游对接的又一重要成果。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>125</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>吉安文化展品摘金夺铜</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2018-05-16</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-34300.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['（记者邓勇伟）5月10日，第十四届中国（深圳）国际文化产业博览交易会在深圳市会展中心开幕。15日，记者在采访中获悉，此次交易会期间，我市展位共接待游客约5000人，交易金额约110万元（含预订），经组委会评选，吉安宝泥房陶瓷文化有限公司参展作品《秋月如镜———吉州窑木叶纹咖啡具》获金奖，青原区岩溪根语竹制品《双喜临门》和江西井冈吉雅文化传播有限公司崖柏作品《1.01与0.99》获铜奖。', '近年来，我市高度重视文博会参展工作，今年更是在年初就开始谋划，并开展了一系列前期准备工作。首先，确定了以“文化庐陵”为主题，以陶瓷、根雕、樟木箱为主要产品，深挖精品、突出特色、以点带面，凸显整体性和实用性，并制定了《吉安市参加第十四届深圳文博会工作方案》。其次，根据参展主题，面向县（市、区）征集参展作品，并从各地提交的67件作品中，最终遴选出4家企业近20件产品参展。设计布展时，我市加强同展区设计公司的对接沟通，先后5次修改设计方案，将吉安元素融入展位中。同时，在组织参展过程中，我市还先后制定下发了《关于组织参加第十四届中国（深圳）国际文化产业博览交易会的通知》《第十四届深圳文博会期间吉安团工作安排》，统一协调酒店住宿，统一办理参展证件，统一安排学习考察，统一登记返程情况，确保了整个参展工作安全有序。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>125</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>我市迅速推进深吉对接合作成果落地落实</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2018-04-15</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-33563.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['（施伟）主动跟进衔接，将深吉对接合作成果转化为吉安高质量发展、跨越式发展新动力。4月11日下午，市党政代表团深圳考察对接返吉后，市委书记胡世忠立即召集市委组织部、市委农工部、市旅发委等部门研究落实事项，要求强化责任意识，抓紧衔接落实，确保对接合作成果尽快落地。', '为接续“特区带老区”吉安深圳携手发展新篇章，4月9日—11日，市委书记胡世忠、市长王少玄率市党政代表团赴深圳市学习考察、交流对接。广东省委常委、深圳市委书记王伟中会见了代表团一行，对我市提出的在继续深化产业对接合作的基础上，加强“三个对接”、打造“两个基地”的“3+2”合作构想给予了肯定和支持。', '“3+2”合作构想是我市党政代表团赴深圳学习考察、交流对接的最大成果，对进一步深化深吉合作、开创“特区带老区”“改革开放摇篮支持红色革命摇篮”发展新局面具有里程碑式的意义。“三个对接”：一是农产品流通销售对接。借助深圳发达的销售渠道和平台，推动近两年全市脱贫攻坚大面积发展起来的井冈蜜柚、绿色大米、有机茶叶等六大富民产业，以及各县（市、区）因地制宜发展的葡萄、黄桃、猕猴桃、草莓、蓝莓、火龙果，牛、羊、龙虾等特色产品进入深圳，并借此开拓国际国内市场，建立稳定可靠高效的农产品销售体系，形成脱贫长效机制。二是旅游业对接。策应昌吉赣高铁和赣深高铁抓紧建设的有利时机，积极探索与深圳合作建立旅游营销机制，大力宣传推介高铁沿线丰富的旅游集聚区资源，开拓珠三角旅游市场，真正让吉安的“绿水青山”变成“金山银山”。三是人才引进对接。借助深圳人才聚集的优势，创新两地人才交流共享机制，特别是在柔性引进人才方面积极探索，在产业发展、科技创新、教育卫生等方面引进一批老区急需人才，实现“不求为我所有、但求为我所用”。“两个基地”，即将井冈山打造成深圳党员干部教育培训基地、深圳群众生态康养基地。通过对接，进一步借助深圳各级党政组织的力量推动，促进深圳各级党员干部上井冈山学习培训，引导广大深圳市民群众来我市休闲康养。', '目前，我市已成立深化对接合作推进小组，市委办迅速行动，积极与深圳市委办公厅沟通衔接具体落实事项。近日，市委组织部、市委农工部、市旅发委等部门和企业将分批次赴深圳具体衔接落实，细化合作举措，力促深吉对接合作成果早日落地落实。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>125</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>市人大常委会组织视察现代农业示范园建设</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2018-04-09</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-33409.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['（记者林益民）4月8日，部分全国、省、市人大代表集中视察我市现代农业示范园建设情况座谈会召开。市人大常委会主任刘连根出席并讲话，副主任李建国、龙新、苑建华、李伟平、张永刚出席，副主任刘毓名主持。副市长王大胜汇报我市现代农业示范园发展情况。', '3月底至4月初，市人大常委会组织部分全国、省、市人大代表分成7个视察组，对市本级井冈山国家农业科技园以及各县（市、区）现代农业示范园发展情况开展集中视察。座谈会上，围绕现代农业示范园建设和发展，市直有关部门主要负责人及各县（市、区）分管负责人作补充汇报，市人大常委会农工委汇报赴江苏学习考察情况，各视察组汇报了视察情况。', '听取汇报后，刘连根指出，近年来市委、市政府高度重视现代农业示范园建设，有力推动了我市现代农业示范园高效发展。全市现代农业示范园发展势头良好，取得了新成效，实现了新突破，发展站在了新的起点上。刘连根强调，要发挥好示范引领作用，以发展六大特色富民产业为主导做好规划布局，强化科技支撑，大力推广应用新技术、新品种，在产品标准化、品牌化、生态化方面发挥示范带动作用。要增强辐射带动能力，培育多元经营主体，下大力气引领带动科技含量高、发展前景好的龙头企业，引领带动更多的家庭农场、更多普通农户参与进来。要创新体制机制，激发内在发展活力，建立“政府+企业”“企业+合作社、基地、院校等”发展模式，解决好人才、资金、土地、内部管理、生态环境等瓶颈问题，加快推进我市现代农业示范园高效发展。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>125</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>苏区振兴急行军国防科工局对口支援吉水亮点工作扫描</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2018-02-27</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-32614.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['（尹姗、陈艳）1930年，吉水县苏维埃政府成立，在这片红色土地上留下了毛泽东、朱德、曾山等老一辈无产阶级革命家的战斗足迹，20位开国将军为新中国成立献智献力，6170名吉水儿女英勇牺牲。', '1930年，吉水县苏维埃政府成立，在这片红色土地上留下了毛泽东、朱德、曾山等老一辈无产阶级革命家的战斗足迹，20位开国将军为新中国成立献智献力，6170名吉水儿女英勇牺牲。', '2013年8月，国务院明确国家国防科技工业局对口支援吉水，这是中央对原苏区人民最直接的关心和支持举措。在国防科工局和国防科技工业行业的倾情支援下，吉水县启动了吉水县军民融合产业基础规划建设，成功实现从“零”到“园”，努力走出一条具有吉水特色的苏区振兴发展之路。', '成功召开国防科技工业对口支援吉水县暨吉安市军民融合发展推进会，十二大军工集团首次齐聚吉安，共商军民融合产业发展大计；中国电子科技集团公司、中国电子信息产业集团公司分别与市政府正式签署援县促市战略合作协议，支持吉泰走廊打造电子信息产业高地，共同推进军民融合产业发展……一次次对接真情帮扶，一个个项目落地开花，国防科工局的对口支援为吉水乃至全市的产业发展带来了新的机遇。', '怀着深深的老区情怀，国防科工局对对口支援吉水工作高度重视，成立了高规格的对口支援工作领导小组，制定出台《国防科技工业对口支援江西省吉水县振兴发展的实施意见》，并在“十三五”国防科技工业固定资产投资政策中明确，符合条件的军民融合产业（军工高技术产业化）项目，可以给予20%至30%的资金补助，对于落户赣南等原中央苏区的此类项目，在此基础上增加5个百分点的中央财政资金支持。', '众人拾柴火焰高。国防科工局将12家军工集团充实到对口支援综合体系，形成合力，共同推进对口支援工作，壮大了支援力量，拓展了产业对接的资源空间。响应国防科工局号召，各军工集团公司、中国工程物理研究院及其所属企事业单位顺势而动，部局级领导亲自带队到吉安，实地指导推动对口支援工作开展，分别与吉水开展多轮次、多层面的深入对接。吉水县在稳步推进军民融合产业基地建设的同时，还由县领导领衔组建12个对接团队，实行“一个军工集团、一个县领导、一个乡镇”对接机制，先后与国防科工局、省科工办、各大军工集团汇报对接60余批400余人次，达成了一大批合作意向。', '捐资300余万元，帮助吉水县金滩镇五团村、省级贫困村金滩镇古塘村、盘谷镇同江村解决安全饮水等民生突出问题；持续开展“一对一帮扶”关爱留守儿童行动、送温暖等系列民生活动；协调东华理工大学教授指导食用菌菇种植试验取得成功……一系列实实在在的支援帮扶背后，正是国防科工局及其各军工集团对吉水人民的深情厚谊，而到县挂职的军工干部龙向阳就是国防科工局对口支援吉水的杰出代表。', '2016年，为推进对口支援工作务实深入开展，龙向阳到吉水任县委常委、副县长。到县以后，龙向阳立即深入全县18个乡镇、相关县直部门以及工业园区企业等开展调研，通过听取汇报、查阅资料、实地考察等方式，掌握第一手资料，熟悉县情。为了让自己工作不分心，龙向阳还把年迈的父母请来，带着小孩长住吉水，一心一意为吉水的发展做好服务工作。', '两年里，他上下奔走，牵线搭桥，通过积极汇报对接，促成了对口支援由原来的6家军工集团参与扩大到12家军工集团的国防科技工业全系统支援格局，促成两大军工电子央企与吉安市政府签署战略合作协议，开创了援县促市新局面。他还先后带队参加了2016年赣港经贸合作活动、江苏军民融合系列活动、吉安市2017京津冀产业招商推介会、2017吉水（东莞）电子信息产业招商推介会、央企入赣大会等。在2016年10月底的“中国航空航天军民融合创新发展论坛暨广东航空航天产业投资洽谈推介会”上，吉水县作为县级政府的全国唯一代表在会上发言，推介吉水军民融合产业基地。', '促成两大军工电子央企与吉安市政府签署战略合作协议，开创了援县促市新局面。他还先后带队参加了2016年赣港经贸合作活动、江苏军民融合系列活动、吉安市2017京津冀产业招商推介会、2017吉水（东莞）电子信息产业招商推介会、央企入赣大会等。在2016年10月底的“中国航空航天军民融合创新发展论坛暨广东航空航天产业投资洽谈推介会”上，吉水县作为县级政府的全国唯一代表在会上发言，推介吉水军民融合产业基地。', '党的十九大报告明确，坚定实施军民融合发展战略。苏区振兴发展与军民融合发展两大国家战略历史性地在吉水交汇，拓宽了吉水发展前景。', '施工吊塔林立，装载车辆穿梭，工人奔走忙碌……早春时节，走进吉水3000亩军民融合产业基地，到处一派热闹非凡景象。该基地是吉水县抢抓国防科工局对口支援机遇，积极搭建的产业发展平台，已纳入全省苏区振兴50个重大调度项目、国家国防科技工业局与江西省人民政府战略合作协议重要内容，列为全省十大军民融合产业基地之一。', '成立高规格的军民融合发展委员会，县委主要领导担任主任。县主要领导先后多次率队前往军工企业集中的地区，学习考察军民融合产业基地的建设模式、地方扶持措施及规划设计经验等，并与军工企业深入洽谈，积极寻求产业合作。全力推动项目建设，将中电新材料、中信航空锻造、机械加工等项目列入重点调度项目范围，并成立专门帮扶小组全程帮扶。', '目前，吉水军民融合产业基地已完成一期土方平整和路网框架，建成9.5万平方米标准厂房，可投入使用。基地已签署意向合作项目10余个，其中江西中电新材料（中国电科23所航空航天特种线缆）项目、江西中信航空制造（洪都锻造）项目建成投产；江西中信航空二期机械加工项目建设进展顺利；兵器现代农业科技服务公司在吉水积极拓展业务；51所中电科微波电子科研生产基地项目正式签约。23所特种线缆二期进入评估阶段。此外，昌河飞机公司吉水通用航空运营基地、南昌航空大学吉水通用航空研究院、航天云网公司智慧城市建设等意向项目也都在积极跟踪推进。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>125</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>青原党建激活发展动力源</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2018-02-24</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-32561.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['（彭生苟）基层发展动力怎么来？近年来，青原区注重搭平台、提素质、强保障，在各基层党组织大力实施“党建+”工程，紧紧抓牢党建“方向盘”，最大限度地激发党组织和党员的动力，最大程度地发挥党组织和党员的作用，“一键”激活发展动力源。流坊村“党建+村民素质提升”、渼陂村“党建+农村生态建设”入选全省农村“党建+”先进典型。', '搭建“+”的平台。该区推行村“131”治理模式，搭建好发挥党组织和党员作用的平台和载体。先后组织开展了“‘两学一做’争先进，‘五战攻坚’展风采”活动和“解放思想转变作风加快发展”专项活动，引导党员干部在扶贫帮困上比力度，在排忧解难上比能力，在攻坚克难上比担当，助推脱贫攻坚、美丽乡村建设等中心工作全面完成。深化拓展党员“两代表一委员”联系服务村制度，采取驻点接待、民情家访、调研视察、结对帮扶、志愿服务等形式，帮助基层和群众解决实际困难和问题。', '提升“+”的素质。该区结合“两学一做”学习教育，开展经常性的思想教育、能力培训，不断提升基层党员干部的能力素质。举办了全区村党组织书记、第一书记和主任培训班。在大学生村官中开展了“‘两学一做’争先进、激扬青春展风采”主题活动。相关职能部门结合农村工作实际，举办了脱贫攻坚、美丽乡村建设、农村实用技术等各类专题培训班120余期，组织15批260余名党员干部外出学习考察。', '强化“+”的保障。该区坚持从人力和财力方面对基层党组织给予保障。调整充实了一批村党组织书记，选派了107名第一书记，实现了行政村全覆盖，通过设立临时党支部和周五支部例会等制度，严格规范管理，切实发挥帮扶作用。同时，调减财政预备经费，重点确保“三经费一场所”，发放了乡镇工作补贴，按标准落实了村党组织报酬待遇，进一步激发了基层党员干部队伍活力。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>125</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>深吉两地旅游业合作取得阶段性成果</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2018-04-25</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-33809.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['（记者曾诗敏）为将深吉对接合作成果转化为吉安高质量发展、跨越式发展的新动力，我市有关部门主动跟进衔接，研究落实事项，强化责任意识，抓紧衔接落实，确保对接合作成果尽快落地。目前，深吉双方就深化旅游业合作达成了一个机制、一份协议、两个考察、三场营销、持续客源的具体共识。', '为接续“特区带老区”吉安深圳携手发展新篇章，4月9日至11日，市委书记胡世忠、市长王少玄率市党政代表团赴深圳市学习考察、交流对接。广东省委常委、深圳市委书记王伟中会见了代表团一行，对我市提出的在继续深化产业对接合作的基础上，加强“三个对接”、打造“两个基地”的“3+2”合作构想给予了肯定和支持。', '4月20日，在市政府的牵头带领下，市旅发委等相关部门负责同志再次赴深，就深吉两地旅游业合作发展，与深圳市政府及有关部门、协会组织、市场主体采取“集中———分口———集中”的方式进行了深入对接。', '深吉双方紧紧围绕打造生态康养基地，以及旅游资源开发、管理运营、景点推介等方面进行对接合作，把吉安优质的旅游资源与深圳雄厚的旅游资本和旅游市场融合。两地资源、资本、市场的互补性高度契合，双方在旅游业对接合作上取得阶段性成果。', '深吉双方达成以下协商，首先，我市旅发委与深圳市文体旅游局建立友好联系机制，开展旅游宣传媒体广告投放置换活动，在纸媒、网媒、自媒体等方面互相推介旅游资源、线路和活动，并在景区打造、线路研发、导游培养、执法监管等方面开展常态化交流合作，实现互利共赢。其次，今年5月份，计划由深圳市文体旅游局牵头组织五大协会的会长、副会长，以及有合作意向的旅行社到吉安，对全境旅游资源进行踩线考察，并与吉安地方政府、协会企业、景点景区洽谈具体合作内容。最后，今年5至12月份，吉安市旅发委据市场需求、季节特点、消费人群等因素，计划组织井冈山、安福、青原、吉安县以“政策说明会+旅游推介会”的形式，在深圳举办3场定制型主题营销活动，同时，由深圳市文体旅游局和五大协会号召、宣传、组织深圳市旅游业相关企业参会。', '深吉双方还达成三个“确定”。确定了我市旅发委与深圳市旅游协会签订了深圳·吉安旅游合作框架协议，就合作互动、企业交流、旅游宣传、客源互送等四个方面达成合作意向。确定了今年6月份，由深圳市文体旅游局推动，旅游协会牵头，组织华侨城、港中旅、腾邦集团、华强方特等10家理念先进、实力较强的旅游运营投资商到吉安投资考察，就景区建设、资源开发、业态导入等方面洽谈具体合作内容。确定了今年5月份开始，由深圳市文体旅游局推动，五大协会牵头，动员深圳市大型旅行社以“一月一专列、一月两包机”的形式组织游客赴吉安旅游，同时，由我市设计优化旅游线路，并在门票减免、旅行社人头奖补等方面给予政策支持。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>125</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>吉安县</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2018-02-10</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10217282.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国政府信息公开条例》（以下简称《条例》）有关规定，特向社会公布《吉安县', '年政府信息公开工作年度报告》。本报告由吉安县政府信息公开工作领导小组办公室（以下简称', '）编制，全文包括：概述、主动公开政府信息的情况、政府信息依申请公开办理情况、政府信息公开的收费及减免情况、因政府信息公开申请行政复议、提起行政诉讼的情况、政府信息公开工作存在的主要问题及改进情况等六个方面的内容。本报告所列的统计数据涵盖所辖各乡镇和县直有关单位，统计期限自', '年是《条例》施行的第十年，也是中央八项规定继续实行、十三五规划持续推进之年。在县委、县政府的正确领导和市政府信息公开办的业务指导下，我县坚持以科学发展观为指导，按照市委办、市政府办、是信息公开办有关文件要求，依据《中华人民共和国政府信息公开条例》精神，各工作部门紧紧围绕县委县政府中心工作，加强领导、明确责任，及时部署、积极推动，健全制度、拓展形式，加强检查、抓好监督，平稳、有序地推进政府信息公开工作。政府信息公开工作在服务经济社会发展、转变政府职能、保证行政权力公开透明运行和保障公民知情权、参与权、表达权、监督权等方面发挥了积极作用。', '年，我县高度重视信息公开工作，由政府常务副县长具体负责分工，政府主要领导多次听取相关专题汇报，亲自研究部署开展信息公开工作，出台了《吉安县人民政府网站读网制度》。鉴于人事变动，及时调整了吉安县政府信息公开工作领导小组，即成立了以县政府常务副县长为组长，政府办公室主任、监察局局长为副组长，机要局、政府办、法制办，信息中心等相关部门领导为成员的吉安县政府信息公开工作领导小组，下设办公室，办公室设在政府办公室，抽调人员到办公室集中办公。同时督促更新了各乡镇、各部门信息公开分管领导和专职信息录入员，并于', '日在县政府五楼会议室进行了专题培训。各信息公开主体单位认真履行信息公开主体职责，不断强化组织领导和队伍建设，全县信息公开工作常态化机制得到保障，为打造透明政府、阳光政府保持了良性态势。', '为促进信息公开工作规范化开展，让权力更好地在阳光下运行。努力打造法治政府，创新政府、廉洁政府和服务型政府，我县', '坚持用制度促规范，用制度促公开，力求不断健全和完善政府信息公开长效运行机制。一是抓制度落实。', '依据《中华人民共和国政府信息公开条例》，先后更新完善了《关于进一步加强重点领域政府信息公开工作的通知》、《关于印发吉安县信息主动公开制度的通知》、《吉安县依申请公开政府信息工作制度（试行）》、《吉安县政府信息公开保密审查制度（试行）》、《吉安县违反政府信息公开规定行为责任追究制度（试行）》、《吉安县政府信息公开工作社会评议制度（试行）》、《关于印发吉安县政府信息公开属性源头认定制度的通知》、《关于印发吉安县政策文件和解读方案一并报批制度的通知》、《关于印发吉安县政务舆情监测、回应制度的通知》、《吉安县政府信息公开工作年度报告制度（试行）》、《吉安县政府信息发布协调制度（试行）》、《吉安县澄清虚假或不完整信息制度（试行）》、《关于印发吉安县政府信息公开工作考核办法的通知》等一系列规章制度，', '并在实际工作中严格贯彻执行，有力地保证了政府信息公开工作规范有序开展。二是抓质量提升。在公开流程上，明确规定对主动公开的政府信息必须经过拟稿、审核、公开等基本程序，依申请公开必须经过申请、受理、公开、反馈、建档等相关程序，从机制上保障实现', '。全年未收到涉及政府信息公开工作的举报件、行政复议件、行政诉讼件，未发生信息公开应急事件。三是抓舆情引导。为适应信息化时代的需要，切实加强信息公开后的网络跟踪和舆情引导，积极探索互联网管理的有效方式，切实提高网上', '在围绕深化改革推进公开，促进经济发展推进公开，民生改善推进公开，助力政府建设推进公开，扩大政务参与强化解读回应等工作进行了分工，将', '要求落实到公文办理程序，建立政策解读材料随文报批制度，强化责任落实督查考核，使政务公开运行日趋规范，并', '专栏，及时发布一些涉及面广、公众关心、社会关注的政策性信息。另一方面，加强网络舆情引导。进一步完善了网络舆情监测、研判、引导机制，要求县网宣办建立', '，的要求，凡依据法律、法规和国家有关规定应当主动公开的政府信息，做到了全部主动公开。按照《吉安市人民政府办公室关于印发', '结合本县实际，确定了行政权力清单、财政资金信息、公共资源配置、重大建设项目、公共服务、国有企业、环境保护、食品药品安全、社会组织与中介机构等重点公开领域，并将相关工作任务细化分解至各部门。', '行政审批事项信息公开、财政资金信息公开、公共资源配置信息公开、公共服务信息公开等重点领域的公开情况为：', '按照深化行政体制改革、加快转变政府职能的要求，及时在政府网站醒目位置发布我县各部门权力清单和责任清单。对公布的行政审批事项，要求各部门要优化审批流程，简化审批手续，缩短审批时间，创新审批方式，提高审批效率，能网上办理的一律实行网上办理。同时，加强了市场监管信息公开。', '为了巩固和深化政府预决算、部门预决算、三公经费等信息公开工作。除涉密内容外，政府预决算支出已全部细化公开。为加大政府采购信息公开力度。主动公开政府集中采购目录、采购公告、采购动态、招标信息、中标结果，以及政策法规等，逐步将政府采购透明化。', '一是以国土资源局为牵头单位，要求各乡镇做好征地信息、国有建设用地使用权和矿业权出让信息公开。内容包括土地征收公告和出让公告、土地征收补偿安置方案、国有建设用地使用权出让实施方案等。二是农村土地承包经营权流转信息公开，重点公开了流转面积、流向、用途、流转价格等信息。三是国有土地上房屋征收与补偿信息公开。认真做好房屋征收公告，房屋征收补偿安置方案、补偿标准、补偿结果，以及房屋征收相关制度规定的公开，实行阳光征收。四是继续推进保障性住房信息公开，以房管局为牵头单位，主动公开了保障性住房各项政策和建设项目信息，以及廉租房、公租房和经济适用房等保障性住房的配租配售信息。五是继续深化政府投资重大工程建设项目（包括招商项目）信息公开，内容包括项目名称、用途、落址、建设单位、投资总额、建筑规模、工程进度和审批、核准、监管、招标、投标等信息。', '一是以卫计委为牵头单位，认真做好医疗卫生领域信息公开。医疗卫生机构在明显位置设置了专家信息栏，介绍医疗机构概况、医疗服务信息、各科室骨干专家、擅长治疗的病例，医疗机构的住院和出院办理指南，检查治疗项目名称、收费标准等都在网上作了公开，让老百姓明明白白看病，清清楚楚付费。二是依托', '，加大就业信息公开，主动公开了就业创业优惠政策和实施方案，以及国有企事业单位人员招录信息和人力资源市场供求信息。及时公开促进就业的各项政策，重点对各项就业创业优惠政策的实施范围、补贴申领条件、程序、管理和审批情况进行有效公开，通过', '系列招聘活动，为就业再就业人员提供人力资源市场供求信息。三是建立精准扶贫公示公告制度，加大扶贫政策、扶贫对象、扶贫成效、贫困退出、扶贫资金、项目安排等信息公开力度，在民政局的信息公开页面公开了各类社会救助标准，包括城市低保、农村低保、五保供养、医疗救助，公开了各类救助申请办理程序。', '坚持以督查和考核为主抓手，努力提升公开信息的质量和水平，推动政府信息公开工作步入常态化、制度化、规范化轨道。主要手段有：一是定期网上巡查。信息公开领导小组明确了专人对各乡镇、各部门网上信息公开情况定期进行巡查，发现问题及时督促整改，力求信息格式更好、内容更广、时效更强，并与', '月中旬，对各牵头单位落实重点领域信息公开工作情况进行了一次网上督查，确保了各项工作落到实处；二是坚持每月定期通报。建立政府信息公开情况通报制度，坚持每月定期下发工作通报，', '总结各乡镇、各单位好的经验和做法，予以表彰，及时传达市政府信息公开办最新工作部署，', '群等载体加强业务指导，督促有关单位加大信息公开力度，规范信息填报内容；三是加强年底考核。', '今年继续将政府信息公开工作纳入县委、县政府年度目标考评内容，从信息数量、发布质量、公开内容、载体建设、信息材料报送五个方面，对全县各乡镇、各单位一年来的工作情况进行量化考核，以此推动全县政府信息公开工作不断提水平、上', '年统一部署，县信息公开办服从大局，创新工作，加大信息服务力度，加快落实信息扶贫新举措，以改革创新的精神，翻开了吉安县信息扶贫的新篇章。主要的做法和成效有：', '的目标，加快政务信息化整合力度，着力构建集约化、节约型、共享性的新型电子政务体系，加快促进电子政务转型发展、创新发展、跨越发展。根据', '信息化建设规划要求，主动担当电子政务建设和信息扶贫的主力军，坚持网络设施、移动终端、信息内容、电商平台、帮扶服务等方面同步推进，打出一套组合拳。', '网络全覆盖；通过网络教育、网络文化、互联网医疗，帮助提高贫困户的身体素质、文化素质和就业能力，有效阻止因病致贫、因病返贫；加大宣传服务，在网络远程教育、', '、培训会等活动中积极宣讲信息技术与网络相关内容，支持大学生村官和贫困村大学生返乡开展信息与网络创业创新等举措，提高贫困村教育水平和就业创业能力；派驻信息中心主任到省委书记挂点的最边远的天河镇毛田村任', '工程，推动贫困户农特优产品在电子商务平台实现增收；与阿里巴巴合作，推进电商扶贫工程，设立电商扶贫基地，有效带动', '，深化信息惠民，汇聚各部门、各乡镇和社会各界的资源和力量，为老百姓提供更好的信息服务。', '整合各类资源和服务，通过建立集中的扶贫开发信息系统，实现扶贫对象信息采集、动态管理，实现扶贫对象精准识别、精准帮扶和精准脱贫，实现扶贫开发相关部门的数据共享，目前', '。从信息公开的载体形式看，对主动公开的政府信息，除以政府网站为第一平台和主渠道外，还积极创新载体和形式，采取灵活多样的公开方式，充分利用政务微博、电视、报刊、公开栏、宣传长廊、电子显示屏、电子触摸屏等载体，大力公开政府信息，主动接受群众监督。', '由于主动公开政府信息工作到位，该公开的信息全部及时公开，所以，尽管依申请公开方式多样，渠道也方便快捷，如在政府网站开通了依申请公开入口、在行政服务中心的办事大厅设立了专门依申请接待窗口和人员，政府信息公开申请较少，累计数只有', '件，主要涉及放宽二胎等方面的内容。所有受理的政府信息公开申请全部办理完毕，并按申请人要求的方式进行了回复。除信息不存在、申请内容不明确及因涉密免予公开的外，其他信息都能全部公开或部分公开，答复率达', '本着为民服务的原则，我县认真按照《条例》有关规定公开政府信息，没有收取涉及政府信息公开申请的任何费用。', '年县政府信息公开工作，取得了一定的成绩，但也还存在一些不足。一是个别单位和领导对政府信息公开工作认识还不到位，还不够重视，对政府信息公开工作不能及时总结、分析工作经验和存在问题，工作计划性不够；二是公开的方式和渠道还不多，县政府网站平台还有待进一步建设完善；三是政府信息公开不同程度地存在着内容简单的现象。', '积极探索利用新技术、新方法、新途径公开政府信息，通过各种宣传渠道，推进涉及群众切身利益、老百姓关心的教育、医疗、供电、供水等信息公开。逐步使政府信息公开网站建设成为群众与政府沟通联系的一个重要渠道。', '组织优秀的信息员外出学习考察或跟班学习，既增强各级领导的认识，又提高操作人员的业务能力，建立一支业务精通、政治过硬、甘于奉献、兢兢业业的信息公开队伍。今年以来，我县政府信息公开工作虽然取得了较好成效，但仍然存在不少困难和问题，如信息公开内容还有待进一步拓展，信息数量和质量还有待进一步提高。', '突出重点，抓住热点，瞄准焦点，对服务县域经济发展大局和百姓关注的民生问题上，对每个单位必须公开的项目作出一些硬性规定，统一编制公开目录，统一公开模式。', '信息公开领导小组指定专人对各责任单位政府信息公开工作开展情况进行不定期督促检查。对未及时公开或格式不规范的，及时督促相关单位进行公开或修改完善，切实做到信息发布格式标准、要素齐全、分类合理、更新及时，并将检查结果予以公布。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>125</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>井冈山率先摘帽得到举国关注</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2018-02-01</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-31973.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['，经国务院扶贫开发领导小组评估和江西省政府批准，井冈山正式宣布在全国率先脱贫摘帽，近日被列为2017年国内十大新闻之一，并被评为2017年中国改革年度十大典型案例，吸引了全国26个省市区510多批次党政代表团来山学习考察，为贫困地区脱贫摘帽提供了一份可供借鉴的“井冈答卷”']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>125</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>肖玉兰主持召开市总工会机关干部学习会</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2017-09-02</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-14746.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['（谢昕）8月28日，市委常委、市总工会主席肖玉兰主持召开市总工会机关干部学习会，专题学习传达省人大常委会副主任、省总工会主席谢亦森来我市调研指导群团服务中心时的重要讲话精神。', '全省将市本级群团服务中心的试点放到吉安，体现了省总工会对吉安群团改革工作和工会工作的重视。在调研中，谢亦森对我市群团服务中心建设成果给予高度肯定，并对下一步工作提出了具体要求，要以此为契机，更加注重顶层设计，把群团服务整合集中在办事窗口，规范服务流程、时限、承诺、评估，加大媒体宣传，扩大群团服务中心的影响；要注重亮牌子，将群众有所求、群团有所应等牌子展示出来；要注重亮项目，为职工群众提供贴身服务；要注重亮制度，组织群团干部外出学习考察，使得群团服务中心真正满足“群团跟着群众走、服务跟着需求走、资源跟着需求走”的要求。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>125</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>黑龙江省人大常委会来我市学习考察工作王少玄等陪同</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2017-11-17</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-27795.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['\u200b（记者曾诗敏）11月13日至15日，黑龙江省人大常委会党组副书记、副主任赵敏一行到我市，就完善人大代表联系群众制度工作、人大代表闭会期间活动开展、人大代表建议办理工作等方面进行学习考察。市委副书记、市长王少玄，市人大常委会主任刘连根，市人大常委会副主任张永刚分别陪同。省人大常委会选任联工委副主任谭筱刚随同。 在吉州区古南镇街道、安福县平都镇安城社区，赵敏一行通过现场询问、翻阅资料等形式，详细考察了解我市人大代表联络工作站建设情况。赵敏认为吉安在社区街道建立人大代表联络工作站，使人大代表直接与群众接触，及时了解群众诉求，帮助解决实际问题，这一做法值得借鉴。同时她就我市代表工作建议，吉安不仅要充分发挥代表工作站的桥梁纽带作用，更要发挥代表工作站的履职平台作用，不断提升履职能力，深入了解群众思想动态和生产生活中存在的关系群众切身利益的热点、难点问题，把工作站建成上下联动的交流站、法律知识的宣传站、为民办事的服务站，切实为民办实事、办好事，不断开创基层社区人大工作新局面，真正实现人大代表与群众面对面、零距离、心连心，让工作站为百姓解难，为政府分忧，为发展献策。 在吉期间，赵敏一行还参观考察了吉安庐陵文化生态园、市规划展示馆、吉州窑遗址保护公园以及安福县横龙镇石溪村美丽乡村建设。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>125</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>市人大常委会就吉安市城市市容和环境卫生管理条例实施举行新闻发布会</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2017-12-27</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-28579.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['吉安市人民政府_市人大常委会就《吉安市城市市容和环境卫生管理条例》实施举行新闻发布会', '《吉安市城市市容和环境卫生管理条例》（以下简称《条例》）由市四届人大常委会第七次会议于2017年11月8日通过，经省十二届人大常委会第三十六次会议批准，将于2018年1月1日起正式施行。', '该《条例》是我市第一部实体性地方性法规，是一部体现地方特色、具有较强针对性和可操作性的地方性法规，也是广大市民关注度很高的一项法规。它的制定和出台，是解决城市管理突出问题的现实需要、是推进城市依法管理的必然要求、是坚持党的领导，集中各方智慧的立法成果，对于进一步适应城乡一体化发展的要求，强化市容环境综合整治，推动我市城市管理工作规范化、法制化、精细化管理，提升城市环境品质具有重大意义。', '为做好《条例》正式实施前的宣传发动，12月8日上午，省人大常委会召开了各设区市地方立法成果新闻发布会，吉安市作为此次立法成果发布成员单位之一，将《条例》在省级平台对外发布。12月26日下午，吉安市人大常委会召开新闻发布会，对《条例》出台的背景和意义、制定过程、主要内容进行介绍，并对下一步学习宣传和贯彻实施工作进行部署安排。江西日报、江西电视台、江西网络广播电台、井冈山报、吉安广播电视台、吉安发布等十余家媒体记者参加了新闻发布会。', '近年来，在市委的坚强领导下，我市城市建设和管理工作取得了显著成绩，人居环境明显改善。但是随着城市规模的不断扩大，市容市貌和环境卫生管理出现了一系列新情况、新问题。比如，市容和环境卫生设施的规划与建设还相对滞后，建筑垃圾乱堆乱放，机动车和非机动车乱停乱摆放，部分区域因责任不清存在卫生死角，临街商业门店超店经营，油烟扰民，“垃圾广告”清而不止等等，都迫切需要制定公共遵守的地方性法规加以管理和规范。因此，在诸多的立法选项中，市人大常委会把城市市容和环境卫生管理作为首部地方实体性法规来制定。', '2015年，中央召开了城市工作会议，印发了《关于深入推进城市执法体制改革改进城市管理工作的指导意见》，省委、省政府和市委、市政府也相应出台了推进城市执法体制改革改进城市管理工作的实施意见，对包括市容和环境卫生在内的城市管理工作进行了全面部署。但是，由于国务院《城市市容和环境卫生管理条例》和我省相关地方性法规、规章制定时间比较早，部分条款对违法行为的制约力度和措施明显不足，已适应不了实践的需要。特别是有的市容和环境卫生问题上位法未明确规定，或是规定不具体、缺乏可操作性，导致现有法规规章难以满足城市管理的要求。因此，为落实中央、省委和市委城市管理体制改革精神，推进城市依法管理进程，巩固全国文明城市创建成果，有必要制定本条例，为推进城市依法管理提供顶层设计和法制保障。', '在《条例》制定过程中，我们按照“党委领导、人大主导、政府推动、部门操作、公众参与”的原则，积极探索推进科学立法、民主立法、依法立法的有效途径，不断拓宽社会公众参与立法的渠道。《条例》的立项和重要制度设计都经过市委常委会会议专题研究和市政府常务会多次讨论，市人大常委会先后召开立法调研座谈会20余次，收集意见建议近千条，学习考察了大连、济宁等地的立法经验，并在两次常委会会议的集中审议中，广泛听取意见，积极面对争议，合理吸收建设性意见建议。省人大常委会法工委对《条例》的修改进行了具体指导，最终在省人大常委会上获得高票通过。因此，《条例》的制定过程，是凝聚各方智慧的过程，吸纳了国内城市管理立法的最新成果。', '《条例》主要依据国家、省相关法律法规，结合我市市容和环境卫生管理实际和需求，以打造“整洁、优美、文明、宜居”环境为目标，按照“统一领导、分级负责、属地管理、公众参与”的原则，将现行有效的政策措施法制化，包括总则、市容和环境卫生责任区制度、市容管理、环境卫生管理、法律责任、附则，共六章五十七条。主要有以下四个特点：', '市人大常委会在《条例》制定过程中始终坚持问题导向，聚焦民生热点问题，从解决实际问题出发，将市民反映强烈、对生活影响较大的油烟扰民、超店经营、占道经营、户外广告无序设置、建筑垃圾随意倾倒、乱贴乱挂、“抛冒滴漏”、非机动车乱停放等突出问题纳入其中，并在条例中予以规范。', '《条例》总结了我市在创建全国文明城市过程中探索积累的经验，设定了市容和环境卫生责任区制度，推进执法重心下移，实行属地管理，明确了县（市、区）政府、市容和环境卫生主管部门等有关部门的责任分工，细化了乡镇人民政府和街道办事处的工作职责，增加了村（居）委会的工作职责。对城市管理的热点难点重点问题进行了有针对性的规定，明确了各个环节相关主体的权利和义务，为城市依法有序管理作出了制度安排。', '《条例》对上位法相关规范作出了具体化、补充性规定，对影响市容和环境卫生的禁止性行为均做了明确规定。尤其是对建（构）筑物外立面维护、超店经营、户外广告、施工现场、吊挂晾晒、闲置土地、架空管线、油烟扰民、生活垃圾、餐厨垃圾、建筑垃圾管理等市容和环境卫生突出问题，依据吉安实际，合理确定法律责任，明确处罚的上下限额，进一步细化了执法标准，压缩了执法的自由裁量空间，减少了执法的随意性。', '《条例》贯彻了现代城市管理的理念和要求，融入了我市城市市容与环境卫生的管理经验，在设定禁止行为和确定法律责任条款上，按照教育和处罚相结合原则，对市民群众参与市容和环境卫生管理活动的行为进行规范和引导。特别是在法律责任方面，对照上位法具体要求，对情节轻微的以教育为主，绝大多数罚则规定要先“责令改正”、“责令限期改正”，对“拒不改正”或者“逾期未改正”的再进行处罚，不单纯性地设罚款规定，体现了以人为本、教育在先的立法精神和管理理念。', '《条例》涉及千家万户，市县两级政府及相关部门要综合运用广播、电视、报纸、杂志等传统媒体和微博、微信等网络新媒体，向全社会传达《条例》的立法精神、实质内涵和具体内容，让广大群众了解《条例》的基本规定，认清贯彻落实《条例》的目的意义，明确必须履行的法定义务，增强全社会的市容和环境卫生法治观念，使广大群众自觉遵守《条例》，支持和参与市容和环境卫生管理工作。', '《条例》的出台，标志着我市市容管理工作进入了一个依法管理的新阶段。市县两级城管部门要把学习、宣传、贯彻《条例》作为当前的一项重要工作抓紧、抓实、抓好。将《条例》的学习纳入城管系统法制培训计划，扎实组织好学习和培训，指导城管执法人员全面掌握《条例》的立法精神及执法的各项具体规定，增强执法的准确性、主动性。同时，要以《条例》公布实施为契机，积极开展市容环境专项整治活动，推动市、县（市、区）、乡镇（街道）上下联动，形成合力，坚决查处违反《条例》规定的违法行为，实现执法效果和社会效果有机统一。', '各地各单位要抓紧修订、清理本地本部门与《条例》相冲突的文件和制度，更新、完善行政权力清单和流程图。对《条例》中授权市县政府及有关部门制定的配套文件，如城市化管理的范围、城市容貌标准、自由裁量权的细化等，政府及有关部门要抓紧制定公布，确保《条例》落到实处。《条例》实施后，市人大常委会将在适当的时候开展执法检查。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>125</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>吉安市人民政府办公室印发关于进一步加强基层民政能力建设的实施意见</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2017-07-13</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10188416.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['吉安市人民政府 市政府办公室文件 吉安市人民政府办公室印发关于进一步加强基层民政能力建设的实施意见', '\u200b\u200b井冈山管理局，井冈山经开区管委会，各县（市、区）人民政府，庐陵新区管委会，市直有关单位：', '为进一步加强基层民政工作，提升民政为民服务能力水平，充分发挥民政在保障和改善民生、加强和创新社会治理中的重要作用，推进我市现代大爱民政建设，根据国家民政部关于加强基层民政工作的部署和省委省政府《关于进一步推进全省民政事业改革发展的意见》（赣发〔2012〕16号）、省编办《关于加强乡镇（街道）民生保障工作机构建设有关问题的通知》（赣编办发〔2012〕59号）及省财政厅、省民政厅《关于加强我省乡镇（街道）民政机构工作经费保障的通知》（赣财社〔2013〕35号）等精神，结合我市实际，现提出如下实施意见。', '深入贯彻落实党的十八大、十八届三中、四中、五中、六中全会和习近平总书记系列重要讲话精神和治国理政新理念新思想新战略，特别是视察江西和吉安的重要指示精神，牢固树立', '工作理念，坚持软件与硬件双强化、能力与作风双提升，全面加强基层民政能力建设，努力建成一支政治合格、素质过硬、作风优良、充满活力的基层民政工作队伍，确保民政民生保障各项工作任务在基层得到全面落实。', '坚持解放思想、转变观念，围绕大局、服务中心，紧紧围绕基层民政能力建设，认真践行“三个走在前列”“两大战略任务”，推行“担当实干、马上就办”工作作风，坚持以“三强化、五提升、五完善”为抓手（三强化即强化担当实干意识、强化创先争优意识、强化廉洁自律意识，五提升即提升社会救助工作能力、提升优抚福利工作能力、提升社会治理工作能力、提升标准化工作能力、提升信息化工作能力，五完善即完善机构建设管理机制、完善工作人员保障机制、完善工作经费保障机制、完善选人用人机制、完善教育培训机制），改革创新，整合资源，破除梗阻，建立健全加强基层民政能力建设的长效机制，实现基层民政服务能力、干部队伍综合素质、民政机构承载力显著提升，确保到2018年，我市基层民政能力建设走在全国、全省前列。', '推行“担当实干、马上就办”工作作风，进一步加强思想道德、民政文化和作风效能建设，引导和教育民政干部深怀“为民之心 大爱之心”，大力弘扬跨越时空的井冈山精神，自觉践行“民政为民，民政爱民”理念，提高工作效能和服务质量，提升基层民政干部“快作快为、立说立行，落实有力、服务为先，敢于担当、依法办事”工作能力。', '在基层民政党组织中开展“树旗帜、强堡垒、强活力”活动，全面提升基层党建工作水平。结合岗位特点和工作实际，发现和树立一批基层民政工作道德模范和岗位先锋，充分发挥先进典型示范引领作用。在基层民政营造“学先进、比赶超”的浓厚氛围，不断提高民政机构服务群众的质量，全面提升民政工作整体水平。', '加强党风廉政教育，夯实勤政廉政思想基础；健全完善廉政制度机制建设，强化风险管控，教育民政系统党员干部严格执行廉政纪律，切实增强廉洁自律意识。', '社会救助是民政托底保障的基础性工作，必须着力建立健全三项机制，强化三种能力。一要建立健全困难群众基本生活保障工作协调机制和', '工作机制，以“一门受理，协同办理”为平台，不断健全最低生活保障、特困人员供养、受灾人员救助、医疗救助、教育救助、住房救助、就业救助、临时救助和社会力量参与等“8+ 1”社会救助政策体系，织牢救助网络，全面强化社会救助工作能力；二要建立健全灾害应急救助指挥体系和物资储备保障机制，做到灾前预警到位、灾情报送及时、灾后保障有力，全面提升自然灾害预警预报、救灾应急响应和灾后救助能力；三要建立健全流浪乞讨人员市、县、乡、村“四级联动”机制，加强部门协同配合，坚持流浪乞讨人员权益保护和救助保护并重，提高流浪乞讨人员救助的快速反应，及时施救能力。', '创新基层优抚对象服务机制，落实优待抚恤政策，推动建立“普惠”加“优待”的优抚保障模式，做到政策宣传到位、待遇落实到位、走访慰问到位，提升优抚服务能力；创新养老服务模式，构建居家为基础、社区为依托、机构为补充、医养结合的养老服务体系，使居家养老更便利、社区养老更专业、机构养老更规范，全面提升养老保障能力；创新未成年人关爱保护机制，加快发展儿童福利事业，牵头推进孤残儿童、困境儿童、农村留守儿童等未成年人关爱保护工作，全面构建“家庭尽职、源头预防、政府主导、社会参与”的合力监护、同伴成长关爱保护体系，推动社会福利服务由补缺型向适度普惠型转变。', '全面实施“人文社区 温馨家园”创建三年提升工程，进一步推进城乡社区治理和服务创新，通过深化社区共建帮扶，不断增强社区党建引领功能和服务功能，使全市所有城市社区达到“组织体系规范化、平台建设标准化、办事服务便捷化、协商议事制度化、居民活动常态化、生活环境宜居化”的“绿色社区”标准，全面建成“文明、和谐、法治、活力”的现代新型社区；深化“政社互动”，加大社会组织和社工人才培育发展力度，推动和规范社区、社会组织、社工互联互促的“三社联动”运行机制，引导各类社会组织、专业社工机构开展面向社区群众的公益事业；进一步深化基层群众自治，规范基层建设行为准则，提高社会治理创新能力，提升人民群众的幸福感。', '编制乡镇（街道）民政权力清单和责任清单，认真梳理基层民政领域工作内容、工作标准和工作时效，建立职责明晰、权责统一、监督有力的监管机制，强化风险防范和责任追究；健全完善基层民政工作规章、岗位职责、办事指南、服务承诺等工作制度，优化服务流程，公开服务内容，统一服务标准，公示办理结果，自觉接受监督；进一步推行“担当实干马上就办”工作作风，落实“四个坚决做到、四个坚决反对”要求，引导民政干部主动作为、攻坚克难，在工作中重实干、讲效率、求实效，坚决反对被动应对、消极怠慢、敷衍塞责。', '将民政信息化建设纳入全市信息化建设的总体规划，依托“智慧城市”、“数字民政”、“智慧社区”等信息平台，大力推广“互联网+”在民政领域的运用，提升基层民政信息化服务水平。逐步建立完善民政公共信息服务平台，整合社区服务、养老服务、救助服务、义工服务、收养服务、殡葬服务、慈善捐助、灾民服务等便民事项，实现县、乡、村（社区）联网，信息资源共享，推行民政服务网上“一口受理 协同办理”，提高服务能力和水平。', '全市各乡镇（街道）设立民政机构，机构名称统一为“XX乡（镇）街道民政所”，统一定制民政标识牌，制定工作制度、工作职责和工作流程，建立公示栏、宣传栏；县、乡便民服务大厅和城市社区应设立专门的民政服务窗口；各乡镇（街道）为本级民政所提供人均8平米的办公场所，不得在敬老院设置民政办公场所；按照“七有”标准配置办公设施：即有专门的档案资料室、有电话、有电脑、有打印机、有办公桌椅、有灾害应急救助装备、有高拍仪，构建办公自动化、信息化系统平台，切实提升基层民政管理服务效能。', '按照2万人以下的乡镇（街道）不少于2名、2-5万人的乡镇（街道）不少于3名、5万人以上的乡镇（街道）不少于5名的标准，选拔配备民政所工作人员。各县（市、区）应在乡镇（街道）事业单位编制总额内，合理调配人员编制，为每个乡镇（街道）民政所配备不少于2名在编工作人员，其他工作人员编制调配，确有困难的，由县级财政出资以购买服务的方式配齐工作人员。统筹设立村级民政专干，通过政府购买服务的方式，为每个村（居）委会聘用1名村级民政专干，按不低于200元/月的标准落实工作报酬（如上级政策规定的工作报酬高于此待遇，则按上级政策标准执行），并建立长效增长机制。执行省民政厅、人保厅、财政厅《关于加强农村敬老院机构建设的实施意见》（赣民发〔2011〕20号）要求，为每所农村敬老院聘用1名院长和1名会计，聘用期内享受事业单位国家规定的工资福利和保险待遇；按照工作人员与供养对象1:10，工作人员与失能老人1:4的比例分别配齐工作人员和护理人员，经费由县级财政安排解决。', '各级政府将基层民政工作经费纳入本级财政预算。从2018年起，每年按照上年度中央、省转移支付的救助、优抚、救灾、福利等民政民生资金总额的2‰、2%的标准，分别由市、县两级财政列入本级预算予以保障。严格落实省财政厅、民政厅《关于加强我省乡镇（街道）民政机构工作经费保障的通知》（赣财社〔2013〕35号）要求，按照乡镇（街道）辖区户籍人口数确定基层民政所工作经费，及时足额纳入年初财政预算，并建立增长机制。对于上级明确需保障的民政专项经费，要按照相关政策要求，足额落实到位。', '乡镇（街道）民政所岗位空缺，由县级组织、人社部门，通过统一面向社会公开招聘考试录用或公开选调的方式，择优聘用工作人员，也可以从大学生村官、“三支一扶”服务期满的优秀年轻干部中选拔人员充实到民政队伍中。乡镇（街道）民政所编制外岗位人员空缺，由县级民政部门会同当地人社部门统一组织公开招聘，择优聘用。新上岗人员一般应具备大学专科以上学历或取得助理社会工作师以上资格。村级民政专干，可以由村（居）委会成员兼任，也可由乡镇（街道）组织聘用，选聘情况报县级民政部门备案。', '开展常态化教育培训，建立分类教育培训体系。市级民政部门指导各县（市、区）民政干部进行相关专业培训，制定好培训计划，每年对县、乡民政工作人员进行轮训，并定期组织外出学习考察，开阔视野；县级民政部门每年组织分批次选派基层干部开展专业技能培训，并及时组织新进人员进行岗前培训。', '各地要把加强基层民政能力建设作为重点民生工程来抓，成立政府分管领导为组长，民政、组织、人社、财政、编办等部门组成的领导小组。建立加强基层民政能力建设联席会议制度，加强统筹协调，定期召开会议，及时研究解决加强基层民政能力建设遇到的重难点问题。各有关部门要把加强基层民政能力摆在更加突出的位置，明确责任，协同配合，主动支持基层民政能力建设。', '加强基层民政能力建设要注重统筹协调，合理安排，本着“少什么补什么”“缺什么建什么”的原则，列入重要议事日程和当地经济社会发展总体规划。各级党委、政府要准确把握经济社会发展趋势，搞好统筹协调，切实把加强基层民政能力建设的各项要求落到实处。', '将加强基层民政能力建设纳入县、乡政府目标管理考评内容，增加养老服务、社会救助、殡葬改革、退伍安置、防灾减灾等项工作考核分值，充分调动方方面面的积极性。实行乡镇（街道）和县（市、区）民政局双重考核，建立基层民政工作绩效考核评估机制，科学确定工作考评内容和指标，通过日常考核与年度考核、定量考核与定性考核相结合的方式，加强对基层民政工作人员的监督考核，着力提升基层民政服务能力。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>125</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>胡世忠王少玄率队我市党政代表团在福州考察学习并签订两项合作框架协议</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2017-04-27</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-15477.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['吉安市人民政府_胡世忠王少玄率队 我市党政代表团在福州考察学习并签订两项合作框架协议', '（首席记者蒋阿平）4月25日至26日，我市党政代表团走进福建省福州市进行学习考察，进一步加强沟通交流，增进友谊深情，深化对接合作。福建省委副书记、福州市委书记倪岳峰会见吉安市委书记胡世忠，吉安市委副书记、市长王少玄一行。福州市领导陈为民、何静彦、林晓英、林飞、张忠，吉安市领导刘连根、龙波舟、杨丹、邓淑斌、朱新堂，井冈山管理局领导刘洪，井冈山经开区领导彭学凯等会见时在座。会见时，签订了两项具体合作框架协议。', '倪岳峰代表福州市委、市政府对吉安市党政代表团的到来表示欢迎。倪岳峰指出，去年以来，福州市深入贯彻落实习近平总书记对福建、福州工作的重要指示精神，按照省委、省政府的部署要求，扎实开展“抓征迁、促落实”“抓招商、促发展”等行动，有效破解项目落地难题，进一步增强了经济发展后劲；致力打造优越的生态环境和营商环境，加快传统产业转型升级，培育壮大新兴产业，让榕城大地成为投资兴业热土，全市经济社会呈现持续健康发展态势。近年来，吉安发展驶上了快车道，各项事业取得了显著成绩，我们对此感到由衷钦佩。福州与吉安两市交流合作密切，我们将以此次吉安市党政代表团前来传经送宝为契机，认真学习弘扬井冈山精神，进一步提振干事创业精气神，加强互动，深化合作，携手推动两市发展迈上新台阶、实现新跨越。', '胡世忠代表吉安老区表达了诚挚谢意，并从“红”“绿”“古”三个方面简要介绍了吉安。他说，这次来福州，既是来学习取经，也是为合作交流。在福州考察期间，我们深切感受到了福州全市上下“马上就办、真抓实干”的优良作风、产业转型升级的强劲动力、创新理念的先进超前。希望两地在不断深化开发区与旅游业两大具体对接的同时，能够进一步强化产业对接，争取更多辐射内地，进一步加强干部交流，推动更多挂职锻炼，进一步助力脱贫攻坚，集聚更多指导帮助。这既符合中央“特区带老区、先富带后富进而实现全面小康、实现中国梦”的战略意图，也符合两省党委、政府的合作意向，符合两地干部群众的心愿。希望在福建“老大哥”的大力帮助下，我们能够更加自力更生，自我造血，贯彻落实好总书记的有关要求，加快脱贫攻坚，加快全面小康。', '会见时，井冈山经开区与福州高新区、吉安市旅发委与福州市旅发委分别签订了合作框架协议，这是继三年前福州与吉安签订战略合作框架协议之后的一次具体深化。', '不看热闹看门道。在福州期间，市党政代表团马不停蹄考察学习，“问道取经”。一路走、一路看，结合实际工作，胡世忠、王少玄不时进行针对性的点拨、发问，引发大家深思。紧跟市场需求，精准科技创新，福州京东方光电科技从液晶显示产品的生产者，升级为物联网技术产品和服务的提供商，福耀集团把玻璃产品做到了令人惊叹的地步，星网锐捷通讯在网络通讯、交换机、云计算终端、支付POS等各产品领域均形成了独特的领先优势，上润精密仪器成为航天航空、军工行业不可或缺的高精密机械加工制造者，海峡（红坊）创意创业园成为文化产业集聚的“孵化区”，做福州漆艺文化文章的大漆厂，深做井冈红茶文章，扎根井冈、借力福州、走向全国的井冈红福州运营中心都是其中的典型代表；三坊七巷历史文化街区，在保护修复、开发开放中，由曾经破烂脏乱的棚户区，变成了里坊制度的活化石、福州亮丽的城市文化新名片，也为文物保护、旅游开发以及文化旅游业融合发展提供了一个范本，引人深思和赞叹；闽江北岸中央商务区，以超常的力度推进了千难万难的3000多户征地拆迁，逐步构建起福州服务功能最全、档次品位最高的现代商务中心区，飞凤山奥体公园及休闲游步道建设，70天时间完成迁坟900多座，创造出三个月交地、一百天完成的建设速度……在听中学、在看中思，代表团成员纷纷就关心的项目模式、操作办法等问题进行询问，随着相互交流的深入，工作思路、实践路径逐渐清晰。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>125</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>我市扎实推进中央国家机关对口支援工作</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2017-06-26</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-15163.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['（陈海明、记者曹素萍）2012年6月，《国务院关于支持赣南等原中央苏区振兴的若干意见》正式出台。为推动战略实施，国家税务总局、国家旅游局等8个中央国家机关及有关单位对我市进行对口支援。多年来，在对口帮扶单位和挂职干部的积极努力下，在全市上下的积极争取下，对口支援工作取得实实在在的阶段性成效。', '国家各部委倾力支持。各部委和中央单位以强烈的政治责任感，积极落实《若干意见》，从政策、资金、项目等各方面给予具体支持，并组织人员赴吉安实地调研、现场办公，纷纷拿出了进一步加强对口支援工作的务实措施，并建立了一系列有效的推进机制。去年新一轮帮扶工作启动后，8个中央单位都由部局级领导亲自带队到吉安，实地指导推动对口支援工作开展，先后有40多批100余人次深入挂点县区调查研究，量身制定帮扶工作计划和实施方案，立足自身单位职能，真心实意为地方解决发展难题。', '挂职干部倾情帮扶。对口支援部委单位派出了挂职干部驻扎吉安，带着感情和责任全力相助，在深入市县调查研究的基础上，制定出台了措施得力、内容务实的对口支援方案。挂职干部门怀着真心真情，个个以主人翁的精神，把挂职当成任职，融入地方、服务发展，把部委机关的好作风、好理念带入吉安，积极主动出高招、献良策，借助部委力量及人脉优势牵线搭桥、争资引项，展现出了良好的精神状态、工作作风和工作成效。', '我市感恩感怀，把对口支援看作发展的重要机遇和宝贵资源，积极主动，抓好顶层设计，抓好沟通对接，促进政策落地，先后近20次召开苏区振兴（吉泰走廊）领导小组和挂职干部座谈会议、50余次专项调度会议，先后组织挂职干部分专题、分片区走遍我市各县（市、区）调研，并组织赴赣州、抚州和新余学习考察。提出了28项对接专项规划、131项对接行动计划和27个对接重大项目，在这些“行动指南”的指引下，市委和市政府主要领导每年都要专程赴国家部委汇报对接，积极争取国家部委的支持和帮助。各受援县也积极行动，如吉水县委、县政府主要负责同志，先后20余次赴国防科工局和有关军工集团汇报对接。多年来，市县主要领导先后100多次赴国家部委、300多次赴省直厅局拜访汇报，促成一批支持政策和事项落地。', '一批批政策平台搭建起来了。国土资源部专门针对吉安出台国土资源开发利用意见，从农村危旧房改造用地计划、土地开发新增耕地发展致富产业等7大方面支持吉安；华电集团积极推进北航电子信息工程学院与吉安实现战略合作，推动院士工作站建设；国家税务总局帮助协调吉州区享受西部政策延伸县政策，构建吉州区绿色蔬菜及鲜活农产品直供北京市场的物流渠道；国家旅游局批复吉安设立国家旅游扶贫试验区，支持青原区成功创建3个国家4A级景区。', '一批批项目建设得到鼎力支持。国防科工局积极推动建设3000亩的吉水县军民融合产业基地，引进中国兵器工业集团、中国航发集团等军工企业参与支援吉水产业发展，促成10多个军工项目落户基地，全省对口支援第一个产业项目———中电新材料建成投产，中信航空锻造项目投产；国家铁路局大力推进吉武温铁路纳入国家“十三五”铁路建设规划，引进中铁建电气化局集团签订了投资协议；国家工商总局推动泰和县实施“商标富农工程”，帮助“西昌凤翔”等6件农产品商标成功申报江西省著名商标，促成阿里巴巴集团、京东在泰和县开展电商精准扶贫。', '一批批改革先行先试得以推进。国家住建部推动将吉安县列为全省“多规合一”试点县，将吉安县纳入江西省污水管网建设重点扶持县；中国人民银行确定新干县开展全国农村信用体系建设试验区试点，推进新干县农村承包土地经营权抵押贷款试点工作；国家林业局帮助吉安市成功创建国家森林城市，推动万安、遂川、永新、井冈山成功列为国家主体功能区建设试点示范县。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>125</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>胡世忠王少玄等参加我市党政代表团赴厦门考察学习并签订三项合作框架协议</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2017-04-26</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-15472.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['吉安市人民政府_胡世忠王少玄等参加 我市党政代表团赴厦门考察学习并签订三项合作框架协议', '（首席记者蒋阿平）31年前，厦门市与吉安地区签订《经济技术友好合作协议书》，开启了厦门经济特区与吉安革命老区携手发展的不平凡历程；两年前，两地签订全面深化合作框架协议，开启了两地携手发展的新阶段。4月24日至25日，我市党政代表团赴厦门学习考察。两市举行交流座谈，并签订吉安高新区与厦门火炬高新区、市旅发委与厦门市旅游局、吉安职业技术学院与厦门技师学院三项合作框架协议，以深化合作的实际行动续写两地深厚情缘。', '福建省委常委、厦门市委书记裴金佳，吉安市委书记胡世忠分别代表两市共话深化交流合作。厦门市委副书记、市长庄稼汉，吉安市委副书记、市长王少玄分别介绍了两市经济社会发展情况。厦门市领导张健、陈秋雄、黄文辉、林德志、张毅恭，吉安市领导刘连根、龙波舟、杨丹、邓淑斌、朱新堂，井冈山管理局领导刘洪，井冈山经开区领导彭学凯等参加。', '裴金佳对我市党政代表团表示热烈欢迎。他说，近年来，吉安振兴发展取得令人瞩目的成效，令人感到由衷钦佩和高兴。厦门和吉安有着深厚的情谊和合作渊源。1986年，时任厦门市委常委、常务副市长的习近平同志代表厦门市，与吉安地区签订了《经济技术友好合作协议书》，为两地实现共同发展打下了良好的基础。2015年，两市又签订《全面深化合作框架协议书》。两年来，两地在教育设施建设、结对协作、陆地港运营等方面持续深化合作，促进共同发展不断取得新的成效。当前，两市都在深入学习贯彻习近平总书记系列重要讲话精神和治国理政新理念新思想新战略，努力实现全面建成小康社会。我们要切实把中央部署要求贯彻好落实好，充分发挥各自优势，进一步深入落实双方合作协议，着力深化产业对接、旅游合作、港口物流合作、人才交流等，携手推动经济特区与革命老区的合作发展再上新台阶。', '胡世忠就厦门对吉安老区的支持关爱表达了感谢与敬意。他说，这次来厦门，既是学习之旅，也是探亲之旅，更是深化合作之旅。厦门市经济发展势头强、创新创业力度大、城市建设水平高、干部实干善干精神足，这些都值得我们学习借鉴。吉安与厦门两地渊源深厚。当前，厦门和吉安的合作已经有了很好的基础。吉安既要学习厦门的好经验、好做法，同时还要加强合作，这符合中央“特区带老区、先富带后富进而实现全面小康、实现中国梦”的战略意图，符合两省党委、政府的合作意向，符合两地干部群众的心愿，符合经济发展的规律，两地发展具有很强的互补性和广阔的合作空间。我们热切期盼双方继续加强交流对接，积极创新合作机制，在工业园区产业的转型升级、新业态技术服务的传导、旅游合作方式的对接、职业教育理念经验的输入等领域不断深化合作，带动老区加快发展、加快升级。', '座谈中，双方就深化合作，推进吉安产业转型升级、自贸区政策向吉安延伸、加强两地人才交流、助力吉安脱贫攻坚等方面作了进一步交流；并签订了吉安高新区与厦门火炬高新区、市旅发委与厦门市旅游局及吉安职业技术学院与厦门技师学院三项具体合作框架协议。', '在厦门期间，我市党政代表团步伐紧密，在实地考察中深入学习感悟厦门的先进理念与活力源泉：集美新城核心区地下综合管廊项目，打基础、管长远，科学统筹做好“智慧地下”文章，有效提升城市综合承载力；集美新城建设，不为公建而公建，不为绿化而绿化，而是坚持“新城+基地”理念，打造“整个就是一个大花园”般的活力人文新城；中国（福建）自贸试验区厦门片区和厦门行政服务中心，都是向大胆改革、深化改革要效率、要活力，创造了令人点赞的改革经验；麦克奥迪实业集团有限公司、科华恒盛股份有限公司通过二、三产融合发展和技术创新，推动企业转型升级，高智能化生产的联芯集成电路制造（厦门）有限公司，吸引了10多个上下游项目落户，有效促进了高新区集成电路产业集群的聚集……一路看一路思，大家纷纷表示，开阔了眼界，拓展了思路，提振了精神，收获良多。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>125</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>胡世忠喻志勇分别陪同贵州省六盘水市率团来我市学习考察脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2017-06-17</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-15203.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['吉安市人民政府_胡世忠喻志勇分别陪同 贵州省六盘水市率团来我市学习考察脱贫攻坚工作', '（记者林益民）6月14日至15日，贵州省六盘水市委书记周荣、市长李刚率党政代表团来我市学习考察脱贫攻坚工作。市领导胡世忠、喻志勇、王大胜，井冈山市领导焦学军分别陪同。', '代表团一行来到井冈山市茅坪乡神山村、坝上村，大陇镇案山下村陇上行度假村，新城镇现代农业生态示范园，井冈山益生缘灵芝生态园，井冈山电子商务产业园，井冈山华润希望小镇，罗浮移民小区等地，通过实地参观、查阅资料、现场听讲解等形式，详细了解了井冈山脱贫攻坚、新型企业发展、特色小城镇建设等工作。', '代表团对井冈山引进高科技、现代化企业，高起点规划、高标准打造特色小镇，尤其是在脱贫攻坚路上缔造的精彩给予了高度评价。他们表示，井冈山在脱贫攻坚工作中突出精准为先，牢牢把握产业、安居、保障、基础设施四大关键，特别是在产业扶贫、安居扶贫、旅游扶贫等方面的好经验、好做法，值得学习和借鉴。回去后，将结合六盘水市实际，创新精准扶贫工作思路，把精准扶贫、精准脱贫工作做好、做实，坚决打赢脱贫攻坚战，帮助贫困群众早日脱贫致富。', '怀着崇敬之情，代表团成员还瞻仰了井冈山革命烈士陵园，向革命先烈敬献了花圈。在吉期间，代表团成员还参观了我市城市规划馆、市文化艺术中心，观看了《美丽吉安》《脱贫攻坚汇报片》。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>125</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>我市党政代表团赴厦门考察学习并签订三项合作框架协议</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2017-04-26</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-10258.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['（首席记者蒋阿平）31年前，厦门市与吉安地区签订《经济技术友好合作协议书》，开启了厦门经济特区与吉安革命老区携手发展的不平凡历程；两年前，两地签订全面深化合作框架协议，开启了两地携手发展的新阶段。4月24日至25日，我市党政代表团赴厦门学习考察。两市举行交流座谈，并签订吉安高新区与厦门火炬高新区、市旅发委与厦门市旅游局、吉安职业技术学院与厦门技师学院三项合作框架协议，以深化合作的实际行动续写两地深厚情缘。', '福建省委常委、厦门市委书记裴金佳，吉安市委书记胡世忠分别代表两市共话深化交流合作。厦门市委副书记、市长庄稼汉，吉安市委副书记、市长王少玄分别介绍了两市经济社会发展情况。厦门市领导张健、陈秋雄、黄文辉、林德志、张毅恭，吉安市领导刘连根、龙波舟、杨丹、邓淑斌、朱新堂，井冈山管理局领导刘洪，井冈山经开区领导彭学凯等参加。', '裴金佳对我市党政代表团表示热烈欢迎。他说，近年来，吉安振兴发展取得令人瞩目的成效，令人感到由衷钦佩和高兴。厦门和吉安有着深厚的情谊和合作渊源。1986年，时任厦门市委常委、常务副市长的习近平同志代表厦门市，与吉安地区签订了《经济技术友好合作协议书》，为两地实现共同发展打下了良好的基础。2015年，两市又签订《全面深化合作框架协议书》。两年来，两地在教育设施建设、结对协作、陆地港运营等方面持续深化合作，促进共同发展不断取得新的成效。当前，两市都在深入学习贯彻习近平总书记系列重要讲话精神和治国理政新理念新思想新战略，努力实现全面建成小康社会。我们要切实把中央部署要求贯彻好落实好，充分发挥各自优势，进一步深入落实双方合作协议，着力深化产业对接、旅游合作、港口物流合作、人才交流等，携手推动经济特区与革命老区的合作发展再上新台阶。', '胡世忠就厦门对吉安老区的支持关爱表达了感谢与敬意。他说，这次来厦门，既是学习之旅，也是探亲之旅，更是深化合作之旅。厦门市经济发展势头强、创新创业力度大、城市建设水平高、干部实干善干精神足，这些都值得我们学习借鉴。吉安与厦门两地渊源深厚。当前，厦门和吉安的合作已经有了很好的基础。吉安既要学习厦门的好经验、好做法，同时还要加强合作，这符合中央“特区带老区、先富带后富进而实现全面小康、实现中国梦”的战略意图，符合两省党委、政府的合作意向，符合两地干部群众的心愿，符合经济发展的规律，两地发展具有很强的互补性和广阔的合作空间。我们热切期盼双方继续加强交流对接，积极创新合作机制，在工业园区产业的转型升级、新业态技术服务的传导、旅游合作方式的对接、职业教育理念经验的输入等领域不断深化合作，带动老区加快发展、加快升级。', '座谈中，双方就深化合作，推进吉安产业转型升级、自贸区政策向吉安延伸、加强两地人才交流、助力吉安脱贫攻坚等方面作了进一步交流；并签订了吉安高新区与厦门火炬高新区、市旅发委与厦门市旅游局及吉安职业技术学院与厦门技师学院三项具体合作框架协议。', '在厦门期间，我市党政代表团步伐紧密，在实地考察中深入学习感悟厦门的先进理念与活力源泉：集美新城核心区地下综合管廊项目，打基础、管长远，科学统筹做好“智慧地下”文章，有效提升城市综合承载力；集美新城建设，不为公建而公建，不为绿化而绿化，而是坚持“新城+基地”理念，打造“整个就是一个大花园”般的活力人文新城；中国（福建）自贸试验区厦门片区和厦门行政服务中心，都是向大胆改革、深化改革要效率、要活力，创造了令人点赞的改革经验；麦克奥迪实业集团有限公司、科华恒盛股份有限公司通过二、三产融合发展和技术创新，推动企业转型升级，高智能化生产的联芯集成电路制造（厦门）有限公司，吸引了10多个上下游项目落户，有效促进了高新区集成电路产业集群的聚集……一路看一路思，大家纷纷表示，开阔了眼界，拓展了思路，提振了精神，收获良多。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>125</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>吉安市人民政府办公室关于印发吉安市企业上市挂牌年行动计划的通知</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2017-04-06</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10188422.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['吉安市人民政府 市政府办公室文件 吉安市人民政府办公室关于印发吉安市企业上市挂牌2017－2021年行动计划的通知', '\u200b井冈山管理局，井冈山经开区管委会，各县（市、区）人民政府，庐陵新区管委会，市直有关单位：', '为深入贯彻落实党的十八届六中全会、省第十四次党代会和市第四次党代会精神，进一步引导和激励我市企业通过多层次资本市场实现资源优化配置和制度创新，', '以邓小平理论、“三个代表”重要思想、科学发展观为指导，深入学习贯彻习近平总书记系列重要讲话精神，', '牢牢抓住国家重视资本市场发展，鼓励贫困地区企业到多层次资本市场融资的政策机遇，加快推进企业改制，建立现代企业制度，充分利用境内外“两个市场”、“两种资源”，着力', '，力争全市新增主板上市企业10家以上；“新三板”及区域性股权交易市场挂牌企业100家以上，逐步形成资本市场“吉安板块”（具体分配任务见附件）。', '根据全市经济发展战略和产业发展规划，采用市场化手段，从特色经济、优势产业、战略性新兴产业等重点领域中遴选一批符合国家产业政策、具有较高成长性和核心竞争力的优质企业，纳入全市拟上市挂牌后备企业资源库。同时，借力《中国证监会关于发挥资本市场作用服务国家脱贫攻坚战略的意见》出台的历史性机遇，积极引进埠外拟', '上市挂牌企业落户，进一步扩充后备企业资源库，确保全市拟上市挂牌后备企业保持在55家以上，其中境内外证券市场上市后备企业不少于20家，“新三板”挂牌后备企业不少于35家', '强化绩效考核、规范财务管理、提升内控治理水平，步入产权清晰、权责明确、管理规范的发展轨道。对后备企业在股改过程中所涉土地、房产、税务、环保、科技、安全、质监、社保、公积金、历史沿革、募投项目等问题，各地各有关部门要', '对完成股改的企业，按照其规模、实力和意愿进行分类排序，科学调度，合理安排，有计划、有步骤的推进企业上市挂牌工作。一是支持资产规模大、盈利能力强、主营业务突出的企业，在境内沪深A股上市。二是鼓励形象好、海外市场开拓能力强的企业赴境外上市。三是支持实力雄厚、资金充裕、管理先进的企业，通过兼并整合，实现借壳上市。四是引导成长性好、科技含量高的中小企业，在“新三板”挂牌。五是推动创新能力强、发展空间大的小微企业在区域性股权交易市场挂牌，努力推动企业竞相登陆不同层次资本市场，着力形成上市挂牌齐头并进、梯次推进的良好格局。', '按照政府引导、市场化运作的原则，加强对上市保荐、审计评估、法律服务等资本市场中介机构执业情况的跟踪与了解，严格筛选一批信誉好、实力强的中介机构，向拟上市挂牌后备企业宣传和推荐，为拟上市挂牌后备企业聘请中介机构提供咨询和便利。特别是各国定贫困县（市）要用好“一司一县”结对帮扶政策，发挥结对帮扶证券机构的专业优势和资源，推进企业上市挂牌、发行债券、设立基金等工作，促进县域经济又好又快发展。', '市企业上市工作领导小组办公室要采取“请进来”与“走出去”相结合的方式，组织开展各类资本市场培训、讲座和外出学习考察，进一步拓宽企业家和相关工作人员的视野，增强其对资本市场的认识，更好促进企业上市挂牌工作。井冈山经开区、吉安高新区、各县(市、区)要根据工作实际，每年至少组织两次以上高规格、高层次的专题培训，', '主要领导、分管领导对重点拟上市挂牌企业实行挂点帮扶，着力帮助企业解决发展过程中遇到的困难和问题，全力助推企业上市挂牌。', '吉安高新区、各县（市、区）要建立和完善企业上市挂牌推进工作领导小组，负责研究制定企业上市挂牌发展规划和有关政策措施，协调解决企业上市挂牌过程中遇到的重大问题，推动企业到多层次资本市场融资。同时，要明确专门推进企业上市挂牌工作的机构和人员，并及时向市企业上市工作领导小组办公室报备。', '年至2021年，市财政每年安排不低于500万元的企业上市挂牌专项资金，用于培育后备企业、引进拟上市挂牌总部企业、开展资本市场培训以及奖励上市挂牌企业等方面工作，以支持更多企业登陆资本市场。建立企业上市挂牌月谈制度，听取拟上市挂牌企业意见建议，更好的为拟上市挂牌企业做好协调服务工作。', '吉安高新区、各县(市、区)下达年度企业上市挂牌目标任务，确定上市挂牌板块和数量，定期进行督导，调度推进工作开展情况，并将上市挂牌工作列入到县（市、区）科学发展综合考核中予以考评，并逐步增加分值权重，更好推进企业上市挂牌工作。', '各县(市、区)下达年度企业上市挂牌目标任务，确定上市挂牌板块和数量，定期进行督导，调度推进工作开展情况，并将上市挂牌工作列入到县（市、区）科学发展综合考核中予以考评，并逐步增加分值权重，更好推进企业上市挂牌工作。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>125</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>特区老区继续携手合作共赢再扬新帆</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2017-03-29</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-15604.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['（首席记者蒋阿平）特区老区继续携手，合作共赢再扬新帆。3月28日，广东省委常委、深圳市委书记、市长许勤会见了在深圳考察学习的吉安市党政代表团一行。考察中，我市党政代表团步伐紧凑，积极走访，主动对接，继吉安与深圳职业技术学院开展第一阶段为期3年的合作之后，再与深圳大学、深圳职业技术学院分别签订深度合作协议。', '深圳市委常委、秘书长郭永航，副市长吴以环，市政府秘书长、办公厅主任李廷忠，市经信委主任郭立民，南山区委副书记、区长王强，深圳大学党委书记刘洪一，深圳职业技术学院党委书记陈秋明，我市市领导胡世忠、王少玄、邓淑斌，井冈山经开区领导彭学凯等会见时在座。', '许勤指出，今天的深圳特区，当年也是靠全国人民的支持帮助才发展起来的。因此，深圳一直秉持“感恩改革开放、回报全国人民”的理念，来共同推进中西部的协作和区域之间的发展。深圳将一如既往支持吉安、帮助吉安，与吉安共同落实好中央的有关要求，落实好广东省委的任务要求。这是特区的使命，也是特区的担当与追求。接下来，我们要进一步固化合作关系，进一步拓展合作内容，进一步提升合作成效，推动特区与老区心连心、肩并肩、手拉手,为早日实现“中国梦”而共同努力。', '胡世忠简单汇报了近年来吉安与深圳深化合作的成果，并表达了诚挚的谢意。他说，这几年，吉安跟深圳的对接合作成果丰硕，有力推动了老区的经济社会发展。深圳是一个总部经济集聚区，又是一个国际化的科技产业创新中心，从世界各地流入市场信息流、资金流,流出管理信息流、创新投资流。此次学习考察，收获良多。我们将努力寻求深度合作，进一步拓展延伸合作内容，以与特区的深度对接加快老区科技创新、转型升级步伐。', '考察中，吉安再次收获与深圳高校的深度合作：一是市政府与深圳大学签订战略合作框架协议。协议明确，双方将重点在工业经济发展研究合作、新型城镇化发展合作、科技成果转化合作、科技平台共建合作、产业项目对接服务合作、高校资源共享合作、人才交流与培训合作、红色教育休闲旅游合作等8个方面进行对接，促进吉安深入利用深圳高校智力资源，推进吉安深圳南山示范产业园产学研合作一体化进程。二是吉安职业技术学院与深圳职业技术学院深度合作办学第二阶段事项备忘录顺利签约。根据协议，深圳职业技术学院将继续遴选精干力量组成深度合作办学第二阶段管理团队派往吉安职业技术学院，并对护理、物流管理、机电一体化等3个新设专业，及今后建筑装配、市政工程等新设专业的专业建设方面，在校企合作、产教融合、教学科研、技术开发、承接教研科研项目等方面加大指导和支援力度。同时，吉安职业技术学院将依托井冈山丰富的红色旅游资源，支持深圳职业技术学院在井冈山建立“传统教育、红色教育、党员学习教育”等培训基地，创造条件吸引深圳职业技术学院师生和校友到井冈山接受革命传统教育和红色休闲旅游。', '期间，我市党政代表团还参观了深圳大学的深港大学生创新创业基地、深圳职业技术学院的创新创业实践基地等，实地感受在办学中推进创新创业教育改革所激发的活力；考察了华星光电技术有限公司和华为技术有限公司，了解企业发展历史和技术实力，并就电子信息产业未来发展走向、市场需求分析及科技创新重点问题进行了深入的沟通交流。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>125</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>吉安市政府办公室关于印发吉安市林业十三五发展规划的通知</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2016-12-29</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10183712.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['吉安市人民政府 市政府办公室文件 吉安市政府办公室关于印发吉安市林业 “十三五”发展规划的通知', '\u200b井冈山管理局、井开区管委会、各县（市、区）人民政府、庐陵新区管委会、市直有关单位：', '经市政府同意，现将《吉安市林业“十三五”规划》印发给你们，请结合实际认真组织实施。', '“十三五”时期，是吉安全力深化改革、加快经济转型、全面建成小康社会的攻坚期，是全面贯彻落实党的十八大、十八届三中全会精神、促进吉安林业平稳较快增长的重大机遇期。为紧紧抓住机遇，全面深化改革，推进吉安林业各项工作迈上新台阶，特制订《吉安市林业“十三五”发展规划》。', '“十二五”期间，为加快林业发展，市委、市政府先后出台了《关于加快发展楠木、高产油茶、花卉苗木三大林业特色产业的实施意见》、《关于开展“森林城乡、绿色通道”建设的实施意见》、《关于加强生态红线管控建设生态文明城市的意见》等一系列与生态文明建设相关的文件。“十二五”期间，我市林业以创建国家森林城市为抓手，以“森林城乡、绿色通道”建设为重点，全面深化林业改革，大力优化林业产业结构，不断提升林业发展水平，不但促进了我市林业重点工程建设，而且还推进了“森林城乡、绿色通道”建设进程，“十二五”林业发展规划各项工作目标有序推进，为全面实现绿色崛起的目标打下了坚实基础。', '（1）“森林城乡、绿色通道”建设全面推进。“十二五”期间，我市造林绿化以创建国家森林城市为抓手，以建设“绿色通道、美丽乡村、特色产业”三位一体的生态示范带为着力点，全力推进道路林荫化、乡村林果化、生态产业化，建立了“以城市绿化为中心、通道绿化为骨架、村镇绿化为亮点、青山绿树为屏障”的城市森林体系，全面提升了全市国土绿化水平。全市完成造林绿化225万亩，完成建成区绿化面积3.6万亩；完成道路、河流等生态廊道5012公里；新增森林乡镇63个，森林村庄471个，发展林下经济基地60多万亩；全市森林覆盖率(67.6%)、城区绿化覆盖率（45.7%），新造林面积（每年占市域面积的14.2%），城区人均公园绿地（17m2）等主要指标均大幅度超过国家森林城市指标标准。我市连续四年被评为全省造林绿化先进设区市、城市绿化先进设区市；先后被评为国家园林城市、全国绿化模范城市、国家森林城市。', '（2）以“森林十创”为载体的生态文化建设精彩纷呈。在全市广泛开展森林单位、森林小区、森林学校、森林园区等“森林十创”活动，对各类空地、边角地、公共地实施退硬还绿、增绿补绿，做到见缝插绿、拆墙透绿、能绿就绿。中心城区重点打造了庐陵文化生态园、古后河绿廊、螺湖湾湿地公园、城南市民广场、滨江内湖公园、人民广场、梨山公园等10大公园，建成广场、公园绿地22个。各县（市、区）同步跟进，每个县（市、区）兴建了1个以上森林公园和郊野公园，14个工业园区都建设1个以上森林公园，共建成各类广场、公园62个。四年来，全市栽植各类乔木1395万株，完成单位小区绿化309个，提质居住区绿地138处，新增垂直绿化195亩；建成森林单位134个、森林小区51个；建成全国绿化模范县（市、区）2个，省级森林城市7个。', '（3）林业重点工程建设项目成效显著。一是生态公益林建设快速发展。目前，全市列入公益林补偿面积595.15万亩，占全市林地面积的22.6%，其中，国家公益林面积297.21万亩，省级公益林面积297.94万亩，每年补偿资金1.04亿元。“十二五”期间，全市公益林林分结构得到改善，质量得到提高，蓄积量年均增长6.8%，森林生态效能发挥更加充分，生态环境得到改善。二是突出抓好项目造林。认真实施好长防林、血防林、退耕还林、森林抚育、造林补贴、外资项目造林等林业重点工程项目。在造林项目实施过程中，我市积极推进良种壮苗，陈山红心杉种子已成为全省知名良种；花卉苗木培育突出发展吉安香樟、椤木石楠和井冈杜鹃等特色品种；油茶造林全面推广优良无性系造林；楠木、龙脑樟等珍贵树种造林全面使用轻基质容器苗，有效提高了造林成活率。2011-2015年，全市共完成退耕还林荒山造林11.05万亩，封山育林10.2万亩；防护林造林13.1万亩，封山育林23.29万亩；血防林工程完成人工造林10.97万亩；森林抚育项目完成138.3万亩；农业综合开发林业生态示范项目造林2.4万亩，封山育林2万亩。同时，完成造林补贴项目造林43.44万亩。三是稳步推进国家木材战略储备基地项目建设。2012年，我市正式启动国家木材战略储备基地项目，安福、永丰、峡江三县严格按照国家木材战略储备基地项目建设要求，以国有林场作为项目实施主体，造林规划起点高，质量好，较好地完成了省里下达的计划任务。2014年开始启动国家储备林划定工作，除吉州、青原两区外其余县（市）全部列入规划范围，下达我市国家储备林划定预计划51.1万亩，根据国家储备林划定要求，所有项目县（市）全部完成了划定。截至目前，全市完成人工造林9900亩，低改2.61万亩，中幼林抚育26.4万亩。', '（4）生态富民产业发展迅速。结合通道绿化和中央苏区现代农业示范区建设，选择主要干道可视范围内的宜林荒山荒坡、低效低质林分，布局发展珍贵楠木、高产油茶、花卉苗木和经果林。重点在产业基础较好的赣粤、井泰高速公路和105国道沿线，高标准打造万亩示范带、千亩示范林、百亩示范点，积极建设林业特色产业示范基地。到目前，全市新增珍贵楠木36.2万亩，高产油茶55.2万亩，乡土树种和花卉基地22.2万亩，毛竹低产低效林改造18.5万亩。', '（5）古树名木得到了有效保护。2012-2013年，在全市开展了名木古树普查，基本查清了吉安范围名木古树的种类、分级数量，对全部名木古树进行了挂牌保护，落实了管护责任人，建立健全了名木古树保护责任制，全市现有古树名木18924株，其中一级保护1653株，二级保护4114株，三级古树13111株，名木87株，全部得到了有效保护。', '（1）林业经济快速发展。“十二五”期间，吉安林业保持良好增长势头，林业产值逐年攀升，在农林牧副渔总产值乃至整个国民经济总产值中所占的比重都呈现出上升趋势。全市林业产值从2010年的149.33亿元增加到了2014年的289.6亿元， 2014年生产各类人造板89.2万立方米，其中胶合板28.4万立方米、纤维板34.4万立方米、刨花板5.1万立方米、其他人造板21.2万立方米；生产各类林化产品11.3万吨，其中生产松香及深加工产品7.2万吨、松节油及深加工产品4.1万吨。在吉安市经济发展中，林业的地位非常重要，达到了“农民增收、就业增加、企业增效、财政增长”的目的，并且产生了良好的经济、社会、生态效益。目前，林业及林产品加工对吉安财政的贡献率不断提高，林业已成为全市国民经济的支柱产业之一。', '（2）林业龙头企业强劲扩张。“十二五”期间，我市林业龙头企业强劲扩张，开工建设集营林、林木初加工、板材深加工为一体的江西绿洲林业产业园，投资2亿元，完成了年产15万吨中（高）密度纤维板连续压机改建项目，引进上市公司宜华木业在遂川县投资建设大型家具项目，引进年产60万套竹家具的东方名竹竹业有限公司在我市落户，引进江西飞尚林产成功整合了峡江、泰和、安福三县的松脂资源，使松香产量突破万吨规模。强力整合天然冰片产业，龙脑樟种植面积达3万亩，成为全国最大的龙脑樟种植基地。截至2014年底，全市有林产工业企业410余家，其中拥有江西绿海、江西飞尚2家国家林业重点龙头企业，遂川宜华、新干恒荣等20家省级林业龙头企业。安富、扬宏等10件竹木产品商标获得省著名商标，涉及中密度纤维板、细木工板、竹地板、竹胶板、茶油、松香及其深加工等产品，这些企业产品的生产工艺在全国已居领先地位。“市场牵龙头，龙头带基地，基地连农户”的“贸工林一体化”产业经营模式已初步形成。', '（3）林下产业发展迅速。依托丰富的森林资源，积极发展林畜（禽）、林药、林菌、林苗、林油等林下产业。重点抓好了一批示范基地建设，每个县（市、区）建立示范基地2个以上，带动全市发展林下经济基地60多万亩，走出了一条“不砍树，也致富”的新路子。', '（1）林业执法主体和执法行为进一步规范。一是行政审批制度改革释放改革红利。在涉及到我局的15项行政审批和公共服务事项中，除保留“因重点工程项目建设迁移一级、二级古树和名木审批”外，其余全下放至县（市、区），有效激发了林业竞争机制活力。二是森林防火宣传预防工作形成了制度化。每年进入重点防火期，全市各地迅速开展“千车万组进村入户宣传《森林防火条例》”、“火灾案件查处月”、“减灾防灾”、“创建森林防火平安市县”等宣传主题活动，使森林防火知识家喻户晓。三是规范执法队伍建设。逐步在全市各县（市、区）成立了以原林政稽查队伍为骨干的综合执法大队，其中遂川、泰和成为全国林业综合行政执法试点县，全面推进林业综合行政执法，从体制和机制上解决林业主管部门内部存在的多头执法问题，全面提升了林业主管部门的行政执法能力和水平。', '（2）森林防火保障体系得到加强。建立和完善了《吉安市野外用火管理实施办法》、《吉安市森林防火重点管理乡镇实施办法》、《吉安市森林防火风险保证金实施办法》等办法，有效建立和健全了森林防火长效机制；全面完成了井冈山重点火险区综合治理二期项目、吉安市森林防火物资储备库等项目，建成了具有全国领先水平的林火自动监控指挥系统；全面实施专业（半专业）森林消防队标准化建设，全市现有专业森林消防队15支（包括市直专业森林消防队），乡镇森林消防半专业队246支，市、县、乡、村防火能力进一步加强，大大减少了人为火灾发生；全市森林火险预测预报、林火信息指挥通讯系统、林火监测系统、生物防火林带、边境防火隔离带、扑火队伍体系建设得到切实加强。', '（3）林业有害生物防治体系进一步完善。“十二五”以来，林业有害生物防控工作严格按规划要求实施，目标管理指标每年都控制在规划范围之内，森防体系建设日趋完善，市、县（市、区）森防站建设和监测预警体系、防治减灾体系、检疫御灾体系基本建成。国家级中心测报点稳定在吉安县、安福县、永丰县、新干县、泰和县五县。在全国县级林业有害生物示范站建设中，经省林检局批准，已报遂川县，拟增报吉水县。依托《井冈山松材线虫病重点预防区基础设施建设项目》，各县积极加强基础设施建设，目前项目建设已接近尾声，基本实现了对松材线虫病的实时监测、及时预警、有效封锁和科学除治。', '（1）集体林权制度配套改革不断深化。一是健全采伐管理。木材采伐计划的分配基本实现了“两类林”分类管理，合理分配采伐指标，按林木林龄排序，推行了小片皆伐经营，以面积控制为主，简化审批手续。二是强化林权管理。统一了林权登记发证，加强了林权争议调处，规范了林权档案管理，做好林权管理地理信息系统建设的调研工作，遂川县、安福县列为全省林权管理地理信息系统建设试点县。三是大力发展林业专业合作社。2013年，我市出台了《吉安市农民林业专业合作社试点工作方案》，有7个林业专业合作社列为省级示范社，有2个林业合作社被评为全省“十佳林业专业合作社”。', '（2）国有林场改革基本完成。我市从2011年启动国有林场改革试点，2014年上半年全面推开，全市上下高度重视，按照“条块结合，以块为主”的要求，因地制宜，大胆探索，积极创新，真抓实干，积极稳妥的开展工作。改革中始终坚持公益性改革方向，坚持“保生态、保民生”两条底线，坚守“森林资源不破坏、国有资产不流失”两条红线推进改革，符合中发[2015]6号文件精神。2014年底，15个国有林场改革单位，全部接受了省里的检查验收。全市国有林场改革阶段性任务基本完成。央视“焦点访谈”栏目组和央视网先后对我市国有林场改革进行了采访和报道，海南、湖南、广西、新疆等地到我市学习考察国有林场改革工作。同时，有序推进国有林场危旧房改造工程。我市国有林场危旧房改造自2010年启动以来，六年间，省下达我市的建设总任务为17863套，分别由13个县（市、区）及市直的92个国有林场实施，争取到项目补助资金41095.42万元，至今已开工16151套，未开工1712套，竣工10724套。', '（3）樟树采集管理改革深入进行。吉安樟树资源十分丰富，为把资源优势转化为生态优势、经济优势和产业优势，我市争取省林业厅支持，先后出台了《关于促进我市樟树产业发展的意见》、《吉安市重点工程建设区大树收储实施办法》等规范性文件，采取“确权定性、分类管理，推行市场准入、规范市场行为，严管古樟、天然野生樟，放活经营人工樟”的办法，对樟树采集管理进行改革试点。先后从峡江水利枢纽淹没区等重点工程建设区抢救性移植保护樟树等大树6000多株，打造了吉水燕坊、醪桥和吉州江背大树收储基地。樟树采集管理改革试点，开辟了一条保护地方特色树种的新路子，极大地促进了樟树产业的发展。', '“十二五”期间，尽管我市各地高度重视，采取措施，全力推进林业建设，取得了比较好的工作成效，但与“十二五”规划要求比，与先进地市比，仍然有较大差距。', '1．林业工作发展不平衡状况依然存在。从当前各地林业工作建设来看，由于存在重视不够、措施不力以及抓工作落实不足等方面的差距，导致各地林业工作发展不平衡，同样一个林业项目，在有的县能够按照项目进度和质量要求按时完成，有的县则进度缓慢，完成质量不高。一些县（市、区）缺乏大局意识，不按照市里统一部署，在申报林业重点项目时，存在项目立项调研方向不正确，没有做到与国家和省扶持方向对接，导致项目得不到国家立项支持；在实施“森林城乡、绿色通道”项目化建设中，没有与市里工作要求保持一致，有些县区拖了全市工程建设后腿。', '2．森林资源结构不合理没有根本改变。当前吉安市林业发展的突出问题，就是森林资源质量仍然不高，综合效能较低。我市森林资源总量虽大，但针叶林多，中幼林多，低产残次林多，树种、林龄结构不合理，森林质量和林地产出难以满足经济社会发展对森林的多种需求。如目前，由于我市竹林生产管理水平较低和竹材加工产品低端，竹林经济效益低下，每亩产值徘徊在500元左右，而国内管理较好的竹林年亩产值高的可达几千元，甚至上万元。营林业与木材工业彼此脱节现象仍然存在，营林没有良好的考虑加工业的需求，用材林树种单一，林业第一产业对第二产业的支持推动作用发挥不够，第二产业对第一产业的扶持拉动作用没有很好地发挥出来，林业企业原料供应的结构性矛盾仍然比较突出。', '3．林业产业发展水平仍然相对滞后。总体上看，吉安林业仍然缺乏一批具有市场竞争力的龙头企业产业群体和著名品牌。产业产品仍然停留在木材加工和松脂加工两大方面，深度开发利用还不够，极具发展潜力的森林食品、森林药材、竹纤维、非木质林产品等加工工业刚刚起步，还没有形成产业规模。林业产业体系还不够发达，结构性矛盾突出，对促进农村农业经济发展的作用未得到充分发挥。现有林业产业龙头企业中大多数仍处于起步阶段，其经营形式简单，技术落后，加工规模和能力小，产品开发创新能力弱，产品结构、市场结构单一，产品深加工不够，出口创汇能力低，没有足够的市场风险承受和化解能力，对林业产业的带动能力较弱。', '4．林地保护与经济社会发展的矛盾更加突出。由于我市吉泰走廊已上升为国家和省级发展战略，全市经济正处在快速扩张期，工业化、城镇化进程加快，建设用地的需求量非常大，用地指标缺口较大，主要是工业园区的建设、重点矿区的扩采、交通建设、新农村建设等用地，林地保护与经济社会发展的矛盾更加突出，林地保护压力更大，未批先占、少批多占林地现象时有发生。', '\u200b 高举中国特色社会主义伟大旗帜，全面落实党的十八大、十八届三中、四中全会精神，遵照习近平总书记“一个希望、三个着力”重要要求、省委“发展升级、小康提速、绿色崛起、实干兴赣”十六字方针和市委加快推进绿色崛起，在全省率先建成生态文明先行示范区的战略部署，坚持走生态林业为主，民生林业为辅的发展路子，着力实施好低产低效林改造提升森林资源质量工程，大力发展好以珍贵楠木、高产油茶、竹木花卉、林下经济为主的林业生态富民产业，全面开创吉安现代林业科学发展的新局面。', '——坚持绿色发展。尊重自然与经济规律，将生态保护建设放在突出位置，加强林地用途管制、科学经营森林；依靠科技兴林、人才强林；实施重点项目带动战略，实现林业生态、经济、社会、文化、碳汇五大功能的最优化。', '——坚持协调发展。林业生态、产业和文化三大体系相协调，生态、经济和社会三大效益相统一；城市林业与乡村林业两手抓，城乡绿化一体化发展；政府主导和市场调节相结合，政府主导生态、文化建设，市场配置产业发展。', '——坚持和谐发展。全市动员、全民搞绿化、全社会办林业；把兴林富民作为林业发展的根本宗旨，着力改善林区民生，化解林区各类矛盾纠纷，维护和谐稳定，创优人居环境。', '——坚持创新发展。发扬敢为人先的创新精神，解放思想拓宽林业发展空间，深化改革释放林业生产力，构建屏障提高生态承载力，振兴产业增强林业发展后劲，扩大开放拓宽林业发展新平台。', '——坚持特色发展。立足市情、林情，大力开发利用特色资源，发展油茶、毛竹、楠木、樟树、森林旅游、野生动植物利用、林下经济等特色产业，调整农村产业结构，增加农民收入，实现“生态受保护、农民得实惠、林业大发展”。', '——坚持依法发展。建立健全林业发展法律法规体系，大力推进林业综合行政执法，建立起权责明确、行为规范、监督有效、保障有力的林业综合行政执法体制，促进林业健康、有序发展。', '“十三五”期间，即2016～2020年，全市林业发展要以建设生态文明为总目标，以优生态改民生为总任务，以全面深化林业改革为总动力，紧紧围绕建设秀美吉安的基本思路，以“扩量、提质、增效”为目标，以低产低效林改造为抓手，着力提升森林质量和绿化水平，切实加强森林资源保护，大力发展绿色生态富民产业，加快繁荣生态文化，全面提升生态林业和民生林业发展水平，壮大林业产业，努力打造吉安林业发展的“升级版”，为全市加快绿色崛起，在全省率先建成生态文明示范区作贡献。', '“十三五”期间，即2016～2020年，吉安林业发展的目标是“两稳定、两提高”。“两稳定”一个是森林覆盖率稳定在68%以上；一个是林地保有量稳定在2600万亩，其中湿地保有量稳定在100万亩左右。“两提高”一个是全市活立木亩均蓄积量由3.8立方米/亩提高到5.4立方米/亩，总量突破一个亿，达1.09亿立方米；一个是林业产业总产值年均保持10%的增幅，总量由现在的300亿元左右提高到500亿元。全市生态文明建设各项涉林指标明显高于全省平均水平，基本建成布局合理、结构稳定、功能齐备、管理高效的森林生态体系和规范有序、集约经营、结构合理、富有活力的林业产业体系，使我市林业跨入可持续发展的新阶段。', '围绕市委、市政府关于“绿色崛起，在全省率先建成生态文明先行示范区”的要求，吉安林业要在提升森林生态优势上下功夫。在生态建设上要全面提升森林质量，主要是全面启动低产低效林更新改造项目，对不宜更新造林的采取块状、林冠下补植补造，切实抓好森林抚育和国家储备林建设项目，努力培育胸径达到25公分以上、亩蓄积达到20立方米以上的杉木大径材。高起点高标准建设庐陵赣江国家湿地公园、遂川五斗江国家湿地公园，每个县（市、区）建成1个以上城市郊野湿地公园。进一步发展林业产业，实施《吉安市林脂板一体化产业发展规划》，加快湿地松高产脂良种基地建设，大力发展以龙脑樟林木良种基地建设为主的林下经济；提升油茶、楠木、竹木花卉产业效益，开展油茶、毛竹产业“补改贷”精准扶贫，带动林农脱贫致富。在生态保护上要实施林地用途管制，主要是建立生态红线，依据林地的不同类型和功能，按“禁止、限制、适度、优强”进行分区管理，构建全市林地用途管制“一张图”。抓好林地、湿地和野生动植物的严格保护，加强森林防火体系、森林有害生物防治体系建设，加强林业人才队伍、基层“场、站、所”建设，建立健全国有林场长效发展机制，推动林业投融资改革，充实林业发展后劲。', '（1）低产低效林改造提升森林资源质量工程。在森林分类经营的基础上，利用低产用材林进行更新造林和补植阔叶树，营造高质量的杉木、湿地松、樟树和楠木等用材林生产基地。通过集约经营，定向培育大量优质大径材工业原料林，来满足企业工业原材料的需求，缓解木材供需的结构性矛盾。到2020年，全市实施低产低效林改造工程80万亩，其中更新造林58万亩，补植阔叶树（楠木）22万亩，更新造林中，新造陈山红心杉27万亩，新造湿地松16万亩，新造樟树9万亩，新造木荷6万亩。', '（2）珍贵树种用材林工程。按照大力实施低产低效林改造提升森林资源质量工程建设总体目标要求，以建设绿色生态吉安、优化树种结构、提升森林质量为目标，坚持“因地制宜、集约经营、示范引导、持续发展”的方针，科学搞好珍贵阔叶树造林规划，大力发展以樟树、楠木、红豆杉为主的抗灾能力强、经济价值高的珍贵树种。立足国有林场和重点加工企业，积极探索和创新造林模式，鼓励广大林农和其他经营主体营造楠木、花榈木等珍贵树种，努力把我市发展成为全国营造楠木、花榈木等珍贵树种的先进地区。到2020年，基地规划为中长期用材林培育和珍贵用材林培育，建设总规模为100万亩。到2018年建成珍稀楠木基地面积达到50万亩，到2020年进一步形成100万亩以上的珍稀楠木林生产基地。', '（3）国家储备林建设项目。提高森林质量，培育大径级和珍稀树种木材资源，以缓解木材供需矛盾及结构性短缺、增强我市木材自给能力而建设的木材生产基地。“十三五”期间，对已争取并划定的300万亩储备林，继续采取大径材培育套种珍贵楠木的方式，加快建设步伐，力争到2020年，全市除吉州、青原外，人工林集约培育5万亩，现有林改培20万亩，中幼林抚育100万亩，努力把我市打造成为全国重要的珍贵楠木木材战略储备生产基地。', '（4）退耕还林工程。全面贯彻落实国务院关于完善退耕还林政策和省政府实施意见，加强林木后期管理，杜绝毁林复耕现象发生，确保退耕还林成果切实得到巩固。重点发展油茶、毛竹、樟树、茶叶和森林药材等后续产业。到2020年，全市实施退耕还林工程50万亩，其中:规划人工造林 25万亩，封山育林25万亩，国家总投资1.5亿元。巩固退耕还林成果工程按照国家规划下达的计划执行。通过植树造林、封山育林和巩固成果，达到改善生态环境，优化农业产业结构，促进农民增收的目的。', '（5）长江流域防护林工程。在赣江及其支流的源头和两岸，按照区域综合治理的方法，通过人工造林、低产（效）林改造、封山育林等多种形式，恢复扩大森林植被、调整林分结构，形成乔、灌、草多层次的森林群落结构，增强森林涵养水源、保持水土、调节气候、改善生态环境的功能。到2020年，全市实施长江流域防护林工程50万亩，其中：人工造林20万亩，封山育林30万亩，总投资1.2亿元，争取国家投资8100万元。', '（6）血防林工程。以吉水县、泰和县、万安县为重点，以科技创新为手段，以综合治理为原则，加大血吸虫病传染源林业血防力度，大力营造抑螺防护林，改变钉螺孳生环境，降低钉螺密度，有效压缩钉螺面积，降低感染率，实现抑螺防病、提高森林资源质量、改善生态环境的目标。到2020年，实施血防林工程10万亩，以丘陵岗地人工造林为主，国家总投资3000万元。', '（7）造林补贴工程。在宜林荒山荒地、沙荒地、迹地进行人工造林和更新，对面积不少于1亩的农民、林业职工、农民专业合作社、国有林场等造林主体给予造林补贴，提高社会参与林业建设的积极性和主动性，鼓励广大林农参与林业建设，提高造林质量和数量。到2020年，全市实施造林补贴工程125万亩，总投资10亿元，争取国家投资3.125亿元。', '（8）森林中幼林抚育工程。通过加强中幼林抚育，调整林分结构，改善森林卫生状况，加快林木生长，增强森林抗灾能力，改善林木品质，提高森林质量，不断增强木材、林产品和生态服务的供给能力。到2020年，全市实施中幼林开展抚育200万亩，争取上级投资2亿元。', '（10）吉安市森林防火物资储备库建设二期项目。我市是红色革命摇篮井冈山所在地，有11个是重点林业县。由于基础设施相对落后，我市各地的物资储备工作还相对薄弱，难以满足应急要求。通过物资储备库项目二期的建设，进一步完善吉安市森林防火应急控制体系，保障井冈山区域森林防火物资的有效供给，满足较大森林火灾扑救的物资需求，增强森林火灾的应急处理和快速反应能力，实现森林防火机具化。', '（11）井冈山区域森林防火远程监控体系。井冈山是我国红色革命摇篮，周边区域是我国南方重点林区，拥有丰富的森林、旅游资源，且山徒林密，交通不便，其森林防火基础设施设备难以满足森林防火发展需要。为了维护和改善生态环境，促进区域社会经济可持续发展，“十三五”期间，我市拟进一步完善火情瞭望监测系统，逐步实现森林防火远程瞭望监测全覆盖，提高预警监测水平和预防控制能力，将森林火灾受害率控制在1‰以内，有效地保护森林资源和生态环境。', '（12）井冈山区域生物防火林带工程。建设生物防火林带是保护森林资源，维护和改善生态环境的需要，是保护景观资源，促进旅游产业发展的需要，它能阻隔林火发生和蔓延，严禁山火进村，严防家火上山，保护人民生命财产安全。井冈山是我国红色革命摇篮，拥有同纬度次原始森林，森林资源十分丰富，完善森林防火阻隔网络，提高预防和控制火灾能力十分必要。按照“预防为主，积极消灭”的森林防火方针，在省、市、县、乡行政界，山脊、山脚田边、居民点附近、道路两旁、林缘和林内等地方营建生物防火林带，构建集生物、自然和工程阻隔于一体，相互衔接的林火阻隔网络，提高预防和控制火灾能力。项目建成后，将有效防止重大森林火灾的发生与蔓延，减少森林火灾造成的直接与间接损失，保护森林资源和林区人民生命财产安全，促进社会经济可持续发展。', '（13）新增生态公益林保护规模。目前，我市实施公益林补偿的面积偏小，仅占有林地面积的２2.6％，没有达到国家规定３０％的标准。国务院《关于支持赣南等原中央苏区振兴发展的若干意见》，国家将加大对公益林建设扶持力度。因此，我市拟力争到2020年新增生态公益林保护面积200万亩。', '（14）庐陵赣江国家湿地公园湿地保护与恢复工程建设项目。庐陵赣江国家湿地公园地处吉安中心城区北郊，属于赣江流域，主要由赣江及其一级支流螺湖水、螺子山组成。建设庐陵赣江国家湿地公园，实施湿地保护和恢复工程，不仅能保护现有湿地、促进植被群落的恢复，改善栖息地环境和生物多样性，提高湿地生态系统自我调节能力；还将加强螺湖水与赣江之间的水文联系，进一步完善其调蓄洪水能力，有效维护区域生态安全。“十三五”期间，重点实施好“五大工程”，即：湿地保护工程、湿地恢复工程、科研监测工程、宣传与教育工程、管理站点建设工程，力争2016年内中央财政湿地保护和恢复项目补助资金落地，2017年完成项目的设计、审批及立项并全面动工；力争到2018年各项工程建设完工并通过验收。', '（15）井冈山中心区域外来危险性有害生物防控监测体系建设。目前,松材线虫病已经传入我市，并有扩散蔓延的可能，美国白蛾已在我省周边几个省份发生,为阻止外来危险性生物入侵，保护井冈山中心区域森林资源和生态安全，拟建设井冈山中心区域外来危险性有害生物防控监测体系。项目拟覆盖全市十三个县（市、区），强化监测防控体系建设及远程监控系统、地理信息系统和全球卫星导航系统等新技术推广，项目总投资5千万元。', '（16）生物技术在防控松材线虫病中的应用和推广。为减少化学农药对生态环境的污染，探索用新的防控治理模式和应用生物新技术防控林业有害生物，拟建设省级项目“生物技术在防控松材线虫病中的应用和推广”，用白僵菌、肿腿蜂、花绒寄甲等技术对传播媒介——松褐天牛进行防治，以达到有效控制松材线虫病的传播和扩散蔓延。', '（17）吉安市林脂板一体化建设项目。我市松林资源丰富，仅人工湿地松面积就达400万亩，林脂加工深度及规模居全省之首，一批重点林产项目龙头企业和产业园区聚集在吉泰走廊。到2020年，新建和改造速生丰脂湿地松林300万亩，使全市湿地松面积达到500万亩，松脂松香化工及人造板产业总产值达到106亿元。建设一批高产脂良种育苗种植、科研开发、松脂和人造板深度加工项目，形成以湿地松林为原料，建立起比较完善的林产品生产体系和市场体系，将吉安市打造成特色鲜明的国家级“林脂板一体化”产业示范基地、循环经济示范基地。投资估算78.6亿元(原料林项目27.1亿元、林产化工项目13.4亿元、人造板项目38.1亿元)。', '（18）林下经济发展项目。根据我市自然资源条件，大力发展油茶、花卉苗木、森林药材、森林禽畜、森林加工等五大林下经济产业，充分发挥林地资源优势和林荫空间优势，按照以林为主、保护为先的原则，建立经济与生态协调发展的林下经济模式，走出一条“不砍树也能致富”的新路子。到2020年，全市新增林下经济示范基地面积100万亩，新增林下经济示范基地200个。', '（19）速丰林基地建设工程。在优强开发区域内，高标准营造以优良的松类、杉类树种为主的速生丰产林基地，增加木材等林产品的有效供给，保障全市木材加工企业原料供应，减轻生态建设压力。杉类以推广陈山红心杉良种为重点，松类以培育速生丰产和高产脂壮苗为重点，在每县（市、区）至少设置1个省级保障性苗圃、5个市级保障性苗圃，实行定点供种、定点育苗、定向供苗，推行良种壮苗。鼓励培育名牌产品和龙头企业，推广公司带基地、基地连农户的经营方式，加快林业产业的发展，增加农民林业收入，打造产供销为一体的林业产业链和结合生态在内的绿色产业链。到2020年，全市建设以湿地松、杉木、木荷、枫香、杨树等速生树种为主的工业原料林和用材林基地100万亩，每年建设20万亩。总投资8亿元，争取国家投资3亿元。', '（20）深山区扶贫产业--毛竹丰产林基地建设。近年来，我市毛竹由于没有龙头企业拉动，导致竹林经营水平低下，山区农民守着丰富的竹资源却难于脱贫。为了提升我市竹产业发展水平，帮助山区农民脱贫致富，拟在全市实施毛竹产业扶贫示范工程。在资源培育上主要是低产林改造，提高毛竹单产和竹株质量；在加工利用上，主要是提高产品档次，增加品种，提高效益；在发展规模上要与其他林种协调适当比例，避免单一。以基地建设为依托，实现竹产业规模经营和深度加工，提高竹林培育和竹产业经济效益，重点培植发展深加工、上规模的毛竹精深加工企业2-3家，做大做强毛竹产业。“十三五”期间，每年实施毛竹林低改10万亩，到2020年，全市力争完成毛竹林低改示范林100万亩，总投资10亿元；全市实现毛竹产业产值100亿元，带动10万户以上边远山区农民脱贫致富。', '（21）国家油茶造林项目。抓住国家拟对原赣南中央苏区油茶产业扶持的重大机遇，积极探索和推进“补改贷”的产业扶持新模式。同时，注重高产油茶品种改良和繁殖，发展吉安当地特色的高产油茶品种，建立以市场为主导、以重点油茶县为依托的无性系高产油茶良种育苗基地，基本实现油茶资源培育基地化、经营管理集约化、林油发展一体化。“十三五”期间，结合对原有低产低效油茶林的改造，每年新增高产油茶10万亩。到2020年，全市高产油茶面积达到100万亩以上，辐射带动吉安市高产油茶产业发展，茶油年产量达到4万吨以上，产品精加工率达到80％左右，油茶产业年产值达到40亿元。培植3－5家优质油茶龙头加工企业以及其他重点扶持的油茶加工企业，打造3－5个产业品牌，使油茶产业成为吉安当地重要的农村经济特色支柱产业。', '（22）木本药材基地工程。开展中药材野化变家种研究，建立木本药材人工种植基地，保护日趋枯竭的野生药材资源。鼓励药材加工企业走持续稳步发展之路，实施示范带动战略，建立企业用材基地。突破传统经营模式，由林农小户分散、盲目种植、自产自销状态转移到集中规模生产经营上来。充分利用重点造林项目资金，支持鼓励中药材加工企业根据自身需求，依据适地适树原则，采取公司+农民+基地、公司+农民专业合作社等形式，创立一批林工商结合、产供销一条龙的新兴产业链，改善农村产业结构，实现中药材加工企业经济效益和农民收入增长双赢。以井冈山、遂川、新干、峡江、安福等县市为重点，通过新造杜仲、厚朴、吴茱萸、黄栀子、龙脑樟等树种，到2020年，使全市木本药材基地新增10万亩，每年新增2万亩。总投资1亿元。', '（23）花卉苗木产业建设。我市植物种类丰富，具有良好的林木种苗资源和花木经营经验，目前全市花卉苗木种植面积17.06万亩，是山区林农致富和提高林业经济效益的重要产业。在“十三五”期间，预计每年新增2万亩，通过优选整合使全市花木产业总面积达到25万亩左右。', '（24）现代林业科普休闲园建设。吉安市有丰富的植物资源，为了保存和展示珍贵植物资源，建设林业科普园，有利于珍贵资源收集、科技示范、科普宣传。营建林业科普园400亩，主要包括珍贵树种收集区、科技示范区、茶花园、杜鹃园、龙脑樟矮林作业示范园、湿地松良种收集区和盆栽植物展示区。项目总投资2000万元。', '（25）国有林场危旧管护用房改造。我市国有林场绝大部分管护用房年久失修，存在明显的结构缺陷和安全隐患，急需改造。“十三五”期间，计划对国有林场的850个管护站进行改造建设，改造房屋28.5万平方米，投资3.5亿元。', '（26）林区饮水安全。“十二五”期间，我市林区纳入全国农村饮水安全工程规划编制中仅15818人，林区仍有近5万人未纳入农村饮水安全工程规划。“十三五”期间，我市计划对国有林区饮水安全进行改造，切实解决国有林场的人畜饮水、防病改水、无水源工区等问题，力争争取国家资金2525万元。', '（27）林区道路建设工程。林区道路除担负林业建设任务以外, 更多地承担了连接林区村组通往山外世界的使命，在大力推进新农村建设、林业资源可持续发展的今天, 这一作用显得尤为突出。目前全市林区道路除了少数通往乡村的主要干道路面为水泥路面，路况较好外,大部分道路为低级路面或无路面, 路面坑洼不平, 晴天时尘土飞扬, 雨天时又泥泞不堪。而且分布不均，这就制约了当地的产业结构调整和经济发展，对营林生产、重点生态林管护、病虫害防治、森林防火工作的开展也极为不利。为了改变这一现状，“十三五”期间，要按照国家林业局和省林业厅的统一部署，实施林区道路建设工程，彻底改变以往生产经营活动修建的简易林道和基本长年无法正常通车，远远不能满足林区生产生活需要的现状。争取中央投资1亿元，至2020年，根据充分利用原有道路、防火线和林班线的原则，规划改建林区公路500公里,新建300公里。', '（28）林场电网、通讯网络改造。我市一些林场的部分工区、护林点至今还未通电，“十三五”期间，计划对120个工区通电，平均每个工区通电里程约5公里，需改造600公里电路，计划投资4800万元。同时，将通讯网络不通的132个林场工区列入计划进行改造。', '把“十三五”规划目标任务分解落实，建立和完善各级政府领导任期目标责任制和部门分工负责目标考核体系。组织编制林地用途管制、湿地保护、森林旅游、珍贵树种保护利用等林业重点专项规划，完善林业规划体系，强化林业发展规划在经济、社会和生态建设中的调控与约束功能。切实加强对林业发展战略的组织实施，对规划中确定的发展目标和重点任务，按照分级管理的原则，列入各级政府、相关部门和县（市、区）林业局的年度工作计划，制定年度重大事项实施方案并组织落实，每年需要重点推进的重大事项，要明确牵头责任部门和人员，确保规划目标任务有计划、有步骤地完成。调动林农和企业发展林业的积极性，是制定和落实政策的根本出发点。要结合各地实际抓落实。保持现行林业优惠政策的连续性和稳定性，并进一步制定和出台相应的鼓励政策。', '以政策作引导，大力支持各类社会主体参与林业建设，努力促成全市动员、全民动手、全社会办林业的新格局。运用宣传发动、表彰带动、检查促动等手段和植纪念树、造生态模范林、开展绿地认养认种等多种形式，推动全民义务植树运动向纵深发展。利用植树节、世界环境日、土地日、气象日等重要纪念日，对公众进行宣传教育，以绿色系列创建活动为载体，广泛动员公众参与；提高全民对保护森林、生态环保、野生动物和生物多样性重要性的认识，促进人与自然的和谐共进。精心策划和组织植树节、“爱鸟周”、“地球一小时”等宣传活动，树立一批植树造林、保护森林、爱护野生动植物的典型，形成良好的群众广泛参与生态文化建设的氛围。', '林业的发展必须依靠各级政府扶持和全社会力量，多渠道筹集林业生态建设资金。要以全面深化改革为动力，大力推进林业体制、机制的转轨步伐。充分发挥市场在资源配置中的基础作用，放活林业经营权，引导各类生产要素向林业生产领域集聚，依法保护投资者的权益。积极推进林业分类经营管理体制改革、深化林业产权制度改革。要完善国有林场改革长效发展机制，逐步建立起一整套与林业发展相适应的政策体系、管理体系。拓宽投融资渠道，吸纳部门、金融、工商资本、各种经济组织等资本和力量，同时积极吸收外地资本、技术，加快林业发展。公共财政要加大对林业生态建设、森林资源保护、林业基础设施建设投入，通过各种渠道给予扶持。', '根据中央对分类经营管理体制的决定，在充分发挥森林多方面功能的前提下，按照主要用途的不同，对林业实行公益林和商品林分类经营管理。对应林地用途管制“一张图”，调整现有的采伐政策。对禁止开发区域，实行禁伐；对限制开发区域逐年减少采伐指标，除生态性项目外，所有商品性项目不纳入限制开发区域；将禁止开发区域和限制开发区域调减出的采伐计划重点安排到营造速生丰产林的优强开发区域。同时，加快自然保护区、生态公益林、森林公园、湿地建设，加大名木古树保护力度，积极打造水源涵养林、空气净化林、矿山恢复林。继续深化樟树采集改革试点，探索建立计划内捕猎和人工驯养野生动物标识制度和专业市场交易制度。加强森林资源保护能力建设，强化县级政府保护森林资源目标责任制，强化森林资源源头管理，发挥林业执法队伍保护生态安全作用，严厉打击各种涉林犯罪。进一步提高森林火灾综合防控和林业有害生物防治水平，加强森林派出所、林业工作站、木材检查站基础设施建设。强化林业综合执法和林业执法队伍建设，规范林业检查执法行为，切实履行保护森林资源职责。', '按照强化森林资源集中利用，提高资源利用附加值的原则，进一步实施扶优扶强战略，整合森林资源，优化产业配置。选择利用价值高、产品附加值高、竞争力强的企业做大做强。积极做好森林食品、森林药材、竹纤维、非木质林产品等加工新兴产业发展这篇文章，为林业发展寻找新的增长点。依托湿地松资源优势，打造具吉安特色的国家级林脂板一体化产业示范基地和循环经济示范基地，实现“资源培育-松脂产业-人造板产业”三者一体化联动协调发展。大力抓好竹林改造和培育，进一步提高毛竹培育和经营水平，实现资源培育与利用相互演进。', '实施科技兴林战略，建立比较完善的林业科技创新体系和林业科技推广体系。充分发挥市林科所的林业科研和推广作用，推进与高等院校、科研院所、企业的有机结合，重点加强林木遗传育种和良种选育（特别是优良乡土阔叶树和生物质能源树种的选育）、毛竹低改（竹腔施肥）、湿地松低频采脂等林业技术的研究。组织一批科技项目的攻关和课题研究，解决发展中有重大影响，带有方向性、关键性、综合性和前瞻性的问题；通过建立科技示范基地等形式，有重点、有计划地组织林果技术推广，大力发展和应用高新技术，形成科技成果的转化机制，发展适合我市实际的林业实用技术，促进我市林业建设向集约化经营、科学化管理的高起点、高成效、高水平方向发展。鼓励企业与科研机构、大专院校和规划设计单位等多种形式的合作，推进产学研结合，实现各生产要素的优化组合，不断提高林业产业的创新能力。根据林业产业建设对人才的需求，从增强林业科技自主创新能力入手，优化提升人才结构，重点培养、引进符合林业产业调整、重点项目建设急需的高层次、复合型、高技能的专业人才，努力造就培养一支高素质的林业管理队伍。', '贯彻落实好中央、省、市有关文件精神，切实解决好林业基层单位编制、经费来源，完善基础设施和办公设备；进一步强化基层林业工作站、木材检查站、森林公安派出所和森林消防专业队、半专业队伍建设；加强基层林业职工文化技术培训，调整基层机构设置，尤其是要根据全市“林地用途管制一张图”，在商品林区不搞重复检查，将市内县与县之间的木材检查站和优强开发区域内的检查站，优化布局到限制开发区域和禁止开发区域的出口上、市域范围内出市的通道上，实现市内森林资源的集约利用。检查站要适应新形势和新要求，逐步建立以山上和路上流通巡查为主，路上固定检查为辅的工作机制，加强源头管理。稳定干部职工队伍，切实提高我市林业干部服务生态林业和民生林业的能力。', '（一）恳请支持我市重点项目建设。我市根据林业建设发展实际，提出了“十三五”重要思路和重要项目，希望省和国家能够纳入相关项目支持范围，尤其是我们提出的龙脑樟林木良种基地改扩建、吉安市林脂板一体化建设、深山区扶贫产业--毛竹丰产林基地建设、林业科技示范区建设等项目，能够作为原中央苏区特别项目得到国家单独立项支持。', '（二）建议提高国家造林项目补助标准和补助规模。目前，国家对长防林、退耕还林荒造等林业重点造林项目补助每亩500元，造林补贴项目每亩只补助200元，与实际造林投资成本相比，仍然偏少，而且资金只是对造林阶段的投资，幼林抚育、病虫害防治、森林保护等森林资源培育后续工作，国家没有资金投入。建议国家提高造林补助标准，达到每亩５００元以上。同时，恳请加大对我市国家造林项目投资规模，保证所有造林林农享受国家造林项目支持，保护林农造林积极性。', '（三）支持我市增加公益林面积。我们对全市公益林的情况进行了全面摸底，对符合划入公益林条件但未纳入补偿范围的山场进行了统计，要求增加我市生态公益林补偿面积２００万亩。同时，建议继续提高公益林补偿标准。综合考虑森林质量、地位级差、管护难度等指标，根据区域生态的重要性和脆弱性，对现有重点公益林进行分类补偿，区位比较重要的公益林、林分质量好的公益林、管护难度大的公益林，建议按照每亩50元给予补偿。', '（四）支持吉安生态保护建设。我市自然保护区建设相对滞后，为推进苏区振兴，保一方水土，加强自然保护区建设显得尤为重要。市委市政府提出明确要求，对于没有国家级省级自然保护区的县（市、区）都要建立至少一个省级自然保护区。目前我市安福、泰和、万安、吉水、吉安、峡江、新干七县和吉州、青原两区都没有省级自然保护区，因此请求省厅给予特殊通道，支持我市赣江中游重要支流源头自然保护区建设，以加快我市省级自然保护区建设步伐。目前，我市湿地保护体系不够完善，只有重要的天然湿地得到了较为有效地保护，没有建立起完善的包括国际重要湿地—国家重要湿地—自然保护区—自然保护小区—湿地公园—湿地多用途管理区在内的湿地保护体系，请求省厅加大我市湿地保护体系建设的支持力度，不断提高我市湿地保护管理水平和能力。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>赴四川省德阳市学习考察职业教育工作情况的报告</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2015-05-05</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-24866.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['为学习借鉴四川省德阳市职业教育发展的先进理念和成功经验，加快推动我市职业教育改革发展，2014年12月底，市政府副巡视员李建国同志率县（市、区）分管教育工作的副县（市、区）长和教育局局长、井开区社会事业局局长以及市教育局有关负责同志赴四川省德阳市学习考察职业教育工作。考察团实地考察了中国第二重型机械集团公司、东方汽轮机有限公司、什邡市职业中专学校、四川工程职业技术学院、中江县职业中专学校，认真听取了德阳市职业教育改革发展情况介绍，并与他们进行了深入交流座谈。“大德阳、大职教”所取得的骄人成就让考察团的同志大为震撼、为之叹服。大家一致认为，这次德阳之行既增长了见识、启发了思路，也看到了自身的差距和不足，更坚定了进一步加快职业教育改革发展的信心和决心。', '德阳1983年建市，现辖1区2县3市，总面积5911平方公里，人口392万，是成渝经济区重要区域中心城市和成都经济区重要增长极。德阳工业经济发达，是中国重大技术装备制造业基地、国家新型材料产业化基地、国家新型工业化示范基地，拥有中国二重、东方汽轮机、东方电机等一批国内一流、世界知名的龙头企业，经济总量连续多年位居四川前三。为策应德阳的职业教育基础、产业发展需求和就业需要，2004年，德阳市委、市政府作出了建设“中国西部职业教育基地”的战略决定，举全城之力、动全市之心推动职业教育发展风声水起。到目前，全市共有本科职业学院2所、高职学院5所、中职学校和技师学院20所，其中，国家示范性高职2所、国家示范性中职3所、国家级重点中职8所，职业院校在校学生12万余人，年毕业4万余人，先后获批为国家高等职业教育综合改革试验区、四川省唯一的职业教育改革发展示范区。德阳职教已成为德阳的一张闪亮名片和金字招牌。他们的主要经验和做法是：', '1.牢固树立“抓职教就是抓经济，抓经济必须抓职教”的思想，持之以恒，久久为功。德阳职教不是“一夜成名”的，其间经历了几任党政领导的重视努力和社会各界的关心支持，更是凝聚着一代代德阳职教人的不懈追求和心血智慧。他们立足德阳、面向四川、辐射西部、服务全国、链接国际，把职业教育放到经济社会发展的大环境中去考虑，提出“大德阳、大职教”的理念，把“抓职教就是抓经济，抓经济必须抓职教”的思想贯穿始终。一是高瞻远瞩抓顶层设计。在市级层面强化统筹，把职业教育纳入全市经济社会发展总体规划、教育均衡发展的重要内容等，聘请国内著名职教专家马树超编制了《德阳市职业教育改革发展规划》，提出了以农村职教向县城集中，城市职教向园区集中，各类职教向产业集中为原则，打造“一体两翼三点”（“一体”即以德阳市区为主体，打造特色中职园区、高职园区两个职教园区；“两翼”即以劳动力转移为目标的中江职教，以服务重装企业为目标的广汉职教，“三点”即加快绵竹、什邡、罗江职教中心发展）和“德阳职教走廊”的职教发展框架（为服务成渝经济区、成德绵经济带，在成绵高速公路德阳段建设“德阳职教走廊”）。二是持之以恒抓政策落实。虽然德阳市委、市政府在10年间只发了两个推动职业教育发展的文件，但德阳能认真、深入、持续地贯彻党中央、国务院发展职业教育的精神，实实在在地落实经费投入、建设用地、招生就业、税收信贷等方面的政策支持，对不同隶属关系、不同所有制和不同门类的职业教育，不论“公办民办”、“省管市管”，都一视同仁大力支持，尤其是在经费上舍得大投入。从2005年起，市财政每年拨付300万元职教工作专项经费，在每年6000万元的教育附加提取2000—2500万元用于职教发展，超过国家规定的30%比例。三是着眼全局抓政府统筹。首先是统筹资源。围绕产业需求，采取联合、合并、划转、置换等方式调整职业院校布局，将原来的42所中职调整到26所；整合教育资源，对卫生、人社、商贸等部门所办的15所职技校进行合并，划转到地方职业院校，由教育部门统一管理。其次是统筹管理。建立了职业教育工作联席会议制度，完善了“分级管理、以市为主、政府统筹、社会参与”的管理体制，配备了市职业教育行政管理人员20人，组建了德阳市职业教育中心。第三是统筹办学。率先在全省开展中高职衔接试点，一方面扩大五年一贯制学历教育试点，另一方面积极探索高职自主招生，为中职生搭建继续成才之路；通过强化考核措施，严格控制职普比例，遵循“普高只能少招不能多招、职高上不封顶下有保底”的原则，全市自2005年以来均超额完成省下达的中职招生任务，高中阶段职普招生比、在校生数比均达到1:1。', '3.大力打造“培养一个学生，致富一个家庭，振兴一方经济”的环境，服务发展，促进就业。德阳职业教育取得的最大成绩并非是扩大了招生规模，而是通过实实在在的做法与效果，真正改变老百姓心中的职教情结，“学好一门技能，播种一个希望；培养一个技工，全家脱贫解困”的观念已深入德阳家庭。一方面，把职业教育作为平民教育、技能教育、就业教育来抓。积极引导职业院校树立德育为先、素质为本、技能为重的教学理念，突出学生职业道德教育和职业技能训练;全力资助贫困家庭子女接受职业教育，在落实国家补助政策的同时，在职业院校开设贫困生免费培训班，市教育基金会设立专项资金用于资助职业院校贫困生；建立行业、企业、学校共同参与的机制，构建“招生——成才——就业——跟踪管理”职教服务体系，近几年职业院校毕业生就业率保持在98%以上，中职毕业生大部分在本地就业，许多在外创业成功的职校毕业生陆续返乡发展。另一方面，把职业教育作为推动产业发展的重要基础来抓。依托职业学校培养技术工人和专业人才，为招商引资、工业强市、三产发展等提供了大量人才保障，2004年以来，职业院校为全市企业输送技术工人13万余名，为旅游、商贸、金融等行业培养了大量人才；依托职业院校促技术创新，将装备制造业技术研究中心建在四川工程职业技术学院，充分发挥其人才和技术优势，加快重大装备产品开发、技术攻关，实现产学研有效结合；大力实施“2112”教育富民工程（每个乡镇成人文化技术学校每年引进推广2个以上先进实用农科项目，建立1处以上新技术试验示范基地，在每村扶持1个以上科技致富示范户，全年培训农村劳动力20%以上），促进农村劳动力转移和农民增收致富。', '近年来，吉安市委、市政府坚持负责任地办教育，办负责任的教育，办人民满意的教育，致力把职业教育作为抓产业、促发展、惠民生的重要举措来抓，尤其是市委、市政府主要领导对职业教育发展高度重视，倾注了大量心力，把职业教育发展列入“1+6”十年教育规划，列入教育改革发展的主要类别，带头对职业教育工作开展调研，点题研究出台加快职业教育改革发展的实施意见，特别是用地1100亩，投入近10亿元，建设了吉安职业技术学院，填补了吉安高等职业教育的历史空白，并促成与深圳职业技术学院的深度合作，使吉安高职在办学之初就站在了较高起点，这在吉安教育发展史上具有重要的里程碑意义，也标志着我市职业教育进入了新的发展阶段。但是纵观全市的总体情况，职业教育在整个教育体系中仍是一条“短腿”、一个薄弱环节，职普结构不尽合理，办学条件薄弱，师资力量不强，体制机制不畅，社会认可度不高，推动职业教育改革发展刻不容缓。“他山之石，可以攻玉”。借鉴德阳市职业教育的发展理念和经验做法，我市务必进一步解放思想，改革创新，真抓实干，久久为功推进现代职业教育发展，使职业教育真正成为吉安加快发展升级、决战同步全面小康的“动力源”和助推器。', '当前，影响我市职业教育发展的一个重要因素是职业教育的发展氛围不够浓厚，既有社会层面上的问题，也有部分领导干部存在“重普教、轻职教”的思想所致。为此，要通过认识的提高、严格的考核和全方位的宣传，强化各级领导干部的责任担当和执行力，提高社会各界对职业教育的关注度和认可度。', '1.提高各级领导的重视程度。发展职业教育，关键在领导，重点在一把手。要加强政府的统筹协调和分类指导，把职业教育改革发展纳入经济社会发展和产业发展总体规划，把中职达标建设纳入“看特色，看变化”流动现场会的视察点，使职业教育工作真正成为各级政府的重要议事日程；健全市县两级职业教育联席会议制度，协调解决职业教育发展中的重大问题，聘请职教专家编制完成市县职业教育发展规划。今年之内，要择时召开由党政主要领导出席的全市职业教育工作会议，全力推进全国、全省职业教育工作会议精神的贯彻落实，安排部署当前和今后一个时期我市加快现代职业教育发展的各项任务，提高认识，凝聚共识，形成齐抓共管的强大合力。', '2.强化考评结果的有效运用。把职业教育纳入县（市、区）年度经济社会综合考核，作为“一把手工程”，实行行政首长负责制。完善职业教育定期督导和专项督导评估制度，重点对县级政府及有关部门在发展职业教育中落实国家和省市有关政策、普职比例、经费保障、办学条件、专业建设等进行专项督导检查，其结果作为地方政府和有关部门、职业院校绩效考核的重要内容，作为干部政绩考核、选拔任用的重要依据。', '3.扩大舆论宣传的社会效应。每年组织开展职教宣传月或宣传周活动，利用各种新闻媒介特别是主流媒体，大密度、常态化宣传职业教育的重要地位和作用，宣传职业教育的先进典型和先进人物，宣传职校毕业生就业有路、升学有望、致富有方、创业成才的典型事迹，以鲜活的事例展示职教办学成果，促进形成“崇尚一技之长、不唯学历凭能力”的社会氛围。引导全社会树立新的教育观、人才观、择业观，都来关心支持职业教育，提高职业教育社会影响力和吸引力。特别是在每年中高考前，深入做好宣传引导工作，吸引更多学生报考职业院校。', '紧紧围绕服务全市四化同步互动、三产共生演进战略，紧密结合全市产业体系的建设和发展规划，强化顶层设计，以“全市一盘棋”的定位统筹职业教育发展，通过整合教育资源、优化专业结构、深化校企合作，使职业教育贴近经济社会发展实际并实现无缝对接，推动形成立足吉安实际、促进就业创业、服务经济发展的职业教育发展新格局。', '1.组建职教联盟，实现抱团发展。以吉安职业技术学院为龙头，以吉泰走廊职教群为核心，通过“高职带中职，强校带弱校”，联合县市区省级达标优秀中职学校，按照“平等互利、资源共享、合作共赢、共谋发展”的原则，重点在校园文化、教学管理、师资建设、专业设置、实训设备等方面展开合作，组成办学能力强、中高职有序衔接和校企互融共进的职教发展联盟。在全市职教发展联盟的统领和指导下，按照“扬优、扶新、集群”专业建设理念，引导县市区中职学校依托本地产业发展和园区企业用工需求，突出市场针对性，注重特色化和差异化发展，科学合理确定专业设置，重点打造电子信息、生物医药、现代农业、数控技术、旅游管理、学前和初等教育等特色专业，避免专业重复建设、缺乏特色和竞争力等情况，形成与区域经济发展和产业转型升级相匹配的专业体系。', '2.鼓励多元办学，实现资源共享。积极落实我市加快民办教育发展的实施意见，鼓励社会力量举办或参与举办职业院校。在公办职业院校探索“公办民助、股份制办学、集团化办学”，在民办职业院校推广“政府引导、民办公助”的办学新机制。针对现有中职学校“散、小、弱”的实际情况、达不到中职学校设置标准的实行“关、停、并、转”，针对目前缺乏职业学校办学能力的有关县区，可采取托管、挂靠、共建等形式，引进优质学校或职业教育集团实行联合办学。要扩大学校办学自主权，并在土地划拨、财政奖补、生均经费、教师编制、政府购买服务等方面予以支持，并实行教师职称评聘单列，促进职业教育办学体制双轨并存、多元发展。', '3.深化校企合作，实现产教相融。职业教育是技能型人才培养的最后一道关口，培养和提高学生的实践操作能力，教学方式方法很重要。要通过建立政府层面校企合作平台，支持职业院校与全市规模以上企业开展“校中厂，厂中校”式合作，推动专业设置与产业需求、课程内容与职业标准、教学过程与生产过程“三对接”，实现工学结合、资源共享、校企双赢；积极开展委托培养、定向培养和订单培养，提高人才培养的针对性、实效性。完善职教集团运营机制，支持吉泰走廊职教集团发展壮大，大力推进集团内、区域内学校教学互动共融，推进职业教育资源区域之间、行业之间共建共享。鼓励引导职业院校毕业生在本地就业创业，每所职校至少和本地三家企业开展对接，各职校“订单培养”比例和毕业生在市内就业比例均达到60%以上，使职业教育发展主动适应市场、对接企业，为我市发展提速升级培养更多更好的技能应用型人才。', '推动职业教育发展，既需要政府层面的政策支持和统筹调度，更需要各级各有关部门推动政策的执行和落地，着力解决并落实有关方面的保障，积极为职业教育改革发展创造有力条件，提供优质服务，营造良好环境。', '1.着力解决职业教育工作“有人抓、有人管、有人推动落实”的问题，推动职教管理精细化。加强市县职业教育管理机构和队伍建设，配备充足专职人员，确保职业教育工作有人抓、有人管、有人落实推进。探索建立市职业教育发展研究中心，聘请优秀职教专家担任研究顾问，为我市职业教育发展问计寻策。要把校长队伍建设作为职校建设发展的重中之重，各县市区要配齐配强职业学校管理团队，特别是要选派有责任、懂业务、善管理、熟悉市场经济、热衷职业教育的同志担任职业学校校长，对县市区达标公办职校要给予相应的级别待遇。', '2.着力解决职业教育工作“培养合格应用型人才需要相应办学条件作为支撑”的问题，推动办学能力达标化。当前，我市中职教育经费支出占高中阶段比例偏低，特别是实训设备投入严重不足，这与职业教育培养合格管用的应用型人才需要相应办学条件相差甚远。为此，当务之急要进一步加大投入力度，将高中阶段学校建设增量部分用于职教发展，支持办学条件改善、职教中心和实训基地建设。一方面，逐步提高经费投入，主要包括：市县教育费附加用于职业教育的比例不低于30%；公民办中职学校生均公用经费由同级财政拨付并纳入年度预算；同级财政全额保障公办职校办学经费和教职工基本工资、绩效工资和福利待遇。另一方面，抓好达标职校建设，力促泰和、峡江、遂川、永丰四县职校2015年内通过省级达标，力争2016年底前完成“一县一所”达标中职学校建设。同时，对已达标的中职学校，按照“缺什么补什么”和“一校一策”的原则，进一步完善教学设施设备，提升办学水平。', '3.着力解决职业教育发展“高中阶段职普比不协调、招生计划难以落实”的问题，推动职普发展均衡化。要发挥政府宏观调控作用，严格招生计划，实施招生调控政策，导向上往职业教育倾斜，推进职普均衡化发展。要促进初高中毕业生合理分流，力争到2020年，中职在校生数占高中段教育比例达到50%，高职在校生人数突破1万人。一要严格控制普高招生比例，杜绝普高计划外扩招，从源头控制普通高中招生规模。二要依托吉安职业技术学院资源优势，推动县市区达标中职校与吉安职业技术学院中高职招生对接，启动试行“3+2”对口专业贯通分段培养的招生体制，以打通中高职升学通道，提高职业院校办学吸引办。三要强化职业院校招生责任，继续探索实行春秋两季招生机制，将中高职学校招生计划落实到全市每一所初中、高中学校，并建立目标考核奖惩机制。', '4.着力解决职业教育发展“双师型教师不足、现有师资缺乏职业教育应有技能”的问题，推动职教师资专业化。一是强化引导培养人才。一方面，对缺乏生产经历、经验的职校专业技术教师，有计划地安排到企业锻炼，培养一批动手能力强的“双师型”教师；另一方面，对缺乏专业技术、实践技能的职校其他课任教师，要实施相应技能培训，使其逐步成为职教“多面手”，打造“一专多能、师资互通”的格局，以适应现代职业教育的发展需求。二是创新机制引进人才。一方面，实行弹性编制管理，对富余部分的职校文化课教师本着自愿的原则有序分流至义务教育学校工作岗位，腾出编制和岗位用于补充“双师型”教师；另一方面，扩大职业院校用人自主权，采取自主聘请、政府购买服务等方式，鼓励企业技术人员和职业院校教师双向兼职，建立校企业专业技术人员双向流动机制，让更多“能工巧匠”走进学校。三是表彰优秀激励人才。每年按一定比例评选市级职业教育学科带头人，对获评教师发放政府补贴，激励其引领学科进步，同时，每年对省级达标中职学校紧缺专业特聘兼职教师发放每人3-5万元政府补贴，吸引更多企业技术人才从车间走上讲台，为打造一支具有鲜明职教特点的职教师资队伍提供有力支持。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>吉安县</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2015-02-15</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10217238.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国政府信息公开条例》（以下简称《条例》）有关规定，结合我县实际，编制了《吉安县', '年政府信息公开工作年度报告》，现特向社会予以公布。本报告由概述、主动公开政府信息的情况、依申请公开政府信息办理情况、政府信息公开的收费及减免情况、因政府信息公开申请行政复议和提起行政诉讼的情况、政府信息公开工作存在的主要问题及改进情况共六个部分组成。本报告所列数据的统计期限自', '2014年是《条例》施行的第七年，也是中央八项规定实行、政府信息公开工作深入推进的重要一年。在县委、县政府的正确领导和市政府信息公开办的业务指导下，我县坚持以科学发展观为指导，认真贯彻落实《条例》和省、市政府信息公开工作部署，把推进政府信息公开与建设法治政府、服务政府紧密结合，不断加强组织领导，健全工作机制，深化公开内容，创新公开形式，强化监督检查，有力推动了全县政府信息公开工作的深入开展，切实保障了公众的知情权、参与权和监督权。', '年是《条例》施行的第七年，也是中央八项规定实行、政府信息公开工作深入推进的重要一年。在县委、县政府的正确领导和市政府信息公开办的业务指导下，我县坚持以科学发展观为指导，认真贯彻落实《条例》和省、市政府信息公开工作部署，把推进政府信息公开与建设法治政府、服务政府紧密结合，不断加强组织领导，健全工作机制，深化公开内容，创新公开形式，强化监督检查，有力推动了全县政府信息公开工作的深入开展，切实保障了公众的知情权、参与权和监督权。', '鉴于人事变动，及时调整了吉安县政府信息公开工作领导小组，即成立了以县政府常务副县长为组长，政府办公室主任和监察局局长为副组长，信息中心等相关部门领导为成员的吉安县政府信息公开工作领导小组，下设办公室，办公室设在政府办公室。抽调人员到办公室集中办公，做到有人领导、有人办事。同时督促更新了各乡镇、各部门政府信息公开分管领导和专职信息录入员。2014年，进一步加大对政府信息公开的工作力度，县政府主要领导、分管领导多次亲自调度，并于2014年7月中旬和11月上旬举办了全县政府信息公开信息员培训班。各信息公开主体单位认真履行信息公开主体职责，不断强化组织领导和队伍建设，全县政府信息公开工作常态化和规范化机制得到保障，为打造透明政府、阳光政府保持了良性态势。', '鉴于人事变动，及时调整了吉安县政府信息公开工作领导小组，即成立了以县政府常务副县长为组长，政府办公室主任和监察局局长为副组长，信息中心等相关部门领导为成员的吉安县政府信息公开工作领导小组，下设办公室，办公室设在政府办公室。抽调人员到办公室集中办公，做到有人领导、有人办事。同时督促更新了各乡镇、各部门政府信息公开分管领导和专职信息录入员。', '年，进一步加大对政府信息公开的工作力度，县政府主要领导、分管领导多次亲自调度，并于', '月上旬举办了全县政府信息公开信息员培训班。各信息公开主体单位认真履行信息公开主体职责，不断强化组织领导和队伍建设，全县政府信息公开工作常态化和规范化机制得到保障，为打造透明政府、阳光政府保持了良性态势。', '年全县政府信息公开重点工作安排的通知》。同时根据上级部门文件与我县的实际相结合，补充和完善了相关制度，制定下发了《', '年的政府信息公开工作要点，特别是行政权力运行信息公开、财政资金信息公开、公共资源配置信息公开、公共服务信息公开、公共监管信息公开等五个重点领域的工作分工、责任落实、督查考核等方面明确了工作要求。通过这一系列的文件，使信息公开制度不断完善与健全。每月编发信息公开工作通报，及时指出问题，提出整改意见，并对数量不足、工作不力的单位通报批评，有力推动了信息公开工作。', '为提高信息员队伍素质，提升工作实效，政府信息公开工作领导小组先后组织了两次全县范围内的信息员队伍业务培训班，加强对政府信息公开工作学习、宣传、培训力度，提升了信息公开队伍的业务能力。并通过以会代训和外出培训等方式，对从事信息公开的工作人员进行了业务培训，提升了信息公开队伍的业务能力。', '按照“以公开为原则，不公开为例外”的要求，凡根据法律、法规和国家有关规定应当主动公开的政府信息，做到了全部主动公开。', '的要求，凡根据法律、法规和国家有关规定应当主动公开的政府信息，做到了全部主动公开。', '从信息公开的主要类别看，以政务动态、其他有关文件和概况信息等三大类信息为主。其中，行政权力运行信息公开、财政资金信息公开、公共资源配置信息公开、公共服务信息公开、公共监管信息公开等五个重点领域的公开情况为：', '（1）行政权力运行信息。已公开县直80个单位承接执法权目录5173项；公开行政执法单位行政执法权清单5149项；公开行政审批职权清单656项；公开行政审批流程图70条；行政许可办理信息 18条；行政处罚信息12条。', '（2）财政资金信息。已按要求公布了80个县直单位收支预算总表和“三公”预算表，以及全县部门收支预算总表和“三公”预算统计表。共公开信息83条。另外公开审计结果报告信息1条。', '（4）公共服务信息。县政府网站建立了“公共服务”专题栏目，分类公开教育、医疗卫生、社会保障、劳动就业等信息100余条。同时，公开城乡低保信息18条。', '（5）公共监管信息。共公开各类信息120条，其中环境信息30条；安全生产事故信息4条；国资办出资监管企业信息3条；食品药品安全信息35条；信用信息9条。', '2014年，在县政府网站全面改版基础上完善升级，升级后的政府网站更加突出了信息公开、公众参与、网上办事、在线服务等功能，进一步强化了政府网站在信息公开中的突出地位和主导作用。为多渠道地为社会提供服务，让群众更多地了解政府决策，我县采取了“以平台为主，多种方式为辅”的公开形式。充分利用县政府办公室资源丰富的优势，设置查阅窗口，将政府信息公开相关政策在电子显示屏对外公开。此外，在县行政服务中心、档案馆、图书馆等地设置信息公开查阅办公场所，各窗口单位设立各公开窗口的服务事项、办事程序等内容，并同时在政府网上公布。同时，进一步加大新农村建设、扶贫开发等政策、法规及工作开展情况的信息公开力度。', '年，在县政府网站全面改版基础上完善升级，升级后的政府网站更加突出了信息公开、公众参与、网上办事、在线服务等功能，进一步强化了政府网站在信息公开中的突出地位和主导作用。为多渠道地为社会提供服务，让群众更多地了解政府决策，我县采取了', '的公开形式。充分利用县政府办公室资源丰富的优势，设置查阅窗口，将政府信息公开相关政策在电子显示屏对外公开。此外，在县行政服务中心、档案馆、图书馆等地设置信息公开查阅办公场所，各窗口单位设立各公开窗口的服务事项、办事程序等内容，并同时在政府网上公布。同时，进一步加大新农村建设、扶贫开发等政策、法规及工作开展情况的信息公开力度。', '（一）受理情况。由于主动公开政府信息工作到位，该公开的信息全部及时公开，所以，尽管依申请公开方式多样，渠道也方便快捷，如在政府网站开通了依申请公开入口、在行政服务中心的办事大厅设立了专门依申请接待窗口和人员，政府信息公开申请较少，累计数只有6件，当年仅受理1件，其中，网上申请数2件、当面申请数1件、信函申请数0件、电子邮件申请数0件，主要涉及敦厚镇沙洲滩涂地等方面的内容。', '由于主动公开政府信息工作到位，该公开的信息全部及时公开，所以，尽管依申请公开方式多样，渠道也方便快捷，如在政府网站开通了依申请公开入口、在行政服务中心的办事大厅设立了专门依申请接待窗口和人员，政府信息公开申请较少，累计数只有', '（二）办结情况。所有受理的政府信息公开申请全部办理完毕，并按申请人要求的方式进行了回复。除信息不存在、申请内容不明确及因涉密免予公开的外，其他信息都能全部公开或部分公开，答复率达100%。', '所有受理的政府信息公开申请全部办理完毕，并按申请人要求的方式进行了回复。除信息不存在、申请内容不明确及因涉密免予公开的外，其他信息都能全部公开或部分公开，答复率达', '本着为民服务的原则，我县认真按照《条例》有关规定公开政府信息，没有收取涉及政府信息公开申请的任何费用。', '由于政府信息公开工作依法、合规和及时，人民群众较为满意，2014年没有出现因政府信息公开申请行政复议和提起行政诉讼情况的发生。但有一例信息公开投诉，经核实，属无理诉求的缠访事件。', '年没有出现因政府信息公开申请行政复议和提起行政诉讼情况的发生。但有一例信息公开投诉，经核实，属无理诉求的缠访事件。', '2014年，我县对照市政府信息公开工作要点安排，大力推进政府信息公开工作，成效显著，尤其12月份，月新增数量全市第一。但是依然存在一些困难和问题。一是部分主体单位对信息公开工作重视不够，存在全年发布信息低于10条的情况；二是专职人员不稳定，岗位调整频繁，有些人员还身兼数岗，难以统筹到位；三是信息发布不规范，存在分类不准、内容不全、更新不及时以及信息填报格式不对、生成日期不符、字体大小不一、责任部门未细化等现象。', '月份，月新增数量全市第一。但是依然存在一些困难和问题。一是部分主体单位对信息公开工作重视不够，存在全年发布信息低于', '条的情况；二是专职人员不稳定，岗位调整频繁，有些人员还身兼数岗，难以统筹到位；三是信息发布不规范，存在分类不准、内容不全、更新不及时以及信息填报格式不对、生成日期不符、字体大小不一、责任部门未细化等现象。', '1．突出加大培训。组织优秀的信息员外出学习考察或跟班学习，既增强各级领导的认识，又提高操作人员的业务能力，建立一支业务精通、政治过硬、甘于奉献、兢兢业业的信息公开队伍。今年以来，我县政府信息公开工作虽然取得了较好成效，但仍然存在不少困难和问题，如信息公开内容还有待进一步拓展，信息数量和质量还有待进一步提高。', '组织优秀的信息员外出学习考察或跟班学习，既增强各级领导的认识，又提高操作人员的业务能力，建立一支业务精通、政治过硬、甘于奉献、兢兢业业的信息公开队伍。今年以来，我县政府信息公开工作虽然取得了较好成效，但仍然存在不少困难和问题，如信息公开内容还有待进一步拓展，信息数量和质量还有待进一步提高。', '2．突出提升质量。突出重点，抓住热点，瞄准焦点，对服务县域经济发展大局和百姓关注的民生问题上，对每个单位必须公开的项目作出一些硬性规定，统一编制公开目录，统一公开模式。', '突出重点，抓住热点，瞄准焦点，对服务县域经济发展大局和百姓关注的民生问题上，对每个单位必须公开的项目作出一些硬性规定，统一编制公开目录，统一公开模式。', '3．突出监督检查。组织监察、法制等部门，对各责任单位政府信息公开工作开展情况进行不定期督促检查。对未及时公开或格式不规范的，及时告知相关单位进行公开或修改完善，切实做到信息发布格式标准、要素齐全、分类合理、更新及时，并将检查结果予以公布。', '组织监察、法制等部门，对各责任单位政府信息公开工作开展情况进行不定期督促检查。对未及时公开或格式不规范的，及时告知相关单位进行公开或修改完善，切实做到信息发布格式标准、要素齐全、分类合理、更新及时，并将检查结果予以公布。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>125</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>吉安县</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2014-02-20</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10217225.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国政府信息公开条例》（以下简称《条例》）有关规定，特向社会公布《吉安县', '年政府信息公开工作年度报告》。全文包括：概述，主动公开政府信息情况，政府信息公开申请办理情况，政府信息公开的收费及减免情况，因政府信息公开申请行政复议、提起行政诉讼的情况，政府信息公开', '年是《条例》施行的第六年，也是政府信息公开工作推进重点领域信息公开的重要一年。在县委、县政府的正确领导和市政府信息公开办的业务指导下，', '我县坚持以科学发展观为指导，认真贯彻落实《条例》和全省、全市政府信息公开工作部署，把推进政府信息公开与建设法治政府、服务政府紧密结合，不断加强组织领导，健全工作机制，深化公开内容，创新公开形式，强化监督检查，有力推动了全县政府信息公开工作的深入开展，切实保障了公众的知情权、参与权和监督权。', '月成立了以县政府常务副县长为组长，政府办公室主任和监察局局长为副组长，信息中心等相关部门领导为成员的吉安县政府信息公开工作领导小组，下设办公室，办公室设在政府办公室。抽调人员到办公室集中办公，做到有人领导、有人办事。同时落实了各乡镇、各部门政府信息公开分管领导和专职信息录入员。', '年，进一步加大对政府信息公开的工作力度，县政府主要领导、分管领导多次亲自调度，并于', '年全县政府信息公开重点工作安排的通知》。通过这一系列的文件，使信息公开制度不断完善与健全。', '每月编发信息公开工作通报，及时指出问题，提出整改意见，并对数量不足、工作不力的单位通报批评，有力推动了信息公开工作。', '以工作动态、法规文件和概况信息等三大类信息为主，政府投资项目、执法依据等方面信息进一步补充增加。以建立完善十大重点领域信息公开工作为重点，促进服务政府、责任政府、法治政府、廉洁政府建设，', '全县各审批事项信息公开主体单位及时将审批事项及其依据、条件、数量、程序、期限以及申请时需要提交的材料目录等信息，按要求在政府信息公开平台进行公开；对因法律、法规、规章及政策的变化而出现增加、改变、调整、取消的审批事项，经核准后进行了公开。', '对列入当年政府建设计划的重点项目，各项目责任单位及时公开了项目名称、用途、落址、建设单位、投资总额、建设规模、工程进度以及年度建设基本情况等信息。其中：县发改委在', '县城乡建设局、县国土资源局、县环保局、县安监局均按要求在政府信息公开平台发布了城市规划、国土资源、环境保护、安全生产等信息。', '在继续做好政府管理价格和行政事业性收费调整信息公开的同时，进一步加大了价格和收费信息公开力度，及时发布价格和收费相关信息。', '年上半年，县政府网站实现全面改版，改版后的政府网站更加突出了信息公开、公众参与、网上办事、在线服务等功能，进一步强化了政府网站在信息公开中的突出地位和主导作用。为多渠道地为社会提供服务，让群众更多地了解政府决策，我县采取了', '的公开形式。充分利用县政府办公室资源丰富的优势，设置查阅窗口，将政府信息公开相关政策在电子显示屏对外公开。此外，在县行政服务中心、档案馆、图书馆等地设置信息公开查阅办公场所，各窗口单位设立各公开窗口的服务事项、办事程序等内容，并同时在政府网上公布。同时，继续抓住我县被列为省政府公报建设试点县契机，在各乡镇便民服务中心、文化站、村委会和农家书屋设立了', '个省政府公报赠阅点，进一步加大新农村建设、扶贫开发等政策、法规及工作开展情况的信息公开力度。', '由于主动公开政府信息工作到位，该公开的信息全部及时公开，所以，尽管依申请公开方式多样，渠道也方便快捷，如在政府网站开通了依申请公开入口、在行政服务中心的办事大厅设立了专门依申请接待窗口和人员，政府信息公开申请较少，累计数只有', '除信息不存在、申请内容不明确及因涉密免予公开的外，其他信息都能全部公开或部分公开，答复率达', '本着为民服务的原则，我县认真按照《条例》有关规定公开政府信息，没有收取涉及政府信息公开申请的任何费用。', '但也存在一些问题，主要有：信息发布不多、分类不准、内容不全、更新不及时以及信息填报格式不对、生成日期不符、字体大小不一、责任部门未细化；部分单位分管领导与信息员更换，未及时把名单报送到县政府信息公开办，未做好软件操作方面上的交接工作等。', '年，吉安县政府信息公开工作将不断强化领导，积极创新工作方式，切实加大督查力度，力争工作再上一个新台阶。', '组织监察、法制等部门，对各责任单位政府信息公开工作开展情况进行不定期督促检查。对未及时公开或格式不规范的，及时告知相关单位进行公开或修改完善，切实做到信息发布格式标准、要素齐全、分类合理、更新及时，并将检查结果予以公布。', '突出重点，抓住热点，瞄准焦点，对服务县域经济发展大局和百姓关注的民生问题上，对每个单位必须公开的项目作出一些硬性规定，统一编制公开目录，统一公开模式。', '组织优秀的信息员外出学习考察或跟班学习，既增强各级领导的认识，又提高操作人员的业务能力，建立一支业务精通、政治过硬、甘于奉献、兢兢业业的信息公开队伍。今年以来，我县政府信息公开工作虽然取得了较好成效，但仍然存在不少困难和问题，如信息公开内容还有待进一步拓展，信息数量和质量还有待进一步提高，等等。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>125</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>吉安县</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2016-02-23</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10217255.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['\u200b \u200b根据《中华人民共和国政府信息公开条例》（以下简称《条例》）有关规定，结合我县实际，编制了《吉安县', '年政府信息公开工作年度报告》，现特向社会予以公布。本报告由概述、主动公开政府信息的情况、依申请公开政府信息办理情况、政府信息公开的收费及减免情况、因政府信息公开申请行政复议和提起行政诉讼的情况、政府信息公开工作存在的主要问题及改进情况共六个部分组成。本报告所列数据的统计期限自', '2015年是《条例》施行的第八年，也是中央八项规定继续实行、十二五规划收官之年。在县委、县政府的正确领导和市政府信息公开办的业务指导下，我县坚持以科学发展观为指导，各工作部门紧紧围绕县委县政府中心工作，认真贯彻落实《条例》和省、市政府信息公开工作部署，层层分解落实2015年政府信息公开工作要点，加强领导、明确责任，及时部署、积极推动，健全制度、拓展形式，加强检查、抓好监督，平稳、有序地推进政府信息公开工作。政府信息公开工作在服务经济社会发展、转变政府职能、保证行政权力公开透明运行和保障公民知情权、参与权、表达权、监督权等方面发挥了积极作用。', '年是《条例》施行的第八年，也是中央八项规定继续实行、十二五规划收官之年。在县委、县政府的正确领导和市政府信息公开办的业务指导下，我县坚持以科学发展观为指导，各工作部门紧紧围绕县委县政府中心工作，认真贯彻落实《条例》和省、市政府信息公开工作部署，层层分解落实', '年政府信息公开工作要点，加强领导、明确责任，及时部署、积极推动，健全制度、拓展形式，加强检查、抓好监督，平稳、有序地推进政府信息公开工作。政府信息公开工作在服务经济社会发展、转变政府职能、保证行政权力公开透明运行和保障公民知情权、参与权、表达权、监督权等方面发挥了积极作用。', '鉴于人事变动，及时调整了吉安县政府信息公开工作领导小组，即成立了以县政府常务副县长为组长，政府办公室主任和监察局局长为副组长，信息中心等相关部门领导为成员的吉安县政府信息公开工作领导小组，下设办公室，办公室设在政府办公室。抽调人员到办公室集中办公，做到有人领导、有人办事。同时督促更新了各乡镇、各部门政府信息公开分管领导和专职信息录入员。2015年，进一步加大对政府信息公开的工作力度，县政府主要领导、分管领导多次亲自调度，并于2015年5月中旬和8月上旬举办了全县政府信息公开信息员培训班。各信息公开主体单位认真履行信息公开主体职责，不断强化组织领导和队伍建设，全县政府信息公开工作常态化和规范化机制得到保障，为打造透明政府、阳光政府保持了良性态势。', '鉴于人事变动，及时调整了吉安县政府信息公开工作领导小组，即成立了以县政府常务副县长为组长，政府办公室主任和监察局局长为副组长，信息中心等相关部门领导为成员的吉安县政府信息公开工作领导小组，下设办公室，办公室设在政府办公室。抽调人员到办公室集中办公，做到有人领导、有人办事。同时督促更新了各乡镇、各部门政府信息公开分管领导和专职信息录入员。', '年，进一步加大对政府信息公开的工作力度，县政府主要领导、分管领导多次亲自调度，并于', '月上旬举办了全县政府信息公开信息员培训班。各信息公开主体单位认真履行信息公开主体职责，不断强化组织领导和队伍建设，全县政府信息公开工作常态化和规范化机制得到保障，为打造透明政府、阳光政府保持了良性态势。', '年的政府信息公开工作要点，特别是行政权力运行信息公开、财政资金信息公开、公共资源配置信息公开、公共服务信息公开、公共监管信息公开等五个重点领域的工作分工、责任落实、督查考核等方面明确了工作要求。通过这一系列的文件，使信息公开制度不断完善与健全。每月编发信息公开工作通报，及时指出问题，提出整改意见，并对数量不足、工作不力的单位通报批评，有力推动了信息公开工作。', '为提高信息员队伍素质，提升工作实效，先后组织了两次全县范围内的信息员队伍在县庐陵宾馆举办业务培训班，邀请县政府主要领导亲自主持会议，成功邀请阿里巴巴专家教授主讲互联网+大数据等课程，加强对政府信息公开工作学习、宣传、培训力度，提升了信息公开队伍的业务能力。并通过以会代训和外出培训等方式，对从事信息公开的工作人员进行了业务培训，提升了信息公开队伍的业务能力。', '为提高信息员队伍素质，提升工作实效，先后组织了两次全县范围内的信息员队伍在县庐陵宾馆举办业务培训班，邀请县政府主要领导亲自主持会议，成功邀请阿里巴巴专家教授主讲互联网', '大数据等课程，加强对政府信息公开工作学习、宣传、培训力度，提升了信息公开队伍的业务能力。并通过以会代训和外出培训等方式，对从事信息公开的工作人员进行了业务培训，提升了信息公开队伍的业务能力。', '按照“以公开为原则，不公开为例外”的要求，凡根据法律、法规和国家有关规定应当主动公开的政府信息，做到了全部主动公开。', '的要求，凡根据法律、法规和国家有关规定应当主动公开的政府信息，做到了全部主动公开。', '从信息公开的主要类别看，以政务动态、其他有关文件和概况信息等三大类信息为主。其中，行政审批事项信息公开、财政资金信息公开、公共资源配置信息公开、公共服务信息公开等重点领域的公开情况为：', '按照深化行政体制改革、加快转变政府职能的要求，及时在政府网站醒目位置发布我县42个部门行政许可事项133项，公共服务84项。对公布的行政审批事项，要求各部门要优化审批流程，简化审批手续，缩短审批时间，创新审批方式，提高审批效率，能网上办理的一律实行网上办理。', '为了巩固和深化政府预决算、部门预决算、三公经费等信息公开工作。除涉密内容外，政府预决算支出已全部细化公开。为加大政府采购信息公开力度。主动公开政府集中采购目录、采购公告、采购动态、招标信息、中标结果，以及政策法规等，逐步将政府采购透明化。', '一是以国土资源局为牵头单位，要求各乡镇做好征地信息、国有建设用地使用权和矿业权出让信息公开。内容包括土地征收公告和出让公告、土地征收补偿安置方案、国有建设用地使用权出让实施方案等。二是农村土地承包经营权流转信息公开，重点公开了流转面积、流向、用途、流转价格等信息。三是国有土地上房屋征收与补偿信息公开。认真做好房屋征收公告，房屋征收补偿安置方案、补偿标准、补偿结果，以及房屋征收相关制度规定的公开，实行阳光征收。四是继续推进保障性住房信息公开。以房管局为牵头单位，主动公开了保障性住房各项政策和建设项目信息，以及廉租房、公租房和经济适用房等保障性住房的配租配售信息。六是继续深化工程建设项目信息公开，内容包括项目审批、核准、监管、招标、投标等。', '一是以卫计委为牵头单位，认真做好医疗卫生领域信息公开。医疗卫生机构在明显位置设置了专家信息栏，介绍医疗机构概况、医疗服务信息、各科室骨干专家、擅长治疗的病例，医疗机构的住院和出院办理指南，检查治疗项目名称、收费标准等都在网上作了公开，让老百姓明明白白看病，清清楚楚付费。二是依托“吉安县人民政府网”，加大就业信息公开，主动公开了就业创业优惠政策和实施方案，以及国有企事业单位人员招录信息和人力资源市场供求信息。及时公开促进就业的各项政策，重点对各项就业创业优惠政策的实施范围、补贴申领条件、程序、管理和审批情况进行有效公开，通过“欢乐春节家乡行”系列招聘活动，为就业再就业人员提供人力资源市场供求信息。三是社会保障信息公开。在民政局的信息公开页面公开了各类社会救助标准，包括城市低保、农村低保、五保供养、医疗救助，公开了各类救助的申请办理程序。', '2015年，在县政府网站全面改版基础上完善升级，升级后的政府网站更加突出了信息公开、公众参与、网上办事、在线服务等功能，进一步强化了政府网站在信息公开中的突出地位和主导作用。为多渠道地为社会提供服务，让群众更多地了解政府决策，我县采取了“以平台为主，多种方式为辅”的公开形式。充分利用县政府办公室资源丰富的优势，设置查阅窗口，将政府信息公开相关政策在电子显示屏对外公开。此外，在县行政服务中心、档案馆、图书馆等地设置信息公开查阅办公场所，各窗口单位设立各公开窗口的服务事项、办事程序等内容，并同时在政府网上公布。同时，进一步加大新农村建设、扶贫开发等政策、法规及工作开展情况的信息公开力度。', '年，在县政府网站全面改版基础上完善升级，升级后的政府网站更加突出了信息公开、公众参与、网上办事、在线服务等功能，进一步强化了政府网站在信息公开中的突出地位和主导作用。为多渠道地为社会提供服务，让群众更多地了解政府决策，我县采取了', '的公开形式。充分利用县政府办公室资源丰富的优势，设置查阅窗口，将政府信息公开相关政策在电子显示屏对外公开。此外，在县行政服务中心、档案馆、图书馆等地设置信息公开查阅办公场所，各窗口单位设立各公开窗口的服务事项、办事程序等内容，并同时在政府网上公布。同时，进一步加大新农村建设、扶贫开发等政策、法规及工作开展情况的信息公开力度。', '（一）受理情况。由于主动公开政府信息工作到位，该公开的信息全部及时公开，所以，尽管依申请公开方式多样，渠道也方便快捷，如在政府网站开通了依申请公开入口、在行政服务中心的办事大厅设立了专门依申请接待窗口和人员，政府信息公开申请较少，累计数只有7件，当年仅受理1件，其中，网上申请数3件、当面申请数1件、信函申请数2件、电子邮件申请数1件，主要涉及放宽二胎等方面的内容。', '由于主动公开政府信息工作到位，该公开的信息全部及时公开，所以，尽管依申请公开方式多样，渠道也方便快捷，如在政府网站开通了依申请公开入口、在行政服务中心的办事大厅设立了专门依申请接待窗口和人员，政府信息公开申请较少，累计数只有', '（二）办结情况。所有受理的政府信息公开申请全部办理完毕，并按申请人要求的方式进行了回复。除信息不存在、申请内容不明确及因涉密免予公开的外，其他信息都能全部公开或部分公开，答复率达100%。', '所有受理的政府信息公开申请全部办理完毕，并按申请人要求的方式进行了回复。除信息不存在、申请内容不明确及因涉密免予公开的外，其他信息都能全部公开或部分公开，答复率达', '本着为民服务的原则，我县认真按照《条例》有关规定公开政府信息，没有收取涉及政府信息公开申请的任何费用。', '由于政府信息公开工作依法、合规和及时，人民群众较为满意，2015年没有出现因政府信息公开申请行政复议和提起行政诉讼情况的发生。但有一例信息公开投诉，经核实，属无理诉求的缠访事件。', '年没有出现因政府信息公开申请行政复议和提起行政诉讼情况的发生。但有一例信息公开投诉，经核实，属无理诉求的缠访事件。', '回顾2015年县政府信息公开工作，取得了一定的成绩，但也还存在一些不足。一是个别单位和领导对政府信息公开工作认识还不到位，还不够重视，对政府信息公开工作不能及时总结、分析工作经验和存在问题，工作计划性不够；二是公开的方式和渠道还不多，县政府网站平台还有待进一步建设完善；三是政府信息公开不同程度地存在着内容简单的现象。', '年县政府信息公开工作，取得了一定的成绩，但也还存在一些不足。一是个别单位和领导对政府信息公开工作认识还不到位，还不够重视，对政府信息公开工作不能及时总结、分析工作经验和存在问题，工作计划性不够；二是公开的方式和渠道还不多，县政府网站平台还有待进一步建设完善；三是政府信息公开不同程度地存在着内容简单的现象。', '1．突出公布重点。积极探索利用新技术、新方法、新途径公开政府信息，通过各种宣传渠道，推进涉及群众切身利益、老百姓关心的教育、医疗、供电、供水等信息公开。逐步使政府信息公开网站建设成为群众与政府沟通联系的一个重要渠道。', '积极探索利用新技术、新方法、新途径公开政府信息，通过各种宣传渠道，推进涉及群众切身利益、老百姓关心的教育、医疗、供电、供水等信息公开。逐步使政府信息公开网站建设成为群众与政府沟通联系的一个重要渠道。', '2．突出加大培训。组织优秀的信息员外出学习考察或跟班学习，既增强各级领导的认识，又提高操作人员的业务能力，建立一支业务精通、政治过硬、甘于奉献、兢兢业业的信息公开队伍。今年以来，我县政府信息公开工作虽然取得了较好成效，但仍然存在不少困难和问题，如信息公开内容还有待进一步拓展，信息数量和质量还有待进一步提高。', '组织优秀的信息员外出学习考察或跟班学习，既增强各级领导的认识，又提高操作人员的业务能力，建立一支业务精通、政治过硬、甘于奉献、兢兢业业的信息公开队伍。今年以来，我县政府信息公开工作虽然取得了较好成效，但仍然存在不少困难和问题，如信息公开内容还有待进一步拓展，信息数量和质量还有待进一步提高。', '3．突出提升质量。突出重点，抓住热点，瞄准焦点，对服务县域经济发展大局和百姓关注的民生问题上，对每个单位必须公开的项目作出一些硬性规定，统一编制公开目录，统一公开模式。', '突出重点，抓住热点，瞄准焦点，对服务县域经济发展大局和百姓关注的民生问题上，对每个单位必须公开的项目作出一些硬性规定，统一编制公开目录，统一公开模式。', '4．突出监督检查。组织监察、法制等部门，对各责任单位政府信息公开工作开展情况进行不定期督促检查。对未及时公开或格式不规范的，及时告知相关单位进行公开或修改完善，切实做到信息发布格式标准、要素齐全、分类合理、更新及时，并将检查结果予以公布。', '组织监察、法制等部门，对各责任单位政府信息公开工作开展情况进行不定期督促检查。对未及时公开或格式不规范的，及时告知相关单位进行公开或修改完善，切实做到信息发布格式标准、要素齐全、分类合理、更新及时，并将检查结果予以公布。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>125</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>王萍胡世忠率团在广州汕头考察</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2013-09-08</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-17796.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['（首席记者张晶）在全市上下深入贯彻省市委全会精神，谋求发展升级提速的特殊时刻，市委书记王萍，市委副书记、市长胡世忠再次迈开带领考察团出外学习考察的脚步，既见贤思齐，求取发展升级提速“真经”，又实质性推动重大项目落户吉安。9月6日至7日，考察团一行考察了广东省广州市和汕头市。市领导刘贤清、井开区管委会领导邓淑斌参加了考察。', '高位推动广药集团王老吉饮料加工基地项目落户吉安是此次考察的重要日程。为此，市考察团抵达广州第一站即前往考察广药集团陈李济中药博物馆和白云山和黄神农草，同时拜会广药集团总经理陈矛等相关领导，了解广药集团发展状况及战略布局。据了解，广药集团的大健康产业已具规模，2009年王老吉凉茶 成为首个在中国饮料市场超越可口可乐世界知名跨国企业的民族品牌，品牌估值1080亿元。自去年5月广药集团收回“王老吉”品牌后，市委、市政府领导多次率队走访集团，与集团高层接洽，同时广药集团副总经理等也多次实地考察井开区。拜会中，王萍、胡世忠等热忱介绍吉安投资环境，真诚邀请集团尽早布点吉安，赢得主动，抢占先机。', '9月6日晚，广州市委副书记、市长陈建华接见了考察团一行。广州市委常委、市委秘书长陈国，广药集团党委书记、董事长李楚源参加了接见。', '陈建华指出，吉安是著名革命圣地，人杰地灵，人才辈出，吉安市在生态文明建设、城市绿化等方面成效显著，值得广州学习借鉴，希望两市继续交流合作。他热情推动广药集团与吉安老区结缘，指出在吉安、井冈山老区把王老吉品牌打响，十分有意义。', '王萍指出，广州在改革开放和新型工业化、新型城市化等方面，起着带头和引领的作用，希望引进广州优秀企业落户吉安。她指出，吉安与广东地缘相近，人缘相亲，大量承接广东产业转移，交通条件便利，辐射人口众多，产业集聚已经到了一定的程度，加上有着悠久的药材种植习惯、优质的药材种植条件以及优良的生态环境，具有承接饮料加工基地项目得天独厚的条件。她恳请广州市委、市政府秉承先发地区带动后发地区，加快老区经济发展、促进两地交流合作，帮助加快推进项目落户吉安，同时希望王老吉尽早选择吉安、进入吉安。', '李楚源表示，江西是王老吉的一个重要市场，集团接下来有在江西布局的意愿，现在吉安和王老吉两家已在沟通，合作条件还可以进一步探讨，下一步还要派人赴吉安考察。', '作为当代改革开放前沿地，广州近年来全面推进新型城市化发展，加快形成具有广州特色的新的发展方式。考察团一行先后考察了海珠湿地、广州塔、花城广场、海心沙，领略广州新型城市化的诀窍。自然、野趣、生态、少干预，秉承该定位建设的海珠湿地给大家带来赞叹和启示：最大限度搞建设不一定是好的选择，适当和商业利益斗争，守住绿色，留住野趣，不失为一项了不起的政绩。历时五年建成的108层新地标广州塔则让考察团领略了这个城市人敢想敢干的气魄。', '9月7日，王萍、胡世忠一行还专门赶往汕头市，为井开区在谈企业冠华薄膜科技有限公司落户“摇旗”。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>125</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>年第十四期在线访谈泰和县加快推进新型工业化问题荟萃</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2013-11-18</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-9617.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['1.问：听了李县长介绍目前的泰和工业发展情况，请问下一步泰和将如何围绕主导产业实现产业发展升级？', '答：发展升级重点在产业升级。今年，我县紧紧围绕省市发展升级工作要求，在过去重点发展的六大产业中，认真筛选主导产业扶大扶强，确定了发展基础较好、科技含量较高、财税贡献较大的电子信息、冶金机械产业为我县主导发展产业，同时加快发展新能源新材料产业，其它产业正常发展。一方面，加大扶持力度。集聚人力、物力、财力、优惠政策等向主导产业倾斜，出台相关产业发展政策，全力推动主导产业提速升级。重点扶大扶强龙头企业，加大合力泰公司上市帮扶力度；鼓励彩纳虹光项目扩大生产规模，新建厂房和宿舍楼；积极创造条件，提供便利服务，确保新引进的彩迅液晶电视机整机生产项目按合同约定落户，实现电子信息企业产品由生产中间产品向生产终端产品的突破。鼓励新界机电生产线升级，由水泵零部件生产线转为整机生产线；协助龙展鞋机加大与哈尔滨博实股份有限公司合作力度，尽快引进智能机器人生产项目；加快推进锦泰有色金属、长炜新材料等一批高附加值、高利税的冶金项目建设，尽快投产。新能源新材料产业方面，加快推进具有上市企业和世界500强双重背景的中电投和华润集团风能发电项目建设；帮扶腾胜真空、鸿鑫泰真空等光伏产业项目尽快投产。另一方面，围绕主导产业招大引强。克服“捡到篮子里都是菜”的思想，重点招引主导产业上下游企业项目，引进一批电子项目落户电子科技产业园，不断壮大主导产业，加快产业集聚。在招商引资过程中，严格把好“三关”：引资单位考察清楚企业实力、投资意向把好第一道关，分管领导和职能部门严格审查、实地考察项目情况把好第二道关，初步认可后报送县委、县政府主要领导把好第三道关，确保引进项目质量，实现主导产业企业由量变到质变的飞跃。', '2.问：泰和县把发展新型工业化作为富民强县的落脚点和着力点，请问较传统工业，“新型”体现在哪些方面，又具有哪些特点？', '答：所谓新型工业化，就是科技含量高、经济效益好、资源消耗低、环境污染少、人力资源优势得到充分发挥的工业化。我国是在十六大上提出走新型工业化道路这一概念，按照我的理解，新型工业化突出表现在四个方面：', '一是科技含量高。随着各国工业化的实践和理论的重大突破，技术对经济增长的贡献率和在工业化过程中的作用越来越大，以技术进步为动力,以高新技术为主导产业，用高新技术改造传统产业,提高工业化的科技含量已成为新型工业化的重要内容。', '二是经济效益好,资源消耗低。新型工业化要以技术进步为动力,使经济增长方式由粗放型向集约型转变,提高要素生产率对经济增长的贡献度,促使经济增长朝着经济效益好、资源消耗低的路径发展。', '三是环境污染小。传统的工业化是以要素的大量投入来换取经济的高速增长和工业化的加速推进,不仅造成资源的严重耗费,而且还带来严重的环境污染。因此,环境污染小既是新型工业化道路的特征,又是新型工业化和经济可持续发展的要求。', '四是人力资源优势得到充分发挥。新型工业化既要发展知识密集型和资本密集型的高新技术产业,又要发挥我国人力资源丰富的优势,发展劳动密集型产业，实现经济发展、工业化与人口的协调发展。', '我县新型工业化的“新型”主要体现在重点打造的三大战略性新兴产业上，之前介绍的时候也说过，我县将电子信息、冶金机械、新能源新材料三大战略性新兴产业作为发展产业，作为加快推进新型工业化的重点产业，其主要特点是科技含量高、经济效益好、资源消耗低。', '答：江西省战略性新兴产业投资引导资金是省政府设立的政策性专项资金，旨在发挥财政资金的杠杆作用，鼓励、引导信贷资金和社会资金投向我省战略性新兴产业。引导资金由省财政每年从战略性新兴产业发展专项资金中统筹安排。2012年统筹安排4亿元，以后年份视财力情况逐步增加。', '根据《江西省战略性新兴产业投资引导资金管理暂行办法》，规定投资项目要符合下列条件：', '(一)项目符合国家产业政策，符合省战略性新兴产业发展规划及延伸产业链规划，符合战略性新兴产业重大技术引进和创新项目指南，带动作用大、示范性强；', '(三)项目承担企业注册资金不低于1000万元，项目总投资不低于1亿元（对延伸产业链具有关键意义的项目和文化创意产业项目，可适当放宽）。', '引导资金重点扶持自有资金不足，但拥有核心技术、关键技术的新建项目，特别是创业型项目，以及产业龙头企业、产业链关键环节的重大技术改造项目。', '答：我县工业园区2012年被列为全省18个重点省级工业园区之一。为进一步激发园区发展活力和动力，按照市委、市政府工作要求和职权对等、精简高效、务实创新的基本原则，我县正在紧锣密鼓的开展园区体制机制改革工作。县委、县政府成立了以县政府主要领导为组长，分管县领导为副组长，县财政局、县工业园区管委会、县编办等20多个部门单位主要负责人为成员的泰和县工业园区体制机制创新领导小组，先后4次赴井开区、吉安县、浙江德清县等6个县市区学习考察工业园区体制机制创新改革工作，目前已形成《关于推进工业园区体制机制创新的意见》初稿，初步赋予园区财政、规划、建设、城管、社会事业服务等职能，明确了管理体制、管理职能、管理范围和相关权限，提出了机构设置、人员编制和派驻机构需求，方案已进行了两次修改，预计年内将全面完成工业园区体制机制创新改革工作，明年1月份正式运行。', '答：根据泰和近年来工业发展的基础和优势，我县工业主要是电子信息、冶金机械、新能源新材料三大战略性新兴产业和食品、建材、医药化工三大传统产业。按照产业性质和建设发展要求，我县正在着力打造“一区五园”的产业格局，各个产业园区既统一又相对独立，目前已形成了以合力泰公司为龙头，主要落户电子信息企业的“电子科技产业园”；以浙江温岭投资商为主体，新界机电企业为龙头，冶金和机械制造业为主的“温岭产业园”；以生产真空设备、太阳能电池板的腾胜真空企业为龙头的“光伏产业园”；以飞尚林产化工园、锦泰有色金属为龙头的化工产业园和以生产老坛酸菜包的嘉润绿色食品、一品乌鸡精、和泰实业等企业为龙头的乌鸡食品工业园。', '6.问：当前，各地都把加快工业发展作为重中之重，工业发展的竞争愈来愈激烈，请问泰和的工业发展有哪些优势？', '答：泰和工业发展较其他地区而言，有三个较为明显的优势条件：一是区位优势。泰和区域优越、交通便利，位于长江三角洲、海西经济区和珠江三角洲的最佳产业转移半径，交通便利，拥有一条赣江水路，京九、衡茶吉两条铁路，319、105两条国道，大广、泰井、泉南、吉莲四条高速公路，井冈山国际旅游机场座落在泰和县境内，离县城仅15公里。另外，泰和开通了至厦门、深圳的铁海联运，在为企业出口提供高效便捷服务的同时，企业出口运输成本也可节约近三分之一。二是平台优势。泰和土地资源充裕，工业园区规划面积已扩区调规至3万亩，目前建成面积7000多亩，每年新增“六通一平”工业项目建设用地约2000亩，园区拥有较为完备的供水、供电、道路、排污、通讯、商贸物流等配套设施，产业布局也日趋合理。三是成本优势。泰和工业园要素成本较低廉，工人月均工资2000元左右；大工业用电0.612元/千瓦时，用水2.1元/吨；至广东、浙江、福建运输费用25-30元/吨·百公里，与沿海城市相比，生产成本低廉很多。', '答：根据《关于做好中小企业发展专项资金项目监督和管理工作的通知》精神，项目申报单位可根据工业和信息化部、财政部发布的年度中小企业发展专项资金项目申报工作通知要求，在规定的项目申报期限内，通过中国中小企业信息网中的“中小企业发展专项资金项目管理系统”，填写相关资料，提出项目申请。同时，按照属地化原则，向注册地中小企业管理部门和财政部门提出申请，并按要求提供相关资料。省级中小企业主管部门和财政部门按有关规定组织专家对项目进行评审，评审结束向社会公示。之后，将本地区中小企业发展专项资金项目资金安排计划上报财政部工业和信息化部备案。省级财政部门按照规定将资金拨付项目单位。', '8.问：根据我的了解，近年来泰和返乡创业、“雁归经济”势头强劲，请问这方面的一些情况？', '答：泰和县是吉安市的人口大县，在外创业、务工人员较多，针对这一实际，我县出台了一系列支持返乡就业、创业的政策措施,积极鼓励外出务工人员返乡创业,取得了较好成效。涌现出了像文开福、刘水平、肖峰等一批成功的“雁归经济”代表。比如文开福创办的合力泰公司去年上交税收5000多万元，目前正在着手上市工作，预计明年初可借壳上市成功，该公司提出的第一家本土上市企业、上缴税收一亿元以上、解决就业人口一万人以上的“三个一”的目标预计在明年能够全部实现；刘水平创办的柏特娜家俱公司产品远销韩日等国家；肖峰创办的武峰铝板公司产品应用于各个行业，产品在国内十分畅销。据统计，目前由泰和本乡本土人士创办的企业达42家，占工业园区企业的21%，2012年“雁归经济”上交税收达8000多万元，占园区上交税收的36%。', '9.问：现在很多企业做大做强之后就考虑上市，企业上市新三板是什么意思？上新三板需要满足哪些条件？', '答：“新三板”是全国性场外股权转让市场的通俗名称。它与主板、中小板和创业板最明显的不同在于，后三者属于场内交易市场，可以公开发行股票，而新三板属于场外交易市场，不向社会公众募集资金，但可以挂牌，采用定向募集的方式，由证劵公司提供股份转让服务，从而为有强烈上市意愿但达不到上市条件的高新技术企业，提供一个股份流动的合法平台。', '目前，新三板采用备案制，准入门槛较低，不设立挂牌的财务指标要求，只需满足下列条件：', '（2）新三板仅要求企业存续满两年，有限责任公司按原账面净资产值折股整体变更为股份有限公司的，存续期间可以从有限责任公司成立之日起计算。', '答：近年来，为加快工业发展，我县出台了一系列扶持政策。一是出台信贷考核办法，成立融资平台，为企业解决融资难题。成立了江西省信用担保股份有限公司泰和分公司和泰和县诚信中小企业服务有限公司两个企业融资平台，制定了《泰和县金融机构支持地方经济发展考核暂行办法》，对各金融机构发放工业贷款予以奖励，鼓励县金融机构不断拓展工业贷款业务，增加有效工业信贷投入，积极缓解工业企业“融资难”问题。二是制定外商投资优惠办法，优化投资环境，增强投资吸引力。修订了《江西省泰和县鼓励外商投资办法》，对外商投资企业在税收、用地、规费以及管理、服务等方面给予了很多优惠政策。三是对重点行业实施“一企一策”、“一类一策”扶持措施。根据实际情况，县财政给予“一企一策”的特殊政策优惠。比如江西合力泰科技股份有限公司，县财政对该公司被国家知识产权局授予的14项实用新型专利给予创新奖励。四是实施名牌战略，鼓励企业创新和做大做强自有品牌。为鼓励工业企业争创名牌，对工业企业创省著名商标、省名牌产品的，由县财政一次性奖励企业5万元；创国家驰名商标、中国名牌和获得国家原产地域产品保护产品的，由县财政一次性奖励企业10万元；凡取得ISO9000质量体系认证的企业，由县财政一次性奖励1万元；研究开发新产品并通过省级认定的一项一次性奖励5000元。', '11.问：近年来，泰和县招商引资工作成效明显，请简要介绍一下泰和县如何加强招商引资工作的？', '答：近年来，我县牢固树立招商引资“第一菜单”理念，紧紧抓住产业结构调整升级和沿海地区产业加速转移机遇，着力招大引强，主要措施有：一是整合招商力量。坚持“两个集中”，即坚持优秀干部、优势资源向开放型经济集中。强化“三线招商”，即强化组团招商，组建8个由县领导担任正、副团长，县直单位主要负责人为成员的招商团；强化专业招商，加强广东、浙江、福建3个招商引资重点区域办事处招商力量，组建电子信息、冶金机械、新能源新材料3个新兴产业招商组队伍，常年驻外招商；强化小分队招商，每个乡镇组建1个由乡镇主要负责人为队长的招商小分队，积极开展产业招商、专业招商、以商招商活动。二是突出招商重点。紧紧围绕电子信息、冶金机械、新能源新材料三大战略性新兴产业和建材、食品、医药化工三大主导产业，着力引进投资规模大、科技含量高、带动能力强、发展前景好的重大项目。三是创新招商方式。不断拓宽信息渠道，设立招商信息直通热线，打造“低投入、宽触角、高效率”的招商信息收集平台。依据招商信息收集情况，分地域、分产业、小规模地组织招商活动，实现招商方式从一般招商向产业招商、链式招商、专业招商转变。四是拓宽招商领域和区域。近年来，我县招商由过去单纯的工业项目招商逐渐向现代农业、现代服务业、旅游等领域拓展，三大产业项目遍地开花。今年以来，全县已签约的项目涵盖工业、农业、城建、服务业等多个领域，其中投资5亿元以上重大项目5个，投资10亿元以上重大项目4个，新博商电子通讯科技园、武峰铝板、泰鑫台湾文化公园和龙江时代广场等项目已相继开工建设，广东综合贸易中心、国兴汽车城、南方物流园项目均在加快推进，江西佳和现代农业科技示范园和福建养宝现代农业科技示范园都在加快建设之中。', '12.问：泰和是吉泰走廊的重要组成部分，请问泰和的工业要在吉泰走廊建设中扮演什么角色，近期确定的工业发展具体目标是什么？', '答：近年来，泰和的工业发展取得明显成效，根据泰和工业发展基础和现状，我县确定的近期工业发展目标是“三年翻一番，突破500亿”，争当吉泰走廊工业发展的“排头兵”。具体目标是实现“5113”计划，即：到2015年，工业企业主营业务收入达到500亿元；工业企业税收突破10亿元；全县规模工业企业总数达到100家以上；电子信息、冶金机械、新能源新材料三个新兴产业主营业务收入分别过百亿元或总量超过300亿元。同时，建材、绿色食品、医药化工等三大传统产业不断提质增效，保持健康快速发展。', '13.问：当前工业发展普遍存在用工、融资等“瓶颈”制约，请问泰和是如何破解招工用工、融资等生产要素制约的？', '答：在破解招工用工难题上，我县要求各乡镇把招工工作视为招商引资工作的重要一环来抓，切实为企业提供用工帮助。在招工方面，由县人力资源和社会保障局负责建立信息平台，提供企业招工信息和招工对象条件等情况，镇村两级广泛宣传，确保企业招工信息家喻户晓。同时，利用春节前后等重要时段利用在外务工人员返乡的机会召开招聘大会为企业招工，确保员工能招得进。在用工方面，从维护员工切身利益出发，要求企业建立企业文化，创造良好的工作环境，提高员工的福利待遇，为员工办理“五险一金”，确保员工能留得住。', '在破解融资难题上，我县经常召开银企对接会，协调商业银行降低融资门槛，大力支持符合条件的各类企业争取政策性扶持资金。充分发挥财政信用担保、诚信担保服务公司等政府融资平台和金石小额贷款股份有限公司等个人融资平台作用，主动为企业服务上门，近几年每年为企业融资均在4亿元以上，帮助企业有效解决企业资金不足和融资难问题。', '14.问：泰和是中国乌鸡之乡，食品工业发展有着得天独厚的优势，请问泰和是如何加快食品工业发展特别是乌鸡产业发展的？', '答：在加快食品工业发展上，我县依托粮食、肉牛、生猪等资源优势，加大招商引资力度，大力引进食品加工企业入驻泰和。切实抓好和泰赣中南冷链物流基地、嘉润食品等食品企业和江南香米业、嘉泰精制米业等粮食加工业，不断拓展产业链，引导企业向专、精、特、新方向发展；扶持大北农、联合、赣泰等饲料公司积极开发新产品、新品种，不断扩大饲料产业规模与效益。2011年，泰和县被评为全国食品工业强县。', '乌鸡是泰和的一张名片。泰和县历届县委、县政府都高度重视乌鸡产业发展，在规范乌鸡标准化养殖、壮大乌鸡饲养规模的基础上，重点在拓展乌鸡深加工、延长乌鸡产业链上做文章。一是规划建设乌鸡产业园。在县食品工业园中规划了500亩土地用于建设乌鸡产业园，目前已入驻3家乌鸡深加工企业。二是扶大扶强已落户企业。重点帮扶半边天药业、汪陂途等一批发展势头良好的企业扩大生产规模，扩大产品影响力；做强以乌鸡酒为代表的保健酒产业。三是大力引进乌鸡深加工企业。新引进的一品乌鸡精项目正在紧张施工，年内有望竣工投产。特别值得一提的是，我县已和江西煌上煌集团初步达成了合作开发乌鸡产业的意向，计划打造一条饲料生产、种苗提供、养殖基地、肉食加工、熟食终端的泰和乌鸡完整产业链，不断提高泰和乌鸡产业化经营水平。有关工作正在积极跟进洽谈之中。', '答：中小企业是一个相对概念，是与所处行业的大企业相比人员规模、资产规模与经营规模都比较小的经济单位。目前我国主要根据企业从业人员、营业收入、资产总额等指标，对16个行业，结合行业特点进行划分。如对于工业企业，从业人员1000人以下或营业收入4亿元以下的为中小微型企业。其中，从业人员300人及以上，且营业收入2000万元及以上的为中型企业；从业人员20人及以上，且营业收入300万元及以上的为小型企业；从业人员20人以下或营业收入300万元以下的为微型企业。', '16.问：最近，听说泰和在开展开放型经济工作百日攻坚战活动，请问这方面有什么具体情况？', '答：我县开放型经济工作百日攻坚战活动时间是从2013年10月16日至2014年1月26日。这次攻坚活动，重点突出，措施得力，声势浩大，体现在：一是目标明确。攻坚期间目标是签约内资亿元或外资500万美元以上工业项目15个以上，其中2亿元以上项目8个以上，合同引资30亿元以上；开工项目15个以上，竣工投产项目10个以上；年内新征工业用地1000亩以上，平整土地400亩以上，力争清理闲置土地300亩以上。二是落实责任。攻坚期间，要求参与招商的县领导积极走出去，三分之一时间外出招商，县直单位主要负责人和乡镇一名主要领导带领招商小分队一半以上时间在外招商，专业招商组工作人员三分之二以上时间在外招商。三是奖惩分明。对完成任务好、工作进度快的单位进行表彰奖励，对完成任务出色的个人予以提拔重用；对工作不力、效果较差的实行主要领导约谈，予以全县通报，并在电视台上曝光批评。', '答：近几年，我县牢固树立产城融合的理念，以规划城区的标准规划工业园区，以建设城区的标准建设工业园区，在规划时已将市场服务、公共服务、个人消费服务等元素融入规划之中，注重园区配套设施建设。重点围绕以金融、电子商务、中介和咨询为主的市场服务，以公共管理、教育、医疗、卫生为主的公共服务，以住宿、餐饮、娱乐、商场为主的个人消费服务需求，启动了工业园区商务综合体建设，扩建了园区小学，新建了园区医院，建设了近10万平方米公租房，启动了工业园区污水处理厂及管网建设，完善了供水、供电、道路等基础设施建设，工业园区逐渐实现产城一体、产城融合。', '答：我县对高新技术企业的税收优惠政策是根据《江西省人民政府关于鼓励支持和引导个体私营等非公有制经济发展的实施意见》实施的，对在国家级高新技术产业开发区内并经有关部门认定的非公有制高新技术企业，自投产年度起免征所得税2年，以后按15%的税率征收所得税。企业在技术转让过程中发生的有关技术咨询、技术服务、技术培训所得，年净收入在30万元以下的，免征企业所得税。非公有制企业投资符合国家产业政策的技术改造项目，可按有关规定享受税收优惠政策。', '答：为助推小微企业快速发展，按照中央、省市相关文件精神，我县出台了《进一步加强企业帮扶工作实施意见》，加大中小企业发展基金支持力度，政府采购优先支持小型微型企业发展。自2012年1月1日起至2014年12月31日，我县对微小企业免征三年企业注册登记费、税务发票工本费、海关监管理手续费、装船证费、手工制品证书费、纺织品原产地证明书费等22项管理类、登记类、证照类行政事业性收费。', '20.问：目前用地问题已成为工业园区发展的一大难题，请问泰和县是怎么解决这一大难题的？', '答：确实，工业园区的用地问题已成为园区发展的大难题，我县也面临着这一问题，为解决这一问题，我县主要从三个方面入手：一是积极争取用地指标。我县主要通过低丘缓坡试点和包装重点项目两条途径向上争取用地指标用于工业发展，每年争取用地指标1500亩左右，满足工业用地需要。二是提高土地利用率。我县对落户工业园区的企业严格按照企业的投入产出比控制用地面积；对园区闲置土地进行清理，采取“腾笼换鸟”的方式安排新引进企业落户；同时，建设标准厂房，集约节约土地。目前，我县政府建设的近10万平方米标准厂房年内全面完工，已落户3家企业；新引进的台商投资建设20万平方米标准厂房的新博商电子通讯科技园已启动建设，建成后可容纳企业50家以上，将有效缓解工业园区用地指标压力。三是增加土地储备量。加大征地工作力度，工业园区每年新征工业用地面积2000亩以上。', '22.问：工业发展离不开“人”这一关键生产要素，请问泰和在为工业发展聚集人气方面有什么做法？', '答：近年来，我县不断加大基础设施的投入力度，适当增加和合理布局教育、医疗资源，同时放宽市场准入，引进民间资本投资教育、医疗、住房领域，不断提高城镇的教育、医疗、住房、交通等公共产品的供给能力，解决进城人员的子女教育问题、就医问题、住房问题，以此进一步提升城镇的实际承载能力，加快人口向城镇转移、集聚，真正实现“人”的有效集聚，从而达到工业发展聚集人气的良好局面。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>125</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>吉安市人民政府办公室关于对市人大常委会审议新农村建设工作整改情况的报告</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2013-07-16</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10189548.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['吉安市人民政府 市政府办公室文件 吉安市人民政府办公室关于对市人大常委会审议新农村建设工作整改情况的报告', '，市三届人大常委会第八次会议听取并审议了《关于我市新农村建设工作情况的报告》，充分表明了市人大常委会对全市新农村建设工作的高度重视和支持。审议中，与会人员在充分肯定全市新农村建设工作成效的同时，也指出了工作中存在的主要困难和问题，并就进一步抓好新农村建设提出了很好的意见和建议。接到《关于我市新农村建设工作情况的审议意见》（吉常办发[2012]60号文件）后，市政府专门召集相关部门进行了认真研究和分析，一致认为审议意见指出的问题很中肯，提出的建议针对性强，对加快全市美丽乡村建设的发展具有很强的指导意义。按照审议意见，我们认真进行了整改落实，现将有关情况汇报如下：', '市委、市政府高度重视美丽乡村建设，提出把美丽乡村建设和扶贫攻坚作为全市农业农村工作的两大主战场。在全市农村工作暨扶贫攻坚动', '员大会上，市委王萍书记亲自对全市美丽乡村建设工作做了重要部署，并下发了《吉安市2013年美丽乡村建设方案》《吉安市2013年市直单位美丽乡村建设驻点帮扶工作方案》和《吉安市2013年农村清洁工程方案》。各县（市、区）迅速行动，及时出台工作方案，召开了会议进行传达贯彻，部署美丽乡村建设工作，成立由县（市、区）主要领导和分管领导挂帅的美丽乡村建设领导小组，抽调精兵强将抓美丽乡村建设，吹响又一轮向美丽乡村建设进军的号角。新干、吉安、峡江、泰和等县6月份已陆续召开了一次四套班子领导参加的流动现场会，看现场，查进度，评效果，促工作。同时，强化挂点帮扶，市四套班子领导带头挂点帮扶美丽乡村建设，市直单位组织了117个工作组，深入117个美丽乡村建设点进行帮扶，', '极大地调动了各村点干群建设美丽乡村积极性。各县（市、区）都实行了四套班子领导挂点和县直单位驻村帮扶制度，每名领导挂一个美丽乡村建设点，每一个点都安排了1-2个单位挂，高位推动美丽乡村建设。市、县两级共同抽调4000多名干部参与帮扶美丽乡村建设，形成了市、县（市、区）、乡镇党政主要领导亲自抓，分管领导具体抓，班子成员齐力抓，村支部书记、村民理事会成员主动抓的良性工作机制。', '通过报纸、广播、电视台、政府网站等新闻媒体，大力宣传美丽乡村建设的重大意义和相关政策措施，广泛报道美丽乡村建设点的好经验、好做法，推广一批先进典型，激发农民群众的内在动力，建设自己的美好家园。加强了与主流媒体的合作，5月份，市政府与农民日报社签订了三年战略合作协议，7月份，在农民日报头版头条刊发了大型专题报道《美丽乡村辉映今日庐陵》，借助农民日报这一全国农业宣传平台，进一步提升了我市美丽乡村建设在全国的影响力。编撰了一期《登攀》美丽乡村建设专刊，市新村办、市委宣传部、吉安电视台联合拍摄制作了《美丽乡村幸福家园》《美丽的实践--吉安美丽乡村建设的新探索》等电视专题片，大力宣传推介我市美丽乡村建设成果和各地典型经验。市新村办、市委宣传部、市文联、井冈山报社共同举办了首届“吉安美丽乡村”摄影大赛，通过镜头多角度大广度发现、展示吉安近几年美丽乡村建设的丰硕成果。特别是在4月底全省镇村联动建设会议上，市委郭庆亮常委代表市委市政府在大会上做了典型发言，市委王萍书记署名《以“镇为核心”推进美丽乡村建设》一文登载在2013年当代江西第5期，向全省推介了我市镇村联动推进美丽乡村建设的经验和做法。宜春、萍乡等兄弟市县考察团在党政领导的率领下，先后来我市参观考察美丽乡村建设。', '年初，全市举办了一期美丽乡村建设乡镇党委书记、乡镇长培训班，市委分管领导亲自授课，学习交流我市美丽乡村建设中实施镇村联动和带状推进、贯彻“八不八多”和落实“八个禁止”、圩镇建设管理和农民建房管控、推进土地流转和发展特色产业等业务知识和实践经验体会。各县（市、区）、乡镇也纷纷结合美丽乡村建设阶段工作、建设重点、实施难点举办专题培训班，加大对县（市、区）直单位和部门领导及工作组成员、乡村干部、乡（镇）村规划建设和土地管理人员、村理事会成员等的培训力度，市、县、乡三级培训累计达4000余人次，进一步提高了广大干部群众美丽乡村建设操作水平，确保了建设质量。4月份，组织全市新村办系统和吉泰走廊部分重点乡镇领导干部一行50余人赴婺源县、安徽黟县学习考察美丽乡村建设。重点考察两地在实施新农村建设、古村保护开发利用的总体思路、工作举措、发展成效和成功经验。各县（市、区）、乡镇也纷纷组织外出学习考察，同时相互参观交流、你追我赶，营造了一种比学赶超、干事创业的良好工作氛围。', '省里分配给我市村点任务是580个，全市自我加压，千方百计争取了89个省调剂点，自我追加401个市县自建点，全市全年村点建设任务增加到1070个，财政配套资金仅市本级就增加到4100多万元，比上年度增加了2700多万元。要求今年在完成全市1070个美丽乡村建设村点任务的同时，一方面，全面启动镇村联动美丽乡村建设，今年年底全市三分之二以上的乡镇圩镇要全面达到美丽乡村建设要求；另一方面，全市所有高速公路、国道、省道、进出县城主要干道沿线和京九铁路沿线村庄全面启动美丽乡村建设，力争两年内，境内所有高速、国道、省道、京九铁路和进出县城的主要干道沿线村庄成为美丽乡村建设示范带。截止目前，全市美丽乡村建设正高标准实施，加速度推进。', '坚持庐陵风格，按照“尊重现状、保留特色、广纳民意、严格审批”的原则，结合产业发展、文化特色、古村保护、旅游发展，注重体现因地制宜、突出特色、和谐发展、科学布局、功能配套，高标准开展村庄规划、产业规划和农村新社区规划编制工作。', '全市设计了30套具有浓郁庐陵风格的民居样版，免费发放到各乡镇、村委会和村点，并对工匠进行免费统一培训，将庐陵文化元素融入到新型建筑中，最大限度地实现了庐陵古韵与城乡发展的交融并存。', '全市1070个美丽乡村建设村点，严格按照“五美”标准，启动村庄整治建设。目前，绝大多数都已完成了村庄规划，“三清”基本到位，部分村点已植树绿化，90%的村点正在实施改路、改水、改厕等。', '对全市前几年已实施镇村联动建设的乡镇集镇进一步进行了巩固和完善，其余乡镇全面启动了镇村联动美丽乡村建设。所有乡镇都按照美丽乡村建设“五美”要求和圩镇建设“九个一”工程正在整治和改造。同时，突出建设重点，选择了吉州区长塘镇、樟山镇、青原区富滩镇、值夏镇、吉水县乌江镇、黄桥镇、吉安县凤凰镇、永和镇、泰和县螺溪镇、万合镇等十个建制镇作为优先发展的重点镇给予扶持，并提出了《关于支持加快吉泰走廊十个优先发展的重点镇建设的意见》。新干县筹集资金3亿元，对12个乡镇全面实施镇村联动建设，县财政分大、中、小三个档次，对每个乡镇分别奖补1000万元、800万元、600万元。', '完善提升了赣粤、泰井高速和吉泰走廊105国道沿线村庄美丽乡村建设，其它高速公路、国道、省道等干道沿线村庄正在连片整治。目前，每个县（市、区）都选择了一条以上沿线示范带，按照庐陵建筑风格进行重点改造，加盖坡屋顶，修筑马头墙，带状推进有序进行。万安县在去年成功打造杨万线的基础上，今年又开辟了新的战场。吉安县的敦永线，青原区的青东线，安福的旅游通道线，峡江的峡水线等都成为今年打造的重点。', '各县（市、区）坚持“大户示范带动、千家万户参与”产业发展模式，重点打造一批标准化、规模化的特色富民产业基地，尤其是突出抓好百亩、千亩、万亩集中连片规模经营井冈蜜柚。同时，在美丽乡村建设村点启动实施井冈蜜柚富民产业“千村万户老乡工程”，动员发动广大农民利用房前屋后、庭院、村旁路旁、空闲地、荒坡荒地广泛种植井冈蜜柚。', '在充分调查研究的基础上，市委、市政府研究出台了《吉安市美丽乡村建设长效管理意见》。将历年实施了新农村建设的村点全部纳入美丽乡村长效管理对象范围，重点解决农村环境卫生、设施维护、社区服务等主要问题，实现美丽乡村长效管理常态化。', '下一步，我们将继续坚持“五美”标准和“八不八多”要求，按照“全域规划、带状推进、镇为核心、绿化同步、产业配套”的思路，深入推进美丽乡村建设，打造具有庐陵特色的和谐秀美乡村。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>125</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>井冈山市</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2013-02-21</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10217296.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['\u200b\u200b 根据《中华人民共和国政府信息公开条例》（以下简称《条例》）有关规定，特向社会公布《井冈山市2012年度政府信息公开工作年度报告》。本报告由概述、主动公开政府信息情况、依申请公开政府信息情况、政府信息公开的收费及减免情况、因政府信息公开申请行政复议和提起行政诉讼的情况、政府信息公开工作存在的主要问题及改进情况等六个部分组成。', '2012年，在吉安市委、市政府正确领导下，我市以科学发展观为指导，积极落实国家、省、吉安市政府信息公开工作的有关要求，进一步加强对政府信息公开工作的领导，强化工作措施，突出工作重点，全力推进政府信息公开各项工作。', '（一）领导重视，高位推动。一直以来，我市都高度重视政府网站建设和信息公开工作，市委、市政府主要领导多次在会议上强调政府网站建设和政府信息公开的重要意义，力争政府网站办出特色、全省争优；信息公开工作按质按量、高效推进。为切实抓好全市政府信息公开工作，我市成立并调整了井冈山市政府信息公开工作领导小组，由常务副市长任组长，市委办、政府办、监察局、发改委、工信委为成员单位，具体负责推进、指导、协调、监督全市政府信息公开工作。各信息公开主体单位也成立了相应机构，做到了组织机构健全，专人负责。', '（二）完善制度，保障有力。制定了《信息发布管理制度》、《网络安全应急处理措施》、《网络与信息安全通报管理办法》以及《依申请公开政府信息工作制度(试行)》、《政府信息公开保密审查制度(试行)》、《违反政府信息公开规定行为责任追究制度（试行）》、《政府信息公开工作年度报告制度(试行)》等制度，有效指导了政府网站建设和信息公开工作。市财政每年安排近10万元专项用于政务网络建设和信息公开工作，解决了政府网站建设和信息公开工作缺钱的问题。各政府信息公开主体单位确定了1名以上信息员专门负责政府网站信息报送和信息公开工作，解决了政府网站建设和信息公开工作缺人的问题。为确保政府网站安全，顺利开展信息公开工作，我市及时对政务网络的交换机、路由器、防火墙等硬件设备进行升级改造。', '（三）督考并行，提质增效。采取措施规范了信息报送流程。一是规范操作，增强时效。对机构职能、规范性文件、工作制度、工作动态等方面的政府信息按照工作流程进行公开，接受社会和公众的监督，做到公开事项如变更、撤销或终止，及时公布并作出说明。二是强化意识，严格审查。积极贯彻落实《中华人民共和国政府信息公开条例》，将应公开的政府信息全面公开，严格遵循保密规定，严禁将涉及国家秘密、商业秘密和个人隐私及其他按规定不宜或不能公开的政府信息对外公开，对拟对外公开的政府信息，按照《中华人民共和国政府信息公开条例》的要求严格审查把关。三是强化考核，力求实效。我市通过简报、网上查看等形式对政府信息公开工作情况进行督查，规范全年共编发简报6期。同时，将信息公开工作纳入年底各乡镇、部门年度考核，制定了《政府信息公开工作考核办法》，并占年度考核的3%，确保政府信息公开工作有序开展。', '（四）部门联动，合力推进。在网站建设方面，针对网站改版后，栏目大幅增加，我们根据各部门职责及时将栏目所需信息分配至各相关部门，共同完善网站内容，并要求各有关部门，特别是窗口服务单位及时办理群众网上办事申请、更新栏目内容。在信息公开方面，通过简报、电话、QQ群、以会代训等方式，对信息员进行培训指导。在鼓励信息员自学和传帮带的基础上，市政府办、信息中心还利用下乡检查工作等机会进行辅导，提升了信息员操作水平，保障了信息发布的质量。各政府信息公开主体单位也能经常与信息公开办、信息中心沟通、反馈信息公开中遇到的困难和问题，我市及时组织力量加以解决，共同推进政府信息公开工作。', '我市2012年度我市未发生针对本单位有关政府信息公开事务的行政复议案，行政诉讼，收到各类针对本单位政府信息公开事务有关的申诉案（包括信访、举控）。', '全市从事政府信息公开工作的专（兼）职人员为85人，平均每个乡镇人民政府和每个部门从事政府信息公开工作有1名专（兼）职人员。', '一是对政府信息公开认识模糊。个别单位和领导对政府信息公开工作认识还不到位，还不够重视，对政府信息公开工作不能及时总结、分析工作经验和存在问题，工作计划性不够；一些机关干部习惯于传统的工作模式，对政府信息公开的现实效益无切身体验，以为政府信息公开就是政府上网工程，对政府信息公开工作不够重视，有待于进一步深入推进。', '二是信息内容需进一步丰富。我市各乡镇、各单位主动公开的信息仍然以工作动态（尤其是政务动态）、法规文件信息为主，没有紧贴群众需求，社会关注、百姓关心的民生类信息如三公经费使用、民生工程、重点项目建设进展等情况发布较少。', '三是信息分类、格式需更加规范。我市各乡镇和单位在公开信息时偶尔会出现信息分类和填报格式等方面的错误。如信息未规范发布、正文出现版记和标题、文件编号和生成日期不全、分类错误等。', '一、提高对信息公开工作的认识。进一步提高自身对信息公开工作的认识，认真学习中央和省、地区关于政府信息公开建设要求，深刻领会精神实质；积极参加上级有关部门组织的讲座、学习、考察和业务培训活动，不断提高自身的业务素质；开展多种形式的宣传活动，让更多的人了解政府信息公开的重要性和实质性，提高群众参与意识。同时加大督办力度，督促各乡镇、各部门严格按有关规定和制度做好信息公开工作。', '二、加大政务信息公开力度。加强政府信息公开和依申请政府信息公开工作，规范信息公开的程序和方法，与业务工作形成有效衔接。对机构职能、规范性文件、工作制度、工作动态等方面的政府信息按照工作流程进行公开，接受社会和公众的监督，做到公开事项如变更、撤销或终止，及时公布并作出说明。', '三、推进规范管理，切实增强时效性。对机构职能、规范性文件、工作制度、工作动态等方面的政府信息按照工作流程进行公开，接受社会和公众的监督，做到公开事项如变更、撤销或终止，及时公布并作出说明。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>125</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>吉安县</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2013-02-21</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10217291.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国政府信息公开条例》（以下简称《条例》）有关规定，特向社会公布《吉安县', '年政府信息公开工作年度报告》。本报告由概述、主动公开政府信息、依申请公开政府信息、政府信息公开的收费及减免、', '因政府信息公开申请行政复议和提起行政诉讼、政府信息公开工作存在的主要问题及改进情况共六个部分组成。本报告所列数据的统计期限自', '年是《条例》施行的第五年，也是政府信息公开工作推进重点领域信息公开的重要一年。在县委、县政府的正确领导和市政府信息公开办的业务指导下，通过各乡镇和县政府各部门的共同努力，全县政府信息公开工作扎实推进，成效明显。截至', '条，信息数量稳步上升，公开内容不断丰富，公开质量获得公认和广泛好评。现将主要情况报告如下。', '月成立了以县政府常务副县长为组长，政府办公室主任和监察局局长为副组长，信息中心等相关部门领导为成员的吉安县政府信息公开工作领导小组，下设办公室，办公室设在政府办公室。抽调人员到办公室集中办公，做到有人领导、有人办事。同时落实了各乡镇、各部门政府信息公开分管领导和专职信息录入员。', '》、《吉安县违反政府信息公开规定行为责任追究制度（试行）》、《吉安县政府信息公开工作社会评议制度（试行）》、《吉安县政府信息公开工作年度报告制度（试行）》、《吉安县政府信息主动公开制度（试行）》、《吉安县政府信息发布协调制度（试行）》、《吉安县澄清虚假或不完整信息制度（试行）》、《关于印发吉安县政府信息公开工作考核办法的通知》等工作制度。', '年全县政府信息公开重点工作安排的通知》。通过这一系列的文件，使信息公开制度不断完善与健全。', '的公开形式。充分利用县政府办公室资源丰富的优势，设置查阅窗口，将政府信息公开相关政策在电子显示屏对外公开。此外，在县行政服务中心、档案馆、图书馆等地设置信息公开查阅办公场所，各窗口单位设立各公开窗口的服务事项、办事程序等内容，并同时在政府网上公布。同时，继续抓住我县被列为省政府公报建设试点县契机，在各乡镇便民服务中心、文化站、村委会和农家书屋设立了', '为提高政府信息公开工作人员操作水平，实现在格式规范、要素完整等方面的统一，确保信息填报质量，一方面，我县以政府文件的形式，就如何规范填报提出明确标准和要求，同时对工作中的好做法、好经验和好典型及时进行宣传介绍和交流推广，全年', '月份成功举办了一期全县政府信息公开工作信息员培训班，包括县政府各部门信息员和各乡镇信息公开办业务骨干在内的共计', '人参训，集中学习解读全县政府信息公开重点工作安排、现场交流政府信息公开工作经验，效果显著。各乡镇和县政府各部门也通过召开政府信息公开工作会议或选派信息员至发达地区学习等方式，对', '紧紧围绕党和政府工作大局，着眼于落实政府重点工作部署，着眼于加强政府自身建设，着眼于保障人民群众合法权益，着眼于促进社会和谐稳定，按照', '的要求，凡根据法律、法规和国家有关规定应当主动公开的政府信息，我县都做到了全部主动公开。', '工作流程图、申请表格外均未以附件形式发布，做到了字体统一（宋体、五号）、首行缩进、整体对齐、要素齐全、分类合理、内容准确、信息全面。制定了推进政府信息公开工作的实施方案；通过政府网站（政府信息公开专栏）、县电视台、县报主动公开政府信息；按照条例要求，我县严格按照提出、审核、公开和反馈的程序进行主动公开和依申请公开，做到', '个工作日公开；对于依照法律法规和国家有关规定需要批准才能对外发布的信息，履行审批程序；组织各单位在', '由于主动公开政府信息工作到位，该公开的信息全部及时公开，所以，尽管依申请公开方式多样，渠道也方便快捷，如在政府网站开通了依申请公开入口、在行政服务中心的办事大厅设立了专门依申请接待窗口和人员，政府信息公开申请较少，累计数只有', '和政府信息公开年度等方面的内容，除信息不存在、申请内容不明确及因涉密免予公开的外，其他信息都能全部公开或部分公开，答复率达', '本着为民服务的原则，我县认真按照《条例》有关规定公开政府信息，没有收取涉及政府信息公开申请的任何费用。', '但也存在一些问题，主要有：信息发布不多、分类不准、内容不全、更新不及时以及信息填报格式不对、生成日期不符、字体大小不一、责任部门未细化；部分单位分管领导与信息员更换，未及时把名单报送到县政府信息公开办，未做好软件操作方面上的交接工作等。', '年，吉安县政府信息公开工作将不断强化领导，积极创新工作方式，切实加大督查力度，力争工作再上一个新台阶。', '突出重点，抓住热点，瞄准焦点，对服务县域经济发展大局和百姓关注的民生问题上，对每个单位必须', '组织优秀的信息员外出学习考察或跟班学习，既增强各级领导的认识，又提高操作人员的业务能力，建']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>125</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>吉安市人民政府关于印发大力发展学前教育的意见等六个文件的通知</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2011-11-11</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10211387.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['吉安市人民政府 教育信息 吉安市人民政府关于印发大力发展学前教育的意见等六个文件的通知', '经市政府研究同意，现将《关于大力发展学前教育的意见》《关于加快推进职业教育改革与发展的意见》《关于推进义务教育均衡发展的实施意见》《关于推进城镇新区教育园区建设的意见》《关于进一步加强教师队伍建设的意见》和《关于切实提高全市中小学教学质量的意见》等六个文件印发给你们，请认真遵照执行。', '学前教育是终身学习的开端，是国民教育体系的重要组成部分，是重要的社会公益事业。办好学前教育，关系儿童的健康成长，关系千家万户的切身利益，关系国家和民族的未来。为贯彻落实《国务院关于当前发展学前教育的若干意见》（国发〔2010〕41号）和《江西省中长期教育改革和发展规划纲要（2010-2020年）》精神，结合我市实际，特提出如下意见。', '新建、改扩建县城幼儿园。各县（市、区）根据各地情况做好学前教育布局规划，新建、改扩建县城幼儿园。市中心城区和县城按每3-5万人口布点一所公办幼儿园，办园规模控制在12-18个教学班以内，每个教学班25-35人。', '改扩建市保育院，以尽快缓解高成班率压力，排除安全隐患，切实解决“入园难”问题；按市重点项目推进安排时间表如期完成市保育院城南分院建设项目。', '提高学前教育普及程度。到2015年，全市学前一年毛入园率达到85.6%，学前两年毛入园率达到70.4%，学前三年毛入园率达到65%以上。到2020年普及学前一年教育，基本普及学前三年教育；全市学前一年毛入园率达到96%；学前两年毛入园率达到90%，学前三年毛入园率达到85%；建成学前教育县、乡（镇）两级骨干体系和县、乡（镇）、村三级服务网络；幼儿园办园条件和质量全面改善，优质幼儿教育资源逐步扩大。0-3岁婴幼儿早期教育积极开展。', '一是政府主导与多方参与结合。坚持政府主导、社会参与、公办民办并举。坚持公益性和普惠性，落实各级政府在规划、投入、监管和保障公平等方面的责任，充分调动社会各方面的办园积极性，努力构建覆盖城乡、布局合理的学前教育公共服务体系，切实保障儿童接受基本的、有质量的教育。', '二是结构调整与质量提升并重。坚持改革创新，着力破除制约学前教育科学发展的体制机制障碍。调整学前教育结构，尽快增加公办学前教育资源。不断提高学前教育师资水平，坚持科学育儿，遵循幼儿身心发展规律，努力提升保教质量。', '三是整体推进与重点发展统筹。坚持因地制宜，从实际出发，为幼儿和家长提供方便就近、灵活多样、多种层次的学前教育服务。整体推进学前教育各项事业发展的同时，重点发展农村学前教育，既要把握全局，又要突出重点，做到以点带面，点面结合，科学发展。', '1.大力发展公办幼儿园。各级政府要制定学前教育事业发展规划，合理布局，新建、改建、扩建一批安全适用的公办幼儿园。不得以政府投入建设超标准、高收费的幼儿园。鼓励优质公办幼儿园举办分园或合作办园，支持街道、农村集体和有条件的事业单位、企业举办幼儿园，满足儿童就近入园的需求。', '2.积极鼓励和扶持民办幼儿园。鼓励社会力量以多种形式举办幼儿园，通过政府购买服务、减免租金、以奖代补、派驻公办教师等方式，引导和支持民办幼儿园提供普惠性服务。民办幼儿园在审批登记、分类定级、评估指导、教师培训、职称评定、资格认定、表彰奖励等方面与公办幼儿园具有同等地位。', '3.规划建设城镇小区幼儿园。城镇小区没有配套幼儿园的，应根据居住区规划和居住人口规模，按照国家有关规定配套建设幼儿园。新建小区配套幼儿园要与小区同步规划、同步建设、同步交付使用,建成后作为政府公共教育资源交由教育主管部门举办公办幼儿园或委托办成普惠性民办幼儿园，不得改变性质和用途。未按规定安排配套幼儿园建设的小区规划不予审批。规划建设部门要会同教育部门，对幼儿园建设规划进行审核，确保所建幼儿园符合幼儿园办园标准。对已经改变性质和用途的或建成后闲置两年未举办幼儿园的要予以清理，由各级政府无偿收回用于举办幼儿园。不具备配套幼儿园建设条件的城市住宅小区，开发商应向当地政府上缴幼儿园异地建设经费，由当地政府根据本地幼儿园建设总体规划统筹安排，用于幼儿园新建或改扩建项目。城镇幼儿园建设要充分考虑进城务工人员随迁子女接受学前教育的需求。', '4.重点建设农村幼儿园。将幼儿园与新农村公共服务设施统一规划，优先建设。各级政府要加大农村学前教育投入，今年开始，国家将实施推进农村学前教育项目，重点支持中西部地区，各级政府也要安排专门资金，重点建设农村幼儿园。要充分利用中小学布局调整后富余的教育资源和其他富余公共资源举办幼儿园（班）。每个乡（镇）建成一所标准化公办中心幼儿园，大村独立办园，小村联合办园（班），重点抓好乡镇公办中心幼儿园建设。有条件的农村小学，经过批准可利用富余校舍、师资举办学前一年教育。各地要创造条件，着力保障农村留守儿童入园。', '1.合理配备幼儿园教职工。各地要根据上级有关部门制定的标准，充分考虑幼儿年龄特点和保育教育工作实际需要，合理确定教师配备比例，核定公办幼儿园教职工编制，配足配齐幼儿园教职工，并根据生源变化情况及时予以调整。', '2.严格执行幼儿教师准入标准。依法实施幼儿教师资格准入制度，严把入口关。从2011年起，各地根据实际需要，每年面向社会公开招聘一定数量具有教师资格的大专以上毕业生，经过专业培训后，充实到幼儿教师队伍。公办幼儿园中具有教师资格、目前尚未纳入编制管理的教师，可参加各地组织的幼儿教师公开招聘考试，在同等条件下优先录用。对中小学因布局结构调整等原因需重新聘用的教师，可进行转岗培训，调整补充到幼儿教师队伍。', '3.加强学前教育师资培养培训。为普及学前教育，培养数量足够、质量合格的幼儿教师，满足我市学前教育发展的需要，重点支持井冈山大学、扶持吉安师范办好学前教育专业，逐步扩大招生规模，积极鼓励初中、高中优秀毕业学生报考井冈山大学、吉安师范。充分利用省、市、县三级教师培训网络，创新培训模式，加大幼儿教师培训力度。建立幼儿园园长、教师培训体系，实施全员培训，培训经费由同级财政列支。从2011年起，每年培训幼儿教师1000人次，每五年对所有幼儿园园长及幼儿教师完成一轮培训。鼓励和支持幼儿教师参加学历培训，不断提高幼儿教师学历层次。', '4.切实维护幼儿教师权益。依法落实幼儿教师地位和待遇。完善幼儿教师工资保障机制，保障幼儿教师在进修培训、评优评先、专业技术职务评聘、工资、社会保险等方面与当地中小学教师具有同等地位。对长期在农村基层和边远山区工作的公办幼儿教师，按国家规定实行工资倾斜政策，对优秀幼儿园园长、教师进行表彰。', '1.严格执行幼儿园准入制度。各县（市、区）教育行政部门要严格执行幼儿园准入制度，负责审批和管理辖区内各类幼儿园，对幼儿园实行分级管理，分类指导。建立幼儿园信息管理系统，实行动态监管。完善和落实幼儿园年检制度，并向社会公布年检结果。对未取得办园许可证和未办理登记注册手续的幼儿园，要全面排查，督促整改。整改期间，要保证幼儿正常接收学前教育。经整改达到相应标准的，颁发办园许可证。整改后仍未达到保障幼儿安全、健康等基本要求的，各级政府要依法予以取缔，妥善分流和安置幼儿。对社会各类幼儿培训机构和早期教育指导机构，教育行政部门要加强监督管理。', '2.坚持科学保育教育。幼儿园要贯彻国家颁布的《幼儿学习与发展指南》，以游戏为基本活动，保教结合、寓教于乐，为幼儿提供符合年龄特点和身心发展规律的保育和教育，推行幼儿“快乐教育”。加强学前教育机构教师指导用书审查。加强对幼儿园儿童读物、操作材料、玩教具配备与指导，为儿童创设丰富多彩的教育环境。幼儿园不得使用小学低年级教材，防止和纠正幼儿教育“小学化”倾向。', '完善学前教育教研制度。健全教研体系，各市（县、区）教研部门要配有专职幼教教研员，形成各级业务指导网络。各类幼儿园结合自身实际情况积极参与教学改革和课题研究。', '要把幼儿园教育和家庭教育紧密结合，加强对幼儿家长科学育儿工作的指导。加强家园互动，引导家长树立正确的育儿观，为幼儿的健康成长创造良好环境。积极开展0—3岁婴幼儿早期教育，促进托幼一体化发展。', '3．健全城乡幼儿园结对帮扶机制。加大优质学前教育资源向农村辐射力度。继续深入实施示范幼儿园结对帮扶乡镇公办中心幼儿园和民办幼儿园活动，切实提高乡镇公办中心幼儿园和民办幼儿园的管理水平和保教质量，培育一批较高办园水平的乡镇中心幼儿园。各县（市、区）要探索建立城乡幼儿园教师“结对子”和城乡幼儿园园长、教师交流制度；开展骨干教师送教下乡活动，实现优质学前教育资源共享，促进区域学前教育均衡发展。', '4.建立幼儿园保教质量评估监管体系。建立科学的幼儿园保教质量评价体系，根据不同类别幼儿园的实际情况，实行分类评估和指导。完善幼儿园自我评价机制，积极探索社区、家长参与学前教育机构管理与办学水平的监督。加强对幼儿教师培训机构资质和质量的监管。', '5.规范幼儿园收费行为。物价、教育、财政部门根据城乡经济社会发展水平、办园成本和群众承受能力，按照非义务教育阶段家庭合理分担教育成本的原则，制定和适时调整幼儿园收费标准。加强对幼儿园收费行为和经费使用情况的监督。要认真做好幼儿园收费管理工作，完善备案程序，加强分类指导。', '幼儿园要严格执行收费标准，实行收费公示制度，接受社会监督。不得以开办实验班、特色班等名义擅自设立收费项目，提高收费标准，不得收取建园费、赞助费等费用及向幼儿和家长推销图书、玩具等商品。', '1.完善学前教育投入机制。建立健全学前教育政府投入、社会举办者投入、家庭合理负担的投入机制。各级政府要将学前教育经费列入财政预算。从2011年起,市、县两级财政要加大学前教育的投入，每年新增教育经费要向学前教育倾斜，财政性学前教育经费在同级财政性教育经费中要占合理比例,并逐年增长。积极筹措资金，新建、改扩建公办幼儿园，重点加快建设乡镇公办中心幼儿园，不断扩大学前教育资源，切实解决入园难、入园贵问题。新建、扩建的幼儿园，由政府按照公益事业有关规定以划拨方式供地，划拨价为土地征用补偿费和土地报批费。', '2.积极鼓励和扶持民办幼儿园。对规模较大、办园行为规范、保教质量较高的民办幼儿园给予一定的奖励；对办园行为规范、收费不足以维持正常运转的规模较小的民办幼儿园，要给予适当补助。对幼儿园的水、电、气等费用按照中小学标准收取。', '3.建立学前教育资助制度。对农村家庭困难户和城镇低保户家庭子女、孤儿和残疾儿童接受普惠性学前教育给予资助。', '1.明确各级政府职责。各级政府要将大力发展学前教育作为贯彻落实《国务院关于当前发展学前教育的若干意见》和《江西省中长期教育改革和发展规划纲要（2010-2020年）》的突破口，作为重大民生工程，纳入当地经济社会发展总体规划，制定学前教育事业专项发展规划，明确学前教育的发展目标和重点任务。', '市政府负责统筹规划全市幼儿园布局，并制定支持政策，监督各县（市、区）幼儿园建设和管理；县级政府负责制定辖区内学前教育事业发展规划和学前教育三年行动计划并组织实施，建设公办幼儿园，健全覆盖县域的学前教育服务网络，审批和管理各类学前教育机构；乡（镇）政府要将幼儿园的建设纳入新农村建设规划，负责协调幼儿园土地征用及村办幼儿园建设，做好幼儿园安全及周边环境治理工作。', '2.建立联席会议制度。各级政府要建立由政府牵头、有关部门参加的学前教育联席会议制度，健全教育部门主管、有关部门分工负责的工作机制，及时研究解决学前教育事业发展中出现的问题，形成合力推动学前教育发展。', '教育部门要抓紧完善各项政策，制定相关标准和准入要求，对幼儿园实行分类定级管理，充实学前教育管理和教研力量，设立专门机构，对学前教育实行统一归口管理，市、县（区）教育行政部门要配备幼儿教育专职管理干部，加强对幼儿园保教工作的指导；要在教研机构配备专职学前教育研究人员，加强对学前教育教学实验和科研的管理和指导。机构编制部门要结合实际合理核定公办幼儿园教职工编制。发展和改革部门要把学前教育纳入当地经济社会发展规划，支持幼儿园建设发展。财政部门要加大投入，制定支持学前教育发展的优惠政策，落实上级相关政策。规划建设和国土部门要落实城镇小区和新农村配套幼儿园的规划、用地和建设配套政策。人力资源和社会保障部门要落实幼儿园教职工的人事（劳动）、工资待遇、社会保障和技术职称（职务）评聘政策。物价、教育部门要根据职责分工，加强幼儿园收费管理。综治、公安部门要加强对幼儿园安全保卫工作的监督指导，整治、净化周边环境。交通管理部门要加强对幼儿园校车的管理工作。消防部门要加强对幼儿园消防工作的监管。卫生部门要制定幼儿园卫生保健工作规范，监督指导卫生保健工作。民政、工商、质监、安监、食药监等部门要根据职能分工，加强对幼儿园相关工作的指导和监督。宣传部门要充分利用各种媒体，广泛宣传学前教育的地位、作用和有关政策，营造全社会重视、关心和支持学前教育发展的良好氛围。妇联、残联等单位要积极开展对家庭教育、残疾儿童早期教育的指导。充分发挥城市社区居委会和农村村民自治组织的作用，建立社区和家长参与幼儿园管理和监督的机制。', '3.完善督导和奖励机制。各级政府要把推进学前教育发展作为考核下级政府和有关部门政绩的重要内容。各级政府教育督导机构要把学前教育作为督导重点，加大对政府责任落实、教师队伍建设、经费投入、安全管理等方面的督导检查，并将结果向社会公布。', '建立各级政府奖励机制。各级政府是发展学前教育、解决“入园难”问题的责任主体，要把解决“入园难”问题作为当前改善民生和推动教育改革发展的重要任务，列入工作计划，确保大力发展学前教育的各项举措落到实处，取得实效。各级政府要对在发展学前教育工作中做出突出贡献的单位和个人予以表彰、奖励。', '全国职业教育工作会议以来，我市认真贯彻落实《国务院关于大力发展职业教育的决定》以及省政府的实施意见，不断加大经费投入，优化发展环境，全市职业教育得到较快发展。但从总体上看，职业教育仍然是我市教育的一条“短腿”，难以适应经济社会发展的需要。突出表现在：大部分职业学校办学规模偏小，实训场所和设备不足，办学层次较低，缺乏吸引力；师资队伍整体素质不高，特别是“双师型”教师比较缺乏；专业结构布局不尽合理，校企对接不够紧密，服务地方经济社会发展的能力不强等。为加快推进职业教育改革与发展，根据全国、全省教育工作会议精神，结合我市实际，特提出如下意见：', '职业教育是现代教育的重要组成部分，是国民经济与社会发展的重要基础。随着我市工业化和城市化进程的不断加快，职业教育的战略地位日益凸显，加快职业教育发展迫在眉睫。', '（一）加快职业教育发展，是缓解现阶段人才结构性供求矛盾的要求。从国内大的环境看，社会对人才的需求已发生根本性变化，一方面企业急需的技能型人才紧缺，另一方面高校毕业生就业难的现象突出。从我市实际看，当前吉安工业正处在加速发展阶段，特别是“6+1”支柱产业的发展和吉泰走廊以及工业园区工业总量的快速扩大，大大提高了对技能型人才培养的需求。因此，要实现吉安经济社会发展的战略目标，就必须大力发展职业教育，培养各级各类优秀人才，形成技能型人才培养与集聚高地，为我市可持续发展提供不竭动力。', '（二）加快职业教育发展，是实现吉安城乡一体化发展战略的要求。为统筹城乡社会发展，有效解决“三农”问题，市委、市政府提出了“加快城市化进程，推进城乡一体化”的战略部署，这就要求职业教育发展必须适应这一发展趋势，从提高全社会成员素质和发展社会生产力的全局出发，实行城乡职业教育统筹，发挥城市职业教育的先导、示范、辐射、扶持的功能，科学配置城乡职教资源，合理布局，形成城乡一体化的职业教育与经济社会发展的良性循环，从而提升广大农民文化素质和技能水平。', '（三）加快职业教育发展，也是满足经济社会发展和人民群众多样化教育需求的要求。目前，全市每年有近三分之一的初中毕业生不能升入普通高中就读，有30%的高中毕业生不能考上大学深造。这些学生迫切需要学习掌握一定技能，以便更好地就业。因此，要大力发展职业教育，合理配置教育资源，引导教育需求，合理分流，提供更多类型、更多层次的学校教育和培训机会，最大限度地满足人民群众多样化的教育需求，从而满足经济社会发展对各层次人才和劳动力的需求。全市上下必须充分认识加快推进职业教育改革与发展的重要性，进一步增强紧迫感和责任感，采取切实有效措施，全力推动我市职业教育加快发展。', '（四）指导思想。以邓小平理论和“三个代表”重要思想为指导，全面落实科学发展观，坚持进一步解放思想、创新思路、推进发展这一主题；坚持与我市现代产业体系建设相匹配；坚持通过政府支持，多元投入，公办、民办一视同仁，加快发展，全面提高劳动者素质，为培养大批技能型人才，满足经济社会发展和人民群众对高水平职业教育的需求。', '（五）工作思路。实行“四个一批”的发展格局，扩大办学规模，提高职业教育办学效益。一是巩固一批。加强职业学校内涵建设，充分发挥国家、省级重点职业学校的示范作用，整体提升我市职业教育办学水平，引导和推动职业学校尤其是民办职业学校加大投入，改善办学条件，努力达到省级示范性职校标准。二是发展一批。策应我市园区经济快速发展，在工业园区内按在校生3000人的标准规划新建公、民办中等职业学校，大力发展紧缺型专业。三是整合一批。整合现有各级各类公办职业学校，建设职业教育园，推进职业学校走集团化、连锁化、品牌化的路子，促进职业学校与企业开展校企合作、校校联合，做大做强职业教育。四是联办一批。引导部分办学规模小的民办职校走靠大联强的路子，实行股份制合作办学模式，增强办学活力和效益。', '——巩固发展中等职业教育。从2011年起，中职招生规模每年增长2000人，到2015年，中等职业教育年招生达2.5万人，在校生达6万人左右。中心城区形成以国家级重点职校为龙头，省级重点职校为骨干，特色学校为基础的职业教育新格局，其它县（市）重点办好一所示范性中等职业学校或职教中心。“十二五”期间为社会输送10万名以上中等职业学校毕业生。', '——加快发展高等职业教育。进一步优化和调整职业教育结构，实施中职学校退城进园，在此基础上，力争2—3年内建成1所高等职业院校。到2020年，建成1-2所具有鲜明地方特色的高等职业院校，高等职业教育招收全日制学生达到15000人。', '——促进民办职业教育规范发展。对现有民办职业教育资源进行优化重组，使所有中职学校均符合国家对中职学校的有关设置标准要求，即学校学历教育在校生数应在1200人以上，新建学校的建设规划总用地不少于40000平方米，生均用地面积指标不少于33平方米；新建学校建筑规划面积不少于24000平方米，生均校舍建筑面积指标不少于20平方米。重点建设2至3所规模大、水平高、有特色的民办中等职业学校。', '——加快示范性中等职业学校建设。大力实施名师名校工程，突出办学特色，加快建设一批国家级、省级示范性职业学校或职教中心。扶优扶强10所学校（吉安师范、吉安市高级技工学校、井冈山应用科技学校、吉安市中等专业学校、井冈山经贸学校、华忆电子工业中等专业学校、泰和县中等职业学校、井冈山旅游中等职业学校、万安县中等职业学校、吉安凯诺商贸经济管理学校）。', '——构建布局合理、结构优化、特色鲜明、与区域经济发展相适应的专业体系。紧紧围绕“四基地一枢纽”目标，结合我市产业结构和人才需求，进一步调整职业教育专业布局结构，逐步形成办学目标明确、定位合理、各具特色、错位竞争、有序发展的专业建设新格局。“十二五”期间，重点建设电子信息、新能源、生物制药、现代农业、旅游服务、幼儿教育、光伏、冶金化工、机械加工、汽车制造与维修、电工电子、数控技术、市场营销、电子商务、服装设计、动漫、现代物流、计算机应用、物业管理、机电一体化等20个骨干特色专业。', '——广泛开展多种形式的职业培训。建立健全企业职工在岗和轮岗培训制度，自2011年起，每年培训城乡劳动者10万人次，“十二五”期间为社会培训50万人次专业技术人才，使我市劳动者素质有明显提高。', '（七）统筹发展规划。市政府对全市各级各类公、民办职业教育的布局结构和发展重点进行统筹规划，制订《吉安市职业教育发展规划（2011—2020）》，实行分类指导，分步实施。各县（市、区）要制定本辖区的职业教育发展规划，并将其纳入当地经济社会发展的总体规划认真组织实施。', '（八）加快职业教育园区建设。按照中心城区的总体规划，加快职业教育园区建设。积极实施中职学校“退城进园”，将吉安师范学校、吉安市高级技工学校、井冈山应用科技学校整体搬迁至职业教育园区，退城进园学校老校区的土地置换收益全部用于新校区建设。出台园区建设优惠办法，吸引有志于办职业教育的名校、名师、名企集聚园区，大力发展各类职业教育。在园区内重点建设1所高职院校、3所中职学校，基本形成农业类、电子类、制造类等3个以上职业教育集团。把吉安职业教育园区建成全市一流的职业教育基地和集教育、旅游、文化于一体的吉安城南文化新区。', '（九）实施重点发展战略，加快推进吉泰走廊示范性职业学校建设，促进吉泰走廊中等职业学校逐步达到标准化建设要求。在走廊内建成5所专业优势明显、各具特色的省级重点建设示范性职业学校，6所省级示范性职业学校，形成重点中等职业学校群。吉泰走廊突出电子信息、医药、新能源、服务业、现代农业等骨干专业建设，办出吉安职业教育特色。', '（十）加强示范性职业学校和专业建设。积极创建国家级、省级示范性职业学校，充分发挥这些学校在培养人才，创新体制机制中的示范作用。针对我市产业结构和生产力布局，及时调整和优化职业学校专业结构，全面增强专业设置的针对性和适应性，重点建设光伏、新能源、电子信息、机械加工、现代农业等20个具有区域经济特色、人才需求量大的骨干特色专业，形成以骨干特色专业为支撑，与我市支柱产业相适应的专业布局。今后政府对职业教育经费的投入重点倾斜于示范性职业学校和骨干特色专业建设。', '（十一）坚持把民办职业教育作为职业教育发展新的增长点。把民办职业教育纳入职业教育发展的总体规划，鼓励多种资本投资举办职业教育，支持民间企业举办国有民办、独立民办、民办公助、股份合作等多种形式的职业教育；鼓励跨所有制、跨隶属关系的合作、兼并与重组；鼓励民资、外资、行业和企业兴办职业教育，充分调动民间资本办学的积极性。加大对民办职业教育的支持力度，民办职业学校在用地、融资、税费减免、招生等方面享受与公办职业学校同等待遇。新建、扩建民办学校，政府应当按照公益事业用地及建设的有关规定给予优惠。国内外知名院校、教育集团来我市兴办职业教育并达到一定规模的，三年内土地可按地价级差采取出让或划拨的方式给予审批；学校兴建教学楼、餐厅、师生公寓等教学用房，享受与同类公办学校规费减免的待遇。民办职业学校所有应聘人员的社会保险、住房公积金等均由聘用学校按规定缴纳。对办学业绩优异、社会反响突出的民办职业学校和培训机构，予以表彰和奖励。', '（十二）大力推进校企合作，促进园区企业与职业学校深度对接。职业学校要围绕我市支柱产业的人才需要，与企业积极合作，广泛开展“订单培养(培训)”。鼓励企业员工到相关职业院校对口接受技能培训，鼓励职业院校在企业设立对口实习基地。引导支持行业企业捐资或捐赠教学仪器设备用于职业教育发展。根据《国家税务总局关于印发企业支付实习生报酬税前扣除管理办法的通知》(国税发〔2007〕42号)，落实企业支付实习生报酬税前扣除的有关规定。建立职业学校与工业园区对接机制，每个职业学校都要对接园区内1—2个企业，组织学生到工业园区企业顶岗实习和就业。鼓励工业园区企业与职业学校联合开设专业班，实行定向培养，并选派专业技术骨干免费为学生授课。', '（十三）开展多种形式联合办学和集约化办学。实施校校联合办学、校企合作示范校建设计划，支持20所高水平校企合作示范校建设和园区20家企业校企合作示范基地建设并授牌，发挥“校企合作示范校”和“校企合作示范基地”的引领作用。积极与人保、扶贫移民、农业、旅游等部门开展联合办学，加快与第三产业对接，鼓励职业学校实行跨地区联合办学，与企业合作共建实训基地。组建起与我市“6+1”支柱产业相对应的并由高水平示范性职业学校为龙头，重点职业学校为骨干，以专业为纽带的区域性职业教育集团。鼓励企业、社会团体、个人参与办学、办专业及共建实习车间，走规模化、集团化、连锁化办学路子。', '（十四）大力推进职业教育人事制度改革。积极探索与市场经济规律相一致，与职业教育特殊性相匹配的人事管理制度。公办职业学校的教师编制按省定标准核定，除文化基础课和骨干专业课教师以及管理人员相对固定外，外聘专业教师由学校根据专业设置的需要自主聘用。职业学校专业教师编制实行弹性管理，只定编不定人，实行工资总额包干，学校根据教学需要，自主聘用专业紧缺的教师。将职业学校教师医疗、养老、失业纳入社会保障。允许职业学校设立具有较高收入的特聘岗位，招聘优秀专家上岗任教；允许职业学校利用所办专业的品牌优势，积极创办相应的校办产业，探索产教结合的新路子；允许民办职业学校实行招生、学制、人事管理、专业设置“四放开”，加快民办职业教育发展。民办职业学校教职工在业务培训、职称评定、教龄和工龄计算、表彰奖励、社会活动等方面，依法享有与公办学校教职工同等权利。', '（十五）全面实施职业学校教师素质提高计划。大力开展以骨干教师为重点的全员培训，全面提高教师的实践能力、教学水平和相关学历层次。到2015年，专任教师学历达标率达90%以上，专业课教师“双师型”比例达60%以上，实习指导教师取得高级工以上职业资格的比例达60%以上。采取多种方式提高教师的教育教学水平，培养一批学科（专业）带头人。建立职业学校教师到企业实践制度，专业教师每两年必须有两个月时间到企业或生产服务一线实践。鼓励职业学校之间开展各种教研活动，鼓励教师参加学历提高和专业进修。启动职业学校首届市级骨干教师、学科带头人、首席教师（技师）的评选工作，并参照有关规定落实相关待遇。加强教师境外培训工作，有计划聘请外籍教师到职业学校任教。充实职业教育科研力量，切实加强职业教育研究队伍建设。', '（十六）增加职业教育财政投入。各级政府要逐步增加公共财政对职业教育的投入，重点支持示范性院校、技能型紧缺人才专业、实习实训基地建设、师资培养培训工作。从2011年起，市、县两级教育费附加用于职业教育的比例不得低于30%。从今年起，市财政每年安排200万元职业教育专项资金，各县（市、区）也要安排不少于30万元专项资金，用于加快发展职业教育。成立职业教育专项资金管理委员会，制定具体使用办法，并加强监督与审查。', '（十七）坚持多渠道筹措经费。严格执行“一般企业按照职工工资总额的1.5%足额提取教育培训经费，从业人员技术要求高、培训任务重、经济效益较好的企业，可按2.5%提取”的规定，足额提取教育培训经费，主要用于企业职工特别是一线职工的教育和培训。农村成人教育经费定额按年人均0.5元标准，由县（市、区）人民政府统筹安排，专项用于农民实用技术培训。职业学校和培训机构开展下岗失业人员再就业培训可按规定享受再就业培训补贴。鼓励企事业单位、社会团体和个人捐资助学。通过政府部门或非赢利组织向职业教育资助和捐赠的企业，按规定享受税费优惠政策。', '公办职业中专学校应参照普通中专的标准，由学校举办者所属同级财政拨付生均公用经费，并纳入年度预算。', '（十八）完善贫困家庭学生资助制度。各级财政要安排专项经费，资助接受中等职业教育的农村贫困家庭和城镇低收入家庭子女。中等职业学校要从事业收入中足额提取5%的经费用于学费减免、国家助学贷款风险补偿、勤工俭学、校内奖、助学金和特困生困难补助等。金融机构要为贫困家庭学生接受职业教育提供助学贷款。做好中职学生国家贫困助学金发放工作。通过助学金、奖学金、贷学金等多种形式，对贫困家庭学生实行学费减免和生活费补贴，保障职业学校学生不因贫困而失学。', '（十九）加大政府统筹和依法治教力度。进一步贯彻落实《中华人民共和国职业教育法》《中华人民共和国劳动法》等法律法规，坚持依法治教。各级政府要把职业教育纳入社会发展总体规划，在发展规划、办学规模、经费投入、基础能力建设等方面科学决策，加强组织领导，促进职业教育又好又快发展。市政府已成立职业教育发展工作领导小组，市长任组长，市委常委、宣传部长和分管教育的副市长任副组长，相关单位主要负责人为成员。各县（市、区）政府也要相应成立职业教育领导机构，并充分发挥其协调督导职能。教育、发改、财政、人保、编办、国土资源、文广、规划建设、民政、卫生、公安、农业、扶贫移民、工信委、井开区等各部门和单位要发挥各自优势，积极参与和支持职业教育工作，形成分工协作、齐抓共管的工作机制。', '（二十）规范职业学校招生秩序。教育、人保等有关部门必须加强对所属职业学校和培训机构的指导，规范职业学校的办学行为。各职业学校和培训机构的招生简章和广告，应报教育、人保等主管部门审批。进一步规范招生秩序，重点打击买卖招生、非法招生、违规招生行为，实行“五严禁”，即严禁中职学校委托中介参与招生；严禁中职学校以任何形式实行有偿招生或抢拉生源、重复录取；严禁生源学校及教师向中职学校索取生源组织费；严禁中职学校采取虚报、谎报等违法行为，套取国家资助中职学生专项资金；严禁生源地教育行政部门和学校以扰乱教学秩序为由阻止市内中职学校进入各初中学校与毕业生进行面对面的沟通与交流。对违反招生工作政策规定，以盈利为目的，不负责任，私自输送学生的校长、班主任和教职工，要严肃查处。', '（二十一）建立职业教育的考核和督导制度。建立各县（市、区）政府主要领导抓职业教育的责任制度，把职业教育的发展列入县（市、区）政府工作目标考核和教育工作目标考核的重要内容，作为对领导干部进行政绩考核的重要指标，并接受人大、政协的检查和监督。各级教育督导部门要将职业教育作为教育督导的重要内容，加强对职业教育的督导与评估，定期组织人员或者委托社会中介组织，对各类职业学校的办学条件、办学水平、教育质量和信誉进行监督与评估，并将评估结果向社会公布，促进职业教育健康发展。同时，市、县（市、区）政府要建立领导挂点联系职业学校制度，为职业学校发展解决实际困难和问题。', '（二十二）营造有利于职业教育发展的良好氛围。加大职业教育宣传力度，各新闻媒体要重点宣传优秀技能人才和高素质劳动者在社会主义现代化建设中的重要贡献，形成尊重人才、尊重技术、尊重劳动、尊重创造的社会风尚，形成全社会关心、重视和支持职业教育发展的良好氛围。同时，实施建设平凡劳动者奖励计划，对留在本地就业的优秀职校毕业生，给予精神和物质的奖励，在全市形成一种“劳动者光荣”、“服务吉安本地发展光荣”的新风尚。', '根据省政府《关于推进义务教育均衡发展的意见》（赣府发〔2010〕15号）精神，为推动我市义务教育均衡发展，切实保障适龄儿童少年平等接受义务教育，结合我市实际，现提出如下实施意见：', '推进义务教育均衡发展是全面落实科学发展观、构建和谐社会的一项战略举措，要充分认识推进义务教育均衡发展的重要性和紧迫性，把义务教育作为当前教育改革与发展的重中之重，切实保证经济社会发展规划优先安排教育发展、财政资金优先保障教育投入、公共资源优先满足教育和人力资源开发需要，健全以政府投入为主、多渠道筹集教育经费的体制，合理配置教育资源，大力推进素质教育，办人民满意的教育。', '1.总体要求：以提高教育质量为核心，以大力提高农村地区和薄弱学校义务教育水平为重心，以县级行政区域内率先实现均衡为重点，进一步完善农村义务教育保障机制，科学、均衡配置经费、设施、设备、教师等办学资源，使义务教育均衡发展水平和整体实力显著提高，推动义务教育均衡、协调、健康发展。', '2.目标任务：按照省政府的要求，各地要在2012年使义务教育阶段学校基本达到省定办学条件标准，消除薄弱学校和大班额现象，所有县（市、区）实现区域内义务教育初步均衡。在全省县级人民政府教育工作督导评估中获通报表彰、通报表扬和良好等次的县（市、区）分别要在2014年前、2016年前和2018年前实现区域内义务教育基本均衡。2020年，全市所有县（市、区）都要实现区域内义务教育基本均衡。适龄儿童、少年入学率保持在99.5％以上，义务教育巩固率达99％。', '1.大力推进中小学布局调整。各地要根据城区城镇人口变动等实际情况，按照“就近入学、相对集中、优化资源配置”的原则，把中小学建设纳入县（市、区）城镇建设总体规划，编制教育设施布局专项规划，明确中小学数量、规模及选址。要确保新建、改建居民区的规划与新建、改扩建中小学校的规划同步编制和实施。在优化农村中小学学校布局时，要规范学校布局调整程序，避免因布局调整引发新的矛盾。各地可适当调整和撤消一批生源不足、办学条件差、教育质量低的薄弱学校，但在边远山区、库区和交通不便的农村地区要保留、加强必要的小学和教学点。', '2.加快推进义务教育标准化学校建设。各地要按照加快推进新型城镇化的要求，严格执行《江西省义务教育阶段学校基本办学条件标准》的规定，加快中小学校的新建和改扩建工作力度，努力使生均用地面积、生均建筑面积、实验室及设备配置等方面达到相应要求，并可适当提高建设标准和规模，以适应新形势的发展。各县（市、区）对办学条件低于标准的薄弱学校，要制定限期改造计划，集中财力加快薄弱学校改造，力争区域内所有义务教育阶段学校的办学条件尽早达标。要认真组织实施好言爱基金项目建设和管理，进一步探索通过教育扶贫（移民）实现教育均衡发展的路子，争取更多的言爱基金项目或其他教育扶贫项目落户我市。要加强寄宿制学校建设，以解决因网点布局调整后造成的学生上学不便的问题。', '3.切实改善农村学校办学条件。按照省里的统一部署，继续实施农村初中校舍改造工程、农村初中实验室建设工程、农村中小学配套设施建设工程、中小学校舍安全工程。各县（市、区）要在深入调研的基础上，制定农村寄宿制小学建设计划，改善村级小学办学条件，使之达到标准。逐步完善农村学校音乐、体育、美术、综合实践等课程教学场地、器材等条件，按照规定标准配齐图书，逐步完善学校食堂、宿舍等生活设施。', '4.建立完善结对帮扶和市、县“手拉手”工作。以省教育厅组织对我市吉安县和井冈山市开展结对帮扶和省内本科院校对口支援扶持我市国贫县教育工作为契机。要加强与外市友好城市、友好学校的联系和沟通，争取更多的支持和帮助。建立市县“手拉手”和城镇优质学校帮扶农村薄弱学校的工作机制，以优质带动薄弱，城市带动农村，通过帮扶使农村薄弱学校的学校管理、办学特色、设施设备、教育质量等方面得到切实改善和提高，进一步缩小城乡学校教育差距。', '5. 提升中小学信息化教育水平。各地要树立以教育信息化带动教育现代化的指导思想，大力实施“教育信息化、教学资源化、管理网络化”工作。一是要继续抓好农村远程教育工程后续应用工作，使农村学校，尤其是边远山区学校的师生能够共享优质教育资源。二是全面实施中小学“班班通”工程，重点抓好农村“班班通”建设工作。三是以县（市、区）为单位，建立县（市、区）域教育资源网站，为中小学校搭建互通互动互联的交流平台，提供高效、便捷的信息资源。四是要多渠道解决信息化建设经费，努力完成我市中小学信息化达标整体推进方案的各项达标和省颁《江西省中小学信息技术装备及软件配备标准》的要求。五是进一步加强计算机功能教室的建设，力争在近两、三年内实现义务教育阶段中小学计算机生机比达标。要在不断加强常规信息技术设备配备的基础上，加强新技术新设备的推广应用。', '1.足额配齐义务教育学校教师。各地要对义务教育阶段中小学编制情况进行调研，科学、合理下达编制，并足额配齐教师，以满足义务教育均衡发展对师资的需要。要建立和完善教师正常补充机制，保证师资每年得到及时补充。继续在全市5个国家扶贫开发工作重点县认真组织实施好农村义务教育学校教师特设岗位计划，引导更多的高校毕业生到农村从事教育工作。继续做好面向边远山区“三定向”招生工作，并向紧缺学科倾斜。', '2.加强中小学教师培训工作。要按照教职工年度标准工资（不含绩效工资）总额1.5%的标准，核拨教师继续教育经费，由教育行政部门统筹使用。各地要制定培训计划，保证每所中小学校每年都能派出一定比例教师接受各类培训。要充分发挥教师进修学校作用，组织开展教师培训，提高广大中小学教师综合素质。要认真实施“国培计划”等教师素质提高工程，选派校长、优秀教师参加国家、省级培训，赴教育先进地区学习考察，提高骨干教师队伍和校长队伍建设水平。要加强农村学校和薄弱学校教师培训工作，在选派教师参加培训和赴外地考察学习时，应向农村和薄弱学校的教师倾斜。', '3.实施义务教育师资校际交流。各地要建立和完善城镇中小学教师到农村任教服务、农村中小学教师到城镇跟班学习制度，每年有计划地从城镇中小学选派部分学校管理人员和骨干教师到农村中小学或薄弱学校任职支教。要积极组织开展城乡学校结对帮扶活动，有计划的组织开展各类公开教学课竞赛、示范课展示、送课送教下乡等交流活动。要为教师定期交流提供条件，教师按照规定交流时，其原有职务、职称待遇不变。', '4.确保义务教育学校教师待遇。各地要认真落实好义务教育学校绩效工资，确保教师的平均工资水平不低于当地公务员平均水平。要实现同一县域内义务教育学校绩效工资水平应大体平衡，确保落到实处。要继续落实好对艰苦边远地区农村中小学教师发放特殊津贴政策，有条件的地方可适当提高。', '1.加快发展特殊教育。各地要进一步加大资金投入，健全特殊经费教育保障机制。要将三类残疾儿童少年义务教育纳入义务教育总体发展规划，不断提高三类残疾儿童少年义务教育普及程度。县级以上人民政府征收的残疾人就业保障金应提取一定的比例用于特殊教育学校学生职业教育和培训。组织实施特殊教育学校建设规划，推进市特殊教育学校新校区建设。已设立特殊教育学校的县（区）政府要不断加大对特殊教育的投入，努力办好辖区特殊教育学校，切实保障适龄残疾少年儿童享受良好的教育。到2015年，全市人口30万以上、残疾儿童较多的县（市、区）都建有一所标准化的特殊教育学校。要把市特殊教育学校建成含教学、职业教育、康复训练的具有典型示范性的特殊教育学校。未设立特殊教育学校的县（市、区）要切实加大特教班和随班就读的工作力度，不断完善特教班和随班就读工作的管理机制。', '2.进一步完善进城务工人员随迁子女就学制度。各地要认真贯彻执行《吉安市进城务工就业农民子女义务教育工作实施办法》（吉府办发[2004]21号）精神，有关职能部门密切合作，扎实做好进城务工就业农民子女身份的界定、接收等工作。要充分发挥公办中小学校接收进城务工人员子女就学的主渠道作用，把进城务工人员子女安排到公办学校就读。要严格执行就近入学的政策，明确各级各类学校不得拒收进城务工人员子女就读。进一步简化进城务工人员子女入学手续，确保符合条件的进城务工人员子女及时就读。实施进城务工子女“关爱”工程，认真落实返乡农民工子女在城区公办学校就读与城区学生享受同等待遇及其他优惠政策，实现流动人口子女与当地学生一样待遇，享受优质教育资源。随着市中心城区“人口倍增计划”的实施，进城务工人员随迁子女就读数量将不断增加，吉州区和青原区要在认真预测规划的同时，进一步探索科学有效的管理制度，创新工作机制，使之更好地适应中心城区发展变化的要求和流动人口子女就读的需求。', '3.加强农村留守儿童教育管理。实施留守儿童关爱工程，建立和完善政府统筹协调、部门各负其责、社会共同参与的农村留守儿童关爱工作机制。以基层政府为主导，在村委会、学校等建立农村留守儿童动态监测机制和资料库，构建农村留守儿童教育监护体系。一是要大力实施关爱行动，大力推进“代理家长”、“代理妈妈”等公益项目，充分发挥“五老”和优秀家长队伍，对留守儿童的学习和生活等给予有效的指导、关爱和帮助。二是要建立与家长联系的桥梁。开通“亲情联系卡”、开通“亲情电话”等，增进留守儿童与父母的联系。三是要建立家校联系制度。加强与留守儿童监护者的沟通，通过走访、电话联系等方式，以增进对留守儿童的了解，共同做好管理和教育工作。四是要重点开展“一帮一”、“手拉手”等互帮互学活动。五是要适当改扩建农村寄宿制学校，以解决农村留守儿童寄宿问题。六是要及时总结过去教育管理工作中好的做法和经验，加大工作力度，创新工作方法，努力形成留守儿童教育管理工作特色。七是要认真落实资助义务教育阶段贫困家庭学生的各项政策，确保学生不因贫困而失学。', '1.积极推进素质教育。牢固树立“育人为本，德育为先”的原则，创新德育形式，丰富德育内容，积极构建中小学有效衔接的德育体系，促进学生全面发展，培养中国特色社会主义事业接班人。大力弘扬井冈山精神，充分利用庐陵文化资源，加强爱国主义和传统文化教育，深入开展理想信念教育，引导学生树立正确的世界观、人生观、价值观，教育学生热爱祖国、热爱吉安、热爱家乡。加强学生的思想道德和行为规范教育，培养学生良好的学习、生活习惯等。发挥井冈山爱国主义教育基地作用，将其作为全市中小学生课外素质拓展和德育教育的大课堂。积极推行中考制度改革，实施初中毕业升学考试科目分数和初中学生综合素质评价相结合的高中招生录取模式。进一步加强学校体卫艺工作和学生心理健康教育，积极组织开展形式多样的体育、艺术、科技等活动，提高学生的综合素质，为学生全面健康发展打下良好的基础。及时总结近几年实施初中课改的经验，以提高教学质量为目的加强对各种有效教学活动的组织与指导。要广泛开展各种课型的研讨、各种教学技能的培训活动、定期组织各类优秀课的观摩与示范活动，为广大教师提供参与、演练、观摩、评价等学习和实践的机会。', '2.切实规范办学行为。义务教育阶段坚持就近入学的制度，严格规范办班行为，逐步消除大班额现象。教育行政部门和中小学校要全面落实课程方案，开足课程，开齐课时，不随意增加考试科目的课时，也不得随意减少非考试科目的教学时间。树立健康第一的思想，加强学校生理卫生和心理健康教育，合理控制作业布置量，切实减轻学生课业负担。坚持开展“阳光体育”运动，保障中小学生每天一小时的锻炼时间。进一步规范学科竞赛活动的管理，竞赛活动必须坚持学生自愿参加的原则。各中小学校，节假日不得组织中小学生违规集体补课，不得体罚或变相体罚，不得有损害学生身心健康的行为。各地政府和教育行政部门要采取有效措施，对在职教师从事有偿家教进行集中整治，取缔在职教师有偿家教。要建立规范中小学办学行为的长效机制，设立社会监督举报电话，强化督导检查，做到报必查，查必果，切实减轻学生和家长负担，维护教育的良好形象。', '1.完善义务教育经费保障机制。进一步完善各级政府分项目、按比例分担义务教育经费的保障机制，提高保障水平。各级政府要优化财政支付结构，统筹各项收入，把教育作为财政支出重点领域予以优先保障。确保义务教育经费年初预算执行中超收收入部分体现法定“三个增长”，把义务教育全面纳入财政保障范围。要提高财政性教育经费支出占地方生产总值比例，确保2012年达到4%，并稳定增长。全面落实义务教育免费政策，根据中央和省的统一部署相应提高义务教育阶段生均公用经费标准。', '2.加大专项经费和基本建设投入力度。进一步明确各级政府提供公共教育服务职责，完善教育经费投入机制，落实专项经费和基本建设投入。各地应按照从土地出让收入中计提教育资金的有关要求，从当年以招标、拍卖、挂牌或者协议方式出让国有土地使用权取得的土地出让纯收益中计提10%的比例计提教育资金，重点用于均衡义务教育发展。', '3.加强教育费附加的征收和管理。各级税务部门要足额征收城市教育费附加和地方教育费附加。依照国家的规定，按增值税、营业税、消费税的3％足额征收教育费附加；按增值税、营业税、消费税的2％足额征收地方教育附加，省级返还部分主要用于均衡城乡义务教育。各级财政部门要加强城市教育费附加和地方教育附加的支出管理，不得抵顶正常的财政拨款。各项教育附加的使用由教育行政部门商财政部门提出使用意见，报同级政府审批。', '1.切实加强组织领导。各地要把推进本地区义务教育均衡发展作为一项重要工作来抓，成立领导小组，围绕主要工作目标和任务，制定工作方案和计划，完善目标考核制度，建立各级党政领导班子成员定点联系学校制度，及时帮助学校解决实际问题。', '2.优化教育发展环境。各级行政执法机关要强化服务教育、服务大局的意识，依法保障学校、师生的合法权益，维护学校正常的教学秩序。进一步规范政府职能部门对中小学校的各种检查行为，坚决制止对学校乱收费、乱检查、乱摊派等现象，为教育营造一个良好的发展环境。未经政府批准，任何单位和个人不准擅自对学校进行检查、收费、罚款，否则学校有权拒绝，并可向纪检监察部门举报。各级新闻媒体要加大宣传力度，营造浓厚的舆论氛围，在全社会树立正确的教育观念，形成科学评价教育、评价教师的机制，为推进义务教育均衡发展创造良好的社会环境。', '3.建立和完善义务教育均衡发展督导评估制度和激励机制。将市教育督导室由教育行政部门内设机构恢复为市政府派出机构，保持督导工作的相对独立，保证教育督导的地位、权威和督政、督学职能的正常行使。加大对全市教育工作先进县（市、区）的奖励力度，对在全省教育督导评估中获得“全省教育工作先进县（市、区）”或“全省义务教育均衡发展示范县（市、区）”的，市政府予以全市通报表彰，并给予一次性10万元奖励。同时继续把义务教育经费“三个增长”、截留或挪用义务教育经费及教育费附加等情况列入每年市政府对县级人民政府年度教育工作督导评估工作的重要内容。', '为贯彻落实省委、省政府关于加快推进新型城镇化建设的重大决策部署，进一步转变教育发展方式，优化教育资源配置，促进教育均衡发展，扎实做好我市城镇新区教育园区建设工作，现提出如下意见：', '以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，全面贯彻党的教育方针，扎实落实国家中长期教育改革和发展规划纲要精神，立足实际，遵循教育规律，以促进教育公平为重点，以提高教育质量为核心，推进全市教育均衡、协调、可持续发展，努力办人民满意的教育。', '教育园区建设工作是省政府第37次常务会议确定的一项重要工作，是整合教育资源、实现基础教育统筹协调发展的有益探索，是加快推进新型城镇化进程、提升新型城镇化水平的重要创新，是完善城镇公共服务体系、提升城镇公共服务功能的重要举措，是促进城乡教育均衡发展、实现教育公平的有效途径。各地各部门要以科学发展观为指导，深刻认识教育园区建设的重要意义，通过加快教育园区建设，建设一批布局合理、建设规范、设施齐全的新型学校，促进教育事业全面、协调、可持续发展。', '从2010年起到2012年，在中心城区规划建设基础教育园区和职业教育园区，在各县（市）城区规划建设相对集中、规模适宜的教育园区。', '纳入2010年省教育园区建设试点的吉安县、吉水县要全面开工建设，确保按时完成工作任务，为我市推进教育园区建设工作积累经验。', '2011年在全市全面铺开教育园区建设工作，实现每个县（市、区）均建有规划合理、规模适宜、效益明显的教育园区。', '1．组织领导。市政府成立推进城镇新区教育园区建设工作领导小组，负责研究、协调、解决全市推进教育园区建设的重大问题。领导小组办公室设在市教育局，负责教育园区建设的日常工作。各县（市、区）人民政府要成立相应的领导机构，建立健全领导机制、决策机制和工作机制，把教育园区建设列入重要议事日程，形成“主要领导亲自抓，分管领导集中精力抓，相关领导齐心协力抓”的良好局面。', '2．分工协调。教育园区建设工作涉及面广，教育、发展和改革、财政、国土资源、规划建设、环保、监察、审计、国税、地税、消防等部门要增强全局意识，明确目标任务，根据各自分工，积极履行职责，密切配合协作，形成推进教育园区建设的合力。', '3．规范标准。教育园区建设规划要纳入当地国民经济和社会发展规划，纳入当地城市总体规划、土地利用总体规划和环境保护规划。要根据当地人口规模、人口密度、生源状况、交通状况和社会发展规划等因素，统筹各级各类教育，规划建设相对集中的教育园区。要与近几年实施的各类教育工程项目相结合，提高教育资源配置效益。', '要确保园区内学校按标准建设，园区必须配建3所及以上学校，包括中小学校、特教学校，也可以是职业学校、幼儿园及青少年活动中心等。总计用地300亩左右。学校规模要科学测算，合理确定，适度超前，不仅要满足周边适龄儿童少年就近接受教育的需要，还要能满足进城务工农民子女和农村贫困儿童受教育的需要。用地面积、校舍面积要严格执行国家有关中小学、幼儿园用地及建设标准，确保生均校园面积、生均校舍面积达标。平均班额要严格控制在小学45人/班，初中50人/班的标准内。图书资料、仪器设备、信息技术装备等要满足学生受教育的需要，保证能按教学要求开足开齐相关实验、信息技术教育课程。园区规划要科学合理，要做到园区内学校图书馆、体育场（馆）等服务设施功能互补，资源共享，避免投资的重复与浪费。', '4．资金投入。教育园区建设以政府投入为主，多渠道筹集资金。要积极争取中央、省级资金支持，同时整合各项教育专项资金，推进教育园区建设。市、县征收的城市教育费附加的30%，地方教育附加省级返还部分以及盘活城镇现有教育资源的收益，都要用于教育园区建设。引导社会各类资金，慈善资金投入园区建设。鼓励住宅小区开发商等社会力量投资建设教育园区。', '5．税费优惠。教育园区建设比照中小学校舍安全工程和农村寄宿制学校建设工程的优惠政策，凡涉及的行政事业性收费和政府性基金予以免收；凡涉及的经营服务性收费减半收取。鼓励企业和个人以提供免费服务、捐赠等形式支持教育园区建设，捐赠企业和个人依法享受有关税收方面的优惠。', '6．用地保障。各地城镇总体规划要预留学校、幼儿园用地，对非盈利性的学校、幼儿园实行划拨供地。城镇学校现有的划拨用地，经所在地县级以上人民政府批准收回后，纳入土地储备，改变土地用途的，依法依规予以公开出让，出让收益按国家有关规定提取各项基金后，全部用于教育园区建设。因故停止使用的农村学校土地，经所在地县级以上人民政府批准可收回土地使用权，依法进行处置，适宜复垦为耕地的，列入城乡建设用地增减挂钩试点项目，增减挂钩周转指标优先用于教育园区建设。省国土资源厅、省发改委下达的新增建设用地计划指标内专项安排教育园区建设的用地计划指标要确保全部用于教育园区建设。', '7．均衡发展。要坚持城乡统筹，妥善处理好推进教育园区建设与巩固农村义务教育的关系。要将教育园区建设与中小学网点布局调整工作相结合，在建设城镇新区教育园区、扩大城镇教育资源的同时，对农村中小学网点进行适当调整，加强乡镇中心小学和初中建设，使更多农村学生能享受更优质的教育资源，同时避免投资的重复与浪费。要将教育园区建设与实施中小学校舍安全工程相结合，达到既集中生源，凝聚人气，又消除隐患，均衡资源的目的。', '8．监督检查。教育园区建设要规范资金运行，实行阳光操作，建设廉洁工程。各级监察、审计部门要加强对教育园区建设的监督，严肃查处教育园区建设中违反党纪国法以及失职渎职的行为。要充分利用各种新闻媒体、监督举报电话、工程信息公开等手段，主动接受人民群众和社会舆论的监督。要建立科学的绩效考核体系，明确考核方法，严格奖惩机制，把教育园区建设工作实绩作为考核各地教育工作水平、安排教育项目和资金的重要依据。', '教师是教育事业的第一资源和核心要素。多年来，我市广大教师立足教育教学岗位，兢兢业业，默默耕耘，为全市教育事业发展和现代化建设作出了重要贡献。但是与新时期教育发展的要求和人民群众对优质教育的期盼相比，教师队伍建设仍然存在较大的差距。主要表现为：部分教师师德师风不佳，热衷有偿家教；爱岗敬业、为人师表意识不强，拜金主义倾向严重，治学不够严谨，教学方法陈旧，教师队伍业务水平亟待提高等。为切实加强教师队伍建设，全面提高教师队伍整体素质，推动全市教育事业科学发展、跨越发展，根据全国、全省教育工作会议精神，结合我市实际，现就加强我市教师队伍建设提出如下意见：', '以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，以人才强教为主题，以师德师风建设为核心，以加强教师教育和岗位培训为重点，以促进校长、教师专业发展，整体提升教师队伍素质为目标，统筹规划，创新机制，加强管理，优化结构，提高质量，努力建设一支师德高尚、业务精湛、结构合理、充满活力的高素质专业化教师队伍，为提升我市教育质量，办好人民满意的教育提供有力的人才保障和智力支撑。', '围绕“建高尚师德师风队伍，办负责任教育，创人民满意学校”这一目标，到2015年，全市教师队伍整体素质有明显提升，教师教书育人的积极性、主动性充分发挥，与我市教育改革发展需要相适应。', '——教师队伍素质进一步提升。广大教师具有高尚的师德品质，科学的教育理念，较高的教学水平，较好地适应教育现代化的需要。由教育名家、教学名师和学科带头人领衔的骨干教师队伍进一步壮大。实施“百千万名师培养工程”，到2015年，培养100名左右省特级教师，1000名左右市级学科带头人，10000名左右市级骨干教师后备人才，充分发挥名师的引领、示范作用。', '——教师队伍结构进一步优化。教师数量满足事业发展需要。农村教师队伍结构性矛盾有效缓解，幼儿园、小学、初中、高中教师队伍、学科、学段、区域结构趋于合理，中等职业学校“双师型”教师比例不断提高。到2015年，幼儿园、小学、初中教师全部达到国家规定学历，其中幼儿园、小学、初中教师具有本科及以上学历的比例分别达30%、55%、70%以上；普通高中、中等职业学校教师具有研究生学历（学位）的比例达5%；中等职业学校“双师型”教师比例达60%以上。', '——教师培训体系进一步完善。构建以井冈山大学和吉安师范为主体，各县（市、区）教师进修学校为支撑，中小学校本研修为基础，教师教育系统（人网）、远程教育工程公益电视系统（天网）、计算机互联网（地网）相互融通、系统集成、优势互补、优质高效的教师培训体系。大力加强教师培训基地建设，到2015年，各县（市、区）教师进修学校办学条件全面改善，建成市教师继续教育学院（中心）。', '——教师队伍活力进一步迸发。进一步强化和完善教师待遇保障机制，在全社会形成尊师重教的良好风尚。积极改革和优化教师管理制度，健全和完善教师资格准入、培训提高、科学考核、有效激励、有序退出等制度机制，逐步建立人员能进能出、专业技术职务能上能下、待遇能高能低的用人机制，广大教师投身教育改革创新，推动教育事业发展的积极性、主动性和创造性得到充分发挥。', '（三）加强师德师风教育。坚持把师德师风建设摆在教师队伍建设的首位，认真贯彻《中小学教师职业道德规范》，紧紧围绕全面实施素质教育，以“建高尚师德师风队伍，办负责任教育，创人民满意学校”为目标，以爱国守法、爱岗敬业、关爱学生、教书育人、为人师表、终身学习为重点，持续开展各种形式的师德教育活动，积极引导广大教师树立崇高的职业理想，全面提高师德素养，做人民满意的教师。', '（四）规范教师从教行为。坚持依法治教、从严治教，严格按照《教师法》《中小学教师职业道德规范》要求，规范教师职业行为。广大教师要全面贯彻党的教育方针，模范遵守法律法规，依法履行教师职责；要身体力行实施素质教育，关心学生的思想、学习、生活和心理健康；要潜心钻研学生成长规律，做到以人为本，因材施教；要公平公正对待每一个学生，引导学生全面发展；要严格执行各项纪律规定，在职中小学教师不得从事有偿家教、有偿办班、补课或搞第二职业；不得在各类社会培训机构兼职取酬。', '（五）建立师德师风奖惩机制。大力弘扬师德师风先进典型，每年在全市评选表彰“十佳师德师风标兵”，每名标兵奖励5000元，并在全市巡回宣讲其先进事迹，引导广大教师把教书育人作为毕生的事业追求，自觉担负起教书育人的神圣职责。同时，严格执行《吉安市中小学教师职业道德考核试行办法》，对师德师风考核不合格的教师，其绩效考核应认定为不合格，并按有关规定扣发其绩效工资，必要时可调整其工作岗位。教师违反师德规范情节严重、造成恶劣影响的，应给予党纪政纪处分或者撤销教师资格、解聘。', '（六）严格师德师风考核评价。实行教师职业道德“一票否决制”，将师德师风表现作为教师考核评价的必要条件，考核结果作为教师职务评聘、评先评优、绩效工资发放的重要依据，并将师德师风建设作为学校办学水平评估的重要指标。建立学生、家长和社会参与的师德师风监督体系。市、县（市、区）教育行政部门和学校都要通过公开师德师风举报电话、设立举报信箱、聘请社会监督员、向家长发放评议卡等举措，及时掌握师德师风动态。特别要针对教师有偿家教、违规补课、违规推荐教辅资料等问题，开展专项治理，接受群众监督。', '（七）完善中小学校长选拔任用机制。坚持党管干部、德才兼备原则与校长专业化要求相统一，建立完善统一的中小学校长选拔任用、培训交流、考核奖惩机制，发挥教育行政部门对校长选拔、培训、考核、交流的归口管理作用。规范中小学校长任职资格标准，全面把握思想政治表现、职业道德水平、领导管理能力、教育教学经验以及学历、年龄条件等要求，建立中小学校长任格资格制度。拓展中小学校长选聘视野和选聘方式，鼓励面向全国引进名校长，鼓励运用竞争机制公开选拔优秀校长。', '（八）提升校长专业化管理水平。逐步推行校长职级制，淡化校长职务行政化倾向，校长要到教学一线，深入课堂、研究教学，并担任学科教学任务。改革校长考核机制，重点考核校长在贯彻教育方针、实施科学管理、提高师资队伍水平、打造办学特色、增进群众满意度等方面的实绩。加强校长专业培训，用5年时间，对所属中小学校所有校长分批进行一次轮训。各县（市、区）负责完成小学及幼儿园校长培训，市教育行政部门负责初中以上校长培训。新任校长任职培训的时间不少于50学时，在职校长每5年应接受不少于250学时的提高培训。加强校长专业发展研修指导，定期举办校长高级研修班，组织开展与国内外教育名家的交流，不断总结办学经验，凝练办学思想，彰显办学特色。建立优秀校长激励机制。对在“三名”（名师、名校长、名学校）评选活动中获选的名校长，三年内由政府按每人每月500元标准发放名校长津贴，连续三届获选，则终身享受政府津贴。', '（九）完善教师管理制度。坚持凡进必考、择优录用的原则，严把教师入口关。严格执行教师资格准入制度，新招聘的教师必须依法取得教师资格证书。严格执行新任教师公开招聘制度，完善吉安师范“三定向”培养农村中小学教师办法，并向紧缺学科倾斜。鼓励优秀高校毕业生加入教师队伍，教育部属院校和“211工程”大学毕业生应聘教师，在同等条件下可优先录用。建立教师资格证书定期登记制度，加强教师岗位管理。建立健全教师转岗退出机制，对不胜任岗位的教师按政策规定实行转岗、分流或待聘。', '（十）强化教师继续教育和培训。严格执行国家和省有关专业技术人员继续教育的规定，全面实行教师继续教育证书制度。把接受继续教育情况作为教师年度考核、评先评优、职称评聘的依据之一。人保部门负责组织开展公需科目的培训，各级教育行政部门负责组织实施专业科目培训，专业科目培训学时不得低于总学时的70%。认真实施“国培计划”等教师素质提高工程，加强教师在职进修、岗位练兵、专业考核、教科研活动，提高教师专业素养。采取“走出去，请进来”的方式，对教师进行提高培训。加大职业学校教师培训力度，培养造就一批“双师型”骨干教师。', '（十一）着力培养教育教学专家。积极倡导教育家办学，鼓励教师潜心教育实践，探求教育规律，改革教育方式，创新教育理论，努力成为教育名家大师。加大对优秀教师的表彰奖励力度，对获国家表彰的全国优秀教师或先进工作者，由同级政府给予一次性奖励10000元，对获省政府表彰的省级优秀教师或先进工作者，由同级政府给予一次性奖励5000元。实施“名师”奖励机制，每三年一届在全市评选200名“名师”，对获选的“名师”三年内由政府按每月每人200元标准发放名师津贴，连续三届获选的“名师”终身享受政府名师津贴。', '（十二）加强教师培训体系与基地建设。大力加强教师进修学校建设，充分发挥其培训、教研的功能以及在全市中小学、幼儿园教师继续教育工作中的引领带动作用，将其建成中小学教师培训主要基地。市级培训机构主要承担高（完）中、初中校长，市级以上重点职校以及市级骨干教师的继续教育培训任务，初中以下教师的培训工作由县级教师培训机构负责。各县（市、区）要认真落实《教育部关于加强县级教育培训机构建设的意见》，加快推进县（市、区）教师进修学校的改革与建设，使之成为上挂高等学校、下联中小学校，集信息、培训、教科研为一体的新型多功能的县级教师学习与资源中心，成为中小学教师继续教育远程培训基地，以适应教师继续教育和终身学习的需要。', '（十三）建立教师定期轮岗交流制度。市、县（市、区）教育行政部门要结合义务教育学校实施绩效工资政策，积极探索并逐步完善本区域内义务教育师资校际交流制度，合理配置教师资源，推进义务教育均衡发展和教师专业发展。各县（市、区）教育行政部门要根据本地实际，促进教师在城镇学校和农村学校、优质学校和薄弱学校之间合理流动。原则上在同一所学校工作满15年的教师都要进行交流，每年交流人数要达到应交流人数的10%以上。各县（市、区）教育行政部门要根据“政策引导、因地制宜、城乡互动、优弱相济、稳步推进”的原则，制定具体的教师校际交流实施意见，明确校际交流的基本原则、条件、程序和办法等。教师校际交流实施意见要向社会公开，保障广大教师的知情权和监督权。', '（十四）落实“以县为主”的教师管理体制。根据《义务教育法》关于义务教育“以县为主”管理的要求，进一步完善教师管理体制，推动义务教育教师资源均衡配置。人保部门对所辖区域内公办学校教职工人事管理实施宏观管理、指导和监督，为公办学校（含普通教育教学研究室、教师进修学校）教师的资格认定、招考聘用、职务评聘、培养培训和考核管理开辟“绿色通道”。各级机构编制部门，应科学合理核定中小学幼儿园教职工编制，做到城乡教师编制标准逐步统一，人员按照编制配备到位，并实行动态管理。', '（十五）引导加强民办学校教师队伍建设。认真贯彻落实《民办教育促进法》规定，依法保障民办学校教师在业务培训、职务聘任、教龄和工龄计算、表彰奖励、社会活动等方面享有与公办学校教师同等权利。民办学校应按照《劳动合同法》的有关规定，与聘用教职工订立书面合同，明确双方的权利义务，并按合同规定及时兑现教职工的工资、福利待遇，为教职工足额缴纳（存）养老、失业、工伤、医疗等保险费用以及住房公积金。加强民办学校教师培养培训，把民办学校教师培养培训纳入全市教师队伍培养培训统一规划。', '（十六）要继续完善农村边远山区教师津补贴制度，切实改善农村教师待遇与条件。各县（市、区）义务教育阶段农村教师待遇应不低于城镇教师。适当提高农村学校（含教学点）中、高级教师岗位的结构比例和农村教师在各级各类评先表彰中的比例。各县（市、区）要对农村公办学校在编教师通过在职学习取得高一层次学历给予一定的资金奖励。充分发挥奖励性绩效工资分配的激励与导向作用，向农村偏远地区学校教师倾斜。要加快教师周转房建设，为农村中小学校教师提供良好的生活条件。', '（二十）完善教师职称评聘办法。制订一个动态有序的管理办法，确保教育行政部门依法履行职能。在全市实行职称评聘“地方粮票”试点，对部分具备资格但受职称指标限制未能聘用的优秀教师，采取“地方粮票”办法由同级财政拨付专项资金，保证其工资待遇。具体办法由人保部门制订。市、县（市、区）教育行政部门要加强对已聘人员教学业务的定期量化考核，对于无法胜任所聘职务的人员可以不受聘期限制进行调整，予以解聘，逐步打破职称聘任终身制，真正形成专业技术职务能上能下，待遇能升能降，优秀人才脱颖而出的竞争机制，充分调动广大教师的工作积极性。', '（二十一）加强组织领导。各县（市、区）政府要高度重视加强教师队伍建设工作，真正把教育事业当作基础性、先导性工作来抓。认真研究制定教师队伍建设发展规划，完善配套政策措施，及时解决教师队伍建设中的突出问题，确保教师队伍建设各项要求落到实处。教育行政部门要切实履行职责，统筹抓好教师、校长的培养培训和管理使用。市、县（市、区）区政府教育督导部门要将教师队伍建设纳入政府教育工作和学校办学质量监督评价体系。财政部门要充分发挥公共财政的保障职能，按照教育法和国家有关规定，为教师队伍建设提供必要的资金支持。机构编制、人力资源和社会保障等部门要在人员编制上、职称职数上给予保障和倾斜，努力形成政府统筹、部门分工协作，保障有力的教师队伍建设机制。', '（二十二）加大经费投入。要认真落实中央、省关于加大教师队伍建设投入的各项要求，各地新增教育投入要重点用于加强教师队伍建设。根据教育事业发展需要和各地实际，鼓励设立师资队伍建设专项资金，重点用于骨干教师考核奖励和名师、名校长培训提高。市、县财政部门应根据属地管理的原则按照教职工年度标准工资（不含绩效工资）总额1.5%的标准，核拨教师继续教育经费，由教育行政部门统筹使用。农村中小学校按学校年度公用经费总额的5%，安排落实教师培训费。教师培训费一经确定，任何部门和学校不得挪作他用。民办学校也要参照公办学校安排继续教育经费。加强教师培训经费的管理，实行专款专用，提高经费使用效益。', '（二十三）强化学校对教师队伍建设的责任。教育行政部门要坚持依法治校、从严治校。要建立责任制和责任追究制度，校长是学校管理的第一责任人，要全面承担起教师队伍建设管理的职责，加强教师职业道德建设，不断规范教师从教行为。财政、教育行政部门要加强对学校收费收支的监管，要规范学校收费，严格执行国家和省批准的收费项目和收费标准，不得以任何理由扩大收费范围或提高收费标准，坚持收费公示制度，自觉接受群众监督，不得乱收费。', '（二十四）优化社会环境。进一步弘扬尊师重教的良好风尚，切实保障教师的合法权益，努力提高教师的社会地位和政治待遇。充分尊重和积极鼓励广大教师的劳动创造，把广大教师的积极性、主动性、创造性更好地发挥出来。市政府开展“名师、名校长、名学校”评选活动，表彰奖励作出重大贡献的名师、名校、名校长，在全社会营造更加理解教育、支持教育、尊重教师、关心教师的良好氛围。', '市直学校教师队伍建设参照本意见执行，市教育局要加强指导和督促、检查工作，保证各项工作的落实。', '为贯彻落实市委、市政府关于提高教学质量、传承庐陵学风、振兴吉安教育的要求，切实改变我市教育教学质量在全省中低位徘徊的状况，努力满足人民群众接受优质教育的需求，办人民满意的教育，特制定本意见。', '以科学发展观为指导，以办人民满意教育为宗旨，以提高教育教学质量为主旋律，进一步强化学校教学常规管理，创新教育理念和教学手段，提高教学管理和课堂教学效益，建立健全科学的教学质量评价机制和监控体系，推动全市中小学教学质量上台阶。', '围绕“提高教育质量”这个中心目标，使全市学校在课程实施与建设、教师队伍素质、课堂教学水平、教育科研实效、学生全面发展等教育的内涵与品质方面得到大幅度的提升；全市优质教育的资源数量，全面发展的学生数量，名师、名校长、名学校的数量，师生参加各级各类竞赛成绩及中、小学生优秀率得到大幅度的提升；努力实现“一年上台阶，两年大改变，三年见成效”的目标，力争到2020年全市中小学校教学管理水平和教学质量主要指标进入全省先进行列。', '1.坚持把课堂作为主阵地，把课堂教学作为主渠道开展教学。课堂教学必须面向全体学生,以促进学生主动发展和全面发展，培养学生创新精神和实践能力, 构建新型的师生关系，改变传统的教学方式和方法，引导学生主动学习，实现有效教学和高效课堂。', '2.明确课堂教学目标，加强教学指导评估。市、县教研室和学校要依据学科特点和学生认知水平,研究制定切实可行的课堂教学目标和评价标准,突出学科特色,抓住重点和难点,充分调动教和学两方面的积极性。学校要组织教研组，骨干教师等不同层次的教师进行课堂教学效果的指导和评估，评估结果作为教师年终考核的重要依据。', '3.严格教学常规，确保教学行为规范。各中小学校要开齐、开足、开好课程，不得挤占非考试学科课时。市、县教育行政部门要对中小学课程开设情况进行督查。中小学教师要按照确定的教学内容和课程设置开展教学活动，要针对学生差异，精心选择和设计作业，加强对作业的批改和教学的反馈，及时了解学生的学习效果，有针对性地进行集体辅导或个别辅导。', '4.加强对有效课堂教学模式的探索。从2011年开始，全市实施“三案一课”课题实验工作，重点抓好教案、学案、练案的设计与实验。通过教案加强对课程标准、教材、教学进行集体备课与研究；通过学案促进学生课前有效预习、课堂有效参与、师生有效互动；通过练案促进课堂有效反馈，当场“消化”，当场“吸收”，减轻课后学业负担,从整体上提高教学质量。各地、各校也要积极开展高效课堂的研究实验，总结经验，创出典型，推广成果，提高质量。', '1.加强教师培训。市、县级教育行政部门每年要组织中小学教师开展业务培训，鼓励和支持教师参加继续教育培训。要组织教师赴教育先进省市和友好城市考察和学习，更新教育理念，提高教学水平。要加强奥林匹克竞赛教练的选拔和培养，建立一支强有力的奥林匹克竞赛教练队伍，充分发挥他们在培养我市尖子生中的骨干作用。', '2.开展结对帮扶。要通过师徒结对，以老带新等方式，充分发挥特级教师、学科带头人、骨干教师、教学能手、名教师的作用，帮助年轻教师快速成长。要做好城区优质学校帮扶农村薄弱学校工作，提高薄弱学校教学质量。教育行政部门要对帮扶工作作出统一要求，制定操作性强的办法，形成长效机制，对帮扶工作要列入工作考核，并实行帮扶与被帮扶双方捆绑式评估考核。要以省教育厅组织对我市吉安县和井冈山市开展结对帮扶和省内本科院校对口支援扶持我市国贫县教育工作为契机，推动我市结对帮扶工作向更高、更优、更有实效的方向发展。', '3.大力开展教学竞赛。建立听课评课制度，深入开展讲课、评课和赛课活动。每学期要组织每位教师上一节公开课或竞赛课，要分层次组织年轻教师上公开过关课，老教师上示范课，学科带头人和骨干教师上展示课。市、县级教育行政部门每年都要组织中小学教师开展“百校千课”教学竞赛活动、示范课教学观摩活动、教学开放日活动、优秀教案、课件评比等教学技能竞赛活动,通过教学展示、教学比武等活动，促进教师的专业成长。', '４.加强学科教研组建设。各校要加强学科教研组和备课组建设，要充分发挥教科研共享平台研究、示范和辐射的功能，建立区域内科研合作共享机制和校本教研制度，做到定时间、定地点、定内容，有效开展教研活动。鼓励全体教师积极参与教学研究，使参与面达到100%，以实现打造学习型、研究型教师队伍的要求。要定期开展市、县、校先进教研组和备课组评比表彰活动，市、县教研室要积极参与到学校的教研活动中去，并对学校的教研工作给予督促、指导和评价。', '1.加强对新课程实验推进工作的领导和指导。课程实验已实施十年，各地各校都要对课改实践活动进行认真梳理和总结，精选课程内容，优化课程结构，使课改工作深入持久和健康有序向前推进。尤其要加大对高中课程实验工作的推进速度和经验的推广力度，积极采取既符合上级要求，又符合本地、本校实际的课改模式和发展途径，确保高中课改的顺利实施和教学质量的稳步提升。要不断提高教育行政干部、校长和教师对新课程实验工作的领导、指导、管理和实施课程实验工作的水平和能力。要不断加大对课程实验工作的投入，确保课程实验工作所需的基本办学条件符合要求。', '2.加强小学、初中和高中三个学段的有效衔接。市、县教育行政部门要组织不同学段的教师通过座谈会或组织教师深入不同学段学校相互观摩教学等方式，让教师了解不同学段的教学要求、目标、内容、方法和评价方式，引导广大教师深入领会学段、学科教学目标之间的内在承接关系。为教师搭建交流和学习的平台，让广大教师在活动中反思，在反思中成长，形成在小学以培养学生良好的学习习惯，初中培养学生开展自主学习，高中培养学生进行创造性学习为主的教育模式，从而进一步提高我市中小学教学质量。', '1.完善中小学教育质量评价制度。各县（市、区）在建立和完善中小学评价与考试制度时，要树立全面发展的质量观，从德智体美等方面全面评价学生，注重对学生综合素质的考查，认真组织实施初中学生综合素质评价电子化管理工作和高中学业水平测试工作。各地要建立中小学教育质量目标管理体系，形成分级管理，分层负责，目标量化的机制；要研究探索教学目标考核办法，做到细致严谨，可操作性强，奖罚分明，促进各中小学校教学质量目标的实现。', '2.建立教育质量监控体系。制订出台教育教学质量监测评估办法，加强对教学质量的监测评估。构建吉安市中小学教育质量', '监控体系，形成市、县（市、区）教育局、学校三级联动，并由市、县（市、区）教研室具体实施的质量监控机制。要按照分层管理，针对性强的原则和“小学办活、初中抓实、高中做优”的思路对各学段进行有效的质量监控。市、县财政要为开展教学质量检测提供经费保障。2011年开始，全市实行分级质量检测和监控。小学每学期由县教育行政部门组织统一检测，初中每学期由市、县两级教育行政部门组织统一检测，高中每学期由市级教育行政部门组织检测。具体检测工作由市、县级教研部门组织实施和质量分析，评价结果用于反馈给学校不断改进学科教学，也作为评价各地、各校教学质量的重要指标。', '1.建立奖惩机制。设立吉安市中小学教学质量奖。从2011年开始，市财政安排专项经费，用于奖励教学质量成绩突出的县(市、区)、教师、学生。各县（市、区）也要制定相应的奖励措施，以促进全市中小学教学质量的整体提高（奖项设置及奖励办法见附件）。对抓教学质量工作不力，教学质量提高不快或教学质量下降的县（市、区）政府采取通报批评或亮黄牌，如被两次通报批评或亮黄牌，将对有关责任人作出相应处理。对在教学质量检测中教学成绩差的学校校长要实施诫勉、降职或免职。对不能胜任教学岗位的教师应调离教学岗位，待岗接受继续培训，期间停发绩效工资。', '2.强化对教育质量的教育督导评估。将提高教学质量纳入市政府对县级人民政府教育工作督导评估内容，并适当增加其分值。每年举行一次全市中考、高考质量分析会，及时总结和交流经验。制定全市普通高中教学质量考核评价办法，每年开展一次普通高中教学质量考核评估，并据考核结果进行奖惩。', '（一）各级政府要坚持科学的教育发展观和正确的教育政绩观，及时研究解决教育教学工作中的具体问题。要进一步加大教育投入，确保教育经费达到“三个增长”；建立教师培训经费保障机制，设立教学质量考核奖励资金，对在教育教学工作中做出突出贡献的单位、个人给予表彰奖励。', '（二）各级教育行政部门要切实担负起提高教学质量的职责，对直接管理的中小学教学质量的提高负有直接责任。各中小学校要把促进学生的全面发展作为衡量教学质量的根本标准，积极探索提高教学质量的新思路、新途径、新办法，全面提升教学质量。各中小学校长是提高教学质量的第一责任人，要投入更多的时间、精力狠抓教学质量提高。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>125</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>我市旅游业发展中存在的主要问题及对策建议</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2012-09-10</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/news-show-24921.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['近年来，我市旅游业紧紧围绕打造“红色旅游首选地”和“全国知名的旅游观光休闲基地”目标，通过积极实施“政府主导、市场运作、社会参与”发展战略，不断加大旅游业投入，求真务实，开拓进取，红色旅游越做越旺，绿色旅游方兴未艾，古色旅游异军突起，旅游经济取得长足的发展。', '1、旅游经济快速发展。近年来，我市主要旅游经济指标均以两位数快速增长。2011年全市接待国内外旅游者突破1800万人次，旅游总收入过120亿元，井冈山门票收入突破2亿元，井冈山机场吞吐量突破30万人次，均创历史新高。', '2、旅游品牌逐渐凸现。“红色旅游首选地”享誉全国，“绿色家园”、“庐陵文化”旅游品牌也日益凸现。始终坚持高品位宣传。如近几年我市连续在央视一、二、三、四频道推出大井冈旅游形象宣传广告片；承办了中国·江西红色旅游博览会开幕式和井冈山红色旅游文化活动周系列活动；分别赴北京、上海、广州、成都、西安、厦门、香港和台北市等地举办大型旅游推介会；井冈山连续举办了三届“中国井冈山国际杜鹃花节”，加上渼陂古村旅游文化节、遂川汤湖茶文化节、吉安县横江葡萄节、新干红桔节和峡江杨梅节，已经形成了富有自身特色的旅游品牌。', '3、旅游重大项目建设步伐不断加快。近几年，按照“政府主导、市场运作、社会参与”的原则，积极向上争、对外引、朝内筹，不断加大旅游投入，狠抓重大项目建设。2011年全市在建旅游项目68个（含续建项目），全年实际进资28.69亿元，其中外资进资8530万美元。大投入促进了旅游景区的发展，国家“一号工程”——井冈山革命博物馆新馆、笔架山景区、井冈山领袖峰景区先后建成开放；投资3亿元的庐陵文化生态园开园；投资1.8亿元的武功山国际温泉度假村火爆营业；东固革命根据地纪念馆建成对外开放；首期投资5亿元的井冈山梨坪国际会议中心、投资3.8亿元的武功山金顶景区正在紧张建设当中。这些景区的陆续建成，进一步丰富了我市旅游景观体系，加速旅游经济发展。', '4、产业规模日益壮大。经过积极培育和大力扶持，目前我市已拥有星级旅游饭店57家（其中四星级13家，三星级27家，二星级17家）；各类饭店总床位数已达到5万余张；拥有旅行社69家（其中出境组团资格的国际旅行社1家）；拥有旅游景区31个（其中国家5A级景区1个，4A级景区1个，3A级景区10个）；年接待20万人次以上旅游景区（点）3个，年接待50万人次以上旅游景区（点）1个；有旅游汽车公司4家，旅游客车500余台；“农家旅馆”、“旅游餐馆”79家，其中农家旅馆有60家（三星级农家旅馆37家，二星级农旅馆23家）；旅游餐馆19家（三星级14家，二星级5家）；拥有持证国家级导游1255人，涉旅行业总从业人数七万余人。旅游产业规模逐步壮大，“食、住、行、游、购、娱”的旅游服务体系进一步完善。', '5、旅游发展体制机制创新加速推进。一是强化领导。成立了吉安市旅游工作推进委员会，由市长任组长，市委、市政府分管领导任副组长，明确提出把吉安建设成为“全国知名的旅游观光休闲基地”，把旅游重大项目建设列入市重点项目调度范围，把吉安旅游产业发展的任务分解到各有关责任单位。二是组建重点景区管理机构。先后成立青原山风景名胜区管理委员会和安福武功山风景名胜区旅游管理委员会。“两山”管理体制的理顺，从根本上解决了多年来制约景区发展的体制束缚。三是强力推动重点景区发展。先后组织召开全市推进“三山”旅游座谈会、全市推进现代服务业发展大会，研究部署“三山”旅游开发建设，吹响了以“三山”旅游战略为核心的全市旅游业大发展的号角。', '近年来，我市旅游业取得了较快发展，但是，旅游业发展中也还存在诸多问题，主要表现在以下六个方面：', '1、旅游业发展不均衡。各县（市、区）旅游发展差异大。以红色旅游开发为例，井冈山发展迅猛，产品较为成熟，市场知名度大，而永新、青原等红色资源处于初浅开发状态，鲜有游客光顾。以门票收入为例，井冈山已突破亿元，一枝独秀，而山下渼陂古村、文天祥纪念馆等景区门票收入一直徘徊在几十万元。以星级酒店为例，井冈山现有星级酒店24家，占全市总数的45%；市中心城区有星级酒店11家，占全市总数的21%，其它县（区）平均只有2家星级酒店，永丰、泰和、万安县无三星级以上酒店，永新尚无一家星级酒店。井冈山作为我市旅游业发展的龙头，并未发挥带动作用，山下旅游资源开发推进缓慢，山上山下联动效果难以显现。', '2、旅游产业总量还比较小，整体竞争力不强。近年来，全国各主要景区纷纷抢抓机遇，全面提升旅游综合竞争力，千方百计吸引客源，不断扩大市场份额。尽管我市旅游经济快速发展，但与省内外旅游发达地区相比，我们总量较小，质量不高，还有不少的差距，部分经济指标差距还在扩大。目前，省内排全省前列的九江、南昌两地旅游多措并举，增势强劲；上饶、赣州、宜春等地发展势头很猛，生态旅游、乡村旅游高潮迭起，全省旅游市场竞争越来越激烈。井冈山旅游发展呈现五年一循环的格局，每逢建党、建军、建国等党和国家的重要节庆整数周年就达到发展的高潮，之后又陷入低谷。可以说，吉安旅游已经遇到了发展的瓶颈，如果还是继续打井冈山（红色）旅游一张牌，忽视符合当代旅游发展趋势的生态、休闲、度假、会展等新型业态的培育发展，不能带动中心城区庐陵文化旅游资源的发展，恐难有大的突破，前景堪忧。', '3、旅游业产业结构还不够合理。我市景区游览、住宿业、餐饮业占的比重较大；旅游商品、娱乐休闲、健康养生等所占比例较小。根据国内外旅游观光地的成功经验,旅游门票仅占当地旅游总收入的5%—10%，大量的收入靠旅游商品、纪念品销售、文化娱乐消费。我市旅游商品以食品、土特产居多，旅游商品尤其是品位高、收藏价值大的纪念品比较少，旅游商品研发、销售体系尚未形成。大多数景区还仅局限于门票收入，缺少夜晚的文化娱乐、健康休闲和旅游购物消费。', '4、旅游业投入不足。旅游资源开发缺少大手笔，尤其在山下，表现在景区点规模小、内容单薄，缺少游客参与互动的项目，资源还大多处于“有形的少，无形的多；规模大的少，规模小的多”的状况，资源优势还远未形成产品优势和经济优势。比如4A级景区渼陂古村现仅具游览功能，缺少观赏性表演和游客互动项目，餐饮、购物功能不足，古街本是古村的一大亮点和卖点，但却没有一家商铺，古村商业文化没有恢复起来。宣传促销投入不足。2011年市财政预算安排100万元旅游宣传促销经费，只有宜春、抚州市的五分之一，南昌市的十六分之一，在全省11个设区市中排在倒数第一位，与我市旅游大市的地位极不相称，经费捉襟见肘，也使得许多促销活动难以开展，项目推进较慢，整体形象宣传、市场开发培育等亟待提高。', '5、旅游业配套不够完善。中心城区缺乏软、硬件过硬的高星级酒店，现有的酒店对外开放程度不高，缺少先进管理模式和理念。配套功能不够完善，缺少大型会展接待场所，服务存在不规范、不到位现象，难以满足大型节庆会展的需求。旅行社等涉旅企业仍然还处于小、散、弱的状态，缺少实力雄厚的旅游企业集团；旅游人才，特别是高级管理、规划、策划方面的人才缺乏，旅游从业人员的整体素质也有待于进一步提高，导游人员多为初级导游，服务水平普遍不高；讲解不够生动感人，缺乏激情,缺少对游客的吸引力。', '我市有丰富的旅游资源，红色旅游是我们的根本，发展绿色生态、度假休闲、文化旅游更是我们的优势，因此必须重视生态环境的保护和庐陵文化的深度挖掘，用科学发展观指导我市旅游景区（点）建设，走可持续发展的道路。在实施市、县旅游业发展总体规划的同时，高起点编制重点景区开发建设详规，通过市县联动和区域联动开发，完善基础设施，使全市精品景区景点连成线，形成片，以尽快将资源优势转化为产品优势和经济优势。', '突出重点项目、突出重点区域，发挥资源优势，把加快精品景区景点建设当作发展吉安旅游的重中之重，大力发展红色旅游、生态旅游、休闲旅游，努力形成一批“人无我有，人优我特”的旅游产品。在井冈山上，继续做大做精红色旅游，开发、完善绿色旅游产品，以“红色吸引人，绿色留住人，情景感染人”，积极创建世界文化与自然双遗产，打造“生态井冈、红色摇篮”旅游品牌，推进产业升级；山下加快青原山、武功山景区和中心城区及其周边的吉州窑、白鹭洲书院、文天祥纪念馆、古村等项目的规划和改扩建，积极创建一批国家4A级景区和全国工农业旅游示范点。通过制订优惠政策，大力招商引资，吸引更多的民资和外资投入古村文化旅游、健康休闲、娱乐购物等项目开发，形成投资主体多元化的格局，改变吉安中心城区旅游产品外界知名度低、市场化程度低和“游客不落吉安城”的现状，使吉安逐步成为有较高知名度、配套设施齐全并具有庐陵文化、千古名人特色品牌形象的旅游目的地、集散地。旅游是个系统工程，必须每年确立几个重点，坚持数年才能形成规模、叫响品牌、确立地位，才能打造出吉安旅游核心竞争力。', '注重旅游“吃、住、行、游、购、娱”六要素协调发展，不断优化产业发展结构，延伸产业链条。改变旅游购物“短腿”现状，会同有关部门，组织赴外地学习考察，提高产品设计能力，生产一批具有文化底蕴和地方特色的旅游商品（纪念品）；加强旅游购物点建设，合理规划，在景区、宾馆建立购物点，在中心城区建立旅游购物中心；通过招商引资、招贤引智来解决旅游商品（纪念品）设计、生产、销售过程中的资金短缺、人才不足等问题。', '重点瞄准高速公路、铁路沿线节点以及航空目的地的大中城市开展促销，国内巩固湘粤浙沪等传统客源市场，积极拓展西南、东北、东南、中原等新兴市场，境外继续扩大港澳市场，努力开发台湾、韩日等入境旅游市场；通过央视等高端媒体和重点旅游客源地媒体广告发布、参加旅交会、组织外出促销、办好旅游网站、在航线飞机上发布旅游宣传资讯等多种形式，提高宣传促销的时效性和针对性，加强对旅游整体形象和旅游产品的宣传和促销，塑造大井冈旅游品牌；积极倡导和参与区域旅游资源整合，加强与周边城市的联系与合作，联手打造黄金旅游线路。', '政府及有关部门积极协调引导，把理顺体制、搞活机制、增强企业竞争力作为加快吉安旅游经济发展的立足点和着眼点，推进资源整合，通过建立规范化的现代企业制度和完善的法人治理结构，使我市现有的景区、旅游企业真正建立起有效的决策机制，科学严格的管理机制，充满活力的运行机制和卓有成效的竞争机制，尽快培养一批旅游骨干企业。同时，加快对外开放，积极引进一批国内外知名旅游企业与我市相关企业进行嫁接和重组，在引进资金的同时，引进先进的管理理念与运作模式，提升吉安旅游企业的整体实力和管理水平。', '牢固树立人力资源是旅游业发展第一资源的观念，大力推进人才战略。培养旅游人才既是发展吉安大旅游的客观需要，也是实现吉安富民战略的现实选择。在引进外来人才的同时，大力加强自身人才的培养。通过外出学习，行业内部培训，以及充分利用井冈山大学等现有高校和部分职校、中专拥有旅游专业这一教育资源优势，以多种形式加快人才的培养，造就一批懂经营、会管理的高中级旅游人才队伍，努力把各专业教学点建成旅游业的人才培训和输出基地。', '1、进一步确立旅游产业的重要地位。围绕打造人民群众满意的现代服务业目标，编制出台特色餐饮、健康服务行业规范和标准体系，指导服务业规范、快速发展。进一步认识旅游业的重要地位和作用，重视旅游业不能停留在口头上和文件上，各级党委、政府要切实将旅游业作为一项大有潜力的产业加以培育，特别是青原、安福、吉安县、吉水等县区要象考核工业进园区项目那样考核旅游项目，制订优惠政策，切实将旅游业作为本地的支柱性产业加以扶持发展。', '2、加快培育市场主体。组建旅游发展公司，整合大井冈旅游业多形态的优质资产，采取产权联盟、经营权联盟等市场手段，搭建融资平台，逐步组建以资产为纽带、以资本运营为手段、以优势企业为内核的市场化、产业化的旅游企业集团，逐步把他们培育成为具有竞争实力的市场主体，并积极创造条件，力争早日实现企业上市，努力打造能引导产业发展的大型旅游龙头。', '3、加大对旅游宣传促销经费的投入。建议市财政对旅游宣传促销的投入每年不少于500万元，并适财力增长逐年增加，在做好全市整体形象和中心城区旅游宣传的同时，给予县（区）以一定的支持。建议各县（区）财政也要将旅游宣传促销经费作为经常项目纳入财政预算，青原、安福、吉安县等重点县区每年安排专项促销费不低于300万元，以加大对地方旅游产品和形象的宣传。', '4、加大对旅游业的投入和扶持。我市县区普遍财力紧张，对旅游大额投入力不从心。建议市政府设立全市旅游发展专项资金，每年不低于1000万元。资金使用方向主要是用于重点景区项目的规划、旅游配套设施的建设、旅游商品纪念品开发和旅游发展奖励（主要以贴息、以奖代拨等方式予以扶持和引导）。对旅行社吸引市外、境内游客来中心城区及周边景区景点旅游达到一定规模以上部分给予奖励；对组织招揽全国性展会和会议给予奖励，对连续举办三次以上具有全国性、国际性影响品牌展会的会展企业和单位，经认定给予一次性补贴。资金设立专门帐户，专款专用，由市旅游工作领导小组负责管理，分管市领导负责审批，市旅游局负责具体实施，市财政局、审计局负责监督。', '5、给予旅游招商足够的优惠政策。修改完善《关于加快发展服务业的若干意见》，给予鼓励旅游业发展实实在在的优惠。当前，要认真贯彻吉发〔2009〕12号文件精神，全面落实有关土地、税收、金融等方面的扶持政策，对涉旅企业在用水、用电、用油等方面给予优惠，营造良好的发展环境。对3000万元以上旅游招商项目视同进园区项目，给予同等的奖励和优惠政策；鼓励投资兴办大型旅游业项目，对于符合政府发展导向、投资额超亿元以上的旅游项目，采取“一事一议”的方法给予相关优惠政策。研究解决汤湖温泉、武功山温泉山庄等景区加大投入，扩大规模所面临的土地指标、所征土地拆迁难等问题。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>125</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>井冈山市</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2012-02-17</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10217202.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['\u200b根据《中华人民共和国政府信息公开条例》（以下简称《条例》）有关规定，特向社会公布《井冈山市201', '年度政府信息公开工作年度报告》。本报告由概述、主动公开政府信息情况、依申请公开政府信息情况、政府信息公开的收费及减免情况、因政府信息公开申请行政复议和提起行政诉讼的情况、政府信息公开工作存在的主要问题及改进情况等六个部分组成。', '年，在吉安市委、市政府正确领导下，我市以科学发展观为指导，积极落实国家、省、吉安市政府信息公开工作的有关要求，进一步加强对政府信息公开工作的领导，强化工作措施，突出工作重点，全力推进政府信息公开各项工作。', '据市领导和各乡镇领导的变化情况，及时调整了政府信息公开工作领导小组组成人员，为信息公开提供了有力的组织保障。同时，各单位也根据今年的人事变动情况及时调整了本单位政府信息公开工作领导机构，并做好了信息公开工作的传帮带工作，确保了政府信息公开工作的顺利开展。', '结合政府信息公开工作实际和需求，我们根据中央、省、吉安市关于政府信息公开工作的相关规定，建立健全了信息的报送、反馈机制,规范了信息报送的流程。加强对各单位信息公开的考核督查，将信息公开工作纳入了各部门、单位年终和机关效能、“创业服务年”的考评范围，全年组织专项督查2次，每月定期通报，有力地推进了政府信息公开的及时性、有效性，并加大了对假公开、敷衍塞责等行为的责任追究。', '为进一步推进我市电子政务应用建设，提高政务工作透明度，增强政府部门服务和监管能力，提高政府信息公开和为民服务水平，促进政府由“管理型”向“服务型”转变，我市', '网站栏目设置以服务人民群众为中心，整合资源，突出政府服务社会的功能，以新闻动态、信息公开、公众互动、在线服务为主要框架，对内容进行了丰富和更新。', '由政府信息公开、领导之窗、政策法规、规划计划、统计信息、财政公开、行政收费、政府采购、应急管理、民生工程、人事信息、重要信息、工程建筑等十三个栏目构成。通过', '，广大市民和企业既能及时了解政府的大政方针和工作动态，又能向政府反映情况，提出建议。', '》，将应公开的政府信息全面公开，严格遵循保密规定，严禁将涉及国家秘密、商业秘密和个人隐私及其他按规定不宜或不能公开的政府信息对外公开。建立健全政府信息公开审查审批制度，对拟对外公开的政府信息，按照《', '按照“以公开为原则，不公开为例外”的原则，我市各地、各单位妥善处理公开与保密的关系，在信息公开的数量、质量和形式等方面有一定的提高，较好地满足了群众对政府信息的需求。截至201', '开的载体形式，除以政府网站为第一平台和主渠道，全部在网上政府信息专栏上发布外，对一些关系百姓切身利益的重要民生类信息，还通过政务公告栏、新闻媒体等方式，多途径、多渠道、多手段、多层次、全方位向社会公开。同时，各乡镇、部门、单位能按照《条例》精神和相关规定，积极主动公开相关政府信息，信息的时效性增强。', '我市2011年度我市未发生针对本单位有关政府信息公开事务的行政复议案，行政诉讼，收到各类针对本单位政府信息公开事务有关的申诉案（包括信访、举控）。', '全市从事政府信息公开工作的专（兼）职人员为85人，平均每个乡镇人民政府和每个部门从事政府信息公开工作有1名专（兼）职人员。', '个别单位和领导对政府信息公开工作认识还不到位，还不够重视，对政府信息公开工作不能及时总结、分析工作经验和存在问题，工作计划性不够；', '认真学习中央和省、地区关于政府信息公开建设要求，深刻领会精神实质；积极参加上级有关部门组织的讲座、学习、考察和业务培训活动，不断提高自身的业务素质；', '开展多种形式的宣传活动，让更多的人了解政府信息公开的重要性和实质性，提高群众参与意识', '加强政府信息公开和依申请政府信息公开工作，规范信息公开的程序和方法，与业务工作形成有效衔接。对机构职能、规范性文件、工作制度、工作动态等方面的政府信息按照工作流程进行公开，接受社会和公众的监督，做到公开事项如变更、撤销或终止，及时公布并作出说明。', '对机构职能、规范性文件、工作制度、工作动态等方面的政府信息按照工作流程进行公开，接受社会和公众的监督，做到公开事项如变更、撤销或终止，及时公布并作出说明。', '将《条例》列为各地、各部门创造学习型机关的必读内容，实行集中学习和个人自学相结合，明确学习目标、任务和要求；利用通知、网络等方式，加大对做好政府信息公开工作的意义的宣传，进一步提升了做好政府信息公开工作的自觉性。', '针对性操作培训，取得了良好效果。同时，在鼓励信息员自学和传帮带的基础上，利用下乡检查工作等机会，进行专门辅导培训，使得政府信息公开工作得到有效的提高。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>125</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>年吉安市政府工作报告</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2010-02-06</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10184188.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府，向大会作工作报告，请予审议，并请各位政协委员和列席会议的同志提出意见。', '2009年是经济发展最为困难的一年，也是全市上下主动作为、化危为机、逆境突破的一年。面对金融危机的严峻挑战，在市委的坚强领导下，我们以胡锦涛总书记视察吉安为强大动力，认真贯彻落实“三保一弘扬”总体要求，深入实施“主攻项目、决战两区”战略，圆满完成了市二届人大五次会议提出的目标任务。这一年，全市经济实现逆势上扬。全年实现地区生产总值584.11亿元，增长13.7%；财政总收入64.36亿元，增长20.3%，财政支出128亿元，增长27.7%，税收占财政总收入的比重上升至80.5%；固定资产投资589亿元，增长43.4%；财政总收入和地方财政收入、规模工业主营收入和实现利税、固定资产投资、外贸出口、城镇居民人均可支配收入和农民人均纯收入等主要经济指标均提前完成“十一五”规划目标。这一年，一大批打基础、增后劲的项目落地开工，尤其是全市人民期盼已久的华能井冈山电厂二期工程建成发电，总装机容量达到192万千瓦；衡茶吉铁路、峡江水利枢纽、石虎塘航电枢纽、泉南高速吉安段全面开工，发展后劲不断增强。这一年，城市面貌发生显著变化，中心城区井冈山大道二期工程建成通车，“一城三区、两江三岸”的城市框架业已形成，一批完善城市功能、提升城市品质的重点城建项目相继开工。创建国家园林城市通过考查有 望获批，创建省级卫生城市通过复核，创建省级文明城市工作先进城市有望获得。这一年，全市群众得到更多实惠。市县两级投入民生资金达26.6亿元，增长34.3%，省政府下达的100个民生指标全面完成。888个新农村建设试点村和20个综合示范点建设任务均已完成，村容村貌发生明显变化。城镇居民人均可支配收入14095元，增长9.5%；农民人均纯收入5018元，增长8.2%。', '（一）有效应对危机挑战，经济增长保持良好势头。针对金融危机带来的严重冲击，我们超前谋划，积极应对，创优投资环境，鼓励投资创业，引导产业发展。全力开展企业帮扶，市县组成172个工作组，帮助企业解决生产经营难题，共为园区企业招工5.26万人，免费培训员工6.5万人，落实融资40亿元，企业家信心指数、企业景气指数和工业用电量逐季提升。全市电网最高负荷达55.1万千瓦，工业用电量增长10.6%；主营收入过亿元的企业达145户，比 上年新增27户，经济效益综合指数达到274%，再创历史新高。全力主攻重大项目，各地、各部门抢抓国家政策机遇，主动积极争资 争项，争取中央和省项目资金17.77亿元，占全省总份额的13.7%。市重点调度的155项重点工程加快推进，成为拉动经济发展的强力“引擎”。全力扩大对外开放，先后组织两轮“百日招商”，实施项目推进“双百会战”，工业、城建、农业及旅游招商均有收获，井开区与深圳南山、泰和与浙江温岭、新干与广东花都、永新与台湾彰化对接出现新气象。全市实际引进内资129.8亿元，增长22.4%，引进亿元以上工业项目82个，进资增幅列全省第一；实际利用外资3.45亿美元，增长16.7%，先后有8家外资企业追加投资3000万美元；外贸出口4.42亿美元，增长65.2%。', '（二）扎实推进决战“两区”，新型工业化和新型城镇化互动并进。园区建设方面，吉泰工业走廊建设取得实质进展，105国道“二改一”全面开工，吉安至厦门、吉安至深圳实现海铁联运，无水港建设加快推进，电镀集控中心落户开工，省级电子信息产业基地、进出口机械电子产品安全检测中心先后 挂牌，服务配套功能不断完善。全市工业园区在“逆水”中前行，井开区被列为国家科技兴贸创新基地和国家风电设备产业化基地，进入全省一类园区，吉安、泰和两县工业园区进入全省二类园区；全市园区基础设施再投入40亿元，标准厂房开建近100万平方米；中泰电子一期、红板一期等重大工业项目建成投产，新干120万吨联碱、永丰400万吨旋窑水泥等项目建设进展顺利；园区完成工业增加值180亿元，上交税金27亿元，分别增长20.8%和21.6%；产业集优集群发展势头强劲，电子信息和医药化工两大产业主营收入迈上百亿元台阶，冶金机械产业主营收入超过200亿元。城区建设方面，我们抓住规划、建设、经营、管理等关键环节，城市总体规划和市域城镇体系规划完成修编报批。中心城区商业网点、公路交通、中小学教育布局等一批专项规划完成编制，近期建设区段控制性详规全覆盖。乡镇总体规划和2517个行政村规划编制全面完成。全市启动实施城建重点工程211项，完成投资45.9亿元，其中中心城区完成投资20亿元，项目数量之多、投资力度之大创历史之最。新禾埠大桥、石阳路改造、正气广场、井冈山大道及阳明路街景整治等工程全面完工，市文化艺术中心、市民中心公园、庐陵文化生态公园等项目加快推进，中心城区新增园林绿地200万平方米，全市城镇化率比上年提升2个百分点。吉安县有望获批国家园林县城，吉水、泰和、安福争创省级园林城市通过考察有望获得，安福、吉水获批省级卫生城市。吉安市和吉安县、吉水县被评为全省推进新型城镇化和城市建设工作先进市县。全省新型城镇化和城市建设现场会在我市成功召开。', '（三）不断夯实“三农”基础，农业经济持续发展。按照统筹城乡发展的要求，我们坚持以新农村建设和产业化经营为抓手，全面落实惠农政策，“三农”工作创特色、出亮点。农业经济稳步增长，全市粮食总产373.3万吨，增长3.7%，创历史新高；全年生猪出栏334万头，肉牛出栏40万头，家禽出笼6100万羽，分别增长10%、9%和9%；蔬菜生产总面积129万亩，增长3.4%；特种水产品产量5.2万吨，增长10%，农业生产走上规模化、专业化轨道。农业产业化成效明显，新干正邦和金佳谷物、吉州思倍得生猪屠宰、泰和和泰肉牛加工、吉水金田米业、遂川新大地茶油等一批农业龙头项目建成投产，全市农业龙头企业达到202家，其中国家级1家、省级38家；全市新增农民专业合作社438家，累计达到775家；创“中国名牌产品”、“中国驰名商标”各1个，国家“绿标”116个。农业产业化经营形成了规模扩大、领域延伸、链条拉长的新格局。新农村建设顺利推进，全市筹资1.61亿元，完成改路1755公里、改水3.34万户、改厕3.13万户，试点村生活垃圾处理率达80%；农村公路及渡改桥工作走在全省前列；油茶、楠木、茶叶等新兴富民产业加快发展，吉安、遂川、安福、永丰、峡江、新干6县列为全国现代油茶建设示范县。全市随处可见规划有序、功能完善、环境优美、出行方便、富于特色的农家新村。农业综合生产能力得到提升，中央规划内32座病险水库除险加固完成年度任务，改造中低产田13.75万亩，解决25.57万人安全饮水问题。造林绿化“一大四小”工程建设加快推进，全市投资11.8亿元，再造林137万亩，被评为全省第一名，吉州区和吉水、泰和、吉安县被评为全省先进县。全省造林绿化“一大四小”现场会、农村公路暨渡改桥现场会、病险水库除险加固现场会、民族地区“一村一品”现场会先后在我市成功召开。', '（四）着力培植增长亮点，经济结构进一步优化。坚持把调优结构作为保增长、促发展的根本途径，大力发展现代服务业，努力培植新的经济增长点。加快发展旅游产业，积极整合全市旅游资源，加快景区景点建设，认真调查研究，出台了《关于进一步加快旅游产业发展建设旅游大市的若干意见》，先后在北京、上海、香港等地成功举办了系列旅游推介，以井冈山为龙头的红色旅游品牌进一步打响，全市接待游客1236万人次，旅游总收入74.1亿元，井冈山门票收入突破1亿元，“红、绿、古”三色辉映的旅游发展态势进一步形成。积极培育商贸物流业，安排启动和规划准备一批市场项目，城南钢材市场、工程机械市场开工建设，广场商城、农产品物流中心、城南商业街区等相继推出招商或规划，城市商贸功能布局得到加强；新干箱包市场竣工，有望培育成全国区域生产集散基地。进一步扶持物流企业做强做大，全市货运物流业税收增长65.4%。井冈山机场年旅客发送量达10.6万人次。狠抓房地产业健康发展，年初出台《支持房地产业健康发展意见》，促进房地产市场逐步回暖转旺，全市房地产开发投资增长14.1%；保障性住房建设走在全省前列，全市建成经济适用房2010套、廉租房5020套，改造农村危房3080户，一大批中低收入家庭喜迁新居。努力扩张农村消费需求，加快推进“万村千乡”市场工程，扎实开展农机、家电、汽车下乡，农村消费增长18.8%。全年实现社会消费品零售总额171亿元，增长19%。', '（五）努力推进改革创新，有效破解发展难题。把保增长与促改革、添活力有机结合起来，先后赴西安、延安、合肥、柳州、长治、长沙、湘潭、萍乡、宜春等地学习考察，进一步解放思想，创新发展举措。积极推进园区体制创新，对井开区外部授权、内部明责，形成区内的事区内办、封闭式管理、开放式运行的新管理体制；按照多予少取、放权放活原则，理顺了吉州、青原工业园区管理体制，促进井开区和两区工业园发展焕发新的生机与活力。大力推进金融学习创新，针对项目建设的资金瓶颈，加快金融创新，组建了市金融工作办公室和七大政府投融资公司，市城投公司在不到6个月内成功发行15亿元城投债券，新庐陵公司为各县市区提供融资贷款13.4亿元，市担保公司为94家企业融资担保4.81亿元。吉安县、泰和县、井冈山市成功引进村镇银行和商业银行驻点。全市新增融资135.5亿元，比上年增长226%，直接用于城镇建设资金达54.3亿元。顺利推进国企改革，全面完成99户国有工业企业改制，安置职工53742人，化解金融机构不良资产32.05亿元，提前5个月完成6户列入省考核的国有工业企业改制工作。稳妥推进征地拆迁，在广大市民的大力支持下，全年新征建设用地8627亩，清理闲置土地1282亩；完成拆迁60.27万平方米，其中中心城区拆迁42万平方米，建成安置房10.1万平方米，确保了重点项目顺利实施。此外，全市事业单位岗位设置全部到位，中心城区环卫体制改革出台并加快推进。', '（六）深入实施民生工程，积极为民办好实事。坚持把民生工程摆在政府工作的重中之重，着力解决了一批关涉群众切身利益的热点难点问题。年初确定的“10件为民实事”全面完成，中心城区建成经适房9.3万平方米、廉租房3.25万平方米，井冈山大道二期全线通车，市图书馆主体工程竣工，100条背街小巷改造全部完工，竹笋巷农贸市场、青原农贸综合市场开工建设，12个县市区污水处理设施全部建成，完成通村水泥路1537公里，建成140个试点村垃圾处理工程，完成525个20户以上已通电自然村广播电视“村村通”工程，完成移民扶贫搬迁13799人。大力扶持就业再就业，广泛开展了“农民工返乡就业创业服务月”等系列活动，全市城镇新增就业7.09万人，城镇登记失业率3.14%；新增转移农村劳动力9.28万人。狠抓社保扩面征缴，城镇职工养老保险参保人数47.88万人，农村社会养老保险1.24万人，城镇职工基本医疗保险参保人数60万人，城镇居民基本医疗保险、新型农村合作医疗保险实现全覆盖。新农合资金使用率达到96.2%。加大弱势群体救助力度，重点提高城乡低保对象、农村五保、城镇“三无”人员、精减退职老职工等四类困难群体的补助标准，全面开展城乡 低保整治，全市共清退农村低保对象“人情保”5376户、1.23万人，新增保障对象5519户、1.22万人。扎实推进生态建养和环境保护，井冈山、遂川获得省级生态县称号，全市化学需氧量减排2508吨，二氧化硫减排6850吨，中心城区环境空气达到二级标准以上，赣江吉安段水质达到国家Ⅲ类标准以上，饮用水源水质达标率100%，显现出“天更蓝、山更绿、水更清”的如画景象。', '（七）统筹发展各项事业，社会保持和谐稳定。教育事业得到新发展，井冈山职业技术学院获省政府批复，中小学教育网点布局进一步优化，新吉安一中、新白鹭洲中学、吉安师范附属学校、特殊教育学校等四所学校和市中心医院城南分院向新区布点启动建设，全市完成189所中小学共20余万平方米校舍新建和改造任务。科技创新取得突破，全市获批64项国家和省级科技项目，6个科技项目获全省科技进步奖，获奖数列全省设区市之首；天人集团“松材线虫防治技术”获国家科技进步二等奖，为我市建国以来科技最高奖项。井冈山农业科技园即将获批国家级农业科技园。文体事业不断繁荣，全市53个乡镇综合文化站建设基本完成，611家农家书屋建成开放，农村文化“三项活动”深入开展，涌现了大型采茶戏《角色》等一批文艺创作精品，4幅作品入选全国美展，入选作品数量全省第一。市体育馆工程竣工使用，市第三届运动会成功举办。广播电视事业有新的进展，专题片《解放吉安》获全国纪念新中国成立六十周年突出贡献奖。卫生事业持续进步，公共卫生体系建设有效加强，甲型流感等疫情得到有效防控；市中心医院获全国医药卫生系统先进集体、晋升国家三级甲等综合医院，保健大楼建成使用；“光明·微笑”工程超额完成省下达任务，荣获全省先进市。民宗、统计、档案工作成效显著，市政府被国务院评为全国民族团结进步模范集体和全国第二次经济普查先进集体，市档案馆晋升国家二级馆。人口计生工作采取有力措施取得实际效果，农村妇女“双学双比”扎实开展。邮政通讯取得新的成绩，吉安“无线城市”建设进程加快。国防动员、民兵预备役、征兵、双拥、人民防空、国家安全工作得到加强，审计监察、外事侨务、对台事务、海关、检验检疫、公积金、粮食、供销、决策咨询、质监药监、气象水文、新闻出版等工作迈出新步伐，妇女、儿童、老龄、残疾人等事业进一步发展。安全生产形势总体平稳，社会治安综合治理和信访维稳扎实有效，全市社会和谐稳定。', '（八）大力改进政风行风，政府自身建设得到加强。扎实开展深入学习实践科学发展观活动，广泛征求各方面意见，积极加强政府自身建设，建立完善了《市政府工作规则》、《政府重点工程投资评审管理暂行办法》、《市政府政务督查工作规则》等规章制度。建立重大事项向市委专报请示，向人大、政协通报，向社会新闻发布制度，完善市民听证咨询和民主评议制度，推进了政府决策民主化、科学化。全年共办理人大代表建议167件、政协提案225件，满意和基本满意率达100%。加强政务信息公开工作，全年公布政务信息11万条。加强“四中心一平台”惩防体系建设，进一步规范了行政服务中心和公共资源交易中心管理，让行政权力在阳光下运行。深入开展工程建设领域突出问题专项治理，强化政府投资工程监管，市投资评审办审核项目145批次7.42亿元，核减1.03亿元，核减率达13.5%。完善市长直通电话、市长信箱、市长手机、行政投诉、行风热线等平台建设和办理制度，全年受理群众来电来信19613件，办结率98%。扎实开展“机关效能年”活动，深入推进行政审批“两集中两到位”改革，精简市级行政许可项目217项、市级投资审批项目50项，精简率分别为52.3%和56.4%、办理时限压缩38%，发展环境进一步优化。出台并严格执行《关于压缩行政成本的规定》，机关厉行节约取得明显成效，行政会议、公车购置运行、公务接待等经费下降17%。', '回顾一年来的工作，我们在市委的正确领导下，主要把握了以下几点：一是始终坚持主攻项目、决战“两区”。坚持以重大项目为主抓手、以园区和城区为主战场，紧抓项目建设不动摇，咬住扩大投资不放松，用一个个大项目来推动“两区”发展，有力地推进了新型工业化和新型城镇化进程，有效带动了全市经济社会发展。实践充分证明，市委确立的“主攻项目、决战两区”发展战略，完全符合吉安实际，抓住了吉安发展的主要矛盾，必须一以贯之地坚持下去。二是始终坚持改革创新、攻坚破难。针对发展的瓶颈制约，全市上下在困难面前不退缩，坚持以改革创新的办法破解难题，随着融资、拆迁、国企改革等难关的有效突破，一批想干而无力干的事项得到了落实，一些想推而推不动的项目得到了推进。实践证明，只要我们始终保持改革创新、攻坚破难的勇气，不断解放思想、善于学习，就一定能有效破解发展中的各种矛盾和问题，取得一个又一个胜利。三是始终坚持着力当前、统筹长远。一年来，我们坚持统筹兼顾的发展理念，既立足当前，注重抓好现阶段重点工作，全力解决当前保增长、保民生、保稳定等最紧迫、最现实的问题，又着眼长远，谋划和推进了一批事关全局的战略性工作，狠抓了一批产业项目的培植和专项规划、产业规划的编制完善，研究出台了一系列管长远的政策措施，为吉安科学发展打下坚实基础。四是始终坚持埋头苦干、不事张扬。一年来，各地各部门以深入学习实践科学发展观活动为契机，进一步加强思想和作风建设，始终保持“静悄悄急行军”的良好态势。各县市区开拓进取、埋头苦干、危中求进，县域经济快速发展；各市直部门善谋实干、主动履职、积极作为，各行各业捷报频传。全市上下到处呈现齐心协力、昂扬向上、扎实苦干、奋勇争先的良好氛围，这既是一年来各项工作取得突出成绩的重要保证，也是我们今后更好更快发展的宝贵经验。', '各位代表，刚刚过去的一年，成绩来之不易，充分说明我们应对危机的措施是积极务实有效的，达成了保增长保民生保稳定的目标任务。这是党中央、国务院关心关爱的结果，是省委、省政府和市委正确领导的结果，是全市上下合力共为、团结奋斗，企业迎难而上，社会各界支持帮助的结果。回顾一年来的工作，我们尤其感念市人大和人大代表的依法监督与大力支持，感念市政协和政协委员的民主监督与建言献策，感念各民主党派和各界人士的热情参与和相助。在此，我代表市人民政府，向各位人大代表、政协委员，向奋斗在各条战线的全市广大干部群众，向离退休老同志，向各民主党派、工商联、无党派人士、各人民团体，向驻吉人民解放军和武警官兵、公安干警，向中央和省驻吉单位，向所有关心、支持和参与吉安建设的海内外朋友，表示衷心的感谢并致以崇高的敬意！', '各位代表，刚刚过去的一年，我们也深深感到吉安经济社会发展中还存在不少困难和问题：一是欠发达的市情并未根本改变，经济总量和财力偏小，优势骨干企业还不多，重特大型项目还没有取得突破，综合经济实力依然不强。二是城镇化水平仍然偏低，城乡二元结构较为突出，中心城区功能不够完善，人气、商气不旺，以消费为基础的经济增长内生动力明显不足。三是农村基础设施仍然薄弱，农技推广等现代农业服务体系还不完善，农业产业化水平和农业经济效益还不高，农民持续增收的压力仍然较大。四是社会保障的能力和水平依然不高，尤其是失地农民保障政策及措施还不完备，改善民生和解决群众合理诉求的任务还十分艰巨。五是政府职能转变还不能完全适应发展的需要，改革创新和破解难题的能力离党和人民群众的要求还有距离，政务环境和行政效能还需要进一步优化和提升。对此，我们将始终保持清醒头脑，采取更加有力措施，认真加以解决。', '2010年是“十一五”规划的收关之年，也是吉安撤地设市十周年，更是吉安赶超发展极为重要的一年。从发展形势看，当前我国经济稳步回升的态势已经确立，世界经济也出现了回暖迹象，为我们加快发展提供了良好的外部环境；国家继续实行积极的财政政策和适度宽松的货币政策，为我市主攻项目、扩大投入提供了良机；国家强力推进区域经济发展，尤其是我省《鄱阳湖生态经济区规划》上升为国家战略，为我们决战“两区”、主动承接辐射带动，加快融入新一轮产业调整布局提供了广阔空间；我市近年来实施的一大批重大基础设施和产业项目，为我们加速崛起奠定了良好基础；更为重要的是，我市的发展战略得到全市上下高度认同，各级干部经过大量的探索实践，推动科学发展、破解发展难题的本领不断增强，全市上下合力共为、苦干实干的氛围已经形成，必将对吉安的进位赶超、跨越发展产生巨大的推动作用。', '我们也要清醒地看到，国际金融危机的影响在短期内还很难消除，我国经济复苏的基础还不稳固，保持经济平稳较快发展的难度还很大；尤其在这一轮经济波动中，全省各地抢抓机遇、竞相发展的势头更加强劲，赶超发展的压力更趋激烈。我们务必充分认识发展中的困难和问题，进一步增强加快发展的危机感、紧迫感和责任感，倍加珍惜来之不易的良好发展局面，坚持好思路，完善好举措，保持好势头，全力以赴促进经济社会更好更快发展，千方百计加快进位赶超，努力开创吉安跨越发展新局面。', '今年，政府工作的总体要求是：以科学发展观为指导，以“三保一弘扬”为统领，积极策应鄱阳湖生态经济区发展战略，坚持“两个略高于”发展不动摇，坚持主攻项目、决战“两区”不动摇，把保增长、扩内需、调结构、促改革、惠民生结合起来，更加注重统筹城乡发展，更加注重统筹经济社会发展，更加注重统筹当前与长远发展，更加注重统筹改革、发展和稳定，推动全市经济社会进位赶超、跨越发展。按照上述要求，综合考虑各方面因素，2010年全市经济社会发展主要预期目标是：生产总值增长12%，其中规模工业增加值增长20%；财政总收入增长16%；固定资产投资增长35%；社会消费品零售总额增长18%；外贸出口增长10%；实际引进市外资金增长10%，实际利用外资增长10%；城镇居民人均可支配收入增长9%，农民人均纯收入增长8%；居民消费价格总水平涨幅控制在3%以内；城镇登记失业率控制在4%以内；人口自然增长率控制在7.8‰以内；单位GDP综合能耗下降2.2%，化学需氧量和二氧化硫排放量分别下降1.4%和5.6%。为实现上述目标，主要抓好以下工作：', '（一）以吉泰工业走廊为核心，推动“决战园区”再上新水平。坚定不移地实施“决战园区”战略，以建设吉泰工业走廊为核心、以井开区为龙头，推动工业经济跨越发展。', '加快吉泰工业走廊建设。集中力量抓好走廊规划的研究论证。加强走廊区域基础设施和服务平台建设，加快推进105国道“二改一”工程，推进电信和公交一体化，确保上半年开通中心城区至泰和、吉水公交线路；抓紧做好井开区设立出口加工区和升级为国家级经济技术开发区工作，全面启动吉安现代物流园和电子元器件专业市场建设；进一步细化产业规划及政策扶持措施，引导走廊内“三县三区”重点围绕电子信息、生物医药两大产业，加大产业招商及配套企业引进力度，努力将吉泰工业走廊打造成为全国重要的电子信息产业基地。推进园区大投入、大建设、大发展。继续举全市之力推动井开区加快发展，重点围绕井开区升级，完成46.5平方公里规划编制，抓好水、电、路、气及中央商务区等专项规划，争取深圳南山区支持，加快深圳产业园建设。启动跨铁路5000亩土地的征地拆迁，实施总投入10亿元以上的路网建设等基础工程，加快园区商场、学校、医院、住宅小区等生活性配套设施，以及 物流园、标准厂房等生产性配套设施建设，确保年内井开区规模工业实现主营收入150亿元、财政收入增长30%以上。同时，积极引导各县区工业园进一步完善园区规划，加快完善基础设施及配套服务，加强园区土地节约集约利用和闲置土地清理，力争每个园区重点培育1-2个主导产业、5-10户重点企业，打造一批主业突出、特色鲜明、配套完善的产业园区。', '实施“双百双十”工程，促进产业优化升级。围绕2011年工业产值过千亿目标，在全市启动“双百双十”工程，打造百亿优势产业和百亿工业园区，培育收入十亿企业和市场，不断做大经济规模，调优产业结构。全力壮大支柱产业，加大对电子信息、医药化工、食品加工等六大支柱产业的扶持力度，拓展产业规模、延伸产业链条、提升产业层次；同时，坚持引进高新技术产业，积极改造传统产业，加快培育光伏材料、半导体照明等战略性新兴产业，不断构筑产业新优势。积极实施品牌战略，争创驰名、著名商标。全力做强骨干企业，继续落实保企业的各项政策措施，加强对重点企业的调度帮扶，协助一批骨干企业制订三年发展目标规划，促其尽快做大做强，力争全年主营业务收入过亿元企业达到160户以上。全力推进重大项目，组织开展工业、商贸重点项目建设年活动，年内重点抓好中泰电子、麦德风能等129个增长点项目的达产达标，杰彼新能源、满坤科技、安昌铝业等150个在建亿元以上项目的竣工投产，中信华电子等一批工业和商贸签约项目的开工建设，切实提高项目的资金到位率、竣工投产率和税收贡献率。', '（二）以中心城区和县城为主战场，推动“决战城区”再上新台阶。积极策应国家重点发展中小城市和小城镇的政策机遇，继续以中心城区和县市城区为主战场，紧扣规划、建设、经营、管理四个方面，全力破解投入、征地、拆迁、监管四大难题，进一步加大“决战城区”力度。', '努力完善提升城镇规划。启动编制《吉安市中心城市群总体规划》，配套推进吉泰走廊城镇建设，加快走廊沿线人口向城镇聚集，努力构建“三区三县”各具特色城镇群，逐步将吉泰工业走廊打造成推进新型工业化、新型城镇化和城乡一体化、体制机制创新试验区。同时，抓紧编制中心城区和各县市控制性详规，补充完善供电、供水、供气、公交等基础设施，以及商业网点、学校、医院等公共服务专项规划，不断完善规划体系。', '高标准推进城镇建设。按照基础设施优先、社会事业优先、民生需求优先、聚集人气优先、绿色环保优先原则，以更高的标准、更大的投入，加快城镇建设步伐。中心城区全力推进城南新区和滨江新区建设，继续完善路网等市政基础工程，加速启动一批社会事业、公共服务、商贸市场、商业楼宇、房产开发等功能性、经营性项目。确保建成航校新机场、市民中心公园、庐陵文化生态公园一期、环湖路等项目，开工建设市博物馆与城市展示馆、吉州大道南延二期等项目，抓紧启动新井冈山大桥等工程。在老城区继续实施以白改黑、管网改造、街景改造、棚户区改造四位一体的改造工程，完成青原大道、吉州大道、跃进路、华能大道等城市道路和污水管网改造；启动马铺前、宝华楼、樟脑厂、砖瓦厂等棚户区改造77.7万平方米；抓好青原大道、吉州大道、韶山路、鹭洲路街景整治，努力营造优美宜居环境。建设一批公厕、垃圾中转站等便民项目，努力完善城区功能。在推进中心城区建设中，继续加大筹资力度，组织好新一轮征地拆迁，为项目建设提供有力保障。县城建设按照强化功能、提升品位的要求，注重推进路网工程、垃圾处理、公园绿地等市政基础项目，合理规划建设图书馆、文化馆、体育场馆及学校、医院、商贸市场等公共设施，不断增强县城集聚产业、吸引人气、聚集商气的承载力。小城镇建设着力抓好列入省重点的14个镇的规划建设，努力探索实践，突出解决规划标准低、建设档次低、市政配套差、为农服务业弱等问题，努力打造成全市小城镇建设的示范样板。其他乡镇以乡镇规范化建设为抓手，加强乡镇规划，加快小城镇供水、路网改造和环境整治，不断增强小城镇为农服务的能力。', '全面提升城管水平。继续深入推进“三城同创”，组织实施中心城区环卫体制改革，建立健全清扫、保洁、监督三支队伍，推进环卫保洁作业重心下移，实现市场化、全覆盖。创新城市管理手段，探索建立负责任、全天候城市监督管理以及数字城管，提升城管实时监测和动态控制能力。注重物业管理市场培育与监管，提升小区物业管理水平。', '努力扩张城镇规模。实施城镇人口倍增计划，抓紧研究制订中心城区和县市城镇人口十年倍增实施办法，出台鼓励外来人口落户中心城区及县市城镇的激励政策。全面放宽城镇户籍限制，对外来落户人口给予就业、就学、就医、就居同等政策，统一纳入城镇创业培训、就业指导和社会保障体系，吸纳更多农业人口和高素质人才在城镇就业落户，确保全市城镇化率提高1.6个百分点。', '（三）继续抓好“三农”工作，夯实经济发展基础。坚持把“三农”工作摆在重中之重，加强农业基础建设，加快农业产业化进程，促进农业增效、农民增收、农村和谐。', '加快农业产业化进程。全面落实国家惠农政策，稳定粮食生产，调优粮食品种结构，重点抓好粮食高产创建万亩示范片和“百万超级稻”工程建设；继续壮大草食畜禽、特种水产等农业主导产业，力争肉牛出栏增长8%、特种水产品增长10%；突出培育油茶、蜜柚等新兴富民产业，组织实施好100万亩高产油茶林基地建设项目，推进井冈蜜柚产业“百千万”工程；注重规划发展城郊蔬菜基地，努力培育一批蔬菜种植专业户、专业村，补充调剂市区蔬菜供应。继续以农业产业化“五大行动”为抓手，着力引进、扶持一批带动力强的龙头企业，培育支持一批农民专业合作社，推进优势农产品生产标准化、经营规模化、产品高效化，带动农民持续增收。', '扎实推进新农村建设。市财政配套安排1358万元支持新农村建设，重点抓好823个试点村和第二轮综合示范点创建工作。以中心城区和县城城郊及工业园区周边村为重点，打造城郊经济型新农村建设试点圈；以交通干线沿线为重点，打造连点成线的新农村建设示范带；以乡镇驻地村、集镇和旅游景区为重点，打造整村推进型新农村建设试点片。加紧完善村庄规划，继续抓好“三清三改”、“五通一气”、“三绿化一处理”工程，探索建立“户集、村收、镇运、县处理”的乡村垃圾无害化集中处理运行机制，切实改善村庄环境。大力推进农村社区建设，力争每个重点乡镇都有一个新农村社区示范点。', '完善农业服务体系。健全农村公共信息服务网络，建立市本级突发公共事件应急流动气象台，完善吉安市防灾减灾预警主叫服务系统。高度关注基层农技推广体系“线断、网破、人散”状况，探索采取“三定向”方式培养或聘用农技人员充实基层。切实加强产前、产中、产后服务。大力推广农业机械化，力争耕种收综合机械化率达到30%以上。充分发挥供销社在农村现代流通的作用，进一步完善县市区农资物流配送中心。', '（四）坚持推动项目建设，强力扩大有效投入。坚持把抓项目、扩投资作为经济发展的核心，继续保持主攻项目的强劲态势，全力推进一批市重点项目，以大项目带动大投入，大投入拉动大发展。', '千方百计争取项目。认真把握国家投资的重点和取向，围绕国家确定的投资领域，抓紧重大项目包装、论证，做好政策、项目、资金对接落实，力争在国家投资的总盘子中占有更大份额。同时，着眼于对接融入“十二五”规划和鄱阳湖生态经济区，重点围绕我市“四大基地”优势主导产业、农业基础设施、旅游、生态环保、民生需求，谋划一批重大项目，加强项目生成储备，争取挤进国家和省中长期发展规划，为吉安经济社会发展增添后劲。', '全力以赴推进项目建设。重新筛选一批事关经济社会长远发展的重大项目，完善项目推进和监管机制，不断加快项目建设步伐。交通方面：重点推进衡茶吉铁路及文茶联络线工程、泉南高速石城至吉安段工程、吉安至莲花高速建设，抓好京九电气化改造，力促开工建设昌吉赣铁路客运专线和抚州至吉安、厦坪至睦村高速公路，大力推进衡茶吉东延吉安至建宁至武夷山铁路、井冈山至赣州铁路、105国道环城和绕城高速等项目前期工作，启动实施井冈山机场、吉安火车站改扩建工程，抓好迎国检线路105、319国道、抚八线、吉福路等路面大中修工程及青原至东固公路改造工程。完成通村水泥路1200公里、农村渡改桥22座，全面实现村村通公路，全面完成渡改桥任务。能源方面：重点加快峡江水利枢纽、石虎塘航电枢纽等工程建设，推进万安核电工程和井冈山梯级电站、华能井冈山电厂三期工程前期工作；抓好以5座220千伏、6座110千伏输变电站为骨干，吉泰走廊电网、井冈山市电网、井开区电网建设改造为重点，总投资14亿元的电网改造，打造一流电力网络。农林水利方面：着力抓好吉安市大型商品粮生产基地续建项目，全面完成中央规划内的83座病险水库除险加固任务，抓好永丰、吉水、安福3个小型农田水利重点县建设，加快建设中心城区堤防工程。社会事业方面：确保建成文化艺术中心等项目，启动建设广电传媒中心、奥林匹克公园等项目，抓紧实施中小学校舍安全工程和农村卫生服务体系建设工程，加快中心城区4所新校区、1所新医院建设步伐。', '多元融资保障项目。完善政府七大投融资公司的经营管理制度，健全投融资公司“借、管、用、还”机制，促进国有资产保值增值，提升可持续投融资发展能力。加快信用体系建设，优化金融生态环境，防范化解金融风险。创新政银企合作方式，积极引进境内外金融机构在我市驻点，争取金融机构更多的信贷支持。积极与央企开展BT合作，加大争取世行、亚行贷款力度。加强企业上市的政策扶持与业务辅导，加快天人生态、普正药业等企业上市融资步伐。进一步鼓励和扩大民间资本进入市政公用事业、基础设施、社会事业和现代服务业等领域。', '（五）加快发展现代服务业，全力扩大消费需求。抓住国家扩大内需特别是增加居民消费需求的机遇，适应产业发展需求，大力发展现代服务业，不断提升服务业对经济增长的贡献率。', '继续做强旅游产业。加快景区景点开发，按照建设旅游大市的要求，重点抓好井冈山茨坪、茅坪、领袖峰等景点改造工程，推进武功山金顶景区整体开发等项目建设，加大东井冈、万安湖、武功湖等旅游资源开发力度，挖掘开发渼陂、钓源为代表的庐陵文化和青原山为代表的宗教文化旅游产品，全力构建以井冈山为龙头的大井冈旅游经济圈。完善旅游宾招服务设施，中心城区和井冈山力争启动建设3个五星级酒店，其他县区启动建设一批三星级以上酒店，努力实现游在吉安、留在吉安的目标。强化旅游宣传推介，切实加大旅游宣传推介力度，继续举办井冈山红色旅游文化节，着力提升吉安“横江葡萄节”、泰和“乌鸡节”、新干“箱包节”等节庆活动水平，精心打造一批精品旅游线路，积极研发推出一批旅游商品，提升吉安旅游的吸引力、影响力。整合旅游经营性优质资产，推动井冈山旅游上市，加强山上山下资源互动共享，引进大型旅游龙头企业参与开发建设，促进全市旅游总人数和总收入再上新台阶。', '大力发展商贸物流业。以开拓城乡市场、服务生产生活、扩大居民消费为重点，加快构建安全、便捷、畅通、高效的商贸流通体系。围绕扩大城市消费，科学规划商业网点，重视建设物流园区，大力发展物流配送、连锁经营等新型业态，引进中端以上商家入驻吉安，加快推进城南钢材市场、九天商厦、农产品物流中心、城北汽车市场、广场高端商城等一批市场建设项目，提升城区商业水平。围绕促进农村消费，继续推进“万村千乡市场工程”和乡镇商贸“六个一”工程，全面落实家电下乡、农机下乡、汽车摩托车下乡政策，拉动农村消费市场。积极培育新兴服务业。大力发展文化产业，制定出台文化产业发展规划和扶持政策，鼓励发展演艺、娱乐、影视等文化产业，满足市民精神文化需求。大力发展会展经济，加快梨坪国际会议中心建设，适时启动中心城区会展中心项目，积极组织吸引一批会展商来我市举办会展，推动会展业加快发展。积极培育总部经济、楼宇经济，高标准规划总部经济发展区，研究出台促进总部经济发展的扶持政策，吸引一批企业总部或区域总部落户我市。同时，支持TD和3G移动通信系统的建设运营，加快推进广电网、电信网和互联网三网融合。', '（六）深化改革开放，激发经济发展动力和活力。坚定不移地推进改革开放，加快重要领域和关键环节改革步伐，拓展开放广度和深度，为全市加速发展、进位赶超提供强大动力。纵深推进各项改革。继续推进国企改革。在做好国有工业企业改制后续工作的同时，着力抓好商贸、粮食、建设等非工国有企业的改制工作，确保企业改制顺利完成。有序推进政府机构改革。以转变职能为核心，全面完成市县机构改革任务；以完善乡镇便民服务体系为重点，进一步深化乡镇机构改革，力争３年内基本完成；以健全人事、职称和分配“三项制度”为目标，大力推进事业单位分类改革。稳妥推进医药卫生体制改革。加强基本医疗保障制度建设，将国有关、改、破和困难企业职工纳入基本医疗保障，确保城镇职工医保、居民医保实现全覆盖；逐步提高城镇职工医保、城镇居民医保和新农合政策范围内的门诊及住院费用报销比例，提升基本医疗保障水平；在全市所有中心卫生院实施国家基本药物制度试点，有效缓解群众“看病难、看病贵”问题。积极推进文化体制改革。制定文化体制改革方案和配套措施，加快文化事业单位改制步伐，大力培育文化市场主体，推动文化事业繁荣发展。此外，还要积极探索社会管理创新。', '全面扩大对外开放。策应国际经济格局和产业分工新一轮调整，进一步提升对外开放的能力，拓展对外开放领域，依托大开放，促进大发展。进一步加大招商安商力度。继续配强专业招商队伍，加大产业招商力度，重点围绕电子信息、医药化工、先进制造、新能源等产业，积极引进一批投资规模大、科技含量高、经济效益好、环境污染少的大项目、好项目；积极靠大联强，加强与央企对接，争取引进一批央企落户。同时，着眼完善产业配套，围绕主导产业、支柱企业，着力引进上游供应产品、下游终端产品制造企业，重点抓紧引进电子信息产业急需配套的精密机械加工企业，鼓励已落户的核心龙头企业及时引进相关配套企业，推进产业链条式延伸，实现企业集群式发展。整合培训资源，大力实施“蓝领培训”计划，推行人力资源“订单培训”，为项目入驻和企业发展解决技术工人不足问题。进一步扩大外贸出口。充分运用出口退税、外贸发展资金等政策措施，加大对出口企业的扶持力度；支持企业转变外贸发展方式，扩大机电、高新技术和自主品牌 产品出口比重，确保出口总额持续强劲增长。', '加快发展民营经济。充分落实激活创业的政策措施，加大对民营经济的扶持力度，保护民间投资合法权益。大力培育创业文化，引导鼓励大中专毕业生、转业退伍军人及下岗工人自主创业，农村基层干部群众致富创业，外出务工人员返乡创业，科技人员兴办实体创业，努力营造全民创业的良好环境，推进民营经济发展扩规模、提速度、上水平。', '（七）着力建养生态，切实增强资源环境承载能力。坚持把绿色生态放在重要位置，大力发展低碳经济，推进节能减排，创建生态园林城市，努力打造资源节约型、环境友好型社会。', '积极策应鄱阳湖生态经济区建设。在功能区划、发展规划、产业培植和生态建设上，积极对接鄱阳湖生态经济区建设，突出发展低碳与生态经济，努力打造以生态农业、绿色生态家园、绿色产品、新型工业、新型能源、现代服务业和生态工业园为支撑的“低碳吉安”，跟进鄱阳湖生态经济区的发展步伐。', '大力推进节能减排。鼓励发展循环经济，大力提升废物资源化和再生资源回收利用水平，突出抓好火力发电、冶炼等重点耗能行业的节能降耗，加快淘汰落后生产能力，加大公共机构节能力度，全面完成省政府下达的节能任务。突出抓好造纸、盐化、电镀、金属冶炼等重点行业和赣江等重要水系两岸企业的污染防治，切实提高企业环保准入门槛，特别是城市上游园区、水资源地、城市用水取水口地区的环保标准，加大环保执法力度，确保全市水环境质量保持国家Ⅲ类以上标准，饮用水源达标率100%，使吉安的天更蓝、水更清。', '抓好城乡园林绿化。围绕构建生态园林城市，继续加大中心城区和城镇园林绿化力度，将森林引进城市，大幅增加城镇绿化面积，提升绿化品位。积极开展赣江吉安段生态示范带建设工作，继续抓好环境优美乡镇及生态示范村创建活动。打好造林绿化“一大四小”工程建设三年攻坚战，抓好交通干线可视范围内、交接线绿化和楠木上山、樟树护村、油茶富民、新农村绿化样板工程，使吉安的山更青、地更绿。', '始终把改善民生、促进民富放在首位，让广大群众在发展中得到更多实惠，不断增强群众的幸福感，提高社会的和谐度。', '千方百计推进民生工程。抓好就业再就业工作，全面落实积极的就业政策，整合“金蓝领工程”、“阳光工程”、“雨露计划”等各类资金，搞好就业创业培训，重点解决好返乡农民工、高校毕业生等群体的就业问题，力争政府公益性购岗6000个以上，确保全年新增城镇就业4.5万人以上。提升社会保障水平，加大社保扩面征缴工作力度，重点抓好新型农村养老保险试点和企业职工养老保险工作，建立完善失地农民保障机制。实施好“蓝天计划”，启动吉安儿童福利院和老年公寓建设。完善社会救助体系，继续提高补助水平，将中心城区城市低保标准提高到275元、农村低保标准提高到110元，将医疗救助最高封顶线提高至３万元。改善群众生产生活条件，合理引导房地产业，加大普通商品住房供应，推进房地产健康发展；继续抓好保障性住房建设，开展廉租房共有产权管理试点，全市建成经济适用房1002套、廉租房5524套；组织实施好农村危房改造工程；继续实施移民扶贫、农村安全饮水、农村沼气等工程，重视抓好峡江水利枢纽移民工作，完成１万名移民扶贫搬迁任务，解决21万农村人口安全饮水问题，新增农村沼气用户1.6万户。优先发展城市公交，抓紧做好中心城区公交规划，开工建设公交总站，筹建城北汽车站，启动长途汽车站迁建工程；合理布局公交网络，科学设定站点，完善公交站牌，新辟和延长公交线路，改善广大市民出行条件。', '千方百计发展社会事业。按照全面协调可持续发展的要求，在加快推进经济建设的同时，大力发展各项社会事业。促进教育均衡发展，加强学前和义务教育管理，切实解决好困难家庭子女上学问题；加大中小学标准化建设力度，每个县市重点抓好一所中学的标准化建设，不断改善办学条件，提升教育质量；抓紧编制全市职业技术教育规划，加快推进井冈山职业技术学院建设，努力促进职业教育发展。推进科技体制创新，重视引进人才，构筑人才高地。大力实施科技创新“六个一”工程，主攻一批高新技术产业，培育一批创新型企业，申报一批国家和省重大科技项目，建立一批重点研发平台，办好一批技术开发与产业化特色基地，组建一批优势科技创新团队。完善公共卫生体系，健全农村三级医疗卫生体系，抓紧筹建市医疗急救指挥中心，继续实施“光明·微笑”工程，加强甲型流感等重点传染病的防控工作，加强社区卫生机构和医院规划布点建设。全面繁荣文体事业，继续抓好广播电视村村通、农村文化三项活动、乡镇综合文化站建设、信息资源共享、非物质文化遗产保护等文化广电惠民工程，新增广播电视“村村通”自然村640个，组织开展系列文化艺术活动；推进社区体育健身场所和幼儿玩乐场所建设，广泛开展全民健身活动，积极备战全省第十三届运动会。切实抓好计生工作，以“四项手术”为突破口，稳定低生育水平，加大出生人口性别比综合治理力度，确保完成省政府下达的人口控制计划。同时，重视全民国防教育，扎实推进国防后备力量建设，抓好统计、物价、人防、民族宗教、外事侨务、涉台事务、档案方志等工作，促进各项事业全面进步。', '千方百计维护社会稳定。高度重视安全生产，严格落实安全生产责任制，进一步强化重点行业、重点领域、重点场所的安全监管，坚决杜绝重特大安全事故的发生；切实加强森林防火和消防安全工作，坚决遏制重特大火灾的发生。加强食品药品质量监管，提高食品药品安全综合监管能力，杜绝重大食品药品安全事故发生。认真做好信访工作，严格落实信访工作责任制，深入做好矛盾纠纷排查调处，进一步加强和改进新形势下的群众工作和信访工作；坚持和完善领导干部大接访制度，切实把矛盾解决在基层，消除在萌芽状态。办好市长手机、市长信箱、市长直通电话，畅通诉求渠道。强化社会治安综合治理，提高社会治安防控能力，推进“天网”工程建设，加大严打整治力度；加强应急管理工作，健全社会预警体系和应急机制，不断提高应对各类突发事件和保障公共安全的能力，确保社会平安稳定。', '完成今年的目标任务，实现吉安进位赶超、跨越发展，对政府工作提出了新的更高要求。我们要着力加强政府自身建设，努力提高、改进政府工作能力和工作作风，努力建设“为民、务实、高效、廉洁”政府。', '（一）牢记宗旨，努力建设情系百姓的为民政府。坚持以人为本，执政为民。倡导各级政府从群众反映最强烈的问题抓起，从群众最企盼的事情做起，从柴米油盐、衣食住行、入学就业、求医问药、助老托幼、扶残助弱等方面入手，尽心竭力办好事、办实事。特别是在推进经济发展中，更多地关注民计民生；在加快城市建设中，更多地考虑利民为民；在强化社会管理时，更多地体现人文关怀。对事关经济社会发展全局的重大事项，深入调查研究，广泛征询群众意见，做到问政于民；对群众日常生活和切身利益密切相关的社会事项，实行社会公示和听政制度，做到听政于民；继续抓好政务信息公开和新闻发布，办好“政风行风热线”，保障公民的知情权、表达权、参与权和监督权，做到议政于民。', '（二）善谋实干，努力建设创新求进的务实政府。着眼于破解难题、突破瓶颈，加强现代金融知识、经济政策、创新手段和先进经验等方 面的学习研究，进一步解放思想，锐意改革，努力探索发展新理念、新方法。倡导精细、务实的工作作风，主动深入条件艰苦、矛盾集中的一线了解情况，更多地现场办公解决问题、推动工作，坚决杜绝作风漂浮、脱离群众、麻木不仁等现象。进一步精简会议、文电，改进会风、文风，真正把心思用在干事业上，把精力放到抓发展上。进一步强化目标责任考核，以目标倒逼进度，以督查倒逼落实，确保市委的决策部署落到实处，努力在全市形成察实情、干实事、求实效、狠抓落实的浓厚氛围。', '（三）提升效能，努力建设勤政快捷的高效政府。积极转变政府职能，将各级行政机关的工作重点转移到为市场主体服务和创优发展环境上来，着力解决影响行政效能的突出问题。扎实开展“创业服务年”活动，全面落实《关于创优发展环境的实施意见》，为企业发展和全民创业营造宽松环境。深化行政审批制度改革，年内建成网上审批及电子监察系统，实现审批提速、服务提效。完善行政服务中心和乡镇便民服务中心建设，为企业、客商、群众提供更加便捷的办事服务平台。加强部门协作和效能问责，加快各项工作及各重点项目的推进，坚决克服推诿扯皮、各自为政现象，坚决查处损害经济发展环境的典型案件，倾力打造一流的发展环境。', '(四)从严治政，努力建设风清气正的廉洁政府。把依法行政贯穿政府决策、执行、监督的全过程，严格按照法定权限和程序履行职责。健全公众参与、专家论证和政府决策相结合的科学民主决策机制，规范政府重大决策行为。认真接受市人大的法律监督、工作监督和市政协的民主监督，全力办理人大代表建议和政协提案；主动听取各民主党派、工商联、无党派人士和各人民团体意见，自觉接受新闻媒体和社会公众监督。认真落实政府部门党风廉政建设责任制，坚持重大事项报告制度、行政问责制度，继续完善“四中心一平台”建设，规范行政权力运行，建立健全源头预防和治理腐败体系。切实加强对项目资金及工程建设的监督，探索推行政府投资项目代建制，确保重点工程成为优质工程、廉洁工程。坚持艰苦奋斗、厉行节约，倡导勤俭办一切事情，节约办一切活动，将有限财力更多投向民生社会事业。加大行政监察和审计监督力度，严肃查处违法违纪行为，坚决纠正损害群众利益的不正之风。', '各位代表，吉安作为革命老区，曾为中国革命做出过巨大贡献和牺牲，在这块土地上工作的各级干部身负加快地方发展、加快百姓致富的沉甸甸责任。让我们在市委的坚强领导下，大力弘扬井冈山精神，不辜负党的重托、人民的期盼，肩负起任务使命，振奋精神、顽强拼搏，为建设科学发展新吉安、绿色发展新吉安、和谐发展新吉安而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>125</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>关于印发吉安市县级人民政府年度教育工作督导评估情况通报的通知</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2009-03-03</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-10190063.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['吉安市人民政府 市政府办公室文件 关于印发吉安市县级人民政府2008年度教育工作督导评估情况通报的通知', '根据省政府《关于建立对县级人民政府教育工作督导评估制度的实施意见》（赣府发[2004]28号）精神，市政府教育督导室组织对县（市、区）人民政府2008年度教育工作进行了督导评估。现将《吉安市县级人民政府2008年度教育工作督导评估情况通报》印发给你们，请认真对照检查，积极进行整改，确保全市教育工作再上新水平。', '根据省人民政府《关于建立对县级人民政府教育工作督导评估制度的实施意见》（赣府发[2004]28号）和市人民政府办公室《关于开展对县级人民政府2008年度教育工作督导评估的通知》要求，市政府教育督导室组织四个评估组于2008年12月8日至12日对全市13个县（市、区）人民政府2008年度教育工作进行了督导评估。评估组在认真听取各县（市、区）人民政府汇报的基础上，抽查了相关职能部门、乡镇人民政府和学校，查阅了有关资料，核对了相关数据。评估工作深入细致，程序合乎要求，结果真实可信。现将督导评估情况综合通报如下：', '、各县（市、区）认真实施“科教兴国”战略，把教育放在优先发展地位，将教育事业发展纳入国民经济和社会发展总体规划，按照年度教育工作计划科学合理调整教育布局，强化学校建设。吉州区积极应对中心城区的开发建设，着力调整教育布局，新建城南小学，改造农村学校面貌；青原区将完善学校基础建设和设施纳入“打造靓丽新城区、高效新园区、特色新景区”的城区建设总体规划，扩大青原山中学和大桥小学规模;安福县调整农村教育网点，制定了全县中小学三年校建计划；吉安县将教育工作列入“民心工程、德政工程”，新建城北学校、特教学校和高塘小学；吉水县投资770万元收购民办文武专修学院建设一所初中学校；峡江县在县城新建一所初中学校，将全县107所中小学调整为72所；新干县投资上亿元建设新干中学和实验小学发展壮大基础教育规模；永丰县专门在县城南段划拨了67亩土地，投资2100万元新建实验学校缓解城区学校大班额现象；井冈山市为优化整合一市三地的高中教育资源，在新城区投资8000万元建设实验高中；泰和、遂川、万安和永新等县政府也在积极调整教育规划布局、撤并农村教育网点和努力改造薄弱学校等方面，办了许多实事好事，解决了许多难点和重点问题。', '、各县（市、区）落实教育责任，优化教育环境。为加大对乡镇政府教育工作督导评估工作力度，县级政府将考评结果纳入对乡镇政府年度目标综合考核内容，吉州、青原、遂川和万安等县、区教育工作在综合考评中所占分值均在5%以上。为强化各职能部门充分履行教育工作职责，各县（市、区）开展了对职能部门履职情况的考核，吉安县专门下文明确有关职能部门的教育工作职责。为加强学校安全工作，各县（市、区）组织相关部门开展了学校及周边环境综合治理工作，对食堂卫生、网吧和饮食摊点等进行了全面清理整顿，一年来全市学校未发生校园内重大安全责任事故。为优化教育发展环境，各县（市、区）规范对学校的检查，明文禁止“五乱”现象，保证学校正常的教育教学秩序。为切实解决学校困难、强化学校硬件建设，各县（市、区）通过改造薄弱学校，抓好校建工程等举措改变学校面貌。青原区为解决学校师生食堂差、洗澡难问题，启动了“两堂”建设工程；新干县对校舍进行维修改造，实施了“穿衣戴帽”工程。为建设高素质的教师队伍，新干等县实施“名师”工程，落实“名师”津贴；为浓厚“尊师重教”氛围，永新、青原等县、区召开了四套班子成员参加的规模大、规格高的第二十四届教师节庆祝表彰大会；万安县专门从县财政拿出10万元组织优秀和边远山区教学点教师外出学习考察；', '、各县（市、区）政府为完善教育督导机制，健全了督导机构，聘请了专、兼职督学和特约教育督导员，开展了对乡镇政府教育工作、中小学学年度办学水平和阳光体育运动督导评估活动。为取得人大、政协和社会各界对教育工作的关心和支持，各县（市、区）政府坚持向人大专题报告教育工作和教育经费情况制度，邀请人大代表、政协委员到学校视察。为落实好人大代表和政协委员的建议提案，县级教育行政部门及相关单位高度重视，认真组织调研，切实解决问题，全心全意办好人民满意的教育。', '、各县（市、区）健全完善教育经费管理体制，做到教育经费由县级财政统筹，并全额纳入县级财政预算，义务教育经费实行单列，优先安排。2007年度超收的财力都以高于年初预算比例用于教育。2008年度绝大部分县（市、区）教育经费已经全部下拨教育部门使用；全市“校财局管”体制基本得到落实，有11个县（市、区）成立了由县级教育行政部门管理的教育会计核算中心，并且运行正常，达到了教育经费规范管理的目的。', '、教育经费实现了法定增长。各县（市、区）义务教育财政拨款的增长均高出财政经常性收入增长比例的1.5%，义务教育阶段在校学生年生均教育事业费初中和小学均有增长。生均公用经费达到了省定标准。各县（市、区）重视推进教育民生工程，义务教育阶段贫困寄宿生生活补助、贫困家庭高中生补助、贫困大学生补助和中职学生补助等民生工程款项都能按上级下达的指标做到及时足额发放到位。', '县（市、区）政府根据本县经济状况，出台了6000元至8200元不等的教师津补贴发放标准，达到了当地公务员的平均水平。县级财政能按规定比例缴纳教师医疗保险、职工养老保险。除个别县财政在住房公积金的配套上没有达到规定的最低限额外，其他县（市、区）均按月工资5%以上由县财政给予了安排。各县（市、区）本级财政在2008年度均安排了边远山区教师的补助津贴，并已发放到位。', '、各县（市、区）通过加大教育投入，积极筹措经费，改善办学条件。一是上级安排的转移支付资金用于教育经费做到了优先保证，大部分县（市、区）30%以上用于了学校校舍建设，其中安福县达73%，吉水县达69.6%，井冈山市达60%，远远超过规定比例。需要县级财政配套的各种专项资金，大部分县（市、区）都能从本级财政预算中进行安排，并做到了专款专用。二是各县（市、区）加大了教育税费的征收力度，2008年与2007年相比，“三税”教育附加的征收比例和总额都有所提高；大部分县（市、区）城市维护建设税用于教育的比例达到10%以上，吉水等县还开通了征收地方教育费附加政策。三是各县（市、区）积极争取上级项目建设资金和社会捐助改善办学条件。新干、永新、泰和、遂川和井冈山等县、市还出台了鼓励捐资助学的奖励办法。', '、各县（市、区）根据国家和省、市政府发展职业教育有关精神，出台了一系列支持和鼓励政策。一是做好县域内职业教育发展的谋篇布局，壮大职业教育发展规模。吉水县在工业园区划拨了150多', '土地，前期投资近千万元建设职教中心；永丰、永新县政府把发展职业教育作为年度重点工作予以落实，出资收购民办教育机构办县职业学校；遂川、泰和、青原等地以租用场地、与其他中专学校联合办学等模式扩大职业教育规模。二是优化整合职教培训资源，更新职业学校的办学理念。吉州区充分利用中心城区的区位优势，将吉安市中等专业学校、区技工学校和区职业教育中心合署办学，充分体现了政府重视和发展职业教育的决心；吉安县利用华亿职业教育集团的办学优势，将民办职业教育和工业园区的建设相结合，力求双赢；青原区做强武术和文艺等民办学校的优势专业，打造富有特色的民办职业教育品牌。三是各县（市、区）政府加大了对职业教育的扶持力度，通过政府投资、社会力量办学和利用外资联办等不同模式，涌现了一批在质量和规模等方面都提升较快的学校和专业。目前大部分县（市、区）均设立了职业学校或职教中心，一批公、民办职业学校已经初具规模并形成办学特色。', '、各县（市、区）为发展职业教育，采取加大职业教育宣传力度、实行春秋两季招生和对未完成职业教育招生计划的学校实行“一票否决”等措施积极扩大职业教育的招生规模，提高职普比例。2008年全市计划招生18000人，实际完成招生16902人，完成招生计划的 93.9 %，与2007年相比，全市各县（市、区）职业学校招生数量普遍有所增加，职业学校招生人数与普通高中招生人数比达到33.8：66.2，接近全省职普比例 。', '、个别县（市、区）对乡镇政府年度教育工作督导评估落实不够到位，对乡镇政府年度综合考评教育工作所占分值不到5%。', '、大部分县（市、区）城区学校普遍存在不同程度的大班额现象，个别地方甚至存在超大班额现象。', '、部分县（市、区）未将非义务教育阶段学校和一些教育专项经费纳入教育会计核算中心管理。个别县（市、区）没有按照要求成立教育会计核算中心。', '、部分县（市、区）“三税”教育附加没有做到足额征收；城市维护建设税用于教育部分没有达到10%以上；“三税”教育附加的30%没有按规定用于发展职业教育。', '、部分县（市、区）税改教育转移支付资金没有按规定的30%用于校舍建设，个别县还将教育的专项经费（如教育税费、转移支付资金）用于顶抵县财政应安排的专项配套资金。', '、部分县（市、区）没有完成2008年度职业教育招生计划，职普比例较低。少数县（市、区）未举办公办的职业教育中心或职业学校。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>125</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>吉安市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>江西省典当管理实施办法</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2009-07-10</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.jian.gov.cn/xxgk-show-211707.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['各设区市经贸委、公安局，省内各典当企业： 为进一步加强全省典当监管，促进辖区内典当业规范、有序、健康发展，根据《公司法》、《行政许可法》和《典当管理办法》、《典当行年审办法》等有关法律法规和商务部、公安部的有关工作要求，结合我省典当监管和典当经营的具体实际，特制定《江西省典当管理实施办法》。《江西省典当管理实施办法》已经省经贸委主任办公会议审议通过，并经省公安厅同意，现印发给你们，请遵照执行。 《江西省典当管理实施办法》正式实施后，省经贸委《关于进一步加强全省典当监管工作的通知》（赣经贸综合发[2006]120号）同时废止。', '第一章 总 则 第一条 为加强全省典当监管，促进辖区内典当业规范有序健康发展，根据《公司法》、《行政许可法》和《典当管理办法》、《典当行年审办法》等有关法律法规和商务部有关工作要求，制定本办法。 第二条 江西省经济贸易委员会（以下简称“省经贸委”）依据《典当管理办法》等法律法规，履行全省典当行的市场准入和退出、日常业务监管、指导行业自律组织等职责。 第三条 公安机关对典当业进行治安管理。 第四条 设区市经贸委受省经贸委委托，协助做好本辖区内典当监管的相关工作。', '第二章 设 立 第五条 新增设典当行按照商务部“统筹规划、合理布局、因地制宜、稳步发展”的原则进行，综合考虑经济总量、人口规模、现有户数及目前经营状况、市场潜在需求、分布情况等各方面因素。 第六条 申请设立典当行，应当具备下列条件： （一）有符合法律、法规规定的章程； （二）有符合《典当管理办法》第八条规定的最低限额注册资本； （三）有符合要求的营业场所和办理业务必需的设施； （四）有熟悉典当业务的经营管理人员及鉴定评估人员； （五）有两个以上法人股东，且法人股相对控股； （六）符合商务部规定的法人股东出资条件； （七）符合《典当管理办法》规定的治安管理要求； （八）符合商务部和省经贸委对典当行统筹规划、合理布局的要求。 第七条 典当行应当建立、健全以下安全制度： （一）收当、续当、赎当查验证件（照）制度； （二）当物查验、保管制度； （三）通缉协查核对制度； （四）可疑情况报告制度； （五）配备保安人员制度。 第八条 典当行房屋建筑和经营设施应当符合国家有关安全标准和消防管理规定，具备下列安全防范设施： （一）经营场所内设置录像设备的压缩格式为H.264或者MPEG-4,录像图像分辨率不低于4CIF（704×576）或者D1 (720×576）；保障视频录像实时（每秒不少于25帧），支持视频移动侦测功能；图像回放效果要求清晰、稳定、逼真，能够通过LAN、WAN或者互联网与计算机相连，实现远程监视、放像、备份及升级，回放图像水平分辨力不少于300TVL。（录像资料至少保存2个月）； （二）营业柜台设置防护设施； （三）设置符合安全要求的典当物品保管库房和保险箱（柜、库）； （四）设置报警装置； （五）门窗设置防护设施； （六）配备必要的消防设施及器材。 典当行房屋建筑和经营场所安全设施标准应当符合《银行营业场所风险等级和防护级别的规定》（中华人民共和国公共安全行业标准 GA38-2004）中规定的三级安全防护标准。 第九条 典当行法定代表人必须是董事长，不设董事长的应由执行董事担任，但必须是主要法人股东法定代表人或主要自然人股东。本着“谁开办、谁负责”的原则，新设立典当行必须由拟任法定代表人具体负责各项申报工作。 第十条 典当行法定代表人、管理人员及法人股东、自然人股东禁止同时在两个及以上典当行拥有股份。在原有典当行拥有股份的，退出时间达到1年（含）及以上，才能在新的典当行拥有股份。 第十一条 具备下列条件的典当行可以申请设立分支机构： （一）经营典当业务三年以上，注册资本不少于人民币1500万元； （二）最近两年连续盈利； （三）最近两年无违法违规经营记录。 第十二条 典当行应当对每个分支机构拨付不少于500万元的营运资金。 典当行各分支机构营运资金总额不得超过典当行注册资本的50%。 第十三条 申请设立典当行或分支机构，应向所在地设区市经贸委提交《典当管理办法》第十一条和第十四条规定的相关材料。具体材料清单由省经贸委根据商务部的要求，在当年度新增设典当行通知中明确。 第十四条 设区市经贸委收到申请人的相关材料后，可视情况采取适当方式向拟设立典当行所在地县（市、区）经贸委征询意见，并将书面意见存档备查。同时，按照商务部和省经贸委的有关要求进行初审。 第十五条 设区市经贸委对材料符合要求的拟设立典当行或分支机构，按申报的先后次序，向省经贸委提出拟新增设典当行或分支机构的申请报告。 第十六条 省经贸委对设区市经贸委上报的拟新增设典当行或分支机构名单及相关材料进行审核，根据当年度指标和日常业务监管情况，将拟设立典当行或分支机构的审核意见和相关材料报送商务部，商务部批准同意后颁发《典当经营许可证》。 第十七条 申请人领取《典当经营许可证》后，应当在10日内向所在地县级人民政府公安机关申请典当行《特种行业许可证》，并提供《典当管理办法》第十六条规定的材料。 第十八条 所在地县级人民政府公安机关受理后应当在10日内将申请材料及初步审核结果报设区市人民政府公安机关审核批准，设区市人民政府公安机关应当在10日内审核批准完毕。经批准的，颁发《特种行业许可证》。 设区市人民政府公安机关直接受理的申请，应当在20日内审核批准完毕。经批准的，颁发《特种行业许可证》。 设区市人民政府公安机关应当在发证后5日内将审核批准情况报省人民政府公安机关备案；省人民政府公安机关应当在5日内将有关情况通报同级商务主管部门。 第十九条 设区市人民政府公安机关向省人民政府公安机关报送下列备案材料： （一）《典当经营许可证》、《特种行业许可证》复印件； （二）法定代表人、个人股东和其他高级管理人员的简历及有效身份证件复印件； （三）法定代表人、个人股东和其他高级管理人员的户口所在地县级人民政府公安机关出具的无故意犯罪记录证明文件复印件； （四）典当行经营场所及保管库房平面图、建筑结构图； （五）录像设备、防护设施、保险箱（柜、库）及消防设施安装、设置位置分布图； （六）各项治安保卫、消防安全管理制度； （七）治安保卫组织或者治安保卫人员基本情况。 第二十条 新增设典当行必须在接到省经贸委书面通知或颁发《典当经营许可证》之日起六个月内开业，并提前将开业日期通知省、市经贸委。', '第三章 变 更 第二十一条 典当行变更以下事项之一的，经省经贸委审核同意后，报商务部批准： （一）分立、合并、跨设区市迁移住所； （二）对外转让股份累计达50%及以上； （三）变更后注册资本在5000万元及以上。 第二十二条 典当行变更以下事项之一的，由省经贸委批准，报商务部备案： （一）变更机构名称、法定代表人、在本市范围内变更住所； （二）对内转让股份及对外转让股份累计不到50%； （三）变更注册资本（变更后注册资本在5000万元以下）。 第二十三条 典当行变更部分股权，需向设区市经贸委提供以下材料： （一）变更申请报告； （二）股东会决议； （三）股权转让协议。如股权受让方为法人股东，应符合《典当管理办法》和商务部有关法人股东投资能力与投资资格的条件和要求，并提供受让股权的法人股东股东会出资决议、具有法定资格的会计师事务所出具的出资能力证明和审计报告，以及工商营业执照、机构代码证、税务登记证复印件、法人股东法定代表人身份证复印件。如股权受让方为自然人，应出具受让股权的自然人股东身份证复印件以及档案管理部门出具的简历、当地县级公安机关出具的无犯罪记录证明； （四）股权受让股东的出资承诺书； （五）修改后的典当行章程（全部内容，下同）。 第二十四条 典当行法定代表人变更，需向设区市经贸委提供以下材料： （一）变更申请报告； （二）股东会决议； （三）拟任法定代表人身份证复印件、档案管理部门出具的简历、当地县级公安部门出具的无犯罪记录证明； （四）《典当经营许可证》正、副本； （五）修改后的典当行章程。 第二十五条 典当行机构住所变更，需向设区市经贸委提供以下材料： （一）变更申请报告； （二）股东会决议； （三）符合要求的营业场所所有权或使用权的有效证明文件（承租或者拨付使用期限3年以上）复印件； （四）《典当经营许可证》正、副本； （五）修改后的典当行章程。 第二十六条 典当行注册资本变更，变更后必须符合《典当管理办法》注册资本最低限额的规定，且需向设区市经贸委提供以下材料： （一）变更申请报告； （二）股东会决议； （三）增资变更需提供银行出具的进账单复印件； （四）具有法定资格的会计师事务所出具的验资报告； （五）增资为新自然人出资的，应提供该股东的身份证复印件、档案管理机构出具的简历及当地县级公安部门出具的无犯罪记录证明。增资为法人股东出资的，应符合《典当管理办法》和商务部规定的相关条件和要求，并提供法人股东会出资决议、具有法定资格的会计师事务所出具的出资能力证明和审计报告，以及工商营业执照、机构代码证、税务登记证复印件、法人股东法定代表人身份证复印件； （六）《典当经营许可证》正、副本； （七）修改后的典当行章程。 第二十七条 典当行机构名称变更，需向设区市经贸委提供以下材料： （一）变更申请报告； （二）股东会决议； （三）工商行政管理机关核发的《企业名称预先核准通知书》复印件； （四）《典当经营许可证》正、副本； （五）修改后的典当行章程。 第二十八条 典当行同时变更股权和法定代表人，且法定代表人为新增股东（自然人股东或法人股东法定代表人），应先变更股权，再进行法定代表人变更，并按时间先后顺序分别形成股东会决议。 第二十九条 典当行涉及法定代表人和其他事项同时变更的，应先变更法定代表人，再进行其他事项变更，并按时间先后顺序分别形成股东会决议。 第三十条 设区市经贸委要对典当行提交的变更申请及相关材料进行认真审核，确保真实、规范、符合要求。并将典当行的所有变更材料连同《典当行（分支机构）备案登记事项变更表》一并报省经贸委。 第三十一条 典当行变更有关事项申请人领取《典当经营许可证》后，向所在地县级人民政府公安机关提供《典当管理办法》第十六条规定的有关材料，依照《典当管理办法》第十七条的有关规定申请换发《特种行业许可证》。 第三十二条 新设立时间不到一年和处于整改期间的典当行不进行任何事项的变更。相同事项连续两次变更的时间间隔原则上不少于一年。严禁擅自变更注册资金、机构住所、法定代表人、股本结构等，一经发现将提出严肃批评，并责令整改；再次发现擅自变更的，视为整改后仍不合格。 第三十三条 根据商务部的有关工作安排，省经贸委于每年6月和9月两次集中办理典当行的变更事项。', '第四章 经营规则 第三十四条 典当行只能在《典当经营许可证》规定的经营场所营业。典当行不得向其他组织、机构和经营场所派驻业务人员从事典当业务。 典当行不得经营《典当管理办法》第二十六条规定禁止的业务。 第三十五条 典当行的一切经营活动，必须严格遵守《典当管理办法》的规定，不得非法融资或变相集资吸储，不得对外投资，不得倒卖或变相倒卖经营《典当经营许可证》，不得参与洗钱和销赃等非法活动。 第三十六条 典当行应当依照国家法律和国家统一的会计制度，建立、健全财务会计制度和内部审计制度，真实记录并全面反映业务活动和财务状况，编制月度和年度财务会计报告。其中，年度财务会计报告须经具有法定资格的会计师事务所审计并作为典当年审材料。 第三十七条 按照《典当管理办法》和《商务部办公厅关于加强典当业监督核查和信息报送工作的通知》（商办建函〔2007〕34号）的要求，典当业实行信息季度报送制度，按季向省、市典当监管部门报送季度报表。具体报送要求见《转发商务部办公厅关于加强典当监督核查和信息报送工作的通知》（赣经贸综合发[2007]55号）。 第三十八条 典当行必须认真执行国家、省、市典当监管部门的工作要求，积极配合省、市典当监管部门依法组织的各种检查、年审以及旨在提高业务水平的学习培训、考察交流等工作。', '第五章 日常监管 第三十九条 设区市经贸委要指定和指派综合素质较强的科室和人员从事典当业务监管工作，并保持人员的相对稳定。 第四十条 设区市典当业务监管工作人员，要积极参加商务部和省经贸委组织的学习、考察和培训，认真学习《典当管理办法》，了解典当业务知识，熟练掌握典当行设立的基本条件、变更终止的相关规定、典当经营的业务范围和规则、监督管理的职责和要求。 第四十一条 设区市经贸委要建立定期检查和不定期抽查制度，原则上每季度至少抽查一次、每半年检查一次，及时掌握辖区内典当行的经营和财务管理情况，切实履行好典当监管职责，并将每次检查的结果于7日内上报省经贸委。对于辖区内典当行发生的盗抢、火灾、集资吸储及重大涉讼案件等情况，应当在24小时之内将有关情况报告省经贸委和当地人民政府，并通报同级公安机关。 第四十二条 设区市经贸委有责任和义务及时、全面落实和执行商务部、省经贸委的典当监管工作要求，配合省经贸委检查并处罚辖区内典当行的违法、违规行为，不得以任何理由拒绝和包庇。 第四十三条 省经贸委将单独或会同省有关部门，以明查或暗访的方式不定期对全省典当行进行业务检查。参照商务部的做法，检查的情况将与设区市典当行新增设工作相结合，同时作为典当行年审结论的重要依据。 第四十四条 典当行的从业人员应当持有有效身份证件；外国人及其他境外人员在典当行就业的，应当按照国家有关规定，取得外国人就业许可证书。 典当行不得雇佣不能提供前款所列证件的人员。 第四十五条 典当行应当如实记录、统计质押当物和当户信息，并按照所在地县级以上人民政府公安机关的要求报送备查。 第四十六条 典当行发现公安机关通报协查的人员或者赃物以及《典当管理办法》第二十七条所列其他财物的，应当立即向公安机关报告有关情况。 第四十七条 对属于赃物或者有赃物嫌疑的当物，公安机关应当依法予以扣押，并依照国家有关规定处理。', '第六章 年 审 第四十八条 凡正式开业且开展了业务的典当行，都必须参加当年度的年审。 第四十九条 典当行年审时间一般为次年1月1日开始，3月1日结束。具体时间由省经贸委根据实际情况在当年度年审通知中确定。各设区市经贸委和典当行要严格按照规定时间完成年审工作。 第五十条 典当行办理年审手续，需提交以下年审材料： （一）典当行年审报告书； （二）上年度的典当经营情况和当票使用情况； （三）具有法定资格的会计师事务所出具的年度财务会计报告（典当行及其分支机构应当合并报表）； （四）公司章程及本年度有关修改章程的决议； （五）《典当经营许可证》副本及营业执照副本复印件； （六）法人股东的工商营业执照副本、税务登记证（国税、地税）副本、组织机构代码证的复印件； （七）自然人股东、高级管理人员的身份证复印件； （八）需要提交的其他材料。 第五十一条 典当行办理年审手续，应同时报送电子文档和纸质文件年审材料。电子文档直接通过《全国典当行业管理信息系统》传输，纸质文件报送设区市经贸委（电子文档与纸质文件中相同栏目的内容必须一致）。 第五十二条 设区市经贸委对辖区典当行提供的年审材料，必须认真进行核实和审查，实事求是签署年审初审意见。设区市经贸委上报的年审材料不符合要求或者签署的年审初审意见不符合事实，由省经贸委在全省予以通报批评，并与新增设典当行工作相结合。 第五十三条 典当行年审的基本程序： （一）典当行通过《全国典当行业管理信息系统》报送年审材料电子数据，同时向设区市经贸委报送纸质文件； （二）设区市经贸委对典当行报送的纸质文件进行初审，出具本辖区典当行上年度年审报告和《典当行业经营情况汇总表》，连同典当行报送的纸质年审材料和本年度辖区典当业发展规划，一并报省经贸委。 （三）省经贸委对设区市经贸委报送的年审材料进行审核，根据《典当管理办法》、《典当行年审办法》和商务部的有关要求，并结合业务检查的情况，对典当行及其分支机构作出年审结论，按规定在《典当经营许可证》副本上加盖年审印章，并注明通过类型（A、B）； （四）省经贸委以纸质文件和电子文档两种方式，将上年度典当行年审报告和《典当行业经营情况汇总表》及《典当行业风险指标汇总表》，连同本年度典当业发展规划一并报商务部； （五）省经贸委返还通过年审的《典当经营许可证》副本。 第五十四条 年审期间，省经贸委可以结合具体问题，对有关情况进行调查、了解与核实，开展下列工作： （一）要求典当行提交补充材料或者其他有关证件； （二）要求典当行法定代表人或者相关人员说明有关情况； （三）责成有关部门或者人员到典当行进行调查核实。 第五十五条 典当行有违法违规行为，情节较轻、又尚未改正的，须待整改合格后方可通过年审。 第五十六条 需要整改的典当行，应当在规定期限内完成整改。整改期间，典当行及其分支机构不得开展除赎当以外的其他经营活动。 第五十七条 年审过程中发现典当行有下列情形之一者，不得通过年审，并收回《典当经营许可证》正、副本： （一）典当行严重违规设立（虚假出资、骗取审批）的； （二）有严重违法经营行为（包括吸收存款或者变相吸收存款、非法集资、发放信用贷款、故意收当赃物、强迫当户赎当且情节严重等）的； （三）接到省经贸委书面通知或领取《典当经营许可证》满6个月仍未开业，或者开业后自行停业连续达6个月以上的； （四）整改后仍不合格的； （五）拒不参加年审的； （六）商务部规定的其他情形。 第五十八条 典当行通过年审，分为A、B两种类型：A类为没有违法违规行为的典当行；B类为有违法违规行为，但情节较轻，经处罚已经改正的典当行。 第五十九条 典当行《特种行业许可证》实行年审制度，年审由原发证公安机关负责，时间为次年1月1日开始，至4月30日结束。年审内容：典当行上年度经营情况、遵守法律法规情况，自然人股东、高级管理人员遵守法律法规情况。典当行经审查合格的，给予办理年审手续；典当行有轻微违法违规行为，经过整改合格后，给予办理年审手续；典当行存在严重违法违规行为，经整改仍然不合格的，原发证公安机关应当不予年审，吊销其持有《特种行业许可证》，将有关情况报省公安厅治安总队备案，同时通报同级人民政府经贸委。']</t>
         </is>
